--- a/tests/Excel/AS4100_5_Shear Verification.xlsx
+++ b/tests/Excel/AS4100_5_Shear Verification.xlsx
@@ -1,24 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18201"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\seank\PycharmProjects\AS4100Library\AS4100 Modules\Verification\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\seank\PycharmProjects\BeamDesign\tests\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46DCC9D0-2242-43EF-A146-FEED9763F2E5}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11910"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11910" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="F_euler and N_euler" sheetId="10" r:id="rId1"/>
-    <sheet name="Nc" sheetId="3" r:id="rId2"/>
-    <sheet name="f_oxz" sheetId="4" r:id="rId3"/>
-    <sheet name="f_oc Double Symmetric" sheetId="5" r:id="rId4"/>
-    <sheet name="f_oc Single Symmetric" sheetId="6" r:id="rId5"/>
-    <sheet name="f_oc Point Symmetric" sheetId="8" r:id="rId6"/>
-    <sheet name="f_oc Unsymmetric" sheetId="9" r:id="rId7"/>
+    <sheet name="Welded Beams" sheetId="11" r:id="rId1"/>
+    <sheet name="F_euler and N_euler" sheetId="10" r:id="rId2"/>
+    <sheet name="Nc" sheetId="3" r:id="rId3"/>
+    <sheet name="f_oxz" sheetId="4" r:id="rId4"/>
+    <sheet name="f_oc Double Symmetric" sheetId="5" r:id="rId5"/>
+    <sheet name="f_oc Single Symmetric" sheetId="6" r:id="rId6"/>
+    <sheet name="f_oc Point Symmetric" sheetId="8" r:id="rId7"/>
+    <sheet name="f_oc Unsymmetric" sheetId="9" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="A_">#REF!</definedName>
@@ -33,17 +35,23 @@
     <definedName name="x_o">#REF!</definedName>
     <definedName name="y_o">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="782" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="900" uniqueCount="151">
   <si>
     <t>G</t>
   </si>
@@ -1302,12 +1310,511 @@
       <t>euler_x</t>
     </r>
   </si>
+  <si>
+    <t>Designation</t>
+  </si>
+  <si>
+    <t>Mass</t>
+  </si>
+  <si>
+    <t>Section Type</t>
+  </si>
+  <si>
+    <t>Fabrication Type</t>
+  </si>
+  <si>
+    <t>WB</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>Welded</t>
+  </si>
+  <si>
+    <t>1200WB423</t>
+  </si>
+  <si>
+    <t>1200WB392</t>
+  </si>
+  <si>
+    <t>1200WB342</t>
+  </si>
+  <si>
+    <t>1200WB317</t>
+  </si>
+  <si>
+    <t>1200WB278</t>
+  </si>
+  <si>
+    <t>1200WB249</t>
+  </si>
+  <si>
+    <t>1000WB322</t>
+  </si>
+  <si>
+    <t>1000WB296</t>
+  </si>
+  <si>
+    <t>1000WB258</t>
+  </si>
+  <si>
+    <t>1000WB215</t>
+  </si>
+  <si>
+    <t>900WB282</t>
+  </si>
+  <si>
+    <t>900WB257</t>
+  </si>
+  <si>
+    <t>900WB218</t>
+  </si>
+  <si>
+    <t>900WB175</t>
+  </si>
+  <si>
+    <t>800WB192</t>
+  </si>
+  <si>
+    <t>800WB168</t>
+  </si>
+  <si>
+    <t>800WB146</t>
+  </si>
+  <si>
+    <t>800WB122</t>
+  </si>
+  <si>
+    <t>700WB173</t>
+  </si>
+  <si>
+    <t>700WB150</t>
+  </si>
+  <si>
+    <t>700WB130</t>
+  </si>
+  <si>
+    <t>700WB115</t>
+  </si>
+  <si>
+    <r>
+      <t>b</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>f</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>t</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>f</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>t</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>w</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>d</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>d</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> / t</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>w</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>(b</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>f</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - t</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>w</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">) / (2 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>×</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> t</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>f</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>A</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>g</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>I</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>x</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Z</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>x</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>S</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>x</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>r</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>x</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>I</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>y</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Z</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>y</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>S</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>y</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>r</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>y</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>I</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>w</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>A</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>w</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>φ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>V</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>yield</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>f</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>y</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="19">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+  <numFmts count="22">
     <numFmt numFmtId="164" formatCode="0.00000"/>
     <numFmt numFmtId="165" formatCode="0.000000"/>
     <numFmt numFmtId="166" formatCode="0.0000"/>
@@ -1326,9 +1833,12 @@
     <numFmt numFmtId="179" formatCode="##0.00E+00&quot; m⁶&quot;"/>
     <numFmt numFmtId="180" formatCode="##0E+00&quot; Pa&quot;"/>
     <numFmt numFmtId="181" formatCode="##0.00E+00&quot; N&quot;"/>
-    <numFmt numFmtId="184" formatCode="##0.00E+00&quot; Pa&quot;"/>
+    <numFmt numFmtId="182" formatCode="##0.00E+00&quot; Pa&quot;"/>
+    <numFmt numFmtId="183" formatCode="0&quot; kg/m&quot;"/>
+    <numFmt numFmtId="187" formatCode="0.000&quot; m²&quot;"/>
+    <numFmt numFmtId="188" formatCode="##0.00E+00&quot; m³&quot;"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1409,8 +1919,37 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <vertAlign val="subscript"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <vertAlign val="subscript"/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1432,6 +1971,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1459,7 +2004,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="95">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1538,15 +2083,715 @@
     <xf numFmtId="181" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="180" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="181" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="184" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="184" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="184" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="184" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="182" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="182" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="182" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="182" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="183" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="176" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="168" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="187" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="178" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="188" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="179" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="180" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="217">
+  <dxfs count="243">
+    <dxf>
+      <numFmt numFmtId="181" formatCode="##0.00E+00&quot; N&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="180" formatCode="##0E+00&quot; Pa&quot;"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="179" formatCode="##0.00E+00&quot; m⁶&quot;"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="178" formatCode="##0.00E+00&quot; m⁴&quot;"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="0.000&quot; m&quot;"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="188" formatCode="##0.00E+00&quot; m³&quot;"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="188" formatCode="##0.00E+00&quot; m³&quot;"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="178" formatCode="##0.00E+00&quot; m⁴&quot;"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="0.000&quot; m&quot;"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="188" formatCode="##0.00E+00&quot; m³&quot;"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="188" formatCode="##0.00E+00&quot; m³&quot;"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="178" formatCode="##0.00E+00&quot; m⁴&quot;"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="187" formatCode="0.000&quot; m²&quot;"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="168" formatCode="0.0"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="168" formatCode="0.0"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="0.000&quot; m&quot;"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="0.000&quot; m&quot;"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="0.000&quot; m&quot;"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="0.000&quot; m&quot;"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="0.000&quot; m&quot;"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="183" formatCode="0&quot; kg/m&quot;"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="181" formatCode="##0.00E+00&quot; N&quot;"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="182" formatCode="##0.00E+00&quot; Pa&quot;"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="174" formatCode="0.00000E+00"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="182" formatCode="##0.00E+00&quot; Pa&quot;"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="174" formatCode="0.00000E+00"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="174" formatCode="0.00000E+00"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="174" formatCode="0.00000E+00"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="174" formatCode="0.00000E+00"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="174" formatCode="0.00000E+00"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="182" formatCode="##0.00E+00&quot; Pa&quot;"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="182" formatCode="##0.00E+00&quot; Pa&quot;"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="182" formatCode="##0.00E+00&quot; Pa&quot;"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="176" formatCode="0.000&quot; m&quot;"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="15" formatCode="0.00E+00"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="180" formatCode="##0E+00&quot; Pa&quot;"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="180" formatCode="##0E+00&quot; Pa&quot;"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="180" formatCode="##0E+00&quot; Pa&quot;"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="179" formatCode="##0.00E+00&quot; m⁶&quot;"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="178" formatCode="##0.00E+00&quot; m⁴&quot;"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -1739,6 +2984,31 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="167" formatCode="0.000"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
       <numFmt numFmtId="175" formatCode="0.000000&quot; m²&quot;"/>
       <fill>
         <patternFill patternType="solid">
@@ -1764,7 +3034,6 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="178" formatCode="##0.00E+00&quot; m⁴&quot;"/>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
@@ -1789,17 +3058,10 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="179" formatCode="##0.00E+00&quot; m⁶&quot;"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <font>
-        <b val="0"/>
+        <b/>
         <i val="0"/>
         <strike val="0"/>
         <condense val="0"/>
@@ -1814,332 +3076,6 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="180" formatCode="##0E+00&quot; Pa&quot;"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="15" formatCode="0.00E+00"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="180" formatCode="##0E+00&quot; Pa&quot;"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="180" formatCode="##0E+00&quot; Pa&quot;"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="176" formatCode="0.000&quot; m&quot;"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="184" formatCode="##0.00E+00&quot; Pa&quot;"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="174" formatCode="0.00000E+00"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="184" formatCode="##0.00E+00&quot; Pa&quot;"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="184" formatCode="##0.00E+00&quot; Pa&quot;"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="181" formatCode="##0.00E+00&quot; N&quot;"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="184" formatCode="##0.00E+00&quot; Pa&quot;"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="174" formatCode="0.00000E+00"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="184" formatCode="##0.00E+00&quot; Pa&quot;"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="174" formatCode="0.00000E+00"/>
     </dxf>
     <dxf>
       <font>
@@ -2166,6 +3102,19 @@
         <family val="2"/>
       </font>
       <numFmt numFmtId="180" formatCode="##0E+00&quot; Pa&quot;"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+      </font>
+      <numFmt numFmtId="173" formatCode="0.0000E+00"/>
     </dxf>
     <dxf>
       <font>
@@ -2205,6 +3154,31 @@
         <family val="2"/>
       </font>
       <numFmt numFmtId="176" formatCode="0.000&quot; m&quot;"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="15" formatCode="0.00E+00"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -2454,6 +3428,31 @@
     </dxf>
     <dxf>
       <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="167" formatCode="0.000"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
@@ -2470,6 +3469,48 @@
           <bgColor theme="4" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+      </font>
     </dxf>
     <dxf>
       <font>
@@ -2508,6 +3549,19 @@
         <name val="Calibri"/>
         <family val="2"/>
       </font>
+      <numFmt numFmtId="15" formatCode="0.00E+00"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+      </font>
       <numFmt numFmtId="180" formatCode="##0E+00&quot; Pa&quot;"/>
     </dxf>
     <dxf>
@@ -2528,6 +3582,31 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="180" formatCode="##0E+00&quot; Pa&quot;"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="15" formatCode="0.00E+00"/>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
@@ -2590,6 +3669,25 @@
         <name val="Calibri"/>
         <family val="2"/>
       </font>
+      <numFmt numFmtId="15" formatCode="0.00E+00"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+      </font>
       <numFmt numFmtId="180" formatCode="##0E+00&quot; Pa&quot;"/>
       <fill>
         <patternFill patternType="solid">
@@ -2629,6 +3727,30 @@
         <family val="2"/>
       </font>
       <numFmt numFmtId="176" formatCode="0.000&quot; m&quot;"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -2872,125 +3994,6 @@
     </dxf>
     <dxf>
       <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-      </font>
-      <numFmt numFmtId="175" formatCode="0.000000&quot; m²&quot;"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="174" formatCode="0.00000E+00"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="174" formatCode="0.00000E+00"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="174" formatCode="0.00000E+00"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="167" formatCode="0.000"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -3015,105 +4018,6 @@
     </dxf>
     <dxf>
       <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-      </font>
-      <numFmt numFmtId="173" formatCode="0.0000E+00"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="15" formatCode="0.00E+00"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="167" formatCode="0.000"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
@@ -3123,135 +4027,7 @@
         <name val="Calibri"/>
         <family val="2"/>
       </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-      </font>
-      <numFmt numFmtId="15" formatCode="0.00E+00"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="15" formatCode="0.00E+00"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-      </font>
-      <numFmt numFmtId="15" formatCode="0.00E+00"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
+      <numFmt numFmtId="175" formatCode="0.000000&quot; m²&quot;"/>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
@@ -5995,10 +6771,10 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="tblIntegral" pivot="0" count="3">
-      <tableStyleElement type="wholeTable" dxfId="216"/>
-      <tableStyleElement type="headerRow" dxfId="215"/>
-      <tableStyleElement type="secondRowStripe" dxfId="214"/>
+    <tableStyle name="tblIntegral" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
+      <tableStyleElement type="wholeTable" dxfId="242"/>
+      <tableStyleElement type="headerRow" dxfId="241"/>
+      <tableStyleElement type="secondRowStripe" dxfId="240"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -6019,45 +6795,84 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="tblEuler" displayName="tblEuler" ref="B2:AA57" totalsRowShown="0" headerRowDxfId="213" dataDxfId="212">
-  <autoFilter ref="B2:AA57"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{EDDEE4D4-895F-4D98-BD2B-A1595D136FE1}" name="Table8" displayName="Table8" ref="B2:AA25" totalsRowShown="0">
+  <autoFilter ref="B2:AA25" xr:uid="{0AC04653-982D-4DB0-97C0-530DC6DA1D7C}"/>
   <tableColumns count="26">
-    <tableColumn id="1" name="Section" dataDxfId="211"/>
-    <tableColumn id="2" name="An" dataDxfId="210"/>
-    <tableColumn id="3" name="kf" dataDxfId="209"/>
-    <tableColumn id="4" name="lex" dataDxfId="208"/>
-    <tableColumn id="5" name="ley" dataDxfId="207"/>
-    <tableColumn id="6" name="lez" dataDxfId="206"/>
-    <tableColumn id="7" name="rx" dataDxfId="205"/>
-    <tableColumn id="8" name="ry" dataDxfId="204"/>
-    <tableColumn id="9" name="xo" dataDxfId="203"/>
-    <tableColumn id="10" name="yo" dataDxfId="202"/>
-    <tableColumn id="22" name="Ix" dataDxfId="201"/>
-    <tableColumn id="21" name="Iy" dataDxfId="200"/>
-    <tableColumn id="11" name="J" dataDxfId="199"/>
-    <tableColumn id="12" name="Iw" dataDxfId="198"/>
-    <tableColumn id="13" name="fy" dataDxfId="197"/>
-    <tableColumn id="14" name="E" dataDxfId="196"/>
-    <tableColumn id="15" name="G" dataDxfId="195"/>
-    <tableColumn id="16" name="fref" dataDxfId="194"/>
-    <tableColumn id="17" name="αb" dataDxfId="193"/>
-    <tableColumn id="18" name="Axis" dataDxfId="192"/>
-    <tableColumn id="19" name="feuler_x" dataDxfId="191">
+    <tableColumn id="1" xr3:uid="{280EAB9D-68EA-4683-A885-68F041F7C696}" name="Section" dataDxfId="25"/>
+    <tableColumn id="2" xr3:uid="{607776AD-1CEA-4ABA-9EBB-6E7242760D55}" name="Designation" dataDxfId="24"/>
+    <tableColumn id="3" xr3:uid="{8B64A8C3-F92A-47F9-96F3-AA3D2FB57C71}" name="Mass" dataDxfId="23"/>
+    <tableColumn id="4" xr3:uid="{C3F54EAF-B082-4E92-89A4-EB922C48C2FD}" name="Section Type" dataDxfId="22"/>
+    <tableColumn id="5" xr3:uid="{099E95F4-155C-46BC-9B68-09B5DC82AC9E}" name="Fabrication Type" dataDxfId="21"/>
+    <tableColumn id="6" xr3:uid="{603611E8-32D2-418A-B7F1-7978728F31CE}" name="d" dataDxfId="20"/>
+    <tableColumn id="7" xr3:uid="{8C2BF6A8-8480-4D0B-8189-8DD35F84F37A}" name="bf" dataDxfId="19"/>
+    <tableColumn id="8" xr3:uid="{AF33BA8F-44DE-4FA5-B937-5086CFDD19FF}" name="tf" dataDxfId="18"/>
+    <tableColumn id="9" xr3:uid="{688540C0-5BD0-4CE3-8BC7-7345CE0E5749}" name="tw" dataDxfId="17"/>
+    <tableColumn id="10" xr3:uid="{1C612196-CED2-42B0-865A-D4E03216B7B7}" name="d1" dataDxfId="16"/>
+    <tableColumn id="11" xr3:uid="{4F3DA98F-ED30-4ACB-A515-75F8C0DC4843}" name="d1 / tw" dataDxfId="15"/>
+    <tableColumn id="12" xr3:uid="{22B64CBB-F443-44A9-9500-7B9BBDFB124B}" name="(bf - tw) / (2 × tf)" dataDxfId="14"/>
+    <tableColumn id="13" xr3:uid="{D4DF694A-4484-4C9F-9376-6A57C15AF617}" name="Ag" dataDxfId="13"/>
+    <tableColumn id="14" xr3:uid="{3724EE49-662E-4E0E-A37B-3ADE156496AD}" name="Ix" dataDxfId="12"/>
+    <tableColumn id="15" xr3:uid="{AD4648AD-343E-4A35-9246-69098C5044CC}" name="Zx" dataDxfId="11"/>
+    <tableColumn id="16" xr3:uid="{0ABFCF14-5F21-419A-9559-2CA91A10474B}" name="Sx" dataDxfId="10"/>
+    <tableColumn id="17" xr3:uid="{DC4F87E0-E5C6-4D73-A757-8F63BAF7554D}" name="rx" dataDxfId="9"/>
+    <tableColumn id="18" xr3:uid="{23E1E09C-910E-46AB-90C7-90D38D81B99E}" name="Iy" dataDxfId="8"/>
+    <tableColumn id="19" xr3:uid="{885B4339-7E0D-4B91-9FC6-5D81E2299F9C}" name="Zy" dataDxfId="7"/>
+    <tableColumn id="20" xr3:uid="{84C35746-536E-4B01-8256-14A9DCAB142B}" name="Sy" dataDxfId="6"/>
+    <tableColumn id="21" xr3:uid="{A7686837-B7AE-4BAE-88E2-6F9FAD730E01}" name="ry" dataDxfId="5"/>
+    <tableColumn id="22" xr3:uid="{767ED161-3BD1-4294-96E7-EF008EBAF27A}" name="J" dataDxfId="4"/>
+    <tableColumn id="23" xr3:uid="{4874CB8A-E902-4CEB-AEFF-C3681E512597}" name="Iw" dataDxfId="2"/>
+    <tableColumn id="26" xr3:uid="{4B448337-5DAD-4159-85BB-146825F8C228}" name="fy" dataDxfId="1"/>
+    <tableColumn id="24" xr3:uid="{473325F2-FF03-4C75-BD12-A70F0A6AA4F1}" name="Aw" dataDxfId="3">
+      <calculatedColumnFormula>Table8[[#This Row],[d1]]*Table8[[#This Row],[tw]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="25" xr3:uid="{98B29A8D-CA7E-401A-9966-485A14A8FF27}" name="φVyield" dataDxfId="0">
+      <calculatedColumnFormula>Table8[[#This Row],[Aw]]*Table8[[#This Row],[fy]]</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="tblIntegral" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="tblEuler" displayName="tblEuler" ref="B2:AA57" totalsRowShown="0" headerRowDxfId="239" dataDxfId="238">
+  <autoFilter ref="B2:AA57" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <tableColumns count="26">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Section" dataDxfId="237"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="An" dataDxfId="236"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="kf" dataDxfId="235"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="lex" dataDxfId="234"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="ley" dataDxfId="233"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="lez" dataDxfId="232"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="rx" dataDxfId="231"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="ry" dataDxfId="230"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="xo" dataDxfId="229"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="yo" dataDxfId="228"/>
+    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0000-000016000000}" name="Ix" dataDxfId="227"/>
+    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0000-000015000000}" name="Iy" dataDxfId="226"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="J" dataDxfId="225"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="Iw" dataDxfId="224"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="fy" dataDxfId="223"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="E" dataDxfId="222"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="G" dataDxfId="221"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="fref" dataDxfId="220"/>
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="αb" dataDxfId="219"/>
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="Axis" dataDxfId="218"/>
+    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0000-000013000000}" name="feuler_x" dataDxfId="217">
       <calculatedColumnFormula>(tblEuler[[#This Row],[E]]*PI()^2)/((tblEuler[[#This Row],[lex]]/tblEuler[[#This Row],[rx]])^2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="20" name="Neuler_x" dataDxfId="190">
+    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0000-000014000000}" name="Neuler_x" dataDxfId="216">
       <calculatedColumnFormula>(tblEuler[[#This Row],[Ix]]*tblEuler[[#This Row],[E]]*PI()^2)/(tblEuler[[#This Row],[lex]]^2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="23" name="Feuler_y" dataDxfId="189">
+    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0000-000017000000}" name="Feuler_y" dataDxfId="215">
       <calculatedColumnFormula>(tblEuler[[#This Row],[E]]*PI()^2)/((tblEuler[[#This Row],[ley]]/tblEuler[[#This Row],[ry]])^2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="24" name="Neuler_y" dataDxfId="188">
+    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0000-000018000000}" name="Neuler_y" dataDxfId="214">
       <calculatedColumnFormula>(tblEuler[[#This Row],[Iy]]*tblEuler[[#This Row],[E]]*PI()^2)/(tblEuler[[#This Row],[ley]]^2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="26" name="rol" dataDxfId="187">
+    <tableColumn id="26" xr3:uid="{00000000-0010-0000-0000-00001A000000}" name="rol" dataDxfId="213">
       <calculatedColumnFormula>SQRT(tblEuler[[#This Row],[rx]]^2+tblEuler[[#This Row],[ry]]^2+tblEuler[[#This Row],[xo]]^2+tblEuler[[#This Row],[yo]]^2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="25" name="Feuler_torsion" dataDxfId="186">
+    <tableColumn id="25" xr3:uid="{00000000-0010-0000-0000-000019000000}" name="Feuler_torsion" dataDxfId="212">
       <calculatedColumnFormula>((tblEuler[[#This Row],[G]]*tblEuler[[#This Row],[J]])/(tblEuler[[#This Row],[An]]*tblEuler[[#This Row],[rol]]^2))*(1+((tblEuler[[#This Row],[Iw]]*tblEuler[[#This Row],[E]]*PI()^2)/(tblEuler[[#This Row],[G]]*tblEuler[[#This Row],[J]]*tblEuler[[#This Row],[lez]]^2)))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -6065,128 +6880,128 @@
 </table>
 </file>
 
-<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="tblNc" displayName="tblNc" ref="B3:BB58" totalsRowShown="0" headerRowDxfId="185" dataDxfId="184">
-  <autoFilter ref="B3:BB58"/>
-  <sortState ref="B4:AL58">
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="tblNc" displayName="tblNc" ref="B3:BB58" totalsRowShown="0" headerRowDxfId="211" dataDxfId="210">
+  <autoFilter ref="B3:BB58" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B4:AL58">
     <sortCondition ref="B3:B58"/>
   </sortState>
   <tableColumns count="53">
-    <tableColumn id="1" name="Section" dataDxfId="183"/>
-    <tableColumn id="22" name="An" dataDxfId="182"/>
-    <tableColumn id="5" name="kf" dataDxfId="181"/>
-    <tableColumn id="51" name="l" dataDxfId="180"/>
-    <tableColumn id="50" name="kex" dataDxfId="179"/>
-    <tableColumn id="49" name="key" dataDxfId="178"/>
-    <tableColumn id="48" name="kez" dataDxfId="177"/>
-    <tableColumn id="3" name="rx" dataDxfId="176"/>
-    <tableColumn id="4" name="ry" dataDxfId="175"/>
-    <tableColumn id="32" name="xo" dataDxfId="174"/>
-    <tableColumn id="31" name="yo" dataDxfId="173"/>
-    <tableColumn id="36" name="J" dataDxfId="172"/>
-    <tableColumn id="35" name="Iw" dataDxfId="171"/>
-    <tableColumn id="6" name="fy" dataDxfId="170"/>
-    <tableColumn id="34" name="E" dataDxfId="169"/>
-    <tableColumn id="33" name="G" dataDxfId="168"/>
-    <tableColumn id="7" name="fref" dataDxfId="167"/>
-    <tableColumn id="8" name="αb" dataDxfId="166"/>
-    <tableColumn id="37" name="Axis" dataDxfId="165"/>
-    <tableColumn id="47" name="calc_buckle" dataDxfId="164"/>
-    <tableColumn id="46" name="calc_torsion" dataDxfId="163"/>
-    <tableColumn id="23" name="Ae" dataDxfId="162">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Section" dataDxfId="209"/>
+    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0100-000016000000}" name="An" dataDxfId="208"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="kf" dataDxfId="207"/>
+    <tableColumn id="51" xr3:uid="{00000000-0010-0000-0100-000033000000}" name="l" dataDxfId="206"/>
+    <tableColumn id="50" xr3:uid="{00000000-0010-0000-0100-000032000000}" name="kex" dataDxfId="205"/>
+    <tableColumn id="49" xr3:uid="{00000000-0010-0000-0100-000031000000}" name="key" dataDxfId="204"/>
+    <tableColumn id="48" xr3:uid="{00000000-0010-0000-0100-000030000000}" name="kez" dataDxfId="203"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="rx" dataDxfId="202"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="ry" dataDxfId="201"/>
+    <tableColumn id="32" xr3:uid="{00000000-0010-0000-0100-000020000000}" name="xo" dataDxfId="200"/>
+    <tableColumn id="31" xr3:uid="{00000000-0010-0000-0100-00001F000000}" name="yo" dataDxfId="199"/>
+    <tableColumn id="36" xr3:uid="{00000000-0010-0000-0100-000024000000}" name="J" dataDxfId="198"/>
+    <tableColumn id="35" xr3:uid="{00000000-0010-0000-0100-000023000000}" name="Iw" dataDxfId="197"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="fy" dataDxfId="196"/>
+    <tableColumn id="34" xr3:uid="{00000000-0010-0000-0100-000022000000}" name="E" dataDxfId="195"/>
+    <tableColumn id="33" xr3:uid="{00000000-0010-0000-0100-000021000000}" name="G" dataDxfId="194"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="fref" dataDxfId="193"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="αb" dataDxfId="192"/>
+    <tableColumn id="37" xr3:uid="{00000000-0010-0000-0100-000025000000}" name="Axis" dataDxfId="191"/>
+    <tableColumn id="47" xr3:uid="{00000000-0010-0000-0100-00002F000000}" name="calc_buckle" dataDxfId="190"/>
+    <tableColumn id="46" xr3:uid="{00000000-0010-0000-0100-00002E000000}" name="calc_torsion" dataDxfId="189"/>
+    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0100-000017000000}" name="Ae" dataDxfId="188">
       <calculatedColumnFormula>tblNc[[#This Row],[An]]*tblNc[[#This Row],[kf]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="24" name="Ns" dataDxfId="161">
+    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0100-000018000000}" name="Ns" dataDxfId="187">
       <calculatedColumnFormula>tblNc[[#This Row],[Ae]]*tblNc[[#This Row],[fy]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="29" name="φNs" dataDxfId="160">
+    <tableColumn id="29" xr3:uid="{00000000-0010-0000-0100-00001D000000}" name="φNs" dataDxfId="186">
       <calculatedColumnFormula>tblNc[[#This Row],[Ns]]*0.9</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="lex" dataDxfId="159">
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="lex" dataDxfId="185">
       <calculatedColumnFormula>tblNc[[#This Row],[l]]*tblNc[[#This Row],[kex]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="30" name="ley" dataDxfId="158">
+    <tableColumn id="30" xr3:uid="{00000000-0010-0000-0100-00001E000000}" name="ley" dataDxfId="184">
       <calculatedColumnFormula>tblNc[[#This Row],[l]]*tblNc[[#This Row],[key]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="21" name="lez" dataDxfId="157">
+    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0100-000015000000}" name="lez" dataDxfId="183">
       <calculatedColumnFormula>tblNc[[#This Row],[kez]]*tblNc[[#This Row],[l]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" name="λnx" dataDxfId="156">
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="λnx" dataDxfId="182">
       <calculatedColumnFormula>(tblNc[[#This Row],[lex]]/tblNc[[#This Row],[rx]])*(SQRT(tblNc[[#This Row],[kf]]))*SQRT((tblNc[[#This Row],[fy]]/tblNc[[#This Row],[fref]]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="αax" dataDxfId="155">
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="αax" dataDxfId="181">
       <calculatedColumnFormula>(2100*(tblNc[[#This Row],[λnx]]-13.5))/((tblNc[[#This Row],[λnx]]^2)-(15.3*tblNc[[#This Row],[λnx]])+2050)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" name="λx" dataDxfId="154">
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="λx" dataDxfId="180">
       <calculatedColumnFormula>tblNc[[#This Row],[λnx]]+tblNc[[#This Row],[αax]]*tblNc[[#This Row],[αb]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" name="ηx" dataDxfId="153">
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0100-00000C000000}" name="ηx" dataDxfId="179">
       <calculatedColumnFormula>MAX((0.00326*(tblNc[[#This Row],[λx]]-13.5)),0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" name="ξx" dataDxfId="152">
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0100-00000D000000}" name="ξx" dataDxfId="178">
       <calculatedColumnFormula>((tblNc[[#This Row],[λx]]/90)^2+1+tblNc[[#This Row],[ηx]])/(2*(tblNc[[#This Row],[λx]]/90)^2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" name="αcx" dataDxfId="151">
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0100-00000E000000}" name="αcx" dataDxfId="177">
       <calculatedColumnFormula>tblNc[[#This Row],[ξx]]*(1-SQRT(1-(90/(tblNc[[#This Row],[ξx]]*tblNc[[#This Row],[λx]]))^2))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="26" name="Ncx" dataDxfId="150">
+    <tableColumn id="26" xr3:uid="{00000000-0010-0000-0100-00001A000000}" name="Ncx" dataDxfId="176">
       <calculatedColumnFormula>tblNc[[#This Row],[αcx]]*tblNc[[#This Row],[Ns]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="53" name="φNcx" dataDxfId="149">
+    <tableColumn id="53" xr3:uid="{00000000-0010-0000-0100-000035000000}" name="φNcx" dataDxfId="175">
       <calculatedColumnFormula>tblNc[[#This Row],[Ncx]]*0.9</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" name="λny" dataDxfId="148">
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0100-00000F000000}" name="λny" dataDxfId="174">
       <calculatedColumnFormula>(tblNc[[#This Row],[lex]]/tblNc[[#This Row],[ry]])*(SQRT(tblNc[[#This Row],[kf]]))*SQRT((tblNc[[#This Row],[fy]]/tblNc[[#This Row],[fref]]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" name="αay" dataDxfId="147">
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0100-000010000000}" name="αay" dataDxfId="173">
       <calculatedColumnFormula>(2100*(tblNc[[#This Row],[λny]]-13.5))/((tblNc[[#This Row],[λny]]^2)-(15.3*tblNc[[#This Row],[λny]])+2050)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="17" name="λy" dataDxfId="146">
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0100-000011000000}" name="λy" dataDxfId="172">
       <calculatedColumnFormula>tblNc[[#This Row],[λny]]+tblNc[[#This Row],[αay]]*tblNc[[#This Row],[αb]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="18" name="ηy" dataDxfId="145">
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0100-000012000000}" name="ηy" dataDxfId="171">
       <calculatedColumnFormula>MAX((0.00326*(tblNc[[#This Row],[λy]]-13.5)),0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="19" name="ξy" dataDxfId="144">
+    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0100-000013000000}" name="ξy" dataDxfId="170">
       <calculatedColumnFormula>((tblNc[[#This Row],[λy]]/90)^2+1+tblNc[[#This Row],[ηy]])/(2*(tblNc[[#This Row],[λy]]/90)^2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="20" name="αcy" dataDxfId="143">
+    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0100-000014000000}" name="αcy" dataDxfId="169">
       <calculatedColumnFormula>tblNc[[#This Row],[ξy]]*(1-SQRT(1-(90/(tblNc[[#This Row],[ξy]]*tblNc[[#This Row],[λy]]))^2))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="25" name="Ncy" dataDxfId="142">
+    <tableColumn id="25" xr3:uid="{00000000-0010-0000-0100-000019000000}" name="Ncy" dataDxfId="168">
       <calculatedColumnFormula>tblNc[[#This Row],[αcy]]*tblNc[[#This Row],[Ns]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="52" name="φNcy" dataDxfId="141">
+    <tableColumn id="52" xr3:uid="{00000000-0010-0000-0100-000034000000}" name="φNcy" dataDxfId="167">
       <calculatedColumnFormula>tblNc[[#This Row],[Ncy]]*0.9</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="27" name="Ncflex" dataDxfId="140">
+    <tableColumn id="27" xr3:uid="{00000000-0010-0000-0100-00001B000000}" name="Ncflex" dataDxfId="166">
       <calculatedColumnFormula>MIN(tblNc[[#This Row],[Ncy]],tblNc[[#This Row],[Ncx]],tblNc[[#This Row],[Ns]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="28" name="φNcflex" dataDxfId="139">
+    <tableColumn id="28" xr3:uid="{00000000-0010-0000-0100-00001C000000}" name="φNcflex" dataDxfId="165">
       <calculatedColumnFormula>tblNc[[#This Row],[Ncflex]]*0.9</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="38" name="Ncz_dbl" dataDxfId="138">
+    <tableColumn id="38" xr3:uid="{00000000-0010-0000-0100-000026000000}" name="Ncz_dbl" dataDxfId="164">
       <calculatedColumnFormula array="1">INDEX(tblfocDblSym[Nc],MATCH(tblNc[[#This Row],[Section]]&amp;tblNc[[#This Row],[lex]],tblfocDblSym[Section]&amp;tblfocDblSym[lex],0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="39" name="Ncz_sngl" dataDxfId="137">
+    <tableColumn id="39" xr3:uid="{00000000-0010-0000-0100-000027000000}" name="Ncz_sngl" dataDxfId="163">
       <calculatedColumnFormula array="1">INDEX(tblfocSglSym[Nc],MATCH(tblNc[[#This Row],[Section]]&amp;tblNc[[#This Row],[lex]],tblfocSglSym[Section]&amp;tblfocSglSym[lex],0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="41" name="Ncz_un" dataDxfId="136">
+    <tableColumn id="41" xr3:uid="{00000000-0010-0000-0100-000029000000}" name="Ncz_un" dataDxfId="162">
       <calculatedColumnFormula array="1">INDEX(tblfocunsym[Nc],MATCH(tblNc[[#This Row],[Section]]&amp;tblNc[[#This Row],[lex]],tblfocunsym[Section]&amp;tblfocunsym[lex],0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="42" name="Ncz_base" dataDxfId="135">
+    <tableColumn id="42" xr3:uid="{00000000-0010-0000-0100-00002A000000}" name="Ncz_base" dataDxfId="161">
       <calculatedColumnFormula>IF(tblNc[[#This Row],[Axis]]="['x', 'y']",tblNc[[#This Row],[Ncz_dbl]],IF(tblNc[[#This Row],[Axis]]="[]",tblNc[[#This Row],[Ncz_un]],tblNc[[#This Row],[Ncz_sngl]]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="45" name="Ncz" dataDxfId="134">
+    <tableColumn id="45" xr3:uid="{00000000-0010-0000-0100-00002D000000}" name="Ncz" dataDxfId="160">
       <calculatedColumnFormula>MIN(tblNc[[#This Row],[Ncz_base]],tblNc[[#This Row],[Ns]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="43" name="φNcz" dataDxfId="133">
+    <tableColumn id="43" xr3:uid="{00000000-0010-0000-0100-00002B000000}" name="φNcz" dataDxfId="159">
       <calculatedColumnFormula>tblNc[[#This Row],[Ncz]]*0.9</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="40" name="Nc" dataDxfId="132">
+    <tableColumn id="40" xr3:uid="{00000000-0010-0000-0100-000028000000}" name="Nc" dataDxfId="158">
       <calculatedColumnFormula>MIN(tblNc[[#This Row],[Ncflex]],tblNc[[#This Row],[Ncz]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="44" name="φNc" dataDxfId="131">
+    <tableColumn id="44" xr3:uid="{00000000-0010-0000-0100-00002C000000}" name="φNc" dataDxfId="157">
       <calculatedColumnFormula>tblNc[[#This Row],[Nc]]*0.9</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -6194,35 +7009,35 @@
 </table>
 </file>
 
-<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="tblfoxz" displayName="tblfoxz" ref="B2:R57" totalsRowShown="0" headerRowDxfId="130" dataDxfId="129">
-  <autoFilter ref="B2:R57"/>
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="tblfoxz" displayName="tblfoxz" ref="B2:R57" totalsRowShown="0" headerRowDxfId="156" dataDxfId="155">
+  <autoFilter ref="B2:R57" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="17">
-    <tableColumn id="1" name="Section" dataDxfId="128"/>
-    <tableColumn id="18" name="An" dataDxfId="127"/>
-    <tableColumn id="14" name="lex" dataDxfId="126"/>
-    <tableColumn id="19" name="lez" dataDxfId="125"/>
-    <tableColumn id="12" name="rx" dataDxfId="124"/>
-    <tableColumn id="11" name="ry" dataDxfId="123"/>
-    <tableColumn id="7" name="xo" dataDxfId="122"/>
-    <tableColumn id="10" name="yo" dataDxfId="121"/>
-    <tableColumn id="17" name="J" dataDxfId="120"/>
-    <tableColumn id="20" name="Iw" dataDxfId="119"/>
-    <tableColumn id="13" name="E" dataDxfId="118"/>
-    <tableColumn id="16" name="G" dataDxfId="117"/>
-    <tableColumn id="6" name="rol" dataDxfId="116">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Section" dataDxfId="154"/>
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0200-000012000000}" name="An" dataDxfId="153"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0200-00000E000000}" name="lex" dataDxfId="152"/>
+    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0200-000013000000}" name="lez" dataDxfId="151"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0200-00000C000000}" name="rx" dataDxfId="150"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0200-00000B000000}" name="ry" dataDxfId="149"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0200-000007000000}" name="xo" dataDxfId="148"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0200-00000A000000}" name="yo" dataDxfId="147"/>
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0200-000011000000}" name="J" dataDxfId="146"/>
+    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0200-000014000000}" name="Iw" dataDxfId="145"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0200-00000D000000}" name="E" dataDxfId="144"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0200-000010000000}" name="G" dataDxfId="143"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0200-000006000000}" name="rol" dataDxfId="142">
       <calculatedColumnFormula>SQRT(tblfoxz[[#This Row],[rx]]^2+tblfoxz[[#This Row],[ry]]^2+tblfoxz[[#This Row],[xo]]^2+tblfoxz[[#This Row],[yo]]^2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="fox" dataDxfId="115">
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="fox" dataDxfId="141">
       <calculatedColumnFormula>(tblfoxz[[#This Row],[E]]*PI()^2)/((tblfoxz[[#This Row],[lex]]/tblfoxz[[#This Row],[rx]])^2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="foz" dataDxfId="114">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="foz" dataDxfId="140">
       <calculatedColumnFormula>((tblfoxz[[#This Row],[G]]*tblfoxz[[#This Row],[J]])/(tblfoxz[[#This Row],[An]]*tblfoxz[[#This Row],[rol]]^2))*(1+((tblfoxz[[#This Row],[Iw]]*tblfoxz[[#This Row],[E]]*PI()^2)/(tblfoxz[[#This Row],[G]]*tblfoxz[[#This Row],[J]]*tblfoxz[[#This Row],[lez]]^2)))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="β" dataDxfId="113">
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="β" dataDxfId="139">
       <calculatedColumnFormula>1-(tblfoxz[[#This Row],[xo]]/tblfoxz[[#This Row],[rol]])^2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" name="f_oxz" dataDxfId="112">
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="f_oxz" dataDxfId="138">
       <calculatedColumnFormula>(1/(2*tblfoxz[[#This Row],[β]]))*((tblfoxz[[#This Row],[fox]]+tblfoxz[[#This Row],[foz]])-SQRT((tblfoxz[[#This Row],[fox]]+tblfoxz[[#This Row],[foz]])^2-4*tblfoxz[[#This Row],[β]]*tblfoxz[[#This Row],[fox]]*tblfoxz[[#This Row],[foz]]))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -6230,51 +7045,51 @@
 </table>
 </file>
 
-<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="tblfocDblSym" displayName="tblfocDblSym" ref="B2:Z22" totalsRowShown="0" headerRowDxfId="111" dataDxfId="110">
-  <autoFilter ref="B2:Z22"/>
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="tblfocDblSym" displayName="tblfocDblSym" ref="B2:Z22" totalsRowShown="0" headerRowDxfId="137" dataDxfId="136">
+  <autoFilter ref="B2:Z22" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
   <tableColumns count="25">
-    <tableColumn id="1" name="Section" dataDxfId="109"/>
-    <tableColumn id="18" name="An" dataDxfId="108"/>
-    <tableColumn id="23" name="kf" dataDxfId="107"/>
-    <tableColumn id="14" name="lex" dataDxfId="106"/>
-    <tableColumn id="25" name="ley" dataDxfId="105"/>
-    <tableColumn id="19" name="lez" dataDxfId="104"/>
-    <tableColumn id="12" name="rx" dataDxfId="103"/>
-    <tableColumn id="11" name="ry" dataDxfId="102"/>
-    <tableColumn id="7" name="xo" dataDxfId="101"/>
-    <tableColumn id="10" name="yo" dataDxfId="100"/>
-    <tableColumn id="17" name="J" dataDxfId="99"/>
-    <tableColumn id="20" name="Iw" dataDxfId="98"/>
-    <tableColumn id="8" name="fy" dataDxfId="97"/>
-    <tableColumn id="13" name="E" dataDxfId="96"/>
-    <tableColumn id="16" name="G" dataDxfId="95"/>
-    <tableColumn id="24" name="Axis" dataDxfId="94"/>
-    <tableColumn id="6" name="rol" dataDxfId="93">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="Section" dataDxfId="135"/>
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0300-000012000000}" name="An" dataDxfId="134"/>
+    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0300-000017000000}" name="kf" dataDxfId="133"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0300-00000E000000}" name="lex" dataDxfId="132"/>
+    <tableColumn id="25" xr3:uid="{00000000-0010-0000-0300-000019000000}" name="ley" dataDxfId="131"/>
+    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0300-000013000000}" name="lez" dataDxfId="130"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0300-00000C000000}" name="rx" dataDxfId="129"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0300-00000B000000}" name="ry" dataDxfId="128"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0300-000007000000}" name="xo" dataDxfId="127"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0300-00000A000000}" name="yo" dataDxfId="126"/>
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0300-000011000000}" name="J" dataDxfId="125"/>
+    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0300-000014000000}" name="Iw" dataDxfId="124"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0300-000008000000}" name="fy" dataDxfId="123"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0300-00000D000000}" name="E" dataDxfId="122"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0300-000010000000}" name="G" dataDxfId="121"/>
+    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0300-000018000000}" name="Axis" dataDxfId="120"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0300-000006000000}" name="rol" dataDxfId="119">
       <calculatedColumnFormula>SQRT(tblfocDblSym[[#This Row],[rx]]^2+tblfocDblSym[[#This Row],[ry]]^2+tblfocDblSym[[#This Row],[xo]]^2+tblfocDblSym[[#This Row],[yo]]^2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="fox" dataDxfId="92">
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="fox" dataDxfId="118">
       <calculatedColumnFormula>(tblfocDblSym[[#This Row],[E]]*PI()^2)/((tblfocDblSym[[#This Row],[lex]]/tblfocDblSym[[#This Row],[rx]])^2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="foz" dataDxfId="91">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="foz" dataDxfId="117">
       <calculatedColumnFormula>((tblfocDblSym[[#This Row],[G]]*tblfocDblSym[[#This Row],[J]])/(tblfocDblSym[[#This Row],[An]]*tblfocDblSym[[#This Row],[rol]]^2))*(1+((tblfocDblSym[[#This Row],[Iw]]*tblfocDblSym[[#This Row],[E]]*PI()^2)/(tblfocDblSym[[#This Row],[G]]*tblfocDblSym[[#This Row],[J]]*tblfocDblSym[[#This Row],[lez]]^2)))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="β" dataDxfId="90">
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="β" dataDxfId="116">
       <calculatedColumnFormula>1-(tblfocDblSym[[#This Row],[xo]]/tblfocDblSym[[#This Row],[rol]])^2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" name="foxz" dataDxfId="89">
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0300-000005000000}" name="foxz" dataDxfId="115">
       <calculatedColumnFormula>(1/(2*tblfocDblSym[[#This Row],[β]]))*((tblfocDblSym[[#This Row],[fox]]+tblfocDblSym[[#This Row],[foz]])-SQRT((tblfocDblSym[[#This Row],[fox]]+tblfocDblSym[[#This Row],[foz]])^2-4*tblfocDblSym[[#This Row],[β]]*tblfocDblSym[[#This Row],[fox]]*tblfocDblSym[[#This Row],[foz]]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="21" name="foc" dataDxfId="88">
+    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0300-000015000000}" name="foc" dataDxfId="114">
       <calculatedColumnFormula>MIN(tblfocDblSym[[#This Row],[foxz]],tblfocDblSym[[#This Row],[foz]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" name="λc" dataDxfId="87">
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0300-000009000000}" name="λc" dataDxfId="113">
       <calculatedColumnFormula>SQRT(tblfocDblSym[[#This Row],[fy]]/tblfocDblSym[[#This Row],[foc]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" name="fn" dataDxfId="86">
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0300-00000F000000}" name="fn" dataDxfId="112">
       <calculatedColumnFormula>IF(tblfocDblSym[[#This Row],[λc]]&lt;=1.5,0.658^(tblfocDblSym[[#This Row],[λc]]^2),0.877/(tblfocDblSym[[#This Row],[λc]]^2))*tblfocDblSym[[#This Row],[fy]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="22" name="Nc" dataDxfId="85">
+    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0300-000016000000}" name="Nc" dataDxfId="111">
       <calculatedColumnFormula>0.85*tblfocDblSym[[#This Row],[An]]*tblfocDblSym[[#This Row],[kf]]*tblfocDblSym[[#This Row],[fn]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -6282,63 +7097,63 @@
 </table>
 </file>
 
-<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="tblfocSglSym" displayName="tblfocSglSym" ref="B2:AC31" totalsRowShown="0" headerRowDxfId="84" dataDxfId="83">
-  <autoFilter ref="B2:AC31"/>
-  <sortState ref="B3:AC31">
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="tblfocSglSym" displayName="tblfocSglSym" ref="B2:AC31" totalsRowShown="0" headerRowDxfId="110" dataDxfId="109">
+  <autoFilter ref="B2:AC31" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:AC31">
     <sortCondition ref="B2:B31"/>
   </sortState>
   <tableColumns count="28">
-    <tableColumn id="1" name="Section" dataDxfId="82"/>
-    <tableColumn id="18" name="An" dataDxfId="63"/>
-    <tableColumn id="8" name="kf" dataDxfId="81"/>
-    <tableColumn id="14" name="lex" dataDxfId="62"/>
-    <tableColumn id="22" name="ley" dataDxfId="61"/>
-    <tableColumn id="19" name="lez" dataDxfId="60"/>
-    <tableColumn id="12" name="rx" dataDxfId="59"/>
-    <tableColumn id="11" name="ry" dataDxfId="58"/>
-    <tableColumn id="7" name="xo" dataDxfId="57"/>
-    <tableColumn id="10" name="yo" dataDxfId="56"/>
-    <tableColumn id="17" name="J" dataDxfId="55"/>
-    <tableColumn id="20" name="Iw" dataDxfId="54"/>
-    <tableColumn id="9" name="fy" dataDxfId="53"/>
-    <tableColumn id="13" name="E" dataDxfId="52"/>
-    <tableColumn id="16" name="G" dataDxfId="51"/>
-    <tableColumn id="21" name="Axis" dataDxfId="80"/>
-    <tableColumn id="6" name="rol" dataDxfId="50">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="Section" dataDxfId="108"/>
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0400-000012000000}" name="An" dataDxfId="107"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0400-000008000000}" name="kf" dataDxfId="106"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0400-00000E000000}" name="lex" dataDxfId="105"/>
+    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0400-000016000000}" name="ley" dataDxfId="104"/>
+    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0400-000013000000}" name="lez" dataDxfId="103"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0400-00000C000000}" name="rx" dataDxfId="102"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0400-00000B000000}" name="ry" dataDxfId="101"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0400-000007000000}" name="xo" dataDxfId="100"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0400-00000A000000}" name="yo" dataDxfId="99"/>
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0400-000011000000}" name="J" dataDxfId="98"/>
+    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0400-000014000000}" name="Iw" dataDxfId="97"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0400-000009000000}" name="fy" dataDxfId="96"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0400-00000D000000}" name="E" dataDxfId="95"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0400-000010000000}" name="G" dataDxfId="94"/>
+    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0400-000015000000}" name="Axis" dataDxfId="93"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0400-000006000000}" name="rol" dataDxfId="92">
       <calculatedColumnFormula>SQRT(tblfocSglSym[[#This Row],[rx]]^2+tblfocSglSym[[#This Row],[ry]]^2+tblfocSglSym[[#This Row],[xo]]^2+tblfocSglSym[[#This Row],[yo]]^2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="foz" dataDxfId="49">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0400-000003000000}" name="foz" dataDxfId="91">
       <calculatedColumnFormula>((tblfocSglSym[[#This Row],[G]]*tblfocSglSym[[#This Row],[J]])/(tblfocSglSym[[#This Row],[An]]*tblfocSglSym[[#This Row],[rol]]^2))*(1+((tblfocSglSym[[#This Row],[Iw]]*tblfocSglSym[[#This Row],[E]]*PI()^2)/(tblfocSglSym[[#This Row],[G]]*tblfocSglSym[[#This Row],[J]]*tblfocSglSym[[#This Row],[lez]]^2)))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="fox_x" dataDxfId="48">
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="fox_x" dataDxfId="90">
       <calculatedColumnFormula>(tblfocSglSym[[#This Row],[E]]*PI()^2)/((tblfocSglSym[[#This Row],[lex]]/tblfocSglSym[[#This Row],[rx]])^2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="βx" dataDxfId="79">
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0400-000004000000}" name="βx" dataDxfId="89">
       <calculatedColumnFormula>1-(tblfocSglSym[[#This Row],[xo]]/tblfocSglSym[[#This Row],[rol]])^2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" name="foxz_x" dataDxfId="47">
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0400-000005000000}" name="foxz_x" dataDxfId="88">
       <calculatedColumnFormula>(1/(2*tblfocSglSym[[#This Row],[βx]]))*((tblfocSglSym[[#This Row],[fox_x]]+tblfocSglSym[[#This Row],[foz]])-SQRT((tblfocSglSym[[#This Row],[fox_x]]+tblfocSglSym[[#This Row],[foz]])^2-4*tblfocSglSym[[#This Row],[βx]]*tblfocSglSym[[#This Row],[fox_x]]*tblfocSglSym[[#This Row],[foz]]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="29" name="fox_y" dataDxfId="46">
+    <tableColumn id="29" xr3:uid="{00000000-0010-0000-0400-00001D000000}" name="fox_y" dataDxfId="87">
       <calculatedColumnFormula>(tblfocSglSym[[#This Row],[E]]*PI()^2)/((tblfocSglSym[[#This Row],[ley]]/tblfocSglSym[[#This Row],[ry]])^2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="27" name="βy" dataDxfId="78">
+    <tableColumn id="27" xr3:uid="{00000000-0010-0000-0400-00001B000000}" name="βy" dataDxfId="86">
       <calculatedColumnFormula>1-(tblfocSglSym[[#This Row],[yo]]/tblfocSglSym[[#This Row],[rol]])^2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="26" name="foxz_y" dataDxfId="45">
+    <tableColumn id="26" xr3:uid="{00000000-0010-0000-0400-00001A000000}" name="foxz_y" dataDxfId="85">
       <calculatedColumnFormula>(1/(2*tblfocSglSym[[#This Row],[βy]]))*((tblfocSglSym[[#This Row],[fox_y]]+tblfocSglSym[[#This Row],[foz]])-SQRT((tblfocSglSym[[#This Row],[fox_y]]+tblfocSglSym[[#This Row],[foz]])^2-4*tblfocSglSym[[#This Row],[βy]]*tblfocSglSym[[#This Row],[fox_y]]*tblfocSglSym[[#This Row],[foz]]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="23" name="foc" dataDxfId="44">
+    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0400-000017000000}" name="foc" dataDxfId="84">
       <calculatedColumnFormula>IF(tblfocSglSym[[#This Row],[Axis]]="['x']",tblfocSglSym[[#This Row],[foxz_x]],tblfocSglSym[[#This Row],[foxz_y]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" name="λc" dataDxfId="77">
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0400-00000F000000}" name="λc" dataDxfId="83">
       <calculatedColumnFormula>SQRT(tblfocSglSym[[#This Row],[fy]]/tblfocSglSym[[#This Row],[foc]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="24" name="fn" dataDxfId="43">
+    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0400-000018000000}" name="fn" dataDxfId="82">
       <calculatedColumnFormula>IF(tblfocSglSym[[#This Row],[λc]]&lt;=1.5,0.658^(tblfocSglSym[[#This Row],[λc]]^2),0.877/(tblfocSglSym[[#This Row],[λc]]^2))*tblfocSglSym[[#This Row],[fy]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="25" name="Nc" dataDxfId="42">
+    <tableColumn id="25" xr3:uid="{00000000-0010-0000-0400-000019000000}" name="Nc" dataDxfId="81">
       <calculatedColumnFormula>0.85*tblfocSglSym[[#This Row],[An]]*tblfocSglSym[[#This Row],[kf]]*tblfocSglSym[[#This Row],[fn]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -6346,45 +7161,45 @@
 </table>
 </file>
 
-<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="tblfocpntsym" displayName="tblfocpntsym" ref="B2:W51" totalsRowShown="0" headerRowDxfId="76" dataDxfId="75">
-  <autoFilter ref="B2:W51"/>
-  <sortState ref="B3:W59">
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="tblfocpntsym" displayName="tblfocpntsym" ref="B2:W51" totalsRowShown="0" headerRowDxfId="80" dataDxfId="79">
+  <autoFilter ref="B2:W51" xr:uid="{00000000-0009-0000-0100-000006000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:W59">
     <sortCondition ref="B2:B59"/>
   </sortState>
   <tableColumns count="22">
-    <tableColumn id="1" name="Section" dataDxfId="74"/>
-    <tableColumn id="18" name="An" dataDxfId="41"/>
-    <tableColumn id="8" name="kf" dataDxfId="73"/>
-    <tableColumn id="15" name="lex" dataDxfId="40"/>
-    <tableColumn id="14" name="ley" dataDxfId="39"/>
-    <tableColumn id="19" name="lez" dataDxfId="38"/>
-    <tableColumn id="12" name="rx" dataDxfId="37"/>
-    <tableColumn id="11" name="ry" dataDxfId="36"/>
-    <tableColumn id="7" name="xo" dataDxfId="35"/>
-    <tableColumn id="10" name="yo" dataDxfId="34"/>
-    <tableColumn id="17" name="J" dataDxfId="33"/>
-    <tableColumn id="20" name="Iw" dataDxfId="32"/>
-    <tableColumn id="9" name="fy" dataDxfId="31"/>
-    <tableColumn id="13" name="E" dataDxfId="30"/>
-    <tableColumn id="16" name="G" dataDxfId="29"/>
-    <tableColumn id="21" name="Axis" dataDxfId="72"/>
-    <tableColumn id="6" name="rol" dataDxfId="28">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0500-000001000000}" name="Section" dataDxfId="78"/>
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0500-000012000000}" name="An" dataDxfId="77"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0500-000008000000}" name="kf" dataDxfId="76"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0500-00000F000000}" name="lex" dataDxfId="75"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0500-00000E000000}" name="ley" dataDxfId="74"/>
+    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0500-000013000000}" name="lez" dataDxfId="73"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0500-00000C000000}" name="rx" dataDxfId="72"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0500-00000B000000}" name="ry" dataDxfId="71"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0500-000007000000}" name="xo" dataDxfId="70"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0500-00000A000000}" name="yo" dataDxfId="69"/>
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0500-000011000000}" name="J" dataDxfId="68"/>
+    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0500-000014000000}" name="Iw" dataDxfId="67"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0500-000009000000}" name="fy" dataDxfId="66"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0500-00000D000000}" name="E" dataDxfId="65"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0500-000010000000}" name="G" dataDxfId="64"/>
+    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0500-000015000000}" name="Axis" dataDxfId="63"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0500-000006000000}" name="rol" dataDxfId="62">
       <calculatedColumnFormula>SQRT(tblfocpntsym[[#This Row],[rx]]^2+tblfocpntsym[[#This Row],[ry]]^2+tblfocpntsym[[#This Row],[xo]]^2+tblfocpntsym[[#This Row],[yo]]^2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="foz" dataDxfId="27">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0500-000003000000}" name="foz" dataDxfId="61">
       <calculatedColumnFormula>((tblfocpntsym[[#This Row],[G]]*tblfocpntsym[[#This Row],[J]])/(tblfocpntsym[[#This Row],[An]]*tblfocpntsym[[#This Row],[rol]]^2))*(1+((tblfocpntsym[[#This Row],[Iw]]*tblfocpntsym[[#This Row],[E]]*PI()^2)/(tblfocpntsym[[#This Row],[G]]*tblfocpntsym[[#This Row],[J]]*tblfocpntsym[[#This Row],[lez]]^2)))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="24" name="foc" dataDxfId="26">
+    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0500-000018000000}" name="foc" dataDxfId="60">
       <calculatedColumnFormula>tblfocpntsym[[#This Row],[foz]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="λc" dataDxfId="71">
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0500-000002000000}" name="λc" dataDxfId="59">
       <calculatedColumnFormula>SQRT(tblfocpntsym[[#This Row],[fy]]/tblfocpntsym[[#This Row],[foc]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="fn" dataDxfId="25">
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0500-000004000000}" name="fn" dataDxfId="58">
       <calculatedColumnFormula>IF(tblfocpntsym[[#This Row],[λc]]&lt;=1.5,0.658^(tblfocpntsym[[#This Row],[λc]]^2),0.877/(tblfocpntsym[[#This Row],[λc]]^2))*tblfocpntsym[[#This Row],[fy]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" name="Nc" dataDxfId="24">
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0500-000005000000}" name="Nc" dataDxfId="57">
       <calculatedColumnFormula>0.85*tblfocpntsym[[#This Row],[An]]*tblfocpntsym[[#This Row],[kf]]*tblfocpntsym[[#This Row],[fn]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -6392,64 +7207,64 @@
 </table>
 </file>
 
-<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="tblfocunsym" displayName="tblfocunsym" ref="B2:AD57" totalsRowShown="0" headerRowDxfId="70" dataDxfId="69">
-  <autoFilter ref="B2:AD57"/>
-  <sortState ref="B3:AD57">
+<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{00000000-000C-0000-FFFF-FFFF06000000}" name="tblfocunsym" displayName="tblfocunsym" ref="B2:AD57" totalsRowShown="0" headerRowDxfId="56" dataDxfId="55">
+  <autoFilter ref="B2:AD57" xr:uid="{00000000-0009-0000-0100-000007000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:AD57">
     <sortCondition ref="B2:B57"/>
   </sortState>
   <tableColumns count="29">
-    <tableColumn id="1" name="Section" dataDxfId="68"/>
-    <tableColumn id="4" name="An" dataDxfId="7"/>
-    <tableColumn id="25" name="kf" dataDxfId="67"/>
-    <tableColumn id="7" name="lex" dataDxfId="6"/>
-    <tableColumn id="8" name="ley" dataDxfId="5"/>
-    <tableColumn id="9" name="lez" dataDxfId="4"/>
-    <tableColumn id="10" name="rx" dataDxfId="3"/>
-    <tableColumn id="11" name="ry" dataDxfId="2"/>
-    <tableColumn id="12" name="xo" dataDxfId="1"/>
-    <tableColumn id="13" name="yo" dataDxfId="0"/>
-    <tableColumn id="5" name="J" dataDxfId="8"/>
-    <tableColumn id="6" name="Iw" dataDxfId="9"/>
-    <tableColumn id="26" name="fy" dataDxfId="13"/>
-    <tableColumn id="2" name="E" dataDxfId="12"/>
-    <tableColumn id="3" name="G" dataDxfId="10"/>
-    <tableColumn id="30" name="Axis" dataDxfId="11"/>
-    <tableColumn id="14" name="rol" dataDxfId="14">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0600-000001000000}" name="Section" dataDxfId="54"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0600-000004000000}" name="An" dataDxfId="53"/>
+    <tableColumn id="25" xr3:uid="{00000000-0010-0000-0600-000019000000}" name="kf" dataDxfId="52"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0600-000007000000}" name="lex" dataDxfId="51"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0600-000008000000}" name="ley" dataDxfId="50"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0600-000009000000}" name="lez" dataDxfId="49"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0600-00000A000000}" name="rx" dataDxfId="48"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0600-00000B000000}" name="ry" dataDxfId="47"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0600-00000C000000}" name="xo" dataDxfId="46"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0600-00000D000000}" name="yo" dataDxfId="45"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0600-000005000000}" name="J" dataDxfId="44"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0600-000006000000}" name="Iw" dataDxfId="43"/>
+    <tableColumn id="26" xr3:uid="{00000000-0010-0000-0600-00001A000000}" name="fy" dataDxfId="42"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0600-000002000000}" name="E" dataDxfId="41"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0600-000003000000}" name="G" dataDxfId="40"/>
+    <tableColumn id="30" xr3:uid="{00000000-0010-0000-0600-00001E000000}" name="Axis" dataDxfId="39"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0600-00000E000000}" name="rol" dataDxfId="38">
       <calculatedColumnFormula>SQRT(tblfocunsym[[#This Row],[rx]]^2+tblfocunsym[[#This Row],[ry]]^2+tblfocunsym[[#This Row],[xo]]^2+tblfocunsym[[#This Row],[yo]]^2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="17" name="fox" dataDxfId="18">
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0600-000011000000}" name="fox" dataDxfId="37">
       <calculatedColumnFormula>(tblfocunsym[[#This Row],[E]]*PI()^2)/((tblfocunsym[[#This Row],[lex]]/tblfocunsym[[#This Row],[rx]])^2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" name="foy" dataDxfId="17">
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0600-000010000000}" name="foy" dataDxfId="36">
       <calculatedColumnFormula>(tblfocunsym[[#This Row],[E]]*PI()^2)/((tblfocunsym[[#This Row],[ley]]/tblfocunsym[[#This Row],[ry]])^2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" name="foz" dataDxfId="15">
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0600-00000F000000}" name="foz" dataDxfId="35">
       <calculatedColumnFormula>((tblfocunsym[[#This Row],[G]]*tblfocunsym[[#This Row],[J]])/(tblfocunsym[[#This Row],[An]]*tblfocunsym[[#This Row],[rol]]^2))*(1+((tblfocunsym[[#This Row],[Iw]]*tblfocunsym[[#This Row],[E]]*PI()^2)/(tblfocunsym[[#This Row],[G]]*tblfocunsym[[#This Row],[J]]*tblfocunsym[[#This Row],[lez]]^2)))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="18" name="a" dataDxfId="16">
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0600-000012000000}" name="a" dataDxfId="34">
       <calculatedColumnFormula>((tblfocunsym[[#This Row],[rol]]^2)-((tblfocunsym[[#This Row],[xo]]^2)*(tblfocunsym[[#This Row],[yo]]^2)))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="19" name="b" dataDxfId="66">
+    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0600-000013000000}" name="b" dataDxfId="33">
       <calculatedColumnFormula>((tblfocunsym[[#This Row],[rol]]^2)*(tblfocunsym[[#This Row],[fox]]+tblfocunsym[[#This Row],[foy]]+tblfocunsym[[#This Row],[foz]])-((tblfocunsym[[#This Row],[foy]]*(tblfocunsym[[#This Row],[xo]]^2))+(tblfocunsym[[#This Row],[fox]]*(tblfocunsym[[#This Row],[yo]]^2))))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="20" name="c" dataDxfId="65">
+    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0600-000014000000}" name="c" dataDxfId="32">
       <calculatedColumnFormula>((tblfocunsym[[#This Row],[fox]]*tblfocunsym[[#This Row],[foy]])+(tblfocunsym[[#This Row],[foy]]*tblfocunsym[[#This Row],[foz]])+(tblfocunsym[[#This Row],[fox]]*tblfocunsym[[#This Row],[foz]]))*(tblfocunsym[[#This Row],[rol]]^2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="21" name="d" dataDxfId="64">
+    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0600-000015000000}" name="d" dataDxfId="31">
       <calculatedColumnFormula>tblfocunsym[[#This Row],[fox]]*tblfocunsym[[#This Row],[foy]]*tblfocunsym[[#This Row],[foz]]*tblfocunsym[[#This Row],[rol]]*tblfocunsym[[#This Row],[rol]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="23" name="eqn" dataDxfId="23">
+    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0600-000017000000}" name="eqn" dataDxfId="30">
       <calculatedColumnFormula>tblfocunsym[[#This Row],[a]]*tblfocunsym[[#This Row],[foc]]^3-tblfocunsym[[#This Row],[b]]*tblfocunsym[[#This Row],[foc]]^2+tblfocunsym[[#This Row],[c]]*tblfocunsym[[#This Row],[foc]]-tblfocunsym[[#This Row],[d]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="24" name="foc" dataDxfId="22"/>
-    <tableColumn id="27" name="λc" dataDxfId="21">
+    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0600-000018000000}" name="foc" dataDxfId="29"/>
+    <tableColumn id="27" xr3:uid="{00000000-0010-0000-0600-00001B000000}" name="λc" dataDxfId="28">
       <calculatedColumnFormula>SQRT(tblfocunsym[[#This Row],[fy]]/tblfocunsym[[#This Row],[foc]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="28" name="fn" dataDxfId="20">
+    <tableColumn id="28" xr3:uid="{00000000-0010-0000-0600-00001C000000}" name="fn" dataDxfId="27">
       <calculatedColumnFormula>IF(tblfocunsym[[#This Row],[λc]]&lt;=1.5,0.658^(tblfocunsym[[#This Row],[λc]]^2),0.877/(tblfocunsym[[#This Row],[λc]]^2))*tblfocunsym[[#This Row],[fy]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="29" name="Nc" dataDxfId="19">
+    <tableColumn id="29" xr3:uid="{00000000-0010-0000-0600-00001D000000}" name="Nc" dataDxfId="26">
       <calculatedColumnFormula>0.85*tblfocunsym[[#This Row],[An]]*tblfocunsym[[#This Row],[kf]]*tblfocunsym[[#This Row],[fn]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -6753,10 +7568,2012 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B07B9FFD-D534-4711-893F-11708AF69116}">
+  <dimension ref="B2:AA27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="AA3" sqref="AA3:AA25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="13" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" customWidth="1"/>
+    <col min="6" max="6" width="17" customWidth="1"/>
+    <col min="13" max="13" width="17.42578125" customWidth="1"/>
+    <col min="14" max="14" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="17" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="13.42578125" customWidth="1"/>
+    <col min="27" max="27" width="10.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:27" ht="18" x14ac:dyDescent="0.35">
+      <c r="B2" s="83" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="84" t="s">
+        <v>103</v>
+      </c>
+      <c r="D2" s="83" t="s">
+        <v>104</v>
+      </c>
+      <c r="E2" s="83" t="s">
+        <v>105</v>
+      </c>
+      <c r="F2" s="83" t="s">
+        <v>106</v>
+      </c>
+      <c r="G2" s="83" t="s">
+        <v>42</v>
+      </c>
+      <c r="H2" s="83" t="s">
+        <v>132</v>
+      </c>
+      <c r="I2" s="83" t="s">
+        <v>133</v>
+      </c>
+      <c r="J2" s="83" t="s">
+        <v>134</v>
+      </c>
+      <c r="K2" s="83" t="s">
+        <v>135</v>
+      </c>
+      <c r="L2" s="83" t="s">
+        <v>136</v>
+      </c>
+      <c r="M2" s="83" t="s">
+        <v>137</v>
+      </c>
+      <c r="N2" s="83" t="s">
+        <v>138</v>
+      </c>
+      <c r="O2" s="83" t="s">
+        <v>139</v>
+      </c>
+      <c r="P2" s="83" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q2" s="83" t="s">
+        <v>141</v>
+      </c>
+      <c r="R2" s="83" t="s">
+        <v>142</v>
+      </c>
+      <c r="S2" s="83" t="s">
+        <v>143</v>
+      </c>
+      <c r="T2" s="83" t="s">
+        <v>144</v>
+      </c>
+      <c r="U2" s="83" t="s">
+        <v>145</v>
+      </c>
+      <c r="V2" s="83" t="s">
+        <v>146</v>
+      </c>
+      <c r="W2" s="83" t="s">
+        <v>2</v>
+      </c>
+      <c r="X2" s="83" t="s">
+        <v>147</v>
+      </c>
+      <c r="Y2" s="83" t="s">
+        <v>150</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>148</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="3" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B3" s="85" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="85" t="s">
+        <v>107</v>
+      </c>
+      <c r="D3" s="86">
+        <v>455</v>
+      </c>
+      <c r="E3" s="85" t="s">
+        <v>108</v>
+      </c>
+      <c r="F3" s="85" t="s">
+        <v>109</v>
+      </c>
+      <c r="G3" s="87">
+        <v>1.2</v>
+      </c>
+      <c r="H3" s="87">
+        <v>0.5</v>
+      </c>
+      <c r="I3" s="87">
+        <v>0.04</v>
+      </c>
+      <c r="J3" s="87">
+        <v>1.6E-2</v>
+      </c>
+      <c r="K3" s="87">
+        <v>1.1199999999999999</v>
+      </c>
+      <c r="L3" s="88">
+        <v>69.999999999999986</v>
+      </c>
+      <c r="M3" s="88">
+        <v>6.05</v>
+      </c>
+      <c r="N3" s="89">
+        <v>5.79E-2</v>
+      </c>
+      <c r="O3" s="90">
+        <v>1.5299999999999999E-2</v>
+      </c>
+      <c r="P3" s="91">
+        <v>2.5600000000000001E-2</v>
+      </c>
+      <c r="Q3" s="91">
+        <v>2.8199999999999999E-2</v>
+      </c>
+      <c r="R3" s="87">
+        <v>0.51500000000000001</v>
+      </c>
+      <c r="S3" s="90">
+        <v>8.34E-4</v>
+      </c>
+      <c r="T3" s="91">
+        <v>3.3300000000000001E-3</v>
+      </c>
+      <c r="U3" s="91">
+        <v>5.0699999999999999E-3</v>
+      </c>
+      <c r="V3" s="87">
+        <v>0.51500000000000001</v>
+      </c>
+      <c r="W3" s="90">
+        <v>2.1999999999999999E-5</v>
+      </c>
+      <c r="X3" s="92">
+        <v>2.7999999999999998E-4</v>
+      </c>
+      <c r="Y3" s="93">
+        <v>250000000</v>
+      </c>
+      <c r="Z3">
+        <f>Table8[[#This Row],[d1]]*Table8[[#This Row],[tw]]</f>
+        <v>1.7919999999999998E-2</v>
+      </c>
+      <c r="AA3" s="94">
+        <f>Table8[[#This Row],[Aw]]*Table8[[#This Row],[fy]]</f>
+        <v>4480000</v>
+      </c>
+    </row>
+    <row r="4" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B4" s="85" t="s">
+        <v>110</v>
+      </c>
+      <c r="C4" s="85" t="s">
+        <v>107</v>
+      </c>
+      <c r="D4" s="86">
+        <v>423</v>
+      </c>
+      <c r="E4" s="85" t="s">
+        <v>108</v>
+      </c>
+      <c r="F4" s="85" t="s">
+        <v>109</v>
+      </c>
+      <c r="G4" s="87">
+        <v>1.1919999999999999</v>
+      </c>
+      <c r="H4" s="87">
+        <v>0.5</v>
+      </c>
+      <c r="I4" s="87">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="J4" s="87">
+        <v>1.6E-2</v>
+      </c>
+      <c r="K4" s="87">
+        <v>1.1199999999999999</v>
+      </c>
+      <c r="L4" s="88">
+        <v>69.999999999999986</v>
+      </c>
+      <c r="M4" s="88">
+        <v>6.7222222222222223</v>
+      </c>
+      <c r="N4" s="89">
+        <v>5.3900000000000003E-2</v>
+      </c>
+      <c r="O4" s="90">
+        <v>1.3899999999999999E-2</v>
+      </c>
+      <c r="P4" s="91">
+        <v>2.3300000000000001E-2</v>
+      </c>
+      <c r="Q4" s="91">
+        <v>2.58E-2</v>
+      </c>
+      <c r="R4" s="87">
+        <v>0.50800000000000001</v>
+      </c>
+      <c r="S4" s="90">
+        <v>7.5000000000000002E-4</v>
+      </c>
+      <c r="T4" s="91">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="U4" s="91">
+        <v>4.5700000000000003E-3</v>
+      </c>
+      <c r="V4" s="87">
+        <v>0.50800000000000001</v>
+      </c>
+      <c r="W4" s="90">
+        <v>1.6500000000000001E-5</v>
+      </c>
+      <c r="X4" s="92">
+        <v>2.5099999999999998E-4</v>
+      </c>
+      <c r="Y4" s="93">
+        <v>250000000</v>
+      </c>
+      <c r="Z4">
+        <f>Table8[[#This Row],[d1]]*Table8[[#This Row],[tw]]</f>
+        <v>1.7919999999999998E-2</v>
+      </c>
+      <c r="AA4" s="94">
+        <f>Table8[[#This Row],[Aw]]*Table8[[#This Row],[fy]]</f>
+        <v>4480000</v>
+      </c>
+    </row>
+    <row r="5" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B5" s="85" t="s">
+        <v>111</v>
+      </c>
+      <c r="C5" s="85" t="s">
+        <v>107</v>
+      </c>
+      <c r="D5" s="86">
+        <v>392</v>
+      </c>
+      <c r="E5" s="85" t="s">
+        <v>108</v>
+      </c>
+      <c r="F5" s="85" t="s">
+        <v>109</v>
+      </c>
+      <c r="G5" s="87">
+        <v>1.1839999999999999</v>
+      </c>
+      <c r="H5" s="87">
+        <v>0.5</v>
+      </c>
+      <c r="I5" s="87">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="J5" s="87">
+        <v>1.6E-2</v>
+      </c>
+      <c r="K5" s="87">
+        <v>1.1199999999999999</v>
+      </c>
+      <c r="L5" s="88">
+        <v>69.999999999999986</v>
+      </c>
+      <c r="M5" s="88">
+        <v>7.5625</v>
+      </c>
+      <c r="N5" s="89">
+        <v>4.99E-2</v>
+      </c>
+      <c r="O5" s="90">
+        <v>1.2500000000000001E-2</v>
+      </c>
+      <c r="P5" s="91">
+        <v>2.1100000000000001E-2</v>
+      </c>
+      <c r="Q5" s="91">
+        <v>2.3400000000000001E-2</v>
+      </c>
+      <c r="R5" s="87">
+        <v>0.5</v>
+      </c>
+      <c r="S5" s="90">
+        <v>6.6699999999999995E-4</v>
+      </c>
+      <c r="T5" s="91">
+        <v>2.6700000000000001E-3</v>
+      </c>
+      <c r="U5" s="91">
+        <v>4.0699999999999998E-3</v>
+      </c>
+      <c r="V5" s="87">
+        <v>0.5</v>
+      </c>
+      <c r="W5" s="90">
+        <v>1.2099999999999999E-5</v>
+      </c>
+      <c r="X5" s="92">
+        <v>2.2100000000000001E-4</v>
+      </c>
+      <c r="Y5" s="93">
+        <v>250000000</v>
+      </c>
+      <c r="Z5">
+        <f>Table8[[#This Row],[d1]]*Table8[[#This Row],[tw]]</f>
+        <v>1.7919999999999998E-2</v>
+      </c>
+      <c r="AA5" s="94">
+        <f>Table8[[#This Row],[Aw]]*Table8[[#This Row],[fy]]</f>
+        <v>4480000</v>
+      </c>
+    </row>
+    <row r="6" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B6" s="85" t="s">
+        <v>112</v>
+      </c>
+      <c r="C6" s="85" t="s">
+        <v>107</v>
+      </c>
+      <c r="D6" s="86">
+        <v>342</v>
+      </c>
+      <c r="E6" s="85" t="s">
+        <v>108</v>
+      </c>
+      <c r="F6" s="85" t="s">
+        <v>109</v>
+      </c>
+      <c r="G6" s="87">
+        <v>1.1839999999999999</v>
+      </c>
+      <c r="H6" s="87">
+        <v>0.4</v>
+      </c>
+      <c r="I6" s="87">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="J6" s="87">
+        <v>1.6E-2</v>
+      </c>
+      <c r="K6" s="87">
+        <v>1.1199999999999999</v>
+      </c>
+      <c r="L6" s="88">
+        <v>69.999999999999986</v>
+      </c>
+      <c r="M6" s="88">
+        <v>6</v>
+      </c>
+      <c r="N6" s="89">
+        <v>4.3499999999999997E-2</v>
+      </c>
+      <c r="O6" s="90">
+        <v>1.04E-2</v>
+      </c>
+      <c r="P6" s="91">
+        <v>1.7500000000000002E-2</v>
+      </c>
+      <c r="Q6" s="91">
+        <v>1.9800000000000002E-2</v>
+      </c>
+      <c r="R6" s="87">
+        <v>0.48799999999999999</v>
+      </c>
+      <c r="S6" s="90">
+        <v>3.4200000000000002E-4</v>
+      </c>
+      <c r="T6" s="91">
+        <v>1.7099999999999999E-3</v>
+      </c>
+      <c r="U6" s="91">
+        <v>2.63E-3</v>
+      </c>
+      <c r="V6" s="87">
+        <v>0.48799999999999999</v>
+      </c>
+      <c r="W6" s="90">
+        <v>9.9599999999999995E-6</v>
+      </c>
+      <c r="X6" s="92">
+        <v>1.13E-4</v>
+      </c>
+      <c r="Y6" s="93">
+        <v>250000000</v>
+      </c>
+      <c r="Z6">
+        <f>Table8[[#This Row],[d1]]*Table8[[#This Row],[tw]]</f>
+        <v>1.7919999999999998E-2</v>
+      </c>
+      <c r="AA6" s="94">
+        <f>Table8[[#This Row],[Aw]]*Table8[[#This Row],[fy]]</f>
+        <v>4480000</v>
+      </c>
+    </row>
+    <row r="7" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B7" s="85" t="s">
+        <v>113</v>
+      </c>
+      <c r="C7" s="85" t="s">
+        <v>107</v>
+      </c>
+      <c r="D7" s="86">
+        <v>317</v>
+      </c>
+      <c r="E7" s="85" t="s">
+        <v>108</v>
+      </c>
+      <c r="F7" s="85" t="s">
+        <v>109</v>
+      </c>
+      <c r="G7" s="87">
+        <v>1.1759999999999999</v>
+      </c>
+      <c r="H7" s="87">
+        <v>0.4</v>
+      </c>
+      <c r="I7" s="87">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="J7" s="87">
+        <v>1.6E-2</v>
+      </c>
+      <c r="K7" s="87">
+        <v>1.1199999999999999</v>
+      </c>
+      <c r="L7" s="88">
+        <v>69.999999999999986</v>
+      </c>
+      <c r="M7" s="88">
+        <v>6.8571428571428568</v>
+      </c>
+      <c r="N7" s="89">
+        <v>4.0300000000000002E-2</v>
+      </c>
+      <c r="O7" s="90">
+        <v>9.2499999999999995E-3</v>
+      </c>
+      <c r="P7" s="91">
+        <v>1.5699999999999999E-2</v>
+      </c>
+      <c r="Q7" s="91">
+        <v>1.7899999999999999E-2</v>
+      </c>
+      <c r="R7" s="87">
+        <v>0.47899999999999998</v>
+      </c>
+      <c r="S7" s="90">
+        <v>2.99E-4</v>
+      </c>
+      <c r="T7" s="91">
+        <v>1.5E-3</v>
+      </c>
+      <c r="U7" s="91">
+        <v>2.31E-3</v>
+      </c>
+      <c r="V7" s="87">
+        <v>0.47899999999999998</v>
+      </c>
+      <c r="W7" s="90">
+        <v>7.2300000000000002E-6</v>
+      </c>
+      <c r="X7" s="92">
+        <v>9.8499999999999995E-5</v>
+      </c>
+      <c r="Y7" s="93">
+        <v>250000000</v>
+      </c>
+      <c r="Z7">
+        <f>Table8[[#This Row],[d1]]*Table8[[#This Row],[tw]]</f>
+        <v>1.7919999999999998E-2</v>
+      </c>
+      <c r="AA7" s="94">
+        <f>Table8[[#This Row],[Aw]]*Table8[[#This Row],[fy]]</f>
+        <v>4480000</v>
+      </c>
+    </row>
+    <row r="8" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B8" s="85" t="s">
+        <v>114</v>
+      </c>
+      <c r="C8" s="85" t="s">
+        <v>107</v>
+      </c>
+      <c r="D8" s="86">
+        <v>278</v>
+      </c>
+      <c r="E8" s="85" t="s">
+        <v>108</v>
+      </c>
+      <c r="F8" s="85" t="s">
+        <v>109</v>
+      </c>
+      <c r="G8" s="87">
+        <v>1.17</v>
+      </c>
+      <c r="H8" s="87">
+        <v>0.35</v>
+      </c>
+      <c r="I8" s="87">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="J8" s="87">
+        <v>1.6E-2</v>
+      </c>
+      <c r="K8" s="87">
+        <v>1.1199999999999999</v>
+      </c>
+      <c r="L8" s="88">
+        <v>69.999999999999986</v>
+      </c>
+      <c r="M8" s="88">
+        <v>6.6799999999999988</v>
+      </c>
+      <c r="N8" s="89">
+        <v>3.5400000000000001E-2</v>
+      </c>
+      <c r="O8" s="90">
+        <v>7.6099999999999996E-3</v>
+      </c>
+      <c r="P8" s="91">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="Q8" s="91">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="R8" s="87">
+        <v>0.46400000000000002</v>
+      </c>
+      <c r="S8" s="90">
+        <v>1.7899999999999999E-4</v>
+      </c>
+      <c r="T8" s="91">
+        <v>1.0200000000000001E-3</v>
+      </c>
+      <c r="U8" s="91">
+        <v>1.6000000000000001E-3</v>
+      </c>
+      <c r="V8" s="87">
+        <v>0.46400000000000002</v>
+      </c>
+      <c r="W8" s="90">
+        <v>5.0900000000000004E-6</v>
+      </c>
+      <c r="X8" s="92">
+        <v>5.8699999999999997E-5</v>
+      </c>
+      <c r="Y8" s="93">
+        <v>250000000</v>
+      </c>
+      <c r="Z8">
+        <f>Table8[[#This Row],[d1]]*Table8[[#This Row],[tw]]</f>
+        <v>1.7919999999999998E-2</v>
+      </c>
+      <c r="AA8" s="94">
+        <f>Table8[[#This Row],[Aw]]*Table8[[#This Row],[fy]]</f>
+        <v>4480000</v>
+      </c>
+    </row>
+    <row r="9" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B9" s="85" t="s">
+        <v>115</v>
+      </c>
+      <c r="C9" s="85" t="s">
+        <v>107</v>
+      </c>
+      <c r="D9" s="86">
+        <v>249</v>
+      </c>
+      <c r="E9" s="85" t="s">
+        <v>108</v>
+      </c>
+      <c r="F9" s="85" t="s">
+        <v>109</v>
+      </c>
+      <c r="G9" s="87">
+        <v>1.17</v>
+      </c>
+      <c r="H9" s="87">
+        <v>0.27500000000000002</v>
+      </c>
+      <c r="I9" s="87">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="J9" s="87">
+        <v>1.6E-2</v>
+      </c>
+      <c r="K9" s="87">
+        <v>1.1199999999999999</v>
+      </c>
+      <c r="L9" s="88">
+        <v>69.999999999999986</v>
+      </c>
+      <c r="M9" s="88">
+        <v>5.18</v>
+      </c>
+      <c r="N9" s="89">
+        <v>3.1699999999999999E-2</v>
+      </c>
+      <c r="O9" s="90">
+        <v>6.3800000000000003E-3</v>
+      </c>
+      <c r="P9" s="91">
+        <v>1.09E-2</v>
+      </c>
+      <c r="Q9" s="91">
+        <v>1.29E-2</v>
+      </c>
+      <c r="R9" s="87">
+        <v>0.44900000000000001</v>
+      </c>
+      <c r="S9" s="90">
+        <v>8.7000000000000001E-5</v>
+      </c>
+      <c r="T9" s="91">
+        <v>6.3299999999999999E-4</v>
+      </c>
+      <c r="U9" s="91">
+        <v>1.0200000000000001E-3</v>
+      </c>
+      <c r="V9" s="87">
+        <v>0.44900000000000001</v>
+      </c>
+      <c r="W9" s="90">
+        <v>4.3100000000000002E-6</v>
+      </c>
+      <c r="X9" s="92">
+        <v>2.8500000000000002E-5</v>
+      </c>
+      <c r="Y9" s="93">
+        <v>250000000</v>
+      </c>
+      <c r="Z9">
+        <f>Table8[[#This Row],[d1]]*Table8[[#This Row],[tw]]</f>
+        <v>1.7919999999999998E-2</v>
+      </c>
+      <c r="AA9" s="94">
+        <f>Table8[[#This Row],[Aw]]*Table8[[#This Row],[fy]]</f>
+        <v>4480000</v>
+      </c>
+    </row>
+    <row r="10" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B10" s="85" t="s">
+        <v>116</v>
+      </c>
+      <c r="C10" s="85" t="s">
+        <v>107</v>
+      </c>
+      <c r="D10" s="86">
+        <v>322</v>
+      </c>
+      <c r="E10" s="85" t="s">
+        <v>108</v>
+      </c>
+      <c r="F10" s="85" t="s">
+        <v>109</v>
+      </c>
+      <c r="G10" s="87">
+        <v>1.024</v>
+      </c>
+      <c r="H10" s="87">
+        <v>0.4</v>
+      </c>
+      <c r="I10" s="87">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="J10" s="87">
+        <v>1.6E-2</v>
+      </c>
+      <c r="K10" s="87">
+        <v>0.96</v>
+      </c>
+      <c r="L10" s="88">
+        <v>60</v>
+      </c>
+      <c r="M10" s="88">
+        <v>6</v>
+      </c>
+      <c r="N10" s="89">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="O10" s="90">
+        <v>7.4799999999999997E-3</v>
+      </c>
+      <c r="P10" s="91">
+        <v>1.46E-2</v>
+      </c>
+      <c r="Q10" s="91">
+        <v>1.6400000000000001E-2</v>
+      </c>
+      <c r="R10" s="87">
+        <v>0.42699999999999999</v>
+      </c>
+      <c r="S10" s="90">
+        <v>3.4200000000000002E-4</v>
+      </c>
+      <c r="T10" s="91">
+        <v>1.7099999999999999E-3</v>
+      </c>
+      <c r="U10" s="91">
+        <v>2.6199999999999999E-3</v>
+      </c>
+      <c r="V10" s="87">
+        <v>0.42699999999999999</v>
+      </c>
+      <c r="W10" s="90">
+        <v>9.7399999999999999E-6</v>
+      </c>
+      <c r="X10" s="92">
+        <v>8.4099999999999998E-5</v>
+      </c>
+      <c r="Y10" s="93">
+        <v>250000000</v>
+      </c>
+      <c r="Z10">
+        <f>Table8[[#This Row],[d1]]*Table8[[#This Row],[tw]]</f>
+        <v>1.536E-2</v>
+      </c>
+      <c r="AA10" s="94">
+        <f>Table8[[#This Row],[Aw]]*Table8[[#This Row],[fy]]</f>
+        <v>3840000</v>
+      </c>
+    </row>
+    <row r="11" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B11" s="85" t="s">
+        <v>117</v>
+      </c>
+      <c r="C11" s="85" t="s">
+        <v>107</v>
+      </c>
+      <c r="D11" s="86">
+        <v>296</v>
+      </c>
+      <c r="E11" s="85" t="s">
+        <v>108</v>
+      </c>
+      <c r="F11" s="85" t="s">
+        <v>109</v>
+      </c>
+      <c r="G11" s="87">
+        <v>1.016</v>
+      </c>
+      <c r="H11" s="87">
+        <v>0.4</v>
+      </c>
+      <c r="I11" s="87">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="J11" s="87">
+        <v>1.6E-2</v>
+      </c>
+      <c r="K11" s="87">
+        <v>0.96</v>
+      </c>
+      <c r="L11" s="88">
+        <v>60</v>
+      </c>
+      <c r="M11" s="88">
+        <v>6.8571428571428568</v>
+      </c>
+      <c r="N11" s="89">
+        <v>3.78E-2</v>
+      </c>
+      <c r="O11" s="90">
+        <v>6.6499999999999997E-3</v>
+      </c>
+      <c r="P11" s="91">
+        <v>1.3100000000000001E-2</v>
+      </c>
+      <c r="Q11" s="91">
+        <v>1.4800000000000001E-2</v>
+      </c>
+      <c r="R11" s="87">
+        <v>0.42</v>
+      </c>
+      <c r="S11" s="90">
+        <v>2.99E-4</v>
+      </c>
+      <c r="T11" s="91">
+        <v>1.49E-3</v>
+      </c>
+      <c r="U11" s="91">
+        <v>2.3E-3</v>
+      </c>
+      <c r="V11" s="87">
+        <v>0.42</v>
+      </c>
+      <c r="W11" s="90">
+        <v>7.0099999999999998E-6</v>
+      </c>
+      <c r="X11" s="92">
+        <v>7.2999999999999999E-5</v>
+      </c>
+      <c r="Y11" s="93">
+        <v>250000000</v>
+      </c>
+      <c r="Z11">
+        <f>Table8[[#This Row],[d1]]*Table8[[#This Row],[tw]]</f>
+        <v>1.536E-2</v>
+      </c>
+      <c r="AA11" s="94">
+        <f>Table8[[#This Row],[Aw]]*Table8[[#This Row],[fy]]</f>
+        <v>3840000</v>
+      </c>
+    </row>
+    <row r="12" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B12" s="85" t="s">
+        <v>118</v>
+      </c>
+      <c r="C12" s="85" t="s">
+        <v>107</v>
+      </c>
+      <c r="D12" s="86">
+        <v>258</v>
+      </c>
+      <c r="E12" s="85" t="s">
+        <v>108</v>
+      </c>
+      <c r="F12" s="85" t="s">
+        <v>109</v>
+      </c>
+      <c r="G12" s="87">
+        <v>1.01</v>
+      </c>
+      <c r="H12" s="87">
+        <v>0.35</v>
+      </c>
+      <c r="I12" s="87">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="J12" s="87">
+        <v>1.6E-2</v>
+      </c>
+      <c r="K12" s="87">
+        <v>0.96</v>
+      </c>
+      <c r="L12" s="88">
+        <v>60</v>
+      </c>
+      <c r="M12" s="88">
+        <v>6.6799999999999988</v>
+      </c>
+      <c r="N12" s="89">
+        <v>3.2899999999999999E-2</v>
+      </c>
+      <c r="O12" s="90">
+        <v>5.4299999999999999E-3</v>
+      </c>
+      <c r="P12" s="91">
+        <v>1.0699999999999999E-2</v>
+      </c>
+      <c r="Q12" s="91">
+        <v>1.23E-2</v>
+      </c>
+      <c r="R12" s="87">
+        <v>0.40600000000000003</v>
+      </c>
+      <c r="S12" s="90">
+        <v>1.7899999999999999E-4</v>
+      </c>
+      <c r="T12" s="91">
+        <v>1.0200000000000001E-3</v>
+      </c>
+      <c r="U12" s="91">
+        <v>1.5900000000000001E-3</v>
+      </c>
+      <c r="V12" s="87">
+        <v>0.40600000000000003</v>
+      </c>
+      <c r="W12" s="90">
+        <v>4.87E-6</v>
+      </c>
+      <c r="X12" s="92">
+        <v>4.3399999999999998E-5</v>
+      </c>
+      <c r="Y12" s="93">
+        <v>250000000</v>
+      </c>
+      <c r="Z12">
+        <f>Table8[[#This Row],[d1]]*Table8[[#This Row],[tw]]</f>
+        <v>1.536E-2</v>
+      </c>
+      <c r="AA12" s="94">
+        <f>Table8[[#This Row],[Aw]]*Table8[[#This Row],[fy]]</f>
+        <v>3840000</v>
+      </c>
+    </row>
+    <row r="13" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B13" s="85" t="s">
+        <v>119</v>
+      </c>
+      <c r="C13" s="85" t="s">
+        <v>107</v>
+      </c>
+      <c r="D13" s="86">
+        <v>215</v>
+      </c>
+      <c r="E13" s="85" t="s">
+        <v>108</v>
+      </c>
+      <c r="F13" s="85" t="s">
+        <v>109</v>
+      </c>
+      <c r="G13" s="87">
+        <v>1</v>
+      </c>
+      <c r="H13" s="87">
+        <v>0.3</v>
+      </c>
+      <c r="I13" s="87">
+        <v>0.02</v>
+      </c>
+      <c r="J13" s="87">
+        <v>1.6E-2</v>
+      </c>
+      <c r="K13" s="87">
+        <v>0.96</v>
+      </c>
+      <c r="L13" s="88">
+        <v>60</v>
+      </c>
+      <c r="M13" s="88">
+        <v>7.1</v>
+      </c>
+      <c r="N13" s="89">
+        <v>2.7400000000000001E-2</v>
+      </c>
+      <c r="O13" s="90">
+        <v>4.0600000000000002E-3</v>
+      </c>
+      <c r="P13" s="91">
+        <v>8.1200000000000005E-3</v>
+      </c>
+      <c r="Q13" s="91">
+        <v>9.5700000000000004E-3</v>
+      </c>
+      <c r="R13" s="87">
+        <v>0.38500000000000001</v>
+      </c>
+      <c r="S13" s="90">
+        <v>9.0299999999999999E-5</v>
+      </c>
+      <c r="T13" s="91">
+        <v>6.02E-4</v>
+      </c>
+      <c r="U13" s="91">
+        <v>9.6100000000000005E-4</v>
+      </c>
+      <c r="V13" s="87">
+        <v>0.38500000000000001</v>
+      </c>
+      <c r="W13" s="90">
+        <v>2.8899999999999999E-6</v>
+      </c>
+      <c r="X13" s="92">
+        <v>2.1699999999999999E-5</v>
+      </c>
+      <c r="Y13" s="93">
+        <v>250000000</v>
+      </c>
+      <c r="Z13">
+        <f>Table8[[#This Row],[d1]]*Table8[[#This Row],[tw]]</f>
+        <v>1.536E-2</v>
+      </c>
+      <c r="AA13" s="94">
+        <f>Table8[[#This Row],[Aw]]*Table8[[#This Row],[fy]]</f>
+        <v>3840000</v>
+      </c>
+    </row>
+    <row r="14" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B14" s="85" t="s">
+        <v>120</v>
+      </c>
+      <c r="C14" s="85" t="s">
+        <v>107</v>
+      </c>
+      <c r="D14" s="86">
+        <v>282</v>
+      </c>
+      <c r="E14" s="85" t="s">
+        <v>108</v>
+      </c>
+      <c r="F14" s="85" t="s">
+        <v>109</v>
+      </c>
+      <c r="G14" s="87">
+        <v>0.92400000000000004</v>
+      </c>
+      <c r="H14" s="87">
+        <v>0.4</v>
+      </c>
+      <c r="I14" s="87">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="J14" s="87">
+        <v>1.2E-2</v>
+      </c>
+      <c r="K14" s="87">
+        <v>0.8600000000000001</v>
+      </c>
+      <c r="L14" s="88">
+        <v>71.666666666666671</v>
+      </c>
+      <c r="M14" s="88">
+        <v>6.0625</v>
+      </c>
+      <c r="N14" s="89">
+        <v>3.5900000000000001E-2</v>
+      </c>
+      <c r="O14" s="90">
+        <v>5.7299999999999999E-3</v>
+      </c>
+      <c r="P14" s="91">
+        <v>1.24E-2</v>
+      </c>
+      <c r="Q14" s="91">
+        <v>1.3599999999999999E-2</v>
+      </c>
+      <c r="R14" s="87">
+        <v>0.39900000000000002</v>
+      </c>
+      <c r="S14" s="90">
+        <v>3.4099999999999999E-4</v>
+      </c>
+      <c r="T14" s="91">
+        <v>1.7099999999999999E-3</v>
+      </c>
+      <c r="U14" s="91">
+        <v>2.5899999999999999E-3</v>
+      </c>
+      <c r="V14" s="87">
+        <v>0.39900000000000002</v>
+      </c>
+      <c r="W14" s="90">
+        <v>8.8699999999999998E-6</v>
+      </c>
+      <c r="X14" s="92">
+        <v>6.7899999999999997E-5</v>
+      </c>
+      <c r="Y14" s="93">
+        <v>250000000</v>
+      </c>
+      <c r="Z14">
+        <f>Table8[[#This Row],[d1]]*Table8[[#This Row],[tw]]</f>
+        <v>1.0320000000000001E-2</v>
+      </c>
+      <c r="AA14" s="94">
+        <f>Table8[[#This Row],[Aw]]*Table8[[#This Row],[fy]]</f>
+        <v>2580000.0000000005</v>
+      </c>
+    </row>
+    <row r="15" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B15" s="85" t="s">
+        <v>121</v>
+      </c>
+      <c r="C15" s="85" t="s">
+        <v>107</v>
+      </c>
+      <c r="D15" s="86">
+        <v>257</v>
+      </c>
+      <c r="E15" s="85" t="s">
+        <v>108</v>
+      </c>
+      <c r="F15" s="85" t="s">
+        <v>109</v>
+      </c>
+      <c r="G15" s="87">
+        <v>0.91600000000000004</v>
+      </c>
+      <c r="H15" s="87">
+        <v>0.4</v>
+      </c>
+      <c r="I15" s="87">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="J15" s="87">
+        <v>1.2E-2</v>
+      </c>
+      <c r="K15" s="87">
+        <v>0.86</v>
+      </c>
+      <c r="L15" s="88">
+        <v>71.666666666666657</v>
+      </c>
+      <c r="M15" s="88">
+        <v>6.9285714285714288</v>
+      </c>
+      <c r="N15" s="89">
+        <v>3.27E-2</v>
+      </c>
+      <c r="O15" s="90">
+        <v>5.0499999999999998E-3</v>
+      </c>
+      <c r="P15" s="91">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="Q15" s="91">
+        <v>1.2200000000000001E-2</v>
+      </c>
+      <c r="R15" s="87">
+        <v>0.39300000000000002</v>
+      </c>
+      <c r="S15" s="90">
+        <v>2.99E-4</v>
+      </c>
+      <c r="T15" s="91">
+        <v>1.49E-3</v>
+      </c>
+      <c r="U15" s="91">
+        <v>2.2699999999999999E-3</v>
+      </c>
+      <c r="V15" s="87">
+        <v>0.39300000000000002</v>
+      </c>
+      <c r="W15" s="90">
+        <v>6.1500000000000004E-6</v>
+      </c>
+      <c r="X15" s="92">
+        <v>5.8900000000000002E-5</v>
+      </c>
+      <c r="Y15" s="93">
+        <v>250000000</v>
+      </c>
+      <c r="Z15">
+        <f>Table8[[#This Row],[d1]]*Table8[[#This Row],[tw]]</f>
+        <v>1.0319999999999999E-2</v>
+      </c>
+      <c r="AA15" s="94">
+        <f>Table8[[#This Row],[Aw]]*Table8[[#This Row],[fy]]</f>
+        <v>2580000</v>
+      </c>
+    </row>
+    <row r="16" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B16" s="85" t="s">
+        <v>122</v>
+      </c>
+      <c r="C16" s="85" t="s">
+        <v>107</v>
+      </c>
+      <c r="D16" s="86">
+        <v>218</v>
+      </c>
+      <c r="E16" s="85" t="s">
+        <v>108</v>
+      </c>
+      <c r="F16" s="85" t="s">
+        <v>109</v>
+      </c>
+      <c r="G16" s="87">
+        <v>0.91</v>
+      </c>
+      <c r="H16" s="87">
+        <v>0.35</v>
+      </c>
+      <c r="I16" s="87">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="J16" s="87">
+        <v>1.2E-2</v>
+      </c>
+      <c r="K16" s="87">
+        <v>0.86</v>
+      </c>
+      <c r="L16" s="88">
+        <v>71.666666666666657</v>
+      </c>
+      <c r="M16" s="88">
+        <v>6.7599999999999989</v>
+      </c>
+      <c r="N16" s="89">
+        <v>2.7799999999999998E-2</v>
+      </c>
+      <c r="O16" s="90">
+        <v>4.0600000000000002E-3</v>
+      </c>
+      <c r="P16" s="91">
+        <v>8.9300000000000004E-3</v>
+      </c>
+      <c r="Q16" s="91">
+        <v>9.9600000000000001E-3</v>
+      </c>
+      <c r="R16" s="87">
+        <v>0.38200000000000001</v>
+      </c>
+      <c r="S16" s="90">
+        <v>1.7899999999999999E-4</v>
+      </c>
+      <c r="T16" s="91">
+        <v>1.0200000000000001E-3</v>
+      </c>
+      <c r="U16" s="91">
+        <v>1.56E-3</v>
+      </c>
+      <c r="V16" s="87">
+        <v>0.38200000000000001</v>
+      </c>
+      <c r="W16" s="90">
+        <v>4.0199999999999996E-6</v>
+      </c>
+      <c r="X16" s="92">
+        <v>3.4999999999999997E-5</v>
+      </c>
+      <c r="Y16" s="93">
+        <v>250000000</v>
+      </c>
+      <c r="Z16">
+        <f>Table8[[#This Row],[d1]]*Table8[[#This Row],[tw]]</f>
+        <v>1.0319999999999999E-2</v>
+      </c>
+      <c r="AA16" s="94">
+        <f>Table8[[#This Row],[Aw]]*Table8[[#This Row],[fy]]</f>
+        <v>2580000</v>
+      </c>
+    </row>
+    <row r="17" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B17" s="85" t="s">
+        <v>123</v>
+      </c>
+      <c r="C17" s="85" t="s">
+        <v>107</v>
+      </c>
+      <c r="D17" s="86">
+        <v>175</v>
+      </c>
+      <c r="E17" s="85" t="s">
+        <v>108</v>
+      </c>
+      <c r="F17" s="85" t="s">
+        <v>109</v>
+      </c>
+      <c r="G17" s="87">
+        <v>0.9</v>
+      </c>
+      <c r="H17" s="87">
+        <v>0.3</v>
+      </c>
+      <c r="I17" s="87">
+        <v>0.02</v>
+      </c>
+      <c r="J17" s="87">
+        <v>1.2E-2</v>
+      </c>
+      <c r="K17" s="87">
+        <v>0.86</v>
+      </c>
+      <c r="L17" s="88">
+        <v>71.666666666666657</v>
+      </c>
+      <c r="M17" s="88">
+        <v>7.1999999999999993</v>
+      </c>
+      <c r="N17" s="89">
+        <v>2.23E-2</v>
+      </c>
+      <c r="O17" s="90">
+        <v>2.96E-3</v>
+      </c>
+      <c r="P17" s="91">
+        <v>6.5799999999999999E-3</v>
+      </c>
+      <c r="Q17" s="91">
+        <v>7.4999999999999997E-3</v>
+      </c>
+      <c r="R17" s="87">
+        <v>0.36399999999999999</v>
+      </c>
+      <c r="S17" s="90">
+        <v>9.0099999999999995E-5</v>
+      </c>
+      <c r="T17" s="91">
+        <v>6.0099999999999997E-4</v>
+      </c>
+      <c r="U17" s="91">
+        <v>9.3099999999999997E-4</v>
+      </c>
+      <c r="V17" s="87">
+        <v>0.36399999999999999</v>
+      </c>
+      <c r="W17" s="90">
+        <v>2.0600000000000002E-6</v>
+      </c>
+      <c r="X17" s="92">
+        <v>1.7399999999999999E-5</v>
+      </c>
+      <c r="Y17" s="93">
+        <v>250000000</v>
+      </c>
+      <c r="Z17">
+        <f>Table8[[#This Row],[d1]]*Table8[[#This Row],[tw]]</f>
+        <v>1.0319999999999999E-2</v>
+      </c>
+      <c r="AA17" s="94">
+        <f>Table8[[#This Row],[Aw]]*Table8[[#This Row],[fy]]</f>
+        <v>2580000</v>
+      </c>
+    </row>
+    <row r="18" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B18" s="85" t="s">
+        <v>124</v>
+      </c>
+      <c r="C18" s="85" t="s">
+        <v>107</v>
+      </c>
+      <c r="D18" s="86">
+        <v>192</v>
+      </c>
+      <c r="E18" s="85" t="s">
+        <v>108</v>
+      </c>
+      <c r="F18" s="85" t="s">
+        <v>109</v>
+      </c>
+      <c r="G18" s="87">
+        <v>0.81599999999999995</v>
+      </c>
+      <c r="H18" s="87">
+        <v>0.3</v>
+      </c>
+      <c r="I18" s="87">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="J18" s="87">
+        <v>0.01</v>
+      </c>
+      <c r="K18" s="87">
+        <v>0.7599999999999999</v>
+      </c>
+      <c r="L18" s="88">
+        <v>75.999999999999986</v>
+      </c>
+      <c r="M18" s="88">
+        <v>5.1785714285714279</v>
+      </c>
+      <c r="N18" s="89">
+        <v>2.4400000000000002E-2</v>
+      </c>
+      <c r="O18" s="90">
+        <v>2.97E-3</v>
+      </c>
+      <c r="P18" s="91">
+        <v>7.2899999999999996E-3</v>
+      </c>
+      <c r="Q18" s="91">
+        <v>8.0599999999999995E-3</v>
+      </c>
+      <c r="R18" s="87">
+        <v>0.34899999999999998</v>
+      </c>
+      <c r="S18" s="90">
+        <v>1.26E-4</v>
+      </c>
+      <c r="T18" s="91">
+        <v>8.4000000000000003E-4</v>
+      </c>
+      <c r="U18" s="91">
+        <v>1.2800000000000001E-3</v>
+      </c>
+      <c r="V18" s="87">
+        <v>0.34899999999999998</v>
+      </c>
+      <c r="W18" s="90">
+        <v>4.42E-6</v>
+      </c>
+      <c r="X18" s="92">
+        <v>1.9599999999999999E-5</v>
+      </c>
+      <c r="Y18" s="93">
+        <v>250000000</v>
+      </c>
+      <c r="Z18">
+        <f>Table8[[#This Row],[d1]]*Table8[[#This Row],[tw]]</f>
+        <v>7.5999999999999991E-3</v>
+      </c>
+      <c r="AA18" s="94">
+        <f>Table8[[#This Row],[Aw]]*Table8[[#This Row],[fy]]</f>
+        <v>1899999.9999999998</v>
+      </c>
+    </row>
+    <row r="19" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B19" s="85" t="s">
+        <v>125</v>
+      </c>
+      <c r="C19" s="85" t="s">
+        <v>107</v>
+      </c>
+      <c r="D19" s="86">
+        <v>168</v>
+      </c>
+      <c r="E19" s="85" t="s">
+        <v>108</v>
+      </c>
+      <c r="F19" s="85" t="s">
+        <v>109</v>
+      </c>
+      <c r="G19" s="87">
+        <v>0.81</v>
+      </c>
+      <c r="H19" s="87">
+        <v>0.27500000000000002</v>
+      </c>
+      <c r="I19" s="87">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="J19" s="87">
+        <v>0.01</v>
+      </c>
+      <c r="K19" s="87">
+        <v>0.76</v>
+      </c>
+      <c r="L19" s="88">
+        <v>76</v>
+      </c>
+      <c r="M19" s="88">
+        <v>5.3</v>
+      </c>
+      <c r="N19" s="89">
+        <v>2.1399999999999999E-2</v>
+      </c>
+      <c r="O19" s="90">
+        <v>2.48E-3</v>
+      </c>
+      <c r="P19" s="91">
+        <v>6.1399999999999996E-3</v>
+      </c>
+      <c r="Q19" s="91">
+        <v>6.8399999999999997E-3</v>
+      </c>
+      <c r="R19" s="87">
+        <v>0.34100000000000003</v>
+      </c>
+      <c r="S19" s="90">
+        <v>8.6700000000000007E-5</v>
+      </c>
+      <c r="T19" s="91">
+        <v>6.3100000000000005E-4</v>
+      </c>
+      <c r="U19" s="91">
+        <v>9.6400000000000001E-4</v>
+      </c>
+      <c r="V19" s="87">
+        <v>0.34100000000000003</v>
+      </c>
+      <c r="W19" s="90">
+        <v>2.9900000000000002E-6</v>
+      </c>
+      <c r="X19" s="92">
+        <v>1.34E-5</v>
+      </c>
+      <c r="Y19" s="93">
+        <v>250000000</v>
+      </c>
+      <c r="Z19">
+        <f>Table8[[#This Row],[d1]]*Table8[[#This Row],[tw]]</f>
+        <v>7.6E-3</v>
+      </c>
+      <c r="AA19" s="94">
+        <f>Table8[[#This Row],[Aw]]*Table8[[#This Row],[fy]]</f>
+        <v>1900000</v>
+      </c>
+    </row>
+    <row r="20" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B20" s="85" t="s">
+        <v>126</v>
+      </c>
+      <c r="C20" s="85" t="s">
+        <v>107</v>
+      </c>
+      <c r="D20" s="86">
+        <v>146</v>
+      </c>
+      <c r="E20" s="85" t="s">
+        <v>108</v>
+      </c>
+      <c r="F20" s="85" t="s">
+        <v>109</v>
+      </c>
+      <c r="G20" s="87">
+        <v>0.8</v>
+      </c>
+      <c r="H20" s="87">
+        <v>0.27500000000000002</v>
+      </c>
+      <c r="I20" s="87">
+        <v>0.02</v>
+      </c>
+      <c r="J20" s="87">
+        <v>0.01</v>
+      </c>
+      <c r="K20" s="87">
+        <v>0.76</v>
+      </c>
+      <c r="L20" s="88">
+        <v>76</v>
+      </c>
+      <c r="M20" s="88">
+        <v>6.625</v>
+      </c>
+      <c r="N20" s="89">
+        <v>1.8599999999999998E-2</v>
+      </c>
+      <c r="O20" s="90">
+        <v>2.0400000000000001E-3</v>
+      </c>
+      <c r="P20" s="91">
+        <v>5.1000000000000004E-3</v>
+      </c>
+      <c r="Q20" s="91">
+        <v>5.7299999999999999E-3</v>
+      </c>
+      <c r="R20" s="87">
+        <v>0.33100000000000002</v>
+      </c>
+      <c r="S20" s="90">
+        <v>6.9400000000000006E-5</v>
+      </c>
+      <c r="T20" s="91">
+        <v>5.0500000000000002E-4</v>
+      </c>
+      <c r="U20" s="91">
+        <v>7.7499999999999997E-4</v>
+      </c>
+      <c r="V20" s="87">
+        <v>0.33100000000000002</v>
+      </c>
+      <c r="W20" s="90">
+        <v>1.6700000000000001E-6</v>
+      </c>
+      <c r="X20" s="92">
+        <v>1.06E-5</v>
+      </c>
+      <c r="Y20" s="93">
+        <v>250000000</v>
+      </c>
+      <c r="Z20">
+        <f>Table8[[#This Row],[d1]]*Table8[[#This Row],[tw]]</f>
+        <v>7.6E-3</v>
+      </c>
+      <c r="AA20" s="94">
+        <f>Table8[[#This Row],[Aw]]*Table8[[#This Row],[fy]]</f>
+        <v>1900000</v>
+      </c>
+    </row>
+    <row r="21" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B21" s="85" t="s">
+        <v>127</v>
+      </c>
+      <c r="C21" s="85" t="s">
+        <v>107</v>
+      </c>
+      <c r="D21" s="86">
+        <v>122</v>
+      </c>
+      <c r="E21" s="85" t="s">
+        <v>108</v>
+      </c>
+      <c r="F21" s="85" t="s">
+        <v>109</v>
+      </c>
+      <c r="G21" s="87">
+        <v>0.79200000000000004</v>
+      </c>
+      <c r="H21" s="87">
+        <v>0.25</v>
+      </c>
+      <c r="I21" s="87">
+        <v>1.6E-2</v>
+      </c>
+      <c r="J21" s="87">
+        <v>0.01</v>
+      </c>
+      <c r="K21" s="87">
+        <v>0.76</v>
+      </c>
+      <c r="L21" s="88">
+        <v>76</v>
+      </c>
+      <c r="M21" s="88">
+        <v>7.5</v>
+      </c>
+      <c r="N21" s="89">
+        <v>1.5599999999999999E-2</v>
+      </c>
+      <c r="O21" s="90">
+        <v>1.57E-3</v>
+      </c>
+      <c r="P21" s="91">
+        <v>3.9699999999999996E-3</v>
+      </c>
+      <c r="Q21" s="91">
+        <v>4.5500000000000002E-3</v>
+      </c>
+      <c r="R21" s="87">
+        <v>0.317</v>
+      </c>
+      <c r="S21" s="90">
+        <v>4.1699999999999997E-5</v>
+      </c>
+      <c r="T21" s="91">
+        <v>3.3399999999999999E-4</v>
+      </c>
+      <c r="U21" s="91">
+        <v>5.1900000000000004E-4</v>
+      </c>
+      <c r="V21" s="87">
+        <v>0.317</v>
+      </c>
+      <c r="W21" s="90">
+        <v>9.2099999999999995E-7</v>
+      </c>
+      <c r="X21" s="92">
+        <v>6.28E-6</v>
+      </c>
+      <c r="Y21" s="93">
+        <v>250000000</v>
+      </c>
+      <c r="Z21">
+        <f>Table8[[#This Row],[d1]]*Table8[[#This Row],[tw]]</f>
+        <v>7.6E-3</v>
+      </c>
+      <c r="AA21" s="94">
+        <f>Table8[[#This Row],[Aw]]*Table8[[#This Row],[fy]]</f>
+        <v>1900000</v>
+      </c>
+    </row>
+    <row r="22" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B22" s="85" t="s">
+        <v>128</v>
+      </c>
+      <c r="C22" s="85" t="s">
+        <v>107</v>
+      </c>
+      <c r="D22" s="86">
+        <v>173</v>
+      </c>
+      <c r="E22" s="85" t="s">
+        <v>108</v>
+      </c>
+      <c r="F22" s="85" t="s">
+        <v>109</v>
+      </c>
+      <c r="G22" s="87">
+        <v>0.71599999999999997</v>
+      </c>
+      <c r="H22" s="87">
+        <v>0.27500000000000002</v>
+      </c>
+      <c r="I22" s="87">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="J22" s="87">
+        <v>0.01</v>
+      </c>
+      <c r="K22" s="87">
+        <v>0.65999999999999992</v>
+      </c>
+      <c r="L22" s="88">
+        <v>65.999999999999986</v>
+      </c>
+      <c r="M22" s="88">
+        <v>4.7321428571428577</v>
+      </c>
+      <c r="N22" s="89">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="O22" s="90">
+        <v>2.0600000000000002E-3</v>
+      </c>
+      <c r="P22" s="91">
+        <v>5.7600000000000004E-3</v>
+      </c>
+      <c r="Q22" s="91">
+        <v>6.3899999999999998E-3</v>
+      </c>
+      <c r="R22" s="87">
+        <v>0.30599999999999999</v>
+      </c>
+      <c r="S22" s="90">
+        <v>9.7100000000000002E-5</v>
+      </c>
+      <c r="T22" s="91">
+        <v>7.0600000000000003E-4</v>
+      </c>
+      <c r="U22" s="91">
+        <v>1.08E-3</v>
+      </c>
+      <c r="V22" s="87">
+        <v>0.30599999999999999</v>
+      </c>
+      <c r="W22" s="90">
+        <v>4.0199999999999996E-6</v>
+      </c>
+      <c r="X22" s="92">
+        <v>1.15E-5</v>
+      </c>
+      <c r="Y22" s="93">
+        <v>250000000</v>
+      </c>
+      <c r="Z22">
+        <f>Table8[[#This Row],[d1]]*Table8[[#This Row],[tw]]</f>
+        <v>6.5999999999999991E-3</v>
+      </c>
+      <c r="AA22" s="94">
+        <f>Table8[[#This Row],[Aw]]*Table8[[#This Row],[fy]]</f>
+        <v>1649999.9999999998</v>
+      </c>
+    </row>
+    <row r="23" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B23" s="85" t="s">
+        <v>129</v>
+      </c>
+      <c r="C23" s="85" t="s">
+        <v>107</v>
+      </c>
+      <c r="D23" s="86">
+        <v>150</v>
+      </c>
+      <c r="E23" s="85" t="s">
+        <v>108</v>
+      </c>
+      <c r="F23" s="85" t="s">
+        <v>109</v>
+      </c>
+      <c r="G23" s="87">
+        <v>0.71</v>
+      </c>
+      <c r="H23" s="87">
+        <v>0.25</v>
+      </c>
+      <c r="I23" s="87">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="J23" s="87">
+        <v>0.01</v>
+      </c>
+      <c r="K23" s="87">
+        <v>0.65999999999999992</v>
+      </c>
+      <c r="L23" s="88">
+        <v>65.999999999999986</v>
+      </c>
+      <c r="M23" s="88">
+        <v>4.8</v>
+      </c>
+      <c r="N23" s="89">
+        <v>1.9099999999999999E-2</v>
+      </c>
+      <c r="O23" s="90">
+        <v>1.7099999999999999E-3</v>
+      </c>
+      <c r="P23" s="91">
+        <v>4.81E-3</v>
+      </c>
+      <c r="Q23" s="91">
+        <v>5.3699999999999998E-3</v>
+      </c>
+      <c r="R23" s="87">
+        <v>0.29899999999999999</v>
+      </c>
+      <c r="S23" s="90">
+        <v>6.5199999999999999E-5</v>
+      </c>
+      <c r="T23" s="91">
+        <v>5.2099999999999998E-4</v>
+      </c>
+      <c r="U23" s="91">
+        <v>7.9799999999999999E-4</v>
+      </c>
+      <c r="V23" s="87">
+        <v>0.29899999999999999</v>
+      </c>
+      <c r="W23" s="90">
+        <v>2.6900000000000001E-6</v>
+      </c>
+      <c r="X23" s="92">
+        <v>7.6399999999999997E-6</v>
+      </c>
+      <c r="Y23" s="93">
+        <v>250000000</v>
+      </c>
+      <c r="Z23">
+        <f>Table8[[#This Row],[d1]]*Table8[[#This Row],[tw]]</f>
+        <v>6.5999999999999991E-3</v>
+      </c>
+      <c r="AA23" s="94">
+        <f>Table8[[#This Row],[Aw]]*Table8[[#This Row],[fy]]</f>
+        <v>1649999.9999999998</v>
+      </c>
+    </row>
+    <row r="24" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B24" s="85" t="s">
+        <v>130</v>
+      </c>
+      <c r="C24" s="85" t="s">
+        <v>107</v>
+      </c>
+      <c r="D24" s="86">
+        <v>130</v>
+      </c>
+      <c r="E24" s="85" t="s">
+        <v>108</v>
+      </c>
+      <c r="F24" s="85" t="s">
+        <v>109</v>
+      </c>
+      <c r="G24" s="87">
+        <v>0.7</v>
+      </c>
+      <c r="H24" s="87">
+        <v>0.25</v>
+      </c>
+      <c r="I24" s="87">
+        <v>0.02</v>
+      </c>
+      <c r="J24" s="87">
+        <v>0.01</v>
+      </c>
+      <c r="K24" s="87">
+        <v>0.65999999999999992</v>
+      </c>
+      <c r="L24" s="88">
+        <v>65.999999999999986</v>
+      </c>
+      <c r="M24" s="88">
+        <v>6</v>
+      </c>
+      <c r="N24" s="89">
+        <v>1.66E-2</v>
+      </c>
+      <c r="O24" s="90">
+        <v>1.4E-3</v>
+      </c>
+      <c r="P24" s="91">
+        <v>3.9899999999999996E-3</v>
+      </c>
+      <c r="Q24" s="91">
+        <v>4.4900000000000001E-3</v>
+      </c>
+      <c r="R24" s="87">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="S24" s="90">
+        <v>5.2099999999999999E-5</v>
+      </c>
+      <c r="T24" s="91">
+        <v>4.17E-4</v>
+      </c>
+      <c r="U24" s="91">
+        <v>6.4199999999999999E-4</v>
+      </c>
+      <c r="V24" s="87">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="W24" s="90">
+        <v>1.5099999999999999E-6</v>
+      </c>
+      <c r="X24" s="92">
+        <v>6.0299999999999999E-6</v>
+      </c>
+      <c r="Y24" s="93">
+        <v>250000000</v>
+      </c>
+      <c r="Z24">
+        <f>Table8[[#This Row],[d1]]*Table8[[#This Row],[tw]]</f>
+        <v>6.5999999999999991E-3</v>
+      </c>
+      <c r="AA24" s="94">
+        <f>Table8[[#This Row],[Aw]]*Table8[[#This Row],[fy]]</f>
+        <v>1649999.9999999998</v>
+      </c>
+    </row>
+    <row r="25" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B25" s="85" t="s">
+        <v>131</v>
+      </c>
+      <c r="C25" s="85" t="s">
+        <v>107</v>
+      </c>
+      <c r="D25" s="86">
+        <v>115</v>
+      </c>
+      <c r="E25" s="85" t="s">
+        <v>108</v>
+      </c>
+      <c r="F25" s="85" t="s">
+        <v>109</v>
+      </c>
+      <c r="G25" s="87">
+        <v>0.69199999999999995</v>
+      </c>
+      <c r="H25" s="87">
+        <v>0.25</v>
+      </c>
+      <c r="I25" s="87">
+        <v>1.6E-2</v>
+      </c>
+      <c r="J25" s="87">
+        <v>0.01</v>
+      </c>
+      <c r="K25" s="87">
+        <v>0.65999999999999992</v>
+      </c>
+      <c r="L25" s="88">
+        <v>65.999999999999986</v>
+      </c>
+      <c r="M25" s="88">
+        <v>7.5</v>
+      </c>
+      <c r="N25" s="89">
+        <v>1.46E-2</v>
+      </c>
+      <c r="O25" s="90">
+        <v>1.15E-3</v>
+      </c>
+      <c r="P25" s="91">
+        <v>3.3300000000000001E-3</v>
+      </c>
+      <c r="Q25" s="91">
+        <v>3.79E-3</v>
+      </c>
+      <c r="R25" s="87">
+        <v>0.28100000000000003</v>
+      </c>
+      <c r="S25" s="90">
+        <v>4.1699999999999997E-5</v>
+      </c>
+      <c r="T25" s="91">
+        <v>3.3399999999999999E-4</v>
+      </c>
+      <c r="U25" s="91">
+        <v>5.1599999999999997E-4</v>
+      </c>
+      <c r="V25" s="87">
+        <v>0.28100000000000003</v>
+      </c>
+      <c r="W25" s="90">
+        <v>8.8800000000000001E-7</v>
+      </c>
+      <c r="X25" s="92">
+        <v>4.7700000000000001E-6</v>
+      </c>
+      <c r="Y25" s="93">
+        <v>250000000</v>
+      </c>
+      <c r="Z25">
+        <f>Table8[[#This Row],[d1]]*Table8[[#This Row],[tw]]</f>
+        <v>6.5999999999999991E-3</v>
+      </c>
+      <c r="AA25" s="94">
+        <f>Table8[[#This Row],[Aw]]*Table8[[#This Row],[fy]]</f>
+        <v>1649999.9999999998</v>
+      </c>
+    </row>
+    <row r="27" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="P27" s="82"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:AA84"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
@@ -11941,8 +14758,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B1:BB112"/>
   <sheetViews>
     <sheetView topLeftCell="N1" zoomScaleNormal="100" workbookViewId="0">
@@ -23468,8 +26285,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B2:R75"/>
   <sheetViews>
     <sheetView topLeftCell="A19" workbookViewId="0">
@@ -26968,8 +29785,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B2:Z48"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
@@ -29128,8 +31945,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="B2:AC60"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
@@ -32448,8 +35265,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="B2:W74"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
@@ -36456,8 +39273,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="B1:AD87"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">

--- a/tests/Excel/AS4100_5_Shear Verification.xlsx
+++ b/tests/Excel/AS4100_5_Shear Verification.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\seank\PycharmProjects\BeamDesign\tests\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46DCC9D0-2242-43EF-A146-FEED9763F2E5}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{150282D0-9AB6-463D-8FC2-D77749122B0F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11910" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1835,8 +1835,8 @@
     <numFmt numFmtId="181" formatCode="##0.00E+00&quot; N&quot;"/>
     <numFmt numFmtId="182" formatCode="##0.00E+00&quot; Pa&quot;"/>
     <numFmt numFmtId="183" formatCode="0&quot; kg/m&quot;"/>
-    <numFmt numFmtId="187" formatCode="0.000&quot; m²&quot;"/>
-    <numFmt numFmtId="188" formatCode="##0.00E+00&quot; m³&quot;"/>
+    <numFmt numFmtId="184" formatCode="0.000&quot; m²&quot;"/>
+    <numFmt numFmtId="185" formatCode="##0.00E+00&quot; m³&quot;"/>
   </numFmts>
   <fonts count="15" x14ac:knownFonts="1">
     <font>
@@ -2094,9 +2094,9 @@
     <xf numFmtId="183" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="176" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="168" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="187" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="184" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="178" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="188" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="185" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="179" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="180" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -2107,221 +2107,6 @@
   <dxfs count="243">
     <dxf>
       <numFmt numFmtId="181" formatCode="##0.00E+00&quot; N&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="180" formatCode="##0E+00&quot; Pa&quot;"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="8" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="179" formatCode="##0.00E+00&quot; m⁶&quot;"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="8" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="178" formatCode="##0.00E+00&quot; m⁴&quot;"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="8" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="0.000&quot; m&quot;"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="8" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="188" formatCode="##0.00E+00&quot; m³&quot;"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="8" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="188" formatCode="##0.00E+00&quot; m³&quot;"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="8" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="178" formatCode="##0.00E+00&quot; m⁴&quot;"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="8" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="0.000&quot; m&quot;"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="8" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="188" formatCode="##0.00E+00&quot; m³&quot;"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="8" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="188" formatCode="##0.00E+00&quot; m³&quot;"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="8" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="178" formatCode="##0.00E+00&quot; m⁴&quot;"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="8" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="187" formatCode="0.000&quot; m²&quot;"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="8" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="0.0"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="8" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="0.0"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="8" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="0.000&quot; m&quot;"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="8" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="0.000&quot; m&quot;"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="8" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="0.000&quot; m&quot;"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="8" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="0.000&quot; m&quot;"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="8" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="0.000&quot; m&quot;"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="8" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="8" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="8" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="183" formatCode="0&quot; kg/m&quot;"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="8" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="8" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="8" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <font>
@@ -6728,6 +6513,221 @@
       </font>
     </dxf>
     <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="180" formatCode="##0E+00&quot; Pa&quot;"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="179" formatCode="##0.00E+00&quot; m⁶&quot;"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="178" formatCode="##0.00E+00&quot; m⁴&quot;"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="0.000&quot; m&quot;"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="185" formatCode="##0.00E+00&quot; m³&quot;"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="185" formatCode="##0.00E+00&quot; m³&quot;"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="178" formatCode="##0.00E+00&quot; m⁴&quot;"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="0.000&quot; m&quot;"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="185" formatCode="##0.00E+00&quot; m³&quot;"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="185" formatCode="##0.00E+00&quot; m³&quot;"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="178" formatCode="##0.00E+00&quot; m⁴&quot;"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="184" formatCode="0.000&quot; m²&quot;"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="168" formatCode="0.0"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="168" formatCode="0.0"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="0.000&quot; m&quot;"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="0.000&quot; m&quot;"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="0.000&quot; m&quot;"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="0.000&quot; m&quot;"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="0.000&quot; m&quot;"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="183" formatCode="0&quot; kg/m&quot;"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor rgb="FFF0F0F4"/>
@@ -6798,35 +6798,35 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{EDDEE4D4-895F-4D98-BD2B-A1595D136FE1}" name="Table8" displayName="Table8" ref="B2:AA25" totalsRowShown="0">
   <autoFilter ref="B2:AA25" xr:uid="{0AC04653-982D-4DB0-97C0-530DC6DA1D7C}"/>
   <tableColumns count="26">
-    <tableColumn id="1" xr3:uid="{280EAB9D-68EA-4683-A885-68F041F7C696}" name="Section" dataDxfId="25"/>
-    <tableColumn id="2" xr3:uid="{607776AD-1CEA-4ABA-9EBB-6E7242760D55}" name="Designation" dataDxfId="24"/>
-    <tableColumn id="3" xr3:uid="{8B64A8C3-F92A-47F9-96F3-AA3D2FB57C71}" name="Mass" dataDxfId="23"/>
-    <tableColumn id="4" xr3:uid="{C3F54EAF-B082-4E92-89A4-EB922C48C2FD}" name="Section Type" dataDxfId="22"/>
-    <tableColumn id="5" xr3:uid="{099E95F4-155C-46BC-9B68-09B5DC82AC9E}" name="Fabrication Type" dataDxfId="21"/>
-    <tableColumn id="6" xr3:uid="{603611E8-32D2-418A-B7F1-7978728F31CE}" name="d" dataDxfId="20"/>
-    <tableColumn id="7" xr3:uid="{8C2BF6A8-8480-4D0B-8189-8DD35F84F37A}" name="bf" dataDxfId="19"/>
-    <tableColumn id="8" xr3:uid="{AF33BA8F-44DE-4FA5-B937-5086CFDD19FF}" name="tf" dataDxfId="18"/>
-    <tableColumn id="9" xr3:uid="{688540C0-5BD0-4CE3-8BC7-7345CE0E5749}" name="tw" dataDxfId="17"/>
-    <tableColumn id="10" xr3:uid="{1C612196-CED2-42B0-865A-D4E03216B7B7}" name="d1" dataDxfId="16"/>
-    <tableColumn id="11" xr3:uid="{4F3DA98F-ED30-4ACB-A515-75F8C0DC4843}" name="d1 / tw" dataDxfId="15"/>
-    <tableColumn id="12" xr3:uid="{22B64CBB-F443-44A9-9500-7B9BBDFB124B}" name="(bf - tw) / (2 × tf)" dataDxfId="14"/>
-    <tableColumn id="13" xr3:uid="{D4DF694A-4484-4C9F-9376-6A57C15AF617}" name="Ag" dataDxfId="13"/>
-    <tableColumn id="14" xr3:uid="{3724EE49-662E-4E0E-A37B-3ADE156496AD}" name="Ix" dataDxfId="12"/>
-    <tableColumn id="15" xr3:uid="{AD4648AD-343E-4A35-9246-69098C5044CC}" name="Zx" dataDxfId="11"/>
-    <tableColumn id="16" xr3:uid="{0ABFCF14-5F21-419A-9559-2CA91A10474B}" name="Sx" dataDxfId="10"/>
-    <tableColumn id="17" xr3:uid="{DC4F87E0-E5C6-4D73-A757-8F63BAF7554D}" name="rx" dataDxfId="9"/>
-    <tableColumn id="18" xr3:uid="{23E1E09C-910E-46AB-90C7-90D38D81B99E}" name="Iy" dataDxfId="8"/>
-    <tableColumn id="19" xr3:uid="{885B4339-7E0D-4B91-9FC6-5D81E2299F9C}" name="Zy" dataDxfId="7"/>
-    <tableColumn id="20" xr3:uid="{84C35746-536E-4B01-8256-14A9DCAB142B}" name="Sy" dataDxfId="6"/>
-    <tableColumn id="21" xr3:uid="{A7686837-B7AE-4BAE-88E2-6F9FAD730E01}" name="ry" dataDxfId="5"/>
-    <tableColumn id="22" xr3:uid="{767ED161-3BD1-4294-96E7-EF008EBAF27A}" name="J" dataDxfId="4"/>
-    <tableColumn id="23" xr3:uid="{4874CB8A-E902-4CEB-AEFF-C3681E512597}" name="Iw" dataDxfId="2"/>
-    <tableColumn id="26" xr3:uid="{4B448337-5DAD-4159-85BB-146825F8C228}" name="fy" dataDxfId="1"/>
-    <tableColumn id="24" xr3:uid="{473325F2-FF03-4C75-BD12-A70F0A6AA4F1}" name="Aw" dataDxfId="3">
+    <tableColumn id="1" xr3:uid="{280EAB9D-68EA-4683-A885-68F041F7C696}" name="Section" dataDxfId="239"/>
+    <tableColumn id="2" xr3:uid="{607776AD-1CEA-4ABA-9EBB-6E7242760D55}" name="Designation" dataDxfId="238"/>
+    <tableColumn id="3" xr3:uid="{8B64A8C3-F92A-47F9-96F3-AA3D2FB57C71}" name="Mass" dataDxfId="237"/>
+    <tableColumn id="4" xr3:uid="{C3F54EAF-B082-4E92-89A4-EB922C48C2FD}" name="Section Type" dataDxfId="236"/>
+    <tableColumn id="5" xr3:uid="{099E95F4-155C-46BC-9B68-09B5DC82AC9E}" name="Fabrication Type" dataDxfId="235"/>
+    <tableColumn id="6" xr3:uid="{603611E8-32D2-418A-B7F1-7978728F31CE}" name="d" dataDxfId="234"/>
+    <tableColumn id="7" xr3:uid="{8C2BF6A8-8480-4D0B-8189-8DD35F84F37A}" name="bf" dataDxfId="233"/>
+    <tableColumn id="8" xr3:uid="{AF33BA8F-44DE-4FA5-B937-5086CFDD19FF}" name="tf" dataDxfId="232"/>
+    <tableColumn id="9" xr3:uid="{688540C0-5BD0-4CE3-8BC7-7345CE0E5749}" name="tw" dataDxfId="231"/>
+    <tableColumn id="10" xr3:uid="{1C612196-CED2-42B0-865A-D4E03216B7B7}" name="d1" dataDxfId="230"/>
+    <tableColumn id="11" xr3:uid="{4F3DA98F-ED30-4ACB-A515-75F8C0DC4843}" name="d1 / tw" dataDxfId="229"/>
+    <tableColumn id="12" xr3:uid="{22B64CBB-F443-44A9-9500-7B9BBDFB124B}" name="(bf - tw) / (2 × tf)" dataDxfId="228"/>
+    <tableColumn id="13" xr3:uid="{D4DF694A-4484-4C9F-9376-6A57C15AF617}" name="Ag" dataDxfId="227"/>
+    <tableColumn id="14" xr3:uid="{3724EE49-662E-4E0E-A37B-3ADE156496AD}" name="Ix" dataDxfId="226"/>
+    <tableColumn id="15" xr3:uid="{AD4648AD-343E-4A35-9246-69098C5044CC}" name="Zx" dataDxfId="225"/>
+    <tableColumn id="16" xr3:uid="{0ABFCF14-5F21-419A-9559-2CA91A10474B}" name="Sx" dataDxfId="224"/>
+    <tableColumn id="17" xr3:uid="{DC4F87E0-E5C6-4D73-A757-8F63BAF7554D}" name="rx" dataDxfId="223"/>
+    <tableColumn id="18" xr3:uid="{23E1E09C-910E-46AB-90C7-90D38D81B99E}" name="Iy" dataDxfId="222"/>
+    <tableColumn id="19" xr3:uid="{885B4339-7E0D-4B91-9FC6-5D81E2299F9C}" name="Zy" dataDxfId="221"/>
+    <tableColumn id="20" xr3:uid="{84C35746-536E-4B01-8256-14A9DCAB142B}" name="Sy" dataDxfId="220"/>
+    <tableColumn id="21" xr3:uid="{A7686837-B7AE-4BAE-88E2-6F9FAD730E01}" name="ry" dataDxfId="219"/>
+    <tableColumn id="22" xr3:uid="{767ED161-3BD1-4294-96E7-EF008EBAF27A}" name="J" dataDxfId="218"/>
+    <tableColumn id="23" xr3:uid="{4874CB8A-E902-4CEB-AEFF-C3681E512597}" name="Iw" dataDxfId="217"/>
+    <tableColumn id="26" xr3:uid="{4B448337-5DAD-4159-85BB-146825F8C228}" name="fy" dataDxfId="216"/>
+    <tableColumn id="24" xr3:uid="{473325F2-FF03-4C75-BD12-A70F0A6AA4F1}" name="Aw" dataDxfId="215">
       <calculatedColumnFormula>Table8[[#This Row],[d1]]*Table8[[#This Row],[tw]]</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="25" xr3:uid="{98B29A8D-CA7E-401A-9966-485A14A8FF27}" name="φVyield" dataDxfId="0">
-      <calculatedColumnFormula>Table8[[#This Row],[Aw]]*Table8[[#This Row],[fy]]</calculatedColumnFormula>
+      <calculatedColumnFormula>Table8[[#This Row],[Aw]]*Table8[[#This Row],[fy]]*0.6</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="tblIntegral" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -6834,45 +6834,45 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="tblEuler" displayName="tblEuler" ref="B2:AA57" totalsRowShown="0" headerRowDxfId="239" dataDxfId="238">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="tblEuler" displayName="tblEuler" ref="B2:AA57" totalsRowShown="0" headerRowDxfId="214" dataDxfId="213">
   <autoFilter ref="B2:AA57" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="26">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Section" dataDxfId="237"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="An" dataDxfId="236"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="kf" dataDxfId="235"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="lex" dataDxfId="234"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="ley" dataDxfId="233"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="lez" dataDxfId="232"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="rx" dataDxfId="231"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="ry" dataDxfId="230"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="xo" dataDxfId="229"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="yo" dataDxfId="228"/>
-    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0000-000016000000}" name="Ix" dataDxfId="227"/>
-    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0000-000015000000}" name="Iy" dataDxfId="226"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="J" dataDxfId="225"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="Iw" dataDxfId="224"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="fy" dataDxfId="223"/>
-    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="E" dataDxfId="222"/>
-    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="G" dataDxfId="221"/>
-    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="fref" dataDxfId="220"/>
-    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="αb" dataDxfId="219"/>
-    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="Axis" dataDxfId="218"/>
-    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0000-000013000000}" name="feuler_x" dataDxfId="217">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Section" dataDxfId="212"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="An" dataDxfId="211"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="kf" dataDxfId="210"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="lex" dataDxfId="209"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="ley" dataDxfId="208"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="lez" dataDxfId="207"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="rx" dataDxfId="206"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="ry" dataDxfId="205"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="xo" dataDxfId="204"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="yo" dataDxfId="203"/>
+    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0000-000016000000}" name="Ix" dataDxfId="202"/>
+    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0000-000015000000}" name="Iy" dataDxfId="201"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="J" dataDxfId="200"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="Iw" dataDxfId="199"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="fy" dataDxfId="198"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="E" dataDxfId="197"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="G" dataDxfId="196"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="fref" dataDxfId="195"/>
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="αb" dataDxfId="194"/>
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="Axis" dataDxfId="193"/>
+    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0000-000013000000}" name="feuler_x" dataDxfId="192">
       <calculatedColumnFormula>(tblEuler[[#This Row],[E]]*PI()^2)/((tblEuler[[#This Row],[lex]]/tblEuler[[#This Row],[rx]])^2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0000-000014000000}" name="Neuler_x" dataDxfId="216">
+    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0000-000014000000}" name="Neuler_x" dataDxfId="191">
       <calculatedColumnFormula>(tblEuler[[#This Row],[Ix]]*tblEuler[[#This Row],[E]]*PI()^2)/(tblEuler[[#This Row],[lex]]^2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0000-000017000000}" name="Feuler_y" dataDxfId="215">
+    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0000-000017000000}" name="Feuler_y" dataDxfId="190">
       <calculatedColumnFormula>(tblEuler[[#This Row],[E]]*PI()^2)/((tblEuler[[#This Row],[ley]]/tblEuler[[#This Row],[ry]])^2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0000-000018000000}" name="Neuler_y" dataDxfId="214">
+    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0000-000018000000}" name="Neuler_y" dataDxfId="189">
       <calculatedColumnFormula>(tblEuler[[#This Row],[Iy]]*tblEuler[[#This Row],[E]]*PI()^2)/(tblEuler[[#This Row],[ley]]^2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="26" xr3:uid="{00000000-0010-0000-0000-00001A000000}" name="rol" dataDxfId="213">
+    <tableColumn id="26" xr3:uid="{00000000-0010-0000-0000-00001A000000}" name="rol" dataDxfId="188">
       <calculatedColumnFormula>SQRT(tblEuler[[#This Row],[rx]]^2+tblEuler[[#This Row],[ry]]^2+tblEuler[[#This Row],[xo]]^2+tblEuler[[#This Row],[yo]]^2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="25" xr3:uid="{00000000-0010-0000-0000-000019000000}" name="Feuler_torsion" dataDxfId="212">
+    <tableColumn id="25" xr3:uid="{00000000-0010-0000-0000-000019000000}" name="Feuler_torsion" dataDxfId="187">
       <calculatedColumnFormula>((tblEuler[[#This Row],[G]]*tblEuler[[#This Row],[J]])/(tblEuler[[#This Row],[An]]*tblEuler[[#This Row],[rol]]^2))*(1+((tblEuler[[#This Row],[Iw]]*tblEuler[[#This Row],[E]]*PI()^2)/(tblEuler[[#This Row],[G]]*tblEuler[[#This Row],[J]]*tblEuler[[#This Row],[lez]]^2)))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -6881,127 +6881,127 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="tblNc" displayName="tblNc" ref="B3:BB58" totalsRowShown="0" headerRowDxfId="211" dataDxfId="210">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="tblNc" displayName="tblNc" ref="B3:BB58" totalsRowShown="0" headerRowDxfId="186" dataDxfId="185">
   <autoFilter ref="B3:BB58" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B4:AL58">
     <sortCondition ref="B3:B58"/>
   </sortState>
   <tableColumns count="53">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Section" dataDxfId="209"/>
-    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0100-000016000000}" name="An" dataDxfId="208"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="kf" dataDxfId="207"/>
-    <tableColumn id="51" xr3:uid="{00000000-0010-0000-0100-000033000000}" name="l" dataDxfId="206"/>
-    <tableColumn id="50" xr3:uid="{00000000-0010-0000-0100-000032000000}" name="kex" dataDxfId="205"/>
-    <tableColumn id="49" xr3:uid="{00000000-0010-0000-0100-000031000000}" name="key" dataDxfId="204"/>
-    <tableColumn id="48" xr3:uid="{00000000-0010-0000-0100-000030000000}" name="kez" dataDxfId="203"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="rx" dataDxfId="202"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="ry" dataDxfId="201"/>
-    <tableColumn id="32" xr3:uid="{00000000-0010-0000-0100-000020000000}" name="xo" dataDxfId="200"/>
-    <tableColumn id="31" xr3:uid="{00000000-0010-0000-0100-00001F000000}" name="yo" dataDxfId="199"/>
-    <tableColumn id="36" xr3:uid="{00000000-0010-0000-0100-000024000000}" name="J" dataDxfId="198"/>
-    <tableColumn id="35" xr3:uid="{00000000-0010-0000-0100-000023000000}" name="Iw" dataDxfId="197"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="fy" dataDxfId="196"/>
-    <tableColumn id="34" xr3:uid="{00000000-0010-0000-0100-000022000000}" name="E" dataDxfId="195"/>
-    <tableColumn id="33" xr3:uid="{00000000-0010-0000-0100-000021000000}" name="G" dataDxfId="194"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="fref" dataDxfId="193"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="αb" dataDxfId="192"/>
-    <tableColumn id="37" xr3:uid="{00000000-0010-0000-0100-000025000000}" name="Axis" dataDxfId="191"/>
-    <tableColumn id="47" xr3:uid="{00000000-0010-0000-0100-00002F000000}" name="calc_buckle" dataDxfId="190"/>
-    <tableColumn id="46" xr3:uid="{00000000-0010-0000-0100-00002E000000}" name="calc_torsion" dataDxfId="189"/>
-    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0100-000017000000}" name="Ae" dataDxfId="188">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Section" dataDxfId="184"/>
+    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0100-000016000000}" name="An" dataDxfId="183"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="kf" dataDxfId="182"/>
+    <tableColumn id="51" xr3:uid="{00000000-0010-0000-0100-000033000000}" name="l" dataDxfId="181"/>
+    <tableColumn id="50" xr3:uid="{00000000-0010-0000-0100-000032000000}" name="kex" dataDxfId="180"/>
+    <tableColumn id="49" xr3:uid="{00000000-0010-0000-0100-000031000000}" name="key" dataDxfId="179"/>
+    <tableColumn id="48" xr3:uid="{00000000-0010-0000-0100-000030000000}" name="kez" dataDxfId="178"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="rx" dataDxfId="177"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="ry" dataDxfId="176"/>
+    <tableColumn id="32" xr3:uid="{00000000-0010-0000-0100-000020000000}" name="xo" dataDxfId="175"/>
+    <tableColumn id="31" xr3:uid="{00000000-0010-0000-0100-00001F000000}" name="yo" dataDxfId="174"/>
+    <tableColumn id="36" xr3:uid="{00000000-0010-0000-0100-000024000000}" name="J" dataDxfId="173"/>
+    <tableColumn id="35" xr3:uid="{00000000-0010-0000-0100-000023000000}" name="Iw" dataDxfId="172"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="fy" dataDxfId="171"/>
+    <tableColumn id="34" xr3:uid="{00000000-0010-0000-0100-000022000000}" name="E" dataDxfId="170"/>
+    <tableColumn id="33" xr3:uid="{00000000-0010-0000-0100-000021000000}" name="G" dataDxfId="169"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="fref" dataDxfId="168"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="αb" dataDxfId="167"/>
+    <tableColumn id="37" xr3:uid="{00000000-0010-0000-0100-000025000000}" name="Axis" dataDxfId="166"/>
+    <tableColumn id="47" xr3:uid="{00000000-0010-0000-0100-00002F000000}" name="calc_buckle" dataDxfId="165"/>
+    <tableColumn id="46" xr3:uid="{00000000-0010-0000-0100-00002E000000}" name="calc_torsion" dataDxfId="164"/>
+    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0100-000017000000}" name="Ae" dataDxfId="163">
       <calculatedColumnFormula>tblNc[[#This Row],[An]]*tblNc[[#This Row],[kf]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0100-000018000000}" name="Ns" dataDxfId="187">
+    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0100-000018000000}" name="Ns" dataDxfId="162">
       <calculatedColumnFormula>tblNc[[#This Row],[Ae]]*tblNc[[#This Row],[fy]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="29" xr3:uid="{00000000-0010-0000-0100-00001D000000}" name="φNs" dataDxfId="186">
+    <tableColumn id="29" xr3:uid="{00000000-0010-0000-0100-00001D000000}" name="φNs" dataDxfId="161">
       <calculatedColumnFormula>tblNc[[#This Row],[Ns]]*0.9</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="lex" dataDxfId="185">
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="lex" dataDxfId="160">
       <calculatedColumnFormula>tblNc[[#This Row],[l]]*tblNc[[#This Row],[kex]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="30" xr3:uid="{00000000-0010-0000-0100-00001E000000}" name="ley" dataDxfId="184">
+    <tableColumn id="30" xr3:uid="{00000000-0010-0000-0100-00001E000000}" name="ley" dataDxfId="159">
       <calculatedColumnFormula>tblNc[[#This Row],[l]]*tblNc[[#This Row],[key]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0100-000015000000}" name="lez" dataDxfId="183">
+    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0100-000015000000}" name="lez" dataDxfId="158">
       <calculatedColumnFormula>tblNc[[#This Row],[kez]]*tblNc[[#This Row],[l]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="λnx" dataDxfId="182">
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="λnx" dataDxfId="157">
       <calculatedColumnFormula>(tblNc[[#This Row],[lex]]/tblNc[[#This Row],[rx]])*(SQRT(tblNc[[#This Row],[kf]]))*SQRT((tblNc[[#This Row],[fy]]/tblNc[[#This Row],[fref]]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="αax" dataDxfId="181">
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="αax" dataDxfId="156">
       <calculatedColumnFormula>(2100*(tblNc[[#This Row],[λnx]]-13.5))/((tblNc[[#This Row],[λnx]]^2)-(15.3*tblNc[[#This Row],[λnx]])+2050)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="λx" dataDxfId="180">
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="λx" dataDxfId="155">
       <calculatedColumnFormula>tblNc[[#This Row],[λnx]]+tblNc[[#This Row],[αax]]*tblNc[[#This Row],[αb]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0100-00000C000000}" name="ηx" dataDxfId="179">
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0100-00000C000000}" name="ηx" dataDxfId="154">
       <calculatedColumnFormula>MAX((0.00326*(tblNc[[#This Row],[λx]]-13.5)),0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0100-00000D000000}" name="ξx" dataDxfId="178">
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0100-00000D000000}" name="ξx" dataDxfId="153">
       <calculatedColumnFormula>((tblNc[[#This Row],[λx]]/90)^2+1+tblNc[[#This Row],[ηx]])/(2*(tblNc[[#This Row],[λx]]/90)^2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0100-00000E000000}" name="αcx" dataDxfId="177">
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0100-00000E000000}" name="αcx" dataDxfId="152">
       <calculatedColumnFormula>tblNc[[#This Row],[ξx]]*(1-SQRT(1-(90/(tblNc[[#This Row],[ξx]]*tblNc[[#This Row],[λx]]))^2))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="26" xr3:uid="{00000000-0010-0000-0100-00001A000000}" name="Ncx" dataDxfId="176">
+    <tableColumn id="26" xr3:uid="{00000000-0010-0000-0100-00001A000000}" name="Ncx" dataDxfId="151">
       <calculatedColumnFormula>tblNc[[#This Row],[αcx]]*tblNc[[#This Row],[Ns]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="53" xr3:uid="{00000000-0010-0000-0100-000035000000}" name="φNcx" dataDxfId="175">
+    <tableColumn id="53" xr3:uid="{00000000-0010-0000-0100-000035000000}" name="φNcx" dataDxfId="150">
       <calculatedColumnFormula>tblNc[[#This Row],[Ncx]]*0.9</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0100-00000F000000}" name="λny" dataDxfId="174">
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0100-00000F000000}" name="λny" dataDxfId="149">
       <calculatedColumnFormula>(tblNc[[#This Row],[lex]]/tblNc[[#This Row],[ry]])*(SQRT(tblNc[[#This Row],[kf]]))*SQRT((tblNc[[#This Row],[fy]]/tblNc[[#This Row],[fref]]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0100-000010000000}" name="αay" dataDxfId="173">
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0100-000010000000}" name="αay" dataDxfId="148">
       <calculatedColumnFormula>(2100*(tblNc[[#This Row],[λny]]-13.5))/((tblNc[[#This Row],[λny]]^2)-(15.3*tblNc[[#This Row],[λny]])+2050)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0100-000011000000}" name="λy" dataDxfId="172">
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0100-000011000000}" name="λy" dataDxfId="147">
       <calculatedColumnFormula>tblNc[[#This Row],[λny]]+tblNc[[#This Row],[αay]]*tblNc[[#This Row],[αb]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0100-000012000000}" name="ηy" dataDxfId="171">
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0100-000012000000}" name="ηy" dataDxfId="146">
       <calculatedColumnFormula>MAX((0.00326*(tblNc[[#This Row],[λy]]-13.5)),0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0100-000013000000}" name="ξy" dataDxfId="170">
+    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0100-000013000000}" name="ξy" dataDxfId="145">
       <calculatedColumnFormula>((tblNc[[#This Row],[λy]]/90)^2+1+tblNc[[#This Row],[ηy]])/(2*(tblNc[[#This Row],[λy]]/90)^2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0100-000014000000}" name="αcy" dataDxfId="169">
+    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0100-000014000000}" name="αcy" dataDxfId="144">
       <calculatedColumnFormula>tblNc[[#This Row],[ξy]]*(1-SQRT(1-(90/(tblNc[[#This Row],[ξy]]*tblNc[[#This Row],[λy]]))^2))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="25" xr3:uid="{00000000-0010-0000-0100-000019000000}" name="Ncy" dataDxfId="168">
+    <tableColumn id="25" xr3:uid="{00000000-0010-0000-0100-000019000000}" name="Ncy" dataDxfId="143">
       <calculatedColumnFormula>tblNc[[#This Row],[αcy]]*tblNc[[#This Row],[Ns]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="52" xr3:uid="{00000000-0010-0000-0100-000034000000}" name="φNcy" dataDxfId="167">
+    <tableColumn id="52" xr3:uid="{00000000-0010-0000-0100-000034000000}" name="φNcy" dataDxfId="142">
       <calculatedColumnFormula>tblNc[[#This Row],[Ncy]]*0.9</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="27" xr3:uid="{00000000-0010-0000-0100-00001B000000}" name="Ncflex" dataDxfId="166">
+    <tableColumn id="27" xr3:uid="{00000000-0010-0000-0100-00001B000000}" name="Ncflex" dataDxfId="141">
       <calculatedColumnFormula>MIN(tblNc[[#This Row],[Ncy]],tblNc[[#This Row],[Ncx]],tblNc[[#This Row],[Ns]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="28" xr3:uid="{00000000-0010-0000-0100-00001C000000}" name="φNcflex" dataDxfId="165">
+    <tableColumn id="28" xr3:uid="{00000000-0010-0000-0100-00001C000000}" name="φNcflex" dataDxfId="140">
       <calculatedColumnFormula>tblNc[[#This Row],[Ncflex]]*0.9</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="38" xr3:uid="{00000000-0010-0000-0100-000026000000}" name="Ncz_dbl" dataDxfId="164">
+    <tableColumn id="38" xr3:uid="{00000000-0010-0000-0100-000026000000}" name="Ncz_dbl" dataDxfId="139">
       <calculatedColumnFormula array="1">INDEX(tblfocDblSym[Nc],MATCH(tblNc[[#This Row],[Section]]&amp;tblNc[[#This Row],[lex]],tblfocDblSym[Section]&amp;tblfocDblSym[lex],0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="39" xr3:uid="{00000000-0010-0000-0100-000027000000}" name="Ncz_sngl" dataDxfId="163">
+    <tableColumn id="39" xr3:uid="{00000000-0010-0000-0100-000027000000}" name="Ncz_sngl" dataDxfId="138">
       <calculatedColumnFormula array="1">INDEX(tblfocSglSym[Nc],MATCH(tblNc[[#This Row],[Section]]&amp;tblNc[[#This Row],[lex]],tblfocSglSym[Section]&amp;tblfocSglSym[lex],0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="41" xr3:uid="{00000000-0010-0000-0100-000029000000}" name="Ncz_un" dataDxfId="162">
+    <tableColumn id="41" xr3:uid="{00000000-0010-0000-0100-000029000000}" name="Ncz_un" dataDxfId="137">
       <calculatedColumnFormula array="1">INDEX(tblfocunsym[Nc],MATCH(tblNc[[#This Row],[Section]]&amp;tblNc[[#This Row],[lex]],tblfocunsym[Section]&amp;tblfocunsym[lex],0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="42" xr3:uid="{00000000-0010-0000-0100-00002A000000}" name="Ncz_base" dataDxfId="161">
+    <tableColumn id="42" xr3:uid="{00000000-0010-0000-0100-00002A000000}" name="Ncz_base" dataDxfId="136">
       <calculatedColumnFormula>IF(tblNc[[#This Row],[Axis]]="['x', 'y']",tblNc[[#This Row],[Ncz_dbl]],IF(tblNc[[#This Row],[Axis]]="[]",tblNc[[#This Row],[Ncz_un]],tblNc[[#This Row],[Ncz_sngl]]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="45" xr3:uid="{00000000-0010-0000-0100-00002D000000}" name="Ncz" dataDxfId="160">
+    <tableColumn id="45" xr3:uid="{00000000-0010-0000-0100-00002D000000}" name="Ncz" dataDxfId="135">
       <calculatedColumnFormula>MIN(tblNc[[#This Row],[Ncz_base]],tblNc[[#This Row],[Ns]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="43" xr3:uid="{00000000-0010-0000-0100-00002B000000}" name="φNcz" dataDxfId="159">
+    <tableColumn id="43" xr3:uid="{00000000-0010-0000-0100-00002B000000}" name="φNcz" dataDxfId="134">
       <calculatedColumnFormula>tblNc[[#This Row],[Ncz]]*0.9</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="40" xr3:uid="{00000000-0010-0000-0100-000028000000}" name="Nc" dataDxfId="158">
+    <tableColumn id="40" xr3:uid="{00000000-0010-0000-0100-000028000000}" name="Nc" dataDxfId="133">
       <calculatedColumnFormula>MIN(tblNc[[#This Row],[Ncflex]],tblNc[[#This Row],[Ncz]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="44" xr3:uid="{00000000-0010-0000-0100-00002C000000}" name="φNc" dataDxfId="157">
+    <tableColumn id="44" xr3:uid="{00000000-0010-0000-0100-00002C000000}" name="φNc" dataDxfId="132">
       <calculatedColumnFormula>tblNc[[#This Row],[Nc]]*0.9</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -7010,34 +7010,34 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="tblfoxz" displayName="tblfoxz" ref="B2:R57" totalsRowShown="0" headerRowDxfId="156" dataDxfId="155">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="tblfoxz" displayName="tblfoxz" ref="B2:R57" totalsRowShown="0" headerRowDxfId="131" dataDxfId="130">
   <autoFilter ref="B2:R57" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="17">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Section" dataDxfId="154"/>
-    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0200-000012000000}" name="An" dataDxfId="153"/>
-    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0200-00000E000000}" name="lex" dataDxfId="152"/>
-    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0200-000013000000}" name="lez" dataDxfId="151"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0200-00000C000000}" name="rx" dataDxfId="150"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0200-00000B000000}" name="ry" dataDxfId="149"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0200-000007000000}" name="xo" dataDxfId="148"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0200-00000A000000}" name="yo" dataDxfId="147"/>
-    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0200-000011000000}" name="J" dataDxfId="146"/>
-    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0200-000014000000}" name="Iw" dataDxfId="145"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0200-00000D000000}" name="E" dataDxfId="144"/>
-    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0200-000010000000}" name="G" dataDxfId="143"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0200-000006000000}" name="rol" dataDxfId="142">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Section" dataDxfId="129"/>
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0200-000012000000}" name="An" dataDxfId="128"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0200-00000E000000}" name="lex" dataDxfId="127"/>
+    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0200-000013000000}" name="lez" dataDxfId="126"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0200-00000C000000}" name="rx" dataDxfId="125"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0200-00000B000000}" name="ry" dataDxfId="124"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0200-000007000000}" name="xo" dataDxfId="123"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0200-00000A000000}" name="yo" dataDxfId="122"/>
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0200-000011000000}" name="J" dataDxfId="121"/>
+    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0200-000014000000}" name="Iw" dataDxfId="120"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0200-00000D000000}" name="E" dataDxfId="119"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0200-000010000000}" name="G" dataDxfId="118"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0200-000006000000}" name="rol" dataDxfId="117">
       <calculatedColumnFormula>SQRT(tblfoxz[[#This Row],[rx]]^2+tblfoxz[[#This Row],[ry]]^2+tblfoxz[[#This Row],[xo]]^2+tblfoxz[[#This Row],[yo]]^2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="fox" dataDxfId="141">
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="fox" dataDxfId="116">
       <calculatedColumnFormula>(tblfoxz[[#This Row],[E]]*PI()^2)/((tblfoxz[[#This Row],[lex]]/tblfoxz[[#This Row],[rx]])^2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="foz" dataDxfId="140">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="foz" dataDxfId="115">
       <calculatedColumnFormula>((tblfoxz[[#This Row],[G]]*tblfoxz[[#This Row],[J]])/(tblfoxz[[#This Row],[An]]*tblfoxz[[#This Row],[rol]]^2))*(1+((tblfoxz[[#This Row],[Iw]]*tblfoxz[[#This Row],[E]]*PI()^2)/(tblfoxz[[#This Row],[G]]*tblfoxz[[#This Row],[J]]*tblfoxz[[#This Row],[lez]]^2)))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="β" dataDxfId="139">
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="β" dataDxfId="114">
       <calculatedColumnFormula>1-(tblfoxz[[#This Row],[xo]]/tblfoxz[[#This Row],[rol]])^2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="f_oxz" dataDxfId="138">
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="f_oxz" dataDxfId="113">
       <calculatedColumnFormula>(1/(2*tblfoxz[[#This Row],[β]]))*((tblfoxz[[#This Row],[fox]]+tblfoxz[[#This Row],[foz]])-SQRT((tblfoxz[[#This Row],[fox]]+tblfoxz[[#This Row],[foz]])^2-4*tblfoxz[[#This Row],[β]]*tblfoxz[[#This Row],[fox]]*tblfoxz[[#This Row],[foz]]))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -7046,50 +7046,50 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="tblfocDblSym" displayName="tblfocDblSym" ref="B2:Z22" totalsRowShown="0" headerRowDxfId="137" dataDxfId="136">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="tblfocDblSym" displayName="tblfocDblSym" ref="B2:Z22" totalsRowShown="0" headerRowDxfId="112" dataDxfId="111">
   <autoFilter ref="B2:Z22" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
   <tableColumns count="25">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="Section" dataDxfId="135"/>
-    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0300-000012000000}" name="An" dataDxfId="134"/>
-    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0300-000017000000}" name="kf" dataDxfId="133"/>
-    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0300-00000E000000}" name="lex" dataDxfId="132"/>
-    <tableColumn id="25" xr3:uid="{00000000-0010-0000-0300-000019000000}" name="ley" dataDxfId="131"/>
-    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0300-000013000000}" name="lez" dataDxfId="130"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0300-00000C000000}" name="rx" dataDxfId="129"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0300-00000B000000}" name="ry" dataDxfId="128"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0300-000007000000}" name="xo" dataDxfId="127"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0300-00000A000000}" name="yo" dataDxfId="126"/>
-    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0300-000011000000}" name="J" dataDxfId="125"/>
-    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0300-000014000000}" name="Iw" dataDxfId="124"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0300-000008000000}" name="fy" dataDxfId="123"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0300-00000D000000}" name="E" dataDxfId="122"/>
-    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0300-000010000000}" name="G" dataDxfId="121"/>
-    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0300-000018000000}" name="Axis" dataDxfId="120"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0300-000006000000}" name="rol" dataDxfId="119">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="Section" dataDxfId="110"/>
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0300-000012000000}" name="An" dataDxfId="109"/>
+    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0300-000017000000}" name="kf" dataDxfId="108"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0300-00000E000000}" name="lex" dataDxfId="107"/>
+    <tableColumn id="25" xr3:uid="{00000000-0010-0000-0300-000019000000}" name="ley" dataDxfId="106"/>
+    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0300-000013000000}" name="lez" dataDxfId="105"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0300-00000C000000}" name="rx" dataDxfId="104"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0300-00000B000000}" name="ry" dataDxfId="103"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0300-000007000000}" name="xo" dataDxfId="102"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0300-00000A000000}" name="yo" dataDxfId="101"/>
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0300-000011000000}" name="J" dataDxfId="100"/>
+    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0300-000014000000}" name="Iw" dataDxfId="99"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0300-000008000000}" name="fy" dataDxfId="98"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0300-00000D000000}" name="E" dataDxfId="97"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0300-000010000000}" name="G" dataDxfId="96"/>
+    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0300-000018000000}" name="Axis" dataDxfId="95"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0300-000006000000}" name="rol" dataDxfId="94">
       <calculatedColumnFormula>SQRT(tblfocDblSym[[#This Row],[rx]]^2+tblfocDblSym[[#This Row],[ry]]^2+tblfocDblSym[[#This Row],[xo]]^2+tblfocDblSym[[#This Row],[yo]]^2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="fox" dataDxfId="118">
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="fox" dataDxfId="93">
       <calculatedColumnFormula>(tblfocDblSym[[#This Row],[E]]*PI()^2)/((tblfocDblSym[[#This Row],[lex]]/tblfocDblSym[[#This Row],[rx]])^2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="foz" dataDxfId="117">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="foz" dataDxfId="92">
       <calculatedColumnFormula>((tblfocDblSym[[#This Row],[G]]*tblfocDblSym[[#This Row],[J]])/(tblfocDblSym[[#This Row],[An]]*tblfocDblSym[[#This Row],[rol]]^2))*(1+((tblfocDblSym[[#This Row],[Iw]]*tblfocDblSym[[#This Row],[E]]*PI()^2)/(tblfocDblSym[[#This Row],[G]]*tblfocDblSym[[#This Row],[J]]*tblfocDblSym[[#This Row],[lez]]^2)))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="β" dataDxfId="116">
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="β" dataDxfId="91">
       <calculatedColumnFormula>1-(tblfocDblSym[[#This Row],[xo]]/tblfocDblSym[[#This Row],[rol]])^2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0300-000005000000}" name="foxz" dataDxfId="115">
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0300-000005000000}" name="foxz" dataDxfId="90">
       <calculatedColumnFormula>(1/(2*tblfocDblSym[[#This Row],[β]]))*((tblfocDblSym[[#This Row],[fox]]+tblfocDblSym[[#This Row],[foz]])-SQRT((tblfocDblSym[[#This Row],[fox]]+tblfocDblSym[[#This Row],[foz]])^2-4*tblfocDblSym[[#This Row],[β]]*tblfocDblSym[[#This Row],[fox]]*tblfocDblSym[[#This Row],[foz]]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0300-000015000000}" name="foc" dataDxfId="114">
+    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0300-000015000000}" name="foc" dataDxfId="89">
       <calculatedColumnFormula>MIN(tblfocDblSym[[#This Row],[foxz]],tblfocDblSym[[#This Row],[foz]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0300-000009000000}" name="λc" dataDxfId="113">
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0300-000009000000}" name="λc" dataDxfId="88">
       <calculatedColumnFormula>SQRT(tblfocDblSym[[#This Row],[fy]]/tblfocDblSym[[#This Row],[foc]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0300-00000F000000}" name="fn" dataDxfId="112">
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0300-00000F000000}" name="fn" dataDxfId="87">
       <calculatedColumnFormula>IF(tblfocDblSym[[#This Row],[λc]]&lt;=1.5,0.658^(tblfocDblSym[[#This Row],[λc]]^2),0.877/(tblfocDblSym[[#This Row],[λc]]^2))*tblfocDblSym[[#This Row],[fy]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0300-000016000000}" name="Nc" dataDxfId="111">
+    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0300-000016000000}" name="Nc" dataDxfId="86">
       <calculatedColumnFormula>0.85*tblfocDblSym[[#This Row],[An]]*tblfocDblSym[[#This Row],[kf]]*tblfocDblSym[[#This Row],[fn]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -7098,62 +7098,62 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="tblfocSglSym" displayName="tblfocSglSym" ref="B2:AC31" totalsRowShown="0" headerRowDxfId="110" dataDxfId="109">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="tblfocSglSym" displayName="tblfocSglSym" ref="B2:AC31" totalsRowShown="0" headerRowDxfId="85" dataDxfId="84">
   <autoFilter ref="B2:AC31" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:AC31">
     <sortCondition ref="B2:B31"/>
   </sortState>
   <tableColumns count="28">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="Section" dataDxfId="108"/>
-    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0400-000012000000}" name="An" dataDxfId="107"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0400-000008000000}" name="kf" dataDxfId="106"/>
-    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0400-00000E000000}" name="lex" dataDxfId="105"/>
-    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0400-000016000000}" name="ley" dataDxfId="104"/>
-    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0400-000013000000}" name="lez" dataDxfId="103"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0400-00000C000000}" name="rx" dataDxfId="102"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0400-00000B000000}" name="ry" dataDxfId="101"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0400-000007000000}" name="xo" dataDxfId="100"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0400-00000A000000}" name="yo" dataDxfId="99"/>
-    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0400-000011000000}" name="J" dataDxfId="98"/>
-    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0400-000014000000}" name="Iw" dataDxfId="97"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0400-000009000000}" name="fy" dataDxfId="96"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0400-00000D000000}" name="E" dataDxfId="95"/>
-    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0400-000010000000}" name="G" dataDxfId="94"/>
-    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0400-000015000000}" name="Axis" dataDxfId="93"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0400-000006000000}" name="rol" dataDxfId="92">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="Section" dataDxfId="83"/>
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0400-000012000000}" name="An" dataDxfId="82"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0400-000008000000}" name="kf" dataDxfId="81"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0400-00000E000000}" name="lex" dataDxfId="80"/>
+    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0400-000016000000}" name="ley" dataDxfId="79"/>
+    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0400-000013000000}" name="lez" dataDxfId="78"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0400-00000C000000}" name="rx" dataDxfId="77"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0400-00000B000000}" name="ry" dataDxfId="76"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0400-000007000000}" name="xo" dataDxfId="75"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0400-00000A000000}" name="yo" dataDxfId="74"/>
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0400-000011000000}" name="J" dataDxfId="73"/>
+    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0400-000014000000}" name="Iw" dataDxfId="72"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0400-000009000000}" name="fy" dataDxfId="71"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0400-00000D000000}" name="E" dataDxfId="70"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0400-000010000000}" name="G" dataDxfId="69"/>
+    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0400-000015000000}" name="Axis" dataDxfId="68"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0400-000006000000}" name="rol" dataDxfId="67">
       <calculatedColumnFormula>SQRT(tblfocSglSym[[#This Row],[rx]]^2+tblfocSglSym[[#This Row],[ry]]^2+tblfocSglSym[[#This Row],[xo]]^2+tblfocSglSym[[#This Row],[yo]]^2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0400-000003000000}" name="foz" dataDxfId="91">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0400-000003000000}" name="foz" dataDxfId="66">
       <calculatedColumnFormula>((tblfocSglSym[[#This Row],[G]]*tblfocSglSym[[#This Row],[J]])/(tblfocSglSym[[#This Row],[An]]*tblfocSglSym[[#This Row],[rol]]^2))*(1+((tblfocSglSym[[#This Row],[Iw]]*tblfocSglSym[[#This Row],[E]]*PI()^2)/(tblfocSglSym[[#This Row],[G]]*tblfocSglSym[[#This Row],[J]]*tblfocSglSym[[#This Row],[lez]]^2)))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="fox_x" dataDxfId="90">
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="fox_x" dataDxfId="65">
       <calculatedColumnFormula>(tblfocSglSym[[#This Row],[E]]*PI()^2)/((tblfocSglSym[[#This Row],[lex]]/tblfocSglSym[[#This Row],[rx]])^2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0400-000004000000}" name="βx" dataDxfId="89">
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0400-000004000000}" name="βx" dataDxfId="64">
       <calculatedColumnFormula>1-(tblfocSglSym[[#This Row],[xo]]/tblfocSglSym[[#This Row],[rol]])^2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0400-000005000000}" name="foxz_x" dataDxfId="88">
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0400-000005000000}" name="foxz_x" dataDxfId="63">
       <calculatedColumnFormula>(1/(2*tblfocSglSym[[#This Row],[βx]]))*((tblfocSglSym[[#This Row],[fox_x]]+tblfocSglSym[[#This Row],[foz]])-SQRT((tblfocSglSym[[#This Row],[fox_x]]+tblfocSglSym[[#This Row],[foz]])^2-4*tblfocSglSym[[#This Row],[βx]]*tblfocSglSym[[#This Row],[fox_x]]*tblfocSglSym[[#This Row],[foz]]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="29" xr3:uid="{00000000-0010-0000-0400-00001D000000}" name="fox_y" dataDxfId="87">
+    <tableColumn id="29" xr3:uid="{00000000-0010-0000-0400-00001D000000}" name="fox_y" dataDxfId="62">
       <calculatedColumnFormula>(tblfocSglSym[[#This Row],[E]]*PI()^2)/((tblfocSglSym[[#This Row],[ley]]/tblfocSglSym[[#This Row],[ry]])^2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="27" xr3:uid="{00000000-0010-0000-0400-00001B000000}" name="βy" dataDxfId="86">
+    <tableColumn id="27" xr3:uid="{00000000-0010-0000-0400-00001B000000}" name="βy" dataDxfId="61">
       <calculatedColumnFormula>1-(tblfocSglSym[[#This Row],[yo]]/tblfocSglSym[[#This Row],[rol]])^2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="26" xr3:uid="{00000000-0010-0000-0400-00001A000000}" name="foxz_y" dataDxfId="85">
+    <tableColumn id="26" xr3:uid="{00000000-0010-0000-0400-00001A000000}" name="foxz_y" dataDxfId="60">
       <calculatedColumnFormula>(1/(2*tblfocSglSym[[#This Row],[βy]]))*((tblfocSglSym[[#This Row],[fox_y]]+tblfocSglSym[[#This Row],[foz]])-SQRT((tblfocSglSym[[#This Row],[fox_y]]+tblfocSglSym[[#This Row],[foz]])^2-4*tblfocSglSym[[#This Row],[βy]]*tblfocSglSym[[#This Row],[fox_y]]*tblfocSglSym[[#This Row],[foz]]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0400-000017000000}" name="foc" dataDxfId="84">
+    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0400-000017000000}" name="foc" dataDxfId="59">
       <calculatedColumnFormula>IF(tblfocSglSym[[#This Row],[Axis]]="['x']",tblfocSglSym[[#This Row],[foxz_x]],tblfocSglSym[[#This Row],[foxz_y]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0400-00000F000000}" name="λc" dataDxfId="83">
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0400-00000F000000}" name="λc" dataDxfId="58">
       <calculatedColumnFormula>SQRT(tblfocSglSym[[#This Row],[fy]]/tblfocSglSym[[#This Row],[foc]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0400-000018000000}" name="fn" dataDxfId="82">
+    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0400-000018000000}" name="fn" dataDxfId="57">
       <calculatedColumnFormula>IF(tblfocSglSym[[#This Row],[λc]]&lt;=1.5,0.658^(tblfocSglSym[[#This Row],[λc]]^2),0.877/(tblfocSglSym[[#This Row],[λc]]^2))*tblfocSglSym[[#This Row],[fy]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="25" xr3:uid="{00000000-0010-0000-0400-000019000000}" name="Nc" dataDxfId="81">
+    <tableColumn id="25" xr3:uid="{00000000-0010-0000-0400-000019000000}" name="Nc" dataDxfId="56">
       <calculatedColumnFormula>0.85*tblfocSglSym[[#This Row],[An]]*tblfocSglSym[[#This Row],[kf]]*tblfocSglSym[[#This Row],[fn]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -7162,44 +7162,44 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="tblfocpntsym" displayName="tblfocpntsym" ref="B2:W51" totalsRowShown="0" headerRowDxfId="80" dataDxfId="79">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="tblfocpntsym" displayName="tblfocpntsym" ref="B2:W51" totalsRowShown="0" headerRowDxfId="55" dataDxfId="54">
   <autoFilter ref="B2:W51" xr:uid="{00000000-0009-0000-0100-000006000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:W59">
     <sortCondition ref="B2:B59"/>
   </sortState>
   <tableColumns count="22">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0500-000001000000}" name="Section" dataDxfId="78"/>
-    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0500-000012000000}" name="An" dataDxfId="77"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0500-000008000000}" name="kf" dataDxfId="76"/>
-    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0500-00000F000000}" name="lex" dataDxfId="75"/>
-    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0500-00000E000000}" name="ley" dataDxfId="74"/>
-    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0500-000013000000}" name="lez" dataDxfId="73"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0500-00000C000000}" name="rx" dataDxfId="72"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0500-00000B000000}" name="ry" dataDxfId="71"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0500-000007000000}" name="xo" dataDxfId="70"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0500-00000A000000}" name="yo" dataDxfId="69"/>
-    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0500-000011000000}" name="J" dataDxfId="68"/>
-    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0500-000014000000}" name="Iw" dataDxfId="67"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0500-000009000000}" name="fy" dataDxfId="66"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0500-00000D000000}" name="E" dataDxfId="65"/>
-    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0500-000010000000}" name="G" dataDxfId="64"/>
-    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0500-000015000000}" name="Axis" dataDxfId="63"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0500-000006000000}" name="rol" dataDxfId="62">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0500-000001000000}" name="Section" dataDxfId="53"/>
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0500-000012000000}" name="An" dataDxfId="52"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0500-000008000000}" name="kf" dataDxfId="51"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0500-00000F000000}" name="lex" dataDxfId="50"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0500-00000E000000}" name="ley" dataDxfId="49"/>
+    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0500-000013000000}" name="lez" dataDxfId="48"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0500-00000C000000}" name="rx" dataDxfId="47"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0500-00000B000000}" name="ry" dataDxfId="46"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0500-000007000000}" name="xo" dataDxfId="45"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0500-00000A000000}" name="yo" dataDxfId="44"/>
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0500-000011000000}" name="J" dataDxfId="43"/>
+    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0500-000014000000}" name="Iw" dataDxfId="42"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0500-000009000000}" name="fy" dataDxfId="41"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0500-00000D000000}" name="E" dataDxfId="40"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0500-000010000000}" name="G" dataDxfId="39"/>
+    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0500-000015000000}" name="Axis" dataDxfId="38"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0500-000006000000}" name="rol" dataDxfId="37">
       <calculatedColumnFormula>SQRT(tblfocpntsym[[#This Row],[rx]]^2+tblfocpntsym[[#This Row],[ry]]^2+tblfocpntsym[[#This Row],[xo]]^2+tblfocpntsym[[#This Row],[yo]]^2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0500-000003000000}" name="foz" dataDxfId="61">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0500-000003000000}" name="foz" dataDxfId="36">
       <calculatedColumnFormula>((tblfocpntsym[[#This Row],[G]]*tblfocpntsym[[#This Row],[J]])/(tblfocpntsym[[#This Row],[An]]*tblfocpntsym[[#This Row],[rol]]^2))*(1+((tblfocpntsym[[#This Row],[Iw]]*tblfocpntsym[[#This Row],[E]]*PI()^2)/(tblfocpntsym[[#This Row],[G]]*tblfocpntsym[[#This Row],[J]]*tblfocpntsym[[#This Row],[lez]]^2)))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0500-000018000000}" name="foc" dataDxfId="60">
+    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0500-000018000000}" name="foc" dataDxfId="35">
       <calculatedColumnFormula>tblfocpntsym[[#This Row],[foz]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0500-000002000000}" name="λc" dataDxfId="59">
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0500-000002000000}" name="λc" dataDxfId="34">
       <calculatedColumnFormula>SQRT(tblfocpntsym[[#This Row],[fy]]/tblfocpntsym[[#This Row],[foc]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0500-000004000000}" name="fn" dataDxfId="58">
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0500-000004000000}" name="fn" dataDxfId="33">
       <calculatedColumnFormula>IF(tblfocpntsym[[#This Row],[λc]]&lt;=1.5,0.658^(tblfocpntsym[[#This Row],[λc]]^2),0.877/(tblfocpntsym[[#This Row],[λc]]^2))*tblfocpntsym[[#This Row],[fy]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0500-000005000000}" name="Nc" dataDxfId="57">
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0500-000005000000}" name="Nc" dataDxfId="32">
       <calculatedColumnFormula>0.85*tblfocpntsym[[#This Row],[An]]*tblfocpntsym[[#This Row],[kf]]*tblfocpntsym[[#This Row],[fn]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -7208,63 +7208,63 @@
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{00000000-000C-0000-FFFF-FFFF06000000}" name="tblfocunsym" displayName="tblfocunsym" ref="B2:AD57" totalsRowShown="0" headerRowDxfId="56" dataDxfId="55">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{00000000-000C-0000-FFFF-FFFF06000000}" name="tblfocunsym" displayName="tblfocunsym" ref="B2:AD57" totalsRowShown="0" headerRowDxfId="31" dataDxfId="30">
   <autoFilter ref="B2:AD57" xr:uid="{00000000-0009-0000-0100-000007000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:AD57">
     <sortCondition ref="B2:B57"/>
   </sortState>
   <tableColumns count="29">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0600-000001000000}" name="Section" dataDxfId="54"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0600-000004000000}" name="An" dataDxfId="53"/>
-    <tableColumn id="25" xr3:uid="{00000000-0010-0000-0600-000019000000}" name="kf" dataDxfId="52"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0600-000007000000}" name="lex" dataDxfId="51"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0600-000008000000}" name="ley" dataDxfId="50"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0600-000009000000}" name="lez" dataDxfId="49"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0600-00000A000000}" name="rx" dataDxfId="48"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0600-00000B000000}" name="ry" dataDxfId="47"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0600-00000C000000}" name="xo" dataDxfId="46"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0600-00000D000000}" name="yo" dataDxfId="45"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0600-000005000000}" name="J" dataDxfId="44"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0600-000006000000}" name="Iw" dataDxfId="43"/>
-    <tableColumn id="26" xr3:uid="{00000000-0010-0000-0600-00001A000000}" name="fy" dataDxfId="42"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0600-000002000000}" name="E" dataDxfId="41"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0600-000003000000}" name="G" dataDxfId="40"/>
-    <tableColumn id="30" xr3:uid="{00000000-0010-0000-0600-00001E000000}" name="Axis" dataDxfId="39"/>
-    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0600-00000E000000}" name="rol" dataDxfId="38">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0600-000001000000}" name="Section" dataDxfId="29"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0600-000004000000}" name="An" dataDxfId="28"/>
+    <tableColumn id="25" xr3:uid="{00000000-0010-0000-0600-000019000000}" name="kf" dataDxfId="27"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0600-000007000000}" name="lex" dataDxfId="26"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0600-000008000000}" name="ley" dataDxfId="25"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0600-000009000000}" name="lez" dataDxfId="24"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0600-00000A000000}" name="rx" dataDxfId="23"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0600-00000B000000}" name="ry" dataDxfId="22"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0600-00000C000000}" name="xo" dataDxfId="21"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0600-00000D000000}" name="yo" dataDxfId="20"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0600-000005000000}" name="J" dataDxfId="19"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0600-000006000000}" name="Iw" dataDxfId="18"/>
+    <tableColumn id="26" xr3:uid="{00000000-0010-0000-0600-00001A000000}" name="fy" dataDxfId="17"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0600-000002000000}" name="E" dataDxfId="16"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0600-000003000000}" name="G" dataDxfId="15"/>
+    <tableColumn id="30" xr3:uid="{00000000-0010-0000-0600-00001E000000}" name="Axis" dataDxfId="14"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0600-00000E000000}" name="rol" dataDxfId="13">
       <calculatedColumnFormula>SQRT(tblfocunsym[[#This Row],[rx]]^2+tblfocunsym[[#This Row],[ry]]^2+tblfocunsym[[#This Row],[xo]]^2+tblfocunsym[[#This Row],[yo]]^2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0600-000011000000}" name="fox" dataDxfId="37">
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0600-000011000000}" name="fox" dataDxfId="12">
       <calculatedColumnFormula>(tblfocunsym[[#This Row],[E]]*PI()^2)/((tblfocunsym[[#This Row],[lex]]/tblfocunsym[[#This Row],[rx]])^2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0600-000010000000}" name="foy" dataDxfId="36">
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0600-000010000000}" name="foy" dataDxfId="11">
       <calculatedColumnFormula>(tblfocunsym[[#This Row],[E]]*PI()^2)/((tblfocunsym[[#This Row],[ley]]/tblfocunsym[[#This Row],[ry]])^2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0600-00000F000000}" name="foz" dataDxfId="35">
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0600-00000F000000}" name="foz" dataDxfId="10">
       <calculatedColumnFormula>((tblfocunsym[[#This Row],[G]]*tblfocunsym[[#This Row],[J]])/(tblfocunsym[[#This Row],[An]]*tblfocunsym[[#This Row],[rol]]^2))*(1+((tblfocunsym[[#This Row],[Iw]]*tblfocunsym[[#This Row],[E]]*PI()^2)/(tblfocunsym[[#This Row],[G]]*tblfocunsym[[#This Row],[J]]*tblfocunsym[[#This Row],[lez]]^2)))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0600-000012000000}" name="a" dataDxfId="34">
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0600-000012000000}" name="a" dataDxfId="9">
       <calculatedColumnFormula>((tblfocunsym[[#This Row],[rol]]^2)-((tblfocunsym[[#This Row],[xo]]^2)*(tblfocunsym[[#This Row],[yo]]^2)))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0600-000013000000}" name="b" dataDxfId="33">
+    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0600-000013000000}" name="b" dataDxfId="8">
       <calculatedColumnFormula>((tblfocunsym[[#This Row],[rol]]^2)*(tblfocunsym[[#This Row],[fox]]+tblfocunsym[[#This Row],[foy]]+tblfocunsym[[#This Row],[foz]])-((tblfocunsym[[#This Row],[foy]]*(tblfocunsym[[#This Row],[xo]]^2))+(tblfocunsym[[#This Row],[fox]]*(tblfocunsym[[#This Row],[yo]]^2))))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0600-000014000000}" name="c" dataDxfId="32">
+    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0600-000014000000}" name="c" dataDxfId="7">
       <calculatedColumnFormula>((tblfocunsym[[#This Row],[fox]]*tblfocunsym[[#This Row],[foy]])+(tblfocunsym[[#This Row],[foy]]*tblfocunsym[[#This Row],[foz]])+(tblfocunsym[[#This Row],[fox]]*tblfocunsym[[#This Row],[foz]]))*(tblfocunsym[[#This Row],[rol]]^2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0600-000015000000}" name="d" dataDxfId="31">
+    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0600-000015000000}" name="d" dataDxfId="6">
       <calculatedColumnFormula>tblfocunsym[[#This Row],[fox]]*tblfocunsym[[#This Row],[foy]]*tblfocunsym[[#This Row],[foz]]*tblfocunsym[[#This Row],[rol]]*tblfocunsym[[#This Row],[rol]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0600-000017000000}" name="eqn" dataDxfId="30">
+    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0600-000017000000}" name="eqn" dataDxfId="5">
       <calculatedColumnFormula>tblfocunsym[[#This Row],[a]]*tblfocunsym[[#This Row],[foc]]^3-tblfocunsym[[#This Row],[b]]*tblfocunsym[[#This Row],[foc]]^2+tblfocunsym[[#This Row],[c]]*tblfocunsym[[#This Row],[foc]]-tblfocunsym[[#This Row],[d]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0600-000018000000}" name="foc" dataDxfId="29"/>
-    <tableColumn id="27" xr3:uid="{00000000-0010-0000-0600-00001B000000}" name="λc" dataDxfId="28">
+    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0600-000018000000}" name="foc" dataDxfId="4"/>
+    <tableColumn id="27" xr3:uid="{00000000-0010-0000-0600-00001B000000}" name="λc" dataDxfId="3">
       <calculatedColumnFormula>SQRT(tblfocunsym[[#This Row],[fy]]/tblfocunsym[[#This Row],[foc]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="28" xr3:uid="{00000000-0010-0000-0600-00001C000000}" name="fn" dataDxfId="27">
+    <tableColumn id="28" xr3:uid="{00000000-0010-0000-0600-00001C000000}" name="fn" dataDxfId="2">
       <calculatedColumnFormula>IF(tblfocunsym[[#This Row],[λc]]&lt;=1.5,0.658^(tblfocunsym[[#This Row],[λc]]^2),0.877/(tblfocunsym[[#This Row],[λc]]^2))*tblfocunsym[[#This Row],[fy]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="29" xr3:uid="{00000000-0010-0000-0600-00001D000000}" name="Nc" dataDxfId="26">
+    <tableColumn id="29" xr3:uid="{00000000-0010-0000-0600-00001D000000}" name="Nc" dataDxfId="1">
       <calculatedColumnFormula>0.85*tblfocunsym[[#This Row],[An]]*tblfocunsym[[#This Row],[kf]]*tblfocunsym[[#This Row],[fn]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -7571,8 +7571,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B07B9FFD-D534-4711-893F-11708AF69116}">
   <dimension ref="B2:AA27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="AA3" sqref="AA3:AA25"/>
+    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="AA4" sqref="AA4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7749,8 +7749,8 @@
         <v>1.7919999999999998E-2</v>
       </c>
       <c r="AA3" s="94">
-        <f>Table8[[#This Row],[Aw]]*Table8[[#This Row],[fy]]</f>
-        <v>4480000</v>
+        <f>Table8[[#This Row],[Aw]]*Table8[[#This Row],[fy]]*0.6</f>
+        <v>2688000</v>
       </c>
     </row>
     <row r="4" spans="2:27" x14ac:dyDescent="0.25">
@@ -7831,8 +7831,8 @@
         <v>1.7919999999999998E-2</v>
       </c>
       <c r="AA4" s="94">
-        <f>Table8[[#This Row],[Aw]]*Table8[[#This Row],[fy]]</f>
-        <v>4480000</v>
+        <f>Table8[[#This Row],[Aw]]*Table8[[#This Row],[fy]]*0.6</f>
+        <v>2688000</v>
       </c>
     </row>
     <row r="5" spans="2:27" x14ac:dyDescent="0.25">
@@ -7913,8 +7913,8 @@
         <v>1.7919999999999998E-2</v>
       </c>
       <c r="AA5" s="94">
-        <f>Table8[[#This Row],[Aw]]*Table8[[#This Row],[fy]]</f>
-        <v>4480000</v>
+        <f>Table8[[#This Row],[Aw]]*Table8[[#This Row],[fy]]*0.6</f>
+        <v>2688000</v>
       </c>
     </row>
     <row r="6" spans="2:27" x14ac:dyDescent="0.25">
@@ -7995,8 +7995,8 @@
         <v>1.7919999999999998E-2</v>
       </c>
       <c r="AA6" s="94">
-        <f>Table8[[#This Row],[Aw]]*Table8[[#This Row],[fy]]</f>
-        <v>4480000</v>
+        <f>Table8[[#This Row],[Aw]]*Table8[[#This Row],[fy]]*0.6</f>
+        <v>2688000</v>
       </c>
     </row>
     <row r="7" spans="2:27" x14ac:dyDescent="0.25">
@@ -8077,8 +8077,8 @@
         <v>1.7919999999999998E-2</v>
       </c>
       <c r="AA7" s="94">
-        <f>Table8[[#This Row],[Aw]]*Table8[[#This Row],[fy]]</f>
-        <v>4480000</v>
+        <f>Table8[[#This Row],[Aw]]*Table8[[#This Row],[fy]]*0.6</f>
+        <v>2688000</v>
       </c>
     </row>
     <row r="8" spans="2:27" x14ac:dyDescent="0.25">
@@ -8159,8 +8159,8 @@
         <v>1.7919999999999998E-2</v>
       </c>
       <c r="AA8" s="94">
-        <f>Table8[[#This Row],[Aw]]*Table8[[#This Row],[fy]]</f>
-        <v>4480000</v>
+        <f>Table8[[#This Row],[Aw]]*Table8[[#This Row],[fy]]*0.6</f>
+        <v>2688000</v>
       </c>
     </row>
     <row r="9" spans="2:27" x14ac:dyDescent="0.25">
@@ -8241,8 +8241,8 @@
         <v>1.7919999999999998E-2</v>
       </c>
       <c r="AA9" s="94">
-        <f>Table8[[#This Row],[Aw]]*Table8[[#This Row],[fy]]</f>
-        <v>4480000</v>
+        <f>Table8[[#This Row],[Aw]]*Table8[[#This Row],[fy]]*0.6</f>
+        <v>2688000</v>
       </c>
     </row>
     <row r="10" spans="2:27" x14ac:dyDescent="0.25">
@@ -8323,8 +8323,8 @@
         <v>1.536E-2</v>
       </c>
       <c r="AA10" s="94">
-        <f>Table8[[#This Row],[Aw]]*Table8[[#This Row],[fy]]</f>
-        <v>3840000</v>
+        <f>Table8[[#This Row],[Aw]]*Table8[[#This Row],[fy]]*0.6</f>
+        <v>2304000</v>
       </c>
     </row>
     <row r="11" spans="2:27" x14ac:dyDescent="0.25">
@@ -8405,8 +8405,8 @@
         <v>1.536E-2</v>
       </c>
       <c r="AA11" s="94">
-        <f>Table8[[#This Row],[Aw]]*Table8[[#This Row],[fy]]</f>
-        <v>3840000</v>
+        <f>Table8[[#This Row],[Aw]]*Table8[[#This Row],[fy]]*0.6</f>
+        <v>2304000</v>
       </c>
     </row>
     <row r="12" spans="2:27" x14ac:dyDescent="0.25">
@@ -8487,8 +8487,8 @@
         <v>1.536E-2</v>
       </c>
       <c r="AA12" s="94">
-        <f>Table8[[#This Row],[Aw]]*Table8[[#This Row],[fy]]</f>
-        <v>3840000</v>
+        <f>Table8[[#This Row],[Aw]]*Table8[[#This Row],[fy]]*0.6</f>
+        <v>2304000</v>
       </c>
     </row>
     <row r="13" spans="2:27" x14ac:dyDescent="0.25">
@@ -8569,8 +8569,8 @@
         <v>1.536E-2</v>
       </c>
       <c r="AA13" s="94">
-        <f>Table8[[#This Row],[Aw]]*Table8[[#This Row],[fy]]</f>
-        <v>3840000</v>
+        <f>Table8[[#This Row],[Aw]]*Table8[[#This Row],[fy]]*0.6</f>
+        <v>2304000</v>
       </c>
     </row>
     <row r="14" spans="2:27" x14ac:dyDescent="0.25">
@@ -8651,8 +8651,8 @@
         <v>1.0320000000000001E-2</v>
       </c>
       <c r="AA14" s="94">
-        <f>Table8[[#This Row],[Aw]]*Table8[[#This Row],[fy]]</f>
-        <v>2580000.0000000005</v>
+        <f>Table8[[#This Row],[Aw]]*Table8[[#This Row],[fy]]*0.6</f>
+        <v>1548000.0000000002</v>
       </c>
     </row>
     <row r="15" spans="2:27" x14ac:dyDescent="0.25">
@@ -8733,8 +8733,8 @@
         <v>1.0319999999999999E-2</v>
       </c>
       <c r="AA15" s="94">
-        <f>Table8[[#This Row],[Aw]]*Table8[[#This Row],[fy]]</f>
-        <v>2580000</v>
+        <f>Table8[[#This Row],[Aw]]*Table8[[#This Row],[fy]]*0.6</f>
+        <v>1548000</v>
       </c>
     </row>
     <row r="16" spans="2:27" x14ac:dyDescent="0.25">
@@ -8815,8 +8815,8 @@
         <v>1.0319999999999999E-2</v>
       </c>
       <c r="AA16" s="94">
-        <f>Table8[[#This Row],[Aw]]*Table8[[#This Row],[fy]]</f>
-        <v>2580000</v>
+        <f>Table8[[#This Row],[Aw]]*Table8[[#This Row],[fy]]*0.6</f>
+        <v>1548000</v>
       </c>
     </row>
     <row r="17" spans="2:27" x14ac:dyDescent="0.25">
@@ -8897,8 +8897,8 @@
         <v>1.0319999999999999E-2</v>
       </c>
       <c r="AA17" s="94">
-        <f>Table8[[#This Row],[Aw]]*Table8[[#This Row],[fy]]</f>
-        <v>2580000</v>
+        <f>Table8[[#This Row],[Aw]]*Table8[[#This Row],[fy]]*0.6</f>
+        <v>1548000</v>
       </c>
     </row>
     <row r="18" spans="2:27" x14ac:dyDescent="0.25">
@@ -8979,8 +8979,8 @@
         <v>7.5999999999999991E-3</v>
       </c>
       <c r="AA18" s="94">
-        <f>Table8[[#This Row],[Aw]]*Table8[[#This Row],[fy]]</f>
-        <v>1899999.9999999998</v>
+        <f>Table8[[#This Row],[Aw]]*Table8[[#This Row],[fy]]*0.6</f>
+        <v>1139999.9999999998</v>
       </c>
     </row>
     <row r="19" spans="2:27" x14ac:dyDescent="0.25">
@@ -9061,8 +9061,8 @@
         <v>7.6E-3</v>
       </c>
       <c r="AA19" s="94">
-        <f>Table8[[#This Row],[Aw]]*Table8[[#This Row],[fy]]</f>
-        <v>1900000</v>
+        <f>Table8[[#This Row],[Aw]]*Table8[[#This Row],[fy]]*0.6</f>
+        <v>1140000</v>
       </c>
     </row>
     <row r="20" spans="2:27" x14ac:dyDescent="0.25">
@@ -9143,8 +9143,8 @@
         <v>7.6E-3</v>
       </c>
       <c r="AA20" s="94">
-        <f>Table8[[#This Row],[Aw]]*Table8[[#This Row],[fy]]</f>
-        <v>1900000</v>
+        <f>Table8[[#This Row],[Aw]]*Table8[[#This Row],[fy]]*0.6</f>
+        <v>1140000</v>
       </c>
     </row>
     <row r="21" spans="2:27" x14ac:dyDescent="0.25">
@@ -9225,8 +9225,8 @@
         <v>7.6E-3</v>
       </c>
       <c r="AA21" s="94">
-        <f>Table8[[#This Row],[Aw]]*Table8[[#This Row],[fy]]</f>
-        <v>1900000</v>
+        <f>Table8[[#This Row],[Aw]]*Table8[[#This Row],[fy]]*0.6</f>
+        <v>1140000</v>
       </c>
     </row>
     <row r="22" spans="2:27" x14ac:dyDescent="0.25">
@@ -9307,8 +9307,8 @@
         <v>6.5999999999999991E-3</v>
       </c>
       <c r="AA22" s="94">
-        <f>Table8[[#This Row],[Aw]]*Table8[[#This Row],[fy]]</f>
-        <v>1649999.9999999998</v>
+        <f>Table8[[#This Row],[Aw]]*Table8[[#This Row],[fy]]*0.6</f>
+        <v>989999.99999999977</v>
       </c>
     </row>
     <row r="23" spans="2:27" x14ac:dyDescent="0.25">
@@ -9389,8 +9389,8 @@
         <v>6.5999999999999991E-3</v>
       </c>
       <c r="AA23" s="94">
-        <f>Table8[[#This Row],[Aw]]*Table8[[#This Row],[fy]]</f>
-        <v>1649999.9999999998</v>
+        <f>Table8[[#This Row],[Aw]]*Table8[[#This Row],[fy]]*0.6</f>
+        <v>989999.99999999977</v>
       </c>
     </row>
     <row r="24" spans="2:27" x14ac:dyDescent="0.25">
@@ -9471,8 +9471,8 @@
         <v>6.5999999999999991E-3</v>
       </c>
       <c r="AA24" s="94">
-        <f>Table8[[#This Row],[Aw]]*Table8[[#This Row],[fy]]</f>
-        <v>1649999.9999999998</v>
+        <f>Table8[[#This Row],[Aw]]*Table8[[#This Row],[fy]]*0.6</f>
+        <v>989999.99999999977</v>
       </c>
     </row>
     <row r="25" spans="2:27" x14ac:dyDescent="0.25">
@@ -9553,8 +9553,8 @@
         <v>6.5999999999999991E-3</v>
       </c>
       <c r="AA25" s="94">
-        <f>Table8[[#This Row],[Aw]]*Table8[[#This Row],[fy]]</f>
-        <v>1649999.9999999998</v>
+        <f>Table8[[#This Row],[Aw]]*Table8[[#This Row],[fy]]*0.6</f>
+        <v>989999.99999999977</v>
       </c>
     </row>
     <row r="27" spans="2:27" x14ac:dyDescent="0.25">

--- a/tests/Excel/AS4100_5_Shear Verification.xlsx
+++ b/tests/Excel/AS4100_5_Shear Verification.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\seank\PycharmProjects\BeamDesign\tests\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98A38079-44E6-42C4-B233-3AEBBB6BF9F0}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F0EFB1C-E99D-4352-97E7-14D8D06BBEFD}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11910" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11910" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Is" sheetId="11" r:id="rId1"/>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1227" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1231" uniqueCount="256">
   <si>
     <t>J</t>
   </si>
@@ -1362,6 +1362,53 @@
       <t>u</t>
     </r>
   </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>α</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="9.35"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>v</t>
+    </r>
+  </si>
+  <si>
+    <t>limiting web slenderness</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>α</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="9.35"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>v</t>
+    </r>
+  </si>
 </sst>
 </file>
 
@@ -1382,7 +1429,7 @@
     <numFmt numFmtId="175" formatCode="0&quot; kg / m&quot;"/>
     <numFmt numFmtId="176" formatCode="0.000"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1444,6 +1491,27 @@
     <font>
       <sz val="11"/>
       <color rgb="FF404041"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <vertAlign val="subscript"/>
+      <sz val="9.35"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <vertAlign val="subscript"/>
+      <sz val="9.35"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1542,7 +1610,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1593,16 +1661,46 @@
     <xf numFmtId="176" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="90">
+  <dxfs count="94">
+    <dxf>
+      <numFmt numFmtId="176" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="169" formatCode="##0.00E+00&quot; N&quot;"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="169" formatCode="##0.00E+00&quot; N&quot;"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="170" formatCode="##0.00E+00&quot; Pa&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="170" formatCode="##0.00E+00&quot; Pa&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.000&quot; m&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="169" formatCode="##0.00E+00&quot; N&quot;"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="170" formatCode="##0.00E+00&quot; Pa&quot;"/>
@@ -1784,18 +1882,6 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="170" formatCode="##0.00E+00&quot; Pa&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.000&quot; m&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="169" formatCode="##0.00E+00&quot; N&quot;"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="174" formatCode="##0.00E+00&quot; m²&quot;"/>
@@ -2100,9 +2186,6 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="169" formatCode="##0.00E+00&quot; N&quot;"/>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="174" formatCode="##0.00E+00&quot; m²&quot;"/>
     </dxf>
     <dxf>
@@ -2388,9 +2471,9 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="tblIntegral" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
-      <tableStyleElement type="wholeTable" dxfId="89"/>
-      <tableStyleElement type="headerRow" dxfId="88"/>
-      <tableStyleElement type="secondRowStripe" dxfId="87"/>
+      <tableStyleElement type="wholeTable" dxfId="93"/>
+      <tableStyleElement type="headerRow" dxfId="92"/>
+      <tableStyleElement type="secondRowStripe" dxfId="91"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -2461,6 +2544,7 @@
       <sheetName val="UAdes"/>
       <sheetName val="RAILdim"/>
       <sheetName val="lookups"/>
+      <sheetName val="Australian Standard Section Pro"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0"/>
@@ -2510,51 +2594,58 @@
       <sheetData sheetId="44"/>
       <sheetData sheetId="45"/>
       <sheetData sheetId="46"/>
+      <sheetData sheetId="47" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{EDDEE4D4-895F-4D98-BD2B-A1595D136FE1}" name="Table8" displayName="Table8" ref="B2:AD132" totalsRowShown="0">
-  <autoFilter ref="B2:AD132" xr:uid="{0AC04653-982D-4DB0-97C0-530DC6DA1D7C}"/>
-  <tableColumns count="29">
-    <tableColumn id="27" xr3:uid="{F0C68715-1699-4435-A336-CF305A8B079E}" name="Test_Name" dataDxfId="86">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{EDDEE4D4-895F-4D98-BD2B-A1595D136FE1}" name="Table8" displayName="Table8" ref="B2:AF132" totalsRowShown="0">
+  <autoFilter ref="B2:AF132" xr:uid="{0AC04653-982D-4DB0-97C0-530DC6DA1D7C}"/>
+  <tableColumns count="31">
+    <tableColumn id="27" xr3:uid="{F0C68715-1699-4435-A336-CF305A8B079E}" name="Test_Name" dataDxfId="90">
       <calculatedColumnFormula>Table8[[#This Row],[Section]]&amp;"-"&amp;TEXT(Table8[[#This Row],[Grade]],"0")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="1" xr3:uid="{280EAB9D-68EA-4683-A885-68F041F7C696}" name="Section" dataDxfId="85"/>
-    <tableColumn id="29" xr3:uid="{5010BFA1-B99D-42AE-851A-22DE2AA6C466}" name="Grade" dataDxfId="84"/>
-    <tableColumn id="2" xr3:uid="{607776AD-1CEA-4ABA-9EBB-6E7242760D55}" name="Designation" dataDxfId="83"/>
-    <tableColumn id="3" xr3:uid="{8B64A8C3-F92A-47F9-96F3-AA3D2FB57C71}" name="Mass" dataDxfId="82"/>
-    <tableColumn id="4" xr3:uid="{C3F54EAF-B082-4E92-89A4-EB922C48C2FD}" name="Section Type" dataDxfId="81"/>
-    <tableColumn id="5" xr3:uid="{099E95F4-155C-46BC-9B68-09B5DC82AC9E}" name="Fabrication Type" dataDxfId="80"/>
-    <tableColumn id="6" xr3:uid="{603611E8-32D2-418A-B7F1-7978728F31CE}" name="d" dataDxfId="79"/>
-    <tableColumn id="7" xr3:uid="{8C2BF6A8-8480-4D0B-8189-8DD35F84F37A}" name="bf" dataDxfId="78"/>
-    <tableColumn id="8" xr3:uid="{AF33BA8F-44DE-4FA5-B937-5086CFDD19FF}" name="tf" dataDxfId="77"/>
-    <tableColumn id="9" xr3:uid="{688540C0-5BD0-4CE3-8BC7-7345CE0E5749}" name="tw" dataDxfId="76"/>
-    <tableColumn id="30" xr3:uid="{360F5B09-D453-4A68-ABB3-C009F0F472BF}" name="r1" dataDxfId="75"/>
-    <tableColumn id="10" xr3:uid="{1C612196-CED2-42B0-865A-D4E03216B7B7}" name="d1" dataDxfId="74"/>
-    <tableColumn id="11" xr3:uid="{4F3DA98F-ED30-4ACB-A515-75F8C0DC4843}" name="d1 / tw" dataDxfId="73"/>
-    <tableColumn id="12" xr3:uid="{22B64CBB-F443-44A9-9500-7B9BBDFB124B}" name="(bf - tw) / (2 × tf)" dataDxfId="72"/>
-    <tableColumn id="13" xr3:uid="{D4DF694A-4484-4C9F-9376-6A57C15AF617}" name="Ag" dataDxfId="71"/>
-    <tableColumn id="14" xr3:uid="{3724EE49-662E-4E0E-A37B-3ADE156496AD}" name="Ix" dataDxfId="70"/>
-    <tableColumn id="15" xr3:uid="{AD4648AD-343E-4A35-9246-69098C5044CC}" name="Zx" dataDxfId="69"/>
-    <tableColumn id="16" xr3:uid="{0ABFCF14-5F21-419A-9559-2CA91A10474B}" name="Sx" dataDxfId="68"/>
-    <tableColumn id="17" xr3:uid="{DC4F87E0-E5C6-4D73-A757-8F63BAF7554D}" name="rx" dataDxfId="67"/>
-    <tableColumn id="18" xr3:uid="{23E1E09C-910E-46AB-90C7-90D38D81B99E}" name="Iy" dataDxfId="66"/>
-    <tableColumn id="19" xr3:uid="{885B4339-7E0D-4B91-9FC6-5D81E2299F9C}" name="Zy" dataDxfId="65"/>
-    <tableColumn id="20" xr3:uid="{84C35746-536E-4B01-8256-14A9DCAB142B}" name="Sy" dataDxfId="64"/>
-    <tableColumn id="21" xr3:uid="{A7686837-B7AE-4BAE-88E2-6F9FAD730E01}" name="ry" dataDxfId="63"/>
-    <tableColumn id="22" xr3:uid="{767ED161-3BD1-4294-96E7-EF008EBAF27A}" name="J" dataDxfId="62"/>
-    <tableColumn id="23" xr3:uid="{4874CB8A-E902-4CEB-AEFF-C3681E512597}" name="Iw" dataDxfId="61"/>
-    <tableColumn id="26" xr3:uid="{4B448337-5DAD-4159-85BB-146825F8C228}" name="fy" dataDxfId="60">
+    <tableColumn id="1" xr3:uid="{280EAB9D-68EA-4683-A885-68F041F7C696}" name="Section" dataDxfId="89"/>
+    <tableColumn id="29" xr3:uid="{5010BFA1-B99D-42AE-851A-22DE2AA6C466}" name="Grade" dataDxfId="88"/>
+    <tableColumn id="2" xr3:uid="{607776AD-1CEA-4ABA-9EBB-6E7242760D55}" name="Designation" dataDxfId="87"/>
+    <tableColumn id="3" xr3:uid="{8B64A8C3-F92A-47F9-96F3-AA3D2FB57C71}" name="Mass" dataDxfId="86"/>
+    <tableColumn id="4" xr3:uid="{C3F54EAF-B082-4E92-89A4-EB922C48C2FD}" name="Section Type" dataDxfId="85"/>
+    <tableColumn id="5" xr3:uid="{099E95F4-155C-46BC-9B68-09B5DC82AC9E}" name="Fabrication Type" dataDxfId="84"/>
+    <tableColumn id="6" xr3:uid="{603611E8-32D2-418A-B7F1-7978728F31CE}" name="d" dataDxfId="83"/>
+    <tableColumn id="7" xr3:uid="{8C2BF6A8-8480-4D0B-8189-8DD35F84F37A}" name="bf" dataDxfId="82"/>
+    <tableColumn id="8" xr3:uid="{AF33BA8F-44DE-4FA5-B937-5086CFDD19FF}" name="tf" dataDxfId="81"/>
+    <tableColumn id="9" xr3:uid="{688540C0-5BD0-4CE3-8BC7-7345CE0E5749}" name="tw" dataDxfId="80"/>
+    <tableColumn id="30" xr3:uid="{360F5B09-D453-4A68-ABB3-C009F0F472BF}" name="r1" dataDxfId="79"/>
+    <tableColumn id="10" xr3:uid="{1C612196-CED2-42B0-865A-D4E03216B7B7}" name="d1" dataDxfId="78"/>
+    <tableColumn id="11" xr3:uid="{4F3DA98F-ED30-4ACB-A515-75F8C0DC4843}" name="d1 / tw" dataDxfId="77"/>
+    <tableColumn id="12" xr3:uid="{22B64CBB-F443-44A9-9500-7B9BBDFB124B}" name="(bf - tw) / (2 × tf)" dataDxfId="76"/>
+    <tableColumn id="13" xr3:uid="{D4DF694A-4484-4C9F-9376-6A57C15AF617}" name="Ag" dataDxfId="75"/>
+    <tableColumn id="14" xr3:uid="{3724EE49-662E-4E0E-A37B-3ADE156496AD}" name="Ix" dataDxfId="74"/>
+    <tableColumn id="15" xr3:uid="{AD4648AD-343E-4A35-9246-69098C5044CC}" name="Zx" dataDxfId="73"/>
+    <tableColumn id="16" xr3:uid="{0ABFCF14-5F21-419A-9559-2CA91A10474B}" name="Sx" dataDxfId="72"/>
+    <tableColumn id="17" xr3:uid="{DC4F87E0-E5C6-4D73-A757-8F63BAF7554D}" name="rx" dataDxfId="71"/>
+    <tableColumn id="18" xr3:uid="{23E1E09C-910E-46AB-90C7-90D38D81B99E}" name="Iy" dataDxfId="70"/>
+    <tableColumn id="19" xr3:uid="{885B4339-7E0D-4B91-9FC6-5D81E2299F9C}" name="Zy" dataDxfId="69"/>
+    <tableColumn id="20" xr3:uid="{84C35746-536E-4B01-8256-14A9DCAB142B}" name="Sy" dataDxfId="68"/>
+    <tableColumn id="21" xr3:uid="{A7686837-B7AE-4BAE-88E2-6F9FAD730E01}" name="ry" dataDxfId="67"/>
+    <tableColumn id="22" xr3:uid="{767ED161-3BD1-4294-96E7-EF008EBAF27A}" name="J" dataDxfId="66"/>
+    <tableColumn id="23" xr3:uid="{4874CB8A-E902-4CEB-AEFF-C3681E512597}" name="Iw" dataDxfId="65"/>
+    <tableColumn id="26" xr3:uid="{4B448337-5DAD-4159-85BB-146825F8C228}" name="fy" dataDxfId="64">
       <calculatedColumnFormula array="1">INDEX(tbllkpSteelGrades[fy],MATCH(1,(Table8[[#This Row],[Grade]]=tbllkpSteelGrades[Grade])*(Table8[[#This Row],[tw]]&lt;=tbllkpSteelGrades[Thickness]),0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="24" xr3:uid="{473325F2-FF03-4C75-BD12-A70F0A6AA4F1}" name="Aw" dataDxfId="59">
+    <tableColumn id="24" xr3:uid="{473325F2-FF03-4C75-BD12-A70F0A6AA4F1}" name="Aw" dataDxfId="63">
       <calculatedColumnFormula>IF(Table8[[#This Row],[Fabrication Type]]="Welded",Table8[[#This Row],[d1]],Table8[[#This Row],[d]])*Table8[[#This Row],[tw]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="25" xr3:uid="{98B29A8D-CA7E-401A-9966-485A14A8FF27}" name="Vyield" dataDxfId="58">
+    <tableColumn id="25" xr3:uid="{98B29A8D-CA7E-401A-9966-485A14A8FF27}" name="Vyield" dataDxfId="4">
       <calculatedColumnFormula>Table8[[#This Row],[Aw]]*Table8[[#This Row],[fy]]*0.6</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="31" xr3:uid="{D2AE4FE6-949C-44C1-ABA2-0661F2AF8B79}" name="limiting web slenderness" dataDxfId="2">
+      <calculatedColumnFormula>82/SQRT(Table8[[#This Row],[fy]]/250000000)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="28" xr3:uid="{350AE1F7-C8CC-4EFA-83FA-43CEF626EC3E}" name="αv" dataDxfId="3">
+      <calculatedColumnFormula>IF((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])&gt;Table8[[#This Row],[limiting web slenderness]],(82/((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])*SQRT(Table8[[#This Row],[fy]]/250000000)))^2,1)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="tblIntegral" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -2562,48 +2653,54 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{EC27F662-23F3-4692-B884-ACBE9C4BC921}" name="Table1" displayName="Table1" ref="B2:AG12" totalsRowShown="0" headerRowDxfId="57">
-  <autoFilter ref="B2:AG12" xr:uid="{159D2995-82C8-4243-A12A-2992509062CB}"/>
-  <tableColumns count="32">
-    <tableColumn id="1" xr3:uid="{BFC7DADC-5D9A-410D-8005-ABEDA04EC4E5}" name="Test Name" dataDxfId="56">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{EC27F662-23F3-4692-B884-ACBE9C4BC921}" name="Table1" displayName="Table1" ref="B2:AI12" totalsRowShown="0" headerRowDxfId="62">
+  <autoFilter ref="B2:AI12" xr:uid="{159D2995-82C8-4243-A12A-2992509062CB}"/>
+  <tableColumns count="34">
+    <tableColumn id="1" xr3:uid="{BFC7DADC-5D9A-410D-8005-ABEDA04EC4E5}" name="Test Name" dataDxfId="61">
       <calculatedColumnFormula>Table1[[#This Row],[Section]]&amp;"-"&amp;TEXT(Table1[[#This Row],[Grade]],"0")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{A68B01D6-63C3-4091-8CB2-10D8394F7045}" name="Section" dataDxfId="55"/>
-    <tableColumn id="3" xr3:uid="{F0C91944-5320-440C-89CC-1BCEEA04DC3A}" name="Grade" dataDxfId="54"/>
-    <tableColumn id="4" xr3:uid="{8BEB6DFF-49C4-4FA8-9224-463494339BF7}" name="Designation" dataDxfId="53"/>
-    <tableColumn id="5" xr3:uid="{AA456E27-CAB5-458A-A415-DCD765520D10}" name="Mass" dataDxfId="52"/>
-    <tableColumn id="6" xr3:uid="{58FBA757-33E6-4107-82A6-01450F92ECF1}" name="Section Type" dataDxfId="51"/>
-    <tableColumn id="7" xr3:uid="{E42F97CD-458E-4C03-887D-149CADBEE730}" name="Fabrication Type" dataDxfId="50"/>
-    <tableColumn id="8" xr3:uid="{30A5893B-DE67-4DB4-B63E-A74FA4F62A88}" name="d" dataDxfId="49"/>
-    <tableColumn id="9" xr3:uid="{DCAC7CD7-0C42-42AC-A9A3-3E6703738EA2}" name="bf" dataDxfId="48"/>
-    <tableColumn id="10" xr3:uid="{C94CF9A2-1DAE-4D19-BE5E-306E8BF46B88}" name="tf" dataDxfId="47"/>
-    <tableColumn id="11" xr3:uid="{1E144395-2B2F-424C-990F-3523916EC30D}" name="tw" dataDxfId="46"/>
-    <tableColumn id="12" xr3:uid="{BBC3D8A7-825A-413D-8F5B-523A8316C953}" name="r1" dataDxfId="45"/>
-    <tableColumn id="15" xr3:uid="{075B0A49-A933-463E-A295-DC05820221CD}" name="d1" dataDxfId="44"/>
-    <tableColumn id="16" xr3:uid="{C169B72F-E99F-4C91-8937-CA4CB5F1C0BD}" name="d1 / tw" dataDxfId="43"/>
-    <tableColumn id="17" xr3:uid="{EDE65130-55B8-4ED1-9338-8CF7DC57B7B0}" name="(bf - tw) / tf" dataDxfId="42"/>
-    <tableColumn id="18" xr3:uid="{B3EA4ACF-56D6-4C30-BAE3-E9AA6DECAD5B}" name="Ag" dataDxfId="41"/>
-    <tableColumn id="19" xr3:uid="{110F3BD2-1591-441D-8F2A-354835DE7C03}" name="xL" dataDxfId="40"/>
-    <tableColumn id="20" xr3:uid="{00DE344B-2B7A-4589-95FC-964370589D2F}" name="xO" dataDxfId="39"/>
-    <tableColumn id="21" xr3:uid="{74E05A20-8171-4C56-847A-4E2736645723}" name="Ix" dataDxfId="38"/>
-    <tableColumn id="22" xr3:uid="{46F05E10-2A14-4B02-8DDE-BE0422A2E11C}" name="Zx" dataDxfId="37"/>
-    <tableColumn id="23" xr3:uid="{8B5994C6-C074-4DE5-91BE-E16423FAB9D1}" name="Sx" dataDxfId="36"/>
-    <tableColumn id="24" xr3:uid="{9F69E4F9-9733-4980-9F4B-73E323CFD6C1}" name="rx" dataDxfId="35"/>
-    <tableColumn id="25" xr3:uid="{EA2F89F0-BB76-48D8-B83E-B76812070936}" name="Iy" dataDxfId="34"/>
-    <tableColumn id="26" xr3:uid="{A7187315-BF57-4454-8122-9170C02466BF}" name="ZyL" dataDxfId="33"/>
-    <tableColumn id="27" xr3:uid="{E24C8AEF-AEA2-460E-BC1B-54C7E8064ED2}" name="ZyR" dataDxfId="32"/>
-    <tableColumn id="28" xr3:uid="{CDDE43D5-2755-4C6C-98C0-89FB469561A9}" name="Sy" dataDxfId="31"/>
-    <tableColumn id="29" xr3:uid="{CC95640D-57BD-4549-8961-244E9160233E}" name="ry" dataDxfId="30"/>
-    <tableColumn id="30" xr3:uid="{4E80C201-306F-427A-B841-CC8204AC71EB}" name="J" dataDxfId="29"/>
-    <tableColumn id="31" xr3:uid="{D8BDE5DB-34D6-4AAF-94B6-6CA66EDDC4EC}" name="Iw" dataDxfId="28"/>
-    <tableColumn id="32" xr3:uid="{729B2C64-AA61-4ED8-88D9-46889D56FABC}" name="fy" dataDxfId="27">
+    <tableColumn id="2" xr3:uid="{A68B01D6-63C3-4091-8CB2-10D8394F7045}" name="Section" dataDxfId="60"/>
+    <tableColumn id="3" xr3:uid="{F0C91944-5320-440C-89CC-1BCEEA04DC3A}" name="Grade" dataDxfId="59"/>
+    <tableColumn id="4" xr3:uid="{8BEB6DFF-49C4-4FA8-9224-463494339BF7}" name="Designation" dataDxfId="58"/>
+    <tableColumn id="5" xr3:uid="{AA456E27-CAB5-458A-A415-DCD765520D10}" name="Mass" dataDxfId="57"/>
+    <tableColumn id="6" xr3:uid="{58FBA757-33E6-4107-82A6-01450F92ECF1}" name="Section Type" dataDxfId="56"/>
+    <tableColumn id="7" xr3:uid="{E42F97CD-458E-4C03-887D-149CADBEE730}" name="Fabrication Type" dataDxfId="55"/>
+    <tableColumn id="8" xr3:uid="{30A5893B-DE67-4DB4-B63E-A74FA4F62A88}" name="d" dataDxfId="54"/>
+    <tableColumn id="9" xr3:uid="{DCAC7CD7-0C42-42AC-A9A3-3E6703738EA2}" name="bf" dataDxfId="53"/>
+    <tableColumn id="10" xr3:uid="{C94CF9A2-1DAE-4D19-BE5E-306E8BF46B88}" name="tf" dataDxfId="52"/>
+    <tableColumn id="11" xr3:uid="{1E144395-2B2F-424C-990F-3523916EC30D}" name="tw" dataDxfId="51"/>
+    <tableColumn id="12" xr3:uid="{BBC3D8A7-825A-413D-8F5B-523A8316C953}" name="r1" dataDxfId="50"/>
+    <tableColumn id="15" xr3:uid="{075B0A49-A933-463E-A295-DC05820221CD}" name="d1" dataDxfId="49"/>
+    <tableColumn id="16" xr3:uid="{C169B72F-E99F-4C91-8937-CA4CB5F1C0BD}" name="d1 / tw" dataDxfId="48"/>
+    <tableColumn id="17" xr3:uid="{EDE65130-55B8-4ED1-9338-8CF7DC57B7B0}" name="(bf - tw) / tf" dataDxfId="47"/>
+    <tableColumn id="18" xr3:uid="{B3EA4ACF-56D6-4C30-BAE3-E9AA6DECAD5B}" name="Ag" dataDxfId="46"/>
+    <tableColumn id="19" xr3:uid="{110F3BD2-1591-441D-8F2A-354835DE7C03}" name="xL" dataDxfId="45"/>
+    <tableColumn id="20" xr3:uid="{00DE344B-2B7A-4589-95FC-964370589D2F}" name="xO" dataDxfId="44"/>
+    <tableColumn id="21" xr3:uid="{74E05A20-8171-4C56-847A-4E2736645723}" name="Ix" dataDxfId="43"/>
+    <tableColumn id="22" xr3:uid="{46F05E10-2A14-4B02-8DDE-BE0422A2E11C}" name="Zx" dataDxfId="42"/>
+    <tableColumn id="23" xr3:uid="{8B5994C6-C074-4DE5-91BE-E16423FAB9D1}" name="Sx" dataDxfId="41"/>
+    <tableColumn id="24" xr3:uid="{9F69E4F9-9733-4980-9F4B-73E323CFD6C1}" name="rx" dataDxfId="40"/>
+    <tableColumn id="25" xr3:uid="{EA2F89F0-BB76-48D8-B83E-B76812070936}" name="Iy" dataDxfId="39"/>
+    <tableColumn id="26" xr3:uid="{A7187315-BF57-4454-8122-9170C02466BF}" name="ZyL" dataDxfId="38"/>
+    <tableColumn id="27" xr3:uid="{E24C8AEF-AEA2-460E-BC1B-54C7E8064ED2}" name="ZyR" dataDxfId="37"/>
+    <tableColumn id="28" xr3:uid="{CDDE43D5-2755-4C6C-98C0-89FB469561A9}" name="Sy" dataDxfId="36"/>
+    <tableColumn id="29" xr3:uid="{CC95640D-57BD-4549-8961-244E9160233E}" name="ry" dataDxfId="35"/>
+    <tableColumn id="30" xr3:uid="{4E80C201-306F-427A-B841-CC8204AC71EB}" name="J" dataDxfId="34"/>
+    <tableColumn id="31" xr3:uid="{D8BDE5DB-34D6-4AAF-94B6-6CA66EDDC4EC}" name="Iw" dataDxfId="33"/>
+    <tableColumn id="32" xr3:uid="{729B2C64-AA61-4ED8-88D9-46889D56FABC}" name="fy" dataDxfId="32">
       <calculatedColumnFormula array="1">INDEX(tbllkpSteelGrades[fy],MATCH(1,(Table1[[#This Row],[Grade]]=tbllkpSteelGrades[Grade])*(Table1[[#This Row],[tw]]&lt;=tbllkpSteelGrades[Thickness]),0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="33" xr3:uid="{F78CCC46-7A18-4959-A81C-F51FA1F9FF08}" name="Aw" dataDxfId="26">
+    <tableColumn id="33" xr3:uid="{F78CCC46-7A18-4959-A81C-F51FA1F9FF08}" name="Aw" dataDxfId="31">
       <calculatedColumnFormula>IF(Table1[[#This Row],[Fabrication Type]]="Welded",Table1[[#This Row],[d1]],Table1[[#This Row],[d]])*Table1[[#This Row],[tw]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="34" xr3:uid="{EA3538CB-7B8A-4AF7-B6DC-16292E7F4F19}" name="Vyield" dataDxfId="25">
+    <tableColumn id="34" xr3:uid="{EA3538CB-7B8A-4AF7-B6DC-16292E7F4F19}" name="Vyield" dataDxfId="5">
       <calculatedColumnFormula>Table1[[#This Row],[Aw]]*Table1[[#This Row],[fy]]*0.6</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="13" xr3:uid="{6EFC8E23-CF2E-4C0D-BB9A-02BCA8159CF3}" name="limiting web slenderness" dataDxfId="1">
+      <calculatedColumnFormula>82/SQRT(Table1[[#This Row],[fy]]/250000000)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="14" xr3:uid="{3A2CC757-AD8B-4EAF-9CE0-7A223D47C931}" name="αv" dataDxfId="0">
+      <calculatedColumnFormula>IF((Table1[[#This Row],[d1]]/Table1[[#This Row],[tw]])&gt;Table1[[#This Row],[limiting web slenderness]],(82/((Table1[[#This Row],[d1]]/Table1[[#This Row],[tw]])*SQRT(Table1[[#This Row],[fy]]/250000000)))^2,1)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="tblIntegral" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -2614,31 +2711,31 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{7CB81ECD-7B4A-4F8B-8113-71224F76D2FC}" name="Table4" displayName="Table4" ref="B2:V89" totalsRowShown="0">
   <autoFilter ref="B2:V89" xr:uid="{BA8101F0-ED77-49F7-BC18-C9D3E65708CA}"/>
   <tableColumns count="21">
-    <tableColumn id="1" xr3:uid="{4CA5654D-B547-49EB-AEE4-88550654C33A}" name="Test Name" dataDxfId="21">
+    <tableColumn id="1" xr3:uid="{4CA5654D-B547-49EB-AEE4-88550654C33A}" name="Test Name" dataDxfId="30">
       <calculatedColumnFormula>Table4[[#This Row],[Section]]&amp;"-"&amp;Table4[[#This Row],[Grade]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{8162C8E5-B488-4140-826E-7A4F44922C08}" name="Section" dataDxfId="20"/>
-    <tableColumn id="3" xr3:uid="{7613563F-32CB-43B4-9CD2-B12E2A6FF2D5}" name="Grade" dataDxfId="19"/>
-    <tableColumn id="4" xr3:uid="{C5BFAAF5-51F1-4535-980C-4B0DCD036D32}" name="Mass" dataDxfId="18"/>
-    <tableColumn id="5" xr3:uid="{7AAEBAA8-C99A-4F5A-88E3-88CB6960D4CA}" name="Section Type" dataDxfId="17"/>
-    <tableColumn id="6" xr3:uid="{B8C36499-3A13-4344-BAB0-D49EE58FE3E9}" name="Fabrication Type" dataDxfId="16"/>
-    <tableColumn id="7" xr3:uid="{A3848530-1431-48F2-A8A1-1A8E7187F0E4}" name="d" dataDxfId="15"/>
-    <tableColumn id="8" xr3:uid="{8180C5FB-397C-4385-9E2C-449435B22140}" name="t" dataDxfId="14"/>
-    <tableColumn id="9" xr3:uid="{721CCE1E-9271-453E-85A6-F1C3DE9BFA92}" name="d / t" dataDxfId="13"/>
-    <tableColumn id="10" xr3:uid="{DFEF7444-BB05-41F3-98A0-8E93565A79E0}" name="Ag" dataDxfId="12"/>
-    <tableColumn id="11" xr3:uid="{06548E9A-6BA5-4869-83BA-2B1ECD35C8FD}" name="I" dataDxfId="11"/>
-    <tableColumn id="12" xr3:uid="{04325DE9-C88D-4898-9081-69BD38E3F367}" name="Z" dataDxfId="10"/>
-    <tableColumn id="13" xr3:uid="{3357C355-9047-4ABB-AD18-D3E15B86E03B}" name="S" dataDxfId="9"/>
-    <tableColumn id="14" xr3:uid="{470CF4A9-89AA-474A-9533-AE8D1C11D912}" name="r" dataDxfId="8"/>
-    <tableColumn id="15" xr3:uid="{79889950-A6E3-4DDC-8073-3A8BC3FB6AD2}" name="J" dataDxfId="7"/>
-    <tableColumn id="16" xr3:uid="{73364D2E-305B-4F6C-B09F-DB78BE1F3A38}" name="C" dataDxfId="6"/>
-    <tableColumn id="17" xr3:uid="{0DA98F09-3F11-4D08-A6FC-AE92787F4FB2}" name="kf" dataDxfId="5"/>
-    <tableColumn id="18" xr3:uid="{716DC685-2BC9-475D-918F-7D51D96E5B00}" name="Compactness" dataDxfId="4"/>
-    <tableColumn id="19" xr3:uid="{1542DC57-D289-4280-A0B5-ED30B2199915}" name="Ze" dataDxfId="3"/>
-    <tableColumn id="20" xr3:uid="{3F052E38-FD56-42D0-85E3-1A2A4ED2525C}" name="fy" dataDxfId="1">
+    <tableColumn id="2" xr3:uid="{8162C8E5-B488-4140-826E-7A4F44922C08}" name="Section" dataDxfId="29"/>
+    <tableColumn id="3" xr3:uid="{7613563F-32CB-43B4-9CD2-B12E2A6FF2D5}" name="Grade" dataDxfId="28"/>
+    <tableColumn id="4" xr3:uid="{C5BFAAF5-51F1-4535-980C-4B0DCD036D32}" name="Mass" dataDxfId="27"/>
+    <tableColumn id="5" xr3:uid="{7AAEBAA8-C99A-4F5A-88E3-88CB6960D4CA}" name="Section Type" dataDxfId="26"/>
+    <tableColumn id="6" xr3:uid="{B8C36499-3A13-4344-BAB0-D49EE58FE3E9}" name="Fabrication Type" dataDxfId="25"/>
+    <tableColumn id="7" xr3:uid="{A3848530-1431-48F2-A8A1-1A8E7187F0E4}" name="d" dataDxfId="24"/>
+    <tableColumn id="8" xr3:uid="{8180C5FB-397C-4385-9E2C-449435B22140}" name="t" dataDxfId="23"/>
+    <tableColumn id="9" xr3:uid="{721CCE1E-9271-453E-85A6-F1C3DE9BFA92}" name="d / t" dataDxfId="22"/>
+    <tableColumn id="10" xr3:uid="{DFEF7444-BB05-41F3-98A0-8E93565A79E0}" name="Ag" dataDxfId="21"/>
+    <tableColumn id="11" xr3:uid="{06548E9A-6BA5-4869-83BA-2B1ECD35C8FD}" name="I" dataDxfId="20"/>
+    <tableColumn id="12" xr3:uid="{04325DE9-C88D-4898-9081-69BD38E3F367}" name="Z" dataDxfId="19"/>
+    <tableColumn id="13" xr3:uid="{3357C355-9047-4ABB-AD18-D3E15B86E03B}" name="S" dataDxfId="18"/>
+    <tableColumn id="14" xr3:uid="{470CF4A9-89AA-474A-9533-AE8D1C11D912}" name="r" dataDxfId="17"/>
+    <tableColumn id="15" xr3:uid="{79889950-A6E3-4DDC-8073-3A8BC3FB6AD2}" name="J" dataDxfId="16"/>
+    <tableColumn id="16" xr3:uid="{73364D2E-305B-4F6C-B09F-DB78BE1F3A38}" name="C" dataDxfId="15"/>
+    <tableColumn id="17" xr3:uid="{0DA98F09-3F11-4D08-A6FC-AE92787F4FB2}" name="kf" dataDxfId="14"/>
+    <tableColumn id="18" xr3:uid="{716DC685-2BC9-475D-918F-7D51D96E5B00}" name="Compactness" dataDxfId="13"/>
+    <tableColumn id="19" xr3:uid="{1542DC57-D289-4280-A0B5-ED30B2199915}" name="Ze" dataDxfId="12"/>
+    <tableColumn id="20" xr3:uid="{3F052E38-FD56-42D0-85E3-1A2A4ED2525C}" name="fy" dataDxfId="11">
       <calculatedColumnFormula array="1">INDEX(tbllkpSteelGrades[fy],MATCH(1,(Table4[[#This Row],[Grade]]=tbllkpSteelGrades[Grade])*(Table4[[#This Row],[t]]&lt;=tbllkpSteelGrades[Thickness]),0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="21" xr3:uid="{B66015BF-7FDD-4B8C-9B06-5EBF43E6C1A4}" name="Vyield" dataDxfId="0">
+    <tableColumn id="21" xr3:uid="{B66015BF-7FDD-4B8C-9B06-5EBF43E6C1A4}" name="Vyield" dataDxfId="10">
       <calculatedColumnFormula>Table4[[#This Row],[fy]]*Table4[[#This Row],[Ag]]*0.36</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2650,10 +2747,10 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{FD922492-54C4-4564-A70A-4C52BDDF1798}" name="tbllkpSteelGrades" displayName="tbllkpSteelGrades" ref="B3:E16" totalsRowShown="0">
   <autoFilter ref="B3:E16" xr:uid="{3E6AE8C4-C748-4435-9220-6A582ED1C1D7}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{523DAE2A-27B2-4510-92AE-37C4C3C1762C}" name="Grade" dataDxfId="24"/>
-    <tableColumn id="2" xr3:uid="{9F87EDD2-D6FD-414D-8B88-062C86BD2D39}" name="Thickness" dataDxfId="23"/>
-    <tableColumn id="3" xr3:uid="{102B2EDD-89A2-45B5-8609-721075A59D6E}" name="fy" dataDxfId="22"/>
-    <tableColumn id="4" xr3:uid="{58E14996-58E6-4334-B475-B91075D2EE2F}" name="fu" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{523DAE2A-27B2-4510-92AE-37C4C3C1762C}" name="Grade" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{9F87EDD2-D6FD-414D-8B88-062C86BD2D39}" name="Thickness" dataDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{102B2EDD-89A2-45B5-8609-721075A59D6E}" name="fy" dataDxfId="7"/>
+    <tableColumn id="4" xr3:uid="{58E14996-58E6-4334-B475-B91075D2EE2F}" name="fu" dataDxfId="6"/>
   </tableColumns>
   <tableStyleInfo name="tblIntegral" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2956,32 +3053,38 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B07B9FFD-D534-4711-893F-11708AF69116}">
-  <dimension ref="B2:AD132"/>
+  <dimension ref="B2:AF132"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AD3" sqref="AD3"/>
+    <sheetView topLeftCell="K1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AF3" sqref="AF3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13" customWidth="1"/>
-    <col min="6" max="6" width="12.85546875" customWidth="1"/>
-    <col min="7" max="7" width="13.7109375" customWidth="1"/>
+    <col min="2" max="2" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="17" customWidth="1"/>
-    <col min="16" max="16" width="17.42578125" customWidth="1"/>
-    <col min="17" max="17" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="18" max="22" width="15.85546875" customWidth="1"/>
-    <col min="23" max="24" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="15.85546875" customWidth="1"/>
-    <col min="28" max="28" width="13" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="14" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="20" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="22" max="24" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="5.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:30" ht="18" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:32" ht="18" x14ac:dyDescent="0.35">
       <c r="B2" s="1" t="s">
         <v>55</v>
       </c>
@@ -3069,8 +3172,14 @@
       <c r="AD2" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="3" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AE2" t="s">
+        <v>254</v>
+      </c>
+      <c r="AF2" s="34" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="3" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B3" s="14" t="str">
         <f>Table8[[#This Row],[Section]]&amp;"-"&amp;TEXT(Table8[[#This Row],[Grade]],"0")</f>
         <v>1200WB455-300</v>
@@ -3162,8 +3271,16 @@
         <f>Table8[[#This Row],[Aw]]*Table8[[#This Row],[fy]]*0.6</f>
         <v>3225599.9999999995</v>
       </c>
-    </row>
-    <row r="4" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AE3" s="35">
+        <f>82/SQRT(Table8[[#This Row],[fy]]/250000000)</f>
+        <v>74.855416192372701</v>
+      </c>
+      <c r="AF3" s="36">
+        <f>IF((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])&gt;Table8[[#This Row],[limiting web slenderness]],(82/((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])*SQRT(Table8[[#This Row],[fy]]/250000000)))^2,1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B4" s="14" t="str">
         <f>Table8[[#This Row],[Section]]&amp;"-"&amp;TEXT(Table8[[#This Row],[Grade]],"0")</f>
         <v>1200WB423-300</v>
@@ -3255,8 +3372,16 @@
         <f>Table8[[#This Row],[Aw]]*Table8[[#This Row],[fy]]*0.6</f>
         <v>3225599.9999999995</v>
       </c>
-    </row>
-    <row r="5" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AE4" s="35">
+        <f>82/SQRT(Table8[[#This Row],[fy]]/250000000)</f>
+        <v>74.855416192372701</v>
+      </c>
+      <c r="AF4" s="36">
+        <f>IF((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])&gt;Table8[[#This Row],[limiting web slenderness]],(82/((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])*SQRT(Table8[[#This Row],[fy]]/250000000)))^2,1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B5" s="14" t="str">
         <f>Table8[[#This Row],[Section]]&amp;"-"&amp;TEXT(Table8[[#This Row],[Grade]],"0")</f>
         <v>1200WB392-300</v>
@@ -3348,8 +3473,16 @@
         <f>Table8[[#This Row],[Aw]]*Table8[[#This Row],[fy]]*0.6</f>
         <v>3225599.9999999995</v>
       </c>
-    </row>
-    <row r="6" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AE5" s="35">
+        <f>82/SQRT(Table8[[#This Row],[fy]]/250000000)</f>
+        <v>74.855416192372701</v>
+      </c>
+      <c r="AF5" s="36">
+        <f>IF((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])&gt;Table8[[#This Row],[limiting web slenderness]],(82/((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])*SQRT(Table8[[#This Row],[fy]]/250000000)))^2,1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B6" s="14" t="str">
         <f>Table8[[#This Row],[Section]]&amp;"-"&amp;TEXT(Table8[[#This Row],[Grade]],"0")</f>
         <v>1200WB342-300</v>
@@ -3441,8 +3574,16 @@
         <f>Table8[[#This Row],[Aw]]*Table8[[#This Row],[fy]]*0.6</f>
         <v>3225599.9999999995</v>
       </c>
-    </row>
-    <row r="7" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AE6" s="35">
+        <f>82/SQRT(Table8[[#This Row],[fy]]/250000000)</f>
+        <v>74.855416192372701</v>
+      </c>
+      <c r="AF6" s="36">
+        <f>IF((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])&gt;Table8[[#This Row],[limiting web slenderness]],(82/((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])*SQRT(Table8[[#This Row],[fy]]/250000000)))^2,1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B7" s="14" t="str">
         <f>Table8[[#This Row],[Section]]&amp;"-"&amp;TEXT(Table8[[#This Row],[Grade]],"0")</f>
         <v>1200WB317-300</v>
@@ -3534,8 +3675,16 @@
         <f>Table8[[#This Row],[Aw]]*Table8[[#This Row],[fy]]*0.6</f>
         <v>3225599.9999999995</v>
       </c>
-    </row>
-    <row r="8" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AE7" s="35">
+        <f>82/SQRT(Table8[[#This Row],[fy]]/250000000)</f>
+        <v>74.855416192372701</v>
+      </c>
+      <c r="AF7" s="36">
+        <f>IF((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])&gt;Table8[[#This Row],[limiting web slenderness]],(82/((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])*SQRT(Table8[[#This Row],[fy]]/250000000)))^2,1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="str">
         <f>Table8[[#This Row],[Section]]&amp;"-"&amp;TEXT(Table8[[#This Row],[Grade]],"0")</f>
         <v>1200WB278-300</v>
@@ -3627,8 +3776,16 @@
         <f>Table8[[#This Row],[Aw]]*Table8[[#This Row],[fy]]*0.6</f>
         <v>3225599.9999999995</v>
       </c>
-    </row>
-    <row r="9" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AE8" s="35">
+        <f>82/SQRT(Table8[[#This Row],[fy]]/250000000)</f>
+        <v>74.855416192372701</v>
+      </c>
+      <c r="AF8" s="36">
+        <f>IF((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])&gt;Table8[[#This Row],[limiting web slenderness]],(82/((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])*SQRT(Table8[[#This Row],[fy]]/250000000)))^2,1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B9" s="14" t="str">
         <f>Table8[[#This Row],[Section]]&amp;"-"&amp;TEXT(Table8[[#This Row],[Grade]],"0")</f>
         <v>1200WB249-300</v>
@@ -3720,8 +3877,16 @@
         <f>Table8[[#This Row],[Aw]]*Table8[[#This Row],[fy]]*0.6</f>
         <v>3225599.9999999995</v>
       </c>
-    </row>
-    <row r="10" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AE9" s="35">
+        <f>82/SQRT(Table8[[#This Row],[fy]]/250000000)</f>
+        <v>74.855416192372701</v>
+      </c>
+      <c r="AF9" s="36">
+        <f>IF((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])&gt;Table8[[#This Row],[limiting web slenderness]],(82/((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])*SQRT(Table8[[#This Row],[fy]]/250000000)))^2,1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B10" s="14" t="str">
         <f>Table8[[#This Row],[Section]]&amp;"-"&amp;TEXT(Table8[[#This Row],[Grade]],"0")</f>
         <v>1000WB322-300</v>
@@ -3813,8 +3978,16 @@
         <f>Table8[[#This Row],[Aw]]*Table8[[#This Row],[fy]]*0.6</f>
         <v>2764800</v>
       </c>
-    </row>
-    <row r="11" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AE10" s="35">
+        <f>82/SQRT(Table8[[#This Row],[fy]]/250000000)</f>
+        <v>74.855416192372701</v>
+      </c>
+      <c r="AF10" s="36">
+        <f>IF((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])&gt;Table8[[#This Row],[limiting web slenderness]],(82/((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])*SQRT(Table8[[#This Row],[fy]]/250000000)))^2,1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B11" s="14" t="str">
         <f>Table8[[#This Row],[Section]]&amp;"-"&amp;TEXT(Table8[[#This Row],[Grade]],"0")</f>
         <v>1000WB296-300</v>
@@ -3906,8 +4079,16 @@
         <f>Table8[[#This Row],[Aw]]*Table8[[#This Row],[fy]]*0.6</f>
         <v>2764800</v>
       </c>
-    </row>
-    <row r="12" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AE11" s="35">
+        <f>82/SQRT(Table8[[#This Row],[fy]]/250000000)</f>
+        <v>74.855416192372701</v>
+      </c>
+      <c r="AF11" s="36">
+        <f>IF((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])&gt;Table8[[#This Row],[limiting web slenderness]],(82/((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])*SQRT(Table8[[#This Row],[fy]]/250000000)))^2,1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B12" s="14" t="str">
         <f>Table8[[#This Row],[Section]]&amp;"-"&amp;TEXT(Table8[[#This Row],[Grade]],"0")</f>
         <v>1000WB258-300</v>
@@ -3999,8 +4180,16 @@
         <f>Table8[[#This Row],[Aw]]*Table8[[#This Row],[fy]]*0.6</f>
         <v>2764800</v>
       </c>
-    </row>
-    <row r="13" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AE12" s="35">
+        <f>82/SQRT(Table8[[#This Row],[fy]]/250000000)</f>
+        <v>74.855416192372701</v>
+      </c>
+      <c r="AF12" s="36">
+        <f>IF((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])&gt;Table8[[#This Row],[limiting web slenderness]],(82/((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])*SQRT(Table8[[#This Row],[fy]]/250000000)))^2,1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B13" s="14" t="str">
         <f>Table8[[#This Row],[Section]]&amp;"-"&amp;TEXT(Table8[[#This Row],[Grade]],"0")</f>
         <v>1000WB215-300</v>
@@ -4092,8 +4281,16 @@
         <f>Table8[[#This Row],[Aw]]*Table8[[#This Row],[fy]]*0.6</f>
         <v>2764800</v>
       </c>
-    </row>
-    <row r="14" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AE13" s="35">
+        <f>82/SQRT(Table8[[#This Row],[fy]]/250000000)</f>
+        <v>74.855416192372701</v>
+      </c>
+      <c r="AF13" s="36">
+        <f>IF((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])&gt;Table8[[#This Row],[limiting web slenderness]],(82/((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])*SQRT(Table8[[#This Row],[fy]]/250000000)))^2,1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B14" s="14" t="str">
         <f>Table8[[#This Row],[Section]]&amp;"-"&amp;TEXT(Table8[[#This Row],[Grade]],"0")</f>
         <v>900WB282-300</v>
@@ -4185,8 +4382,16 @@
         <f>Table8[[#This Row],[Aw]]*Table8[[#This Row],[fy]]*0.6</f>
         <v>1919520.0000000002</v>
       </c>
-    </row>
-    <row r="15" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AE14" s="35">
+        <f>82/SQRT(Table8[[#This Row],[fy]]/250000000)</f>
+        <v>73.638173830977706</v>
+      </c>
+      <c r="AF14" s="36">
+        <f>IF((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])&gt;Table8[[#This Row],[limiting web slenderness]],(82/((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])*SQRT(Table8[[#This Row],[fy]]/250000000)))^2,1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B15" s="14" t="str">
         <f>Table8[[#This Row],[Section]]&amp;"-"&amp;TEXT(Table8[[#This Row],[Grade]],"0")</f>
         <v>900WB257-300</v>
@@ -4278,8 +4483,16 @@
         <f>Table8[[#This Row],[Aw]]*Table8[[#This Row],[fy]]*0.6</f>
         <v>1919520</v>
       </c>
-    </row>
-    <row r="16" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AE15" s="35">
+        <f>82/SQRT(Table8[[#This Row],[fy]]/250000000)</f>
+        <v>73.638173830977706</v>
+      </c>
+      <c r="AF15" s="36">
+        <f>IF((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])&gt;Table8[[#This Row],[limiting web slenderness]],(82/((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])*SQRT(Table8[[#This Row],[fy]]/250000000)))^2,1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B16" s="14" t="str">
         <f>Table8[[#This Row],[Section]]&amp;"-"&amp;TEXT(Table8[[#This Row],[Grade]],"0")</f>
         <v>900WB218-300</v>
@@ -4371,8 +4584,16 @@
         <f>Table8[[#This Row],[Aw]]*Table8[[#This Row],[fy]]*0.6</f>
         <v>1919520</v>
       </c>
-    </row>
-    <row r="17" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AE16" s="35">
+        <f>82/SQRT(Table8[[#This Row],[fy]]/250000000)</f>
+        <v>73.638173830977706</v>
+      </c>
+      <c r="AF16" s="36">
+        <f>IF((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])&gt;Table8[[#This Row],[limiting web slenderness]],(82/((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])*SQRT(Table8[[#This Row],[fy]]/250000000)))^2,1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B17" s="14" t="str">
         <f>Table8[[#This Row],[Section]]&amp;"-"&amp;TEXT(Table8[[#This Row],[Grade]],"0")</f>
         <v>900WB175-300</v>
@@ -4464,8 +4685,16 @@
         <f>Table8[[#This Row],[Aw]]*Table8[[#This Row],[fy]]*0.6</f>
         <v>1919520</v>
       </c>
-    </row>
-    <row r="18" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AE17" s="35">
+        <f>82/SQRT(Table8[[#This Row],[fy]]/250000000)</f>
+        <v>73.638173830977706</v>
+      </c>
+      <c r="AF17" s="36">
+        <f>IF((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])&gt;Table8[[#This Row],[limiting web slenderness]],(82/((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])*SQRT(Table8[[#This Row],[fy]]/250000000)))^2,1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B18" s="14" t="str">
         <f>Table8[[#This Row],[Section]]&amp;"-"&amp;TEXT(Table8[[#This Row],[Grade]],"0")</f>
         <v>800WB192-300</v>
@@ -4557,8 +4786,16 @@
         <f>Table8[[#This Row],[Aw]]*Table8[[#This Row],[fy]]*0.6</f>
         <v>1413599.9999999998</v>
       </c>
-    </row>
-    <row r="19" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AE18" s="35">
+        <f>82/SQRT(Table8[[#This Row],[fy]]/250000000)</f>
+        <v>73.638173830977706</v>
+      </c>
+      <c r="AF18" s="36">
+        <f>IF((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])&gt;Table8[[#This Row],[limiting web slenderness]],(82/((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])*SQRT(Table8[[#This Row],[fy]]/250000000)))^2,1)</f>
+        <v>0.93881243856670582</v>
+      </c>
+    </row>
+    <row r="19" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B19" s="14" t="str">
         <f>Table8[[#This Row],[Section]]&amp;"-"&amp;TEXT(Table8[[#This Row],[Grade]],"0")</f>
         <v>800WB168-300</v>
@@ -4650,8 +4887,16 @@
         <f>Table8[[#This Row],[Aw]]*Table8[[#This Row],[fy]]*0.6</f>
         <v>1413600</v>
       </c>
-    </row>
-    <row r="20" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AE19" s="35">
+        <f>82/SQRT(Table8[[#This Row],[fy]]/250000000)</f>
+        <v>73.638173830977706</v>
+      </c>
+      <c r="AF19" s="36">
+        <f>IF((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])&gt;Table8[[#This Row],[limiting web slenderness]],(82/((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])*SQRT(Table8[[#This Row],[fy]]/250000000)))^2,1)</f>
+        <v>0.93881243856670515</v>
+      </c>
+    </row>
+    <row r="20" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B20" s="14" t="str">
         <f>Table8[[#This Row],[Section]]&amp;"-"&amp;TEXT(Table8[[#This Row],[Grade]],"0")</f>
         <v>800WB146-300</v>
@@ -4743,8 +4988,16 @@
         <f>Table8[[#This Row],[Aw]]*Table8[[#This Row],[fy]]*0.6</f>
         <v>1413600</v>
       </c>
-    </row>
-    <row r="21" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AE20" s="35">
+        <f>82/SQRT(Table8[[#This Row],[fy]]/250000000)</f>
+        <v>73.638173830977706</v>
+      </c>
+      <c r="AF20" s="36">
+        <f>IF((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])&gt;Table8[[#This Row],[limiting web slenderness]],(82/((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])*SQRT(Table8[[#This Row],[fy]]/250000000)))^2,1)</f>
+        <v>0.93881243856670515</v>
+      </c>
+    </row>
+    <row r="21" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B21" s="14" t="str">
         <f>Table8[[#This Row],[Section]]&amp;"-"&amp;TEXT(Table8[[#This Row],[Grade]],"0")</f>
         <v>800WB122-300</v>
@@ -4836,8 +5089,16 @@
         <f>Table8[[#This Row],[Aw]]*Table8[[#This Row],[fy]]*0.6</f>
         <v>1413600</v>
       </c>
-    </row>
-    <row r="22" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AE21" s="35">
+        <f>82/SQRT(Table8[[#This Row],[fy]]/250000000)</f>
+        <v>73.638173830977706</v>
+      </c>
+      <c r="AF21" s="36">
+        <f>IF((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])&gt;Table8[[#This Row],[limiting web slenderness]],(82/((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])*SQRT(Table8[[#This Row],[fy]]/250000000)))^2,1)</f>
+        <v>0.93881243856670515</v>
+      </c>
+    </row>
+    <row r="22" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B22" s="14" t="str">
         <f>Table8[[#This Row],[Section]]&amp;"-"&amp;TEXT(Table8[[#This Row],[Grade]],"0")</f>
         <v>700WB173-300</v>
@@ -4929,8 +5190,16 @@
         <f>Table8[[#This Row],[Aw]]*Table8[[#This Row],[fy]]*0.6</f>
         <v>1227599.9999999998</v>
       </c>
-    </row>
-    <row r="23" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AE22" s="35">
+        <f>82/SQRT(Table8[[#This Row],[fy]]/250000000)</f>
+        <v>73.638173830977706</v>
+      </c>
+      <c r="AF22" s="36">
+        <f>IF((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])&gt;Table8[[#This Row],[limiting web slenderness]],(82/((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])*SQRT(Table8[[#This Row],[fy]]/250000000)))^2,1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B23" s="14" t="str">
         <f>Table8[[#This Row],[Section]]&amp;"-"&amp;TEXT(Table8[[#This Row],[Grade]],"0")</f>
         <v>700WB150-300</v>
@@ -5022,8 +5291,16 @@
         <f>Table8[[#This Row],[Aw]]*Table8[[#This Row],[fy]]*0.6</f>
         <v>1227599.9999999998</v>
       </c>
-    </row>
-    <row r="24" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AE23" s="35">
+        <f>82/SQRT(Table8[[#This Row],[fy]]/250000000)</f>
+        <v>73.638173830977706</v>
+      </c>
+      <c r="AF23" s="36">
+        <f>IF((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])&gt;Table8[[#This Row],[limiting web slenderness]],(82/((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])*SQRT(Table8[[#This Row],[fy]]/250000000)))^2,1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B24" s="14" t="str">
         <f>Table8[[#This Row],[Section]]&amp;"-"&amp;TEXT(Table8[[#This Row],[Grade]],"0")</f>
         <v>700WB130-300</v>
@@ -5115,8 +5392,16 @@
         <f>Table8[[#This Row],[Aw]]*Table8[[#This Row],[fy]]*0.6</f>
         <v>1227599.9999999998</v>
       </c>
-    </row>
-    <row r="25" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AE24" s="35">
+        <f>82/SQRT(Table8[[#This Row],[fy]]/250000000)</f>
+        <v>73.638173830977706</v>
+      </c>
+      <c r="AF24" s="36">
+        <f>IF((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])&gt;Table8[[#This Row],[limiting web slenderness]],(82/((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])*SQRT(Table8[[#This Row],[fy]]/250000000)))^2,1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B25" s="14" t="str">
         <f>Table8[[#This Row],[Section]]&amp;"-"&amp;TEXT(Table8[[#This Row],[Grade]],"0")</f>
         <v>700WB115-300</v>
@@ -5208,8 +5493,16 @@
         <f>Table8[[#This Row],[Aw]]*Table8[[#This Row],[fy]]*0.6</f>
         <v>1227599.9999999998</v>
       </c>
-    </row>
-    <row r="26" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AE25" s="35">
+        <f>82/SQRT(Table8[[#This Row],[fy]]/250000000)</f>
+        <v>73.638173830977706</v>
+      </c>
+      <c r="AF25" s="36">
+        <f>IF((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])&gt;Table8[[#This Row],[limiting web slenderness]],(82/((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])*SQRT(Table8[[#This Row],[fy]]/250000000)))^2,1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B26" s="15" t="str">
         <f>Table8[[#This Row],[Section]]&amp;"-"&amp;TEXT(Table8[[#This Row],[Grade]],"0")</f>
         <v>1200WB455-400</v>
@@ -5301,8 +5594,16 @@
         <f>Table8[[#This Row],[Aw]]*Table8[[#This Row],[fy]]*0.6</f>
         <v>4085759.9999999991</v>
       </c>
-    </row>
-    <row r="27" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AE26" s="35">
+        <f>82/SQRT(Table8[[#This Row],[fy]]/250000000)</f>
+        <v>66.510782663612645</v>
+      </c>
+      <c r="AF26" s="36">
+        <f>IF((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])&gt;Table8[[#This Row],[limiting web slenderness]],(82/((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])*SQRT(Table8[[#This Row],[fy]]/250000000)))^2,1)</f>
+        <v>0.90279269602577916</v>
+      </c>
+    </row>
+    <row r="27" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B27" s="15" t="str">
         <f>Table8[[#This Row],[Section]]&amp;"-"&amp;TEXT(Table8[[#This Row],[Grade]],"0")</f>
         <v>1200WB423-400</v>
@@ -5394,8 +5695,16 @@
         <f>Table8[[#This Row],[Aw]]*Table8[[#This Row],[fy]]*0.6</f>
         <v>4085759.9999999991</v>
       </c>
-    </row>
-    <row r="28" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AE27" s="35">
+        <f>82/SQRT(Table8[[#This Row],[fy]]/250000000)</f>
+        <v>66.510782663612645</v>
+      </c>
+      <c r="AF27" s="36">
+        <f>IF((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])&gt;Table8[[#This Row],[limiting web slenderness]],(82/((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])*SQRT(Table8[[#This Row],[fy]]/250000000)))^2,1)</f>
+        <v>0.90279269602577916</v>
+      </c>
+    </row>
+    <row r="28" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B28" s="15" t="str">
         <f>Table8[[#This Row],[Section]]&amp;"-"&amp;TEXT(Table8[[#This Row],[Grade]],"0")</f>
         <v>1200WB392-400</v>
@@ -5487,8 +5796,16 @@
         <f>Table8[[#This Row],[Aw]]*Table8[[#This Row],[fy]]*0.6</f>
         <v>4085759.9999999991</v>
       </c>
-    </row>
-    <row r="29" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AE28" s="35">
+        <f>82/SQRT(Table8[[#This Row],[fy]]/250000000)</f>
+        <v>66.510782663612645</v>
+      </c>
+      <c r="AF28" s="36">
+        <f>IF((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])&gt;Table8[[#This Row],[limiting web slenderness]],(82/((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])*SQRT(Table8[[#This Row],[fy]]/250000000)))^2,1)</f>
+        <v>0.90279269602577916</v>
+      </c>
+    </row>
+    <row r="29" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B29" s="15" t="str">
         <f>Table8[[#This Row],[Section]]&amp;"-"&amp;TEXT(Table8[[#This Row],[Grade]],"0")</f>
         <v>1200WB342-400</v>
@@ -5580,8 +5897,16 @@
         <f>Table8[[#This Row],[Aw]]*Table8[[#This Row],[fy]]*0.6</f>
         <v>4085759.9999999991</v>
       </c>
-    </row>
-    <row r="30" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AE29" s="35">
+        <f>82/SQRT(Table8[[#This Row],[fy]]/250000000)</f>
+        <v>66.510782663612645</v>
+      </c>
+      <c r="AF29" s="36">
+        <f>IF((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])&gt;Table8[[#This Row],[limiting web slenderness]],(82/((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])*SQRT(Table8[[#This Row],[fy]]/250000000)))^2,1)</f>
+        <v>0.90279269602577916</v>
+      </c>
+    </row>
+    <row r="30" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B30" s="15" t="str">
         <f>Table8[[#This Row],[Section]]&amp;"-"&amp;TEXT(Table8[[#This Row],[Grade]],"0")</f>
         <v>1200WB317-400</v>
@@ -5673,8 +5998,16 @@
         <f>Table8[[#This Row],[Aw]]*Table8[[#This Row],[fy]]*0.6</f>
         <v>4085759.9999999991</v>
       </c>
-    </row>
-    <row r="31" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AE30" s="35">
+        <f>82/SQRT(Table8[[#This Row],[fy]]/250000000)</f>
+        <v>66.510782663612645</v>
+      </c>
+      <c r="AF30" s="36">
+        <f>IF((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])&gt;Table8[[#This Row],[limiting web slenderness]],(82/((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])*SQRT(Table8[[#This Row],[fy]]/250000000)))^2,1)</f>
+        <v>0.90279269602577916</v>
+      </c>
+    </row>
+    <row r="31" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B31" s="15" t="str">
         <f>Table8[[#This Row],[Section]]&amp;"-"&amp;TEXT(Table8[[#This Row],[Grade]],"0")</f>
         <v>1200WB278-400</v>
@@ -5766,8 +6099,16 @@
         <f>Table8[[#This Row],[Aw]]*Table8[[#This Row],[fy]]*0.6</f>
         <v>4085759.9999999991</v>
       </c>
-    </row>
-    <row r="32" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AE31" s="35">
+        <f>82/SQRT(Table8[[#This Row],[fy]]/250000000)</f>
+        <v>66.510782663612645</v>
+      </c>
+      <c r="AF31" s="36">
+        <f>IF((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])&gt;Table8[[#This Row],[limiting web slenderness]],(82/((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])*SQRT(Table8[[#This Row],[fy]]/250000000)))^2,1)</f>
+        <v>0.90279269602577916</v>
+      </c>
+    </row>
+    <row r="32" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B32" s="15" t="str">
         <f>Table8[[#This Row],[Section]]&amp;"-"&amp;TEXT(Table8[[#This Row],[Grade]],"0")</f>
         <v>1200WB249-400</v>
@@ -5859,8 +6200,16 @@
         <f>Table8[[#This Row],[Aw]]*Table8[[#This Row],[fy]]*0.6</f>
         <v>4085759.9999999991</v>
       </c>
-    </row>
-    <row r="33" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AE32" s="35">
+        <f>82/SQRT(Table8[[#This Row],[fy]]/250000000)</f>
+        <v>66.510782663612645</v>
+      </c>
+      <c r="AF32" s="36">
+        <f>IF((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])&gt;Table8[[#This Row],[limiting web slenderness]],(82/((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])*SQRT(Table8[[#This Row],[fy]]/250000000)))^2,1)</f>
+        <v>0.90279269602577916</v>
+      </c>
+    </row>
+    <row r="33" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B33" s="15" t="str">
         <f>Table8[[#This Row],[Section]]&amp;"-"&amp;TEXT(Table8[[#This Row],[Grade]],"0")</f>
         <v>1000WB322-400</v>
@@ -5952,8 +6301,16 @@
         <f>Table8[[#This Row],[Aw]]*Table8[[#This Row],[fy]]*0.6</f>
         <v>3502080</v>
       </c>
-    </row>
-    <row r="34" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AE33" s="35">
+        <f>82/SQRT(Table8[[#This Row],[fy]]/250000000)</f>
+        <v>66.510782663612645</v>
+      </c>
+      <c r="AF33" s="36">
+        <f>IF((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])&gt;Table8[[#This Row],[limiting web slenderness]],(82/((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])*SQRT(Table8[[#This Row],[fy]]/250000000)))^2,1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B34" s="15" t="str">
         <f>Table8[[#This Row],[Section]]&amp;"-"&amp;TEXT(Table8[[#This Row],[Grade]],"0")</f>
         <v>1000WB296-400</v>
@@ -6045,8 +6402,16 @@
         <f>Table8[[#This Row],[Aw]]*Table8[[#This Row],[fy]]*0.6</f>
         <v>3502080</v>
       </c>
-    </row>
-    <row r="35" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AE34" s="35">
+        <f>82/SQRT(Table8[[#This Row],[fy]]/250000000)</f>
+        <v>66.510782663612645</v>
+      </c>
+      <c r="AF34" s="36">
+        <f>IF((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])&gt;Table8[[#This Row],[limiting web slenderness]],(82/((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])*SQRT(Table8[[#This Row],[fy]]/250000000)))^2,1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B35" s="15" t="str">
         <f>Table8[[#This Row],[Section]]&amp;"-"&amp;TEXT(Table8[[#This Row],[Grade]],"0")</f>
         <v>1000WB258-400</v>
@@ -6138,8 +6503,16 @@
         <f>Table8[[#This Row],[Aw]]*Table8[[#This Row],[fy]]*0.6</f>
         <v>3502080</v>
       </c>
-    </row>
-    <row r="36" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AE35" s="35">
+        <f>82/SQRT(Table8[[#This Row],[fy]]/250000000)</f>
+        <v>66.510782663612645</v>
+      </c>
+      <c r="AF35" s="36">
+        <f>IF((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])&gt;Table8[[#This Row],[limiting web slenderness]],(82/((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])*SQRT(Table8[[#This Row],[fy]]/250000000)))^2,1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B36" s="15" t="str">
         <f>Table8[[#This Row],[Section]]&amp;"-"&amp;TEXT(Table8[[#This Row],[Grade]],"0")</f>
         <v>1000WB215-400</v>
@@ -6231,8 +6604,16 @@
         <f>Table8[[#This Row],[Aw]]*Table8[[#This Row],[fy]]*0.6</f>
         <v>3502080</v>
       </c>
-    </row>
-    <row r="37" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AE36" s="35">
+        <f>82/SQRT(Table8[[#This Row],[fy]]/250000000)</f>
+        <v>66.510782663612645</v>
+      </c>
+      <c r="AF36" s="36">
+        <f>IF((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])&gt;Table8[[#This Row],[limiting web slenderness]],(82/((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])*SQRT(Table8[[#This Row],[fy]]/250000000)))^2,1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B37" s="15" t="str">
         <f>Table8[[#This Row],[Section]]&amp;"-"&amp;TEXT(Table8[[#This Row],[Grade]],"0")</f>
         <v>900WB282-400</v>
@@ -6324,8 +6705,16 @@
         <f>Table8[[#This Row],[Aw]]*Table8[[#This Row],[fy]]*0.6</f>
         <v>2476800</v>
       </c>
-    </row>
-    <row r="38" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AE37" s="35">
+        <f>82/SQRT(Table8[[#This Row],[fy]]/250000000)</f>
+        <v>64.826692033451778</v>
+      </c>
+      <c r="AF37" s="36">
+        <f>IF((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])&gt;Table8[[#This Row],[limiting web slenderness]],(82/((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])*SQRT(Table8[[#This Row],[fy]]/250000000)))^2,1)</f>
+        <v>0.81822606814494303</v>
+      </c>
+    </row>
+    <row r="38" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B38" s="15" t="str">
         <f>Table8[[#This Row],[Section]]&amp;"-"&amp;TEXT(Table8[[#This Row],[Grade]],"0")</f>
         <v>900WB257-400</v>
@@ -6417,8 +6806,16 @@
         <f>Table8[[#This Row],[Aw]]*Table8[[#This Row],[fy]]*0.6</f>
         <v>2476799.9999999995</v>
       </c>
-    </row>
-    <row r="39" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AE38" s="35">
+        <f>82/SQRT(Table8[[#This Row],[fy]]/250000000)</f>
+        <v>64.826692033451778</v>
+      </c>
+      <c r="AF38" s="36">
+        <f>IF((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])&gt;Table8[[#This Row],[limiting web slenderness]],(82/((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])*SQRT(Table8[[#This Row],[fy]]/250000000)))^2,1)</f>
+        <v>0.81822606814494325</v>
+      </c>
+    </row>
+    <row r="39" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B39" s="15" t="str">
         <f>Table8[[#This Row],[Section]]&amp;"-"&amp;TEXT(Table8[[#This Row],[Grade]],"0")</f>
         <v>900WB218-400</v>
@@ -6510,8 +6907,16 @@
         <f>Table8[[#This Row],[Aw]]*Table8[[#This Row],[fy]]*0.6</f>
         <v>2476799.9999999995</v>
       </c>
-    </row>
-    <row r="40" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AE39" s="35">
+        <f>82/SQRT(Table8[[#This Row],[fy]]/250000000)</f>
+        <v>64.826692033451778</v>
+      </c>
+      <c r="AF39" s="36">
+        <f>IF((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])&gt;Table8[[#This Row],[limiting web slenderness]],(82/((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])*SQRT(Table8[[#This Row],[fy]]/250000000)))^2,1)</f>
+        <v>0.81822606814494325</v>
+      </c>
+    </row>
+    <row r="40" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B40" s="15" t="str">
         <f>Table8[[#This Row],[Section]]&amp;"-"&amp;TEXT(Table8[[#This Row],[Grade]],"0")</f>
         <v>900WB175-400</v>
@@ -6603,8 +7008,16 @@
         <f>Table8[[#This Row],[Aw]]*Table8[[#This Row],[fy]]*0.6</f>
         <v>2476799.9999999995</v>
       </c>
-    </row>
-    <row r="41" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AE40" s="35">
+        <f>82/SQRT(Table8[[#This Row],[fy]]/250000000)</f>
+        <v>64.826692033451778</v>
+      </c>
+      <c r="AF40" s="36">
+        <f>IF((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])&gt;Table8[[#This Row],[limiting web slenderness]],(82/((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])*SQRT(Table8[[#This Row],[fy]]/250000000)))^2,1)</f>
+        <v>0.81822606814494325</v>
+      </c>
+    </row>
+    <row r="41" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B41" s="15" t="str">
         <f>Table8[[#This Row],[Section]]&amp;"-"&amp;TEXT(Table8[[#This Row],[Grade]],"0")</f>
         <v>800WB192-400</v>
@@ -6696,8 +7109,16 @@
         <f>Table8[[#This Row],[Aw]]*Table8[[#This Row],[fy]]*0.6</f>
         <v>1823999.9999999998</v>
       </c>
-    </row>
-    <row r="42" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AE41" s="35">
+        <f>82/SQRT(Table8[[#This Row],[fy]]/250000000)</f>
+        <v>64.826692033451778</v>
+      </c>
+      <c r="AF41" s="36">
+        <f>IF((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])&gt;Table8[[#This Row],[limiting web slenderness]],(82/((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])*SQRT(Table8[[#This Row],[fy]]/250000000)))^2,1)</f>
+        <v>0.72757963988919683</v>
+      </c>
+    </row>
+    <row r="42" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B42" s="15" t="str">
         <f>Table8[[#This Row],[Section]]&amp;"-"&amp;TEXT(Table8[[#This Row],[Grade]],"0")</f>
         <v>800WB168-400</v>
@@ -6789,8 +7210,16 @@
         <f>Table8[[#This Row],[Aw]]*Table8[[#This Row],[fy]]*0.6</f>
         <v>1824000</v>
       </c>
-    </row>
-    <row r="43" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AE42" s="35">
+        <f>82/SQRT(Table8[[#This Row],[fy]]/250000000)</f>
+        <v>64.826692033451778</v>
+      </c>
+      <c r="AF42" s="36">
+        <f>IF((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])&gt;Table8[[#This Row],[limiting web slenderness]],(82/((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])*SQRT(Table8[[#This Row],[fy]]/250000000)))^2,1)</f>
+        <v>0.72757963988919661</v>
+      </c>
+    </row>
+    <row r="43" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B43" s="15" t="str">
         <f>Table8[[#This Row],[Section]]&amp;"-"&amp;TEXT(Table8[[#This Row],[Grade]],"0")</f>
         <v>800WB146-400</v>
@@ -6882,8 +7311,16 @@
         <f>Table8[[#This Row],[Aw]]*Table8[[#This Row],[fy]]*0.6</f>
         <v>1824000</v>
       </c>
-    </row>
-    <row r="44" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AE43" s="35">
+        <f>82/SQRT(Table8[[#This Row],[fy]]/250000000)</f>
+        <v>64.826692033451778</v>
+      </c>
+      <c r="AF43" s="36">
+        <f>IF((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])&gt;Table8[[#This Row],[limiting web slenderness]],(82/((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])*SQRT(Table8[[#This Row],[fy]]/250000000)))^2,1)</f>
+        <v>0.72757963988919661</v>
+      </c>
+    </row>
+    <row r="44" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B44" s="15" t="str">
         <f>Table8[[#This Row],[Section]]&amp;"-"&amp;TEXT(Table8[[#This Row],[Grade]],"0")</f>
         <v>800WB122-400</v>
@@ -6975,8 +7412,16 @@
         <f>Table8[[#This Row],[Aw]]*Table8[[#This Row],[fy]]*0.6</f>
         <v>1824000</v>
       </c>
-    </row>
-    <row r="45" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AE44" s="35">
+        <f>82/SQRT(Table8[[#This Row],[fy]]/250000000)</f>
+        <v>64.826692033451778</v>
+      </c>
+      <c r="AF44" s="36">
+        <f>IF((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])&gt;Table8[[#This Row],[limiting web slenderness]],(82/((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])*SQRT(Table8[[#This Row],[fy]]/250000000)))^2,1)</f>
+        <v>0.72757963988919661</v>
+      </c>
+    </row>
+    <row r="45" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B45" s="15" t="str">
         <f>Table8[[#This Row],[Section]]&amp;"-"&amp;TEXT(Table8[[#This Row],[Grade]],"0")</f>
         <v>700WB173-400</v>
@@ -7068,8 +7513,16 @@
         <f>Table8[[#This Row],[Aw]]*Table8[[#This Row],[fy]]*0.6</f>
         <v>1583999.9999999998</v>
       </c>
-    </row>
-    <row r="46" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AE45" s="35">
+        <f>82/SQRT(Table8[[#This Row],[fy]]/250000000)</f>
+        <v>64.826692033451778</v>
+      </c>
+      <c r="AF45" s="36">
+        <f>IF((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])&gt;Table8[[#This Row],[limiting web slenderness]],(82/((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])*SQRT(Table8[[#This Row],[fy]]/250000000)))^2,1)</f>
+        <v>0.96476124885215842</v>
+      </c>
+    </row>
+    <row r="46" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B46" s="15" t="str">
         <f>Table8[[#This Row],[Section]]&amp;"-"&amp;TEXT(Table8[[#This Row],[Grade]],"0")</f>
         <v>700WB150-400</v>
@@ -7161,8 +7614,16 @@
         <f>Table8[[#This Row],[Aw]]*Table8[[#This Row],[fy]]*0.6</f>
         <v>1583999.9999999998</v>
       </c>
-    </row>
-    <row r="47" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AE46" s="35">
+        <f>82/SQRT(Table8[[#This Row],[fy]]/250000000)</f>
+        <v>64.826692033451778</v>
+      </c>
+      <c r="AF46" s="36">
+        <f>IF((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])&gt;Table8[[#This Row],[limiting web slenderness]],(82/((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])*SQRT(Table8[[#This Row],[fy]]/250000000)))^2,1)</f>
+        <v>0.96476124885215842</v>
+      </c>
+    </row>
+    <row r="47" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B47" s="15" t="str">
         <f>Table8[[#This Row],[Section]]&amp;"-"&amp;TEXT(Table8[[#This Row],[Grade]],"0")</f>
         <v>700WB130-400</v>
@@ -7254,8 +7715,16 @@
         <f>Table8[[#This Row],[Aw]]*Table8[[#This Row],[fy]]*0.6</f>
         <v>1583999.9999999998</v>
       </c>
-    </row>
-    <row r="48" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AE47" s="35">
+        <f>82/SQRT(Table8[[#This Row],[fy]]/250000000)</f>
+        <v>64.826692033451778</v>
+      </c>
+      <c r="AF47" s="36">
+        <f>IF((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])&gt;Table8[[#This Row],[limiting web slenderness]],(82/((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])*SQRT(Table8[[#This Row],[fy]]/250000000)))^2,1)</f>
+        <v>0.96476124885215842</v>
+      </c>
+    </row>
+    <row r="48" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B48" s="15" t="str">
         <f>Table8[[#This Row],[Section]]&amp;"-"&amp;TEXT(Table8[[#This Row],[Grade]],"0")</f>
         <v>700WB115-400</v>
@@ -7347,8 +7816,16 @@
         <f>Table8[[#This Row],[Aw]]*Table8[[#This Row],[fy]]*0.6</f>
         <v>1583999.9999999998</v>
       </c>
-    </row>
-    <row r="49" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AE48" s="35">
+        <f>82/SQRT(Table8[[#This Row],[fy]]/250000000)</f>
+        <v>64.826692033451778</v>
+      </c>
+      <c r="AF48" s="36">
+        <f>IF((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])&gt;Table8[[#This Row],[limiting web slenderness]],(82/((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])*SQRT(Table8[[#This Row],[fy]]/250000000)))^2,1)</f>
+        <v>0.96476124885215842</v>
+      </c>
+    </row>
+    <row r="49" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B49" s="15" t="str">
         <f>Table8[[#This Row],[Section]]&amp;"-"&amp;TEXT(Table8[[#This Row],[Grade]],"0")</f>
         <v>500WC440-300</v>
@@ -7440,8 +7917,16 @@
         <f>Table8[[#This Row],[Aw]]*Table8[[#This Row],[fy]]*0.6</f>
         <v>2688000</v>
       </c>
-    </row>
-    <row r="50" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AE49" s="35">
+        <f>82/SQRT(Table8[[#This Row],[fy]]/250000000)</f>
+        <v>77.482716966891573</v>
+      </c>
+      <c r="AF49" s="36">
+        <f>IF((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])&gt;Table8[[#This Row],[limiting web slenderness]],(82/((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])*SQRT(Table8[[#This Row],[fy]]/250000000)))^2,1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B50" s="15" t="str">
         <f>Table8[[#This Row],[Section]]&amp;"-"&amp;TEXT(Table8[[#This Row],[Grade]],"0")</f>
         <v>500WC414-300</v>
@@ -7533,8 +8018,16 @@
         <f>Table8[[#This Row],[Aw]]*Table8[[#This Row],[fy]]*0.6</f>
         <v>2150399.9999999995</v>
       </c>
-    </row>
-    <row r="51" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AE50" s="35">
+        <f>82/SQRT(Table8[[#This Row],[fy]]/250000000)</f>
+        <v>77.482716966891573</v>
+      </c>
+      <c r="AF50" s="36">
+        <f>IF((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])&gt;Table8[[#This Row],[limiting web slenderness]],(82/((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])*SQRT(Table8[[#This Row],[fy]]/250000000)))^2,1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B51" s="15" t="str">
         <f>Table8[[#This Row],[Section]]&amp;"-"&amp;TEXT(Table8[[#This Row],[Grade]],"0")</f>
         <v>500WC383-300</v>
@@ -7626,8 +8119,16 @@
         <f>Table8[[#This Row],[Aw]]*Table8[[#This Row],[fy]]*0.6</f>
         <v>2150399.9999999995</v>
       </c>
-    </row>
-    <row r="52" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AE51" s="35">
+        <f>82/SQRT(Table8[[#This Row],[fy]]/250000000)</f>
+        <v>77.482716966891573</v>
+      </c>
+      <c r="AF51" s="36">
+        <f>IF((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])&gt;Table8[[#This Row],[limiting web slenderness]],(82/((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])*SQRT(Table8[[#This Row],[fy]]/250000000)))^2,1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B52" s="15" t="str">
         <f>Table8[[#This Row],[Section]]&amp;"-"&amp;TEXT(Table8[[#This Row],[Grade]],"0")</f>
         <v>500WC340-300</v>
@@ -7719,8 +8220,16 @@
         <f>Table8[[#This Row],[Aw]]*Table8[[#This Row],[fy]]*0.6</f>
         <v>1890000.0000000002</v>
       </c>
-    </row>
-    <row r="53" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AE52" s="35">
+        <f>82/SQRT(Table8[[#This Row],[fy]]/250000000)</f>
+        <v>77.482716966891573</v>
+      </c>
+      <c r="AF52" s="36">
+        <f>IF((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])&gt;Table8[[#This Row],[limiting web slenderness]],(82/((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])*SQRT(Table8[[#This Row],[fy]]/250000000)))^2,1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B53" s="15" t="str">
         <f>Table8[[#This Row],[Section]]&amp;"-"&amp;TEXT(Table8[[#This Row],[Grade]],"0")</f>
         <v>500WC290-300</v>
@@ -7812,8 +8321,16 @@
         <f>Table8[[#This Row],[Aw]]*Table8[[#This Row],[fy]]*0.6</f>
         <v>1620000.0000000002</v>
       </c>
-    </row>
-    <row r="54" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AE53" s="35">
+        <f>82/SQRT(Table8[[#This Row],[fy]]/250000000)</f>
+        <v>74.855416192372701</v>
+      </c>
+      <c r="AF53" s="36">
+        <f>IF((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])&gt;Table8[[#This Row],[limiting web slenderness]],(82/((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])*SQRT(Table8[[#This Row],[fy]]/250000000)))^2,1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B54" s="15" t="str">
         <f>Table8[[#This Row],[Section]]&amp;"-"&amp;TEXT(Table8[[#This Row],[Grade]],"0")</f>
         <v>500WC267-300</v>
@@ -7905,8 +8422,16 @@
         <f>Table8[[#This Row],[Aw]]*Table8[[#This Row],[fy]]*0.6</f>
         <v>1620000.0000000002</v>
       </c>
-    </row>
-    <row r="55" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AE54" s="35">
+        <f>82/SQRT(Table8[[#This Row],[fy]]/250000000)</f>
+        <v>74.855416192372701</v>
+      </c>
+      <c r="AF54" s="36">
+        <f>IF((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])&gt;Table8[[#This Row],[limiting web slenderness]],(82/((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])*SQRT(Table8[[#This Row],[fy]]/250000000)))^2,1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B55" s="15" t="str">
         <f>Table8[[#This Row],[Section]]&amp;"-"&amp;TEXT(Table8[[#This Row],[Grade]],"0")</f>
         <v>500WC228-300</v>
@@ -7998,8 +8523,16 @@
         <f>Table8[[#This Row],[Aw]]*Table8[[#This Row],[fy]]*0.6</f>
         <v>1620000.0000000002</v>
       </c>
-    </row>
-    <row r="56" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AE55" s="35">
+        <f>82/SQRT(Table8[[#This Row],[fy]]/250000000)</f>
+        <v>74.855416192372701</v>
+      </c>
+      <c r="AF55" s="36">
+        <f>IF((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])&gt;Table8[[#This Row],[limiting web slenderness]],(82/((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])*SQRT(Table8[[#This Row],[fy]]/250000000)))^2,1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B56" s="15" t="str">
         <f>Table8[[#This Row],[Section]]&amp;"-"&amp;TEXT(Table8[[#This Row],[Grade]],"0")</f>
         <v>400WC361-300</v>
@@ -8091,8 +8624,16 @@
         <f>Table8[[#This Row],[Aw]]*Table8[[#This Row],[fy]]*0.6</f>
         <v>2351999.9999999995</v>
       </c>
-    </row>
-    <row r="57" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AE56" s="35">
+        <f>82/SQRT(Table8[[#This Row],[fy]]/250000000)</f>
+        <v>77.482716966891573</v>
+      </c>
+      <c r="AF56" s="36">
+        <f>IF((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])&gt;Table8[[#This Row],[limiting web slenderness]],(82/((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])*SQRT(Table8[[#This Row],[fy]]/250000000)))^2,1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B57" s="15" t="str">
         <f>Table8[[#This Row],[Section]]&amp;"-"&amp;TEXT(Table8[[#This Row],[Grade]],"0")</f>
         <v>400WC328-300</v>
@@ -8184,8 +8725,16 @@
         <f>Table8[[#This Row],[Aw]]*Table8[[#This Row],[fy]]*0.6</f>
         <v>1646400</v>
       </c>
-    </row>
-    <row r="58" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AE57" s="35">
+        <f>82/SQRT(Table8[[#This Row],[fy]]/250000000)</f>
+        <v>77.482716966891573</v>
+      </c>
+      <c r="AF57" s="36">
+        <f>IF((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])&gt;Table8[[#This Row],[limiting web slenderness]],(82/((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])*SQRT(Table8[[#This Row],[fy]]/250000000)))^2,1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B58" s="15" t="str">
         <f>Table8[[#This Row],[Section]]&amp;"-"&amp;TEXT(Table8[[#This Row],[Grade]],"0")</f>
         <v>400WC303-300</v>
@@ -8277,8 +8826,16 @@
         <f>Table8[[#This Row],[Aw]]*Table8[[#This Row],[fy]]*0.6</f>
         <v>1646400</v>
       </c>
-    </row>
-    <row r="59" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AE58" s="35">
+        <f>82/SQRT(Table8[[#This Row],[fy]]/250000000)</f>
+        <v>77.482716966891573</v>
+      </c>
+      <c r="AF58" s="36">
+        <f>IF((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])&gt;Table8[[#This Row],[limiting web slenderness]],(82/((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])*SQRT(Table8[[#This Row],[fy]]/250000000)))^2,1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B59" s="15" t="str">
         <f>Table8[[#This Row],[Section]]&amp;"-"&amp;TEXT(Table8[[#This Row],[Grade]],"0")</f>
         <v>400WC270-300</v>
@@ -8370,8 +8927,16 @@
         <f>Table8[[#This Row],[Aw]]*Table8[[#This Row],[fy]]*0.6</f>
         <v>1469999.9999999998</v>
       </c>
-    </row>
-    <row r="60" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AE59" s="35">
+        <f>82/SQRT(Table8[[#This Row],[fy]]/250000000)</f>
+        <v>77.482716966891573</v>
+      </c>
+      <c r="AF59" s="36">
+        <f>IF((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])&gt;Table8[[#This Row],[limiting web slenderness]],(82/((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])*SQRT(Table8[[#This Row],[fy]]/250000000)))^2,1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B60" s="15" t="str">
         <f>Table8[[#This Row],[Section]]&amp;"-"&amp;TEXT(Table8[[#This Row],[Grade]],"0")</f>
         <v>400WC212-300</v>
@@ -8463,8 +9028,16 @@
         <f>Table8[[#This Row],[Aw]]*Table8[[#This Row],[fy]]*0.6</f>
         <v>1260000.0000000002</v>
       </c>
-    </row>
-    <row r="61" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AE60" s="35">
+        <f>82/SQRT(Table8[[#This Row],[fy]]/250000000)</f>
+        <v>74.855416192372701</v>
+      </c>
+      <c r="AF60" s="36">
+        <f>IF((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])&gt;Table8[[#This Row],[limiting web slenderness]],(82/((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])*SQRT(Table8[[#This Row],[fy]]/250000000)))^2,1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B61" s="15" t="str">
         <f>Table8[[#This Row],[Section]]&amp;"-"&amp;TEXT(Table8[[#This Row],[Grade]],"0")</f>
         <v>400WC181-300</v>
@@ -8556,8 +9129,16 @@
         <f>Table8[[#This Row],[Aw]]*Table8[[#This Row],[fy]]*0.6</f>
         <v>1260000.0000000002</v>
       </c>
-    </row>
-    <row r="62" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AE61" s="35">
+        <f>82/SQRT(Table8[[#This Row],[fy]]/250000000)</f>
+        <v>74.855416192372701</v>
+      </c>
+      <c r="AF61" s="36">
+        <f>IF((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])&gt;Table8[[#This Row],[limiting web slenderness]],(82/((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])*SQRT(Table8[[#This Row],[fy]]/250000000)))^2,1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B62" s="15" t="str">
         <f>Table8[[#This Row],[Section]]&amp;"-"&amp;TEXT(Table8[[#This Row],[Grade]],"0")</f>
         <v>400WC144-300</v>
@@ -8649,8 +9230,16 @@
         <f>Table8[[#This Row],[Aw]]*Table8[[#This Row],[fy]]*0.6</f>
         <v>1008000</v>
       </c>
-    </row>
-    <row r="63" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AE62" s="35">
+        <f>82/SQRT(Table8[[#This Row],[fy]]/250000000)</f>
+        <v>74.855416192372701</v>
+      </c>
+      <c r="AF62" s="36">
+        <f>IF((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])&gt;Table8[[#This Row],[limiting web slenderness]],(82/((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])*SQRT(Table8[[#This Row],[fy]]/250000000)))^2,1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B63" s="15" t="str">
         <f>Table8[[#This Row],[Section]]&amp;"-"&amp;TEXT(Table8[[#This Row],[Grade]],"0")</f>
         <v>350WC280-300</v>
@@ -8742,8 +9331,16 @@
         <f>Table8[[#This Row],[Aw]]*Table8[[#This Row],[fy]]*0.6</f>
         <v>1293600</v>
       </c>
-    </row>
-    <row r="64" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AE63" s="35">
+        <f>82/SQRT(Table8[[#This Row],[fy]]/250000000)</f>
+        <v>77.482716966891573</v>
+      </c>
+      <c r="AF63" s="36">
+        <f>IF((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])&gt;Table8[[#This Row],[limiting web slenderness]],(82/((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])*SQRT(Table8[[#This Row],[fy]]/250000000)))^2,1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B64" s="15" t="str">
         <f>Table8[[#This Row],[Section]]&amp;"-"&amp;TEXT(Table8[[#This Row],[Grade]],"0")</f>
         <v>350WC258-300</v>
@@ -8835,8 +9432,16 @@
         <f>Table8[[#This Row],[Aw]]*Table8[[#This Row],[fy]]*0.6</f>
         <v>1293600</v>
       </c>
-    </row>
-    <row r="65" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AE64" s="35">
+        <f>82/SQRT(Table8[[#This Row],[fy]]/250000000)</f>
+        <v>77.482716966891573</v>
+      </c>
+      <c r="AF64" s="36">
+        <f>IF((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])&gt;Table8[[#This Row],[limiting web slenderness]],(82/((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])*SQRT(Table8[[#This Row],[fy]]/250000000)))^2,1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B65" s="15" t="str">
         <f>Table8[[#This Row],[Section]]&amp;"-"&amp;TEXT(Table8[[#This Row],[Grade]],"0")</f>
         <v>350WC230-300</v>
@@ -8928,8 +9533,16 @@
         <f>Table8[[#This Row],[Aw]]*Table8[[#This Row],[fy]]*0.6</f>
         <v>1155000</v>
       </c>
-    </row>
-    <row r="66" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AE65" s="35">
+        <f>82/SQRT(Table8[[#This Row],[fy]]/250000000)</f>
+        <v>77.482716966891573</v>
+      </c>
+      <c r="AF65" s="36">
+        <f>IF((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])&gt;Table8[[#This Row],[limiting web slenderness]],(82/((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])*SQRT(Table8[[#This Row],[fy]]/250000000)))^2,1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B66" s="15" t="str">
         <f>Table8[[#This Row],[Section]]&amp;"-"&amp;TEXT(Table8[[#This Row],[Grade]],"0")</f>
         <v>350WC197-300</v>
@@ -9021,8 +9634,16 @@
         <f>Table8[[#This Row],[Aw]]*Table8[[#This Row],[fy]]*0.6</f>
         <v>990000.00000000012</v>
       </c>
-    </row>
-    <row r="67" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AE66" s="35">
+        <f>82/SQRT(Table8[[#This Row],[fy]]/250000000)</f>
+        <v>74.855416192372701</v>
+      </c>
+      <c r="AF66" s="36">
+        <f>IF((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])&gt;Table8[[#This Row],[limiting web slenderness]],(82/((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])*SQRT(Table8[[#This Row],[fy]]/250000000)))^2,1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B67" s="15" t="str">
         <f>Table8[[#This Row],[Section]]&amp;"-"&amp;TEXT(Table8[[#This Row],[Grade]],"0")</f>
         <v>500WC440-400</v>
@@ -9114,8 +9735,16 @@
         <f>Table8[[#This Row],[Aw]]*Table8[[#This Row],[fy]]*0.6</f>
         <v>3456000</v>
       </c>
-    </row>
-    <row r="68" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AE67" s="35">
+        <f>82/SQRT(Table8[[#This Row],[fy]]/250000000)</f>
+        <v>68.333333333333343</v>
+      </c>
+      <c r="AF67" s="36">
+        <f>IF((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])&gt;Table8[[#This Row],[limiting web slenderness]],(82/((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])*SQRT(Table8[[#This Row],[fy]]/250000000)))^2,1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B68" s="15" t="str">
         <f>Table8[[#This Row],[Section]]&amp;"-"&amp;TEXT(Table8[[#This Row],[Grade]],"0")</f>
         <v>500WC414-400</v>
@@ -9207,8 +9836,16 @@
         <f>Table8[[#This Row],[Aw]]*Table8[[#This Row],[fy]]*0.6</f>
         <v>2764800</v>
       </c>
-    </row>
-    <row r="69" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AE68" s="35">
+        <f>82/SQRT(Table8[[#This Row],[fy]]/250000000)</f>
+        <v>68.333333333333343</v>
+      </c>
+      <c r="AF68" s="36">
+        <f>IF((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])&gt;Table8[[#This Row],[limiting web slenderness]],(82/((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])*SQRT(Table8[[#This Row],[fy]]/250000000)))^2,1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B69" s="15" t="str">
         <f>Table8[[#This Row],[Section]]&amp;"-"&amp;TEXT(Table8[[#This Row],[Grade]],"0")</f>
         <v>500WC383-400</v>
@@ -9300,8 +9937,16 @@
         <f>Table8[[#This Row],[Aw]]*Table8[[#This Row],[fy]]*0.6</f>
         <v>2764800</v>
       </c>
-    </row>
-    <row r="70" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AE69" s="35">
+        <f>82/SQRT(Table8[[#This Row],[fy]]/250000000)</f>
+        <v>68.333333333333343</v>
+      </c>
+      <c r="AF69" s="36">
+        <f>IF((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])&gt;Table8[[#This Row],[limiting web slenderness]],(82/((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])*SQRT(Table8[[#This Row],[fy]]/250000000)))^2,1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B70" s="15" t="str">
         <f>Table8[[#This Row],[Section]]&amp;"-"&amp;TEXT(Table8[[#This Row],[Grade]],"0")</f>
         <v>500WC340-400</v>
@@ -9393,8 +10038,16 @@
         <f>Table8[[#This Row],[Aw]]*Table8[[#This Row],[fy]]*0.6</f>
         <v>2430000</v>
       </c>
-    </row>
-    <row r="71" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AE70" s="35">
+        <f>82/SQRT(Table8[[#This Row],[fy]]/250000000)</f>
+        <v>68.333333333333343</v>
+      </c>
+      <c r="AF70" s="36">
+        <f>IF((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])&gt;Table8[[#This Row],[limiting web slenderness]],(82/((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])*SQRT(Table8[[#This Row],[fy]]/250000000)))^2,1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B71" s="15" t="str">
         <f>Table8[[#This Row],[Section]]&amp;"-"&amp;TEXT(Table8[[#This Row],[Grade]],"0")</f>
         <v>500WC290-400</v>
@@ -9486,8 +10139,16 @@
         <f>Table8[[#This Row],[Aw]]*Table8[[#This Row],[fy]]*0.6</f>
         <v>2052000.0000000002</v>
       </c>
-    </row>
-    <row r="72" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AE71" s="35">
+        <f>82/SQRT(Table8[[#This Row],[fy]]/250000000)</f>
+        <v>66.510782663612645</v>
+      </c>
+      <c r="AF71" s="36">
+        <f>IF((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])&gt;Table8[[#This Row],[limiting web slenderness]],(82/((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])*SQRT(Table8[[#This Row],[fy]]/250000000)))^2,1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B72" s="15" t="str">
         <f>Table8[[#This Row],[Section]]&amp;"-"&amp;TEXT(Table8[[#This Row],[Grade]],"0")</f>
         <v>500WC267-400</v>
@@ -9579,8 +10240,16 @@
         <f>Table8[[#This Row],[Aw]]*Table8[[#This Row],[fy]]*0.6</f>
         <v>2052000.0000000002</v>
       </c>
-    </row>
-    <row r="73" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AE72" s="35">
+        <f>82/SQRT(Table8[[#This Row],[fy]]/250000000)</f>
+        <v>66.510782663612645</v>
+      </c>
+      <c r="AF72" s="36">
+        <f>IF((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])&gt;Table8[[#This Row],[limiting web slenderness]],(82/((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])*SQRT(Table8[[#This Row],[fy]]/250000000)))^2,1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B73" s="15" t="str">
         <f>Table8[[#This Row],[Section]]&amp;"-"&amp;TEXT(Table8[[#This Row],[Grade]],"0")</f>
         <v>500WC228-400</v>
@@ -9672,8 +10341,16 @@
         <f>Table8[[#This Row],[Aw]]*Table8[[#This Row],[fy]]*0.6</f>
         <v>2052000.0000000002</v>
       </c>
-    </row>
-    <row r="74" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AE73" s="35">
+        <f>82/SQRT(Table8[[#This Row],[fy]]/250000000)</f>
+        <v>66.510782663612645</v>
+      </c>
+      <c r="AF73" s="36">
+        <f>IF((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])&gt;Table8[[#This Row],[limiting web slenderness]],(82/((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])*SQRT(Table8[[#This Row],[fy]]/250000000)))^2,1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B74" s="15" t="str">
         <f>Table8[[#This Row],[Section]]&amp;"-"&amp;TEXT(Table8[[#This Row],[Grade]],"0")</f>
         <v>400WC361-400</v>
@@ -9765,8 +10442,16 @@
         <f>Table8[[#This Row],[Aw]]*Table8[[#This Row],[fy]]*0.6</f>
         <v>3023999.9999999995</v>
       </c>
-    </row>
-    <row r="75" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AE74" s="35">
+        <f>82/SQRT(Table8[[#This Row],[fy]]/250000000)</f>
+        <v>68.333333333333343</v>
+      </c>
+      <c r="AF74" s="36">
+        <f>IF((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])&gt;Table8[[#This Row],[limiting web slenderness]],(82/((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])*SQRT(Table8[[#This Row],[fy]]/250000000)))^2,1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B75" s="15" t="str">
         <f>Table8[[#This Row],[Section]]&amp;"-"&amp;TEXT(Table8[[#This Row],[Grade]],"0")</f>
         <v>400WC328-400</v>
@@ -9858,8 +10543,16 @@
         <f>Table8[[#This Row],[Aw]]*Table8[[#This Row],[fy]]*0.6</f>
         <v>2116800</v>
       </c>
-    </row>
-    <row r="76" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AE75" s="35">
+        <f>82/SQRT(Table8[[#This Row],[fy]]/250000000)</f>
+        <v>68.333333333333343</v>
+      </c>
+      <c r="AF75" s="36">
+        <f>IF((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])&gt;Table8[[#This Row],[limiting web slenderness]],(82/((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])*SQRT(Table8[[#This Row],[fy]]/250000000)))^2,1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B76" s="15" t="str">
         <f>Table8[[#This Row],[Section]]&amp;"-"&amp;TEXT(Table8[[#This Row],[Grade]],"0")</f>
         <v>400WC303-400</v>
@@ -9951,8 +10644,16 @@
         <f>Table8[[#This Row],[Aw]]*Table8[[#This Row],[fy]]*0.6</f>
         <v>2116800</v>
       </c>
-    </row>
-    <row r="77" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AE76" s="35">
+        <f>82/SQRT(Table8[[#This Row],[fy]]/250000000)</f>
+        <v>68.333333333333343</v>
+      </c>
+      <c r="AF76" s="36">
+        <f>IF((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])&gt;Table8[[#This Row],[limiting web slenderness]],(82/((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])*SQRT(Table8[[#This Row],[fy]]/250000000)))^2,1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B77" s="15" t="str">
         <f>Table8[[#This Row],[Section]]&amp;"-"&amp;TEXT(Table8[[#This Row],[Grade]],"0")</f>
         <v>400WC270-400</v>
@@ -10044,8 +10745,16 @@
         <f>Table8[[#This Row],[Aw]]*Table8[[#This Row],[fy]]*0.6</f>
         <v>1889999.9999999995</v>
       </c>
-    </row>
-    <row r="78" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AE77" s="35">
+        <f>82/SQRT(Table8[[#This Row],[fy]]/250000000)</f>
+        <v>68.333333333333343</v>
+      </c>
+      <c r="AF77" s="36">
+        <f>IF((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])&gt;Table8[[#This Row],[limiting web slenderness]],(82/((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])*SQRT(Table8[[#This Row],[fy]]/250000000)))^2,1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B78" s="15" t="str">
         <f>Table8[[#This Row],[Section]]&amp;"-"&amp;TEXT(Table8[[#This Row],[Grade]],"0")</f>
         <v>400WC212-400</v>
@@ -10137,8 +10846,16 @@
         <f>Table8[[#This Row],[Aw]]*Table8[[#This Row],[fy]]*0.6</f>
         <v>1596000.0000000002</v>
       </c>
-    </row>
-    <row r="79" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AE78" s="35">
+        <f>82/SQRT(Table8[[#This Row],[fy]]/250000000)</f>
+        <v>66.510782663612645</v>
+      </c>
+      <c r="AF78" s="36">
+        <f>IF((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])&gt;Table8[[#This Row],[limiting web slenderness]],(82/((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])*SQRT(Table8[[#This Row],[fy]]/250000000)))^2,1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B79" s="15" t="str">
         <f>Table8[[#This Row],[Section]]&amp;"-"&amp;TEXT(Table8[[#This Row],[Grade]],"0")</f>
         <v>400WC181-400</v>
@@ -10230,8 +10947,16 @@
         <f>Table8[[#This Row],[Aw]]*Table8[[#This Row],[fy]]*0.6</f>
         <v>1596000.0000000002</v>
       </c>
-    </row>
-    <row r="80" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AE79" s="35">
+        <f>82/SQRT(Table8[[#This Row],[fy]]/250000000)</f>
+        <v>66.510782663612645</v>
+      </c>
+      <c r="AF79" s="36">
+        <f>IF((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])&gt;Table8[[#This Row],[limiting web slenderness]],(82/((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])*SQRT(Table8[[#This Row],[fy]]/250000000)))^2,1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B80" s="15" t="str">
         <f>Table8[[#This Row],[Section]]&amp;"-"&amp;TEXT(Table8[[#This Row],[Grade]],"0")</f>
         <v>400WC144-400</v>
@@ -10323,8 +11048,16 @@
         <f>Table8[[#This Row],[Aw]]*Table8[[#This Row],[fy]]*0.6</f>
         <v>1276800</v>
       </c>
-    </row>
-    <row r="81" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AE80" s="35">
+        <f>82/SQRT(Table8[[#This Row],[fy]]/250000000)</f>
+        <v>66.510782663612645</v>
+      </c>
+      <c r="AF80" s="36">
+        <f>IF((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])&gt;Table8[[#This Row],[limiting web slenderness]],(82/((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])*SQRT(Table8[[#This Row],[fy]]/250000000)))^2,1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B81" s="15" t="str">
         <f>Table8[[#This Row],[Section]]&amp;"-"&amp;TEXT(Table8[[#This Row],[Grade]],"0")</f>
         <v>350WC280-400</v>
@@ -10416,8 +11149,16 @@
         <f>Table8[[#This Row],[Aw]]*Table8[[#This Row],[fy]]*0.6</f>
         <v>1663200</v>
       </c>
-    </row>
-    <row r="82" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AE81" s="35">
+        <f>82/SQRT(Table8[[#This Row],[fy]]/250000000)</f>
+        <v>68.333333333333343</v>
+      </c>
+      <c r="AF81" s="36">
+        <f>IF((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])&gt;Table8[[#This Row],[limiting web slenderness]],(82/((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])*SQRT(Table8[[#This Row],[fy]]/250000000)))^2,1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B82" s="15" t="str">
         <f>Table8[[#This Row],[Section]]&amp;"-"&amp;TEXT(Table8[[#This Row],[Grade]],"0")</f>
         <v>350WC258-400</v>
@@ -10509,8 +11250,16 @@
         <f>Table8[[#This Row],[Aw]]*Table8[[#This Row],[fy]]*0.6</f>
         <v>1663200</v>
       </c>
-    </row>
-    <row r="83" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AE82" s="35">
+        <f>82/SQRT(Table8[[#This Row],[fy]]/250000000)</f>
+        <v>68.333333333333343</v>
+      </c>
+      <c r="AF82" s="36">
+        <f>IF((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])&gt;Table8[[#This Row],[limiting web slenderness]],(82/((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])*SQRT(Table8[[#This Row],[fy]]/250000000)))^2,1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B83" s="15" t="str">
         <f>Table8[[#This Row],[Section]]&amp;"-"&amp;TEXT(Table8[[#This Row],[Grade]],"0")</f>
         <v>350WC230-400</v>
@@ -10602,8 +11351,16 @@
         <f>Table8[[#This Row],[Aw]]*Table8[[#This Row],[fy]]*0.6</f>
         <v>1485000.0000000002</v>
       </c>
-    </row>
-    <row r="84" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AE83" s="35">
+        <f>82/SQRT(Table8[[#This Row],[fy]]/250000000)</f>
+        <v>68.333333333333343</v>
+      </c>
+      <c r="AF83" s="36">
+        <f>IF((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])&gt;Table8[[#This Row],[limiting web slenderness]],(82/((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])*SQRT(Table8[[#This Row],[fy]]/250000000)))^2,1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B84" s="15" t="str">
         <f>Table8[[#This Row],[Section]]&amp;"-"&amp;TEXT(Table8[[#This Row],[Grade]],"0")</f>
         <v>350WC197-400</v>
@@ -10695,8 +11452,16 @@
         <f>Table8[[#This Row],[Aw]]*Table8[[#This Row],[fy]]*0.6</f>
         <v>1254000</v>
       </c>
-    </row>
-    <row r="85" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AE84" s="35">
+        <f>82/SQRT(Table8[[#This Row],[fy]]/250000000)</f>
+        <v>66.510782663612645</v>
+      </c>
+      <c r="AF84" s="36">
+        <f>IF((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])&gt;Table8[[#This Row],[limiting web slenderness]],(82/((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])*SQRT(Table8[[#This Row],[fy]]/250000000)))^2,1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B85" s="15" t="str">
         <f>Table8[[#This Row],[Section]]&amp;"-"&amp;TEXT(Table8[[#This Row],[Grade]],"0")</f>
         <v>610UB125-300HR</v>
@@ -10788,8 +11553,16 @@
         <f>Table8[[#This Row],[Aw]]*Table8[[#This Row],[fy]]*0.6</f>
         <v>1310904</v>
       </c>
-    </row>
-    <row r="86" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AE85" s="35">
+        <f>82/SQRT(Table8[[#This Row],[fy]]/250000000)</f>
+        <v>74.855416192372701</v>
+      </c>
+      <c r="AF85" s="36">
+        <f>IF((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])&gt;Table8[[#This Row],[limiting web slenderness]],(82/((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])*SQRT(Table8[[#This Row],[fy]]/250000000)))^2,1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B86" s="15" t="str">
         <f>Table8[[#This Row],[Section]]&amp;"-"&amp;TEXT(Table8[[#This Row],[Grade]],"0")</f>
         <v>610UB113-300HR</v>
@@ -10881,8 +11654,16 @@
         <f>Table8[[#This Row],[Aw]]*Table8[[#This Row],[fy]]*0.6</f>
         <v>1223711.9999999998</v>
       </c>
-    </row>
-    <row r="87" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AE86" s="35">
+        <f>82/SQRT(Table8[[#This Row],[fy]]/250000000)</f>
+        <v>74.855416192372701</v>
+      </c>
+      <c r="AF86" s="36">
+        <f>IF((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])&gt;Table8[[#This Row],[limiting web slenderness]],(82/((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])*SQRT(Table8[[#This Row],[fy]]/250000000)))^2,1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B87" s="15" t="str">
         <f>Table8[[#This Row],[Section]]&amp;"-"&amp;TEXT(Table8[[#This Row],[Grade]],"0")</f>
         <v>610UB101-300HR</v>
@@ -10974,8 +11755,16 @@
         <f>Table8[[#This Row],[Aw]]*Table8[[#This Row],[fy]]*0.6</f>
         <v>1225190.3999999999</v>
       </c>
-    </row>
-    <row r="88" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AE87" s="35">
+        <f>82/SQRT(Table8[[#This Row],[fy]]/250000000)</f>
+        <v>72.478445071621124</v>
+      </c>
+      <c r="AF87" s="36">
+        <f>IF((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])&gt;Table8[[#This Row],[limiting web slenderness]],(82/((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])*SQRT(Table8[[#This Row],[fy]]/250000000)))^2,1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B88" s="15" t="str">
         <f>Table8[[#This Row],[Section]]&amp;"-"&amp;TEXT(Table8[[#This Row],[Grade]],"0")</f>
         <v>530UB92.4-300HR</v>
@@ -11067,8 +11856,16 @@
         <f>Table8[[#This Row],[Aw]]*Table8[[#This Row],[fy]]*0.6</f>
         <v>1043827.2</v>
       </c>
-    </row>
-    <row r="89" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AE88" s="35">
+        <f>82/SQRT(Table8[[#This Row],[fy]]/250000000)</f>
+        <v>72.478445071621124</v>
+      </c>
+      <c r="AF88" s="36">
+        <f>IF((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])&gt;Table8[[#This Row],[limiting web slenderness]],(82/((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])*SQRT(Table8[[#This Row],[fy]]/250000000)))^2,1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B89" s="15" t="str">
         <f>Table8[[#This Row],[Section]]&amp;"-"&amp;TEXT(Table8[[#This Row],[Grade]],"0")</f>
         <v>530UB82.0-300HR</v>
@@ -11160,8 +11957,16 @@
         <f>Table8[[#This Row],[Aw]]*Table8[[#This Row],[fy]]*0.6</f>
         <v>973209.59999999998</v>
       </c>
-    </row>
-    <row r="90" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AE89" s="35">
+        <f>82/SQRT(Table8[[#This Row],[fy]]/250000000)</f>
+        <v>72.478445071621124</v>
+      </c>
+      <c r="AF89" s="36">
+        <f>IF((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])&gt;Table8[[#This Row],[limiting web slenderness]],(82/((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])*SQRT(Table8[[#This Row],[fy]]/250000000)))^2,1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B90" s="15" t="str">
         <f>Table8[[#This Row],[Section]]&amp;"-"&amp;TEXT(Table8[[#This Row],[Grade]],"0")</f>
         <v>460UB82.1-300HR</v>
@@ -11253,8 +12058,16 @@
         <f>Table8[[#This Row],[Aw]]*Table8[[#This Row],[fy]]*0.6</f>
         <v>874368.00000000012</v>
       </c>
-    </row>
-    <row r="91" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AE90" s="35">
+        <f>82/SQRT(Table8[[#This Row],[fy]]/250000000)</f>
+        <v>72.478445071621124</v>
+      </c>
+      <c r="AF90" s="36">
+        <f>IF((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])&gt;Table8[[#This Row],[limiting web slenderness]],(82/((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])*SQRT(Table8[[#This Row],[fy]]/250000000)))^2,1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B91" s="15" t="str">
         <f>Table8[[#This Row],[Section]]&amp;"-"&amp;TEXT(Table8[[#This Row],[Grade]],"0")</f>
         <v>460UB74.6-300HR</v>
@@ -11346,8 +12159,16 @@
         <f>Table8[[#This Row],[Aw]]*Table8[[#This Row],[fy]]*0.6</f>
         <v>798470.40000000014</v>
       </c>
-    </row>
-    <row r="92" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AE91" s="35">
+        <f>82/SQRT(Table8[[#This Row],[fy]]/250000000)</f>
+        <v>72.478445071621124</v>
+      </c>
+      <c r="AF91" s="36">
+        <f>IF((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])&gt;Table8[[#This Row],[limiting web slenderness]],(82/((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])*SQRT(Table8[[#This Row],[fy]]/250000000)))^2,1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B92" s="15" t="str">
         <f>Table8[[#This Row],[Section]]&amp;"-"&amp;TEXT(Table8[[#This Row],[Grade]],"0")</f>
         <v>460UB67.1-300HR</v>
@@ -11439,8 +12260,16 @@
         <f>Table8[[#This Row],[Aw]]*Table8[[#This Row],[fy]]*0.6</f>
         <v>740928.00000000012</v>
       </c>
-    </row>
-    <row r="93" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AE92" s="35">
+        <f>82/SQRT(Table8[[#This Row],[fy]]/250000000)</f>
+        <v>72.478445071621124</v>
+      </c>
+      <c r="AF92" s="36">
+        <f>IF((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])&gt;Table8[[#This Row],[limiting web slenderness]],(82/((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])*SQRT(Table8[[#This Row],[fy]]/250000000)))^2,1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B93" s="15" t="str">
         <f>Table8[[#This Row],[Section]]&amp;"-"&amp;TEXT(Table8[[#This Row],[Grade]],"0")</f>
         <v>410UB59.7-300HR</v>
@@ -11532,8 +12361,16 @@
         <f>Table8[[#This Row],[Aw]]*Table8[[#This Row],[fy]]*0.6</f>
         <v>608025.59999999998</v>
       </c>
-    </row>
-    <row r="94" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AE93" s="35">
+        <f>82/SQRT(Table8[[#This Row],[fy]]/250000000)</f>
+        <v>72.478445071621124</v>
+      </c>
+      <c r="AF93" s="36">
+        <f>IF((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])&gt;Table8[[#This Row],[limiting web slenderness]],(82/((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])*SQRT(Table8[[#This Row],[fy]]/250000000)))^2,1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B94" s="15" t="str">
         <f>Table8[[#This Row],[Section]]&amp;"-"&amp;TEXT(Table8[[#This Row],[Grade]],"0")</f>
         <v>410UB53.7-300HR</v>
@@ -11625,8 +12462,16 @@
         <f>Table8[[#This Row],[Aw]]*Table8[[#This Row],[fy]]*0.6</f>
         <v>588057.59999999998</v>
       </c>
-    </row>
-    <row r="95" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AE94" s="35">
+        <f>82/SQRT(Table8[[#This Row],[fy]]/250000000)</f>
+        <v>72.478445071621124</v>
+      </c>
+      <c r="AF94" s="36">
+        <f>IF((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])&gt;Table8[[#This Row],[limiting web slenderness]],(82/((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])*SQRT(Table8[[#This Row],[fy]]/250000000)))^2,1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B95" s="15" t="str">
         <f>Table8[[#This Row],[Section]]&amp;"-"&amp;TEXT(Table8[[#This Row],[Grade]],"0")</f>
         <v>360UB56.7-300HR</v>
@@ -11718,8 +12563,16 @@
         <f>Table8[[#This Row],[Aw]]*Table8[[#This Row],[fy]]*0.6</f>
         <v>551424</v>
       </c>
-    </row>
-    <row r="96" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AE95" s="35">
+        <f>82/SQRT(Table8[[#This Row],[fy]]/250000000)</f>
+        <v>72.478445071621124</v>
+      </c>
+      <c r="AF95" s="36">
+        <f>IF((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])&gt;Table8[[#This Row],[limiting web slenderness]],(82/((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])*SQRT(Table8[[#This Row],[fy]]/250000000)))^2,1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B96" s="15" t="str">
         <f>Table8[[#This Row],[Section]]&amp;"-"&amp;TEXT(Table8[[#This Row],[Grade]],"0")</f>
         <v>360UB50.7-300HR</v>
@@ -11811,8 +12664,16 @@
         <f>Table8[[#This Row],[Aw]]*Table8[[#This Row],[fy]]*0.6</f>
         <v>498969.59999999998</v>
       </c>
-    </row>
-    <row r="97" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AE96" s="35">
+        <f>82/SQRT(Table8[[#This Row],[fy]]/250000000)</f>
+        <v>72.478445071621124</v>
+      </c>
+      <c r="AF96" s="36">
+        <f>IF((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])&gt;Table8[[#This Row],[limiting web slenderness]],(82/((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])*SQRT(Table8[[#This Row],[fy]]/250000000)))^2,1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B97" s="15" t="str">
         <f>Table8[[#This Row],[Section]]&amp;"-"&amp;TEXT(Table8[[#This Row],[Grade]],"0")</f>
         <v>360UB44.7-300HR</v>
@@ -11904,8 +12765,16 @@
         <f>Table8[[#This Row],[Aw]]*Table8[[#This Row],[fy]]*0.6</f>
         <v>466329.59999999998</v>
       </c>
-    </row>
-    <row r="98" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AE97" s="35">
+        <f>82/SQRT(Table8[[#This Row],[fy]]/250000000)</f>
+        <v>72.478445071621124</v>
+      </c>
+      <c r="AF97" s="36">
+        <f>IF((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])&gt;Table8[[#This Row],[limiting web slenderness]],(82/((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])*SQRT(Table8[[#This Row],[fy]]/250000000)))^2,1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B98" s="15" t="str">
         <f>Table8[[#This Row],[Section]]&amp;"-"&amp;TEXT(Table8[[#This Row],[Grade]],"0")</f>
         <v>310UB46.2-300HR</v>
@@ -11997,8 +12866,16 @@
         <f>Table8[[#This Row],[Aw]]*Table8[[#This Row],[fy]]*0.6</f>
         <v>394924.79999999999</v>
       </c>
-    </row>
-    <row r="99" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AE98" s="35">
+        <f>82/SQRT(Table8[[#This Row],[fy]]/250000000)</f>
+        <v>72.478445071621124</v>
+      </c>
+      <c r="AF98" s="36">
+        <f>IF((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])&gt;Table8[[#This Row],[limiting web slenderness]],(82/((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])*SQRT(Table8[[#This Row],[fy]]/250000000)))^2,1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B99" s="15" t="str">
         <f>Table8[[#This Row],[Section]]&amp;"-"&amp;TEXT(Table8[[#This Row],[Grade]],"0")</f>
         <v>310UB40.4-300HR</v>
@@ -12090,8 +12967,16 @@
         <f>Table8[[#This Row],[Aw]]*Table8[[#This Row],[fy]]*0.6</f>
         <v>356044.79999999993</v>
       </c>
-    </row>
-    <row r="100" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AE99" s="35">
+        <f>82/SQRT(Table8[[#This Row],[fy]]/250000000)</f>
+        <v>72.478445071621124</v>
+      </c>
+      <c r="AF99" s="36">
+        <f>IF((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])&gt;Table8[[#This Row],[limiting web slenderness]],(82/((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])*SQRT(Table8[[#This Row],[fy]]/250000000)))^2,1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B100" s="15" t="str">
         <f>Table8[[#This Row],[Section]]&amp;"-"&amp;TEXT(Table8[[#This Row],[Grade]],"0")</f>
         <v>310UB32.0-300HR</v>
@@ -12183,8 +13068,16 @@
         <f>Table8[[#This Row],[Aw]]*Table8[[#This Row],[fy]]*0.6</f>
         <v>314688</v>
       </c>
-    </row>
-    <row r="101" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AE100" s="35">
+        <f>82/SQRT(Table8[[#This Row],[fy]]/250000000)</f>
+        <v>72.478445071621124</v>
+      </c>
+      <c r="AF100" s="36">
+        <f>IF((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])&gt;Table8[[#This Row],[limiting web slenderness]],(82/((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])*SQRT(Table8[[#This Row],[fy]]/250000000)))^2,1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B101" s="15" t="str">
         <f>Table8[[#This Row],[Section]]&amp;"-"&amp;TEXT(Table8[[#This Row],[Grade]],"0")</f>
         <v>250UB37.3-300HR</v>
@@ -12276,8 +13169,16 @@
         <f>Table8[[#This Row],[Aw]]*Table8[[#This Row],[fy]]*0.6</f>
         <v>314572.79999999999</v>
       </c>
-    </row>
-    <row r="102" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AE101" s="35">
+        <f>82/SQRT(Table8[[#This Row],[fy]]/250000000)</f>
+        <v>72.478445071621124</v>
+      </c>
+      <c r="AF101" s="36">
+        <f>IF((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])&gt;Table8[[#This Row],[limiting web slenderness]],(82/((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])*SQRT(Table8[[#This Row],[fy]]/250000000)))^2,1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B102" s="15" t="str">
         <f>Table8[[#This Row],[Section]]&amp;"-"&amp;TEXT(Table8[[#This Row],[Grade]],"0")</f>
         <v>250UB31.4-300HR</v>
@@ -12369,8 +13270,16 @@
         <f>Table8[[#This Row],[Aw]]*Table8[[#This Row],[fy]]*0.6</f>
         <v>295142.39999999997</v>
       </c>
-    </row>
-    <row r="103" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AE102" s="35">
+        <f>82/SQRT(Table8[[#This Row],[fy]]/250000000)</f>
+        <v>72.478445071621124</v>
+      </c>
+      <c r="AF102" s="36">
+        <f>IF((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])&gt;Table8[[#This Row],[limiting web slenderness]],(82/((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])*SQRT(Table8[[#This Row],[fy]]/250000000)))^2,1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B103" s="15" t="str">
         <f>Table8[[#This Row],[Section]]&amp;"-"&amp;TEXT(Table8[[#This Row],[Grade]],"0")</f>
         <v>250UB25.7-300HR</v>
@@ -12462,8 +13371,16 @@
         <f>Table8[[#This Row],[Aw]]*Table8[[#This Row],[fy]]*0.6</f>
         <v>238080</v>
       </c>
-    </row>
-    <row r="104" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AE103" s="35">
+        <f>82/SQRT(Table8[[#This Row],[fy]]/250000000)</f>
+        <v>72.478445071621124</v>
+      </c>
+      <c r="AF103" s="36">
+        <f>IF((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])&gt;Table8[[#This Row],[limiting web slenderness]],(82/((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])*SQRT(Table8[[#This Row],[fy]]/250000000)))^2,1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B104" s="15" t="str">
         <f>Table8[[#This Row],[Section]]&amp;"-"&amp;TEXT(Table8[[#This Row],[Grade]],"0")</f>
         <v>200UB29.8-300HR</v>
@@ -12555,8 +13472,16 @@
         <f>Table8[[#This Row],[Aw]]*Table8[[#This Row],[fy]]*0.6</f>
         <v>250387.19999999995</v>
       </c>
-    </row>
-    <row r="105" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AE104" s="35">
+        <f>82/SQRT(Table8[[#This Row],[fy]]/250000000)</f>
+        <v>72.478445071621124</v>
+      </c>
+      <c r="AF104" s="36">
+        <f>IF((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])&gt;Table8[[#This Row],[limiting web slenderness]],(82/((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])*SQRT(Table8[[#This Row],[fy]]/250000000)))^2,1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B105" s="15" t="str">
         <f>Table8[[#This Row],[Section]]&amp;"-"&amp;TEXT(Table8[[#This Row],[Grade]],"0")</f>
         <v>200UB25.4-300HR</v>
@@ -12648,8 +13573,16 @@
         <f>Table8[[#This Row],[Aw]]*Table8[[#This Row],[fy]]*0.6</f>
         <v>226060.80000000002</v>
       </c>
-    </row>
-    <row r="106" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AE105" s="35">
+        <f>82/SQRT(Table8[[#This Row],[fy]]/250000000)</f>
+        <v>72.478445071621124</v>
+      </c>
+      <c r="AF105" s="36">
+        <f>IF((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])&gt;Table8[[#This Row],[limiting web slenderness]],(82/((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])*SQRT(Table8[[#This Row],[fy]]/250000000)))^2,1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B106" s="15" t="str">
         <f>Table8[[#This Row],[Section]]&amp;"-"&amp;TEXT(Table8[[#This Row],[Grade]],"0")</f>
         <v>200UB22.3-300HR</v>
@@ -12741,8 +13674,16 @@
         <f>Table8[[#This Row],[Aw]]*Table8[[#This Row],[fy]]*0.6</f>
         <v>193920</v>
       </c>
-    </row>
-    <row r="107" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AE106" s="35">
+        <f>82/SQRT(Table8[[#This Row],[fy]]/250000000)</f>
+        <v>72.478445071621124</v>
+      </c>
+      <c r="AF106" s="36">
+        <f>IF((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])&gt;Table8[[#This Row],[limiting web slenderness]],(82/((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])*SQRT(Table8[[#This Row],[fy]]/250000000)))^2,1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B107" s="15" t="str">
         <f>Table8[[#This Row],[Section]]&amp;"-"&amp;TEXT(Table8[[#This Row],[Grade]],"0")</f>
         <v>200UB18.2-300HR</v>
@@ -12834,8 +13775,16 @@
         <f>Table8[[#This Row],[Aw]]*Table8[[#This Row],[fy]]*0.6</f>
         <v>171072</v>
       </c>
-    </row>
-    <row r="108" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AE107" s="35">
+        <f>82/SQRT(Table8[[#This Row],[fy]]/250000000)</f>
+        <v>72.478445071621124</v>
+      </c>
+      <c r="AF107" s="36">
+        <f>IF((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])&gt;Table8[[#This Row],[limiting web slenderness]],(82/((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])*SQRT(Table8[[#This Row],[fy]]/250000000)))^2,1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B108" s="15" t="str">
         <f>Table8[[#This Row],[Section]]&amp;"-"&amp;TEXT(Table8[[#This Row],[Grade]],"0")</f>
         <v>180UB22.2-300HR</v>
@@ -12927,8 +13876,16 @@
         <f>Table8[[#This Row],[Aw]]*Table8[[#This Row],[fy]]*0.6</f>
         <v>206208</v>
       </c>
-    </row>
-    <row r="109" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AE108" s="35">
+        <f>82/SQRT(Table8[[#This Row],[fy]]/250000000)</f>
+        <v>72.478445071621124</v>
+      </c>
+      <c r="AF108" s="36">
+        <f>IF((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])&gt;Table8[[#This Row],[limiting web slenderness]],(82/((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])*SQRT(Table8[[#This Row],[fy]]/250000000)))^2,1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B109" s="15" t="str">
         <f>Table8[[#This Row],[Section]]&amp;"-"&amp;TEXT(Table8[[#This Row],[Grade]],"0")</f>
         <v>180UB18.1-300HR</v>
@@ -13020,8 +13977,16 @@
         <f>Table8[[#This Row],[Aw]]*Table8[[#This Row],[fy]]*0.6</f>
         <v>168000</v>
       </c>
-    </row>
-    <row r="110" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AE109" s="35">
+        <f>82/SQRT(Table8[[#This Row],[fy]]/250000000)</f>
+        <v>72.478445071621124</v>
+      </c>
+      <c r="AF109" s="36">
+        <f>IF((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])&gt;Table8[[#This Row],[limiting web slenderness]],(82/((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])*SQRT(Table8[[#This Row],[fy]]/250000000)))^2,1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B110" s="15" t="str">
         <f>Table8[[#This Row],[Section]]&amp;"-"&amp;TEXT(Table8[[#This Row],[Grade]],"0")</f>
         <v>180UB16.1-300HR</v>
@@ -13113,8 +14078,16 @@
         <f>Table8[[#This Row],[Aw]]*Table8[[#This Row],[fy]]*0.6</f>
         <v>149471.99999999997</v>
       </c>
-    </row>
-    <row r="111" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AE110" s="35">
+        <f>82/SQRT(Table8[[#This Row],[fy]]/250000000)</f>
+        <v>72.478445071621124</v>
+      </c>
+      <c r="AF110" s="36">
+        <f>IF((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])&gt;Table8[[#This Row],[limiting web slenderness]],(82/((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])*SQRT(Table8[[#This Row],[fy]]/250000000)))^2,1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B111" s="15" t="str">
         <f>Table8[[#This Row],[Section]]&amp;"-"&amp;TEXT(Table8[[#This Row],[Grade]],"0")</f>
         <v>150UB18.0-300HR</v>
@@ -13206,8 +14179,16 @@
         <f>Table8[[#This Row],[Aw]]*Table8[[#This Row],[fy]]*0.6</f>
         <v>178560</v>
       </c>
-    </row>
-    <row r="112" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AE111" s="35">
+        <f>82/SQRT(Table8[[#This Row],[fy]]/250000000)</f>
+        <v>72.478445071621124</v>
+      </c>
+      <c r="AF111" s="36">
+        <f>IF((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])&gt;Table8[[#This Row],[limiting web slenderness]],(82/((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])*SQRT(Table8[[#This Row],[fy]]/250000000)))^2,1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B112" s="15" t="str">
         <f>Table8[[#This Row],[Section]]&amp;"-"&amp;TEXT(Table8[[#This Row],[Grade]],"0")</f>
         <v>150UB14.0-300HR</v>
@@ -13299,8 +14280,16 @@
         <f>Table8[[#This Row],[Aw]]*Table8[[#This Row],[fy]]*0.6</f>
         <v>144000</v>
       </c>
-    </row>
-    <row r="113" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AE112" s="35">
+        <f>82/SQRT(Table8[[#This Row],[fy]]/250000000)</f>
+        <v>72.478445071621124</v>
+      </c>
+      <c r="AF112" s="36">
+        <f>IF((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])&gt;Table8[[#This Row],[limiting web slenderness]],(82/((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])*SQRT(Table8[[#This Row],[fy]]/250000000)))^2,1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B113" s="15" t="str">
         <f>Table8[[#This Row],[Section]]&amp;"-"&amp;TEXT(Table8[[#This Row],[Grade]],"0")</f>
         <v>310UC96.8-300HR</v>
@@ -13392,8 +14381,16 @@
         <f>Table8[[#This Row],[Aw]]*Table8[[#This Row],[fy]]*0.6</f>
         <v>585446.40000000002</v>
       </c>
-    </row>
-    <row r="114" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AE113" s="35">
+        <f>82/SQRT(Table8[[#This Row],[fy]]/250000000)</f>
+        <v>72.478445071621124</v>
+      </c>
+      <c r="AF113" s="36">
+        <f>IF((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])&gt;Table8[[#This Row],[limiting web slenderness]],(82/((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])*SQRT(Table8[[#This Row],[fy]]/250000000)))^2,1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B114" s="15" t="str">
         <f>Table8[[#This Row],[Section]]&amp;"-"&amp;TEXT(Table8[[#This Row],[Grade]],"0")</f>
         <v>310UC158-300HR</v>
@@ -13485,8 +14482,16 @@
         <f>Table8[[#This Row],[Aw]]*Table8[[#This Row],[fy]]*0.6</f>
         <v>924101.99999999988</v>
       </c>
-    </row>
-    <row r="115" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AE114" s="35">
+        <f>82/SQRT(Table8[[#This Row],[fy]]/250000000)</f>
+        <v>74.855416192372701</v>
+      </c>
+      <c r="AF114" s="36">
+        <f>IF((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])&gt;Table8[[#This Row],[limiting web slenderness]],(82/((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])*SQRT(Table8[[#This Row],[fy]]/250000000)))^2,1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B115" s="15" t="str">
         <f>Table8[[#This Row],[Section]]&amp;"-"&amp;TEXT(Table8[[#This Row],[Grade]],"0")</f>
         <v>310UC137-300HR</v>
@@ -13578,8 +14583,16 @@
         <f>Table8[[#This Row],[Aw]]*Table8[[#This Row],[fy]]*0.6</f>
         <v>797364</v>
       </c>
-    </row>
-    <row r="116" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AE115" s="35">
+        <f>82/SQRT(Table8[[#This Row],[fy]]/250000000)</f>
+        <v>74.855416192372701</v>
+      </c>
+      <c r="AF115" s="36">
+        <f>IF((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])&gt;Table8[[#This Row],[limiting web slenderness]],(82/((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])*SQRT(Table8[[#This Row],[fy]]/250000000)))^2,1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B116" s="15" t="str">
         <f>Table8[[#This Row],[Section]]&amp;"-"&amp;TEXT(Table8[[#This Row],[Grade]],"0")</f>
         <v>310UC118-300HR</v>
@@ -13671,8 +14684,16 @@
         <f>Table8[[#This Row],[Aw]]*Table8[[#This Row],[fy]]*0.6</f>
         <v>674730</v>
       </c>
-    </row>
-    <row r="117" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AE116" s="35">
+        <f>82/SQRT(Table8[[#This Row],[fy]]/250000000)</f>
+        <v>74.855416192372701</v>
+      </c>
+      <c r="AF116" s="36">
+        <f>IF((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])&gt;Table8[[#This Row],[limiting web slenderness]],(82/((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])*SQRT(Table8[[#This Row],[fy]]/250000000)))^2,1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B117" s="15" t="str">
         <f>Table8[[#This Row],[Section]]&amp;"-"&amp;TEXT(Table8[[#This Row],[Grade]],"0")</f>
         <v>250UC89.5-300HR</v>
@@ -13764,8 +14785,16 @@
         <f>Table8[[#This Row],[Aw]]*Table8[[#This Row],[fy]]*0.6</f>
         <v>524160.00000000006</v>
       </c>
-    </row>
-    <row r="118" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AE117" s="35">
+        <f>82/SQRT(Table8[[#This Row],[fy]]/250000000)</f>
+        <v>72.478445071621124</v>
+      </c>
+      <c r="AF117" s="36">
+        <f>IF((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])&gt;Table8[[#This Row],[limiting web slenderness]],(82/((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])*SQRT(Table8[[#This Row],[fy]]/250000000)))^2,1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B118" s="15" t="str">
         <f>Table8[[#This Row],[Section]]&amp;"-"&amp;TEXT(Table8[[#This Row],[Grade]],"0")</f>
         <v>250UC72.9-300HR</v>
@@ -13857,8 +14886,16 @@
         <f>Table8[[#This Row],[Aw]]*Table8[[#This Row],[fy]]*0.6</f>
         <v>419404.79999999999</v>
       </c>
-    </row>
-    <row r="119" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AE118" s="35">
+        <f>82/SQRT(Table8[[#This Row],[fy]]/250000000)</f>
+        <v>72.478445071621124</v>
+      </c>
+      <c r="AF118" s="36">
+        <f>IF((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])&gt;Table8[[#This Row],[limiting web slenderness]],(82/((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])*SQRT(Table8[[#This Row],[fy]]/250000000)))^2,1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B119" s="15" t="str">
         <f>Table8[[#This Row],[Section]]&amp;"-"&amp;TEXT(Table8[[#This Row],[Grade]],"0")</f>
         <v>200UC59.5-300HR</v>
@@ -13950,8 +14987,16 @@
         <f>Table8[[#This Row],[Aw]]*Table8[[#This Row],[fy]]*0.6</f>
         <v>374976</v>
       </c>
-    </row>
-    <row r="120" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AE119" s="35">
+        <f>82/SQRT(Table8[[#This Row],[fy]]/250000000)</f>
+        <v>72.478445071621124</v>
+      </c>
+      <c r="AF119" s="36">
+        <f>IF((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])&gt;Table8[[#This Row],[limiting web slenderness]],(82/((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])*SQRT(Table8[[#This Row],[fy]]/250000000)))^2,1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B120" s="15" t="str">
         <f>Table8[[#This Row],[Section]]&amp;"-"&amp;TEXT(Table8[[#This Row],[Grade]],"0")</f>
         <v>200UC52.2-300HR</v>
@@ -14043,8 +15088,16 @@
         <f>Table8[[#This Row],[Aw]]*Table8[[#This Row],[fy]]*0.6</f>
         <v>316416</v>
       </c>
-    </row>
-    <row r="121" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AE120" s="35">
+        <f>82/SQRT(Table8[[#This Row],[fy]]/250000000)</f>
+        <v>72.478445071621124</v>
+      </c>
+      <c r="AF120" s="36">
+        <f>IF((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])&gt;Table8[[#This Row],[limiting web slenderness]],(82/((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])*SQRT(Table8[[#This Row],[fy]]/250000000)))^2,1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B121" s="15" t="str">
         <f>Table8[[#This Row],[Section]]&amp;"-"&amp;TEXT(Table8[[#This Row],[Grade]],"0")</f>
         <v>200UC46.2-300HR</v>
@@ -14136,8 +15189,16 @@
         <f>Table8[[#This Row],[Aw]]*Table8[[#This Row],[fy]]*0.6</f>
         <v>284524.80000000005</v>
       </c>
-    </row>
-    <row r="122" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AE121" s="35">
+        <f>82/SQRT(Table8[[#This Row],[fy]]/250000000)</f>
+        <v>72.478445071621124</v>
+      </c>
+      <c r="AF121" s="36">
+        <f>IF((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])&gt;Table8[[#This Row],[limiting web slenderness]],(82/((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])*SQRT(Table8[[#This Row],[fy]]/250000000)))^2,1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B122" s="15" t="str">
         <f>Table8[[#This Row],[Section]]&amp;"-"&amp;TEXT(Table8[[#This Row],[Grade]],"0")</f>
         <v>150UC37.2-300HR</v>
@@ -14229,8 +15290,16 @@
         <f>Table8[[#This Row],[Aw]]*Table8[[#This Row],[fy]]*0.6</f>
         <v>251942.39999999999</v>
       </c>
-    </row>
-    <row r="123" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AE122" s="35">
+        <f>82/SQRT(Table8[[#This Row],[fy]]/250000000)</f>
+        <v>72.478445071621124</v>
+      </c>
+      <c r="AF122" s="36">
+        <f>IF((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])&gt;Table8[[#This Row],[limiting web slenderness]],(82/((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])*SQRT(Table8[[#This Row],[fy]]/250000000)))^2,1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B123" s="15" t="str">
         <f>Table8[[#This Row],[Section]]&amp;"-"&amp;TEXT(Table8[[#This Row],[Grade]],"0")</f>
         <v>150UC30.0-300HR</v>
@@ -14322,8 +15391,16 @@
         <f>Table8[[#This Row],[Aw]]*Table8[[#This Row],[fy]]*0.6</f>
         <v>200217.60000000001</v>
       </c>
-    </row>
-    <row r="124" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AE123" s="35">
+        <f>82/SQRT(Table8[[#This Row],[fy]]/250000000)</f>
+        <v>72.478445071621124</v>
+      </c>
+      <c r="AF123" s="36">
+        <f>IF((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])&gt;Table8[[#This Row],[limiting web slenderness]],(82/((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])*SQRT(Table8[[#This Row],[fy]]/250000000)))^2,1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B124" s="15" t="str">
         <f>Table8[[#This Row],[Section]]&amp;"-"&amp;TEXT(Table8[[#This Row],[Grade]],"0")</f>
         <v>150UC23.4-300HR</v>
@@ -14415,8 +15492,16 @@
         <f>Table8[[#This Row],[Aw]]*Table8[[#This Row],[fy]]*0.6</f>
         <v>178022.39999999997</v>
       </c>
-    </row>
-    <row r="125" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AE124" s="35">
+        <f>82/SQRT(Table8[[#This Row],[fy]]/250000000)</f>
+        <v>72.478445071621124</v>
+      </c>
+      <c r="AF124" s="36">
+        <f>IF((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])&gt;Table8[[#This Row],[limiting web slenderness]],(82/((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])*SQRT(Table8[[#This Row],[fy]]/250000000)))^2,1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B125" s="15" t="str">
         <f>Table8[[#This Row],[Section]]&amp;"-"&amp;TEXT(Table8[[#This Row],[Grade]],"0")</f>
         <v>100UC14.8-300HR</v>
@@ -14508,8 +15593,16 @@
         <f>Table8[[#This Row],[Aw]]*Table8[[#This Row],[fy]]*0.6</f>
         <v>93120</v>
       </c>
-    </row>
-    <row r="126" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AE125" s="35">
+        <f>82/SQRT(Table8[[#This Row],[fy]]/250000000)</f>
+        <v>72.478445071621124</v>
+      </c>
+      <c r="AF125" s="36">
+        <f>IF((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])&gt;Table8[[#This Row],[limiting web slenderness]],(82/((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])*SQRT(Table8[[#This Row],[fy]]/250000000)))^2,1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B126" s="15" t="str">
         <f>Table8[[#This Row],[Section]]&amp;"-"&amp;TEXT(Table8[[#This Row],[Grade]],"0")</f>
         <v>310UBP149-300HR</v>
@@ -14601,8 +15694,16 @@
         <f>Table8[[#This Row],[Aw]]*Table8[[#This Row],[fy]]*0.6</f>
         <v>1095192</v>
       </c>
-    </row>
-    <row r="127" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AE126" s="35">
+        <f>82/SQRT(Table8[[#This Row],[fy]]/250000000)</f>
+        <v>77.482716966891573</v>
+      </c>
+      <c r="AF126" s="36">
+        <f>IF((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])&gt;Table8[[#This Row],[limiting web slenderness]],(82/((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])*SQRT(Table8[[#This Row],[fy]]/250000000)))^2,1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B127" s="15" t="str">
         <f>Table8[[#This Row],[Section]]&amp;"-"&amp;TEXT(Table8[[#This Row],[Grade]],"0")</f>
         <v>200UBP146-300HR</v>
@@ -14694,8 +15795,16 @@
         <f>Table8[[#This Row],[Aw]]*Table8[[#This Row],[fy]]*0.6</f>
         <v>1029000</v>
       </c>
-    </row>
-    <row r="128" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AE127" s="35">
+        <f>82/SQRT(Table8[[#This Row],[fy]]/250000000)</f>
+        <v>77.482716966891573</v>
+      </c>
+      <c r="AF127" s="36">
+        <f>IF((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])&gt;Table8[[#This Row],[limiting web slenderness]],(82/((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])*SQRT(Table8[[#This Row],[fy]]/250000000)))^2,1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B128" s="15" t="str">
         <f>Table8[[#This Row],[Section]]&amp;"-"&amp;TEXT(Table8[[#This Row],[Grade]],"0")</f>
         <v>200UBP122-300HR</v>
@@ -14787,8 +15896,16 @@
         <f>Table8[[#This Row],[Aw]]*Table8[[#This Row],[fy]]*0.6</f>
         <v>966000.00000000012</v>
       </c>
-    </row>
-    <row r="129" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AE128" s="35">
+        <f>82/SQRT(Table8[[#This Row],[fy]]/250000000)</f>
+        <v>77.482716966891573</v>
+      </c>
+      <c r="AF128" s="36">
+        <f>IF((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])&gt;Table8[[#This Row],[limiting web slenderness]],(82/((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])*SQRT(Table8[[#This Row],[fy]]/250000000)))^2,1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B129" s="15" t="str">
         <f>Table8[[#This Row],[Section]]&amp;"-"&amp;TEXT(Table8[[#This Row],[Grade]],"0")</f>
         <v>310UBP110-300HR</v>
@@ -14880,8 +15997,16 @@
         <f>Table8[[#This Row],[Aw]]*Table8[[#This Row],[fy]]*0.6</f>
         <v>848232</v>
       </c>
-    </row>
-    <row r="130" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AE129" s="35">
+        <f>82/SQRT(Table8[[#This Row],[fy]]/250000000)</f>
+        <v>74.855416192372701</v>
+      </c>
+      <c r="AF129" s="36">
+        <f>IF((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])&gt;Table8[[#This Row],[limiting web slenderness]],(82/((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])*SQRT(Table8[[#This Row],[fy]]/250000000)))^2,1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B130" s="15" t="str">
         <f>Table8[[#This Row],[Section]]&amp;"-"&amp;TEXT(Table8[[#This Row],[Grade]],"0")</f>
         <v>250UBP84.9-300HR</v>
@@ -14973,8 +16098,16 @@
         <f>Table8[[#This Row],[Aw]]*Table8[[#This Row],[fy]]*0.6</f>
         <v>653796</v>
       </c>
-    </row>
-    <row r="131" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AE130" s="35">
+        <f>82/SQRT(Table8[[#This Row],[fy]]/250000000)</f>
+        <v>74.855416192372701</v>
+      </c>
+      <c r="AF130" s="36">
+        <f>IF((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])&gt;Table8[[#This Row],[limiting web slenderness]],(82/((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])*SQRT(Table8[[#This Row],[fy]]/250000000)))^2,1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B131" s="15" t="str">
         <f>Table8[[#This Row],[Section]]&amp;"-"&amp;TEXT(Table8[[#This Row],[Grade]],"0")</f>
         <v>310UBP78.8-300HR</v>
@@ -15066,8 +16199,16 @@
         <f>Table8[[#This Row],[Aw]]*Table8[[#This Row],[fy]]*0.6</f>
         <v>597402</v>
       </c>
-    </row>
-    <row r="132" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AE131" s="35">
+        <f>82/SQRT(Table8[[#This Row],[fy]]/250000000)</f>
+        <v>74.855416192372701</v>
+      </c>
+      <c r="AF131" s="36">
+        <f>IF((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])&gt;Table8[[#This Row],[limiting web slenderness]],(82/((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])*SQRT(Table8[[#This Row],[fy]]/250000000)))^2,1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B132" s="15" t="str">
         <f>Table8[[#This Row],[Section]]&amp;"-"&amp;TEXT(Table8[[#This Row],[Grade]],"0")</f>
         <v>250UBP62.6-300HR</v>
@@ -15158,6 +16299,14 @@
       <c r="AD132" s="11">
         <f>Table8[[#This Row],[Aw]]*Table8[[#This Row],[fy]]*0.6</f>
         <v>502694.39999999991</v>
+      </c>
+      <c r="AE132" s="35">
+        <f>82/SQRT(Table8[[#This Row],[fy]]/250000000)</f>
+        <v>72.478445071621124</v>
+      </c>
+      <c r="AF132" s="36">
+        <f>IF((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])&gt;Table8[[#This Row],[limiting web slenderness]],(82/((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])*SQRT(Table8[[#This Row],[fy]]/250000000)))^2,1)</f>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -15171,15 +16320,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECAB8603-8ED1-4A1F-8836-1A9DBBC119CD}">
-  <dimension ref="B2:AG12"/>
+  <dimension ref="B2:AI12"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="AG2" sqref="AG2"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.85546875" bestFit="1" customWidth="1"/>
@@ -15201,9 +16350,11 @@
     <col min="31" max="31" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="32" max="32" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="33" max="33" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="5.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:33" ht="18" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:35" ht="18" x14ac:dyDescent="0.35">
       <c r="B2" s="20" t="s">
         <v>131</v>
       </c>
@@ -15300,8 +16451,14 @@
       <c r="AG2" s="23" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="3" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="AH2" s="21" t="s">
+        <v>254</v>
+      </c>
+      <c r="AI2" s="23" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="3" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B3" s="14" t="str">
         <f>Table1[[#This Row],[Section]]&amp;"-"&amp;TEXT(Table1[[#This Row],[Grade]],"0")</f>
         <v>380PFC-300HR</v>
@@ -15402,8 +16559,16 @@
         <f>Table1[[#This Row],[Aw]]*Table1[[#This Row],[fy]]*0.6</f>
         <v>729600</v>
       </c>
-    </row>
-    <row r="4" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="AH3" s="35">
+        <f>82/SQRT(Table1[[#This Row],[fy]]/250000000)</f>
+        <v>72.478445071621124</v>
+      </c>
+      <c r="AI3" s="36">
+        <f>IF((Table1[[#This Row],[d1]]/Table1[[#This Row],[tw]])&gt;Table1[[#This Row],[limiting web slenderness]],(82/((Table1[[#This Row],[d1]]/Table1[[#This Row],[tw]])*SQRT(Table1[[#This Row],[fy]]/250000000)))^2,1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B4" s="14" t="str">
         <f>Table1[[#This Row],[Section]]&amp;"-"&amp;TEXT(Table1[[#This Row],[Grade]],"0")</f>
         <v>300PFC-300HR</v>
@@ -15504,8 +16669,16 @@
         <f>Table1[[#This Row],[Aw]]*Table1[[#This Row],[fy]]*0.6</f>
         <v>460799.99999999994</v>
       </c>
-    </row>
-    <row r="5" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="AH4" s="35">
+        <f>82/SQRT(Table1[[#This Row],[fy]]/250000000)</f>
+        <v>72.478445071621124</v>
+      </c>
+      <c r="AI4" s="36">
+        <f>IF((Table1[[#This Row],[d1]]/Table1[[#This Row],[tw]])&gt;Table1[[#This Row],[limiting web slenderness]],(82/((Table1[[#This Row],[d1]]/Table1[[#This Row],[tw]])*SQRT(Table1[[#This Row],[fy]]/250000000)))^2,1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B5" s="14" t="str">
         <f>Table1[[#This Row],[Section]]&amp;"-"&amp;TEXT(Table1[[#This Row],[Grade]],"0")</f>
         <v>250PFC-300HR</v>
@@ -15606,8 +16779,16 @@
         <f>Table1[[#This Row],[Aw]]*Table1[[#This Row],[fy]]*0.6</f>
         <v>384000</v>
       </c>
-    </row>
-    <row r="6" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="AH5" s="35">
+        <f>82/SQRT(Table1[[#This Row],[fy]]/250000000)</f>
+        <v>72.478445071621124</v>
+      </c>
+      <c r="AI5" s="36">
+        <f>IF((Table1[[#This Row],[d1]]/Table1[[#This Row],[tw]])&gt;Table1[[#This Row],[limiting web slenderness]],(82/((Table1[[#This Row],[d1]]/Table1[[#This Row],[tw]])*SQRT(Table1[[#This Row],[fy]]/250000000)))^2,1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B6" s="14" t="str">
         <f>Table1[[#This Row],[Section]]&amp;"-"&amp;TEXT(Table1[[#This Row],[Grade]],"0")</f>
         <v>230PFC-300HR</v>
@@ -15708,8 +16889,16 @@
         <f>Table1[[#This Row],[Aw]]*Table1[[#This Row],[fy]]*0.6</f>
         <v>287040</v>
       </c>
-    </row>
-    <row r="7" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="AH6" s="35">
+        <f>82/SQRT(Table1[[#This Row],[fy]]/250000000)</f>
+        <v>72.478445071621124</v>
+      </c>
+      <c r="AI6" s="36">
+        <f>IF((Table1[[#This Row],[d1]]/Table1[[#This Row],[tw]])&gt;Table1[[#This Row],[limiting web slenderness]],(82/((Table1[[#This Row],[d1]]/Table1[[#This Row],[tw]])*SQRT(Table1[[#This Row],[fy]]/250000000)))^2,1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B7" s="14" t="str">
         <f>Table1[[#This Row],[Section]]&amp;"-"&amp;TEXT(Table1[[#This Row],[Grade]],"0")</f>
         <v>200PFC-300HR</v>
@@ -15810,8 +16999,16 @@
         <f>Table1[[#This Row],[Aw]]*Table1[[#This Row],[fy]]*0.6</f>
         <v>230400.00000000003</v>
       </c>
-    </row>
-    <row r="8" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="AH7" s="35">
+        <f>82/SQRT(Table1[[#This Row],[fy]]/250000000)</f>
+        <v>72.478445071621124</v>
+      </c>
+      <c r="AI7" s="36">
+        <f>IF((Table1[[#This Row],[d1]]/Table1[[#This Row],[tw]])&gt;Table1[[#This Row],[limiting web slenderness]],(82/((Table1[[#This Row],[d1]]/Table1[[#This Row],[tw]])*SQRT(Table1[[#This Row],[fy]]/250000000)))^2,1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="str">
         <f>Table1[[#This Row],[Section]]&amp;"-"&amp;TEXT(Table1[[#This Row],[Grade]],"0")</f>
         <v>180PFC-300HR</v>
@@ -15912,8 +17109,16 @@
         <f>Table1[[#This Row],[Aw]]*Table1[[#This Row],[fy]]*0.6</f>
         <v>207360</v>
       </c>
-    </row>
-    <row r="9" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="AH8" s="35">
+        <f>82/SQRT(Table1[[#This Row],[fy]]/250000000)</f>
+        <v>72.478445071621124</v>
+      </c>
+      <c r="AI8" s="36">
+        <f>IF((Table1[[#This Row],[d1]]/Table1[[#This Row],[tw]])&gt;Table1[[#This Row],[limiting web slenderness]],(82/((Table1[[#This Row],[d1]]/Table1[[#This Row],[tw]])*SQRT(Table1[[#This Row],[fy]]/250000000)))^2,1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B9" s="14" t="str">
         <f>Table1[[#This Row],[Section]]&amp;"-"&amp;TEXT(Table1[[#This Row],[Grade]],"0")</f>
         <v>150PFC-300HR</v>
@@ -16014,8 +17219,16 @@
         <f>Table1[[#This Row],[Aw]]*Table1[[#This Row],[fy]]*0.6</f>
         <v>172800</v>
       </c>
-    </row>
-    <row r="10" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="AH9" s="35">
+        <f>82/SQRT(Table1[[#This Row],[fy]]/250000000)</f>
+        <v>72.478445071621124</v>
+      </c>
+      <c r="AI9" s="36">
+        <f>IF((Table1[[#This Row],[d1]]/Table1[[#This Row],[tw]])&gt;Table1[[#This Row],[limiting web slenderness]],(82/((Table1[[#This Row],[d1]]/Table1[[#This Row],[tw]])*SQRT(Table1[[#This Row],[fy]]/250000000)))^2,1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B10" s="14" t="str">
         <f>Table1[[#This Row],[Section]]&amp;"-"&amp;TEXT(Table1[[#This Row],[Grade]],"0")</f>
         <v>125PFC-300HR</v>
@@ -16116,8 +17329,16 @@
         <f>Table1[[#This Row],[Aw]]*Table1[[#This Row],[fy]]*0.6</f>
         <v>112800</v>
       </c>
-    </row>
-    <row r="11" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="AH10" s="35">
+        <f>82/SQRT(Table1[[#This Row],[fy]]/250000000)</f>
+        <v>72.478445071621124</v>
+      </c>
+      <c r="AI10" s="36">
+        <f>IF((Table1[[#This Row],[d1]]/Table1[[#This Row],[tw]])&gt;Table1[[#This Row],[limiting web slenderness]],(82/((Table1[[#This Row],[d1]]/Table1[[#This Row],[tw]])*SQRT(Table1[[#This Row],[fy]]/250000000)))^2,1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B11" s="14" t="str">
         <f>Table1[[#This Row],[Section]]&amp;"-"&amp;TEXT(Table1[[#This Row],[Grade]],"0")</f>
         <v>100PFC-300HR</v>
@@ -16218,8 +17439,16 @@
         <f>Table1[[#This Row],[Aw]]*Table1[[#This Row],[fy]]*0.6</f>
         <v>80640.000000000015</v>
       </c>
-    </row>
-    <row r="12" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="AH11" s="35">
+        <f>82/SQRT(Table1[[#This Row],[fy]]/250000000)</f>
+        <v>72.478445071621124</v>
+      </c>
+      <c r="AI11" s="36">
+        <f>IF((Table1[[#This Row],[d1]]/Table1[[#This Row],[tw]])&gt;Table1[[#This Row],[limiting web slenderness]],(82/((Table1[[#This Row],[d1]]/Table1[[#This Row],[tw]])*SQRT(Table1[[#This Row],[fy]]/250000000)))^2,1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B12" s="14" t="str">
         <f>Table1[[#This Row],[Section]]&amp;"-"&amp;TEXT(Table1[[#This Row],[Grade]],"0")</f>
         <v>75PFC-300HR</v>
@@ -16319,6 +17548,14 @@
       <c r="AG12" s="11">
         <f>Table1[[#This Row],[Aw]]*Table1[[#This Row],[fy]]*0.6</f>
         <v>54720</v>
+      </c>
+      <c r="AH12" s="35">
+        <f>82/SQRT(Table1[[#This Row],[fy]]/250000000)</f>
+        <v>72.478445071621124</v>
+      </c>
+      <c r="AI12" s="36">
+        <f>IF((Table1[[#This Row],[d1]]/Table1[[#This Row],[tw]])&gt;Table1[[#This Row],[limiting web slenderness]],(82/((Table1[[#This Row],[d1]]/Table1[[#This Row],[tw]])*SQRT(Table1[[#This Row],[fy]]/250000000)))^2,1)</f>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -16333,8 +17570,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A7CE13B-E63F-4692-A5FE-1D44D79940EF}">
   <dimension ref="B2:V89"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="V4" sqref="V4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="S3" sqref="S3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/tests/Excel/AS4100_5_Shear Verification.xlsx
+++ b/tests/Excel/AS4100_5_Shear Verification.xlsx
@@ -8,18 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\seank\PycharmProjects\BeamDesign\tests\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F0EFB1C-E99D-4352-97E7-14D8D06BBEFD}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1DBABA1-1BE4-4711-BF95-C916B473474A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11910" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11910" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Is" sheetId="11" r:id="rId1"/>
     <sheet name="PFCs" sheetId="13" r:id="rId2"/>
     <sheet name="CHSs" sheetId="14" r:id="rId3"/>
-    <sheet name="Lookups" sheetId="12" r:id="rId4"/>
+    <sheet name="Non-Uniform Shear Factor" sheetId="15" r:id="rId4"/>
+    <sheet name="Lookups" sheetId="12" r:id="rId5"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId5"/>
+    <externalReference r:id="rId6"/>
   </externalReferences>
   <definedNames>
     <definedName name="A_">#REF!</definedName>
@@ -52,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1231" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1256" uniqueCount="281">
   <si>
     <t>J</t>
   </si>
@@ -1408,6 +1409,126 @@
       </rPr>
       <t>v</t>
     </r>
+  </si>
+  <si>
+    <t>Test Case</t>
+  </si>
+  <si>
+    <r>
+      <t>f</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>vm</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>f</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>va</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>α</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>vma</t>
+    </r>
+  </si>
+  <si>
+    <t>Test 1</t>
+  </si>
+  <si>
+    <t>Test 2</t>
+  </si>
+  <si>
+    <t>Test 3</t>
+  </si>
+  <si>
+    <t>Test 4</t>
+  </si>
+  <si>
+    <t>Test 5</t>
+  </si>
+  <si>
+    <t>Test 6</t>
+  </si>
+  <si>
+    <t>Test 7</t>
+  </si>
+  <si>
+    <t>Test 8</t>
+  </si>
+  <si>
+    <t>Test 9</t>
+  </si>
+  <si>
+    <t>Test 10</t>
+  </si>
+  <si>
+    <t>Test 11</t>
+  </si>
+  <si>
+    <t>Test 12</t>
+  </si>
+  <si>
+    <t>Test 13</t>
+  </si>
+  <si>
+    <t>Test 14</t>
+  </si>
+  <si>
+    <t>Test 15</t>
+  </si>
+  <si>
+    <t>Test 16</t>
+  </si>
+  <si>
+    <t>Test 17</t>
+  </si>
+  <si>
+    <t>Test 18</t>
+  </si>
+  <si>
+    <t>Test 19</t>
+  </si>
+  <si>
+    <t>Test 20</t>
+  </si>
+  <si>
+    <t>Test 21</t>
   </si>
 </sst>
 </file>
@@ -1610,7 +1731,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1664,11 +1785,21 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="94">
+  <dxfs count="97">
+    <dxf>
+      <numFmt numFmtId="176" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="168" formatCode="##0E+00&quot; Pa&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="168" formatCode="##0E+00&quot; Pa&quot;"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="176" formatCode="0.000"/>
     </dxf>
@@ -2471,9 +2602,9 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="tblIntegral" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
-      <tableStyleElement type="wholeTable" dxfId="93"/>
-      <tableStyleElement type="headerRow" dxfId="92"/>
-      <tableStyleElement type="secondRowStripe" dxfId="91"/>
+      <tableStyleElement type="wholeTable" dxfId="96"/>
+      <tableStyleElement type="headerRow" dxfId="95"/>
+      <tableStyleElement type="secondRowStripe" dxfId="94"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -2604,47 +2735,47 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{EDDEE4D4-895F-4D98-BD2B-A1595D136FE1}" name="Table8" displayName="Table8" ref="B2:AF132" totalsRowShown="0">
   <autoFilter ref="B2:AF132" xr:uid="{0AC04653-982D-4DB0-97C0-530DC6DA1D7C}"/>
   <tableColumns count="31">
-    <tableColumn id="27" xr3:uid="{F0C68715-1699-4435-A336-CF305A8B079E}" name="Test_Name" dataDxfId="90">
+    <tableColumn id="27" xr3:uid="{F0C68715-1699-4435-A336-CF305A8B079E}" name="Test_Name" dataDxfId="93">
       <calculatedColumnFormula>Table8[[#This Row],[Section]]&amp;"-"&amp;TEXT(Table8[[#This Row],[Grade]],"0")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="1" xr3:uid="{280EAB9D-68EA-4683-A885-68F041F7C696}" name="Section" dataDxfId="89"/>
-    <tableColumn id="29" xr3:uid="{5010BFA1-B99D-42AE-851A-22DE2AA6C466}" name="Grade" dataDxfId="88"/>
-    <tableColumn id="2" xr3:uid="{607776AD-1CEA-4ABA-9EBB-6E7242760D55}" name="Designation" dataDxfId="87"/>
-    <tableColumn id="3" xr3:uid="{8B64A8C3-F92A-47F9-96F3-AA3D2FB57C71}" name="Mass" dataDxfId="86"/>
-    <tableColumn id="4" xr3:uid="{C3F54EAF-B082-4E92-89A4-EB922C48C2FD}" name="Section Type" dataDxfId="85"/>
-    <tableColumn id="5" xr3:uid="{099E95F4-155C-46BC-9B68-09B5DC82AC9E}" name="Fabrication Type" dataDxfId="84"/>
-    <tableColumn id="6" xr3:uid="{603611E8-32D2-418A-B7F1-7978728F31CE}" name="d" dataDxfId="83"/>
-    <tableColumn id="7" xr3:uid="{8C2BF6A8-8480-4D0B-8189-8DD35F84F37A}" name="bf" dataDxfId="82"/>
-    <tableColumn id="8" xr3:uid="{AF33BA8F-44DE-4FA5-B937-5086CFDD19FF}" name="tf" dataDxfId="81"/>
-    <tableColumn id="9" xr3:uid="{688540C0-5BD0-4CE3-8BC7-7345CE0E5749}" name="tw" dataDxfId="80"/>
-    <tableColumn id="30" xr3:uid="{360F5B09-D453-4A68-ABB3-C009F0F472BF}" name="r1" dataDxfId="79"/>
-    <tableColumn id="10" xr3:uid="{1C612196-CED2-42B0-865A-D4E03216B7B7}" name="d1" dataDxfId="78"/>
-    <tableColumn id="11" xr3:uid="{4F3DA98F-ED30-4ACB-A515-75F8C0DC4843}" name="d1 / tw" dataDxfId="77"/>
-    <tableColumn id="12" xr3:uid="{22B64CBB-F443-44A9-9500-7B9BBDFB124B}" name="(bf - tw) / (2 × tf)" dataDxfId="76"/>
-    <tableColumn id="13" xr3:uid="{D4DF694A-4484-4C9F-9376-6A57C15AF617}" name="Ag" dataDxfId="75"/>
-    <tableColumn id="14" xr3:uid="{3724EE49-662E-4E0E-A37B-3ADE156496AD}" name="Ix" dataDxfId="74"/>
-    <tableColumn id="15" xr3:uid="{AD4648AD-343E-4A35-9246-69098C5044CC}" name="Zx" dataDxfId="73"/>
-    <tableColumn id="16" xr3:uid="{0ABFCF14-5F21-419A-9559-2CA91A10474B}" name="Sx" dataDxfId="72"/>
-    <tableColumn id="17" xr3:uid="{DC4F87E0-E5C6-4D73-A757-8F63BAF7554D}" name="rx" dataDxfId="71"/>
-    <tableColumn id="18" xr3:uid="{23E1E09C-910E-46AB-90C7-90D38D81B99E}" name="Iy" dataDxfId="70"/>
-    <tableColumn id="19" xr3:uid="{885B4339-7E0D-4B91-9FC6-5D81E2299F9C}" name="Zy" dataDxfId="69"/>
-    <tableColumn id="20" xr3:uid="{84C35746-536E-4B01-8256-14A9DCAB142B}" name="Sy" dataDxfId="68"/>
-    <tableColumn id="21" xr3:uid="{A7686837-B7AE-4BAE-88E2-6F9FAD730E01}" name="ry" dataDxfId="67"/>
-    <tableColumn id="22" xr3:uid="{767ED161-3BD1-4294-96E7-EF008EBAF27A}" name="J" dataDxfId="66"/>
-    <tableColumn id="23" xr3:uid="{4874CB8A-E902-4CEB-AEFF-C3681E512597}" name="Iw" dataDxfId="65"/>
-    <tableColumn id="26" xr3:uid="{4B448337-5DAD-4159-85BB-146825F8C228}" name="fy" dataDxfId="64">
+    <tableColumn id="1" xr3:uid="{280EAB9D-68EA-4683-A885-68F041F7C696}" name="Section" dataDxfId="92"/>
+    <tableColumn id="29" xr3:uid="{5010BFA1-B99D-42AE-851A-22DE2AA6C466}" name="Grade" dataDxfId="91"/>
+    <tableColumn id="2" xr3:uid="{607776AD-1CEA-4ABA-9EBB-6E7242760D55}" name="Designation" dataDxfId="90"/>
+    <tableColumn id="3" xr3:uid="{8B64A8C3-F92A-47F9-96F3-AA3D2FB57C71}" name="Mass" dataDxfId="89"/>
+    <tableColumn id="4" xr3:uid="{C3F54EAF-B082-4E92-89A4-EB922C48C2FD}" name="Section Type" dataDxfId="88"/>
+    <tableColumn id="5" xr3:uid="{099E95F4-155C-46BC-9B68-09B5DC82AC9E}" name="Fabrication Type" dataDxfId="87"/>
+    <tableColumn id="6" xr3:uid="{603611E8-32D2-418A-B7F1-7978728F31CE}" name="d" dataDxfId="86"/>
+    <tableColumn id="7" xr3:uid="{8C2BF6A8-8480-4D0B-8189-8DD35F84F37A}" name="bf" dataDxfId="85"/>
+    <tableColumn id="8" xr3:uid="{AF33BA8F-44DE-4FA5-B937-5086CFDD19FF}" name="tf" dataDxfId="84"/>
+    <tableColumn id="9" xr3:uid="{688540C0-5BD0-4CE3-8BC7-7345CE0E5749}" name="tw" dataDxfId="83"/>
+    <tableColumn id="30" xr3:uid="{360F5B09-D453-4A68-ABB3-C009F0F472BF}" name="r1" dataDxfId="82"/>
+    <tableColumn id="10" xr3:uid="{1C612196-CED2-42B0-865A-D4E03216B7B7}" name="d1" dataDxfId="81"/>
+    <tableColumn id="11" xr3:uid="{4F3DA98F-ED30-4ACB-A515-75F8C0DC4843}" name="d1 / tw" dataDxfId="80"/>
+    <tableColumn id="12" xr3:uid="{22B64CBB-F443-44A9-9500-7B9BBDFB124B}" name="(bf - tw) / (2 × tf)" dataDxfId="79"/>
+    <tableColumn id="13" xr3:uid="{D4DF694A-4484-4C9F-9376-6A57C15AF617}" name="Ag" dataDxfId="78"/>
+    <tableColumn id="14" xr3:uid="{3724EE49-662E-4E0E-A37B-3ADE156496AD}" name="Ix" dataDxfId="77"/>
+    <tableColumn id="15" xr3:uid="{AD4648AD-343E-4A35-9246-69098C5044CC}" name="Zx" dataDxfId="76"/>
+    <tableColumn id="16" xr3:uid="{0ABFCF14-5F21-419A-9559-2CA91A10474B}" name="Sx" dataDxfId="75"/>
+    <tableColumn id="17" xr3:uid="{DC4F87E0-E5C6-4D73-A757-8F63BAF7554D}" name="rx" dataDxfId="74"/>
+    <tableColumn id="18" xr3:uid="{23E1E09C-910E-46AB-90C7-90D38D81B99E}" name="Iy" dataDxfId="73"/>
+    <tableColumn id="19" xr3:uid="{885B4339-7E0D-4B91-9FC6-5D81E2299F9C}" name="Zy" dataDxfId="72"/>
+    <tableColumn id="20" xr3:uid="{84C35746-536E-4B01-8256-14A9DCAB142B}" name="Sy" dataDxfId="71"/>
+    <tableColumn id="21" xr3:uid="{A7686837-B7AE-4BAE-88E2-6F9FAD730E01}" name="ry" dataDxfId="70"/>
+    <tableColumn id="22" xr3:uid="{767ED161-3BD1-4294-96E7-EF008EBAF27A}" name="J" dataDxfId="69"/>
+    <tableColumn id="23" xr3:uid="{4874CB8A-E902-4CEB-AEFF-C3681E512597}" name="Iw" dataDxfId="68"/>
+    <tableColumn id="26" xr3:uid="{4B448337-5DAD-4159-85BB-146825F8C228}" name="fy" dataDxfId="67">
       <calculatedColumnFormula array="1">INDEX(tbllkpSteelGrades[fy],MATCH(1,(Table8[[#This Row],[Grade]]=tbllkpSteelGrades[Grade])*(Table8[[#This Row],[tw]]&lt;=tbllkpSteelGrades[Thickness]),0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="24" xr3:uid="{473325F2-FF03-4C75-BD12-A70F0A6AA4F1}" name="Aw" dataDxfId="63">
+    <tableColumn id="24" xr3:uid="{473325F2-FF03-4C75-BD12-A70F0A6AA4F1}" name="Aw" dataDxfId="66">
       <calculatedColumnFormula>IF(Table8[[#This Row],[Fabrication Type]]="Welded",Table8[[#This Row],[d1]],Table8[[#This Row],[d]])*Table8[[#This Row],[tw]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="25" xr3:uid="{98B29A8D-CA7E-401A-9966-485A14A8FF27}" name="Vyield" dataDxfId="4">
+    <tableColumn id="25" xr3:uid="{98B29A8D-CA7E-401A-9966-485A14A8FF27}" name="Vyield" dataDxfId="7">
       <calculatedColumnFormula>Table8[[#This Row],[Aw]]*Table8[[#This Row],[fy]]*0.6</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="31" xr3:uid="{D2AE4FE6-949C-44C1-ABA2-0661F2AF8B79}" name="limiting web slenderness" dataDxfId="2">
+    <tableColumn id="31" xr3:uid="{D2AE4FE6-949C-44C1-ABA2-0661F2AF8B79}" name="limiting web slenderness" dataDxfId="5">
       <calculatedColumnFormula>82/SQRT(Table8[[#This Row],[fy]]/250000000)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="28" xr3:uid="{350AE1F7-C8CC-4EFA-83FA-43CEF626EC3E}" name="αv" dataDxfId="3">
+    <tableColumn id="28" xr3:uid="{350AE1F7-C8CC-4EFA-83FA-43CEF626EC3E}" name="αv" dataDxfId="6">
       <calculatedColumnFormula>IF((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])&gt;Table8[[#This Row],[limiting web slenderness]],(82/((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])*SQRT(Table8[[#This Row],[fy]]/250000000)))^2,1)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2653,53 +2784,53 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{EC27F662-23F3-4692-B884-ACBE9C4BC921}" name="Table1" displayName="Table1" ref="B2:AI12" totalsRowShown="0" headerRowDxfId="62">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{EC27F662-23F3-4692-B884-ACBE9C4BC921}" name="Table1" displayName="Table1" ref="B2:AI12" totalsRowShown="0" headerRowDxfId="65">
   <autoFilter ref="B2:AI12" xr:uid="{159D2995-82C8-4243-A12A-2992509062CB}"/>
   <tableColumns count="34">
-    <tableColumn id="1" xr3:uid="{BFC7DADC-5D9A-410D-8005-ABEDA04EC4E5}" name="Test Name" dataDxfId="61">
+    <tableColumn id="1" xr3:uid="{BFC7DADC-5D9A-410D-8005-ABEDA04EC4E5}" name="Test Name" dataDxfId="64">
       <calculatedColumnFormula>Table1[[#This Row],[Section]]&amp;"-"&amp;TEXT(Table1[[#This Row],[Grade]],"0")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{A68B01D6-63C3-4091-8CB2-10D8394F7045}" name="Section" dataDxfId="60"/>
-    <tableColumn id="3" xr3:uid="{F0C91944-5320-440C-89CC-1BCEEA04DC3A}" name="Grade" dataDxfId="59"/>
-    <tableColumn id="4" xr3:uid="{8BEB6DFF-49C4-4FA8-9224-463494339BF7}" name="Designation" dataDxfId="58"/>
-    <tableColumn id="5" xr3:uid="{AA456E27-CAB5-458A-A415-DCD765520D10}" name="Mass" dataDxfId="57"/>
-    <tableColumn id="6" xr3:uid="{58FBA757-33E6-4107-82A6-01450F92ECF1}" name="Section Type" dataDxfId="56"/>
-    <tableColumn id="7" xr3:uid="{E42F97CD-458E-4C03-887D-149CADBEE730}" name="Fabrication Type" dataDxfId="55"/>
-    <tableColumn id="8" xr3:uid="{30A5893B-DE67-4DB4-B63E-A74FA4F62A88}" name="d" dataDxfId="54"/>
-    <tableColumn id="9" xr3:uid="{DCAC7CD7-0C42-42AC-A9A3-3E6703738EA2}" name="bf" dataDxfId="53"/>
-    <tableColumn id="10" xr3:uid="{C94CF9A2-1DAE-4D19-BE5E-306E8BF46B88}" name="tf" dataDxfId="52"/>
-    <tableColumn id="11" xr3:uid="{1E144395-2B2F-424C-990F-3523916EC30D}" name="tw" dataDxfId="51"/>
-    <tableColumn id="12" xr3:uid="{BBC3D8A7-825A-413D-8F5B-523A8316C953}" name="r1" dataDxfId="50"/>
-    <tableColumn id="15" xr3:uid="{075B0A49-A933-463E-A295-DC05820221CD}" name="d1" dataDxfId="49"/>
-    <tableColumn id="16" xr3:uid="{C169B72F-E99F-4C91-8937-CA4CB5F1C0BD}" name="d1 / tw" dataDxfId="48"/>
-    <tableColumn id="17" xr3:uid="{EDE65130-55B8-4ED1-9338-8CF7DC57B7B0}" name="(bf - tw) / tf" dataDxfId="47"/>
-    <tableColumn id="18" xr3:uid="{B3EA4ACF-56D6-4C30-BAE3-E9AA6DECAD5B}" name="Ag" dataDxfId="46"/>
-    <tableColumn id="19" xr3:uid="{110F3BD2-1591-441D-8F2A-354835DE7C03}" name="xL" dataDxfId="45"/>
-    <tableColumn id="20" xr3:uid="{00DE344B-2B7A-4589-95FC-964370589D2F}" name="xO" dataDxfId="44"/>
-    <tableColumn id="21" xr3:uid="{74E05A20-8171-4C56-847A-4E2736645723}" name="Ix" dataDxfId="43"/>
-    <tableColumn id="22" xr3:uid="{46F05E10-2A14-4B02-8DDE-BE0422A2E11C}" name="Zx" dataDxfId="42"/>
-    <tableColumn id="23" xr3:uid="{8B5994C6-C074-4DE5-91BE-E16423FAB9D1}" name="Sx" dataDxfId="41"/>
-    <tableColumn id="24" xr3:uid="{9F69E4F9-9733-4980-9F4B-73E323CFD6C1}" name="rx" dataDxfId="40"/>
-    <tableColumn id="25" xr3:uid="{EA2F89F0-BB76-48D8-B83E-B76812070936}" name="Iy" dataDxfId="39"/>
-    <tableColumn id="26" xr3:uid="{A7187315-BF57-4454-8122-9170C02466BF}" name="ZyL" dataDxfId="38"/>
-    <tableColumn id="27" xr3:uid="{E24C8AEF-AEA2-460E-BC1B-54C7E8064ED2}" name="ZyR" dataDxfId="37"/>
-    <tableColumn id="28" xr3:uid="{CDDE43D5-2755-4C6C-98C0-89FB469561A9}" name="Sy" dataDxfId="36"/>
-    <tableColumn id="29" xr3:uid="{CC95640D-57BD-4549-8961-244E9160233E}" name="ry" dataDxfId="35"/>
-    <tableColumn id="30" xr3:uid="{4E80C201-306F-427A-B841-CC8204AC71EB}" name="J" dataDxfId="34"/>
-    <tableColumn id="31" xr3:uid="{D8BDE5DB-34D6-4AAF-94B6-6CA66EDDC4EC}" name="Iw" dataDxfId="33"/>
-    <tableColumn id="32" xr3:uid="{729B2C64-AA61-4ED8-88D9-46889D56FABC}" name="fy" dataDxfId="32">
+    <tableColumn id="2" xr3:uid="{A68B01D6-63C3-4091-8CB2-10D8394F7045}" name="Section" dataDxfId="63"/>
+    <tableColumn id="3" xr3:uid="{F0C91944-5320-440C-89CC-1BCEEA04DC3A}" name="Grade" dataDxfId="62"/>
+    <tableColumn id="4" xr3:uid="{8BEB6DFF-49C4-4FA8-9224-463494339BF7}" name="Designation" dataDxfId="61"/>
+    <tableColumn id="5" xr3:uid="{AA456E27-CAB5-458A-A415-DCD765520D10}" name="Mass" dataDxfId="60"/>
+    <tableColumn id="6" xr3:uid="{58FBA757-33E6-4107-82A6-01450F92ECF1}" name="Section Type" dataDxfId="59"/>
+    <tableColumn id="7" xr3:uid="{E42F97CD-458E-4C03-887D-149CADBEE730}" name="Fabrication Type" dataDxfId="58"/>
+    <tableColumn id="8" xr3:uid="{30A5893B-DE67-4DB4-B63E-A74FA4F62A88}" name="d" dataDxfId="57"/>
+    <tableColumn id="9" xr3:uid="{DCAC7CD7-0C42-42AC-A9A3-3E6703738EA2}" name="bf" dataDxfId="56"/>
+    <tableColumn id="10" xr3:uid="{C94CF9A2-1DAE-4D19-BE5E-306E8BF46B88}" name="tf" dataDxfId="55"/>
+    <tableColumn id="11" xr3:uid="{1E144395-2B2F-424C-990F-3523916EC30D}" name="tw" dataDxfId="54"/>
+    <tableColumn id="12" xr3:uid="{BBC3D8A7-825A-413D-8F5B-523A8316C953}" name="r1" dataDxfId="53"/>
+    <tableColumn id="15" xr3:uid="{075B0A49-A933-463E-A295-DC05820221CD}" name="d1" dataDxfId="52"/>
+    <tableColumn id="16" xr3:uid="{C169B72F-E99F-4C91-8937-CA4CB5F1C0BD}" name="d1 / tw" dataDxfId="51"/>
+    <tableColumn id="17" xr3:uid="{EDE65130-55B8-4ED1-9338-8CF7DC57B7B0}" name="(bf - tw) / tf" dataDxfId="50"/>
+    <tableColumn id="18" xr3:uid="{B3EA4ACF-56D6-4C30-BAE3-E9AA6DECAD5B}" name="Ag" dataDxfId="49"/>
+    <tableColumn id="19" xr3:uid="{110F3BD2-1591-441D-8F2A-354835DE7C03}" name="xL" dataDxfId="48"/>
+    <tableColumn id="20" xr3:uid="{00DE344B-2B7A-4589-95FC-964370589D2F}" name="xO" dataDxfId="47"/>
+    <tableColumn id="21" xr3:uid="{74E05A20-8171-4C56-847A-4E2736645723}" name="Ix" dataDxfId="46"/>
+    <tableColumn id="22" xr3:uid="{46F05E10-2A14-4B02-8DDE-BE0422A2E11C}" name="Zx" dataDxfId="45"/>
+    <tableColumn id="23" xr3:uid="{8B5994C6-C074-4DE5-91BE-E16423FAB9D1}" name="Sx" dataDxfId="44"/>
+    <tableColumn id="24" xr3:uid="{9F69E4F9-9733-4980-9F4B-73E323CFD6C1}" name="rx" dataDxfId="43"/>
+    <tableColumn id="25" xr3:uid="{EA2F89F0-BB76-48D8-B83E-B76812070936}" name="Iy" dataDxfId="42"/>
+    <tableColumn id="26" xr3:uid="{A7187315-BF57-4454-8122-9170C02466BF}" name="ZyL" dataDxfId="41"/>
+    <tableColumn id="27" xr3:uid="{E24C8AEF-AEA2-460E-BC1B-54C7E8064ED2}" name="ZyR" dataDxfId="40"/>
+    <tableColumn id="28" xr3:uid="{CDDE43D5-2755-4C6C-98C0-89FB469561A9}" name="Sy" dataDxfId="39"/>
+    <tableColumn id="29" xr3:uid="{CC95640D-57BD-4549-8961-244E9160233E}" name="ry" dataDxfId="38"/>
+    <tableColumn id="30" xr3:uid="{4E80C201-306F-427A-B841-CC8204AC71EB}" name="J" dataDxfId="37"/>
+    <tableColumn id="31" xr3:uid="{D8BDE5DB-34D6-4AAF-94B6-6CA66EDDC4EC}" name="Iw" dataDxfId="36"/>
+    <tableColumn id="32" xr3:uid="{729B2C64-AA61-4ED8-88D9-46889D56FABC}" name="fy" dataDxfId="35">
       <calculatedColumnFormula array="1">INDEX(tbllkpSteelGrades[fy],MATCH(1,(Table1[[#This Row],[Grade]]=tbllkpSteelGrades[Grade])*(Table1[[#This Row],[tw]]&lt;=tbllkpSteelGrades[Thickness]),0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="33" xr3:uid="{F78CCC46-7A18-4959-A81C-F51FA1F9FF08}" name="Aw" dataDxfId="31">
+    <tableColumn id="33" xr3:uid="{F78CCC46-7A18-4959-A81C-F51FA1F9FF08}" name="Aw" dataDxfId="34">
       <calculatedColumnFormula>IF(Table1[[#This Row],[Fabrication Type]]="Welded",Table1[[#This Row],[d1]],Table1[[#This Row],[d]])*Table1[[#This Row],[tw]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="34" xr3:uid="{EA3538CB-7B8A-4AF7-B6DC-16292E7F4F19}" name="Vyield" dataDxfId="5">
+    <tableColumn id="34" xr3:uid="{EA3538CB-7B8A-4AF7-B6DC-16292E7F4F19}" name="Vyield" dataDxfId="8">
       <calculatedColumnFormula>Table1[[#This Row],[Aw]]*Table1[[#This Row],[fy]]*0.6</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{6EFC8E23-CF2E-4C0D-BB9A-02BCA8159CF3}" name="limiting web slenderness" dataDxfId="1">
+    <tableColumn id="13" xr3:uid="{6EFC8E23-CF2E-4C0D-BB9A-02BCA8159CF3}" name="limiting web slenderness" dataDxfId="4">
       <calculatedColumnFormula>82/SQRT(Table1[[#This Row],[fy]]/250000000)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{3A2CC757-AD8B-4EAF-9CE0-7A223D47C931}" name="αv" dataDxfId="0">
+    <tableColumn id="14" xr3:uid="{3A2CC757-AD8B-4EAF-9CE0-7A223D47C931}" name="αv" dataDxfId="3">
       <calculatedColumnFormula>IF((Table1[[#This Row],[d1]]/Table1[[#This Row],[tw]])&gt;Table1[[#This Row],[limiting web slenderness]],(82/((Table1[[#This Row],[d1]]/Table1[[#This Row],[tw]])*SQRT(Table1[[#This Row],[fy]]/250000000)))^2,1)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2711,31 +2842,31 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{7CB81ECD-7B4A-4F8B-8113-71224F76D2FC}" name="Table4" displayName="Table4" ref="B2:V89" totalsRowShown="0">
   <autoFilter ref="B2:V89" xr:uid="{BA8101F0-ED77-49F7-BC18-C9D3E65708CA}"/>
   <tableColumns count="21">
-    <tableColumn id="1" xr3:uid="{4CA5654D-B547-49EB-AEE4-88550654C33A}" name="Test Name" dataDxfId="30">
+    <tableColumn id="1" xr3:uid="{4CA5654D-B547-49EB-AEE4-88550654C33A}" name="Test Name" dataDxfId="33">
       <calculatedColumnFormula>Table4[[#This Row],[Section]]&amp;"-"&amp;Table4[[#This Row],[Grade]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{8162C8E5-B488-4140-826E-7A4F44922C08}" name="Section" dataDxfId="29"/>
-    <tableColumn id="3" xr3:uid="{7613563F-32CB-43B4-9CD2-B12E2A6FF2D5}" name="Grade" dataDxfId="28"/>
-    <tableColumn id="4" xr3:uid="{C5BFAAF5-51F1-4535-980C-4B0DCD036D32}" name="Mass" dataDxfId="27"/>
-    <tableColumn id="5" xr3:uid="{7AAEBAA8-C99A-4F5A-88E3-88CB6960D4CA}" name="Section Type" dataDxfId="26"/>
-    <tableColumn id="6" xr3:uid="{B8C36499-3A13-4344-BAB0-D49EE58FE3E9}" name="Fabrication Type" dataDxfId="25"/>
-    <tableColumn id="7" xr3:uid="{A3848530-1431-48F2-A8A1-1A8E7187F0E4}" name="d" dataDxfId="24"/>
-    <tableColumn id="8" xr3:uid="{8180C5FB-397C-4385-9E2C-449435B22140}" name="t" dataDxfId="23"/>
-    <tableColumn id="9" xr3:uid="{721CCE1E-9271-453E-85A6-F1C3DE9BFA92}" name="d / t" dataDxfId="22"/>
-    <tableColumn id="10" xr3:uid="{DFEF7444-BB05-41F3-98A0-8E93565A79E0}" name="Ag" dataDxfId="21"/>
-    <tableColumn id="11" xr3:uid="{06548E9A-6BA5-4869-83BA-2B1ECD35C8FD}" name="I" dataDxfId="20"/>
-    <tableColumn id="12" xr3:uid="{04325DE9-C88D-4898-9081-69BD38E3F367}" name="Z" dataDxfId="19"/>
-    <tableColumn id="13" xr3:uid="{3357C355-9047-4ABB-AD18-D3E15B86E03B}" name="S" dataDxfId="18"/>
-    <tableColumn id="14" xr3:uid="{470CF4A9-89AA-474A-9533-AE8D1C11D912}" name="r" dataDxfId="17"/>
-    <tableColumn id="15" xr3:uid="{79889950-A6E3-4DDC-8073-3A8BC3FB6AD2}" name="J" dataDxfId="16"/>
-    <tableColumn id="16" xr3:uid="{73364D2E-305B-4F6C-B09F-DB78BE1F3A38}" name="C" dataDxfId="15"/>
-    <tableColumn id="17" xr3:uid="{0DA98F09-3F11-4D08-A6FC-AE92787F4FB2}" name="kf" dataDxfId="14"/>
-    <tableColumn id="18" xr3:uid="{716DC685-2BC9-475D-918F-7D51D96E5B00}" name="Compactness" dataDxfId="13"/>
-    <tableColumn id="19" xr3:uid="{1542DC57-D289-4280-A0B5-ED30B2199915}" name="Ze" dataDxfId="12"/>
-    <tableColumn id="20" xr3:uid="{3F052E38-FD56-42D0-85E3-1A2A4ED2525C}" name="fy" dataDxfId="11">
+    <tableColumn id="2" xr3:uid="{8162C8E5-B488-4140-826E-7A4F44922C08}" name="Section" dataDxfId="32"/>
+    <tableColumn id="3" xr3:uid="{7613563F-32CB-43B4-9CD2-B12E2A6FF2D5}" name="Grade" dataDxfId="31"/>
+    <tableColumn id="4" xr3:uid="{C5BFAAF5-51F1-4535-980C-4B0DCD036D32}" name="Mass" dataDxfId="30"/>
+    <tableColumn id="5" xr3:uid="{7AAEBAA8-C99A-4F5A-88E3-88CB6960D4CA}" name="Section Type" dataDxfId="29"/>
+    <tableColumn id="6" xr3:uid="{B8C36499-3A13-4344-BAB0-D49EE58FE3E9}" name="Fabrication Type" dataDxfId="28"/>
+    <tableColumn id="7" xr3:uid="{A3848530-1431-48F2-A8A1-1A8E7187F0E4}" name="d" dataDxfId="27"/>
+    <tableColumn id="8" xr3:uid="{8180C5FB-397C-4385-9E2C-449435B22140}" name="t" dataDxfId="26"/>
+    <tableColumn id="9" xr3:uid="{721CCE1E-9271-453E-85A6-F1C3DE9BFA92}" name="d / t" dataDxfId="25"/>
+    <tableColumn id="10" xr3:uid="{DFEF7444-BB05-41F3-98A0-8E93565A79E0}" name="Ag" dataDxfId="24"/>
+    <tableColumn id="11" xr3:uid="{06548E9A-6BA5-4869-83BA-2B1ECD35C8FD}" name="I" dataDxfId="23"/>
+    <tableColumn id="12" xr3:uid="{04325DE9-C88D-4898-9081-69BD38E3F367}" name="Z" dataDxfId="22"/>
+    <tableColumn id="13" xr3:uid="{3357C355-9047-4ABB-AD18-D3E15B86E03B}" name="S" dataDxfId="21"/>
+    <tableColumn id="14" xr3:uid="{470CF4A9-89AA-474A-9533-AE8D1C11D912}" name="r" dataDxfId="20"/>
+    <tableColumn id="15" xr3:uid="{79889950-A6E3-4DDC-8073-3A8BC3FB6AD2}" name="J" dataDxfId="19"/>
+    <tableColumn id="16" xr3:uid="{73364D2E-305B-4F6C-B09F-DB78BE1F3A38}" name="C" dataDxfId="18"/>
+    <tableColumn id="17" xr3:uid="{0DA98F09-3F11-4D08-A6FC-AE92787F4FB2}" name="kf" dataDxfId="17"/>
+    <tableColumn id="18" xr3:uid="{716DC685-2BC9-475D-918F-7D51D96E5B00}" name="Compactness" dataDxfId="16"/>
+    <tableColumn id="19" xr3:uid="{1542DC57-D289-4280-A0B5-ED30B2199915}" name="Ze" dataDxfId="15"/>
+    <tableColumn id="20" xr3:uid="{3F052E38-FD56-42D0-85E3-1A2A4ED2525C}" name="fy" dataDxfId="14">
       <calculatedColumnFormula array="1">INDEX(tbllkpSteelGrades[fy],MATCH(1,(Table4[[#This Row],[Grade]]=tbllkpSteelGrades[Grade])*(Table4[[#This Row],[t]]&lt;=tbllkpSteelGrades[Thickness]),0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="21" xr3:uid="{B66015BF-7FDD-4B8C-9B06-5EBF43E6C1A4}" name="Vyield" dataDxfId="10">
+    <tableColumn id="21" xr3:uid="{B66015BF-7FDD-4B8C-9B06-5EBF43E6C1A4}" name="Vyield" dataDxfId="13">
       <calculatedColumnFormula>Table4[[#This Row],[fy]]*Table4[[#This Row],[Ag]]*0.36</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2744,13 +2875,28 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{A917E260-11C0-442B-AA16-DDBB93330F1C}" name="Table2" displayName="Table2" ref="B2:E23" totalsRowShown="0">
+  <autoFilter ref="B2:E23" xr:uid="{20C0F86D-EAF6-4804-BF93-367A7A7E9E5D}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{AED8D1C4-A5D1-48D5-8362-BF93186F64D8}" name="Test Case"/>
+    <tableColumn id="2" xr3:uid="{2B7C6EA1-FA0A-491C-9FC4-9EDCAD101098}" name="fvm" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{19C2EAB6-619C-48D8-BC1E-7CCB1AE1F9F5}" name="fva" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{17C3DBBC-E440-40B0-BD71-A39BC8D02B47}" name="αvma" dataDxfId="0">
+      <calculatedColumnFormula>MIN(2/(0.9+(Table2[[#This Row],[fvm]]/Table2[[#This Row],[fva]])),1)</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="tblIntegral" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{FD922492-54C4-4564-A70A-4C52BDDF1798}" name="tbllkpSteelGrades" displayName="tbllkpSteelGrades" ref="B3:E16" totalsRowShown="0">
   <autoFilter ref="B3:E16" xr:uid="{3E6AE8C4-C748-4435-9220-6A582ED1C1D7}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{523DAE2A-27B2-4510-92AE-37C4C3C1762C}" name="Grade" dataDxfId="9"/>
-    <tableColumn id="2" xr3:uid="{9F87EDD2-D6FD-414D-8B88-062C86BD2D39}" name="Thickness" dataDxfId="8"/>
-    <tableColumn id="3" xr3:uid="{102B2EDD-89A2-45B5-8609-721075A59D6E}" name="fy" dataDxfId="7"/>
-    <tableColumn id="4" xr3:uid="{58E14996-58E6-4334-B475-B91075D2EE2F}" name="fu" dataDxfId="6"/>
+    <tableColumn id="1" xr3:uid="{523DAE2A-27B2-4510-92AE-37C4C3C1762C}" name="Grade" dataDxfId="12"/>
+    <tableColumn id="2" xr3:uid="{9F87EDD2-D6FD-414D-8B88-062C86BD2D39}" name="Thickness" dataDxfId="11"/>
+    <tableColumn id="3" xr3:uid="{102B2EDD-89A2-45B5-8609-721075A59D6E}" name="fy" dataDxfId="10"/>
+    <tableColumn id="4" xr3:uid="{58E14996-58E6-4334-B475-B91075D2EE2F}" name="fu" dataDxfId="9"/>
   </tableColumns>
   <tableStyleInfo name="tblIntegral" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3055,7 +3201,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B07B9FFD-D534-4711-893F-11708AF69116}">
   <dimension ref="B2:AF132"/>
   <sheetViews>
-    <sheetView topLeftCell="K1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="M1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="AF3" sqref="AF3"/>
     </sheetView>
   </sheetViews>
@@ -16322,7 +16468,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECAB8603-8ED1-4A1F-8836-1A9DBBC119CD}">
   <dimension ref="B2:AI12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="V1" workbookViewId="0">
       <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
@@ -23584,6 +23730,358 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CFA7FE4-DD08-402E-BB8A-91E537E2BA7F}">
+  <dimension ref="B2:E23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:5" ht="18" x14ac:dyDescent="0.35">
+      <c r="B2" t="s">
+        <v>256</v>
+      </c>
+      <c r="C2" t="s">
+        <v>257</v>
+      </c>
+      <c r="D2" t="s">
+        <v>258</v>
+      </c>
+      <c r="E2" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>260</v>
+      </c>
+      <c r="C3" s="37">
+        <v>0</v>
+      </c>
+      <c r="D3" s="37">
+        <v>250000000</v>
+      </c>
+      <c r="E3" s="36">
+        <f>MIN(2/(0.9+(Table2[[#This Row],[fvm]]/Table2[[#This Row],[fva]])),1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>261</v>
+      </c>
+      <c r="C4" s="37">
+        <v>50000000</v>
+      </c>
+      <c r="D4" s="37">
+        <v>250000000</v>
+      </c>
+      <c r="E4" s="36">
+        <f>MIN(2/(0.9+(Table2[[#This Row],[fvm]]/Table2[[#This Row],[fva]])),1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>262</v>
+      </c>
+      <c r="C5" s="37">
+        <v>100000000</v>
+      </c>
+      <c r="D5" s="37">
+        <v>250000000</v>
+      </c>
+      <c r="E5" s="36">
+        <f>MIN(2/(0.9+(Table2[[#This Row],[fvm]]/Table2[[#This Row],[fva]])),1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>263</v>
+      </c>
+      <c r="C6" s="37">
+        <v>150000000</v>
+      </c>
+      <c r="D6" s="37">
+        <v>250000000</v>
+      </c>
+      <c r="E6" s="36">
+        <f>MIN(2/(0.9+(Table2[[#This Row],[fvm]]/Table2[[#This Row],[fva]])),1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>264</v>
+      </c>
+      <c r="C7" s="37">
+        <v>200000000</v>
+      </c>
+      <c r="D7" s="37">
+        <v>250000000</v>
+      </c>
+      <c r="E7" s="36">
+        <f>MIN(2/(0.9+(Table2[[#This Row],[fvm]]/Table2[[#This Row],[fva]])),1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>265</v>
+      </c>
+      <c r="C8" s="37">
+        <v>250000000</v>
+      </c>
+      <c r="D8" s="37">
+        <v>250000000</v>
+      </c>
+      <c r="E8" s="36">
+        <f>MIN(2/(0.9+(Table2[[#This Row],[fvm]]/Table2[[#This Row],[fva]])),1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>266</v>
+      </c>
+      <c r="C9" s="37">
+        <v>300000000</v>
+      </c>
+      <c r="D9" s="37">
+        <v>250000000</v>
+      </c>
+      <c r="E9" s="36">
+        <f>MIN(2/(0.9+(Table2[[#This Row],[fvm]]/Table2[[#This Row],[fva]])),1)</f>
+        <v>0.95238095238095233</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>267</v>
+      </c>
+      <c r="C10" s="37">
+        <v>350000000</v>
+      </c>
+      <c r="D10" s="37">
+        <v>250000000</v>
+      </c>
+      <c r="E10" s="36">
+        <f>MIN(2/(0.9+(Table2[[#This Row],[fvm]]/Table2[[#This Row],[fva]])),1)</f>
+        <v>0.86956521739130443</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>268</v>
+      </c>
+      <c r="C11" s="37">
+        <v>400000000</v>
+      </c>
+      <c r="D11" s="37">
+        <v>250000000</v>
+      </c>
+      <c r="E11" s="36">
+        <f>MIN(2/(0.9+(Table2[[#This Row],[fvm]]/Table2[[#This Row],[fva]])),1)</f>
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>269</v>
+      </c>
+      <c r="C12" s="37">
+        <v>450000000</v>
+      </c>
+      <c r="D12" s="37">
+        <v>250000000</v>
+      </c>
+      <c r="E12" s="36">
+        <f>MIN(2/(0.9+(Table2[[#This Row],[fvm]]/Table2[[#This Row],[fva]])),1)</f>
+        <v>0.7407407407407407</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>270</v>
+      </c>
+      <c r="C13" s="37">
+        <v>500000000</v>
+      </c>
+      <c r="D13" s="37">
+        <v>250000000</v>
+      </c>
+      <c r="E13" s="36">
+        <f>MIN(2/(0.9+(Table2[[#This Row],[fvm]]/Table2[[#This Row],[fva]])),1)</f>
+        <v>0.68965517241379315</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>271</v>
+      </c>
+      <c r="C14" s="37">
+        <v>550000000</v>
+      </c>
+      <c r="D14" s="37">
+        <v>250000000</v>
+      </c>
+      <c r="E14" s="36">
+        <f>MIN(2/(0.9+(Table2[[#This Row],[fvm]]/Table2[[#This Row],[fva]])),1)</f>
+        <v>0.64516129032258063</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>272</v>
+      </c>
+      <c r="C15" s="37">
+        <v>600000000</v>
+      </c>
+      <c r="D15" s="37">
+        <v>250000000</v>
+      </c>
+      <c r="E15" s="36">
+        <f>MIN(2/(0.9+(Table2[[#This Row],[fvm]]/Table2[[#This Row],[fva]])),1)</f>
+        <v>0.60606060606060608</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>273</v>
+      </c>
+      <c r="C16" s="37">
+        <v>650000000</v>
+      </c>
+      <c r="D16" s="37">
+        <v>250000000</v>
+      </c>
+      <c r="E16" s="36">
+        <f>MIN(2/(0.9+(Table2[[#This Row],[fvm]]/Table2[[#This Row],[fva]])),1)</f>
+        <v>0.5714285714285714</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>274</v>
+      </c>
+      <c r="C17" s="37">
+        <v>700000000</v>
+      </c>
+      <c r="D17" s="37">
+        <v>250000000</v>
+      </c>
+      <c r="E17" s="36">
+        <f>MIN(2/(0.9+(Table2[[#This Row],[fvm]]/Table2[[#This Row],[fva]])),1)</f>
+        <v>0.54054054054054057</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>275</v>
+      </c>
+      <c r="C18" s="37">
+        <v>750000000</v>
+      </c>
+      <c r="D18" s="37">
+        <v>250000000</v>
+      </c>
+      <c r="E18" s="36">
+        <f>MIN(2/(0.9+(Table2[[#This Row],[fvm]]/Table2[[#This Row],[fva]])),1)</f>
+        <v>0.51282051282051289</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>276</v>
+      </c>
+      <c r="C19" s="37">
+        <v>800000000</v>
+      </c>
+      <c r="D19" s="37">
+        <v>250000000</v>
+      </c>
+      <c r="E19" s="36">
+        <f>MIN(2/(0.9+(Table2[[#This Row],[fvm]]/Table2[[#This Row],[fva]])),1)</f>
+        <v>0.48780487804878042</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>277</v>
+      </c>
+      <c r="C20" s="37">
+        <v>850000000</v>
+      </c>
+      <c r="D20" s="37">
+        <v>250000000</v>
+      </c>
+      <c r="E20" s="36">
+        <f>MIN(2/(0.9+(Table2[[#This Row],[fvm]]/Table2[[#This Row],[fva]])),1)</f>
+        <v>0.46511627906976744</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>278</v>
+      </c>
+      <c r="C21" s="37">
+        <v>900000000</v>
+      </c>
+      <c r="D21" s="37">
+        <v>250000000</v>
+      </c>
+      <c r="E21" s="36">
+        <f>MIN(2/(0.9+(Table2[[#This Row],[fvm]]/Table2[[#This Row],[fva]])),1)</f>
+        <v>0.44444444444444442</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>279</v>
+      </c>
+      <c r="C22" s="37">
+        <v>950000000</v>
+      </c>
+      <c r="D22" s="37">
+        <v>250000000</v>
+      </c>
+      <c r="E22" s="36">
+        <f>MIN(2/(0.9+(Table2[[#This Row],[fvm]]/Table2[[#This Row],[fva]])),1)</f>
+        <v>0.42553191489361702</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>280</v>
+      </c>
+      <c r="C23" s="37">
+        <v>1000000000</v>
+      </c>
+      <c r="D23" s="37">
+        <v>250000000</v>
+      </c>
+      <c r="E23" s="36">
+        <f>MIN(2/(0.9+(Table2[[#This Row],[fvm]]/Table2[[#This Row],[fva]])),1)</f>
+        <v>0.4081632653061224</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A261624-6020-4253-8C46-A04EC8FA61C3}">
   <dimension ref="B3:E16"/>
   <sheetViews>

--- a/tests/Excel/AS4100_5_Shear Verification.xlsx
+++ b/tests/Excel/AS4100_5_Shear Verification.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\seank\PycharmProjects\BeamDesign\tests\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1DBABA1-1BE4-4711-BF95-C916B473474A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B3D0DB4-7DDE-410D-B5B1-041CD528EF79}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11910" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11910" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Is" sheetId="11" r:id="rId1"/>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1256" uniqueCount="281">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1262" uniqueCount="287">
   <si>
     <t>J</t>
   </si>
@@ -1530,12 +1530,108 @@
   <si>
     <t>Test 21</t>
   </si>
+  <si>
+    <r>
+      <t>f</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>u</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Q</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>flange</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>d</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>f</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>V</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>weld</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>V</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>interface</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>v</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>w</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <numFmts count="13">
+  <numFmts count="14">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.000&quot; m&quot;"/>
     <numFmt numFmtId="166" formatCode="##0.00E+00&quot; m⁴&quot;"/>
@@ -1549,6 +1645,7 @@
     <numFmt numFmtId="174" formatCode="##0.00E+00&quot; m²&quot;"/>
     <numFmt numFmtId="175" formatCode="0&quot; kg / m&quot;"/>
     <numFmt numFmtId="176" formatCode="0.000"/>
+    <numFmt numFmtId="183" formatCode="##0.00E+00&quot; N/m&quot;"/>
   </numFmts>
   <fonts count="12" x14ac:knownFonts="1">
     <font>
@@ -1731,7 +1828,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1786,11 +1883,37 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="183" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="97">
+  <dxfs count="103">
+    <dxf>
+      <numFmt numFmtId="183" formatCode="##0.00E+00&quot; N/m&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="169" formatCode="##0.00E+00&quot; N&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="169" formatCode="##0.00E+00&quot; N&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="173" formatCode="##0.00E+00&quot; m³&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.000&quot; m&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="168" formatCode="##0E+00&quot; Pa&quot;"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <numFmt numFmtId="176" formatCode="0.000"/>
     </dxf>
@@ -2602,9 +2725,9 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="tblIntegral" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
-      <tableStyleElement type="wholeTable" dxfId="96"/>
-      <tableStyleElement type="headerRow" dxfId="95"/>
-      <tableStyleElement type="secondRowStripe" dxfId="94"/>
+      <tableStyleElement type="wholeTable" dxfId="102"/>
+      <tableStyleElement type="headerRow" dxfId="101"/>
+      <tableStyleElement type="secondRowStripe" dxfId="100"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -2732,51 +2855,69 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{EDDEE4D4-895F-4D98-BD2B-A1595D136FE1}" name="Table8" displayName="Table8" ref="B2:AF132" totalsRowShown="0">
-  <autoFilter ref="B2:AF132" xr:uid="{0AC04653-982D-4DB0-97C0-530DC6DA1D7C}"/>
-  <tableColumns count="31">
-    <tableColumn id="27" xr3:uid="{F0C68715-1699-4435-A336-CF305A8B079E}" name="Test_Name" dataDxfId="93">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{EDDEE4D4-895F-4D98-BD2B-A1595D136FE1}" name="Table8" displayName="Table8" ref="B2:AL132" totalsRowShown="0">
+  <autoFilter ref="B2:AL132" xr:uid="{0AC04653-982D-4DB0-97C0-530DC6DA1D7C}"/>
+  <tableColumns count="37">
+    <tableColumn id="27" xr3:uid="{F0C68715-1699-4435-A336-CF305A8B079E}" name="Test_Name" dataDxfId="99">
       <calculatedColumnFormula>Table8[[#This Row],[Section]]&amp;"-"&amp;TEXT(Table8[[#This Row],[Grade]],"0")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="1" xr3:uid="{280EAB9D-68EA-4683-A885-68F041F7C696}" name="Section" dataDxfId="92"/>
-    <tableColumn id="29" xr3:uid="{5010BFA1-B99D-42AE-851A-22DE2AA6C466}" name="Grade" dataDxfId="91"/>
-    <tableColumn id="2" xr3:uid="{607776AD-1CEA-4ABA-9EBB-6E7242760D55}" name="Designation" dataDxfId="90"/>
-    <tableColumn id="3" xr3:uid="{8B64A8C3-F92A-47F9-96F3-AA3D2FB57C71}" name="Mass" dataDxfId="89"/>
-    <tableColumn id="4" xr3:uid="{C3F54EAF-B082-4E92-89A4-EB922C48C2FD}" name="Section Type" dataDxfId="88"/>
-    <tableColumn id="5" xr3:uid="{099E95F4-155C-46BC-9B68-09B5DC82AC9E}" name="Fabrication Type" dataDxfId="87"/>
-    <tableColumn id="6" xr3:uid="{603611E8-32D2-418A-B7F1-7978728F31CE}" name="d" dataDxfId="86"/>
-    <tableColumn id="7" xr3:uid="{8C2BF6A8-8480-4D0B-8189-8DD35F84F37A}" name="bf" dataDxfId="85"/>
-    <tableColumn id="8" xr3:uid="{AF33BA8F-44DE-4FA5-B937-5086CFDD19FF}" name="tf" dataDxfId="84"/>
-    <tableColumn id="9" xr3:uid="{688540C0-5BD0-4CE3-8BC7-7345CE0E5749}" name="tw" dataDxfId="83"/>
-    <tableColumn id="30" xr3:uid="{360F5B09-D453-4A68-ABB3-C009F0F472BF}" name="r1" dataDxfId="82"/>
-    <tableColumn id="10" xr3:uid="{1C612196-CED2-42B0-865A-D4E03216B7B7}" name="d1" dataDxfId="81"/>
-    <tableColumn id="11" xr3:uid="{4F3DA98F-ED30-4ACB-A515-75F8C0DC4843}" name="d1 / tw" dataDxfId="80"/>
-    <tableColumn id="12" xr3:uid="{22B64CBB-F443-44A9-9500-7B9BBDFB124B}" name="(bf - tw) / (2 × tf)" dataDxfId="79"/>
-    <tableColumn id="13" xr3:uid="{D4DF694A-4484-4C9F-9376-6A57C15AF617}" name="Ag" dataDxfId="78"/>
-    <tableColumn id="14" xr3:uid="{3724EE49-662E-4E0E-A37B-3ADE156496AD}" name="Ix" dataDxfId="77"/>
-    <tableColumn id="15" xr3:uid="{AD4648AD-343E-4A35-9246-69098C5044CC}" name="Zx" dataDxfId="76"/>
-    <tableColumn id="16" xr3:uid="{0ABFCF14-5F21-419A-9559-2CA91A10474B}" name="Sx" dataDxfId="75"/>
-    <tableColumn id="17" xr3:uid="{DC4F87E0-E5C6-4D73-A757-8F63BAF7554D}" name="rx" dataDxfId="74"/>
-    <tableColumn id="18" xr3:uid="{23E1E09C-910E-46AB-90C7-90D38D81B99E}" name="Iy" dataDxfId="73"/>
-    <tableColumn id="19" xr3:uid="{885B4339-7E0D-4B91-9FC6-5D81E2299F9C}" name="Zy" dataDxfId="72"/>
-    <tableColumn id="20" xr3:uid="{84C35746-536E-4B01-8256-14A9DCAB142B}" name="Sy" dataDxfId="71"/>
-    <tableColumn id="21" xr3:uid="{A7686837-B7AE-4BAE-88E2-6F9FAD730E01}" name="ry" dataDxfId="70"/>
-    <tableColumn id="22" xr3:uid="{767ED161-3BD1-4294-96E7-EF008EBAF27A}" name="J" dataDxfId="69"/>
-    <tableColumn id="23" xr3:uid="{4874CB8A-E902-4CEB-AEFF-C3681E512597}" name="Iw" dataDxfId="68"/>
-    <tableColumn id="26" xr3:uid="{4B448337-5DAD-4159-85BB-146825F8C228}" name="fy" dataDxfId="67">
+    <tableColumn id="1" xr3:uid="{280EAB9D-68EA-4683-A885-68F041F7C696}" name="Section" dataDxfId="98"/>
+    <tableColumn id="29" xr3:uid="{5010BFA1-B99D-42AE-851A-22DE2AA6C466}" name="Grade" dataDxfId="97"/>
+    <tableColumn id="2" xr3:uid="{607776AD-1CEA-4ABA-9EBB-6E7242760D55}" name="Designation" dataDxfId="96"/>
+    <tableColumn id="3" xr3:uid="{8B64A8C3-F92A-47F9-96F3-AA3D2FB57C71}" name="Mass" dataDxfId="95"/>
+    <tableColumn id="4" xr3:uid="{C3F54EAF-B082-4E92-89A4-EB922C48C2FD}" name="Section Type" dataDxfId="94"/>
+    <tableColumn id="5" xr3:uid="{099E95F4-155C-46BC-9B68-09B5DC82AC9E}" name="Fabrication Type" dataDxfId="93"/>
+    <tableColumn id="6" xr3:uid="{603611E8-32D2-418A-B7F1-7978728F31CE}" name="d" dataDxfId="92"/>
+    <tableColumn id="7" xr3:uid="{8C2BF6A8-8480-4D0B-8189-8DD35F84F37A}" name="bf" dataDxfId="91"/>
+    <tableColumn id="8" xr3:uid="{AF33BA8F-44DE-4FA5-B937-5086CFDD19FF}" name="tf" dataDxfId="90"/>
+    <tableColumn id="9" xr3:uid="{688540C0-5BD0-4CE3-8BC7-7345CE0E5749}" name="tw" dataDxfId="89"/>
+    <tableColumn id="30" xr3:uid="{360F5B09-D453-4A68-ABB3-C009F0F472BF}" name="r1" dataDxfId="88"/>
+    <tableColumn id="10" xr3:uid="{1C612196-CED2-42B0-865A-D4E03216B7B7}" name="d1" dataDxfId="87"/>
+    <tableColumn id="11" xr3:uid="{4F3DA98F-ED30-4ACB-A515-75F8C0DC4843}" name="d1 / tw" dataDxfId="86"/>
+    <tableColumn id="12" xr3:uid="{22B64CBB-F443-44A9-9500-7B9BBDFB124B}" name="(bf - tw) / (2 × tf)" dataDxfId="85"/>
+    <tableColumn id="13" xr3:uid="{D4DF694A-4484-4C9F-9376-6A57C15AF617}" name="Ag" dataDxfId="84"/>
+    <tableColumn id="14" xr3:uid="{3724EE49-662E-4E0E-A37B-3ADE156496AD}" name="Ix" dataDxfId="83"/>
+    <tableColumn id="15" xr3:uid="{AD4648AD-343E-4A35-9246-69098C5044CC}" name="Zx" dataDxfId="82"/>
+    <tableColumn id="16" xr3:uid="{0ABFCF14-5F21-419A-9559-2CA91A10474B}" name="Sx" dataDxfId="81"/>
+    <tableColumn id="17" xr3:uid="{DC4F87E0-E5C6-4D73-A757-8F63BAF7554D}" name="rx" dataDxfId="80"/>
+    <tableColumn id="18" xr3:uid="{23E1E09C-910E-46AB-90C7-90D38D81B99E}" name="Iy" dataDxfId="79"/>
+    <tableColumn id="19" xr3:uid="{885B4339-7E0D-4B91-9FC6-5D81E2299F9C}" name="Zy" dataDxfId="78"/>
+    <tableColumn id="20" xr3:uid="{84C35746-536E-4B01-8256-14A9DCAB142B}" name="Sy" dataDxfId="77"/>
+    <tableColumn id="21" xr3:uid="{A7686837-B7AE-4BAE-88E2-6F9FAD730E01}" name="ry" dataDxfId="76"/>
+    <tableColumn id="22" xr3:uid="{767ED161-3BD1-4294-96E7-EF008EBAF27A}" name="J" dataDxfId="75"/>
+    <tableColumn id="23" xr3:uid="{4874CB8A-E902-4CEB-AEFF-C3681E512597}" name="Iw" dataDxfId="74"/>
+    <tableColumn id="26" xr3:uid="{4B448337-5DAD-4159-85BB-146825F8C228}" name="fy" dataDxfId="73">
       <calculatedColumnFormula array="1">INDEX(tbllkpSteelGrades[fy],MATCH(1,(Table8[[#This Row],[Grade]]=tbllkpSteelGrades[Grade])*(Table8[[#This Row],[tw]]&lt;=tbllkpSteelGrades[Thickness]),0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="24" xr3:uid="{473325F2-FF03-4C75-BD12-A70F0A6AA4F1}" name="Aw" dataDxfId="66">
+    <tableColumn id="32" xr3:uid="{37FF3E15-4433-4C1B-B92A-136870D1546E}" name="fu" dataDxfId="5">
+      <calculatedColumnFormula array="1">INDEX(tbllkpSteelGrades[fu],MATCH(1,(Table8[[#This Row],[Grade]]=tbllkpSteelGrades[Grade])*(Table8[[#This Row],[tw]]&lt;=tbllkpSteelGrades[Thickness]),0))</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="24" xr3:uid="{473325F2-FF03-4C75-BD12-A70F0A6AA4F1}" name="Aw" dataDxfId="72">
       <calculatedColumnFormula>IF(Table8[[#This Row],[Fabrication Type]]="Welded",Table8[[#This Row],[d1]],Table8[[#This Row],[d]])*Table8[[#This Row],[tw]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="25" xr3:uid="{98B29A8D-CA7E-401A-9966-485A14A8FF27}" name="Vyield" dataDxfId="7">
+    <tableColumn id="25" xr3:uid="{98B29A8D-CA7E-401A-9966-485A14A8FF27}" name="Vyield" dataDxfId="13">
       <calculatedColumnFormula>Table8[[#This Row],[Aw]]*Table8[[#This Row],[fy]]*0.6</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="31" xr3:uid="{D2AE4FE6-949C-44C1-ABA2-0661F2AF8B79}" name="limiting web slenderness" dataDxfId="5">
+    <tableColumn id="31" xr3:uid="{D2AE4FE6-949C-44C1-ABA2-0661F2AF8B79}" name="limiting web slenderness" dataDxfId="11">
       <calculatedColumnFormula>82/SQRT(Table8[[#This Row],[fy]]/250000000)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="28" xr3:uid="{350AE1F7-C8CC-4EFA-83FA-43CEF626EC3E}" name="αv" dataDxfId="6">
+    <tableColumn id="28" xr3:uid="{350AE1F7-C8CC-4EFA-83FA-43CEF626EC3E}" name="αv" dataDxfId="12">
       <calculatedColumnFormula>IF((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])&gt;Table8[[#This Row],[limiting web slenderness]],(82/((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])*SQRT(Table8[[#This Row],[fy]]/250000000)))^2,1)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="33" xr3:uid="{FCD706B2-2BA6-4DE4-82D4-347F41D9B217}" name="vw" dataDxfId="0">
+      <calculatedColumnFormula>IF(Table8[[#This Row],[Fabrication Type]]="Welded",IF(Table8[[#This Row],[tw]]&gt;0.016,0.016*Table8[[#This Row],[fu]],Table8[[#This Row],[tw]]*Table8[[#This Row],[fu]]),"")</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="35" xr3:uid="{5CCA7C25-8C72-493A-B186-2CB8B1D486ED}" name="df" dataDxfId="4">
+      <calculatedColumnFormula>Table8[[#This Row],[d]]-Table8[[#This Row],[tf]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="34" xr3:uid="{E9034DD1-D76E-4C73-9963-3A0CAC77712C}" name="Qflange" dataDxfId="3">
+      <calculatedColumnFormula>Table8[[#This Row],[bf]]*Table8[[#This Row],[tf]]*(Table8[[#This Row],[df]]/2)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="36" xr3:uid="{677DF129-40A4-47AA-A4F0-5C7CB986ABCC}" name="Vweld" dataDxfId="2">
+      <calculatedColumnFormula>IF(Table8[[#This Row],[Fabrication Type]]="Welded",Table8[[#This Row],[vw]]*Table8[[#This Row],[Ix]]/Table8[[#This Row],[Qflange]],"")</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="37" xr3:uid="{702894B3-AE19-45A1-96B4-538ACC38F391}" name="Vinterface" dataDxfId="1">
+      <calculatedColumnFormula>Table8[[#This Row],[tw]]*Table8[[#This Row],[fy]]*0.6*Table8[[#This Row],[Ix]]/Table8[[#This Row],[Qflange]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="tblIntegral" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -2784,53 +2925,53 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{EC27F662-23F3-4692-B884-ACBE9C4BC921}" name="Table1" displayName="Table1" ref="B2:AI12" totalsRowShown="0" headerRowDxfId="65">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{EC27F662-23F3-4692-B884-ACBE9C4BC921}" name="Table1" displayName="Table1" ref="B2:AI12" totalsRowShown="0" headerRowDxfId="71">
   <autoFilter ref="B2:AI12" xr:uid="{159D2995-82C8-4243-A12A-2992509062CB}"/>
   <tableColumns count="34">
-    <tableColumn id="1" xr3:uid="{BFC7DADC-5D9A-410D-8005-ABEDA04EC4E5}" name="Test Name" dataDxfId="64">
+    <tableColumn id="1" xr3:uid="{BFC7DADC-5D9A-410D-8005-ABEDA04EC4E5}" name="Test Name" dataDxfId="70">
       <calculatedColumnFormula>Table1[[#This Row],[Section]]&amp;"-"&amp;TEXT(Table1[[#This Row],[Grade]],"0")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{A68B01D6-63C3-4091-8CB2-10D8394F7045}" name="Section" dataDxfId="63"/>
-    <tableColumn id="3" xr3:uid="{F0C91944-5320-440C-89CC-1BCEEA04DC3A}" name="Grade" dataDxfId="62"/>
-    <tableColumn id="4" xr3:uid="{8BEB6DFF-49C4-4FA8-9224-463494339BF7}" name="Designation" dataDxfId="61"/>
-    <tableColumn id="5" xr3:uid="{AA456E27-CAB5-458A-A415-DCD765520D10}" name="Mass" dataDxfId="60"/>
-    <tableColumn id="6" xr3:uid="{58FBA757-33E6-4107-82A6-01450F92ECF1}" name="Section Type" dataDxfId="59"/>
-    <tableColumn id="7" xr3:uid="{E42F97CD-458E-4C03-887D-149CADBEE730}" name="Fabrication Type" dataDxfId="58"/>
-    <tableColumn id="8" xr3:uid="{30A5893B-DE67-4DB4-B63E-A74FA4F62A88}" name="d" dataDxfId="57"/>
-    <tableColumn id="9" xr3:uid="{DCAC7CD7-0C42-42AC-A9A3-3E6703738EA2}" name="bf" dataDxfId="56"/>
-    <tableColumn id="10" xr3:uid="{C94CF9A2-1DAE-4D19-BE5E-306E8BF46B88}" name="tf" dataDxfId="55"/>
-    <tableColumn id="11" xr3:uid="{1E144395-2B2F-424C-990F-3523916EC30D}" name="tw" dataDxfId="54"/>
-    <tableColumn id="12" xr3:uid="{BBC3D8A7-825A-413D-8F5B-523A8316C953}" name="r1" dataDxfId="53"/>
-    <tableColumn id="15" xr3:uid="{075B0A49-A933-463E-A295-DC05820221CD}" name="d1" dataDxfId="52"/>
-    <tableColumn id="16" xr3:uid="{C169B72F-E99F-4C91-8937-CA4CB5F1C0BD}" name="d1 / tw" dataDxfId="51"/>
-    <tableColumn id="17" xr3:uid="{EDE65130-55B8-4ED1-9338-8CF7DC57B7B0}" name="(bf - tw) / tf" dataDxfId="50"/>
-    <tableColumn id="18" xr3:uid="{B3EA4ACF-56D6-4C30-BAE3-E9AA6DECAD5B}" name="Ag" dataDxfId="49"/>
-    <tableColumn id="19" xr3:uid="{110F3BD2-1591-441D-8F2A-354835DE7C03}" name="xL" dataDxfId="48"/>
-    <tableColumn id="20" xr3:uid="{00DE344B-2B7A-4589-95FC-964370589D2F}" name="xO" dataDxfId="47"/>
-    <tableColumn id="21" xr3:uid="{74E05A20-8171-4C56-847A-4E2736645723}" name="Ix" dataDxfId="46"/>
-    <tableColumn id="22" xr3:uid="{46F05E10-2A14-4B02-8DDE-BE0422A2E11C}" name="Zx" dataDxfId="45"/>
-    <tableColumn id="23" xr3:uid="{8B5994C6-C074-4DE5-91BE-E16423FAB9D1}" name="Sx" dataDxfId="44"/>
-    <tableColumn id="24" xr3:uid="{9F69E4F9-9733-4980-9F4B-73E323CFD6C1}" name="rx" dataDxfId="43"/>
-    <tableColumn id="25" xr3:uid="{EA2F89F0-BB76-48D8-B83E-B76812070936}" name="Iy" dataDxfId="42"/>
-    <tableColumn id="26" xr3:uid="{A7187315-BF57-4454-8122-9170C02466BF}" name="ZyL" dataDxfId="41"/>
-    <tableColumn id="27" xr3:uid="{E24C8AEF-AEA2-460E-BC1B-54C7E8064ED2}" name="ZyR" dataDxfId="40"/>
-    <tableColumn id="28" xr3:uid="{CDDE43D5-2755-4C6C-98C0-89FB469561A9}" name="Sy" dataDxfId="39"/>
-    <tableColumn id="29" xr3:uid="{CC95640D-57BD-4549-8961-244E9160233E}" name="ry" dataDxfId="38"/>
-    <tableColumn id="30" xr3:uid="{4E80C201-306F-427A-B841-CC8204AC71EB}" name="J" dataDxfId="37"/>
-    <tableColumn id="31" xr3:uid="{D8BDE5DB-34D6-4AAF-94B6-6CA66EDDC4EC}" name="Iw" dataDxfId="36"/>
-    <tableColumn id="32" xr3:uid="{729B2C64-AA61-4ED8-88D9-46889D56FABC}" name="fy" dataDxfId="35">
+    <tableColumn id="2" xr3:uid="{A68B01D6-63C3-4091-8CB2-10D8394F7045}" name="Section" dataDxfId="69"/>
+    <tableColumn id="3" xr3:uid="{F0C91944-5320-440C-89CC-1BCEEA04DC3A}" name="Grade" dataDxfId="68"/>
+    <tableColumn id="4" xr3:uid="{8BEB6DFF-49C4-4FA8-9224-463494339BF7}" name="Designation" dataDxfId="67"/>
+    <tableColumn id="5" xr3:uid="{AA456E27-CAB5-458A-A415-DCD765520D10}" name="Mass" dataDxfId="66"/>
+    <tableColumn id="6" xr3:uid="{58FBA757-33E6-4107-82A6-01450F92ECF1}" name="Section Type" dataDxfId="65"/>
+    <tableColumn id="7" xr3:uid="{E42F97CD-458E-4C03-887D-149CADBEE730}" name="Fabrication Type" dataDxfId="64"/>
+    <tableColumn id="8" xr3:uid="{30A5893B-DE67-4DB4-B63E-A74FA4F62A88}" name="d" dataDxfId="63"/>
+    <tableColumn id="9" xr3:uid="{DCAC7CD7-0C42-42AC-A9A3-3E6703738EA2}" name="bf" dataDxfId="62"/>
+    <tableColumn id="10" xr3:uid="{C94CF9A2-1DAE-4D19-BE5E-306E8BF46B88}" name="tf" dataDxfId="61"/>
+    <tableColumn id="11" xr3:uid="{1E144395-2B2F-424C-990F-3523916EC30D}" name="tw" dataDxfId="60"/>
+    <tableColumn id="12" xr3:uid="{BBC3D8A7-825A-413D-8F5B-523A8316C953}" name="r1" dataDxfId="59"/>
+    <tableColumn id="15" xr3:uid="{075B0A49-A933-463E-A295-DC05820221CD}" name="d1" dataDxfId="58"/>
+    <tableColumn id="16" xr3:uid="{C169B72F-E99F-4C91-8937-CA4CB5F1C0BD}" name="d1 / tw" dataDxfId="57"/>
+    <tableColumn id="17" xr3:uid="{EDE65130-55B8-4ED1-9338-8CF7DC57B7B0}" name="(bf - tw) / tf" dataDxfId="56"/>
+    <tableColumn id="18" xr3:uid="{B3EA4ACF-56D6-4C30-BAE3-E9AA6DECAD5B}" name="Ag" dataDxfId="55"/>
+    <tableColumn id="19" xr3:uid="{110F3BD2-1591-441D-8F2A-354835DE7C03}" name="xL" dataDxfId="54"/>
+    <tableColumn id="20" xr3:uid="{00DE344B-2B7A-4589-95FC-964370589D2F}" name="xO" dataDxfId="53"/>
+    <tableColumn id="21" xr3:uid="{74E05A20-8171-4C56-847A-4E2736645723}" name="Ix" dataDxfId="52"/>
+    <tableColumn id="22" xr3:uid="{46F05E10-2A14-4B02-8DDE-BE0422A2E11C}" name="Zx" dataDxfId="51"/>
+    <tableColumn id="23" xr3:uid="{8B5994C6-C074-4DE5-91BE-E16423FAB9D1}" name="Sx" dataDxfId="50"/>
+    <tableColumn id="24" xr3:uid="{9F69E4F9-9733-4980-9F4B-73E323CFD6C1}" name="rx" dataDxfId="49"/>
+    <tableColumn id="25" xr3:uid="{EA2F89F0-BB76-48D8-B83E-B76812070936}" name="Iy" dataDxfId="48"/>
+    <tableColumn id="26" xr3:uid="{A7187315-BF57-4454-8122-9170C02466BF}" name="ZyL" dataDxfId="47"/>
+    <tableColumn id="27" xr3:uid="{E24C8AEF-AEA2-460E-BC1B-54C7E8064ED2}" name="ZyR" dataDxfId="46"/>
+    <tableColumn id="28" xr3:uid="{CDDE43D5-2755-4C6C-98C0-89FB469561A9}" name="Sy" dataDxfId="45"/>
+    <tableColumn id="29" xr3:uid="{CC95640D-57BD-4549-8961-244E9160233E}" name="ry" dataDxfId="44"/>
+    <tableColumn id="30" xr3:uid="{4E80C201-306F-427A-B841-CC8204AC71EB}" name="J" dataDxfId="43"/>
+    <tableColumn id="31" xr3:uid="{D8BDE5DB-34D6-4AAF-94B6-6CA66EDDC4EC}" name="Iw" dataDxfId="42"/>
+    <tableColumn id="32" xr3:uid="{729B2C64-AA61-4ED8-88D9-46889D56FABC}" name="fy" dataDxfId="41">
       <calculatedColumnFormula array="1">INDEX(tbllkpSteelGrades[fy],MATCH(1,(Table1[[#This Row],[Grade]]=tbllkpSteelGrades[Grade])*(Table1[[#This Row],[tw]]&lt;=tbllkpSteelGrades[Thickness]),0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="33" xr3:uid="{F78CCC46-7A18-4959-A81C-F51FA1F9FF08}" name="Aw" dataDxfId="34">
+    <tableColumn id="33" xr3:uid="{F78CCC46-7A18-4959-A81C-F51FA1F9FF08}" name="Aw" dataDxfId="40">
       <calculatedColumnFormula>IF(Table1[[#This Row],[Fabrication Type]]="Welded",Table1[[#This Row],[d1]],Table1[[#This Row],[d]])*Table1[[#This Row],[tw]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="34" xr3:uid="{EA3538CB-7B8A-4AF7-B6DC-16292E7F4F19}" name="Vyield" dataDxfId="8">
+    <tableColumn id="34" xr3:uid="{EA3538CB-7B8A-4AF7-B6DC-16292E7F4F19}" name="Vyield" dataDxfId="14">
       <calculatedColumnFormula>Table1[[#This Row],[Aw]]*Table1[[#This Row],[fy]]*0.6</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{6EFC8E23-CF2E-4C0D-BB9A-02BCA8159CF3}" name="limiting web slenderness" dataDxfId="4">
+    <tableColumn id="13" xr3:uid="{6EFC8E23-CF2E-4C0D-BB9A-02BCA8159CF3}" name="limiting web slenderness" dataDxfId="10">
       <calculatedColumnFormula>82/SQRT(Table1[[#This Row],[fy]]/250000000)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{3A2CC757-AD8B-4EAF-9CE0-7A223D47C931}" name="αv" dataDxfId="3">
+    <tableColumn id="14" xr3:uid="{3A2CC757-AD8B-4EAF-9CE0-7A223D47C931}" name="αv" dataDxfId="9">
       <calculatedColumnFormula>IF((Table1[[#This Row],[d1]]/Table1[[#This Row],[tw]])&gt;Table1[[#This Row],[limiting web slenderness]],(82/((Table1[[#This Row],[d1]]/Table1[[#This Row],[tw]])*SQRT(Table1[[#This Row],[fy]]/250000000)))^2,1)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2842,31 +2983,31 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{7CB81ECD-7B4A-4F8B-8113-71224F76D2FC}" name="Table4" displayName="Table4" ref="B2:V89" totalsRowShown="0">
   <autoFilter ref="B2:V89" xr:uid="{BA8101F0-ED77-49F7-BC18-C9D3E65708CA}"/>
   <tableColumns count="21">
-    <tableColumn id="1" xr3:uid="{4CA5654D-B547-49EB-AEE4-88550654C33A}" name="Test Name" dataDxfId="33">
+    <tableColumn id="1" xr3:uid="{4CA5654D-B547-49EB-AEE4-88550654C33A}" name="Test Name" dataDxfId="39">
       <calculatedColumnFormula>Table4[[#This Row],[Section]]&amp;"-"&amp;Table4[[#This Row],[Grade]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{8162C8E5-B488-4140-826E-7A4F44922C08}" name="Section" dataDxfId="32"/>
-    <tableColumn id="3" xr3:uid="{7613563F-32CB-43B4-9CD2-B12E2A6FF2D5}" name="Grade" dataDxfId="31"/>
-    <tableColumn id="4" xr3:uid="{C5BFAAF5-51F1-4535-980C-4B0DCD036D32}" name="Mass" dataDxfId="30"/>
-    <tableColumn id="5" xr3:uid="{7AAEBAA8-C99A-4F5A-88E3-88CB6960D4CA}" name="Section Type" dataDxfId="29"/>
-    <tableColumn id="6" xr3:uid="{B8C36499-3A13-4344-BAB0-D49EE58FE3E9}" name="Fabrication Type" dataDxfId="28"/>
-    <tableColumn id="7" xr3:uid="{A3848530-1431-48F2-A8A1-1A8E7187F0E4}" name="d" dataDxfId="27"/>
-    <tableColumn id="8" xr3:uid="{8180C5FB-397C-4385-9E2C-449435B22140}" name="t" dataDxfId="26"/>
-    <tableColumn id="9" xr3:uid="{721CCE1E-9271-453E-85A6-F1C3DE9BFA92}" name="d / t" dataDxfId="25"/>
-    <tableColumn id="10" xr3:uid="{DFEF7444-BB05-41F3-98A0-8E93565A79E0}" name="Ag" dataDxfId="24"/>
-    <tableColumn id="11" xr3:uid="{06548E9A-6BA5-4869-83BA-2B1ECD35C8FD}" name="I" dataDxfId="23"/>
-    <tableColumn id="12" xr3:uid="{04325DE9-C88D-4898-9081-69BD38E3F367}" name="Z" dataDxfId="22"/>
-    <tableColumn id="13" xr3:uid="{3357C355-9047-4ABB-AD18-D3E15B86E03B}" name="S" dataDxfId="21"/>
-    <tableColumn id="14" xr3:uid="{470CF4A9-89AA-474A-9533-AE8D1C11D912}" name="r" dataDxfId="20"/>
-    <tableColumn id="15" xr3:uid="{79889950-A6E3-4DDC-8073-3A8BC3FB6AD2}" name="J" dataDxfId="19"/>
-    <tableColumn id="16" xr3:uid="{73364D2E-305B-4F6C-B09F-DB78BE1F3A38}" name="C" dataDxfId="18"/>
-    <tableColumn id="17" xr3:uid="{0DA98F09-3F11-4D08-A6FC-AE92787F4FB2}" name="kf" dataDxfId="17"/>
-    <tableColumn id="18" xr3:uid="{716DC685-2BC9-475D-918F-7D51D96E5B00}" name="Compactness" dataDxfId="16"/>
-    <tableColumn id="19" xr3:uid="{1542DC57-D289-4280-A0B5-ED30B2199915}" name="Ze" dataDxfId="15"/>
-    <tableColumn id="20" xr3:uid="{3F052E38-FD56-42D0-85E3-1A2A4ED2525C}" name="fy" dataDxfId="14">
+    <tableColumn id="2" xr3:uid="{8162C8E5-B488-4140-826E-7A4F44922C08}" name="Section" dataDxfId="38"/>
+    <tableColumn id="3" xr3:uid="{7613563F-32CB-43B4-9CD2-B12E2A6FF2D5}" name="Grade" dataDxfId="37"/>
+    <tableColumn id="4" xr3:uid="{C5BFAAF5-51F1-4535-980C-4B0DCD036D32}" name="Mass" dataDxfId="36"/>
+    <tableColumn id="5" xr3:uid="{7AAEBAA8-C99A-4F5A-88E3-88CB6960D4CA}" name="Section Type" dataDxfId="35"/>
+    <tableColumn id="6" xr3:uid="{B8C36499-3A13-4344-BAB0-D49EE58FE3E9}" name="Fabrication Type" dataDxfId="34"/>
+    <tableColumn id="7" xr3:uid="{A3848530-1431-48F2-A8A1-1A8E7187F0E4}" name="d" dataDxfId="33"/>
+    <tableColumn id="8" xr3:uid="{8180C5FB-397C-4385-9E2C-449435B22140}" name="t" dataDxfId="32"/>
+    <tableColumn id="9" xr3:uid="{721CCE1E-9271-453E-85A6-F1C3DE9BFA92}" name="d / t" dataDxfId="31"/>
+    <tableColumn id="10" xr3:uid="{DFEF7444-BB05-41F3-98A0-8E93565A79E0}" name="Ag" dataDxfId="30"/>
+    <tableColumn id="11" xr3:uid="{06548E9A-6BA5-4869-83BA-2B1ECD35C8FD}" name="I" dataDxfId="29"/>
+    <tableColumn id="12" xr3:uid="{04325DE9-C88D-4898-9081-69BD38E3F367}" name="Z" dataDxfId="28"/>
+    <tableColumn id="13" xr3:uid="{3357C355-9047-4ABB-AD18-D3E15B86E03B}" name="S" dataDxfId="27"/>
+    <tableColumn id="14" xr3:uid="{470CF4A9-89AA-474A-9533-AE8D1C11D912}" name="r" dataDxfId="26"/>
+    <tableColumn id="15" xr3:uid="{79889950-A6E3-4DDC-8073-3A8BC3FB6AD2}" name="J" dataDxfId="25"/>
+    <tableColumn id="16" xr3:uid="{73364D2E-305B-4F6C-B09F-DB78BE1F3A38}" name="C" dataDxfId="24"/>
+    <tableColumn id="17" xr3:uid="{0DA98F09-3F11-4D08-A6FC-AE92787F4FB2}" name="kf" dataDxfId="23"/>
+    <tableColumn id="18" xr3:uid="{716DC685-2BC9-475D-918F-7D51D96E5B00}" name="Compactness" dataDxfId="22"/>
+    <tableColumn id="19" xr3:uid="{1542DC57-D289-4280-A0B5-ED30B2199915}" name="Ze" dataDxfId="21"/>
+    <tableColumn id="20" xr3:uid="{3F052E38-FD56-42D0-85E3-1A2A4ED2525C}" name="fy" dataDxfId="20">
       <calculatedColumnFormula array="1">INDEX(tbllkpSteelGrades[fy],MATCH(1,(Table4[[#This Row],[Grade]]=tbllkpSteelGrades[Grade])*(Table4[[#This Row],[t]]&lt;=tbllkpSteelGrades[Thickness]),0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="21" xr3:uid="{B66015BF-7FDD-4B8C-9B06-5EBF43E6C1A4}" name="Vyield" dataDxfId="13">
+    <tableColumn id="21" xr3:uid="{B66015BF-7FDD-4B8C-9B06-5EBF43E6C1A4}" name="Vyield" dataDxfId="19">
       <calculatedColumnFormula>Table4[[#This Row],[fy]]*Table4[[#This Row],[Ag]]*0.36</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2879,9 +3020,9 @@
   <autoFilter ref="B2:E23" xr:uid="{20C0F86D-EAF6-4804-BF93-367A7A7E9E5D}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{AED8D1C4-A5D1-48D5-8362-BF93186F64D8}" name="Test Case"/>
-    <tableColumn id="2" xr3:uid="{2B7C6EA1-FA0A-491C-9FC4-9EDCAD101098}" name="fvm" dataDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{19C2EAB6-619C-48D8-BC1E-7CCB1AE1F9F5}" name="fva" dataDxfId="1"/>
-    <tableColumn id="4" xr3:uid="{17C3DBBC-E440-40B0-BD71-A39BC8D02B47}" name="αvma" dataDxfId="0">
+    <tableColumn id="2" xr3:uid="{2B7C6EA1-FA0A-491C-9FC4-9EDCAD101098}" name="fvm" dataDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{19C2EAB6-619C-48D8-BC1E-7CCB1AE1F9F5}" name="fva" dataDxfId="7"/>
+    <tableColumn id="4" xr3:uid="{17C3DBBC-E440-40B0-BD71-A39BC8D02B47}" name="αvma" dataDxfId="6">
       <calculatedColumnFormula>MIN(2/(0.9+(Table2[[#This Row],[fvm]]/Table2[[#This Row],[fva]])),1)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2893,10 +3034,10 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{FD922492-54C4-4564-A70A-4C52BDDF1798}" name="tbllkpSteelGrades" displayName="tbllkpSteelGrades" ref="B3:E16" totalsRowShown="0">
   <autoFilter ref="B3:E16" xr:uid="{3E6AE8C4-C748-4435-9220-6A582ED1C1D7}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{523DAE2A-27B2-4510-92AE-37C4C3C1762C}" name="Grade" dataDxfId="12"/>
-    <tableColumn id="2" xr3:uid="{9F87EDD2-D6FD-414D-8B88-062C86BD2D39}" name="Thickness" dataDxfId="11"/>
-    <tableColumn id="3" xr3:uid="{102B2EDD-89A2-45B5-8609-721075A59D6E}" name="fy" dataDxfId="10"/>
-    <tableColumn id="4" xr3:uid="{58E14996-58E6-4334-B475-B91075D2EE2F}" name="fu" dataDxfId="9"/>
+    <tableColumn id="1" xr3:uid="{523DAE2A-27B2-4510-92AE-37C4C3C1762C}" name="Grade" dataDxfId="18"/>
+    <tableColumn id="2" xr3:uid="{9F87EDD2-D6FD-414D-8B88-062C86BD2D39}" name="Thickness" dataDxfId="17"/>
+    <tableColumn id="3" xr3:uid="{102B2EDD-89A2-45B5-8609-721075A59D6E}" name="fy" dataDxfId="16"/>
+    <tableColumn id="4" xr3:uid="{58E14996-58E6-4334-B475-B91075D2EE2F}" name="fu" dataDxfId="15"/>
   </tableColumns>
   <tableStyleInfo name="tblIntegral" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3199,10 +3340,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B07B9FFD-D534-4711-893F-11708AF69116}">
-  <dimension ref="B2:AF132"/>
+  <dimension ref="B2:AL132"/>
   <sheetViews>
-    <sheetView topLeftCell="M1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AF3" sqref="AF3"/>
+    <sheetView tabSelected="1" topLeftCell="I55" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AH4" sqref="AH4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3224,13 +3365,19 @@
     <col min="25" max="25" width="7.85546875" bestFit="1" customWidth="1"/>
     <col min="26" max="27" width="13.42578125" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="27.85546875" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="10.85546875" customWidth="1"/>
+    <col min="30" max="30" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="17" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="12.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:32" ht="18" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:38" ht="18" x14ac:dyDescent="0.35">
       <c r="B2" s="1" t="s">
         <v>55</v>
       </c>
@@ -3312,20 +3459,38 @@
       <c r="AB2" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AC2" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="AD2" t="s">
         <v>53</v>
       </c>
-      <c r="AD2" t="s">
+      <c r="AE2" t="s">
         <v>58</v>
       </c>
-      <c r="AE2" t="s">
+      <c r="AF2" t="s">
         <v>254</v>
       </c>
-      <c r="AF2" s="34" t="s">
+      <c r="AG2" s="34" t="s">
         <v>253</v>
       </c>
+      <c r="AH2" t="s">
+        <v>286</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>283</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>282</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>284</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>285</v>
+      </c>
     </row>
-    <row r="3" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B3" s="14" t="str">
         <f>Table8[[#This Row],[Section]]&amp;"-"&amp;TEXT(Table8[[#This Row],[Grade]],"0")</f>
         <v>1200WB455-300</v>
@@ -3409,24 +3574,48 @@
         <f t="array" ref="AB3">INDEX(tbllkpSteelGrades[fy],MATCH(1,(Table8[[#This Row],[Grade]]=tbllkpSteelGrades[Grade])*(Table8[[#This Row],[tw]]&lt;=tbllkpSteelGrades[Thickness]),0))</f>
         <v>300000000</v>
       </c>
-      <c r="AC3" s="18">
+      <c r="AC3" s="17">
+        <f t="array" ref="AC3">INDEX(tbllkpSteelGrades[fu],MATCH(1,(Table8[[#This Row],[Grade]]=tbllkpSteelGrades[Grade])*(Table8[[#This Row],[tw]]&lt;=tbllkpSteelGrades[Thickness]),0))</f>
+        <v>430000000</v>
+      </c>
+      <c r="AD3" s="18">
         <f>IF(Table8[[#This Row],[Fabrication Type]]="Welded",Table8[[#This Row],[d1]],Table8[[#This Row],[d]])*Table8[[#This Row],[tw]]</f>
         <v>1.7919999999999998E-2</v>
       </c>
-      <c r="AD3" s="11">
+      <c r="AE3" s="11">
         <f>Table8[[#This Row],[Aw]]*Table8[[#This Row],[fy]]*0.6</f>
         <v>3225599.9999999995</v>
       </c>
-      <c r="AE3" s="35">
+      <c r="AF3" s="35">
         <f>82/SQRT(Table8[[#This Row],[fy]]/250000000)</f>
         <v>74.855416192372701</v>
       </c>
-      <c r="AF3" s="36">
+      <c r="AG3" s="36">
         <f>IF((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])&gt;Table8[[#This Row],[limiting web slenderness]],(82/((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])*SQRT(Table8[[#This Row],[fy]]/250000000)))^2,1)</f>
         <v>1</v>
       </c>
+      <c r="AH3" s="38">
+        <f>IF(Table8[[#This Row],[Fabrication Type]]="Welded",IF(Table8[[#This Row],[tw]]&gt;0.016,0.016*Table8[[#This Row],[fu]],Table8[[#This Row],[tw]]*Table8[[#This Row],[fu]]),"")</f>
+        <v>6880000</v>
+      </c>
+      <c r="AI3" s="13">
+        <f>Table8[[#This Row],[d]]-Table8[[#This Row],[tf]]</f>
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="AJ3" s="39">
+        <f>Table8[[#This Row],[bf]]*Table8[[#This Row],[tf]]*(Table8[[#This Row],[df]]/2)</f>
+        <v>1.1599999999999999E-2</v>
+      </c>
+      <c r="AK3" s="11">
+        <f>IF(Table8[[#This Row],[Fabrication Type]]="Welded",Table8[[#This Row],[vw]]*Table8[[#This Row],[Ix]]/Table8[[#This Row],[Qflange]],"")</f>
+        <v>9074482.7586206906</v>
+      </c>
+      <c r="AL3" s="11">
+        <f>Table8[[#This Row],[tw]]*Table8[[#This Row],[fy]]*0.6*Table8[[#This Row],[Ix]]/Table8[[#This Row],[Qflange]]</f>
+        <v>3798620.6896551726</v>
+      </c>
     </row>
-    <row r="4" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B4" s="14" t="str">
         <f>Table8[[#This Row],[Section]]&amp;"-"&amp;TEXT(Table8[[#This Row],[Grade]],"0")</f>
         <v>1200WB423-300</v>
@@ -3510,24 +3699,48 @@
         <f t="array" ref="AB4">INDEX(tbllkpSteelGrades[fy],MATCH(1,(Table8[[#This Row],[Grade]]=tbllkpSteelGrades[Grade])*(Table8[[#This Row],[tw]]&lt;=tbllkpSteelGrades[Thickness]),0))</f>
         <v>300000000</v>
       </c>
-      <c r="AC4" s="18">
+      <c r="AC4" s="17">
+        <f t="array" ref="AC4">INDEX(tbllkpSteelGrades[fu],MATCH(1,(Table8[[#This Row],[Grade]]=tbllkpSteelGrades[Grade])*(Table8[[#This Row],[tw]]&lt;=tbllkpSteelGrades[Thickness]),0))</f>
+        <v>430000000</v>
+      </c>
+      <c r="AD4" s="18">
         <f>IF(Table8[[#This Row],[Fabrication Type]]="Welded",Table8[[#This Row],[d1]],Table8[[#This Row],[d]])*Table8[[#This Row],[tw]]</f>
         <v>1.7919999999999998E-2</v>
       </c>
-      <c r="AD4" s="11">
+      <c r="AE4" s="11">
         <f>Table8[[#This Row],[Aw]]*Table8[[#This Row],[fy]]*0.6</f>
         <v>3225599.9999999995</v>
       </c>
-      <c r="AE4" s="35">
+      <c r="AF4" s="35">
         <f>82/SQRT(Table8[[#This Row],[fy]]/250000000)</f>
         <v>74.855416192372701</v>
       </c>
-      <c r="AF4" s="36">
+      <c r="AG4" s="36">
         <f>IF((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])&gt;Table8[[#This Row],[limiting web slenderness]],(82/((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])*SQRT(Table8[[#This Row],[fy]]/250000000)))^2,1)</f>
         <v>1</v>
       </c>
+      <c r="AH4" s="38">
+        <f>IF(Table8[[#This Row],[Fabrication Type]]="Welded",IF(Table8[[#This Row],[tw]]&gt;0.016,0.016*Table8[[#This Row],[fu]],Table8[[#This Row],[tw]]*Table8[[#This Row],[fu]]),"")</f>
+        <v>6880000</v>
+      </c>
+      <c r="AI4" s="13">
+        <f>Table8[[#This Row],[d]]-Table8[[#This Row],[tf]]</f>
+        <v>1.1559999999999999</v>
+      </c>
+      <c r="AJ4" s="39">
+        <f>Table8[[#This Row],[bf]]*Table8[[#This Row],[tf]]*(Table8[[#This Row],[df]]/2)</f>
+        <v>1.0403999999999998E-2</v>
+      </c>
+      <c r="AK4" s="11">
+        <f>IF(Table8[[#This Row],[Fabrication Type]]="Welded",Table8[[#This Row],[vw]]*Table8[[#This Row],[Ix]]/Table8[[#This Row],[Qflange]],"")</f>
+        <v>9191849.2887351029</v>
+      </c>
+      <c r="AL4" s="11">
+        <f>Table8[[#This Row],[tw]]*Table8[[#This Row],[fy]]*0.6*Table8[[#This Row],[Ix]]/Table8[[#This Row],[Qflange]]</f>
+        <v>3847750.8650519038</v>
+      </c>
     </row>
-    <row r="5" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B5" s="14" t="str">
         <f>Table8[[#This Row],[Section]]&amp;"-"&amp;TEXT(Table8[[#This Row],[Grade]],"0")</f>
         <v>1200WB392-300</v>
@@ -3611,24 +3824,48 @@
         <f t="array" ref="AB5">INDEX(tbllkpSteelGrades[fy],MATCH(1,(Table8[[#This Row],[Grade]]=tbllkpSteelGrades[Grade])*(Table8[[#This Row],[tw]]&lt;=tbllkpSteelGrades[Thickness]),0))</f>
         <v>300000000</v>
       </c>
-      <c r="AC5" s="18">
+      <c r="AC5" s="17">
+        <f t="array" ref="AC5">INDEX(tbllkpSteelGrades[fu],MATCH(1,(Table8[[#This Row],[Grade]]=tbllkpSteelGrades[Grade])*(Table8[[#This Row],[tw]]&lt;=tbllkpSteelGrades[Thickness]),0))</f>
+        <v>430000000</v>
+      </c>
+      <c r="AD5" s="18">
         <f>IF(Table8[[#This Row],[Fabrication Type]]="Welded",Table8[[#This Row],[d1]],Table8[[#This Row],[d]])*Table8[[#This Row],[tw]]</f>
         <v>1.7919999999999998E-2</v>
       </c>
-      <c r="AD5" s="11">
+      <c r="AE5" s="11">
         <f>Table8[[#This Row],[Aw]]*Table8[[#This Row],[fy]]*0.6</f>
         <v>3225599.9999999995</v>
       </c>
-      <c r="AE5" s="35">
+      <c r="AF5" s="35">
         <f>82/SQRT(Table8[[#This Row],[fy]]/250000000)</f>
         <v>74.855416192372701</v>
       </c>
-      <c r="AF5" s="36">
+      <c r="AG5" s="36">
         <f>IF((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])&gt;Table8[[#This Row],[limiting web slenderness]],(82/((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])*SQRT(Table8[[#This Row],[fy]]/250000000)))^2,1)</f>
         <v>1</v>
       </c>
+      <c r="AH5" s="38">
+        <f>IF(Table8[[#This Row],[Fabrication Type]]="Welded",IF(Table8[[#This Row],[tw]]&gt;0.016,0.016*Table8[[#This Row],[fu]],Table8[[#This Row],[tw]]*Table8[[#This Row],[fu]]),"")</f>
+        <v>6880000</v>
+      </c>
+      <c r="AI5" s="13">
+        <f>Table8[[#This Row],[d]]-Table8[[#This Row],[tf]]</f>
+        <v>1.1519999999999999</v>
+      </c>
+      <c r="AJ5" s="39">
+        <f>Table8[[#This Row],[bf]]*Table8[[#This Row],[tf]]*(Table8[[#This Row],[df]]/2)</f>
+        <v>9.2160000000000002E-3</v>
+      </c>
+      <c r="AK5" s="11">
+        <f>IF(Table8[[#This Row],[Fabrication Type]]="Welded",Table8[[#This Row],[vw]]*Table8[[#This Row],[Ix]]/Table8[[#This Row],[Qflange]],"")</f>
+        <v>9331597.222222222</v>
+      </c>
+      <c r="AL5" s="11">
+        <f>Table8[[#This Row],[tw]]*Table8[[#This Row],[fy]]*0.6*Table8[[#This Row],[Ix]]/Table8[[#This Row],[Qflange]]</f>
+        <v>3906250</v>
+      </c>
     </row>
-    <row r="6" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B6" s="14" t="str">
         <f>Table8[[#This Row],[Section]]&amp;"-"&amp;TEXT(Table8[[#This Row],[Grade]],"0")</f>
         <v>1200WB342-300</v>
@@ -3712,24 +3949,48 @@
         <f t="array" ref="AB6">INDEX(tbllkpSteelGrades[fy],MATCH(1,(Table8[[#This Row],[Grade]]=tbllkpSteelGrades[Grade])*(Table8[[#This Row],[tw]]&lt;=tbllkpSteelGrades[Thickness]),0))</f>
         <v>300000000</v>
       </c>
-      <c r="AC6" s="18">
+      <c r="AC6" s="17">
+        <f t="array" ref="AC6">INDEX(tbllkpSteelGrades[fu],MATCH(1,(Table8[[#This Row],[Grade]]=tbllkpSteelGrades[Grade])*(Table8[[#This Row],[tw]]&lt;=tbllkpSteelGrades[Thickness]),0))</f>
+        <v>430000000</v>
+      </c>
+      <c r="AD6" s="18">
         <f>IF(Table8[[#This Row],[Fabrication Type]]="Welded",Table8[[#This Row],[d1]],Table8[[#This Row],[d]])*Table8[[#This Row],[tw]]</f>
         <v>1.7919999999999998E-2</v>
       </c>
-      <c r="AD6" s="11">
+      <c r="AE6" s="11">
         <f>Table8[[#This Row],[Aw]]*Table8[[#This Row],[fy]]*0.6</f>
         <v>3225599.9999999995</v>
       </c>
-      <c r="AE6" s="35">
+      <c r="AF6" s="35">
         <f>82/SQRT(Table8[[#This Row],[fy]]/250000000)</f>
         <v>74.855416192372701</v>
       </c>
-      <c r="AF6" s="36">
+      <c r="AG6" s="36">
         <f>IF((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])&gt;Table8[[#This Row],[limiting web slenderness]],(82/((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])*SQRT(Table8[[#This Row],[fy]]/250000000)))^2,1)</f>
         <v>1</v>
       </c>
+      <c r="AH6" s="38">
+        <f>IF(Table8[[#This Row],[Fabrication Type]]="Welded",IF(Table8[[#This Row],[tw]]&gt;0.016,0.016*Table8[[#This Row],[fu]],Table8[[#This Row],[tw]]*Table8[[#This Row],[fu]]),"")</f>
+        <v>6880000</v>
+      </c>
+      <c r="AI6" s="13">
+        <f>Table8[[#This Row],[d]]-Table8[[#This Row],[tf]]</f>
+        <v>1.1519999999999999</v>
+      </c>
+      <c r="AJ6" s="39">
+        <f>Table8[[#This Row],[bf]]*Table8[[#This Row],[tf]]*(Table8[[#This Row],[df]]/2)</f>
+        <v>7.3727999999999997E-3</v>
+      </c>
+      <c r="AK6" s="11">
+        <f>IF(Table8[[#This Row],[Fabrication Type]]="Welded",Table8[[#This Row],[vw]]*Table8[[#This Row],[Ix]]/Table8[[#This Row],[Qflange]],"")</f>
+        <v>9704861.1111111119</v>
+      </c>
+      <c r="AL6" s="11">
+        <f>Table8[[#This Row],[tw]]*Table8[[#This Row],[fy]]*0.6*Table8[[#This Row],[Ix]]/Table8[[#This Row],[Qflange]]</f>
+        <v>4062500</v>
+      </c>
     </row>
-    <row r="7" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B7" s="14" t="str">
         <f>Table8[[#This Row],[Section]]&amp;"-"&amp;TEXT(Table8[[#This Row],[Grade]],"0")</f>
         <v>1200WB317-300</v>
@@ -3813,24 +4074,48 @@
         <f t="array" ref="AB7">INDEX(tbllkpSteelGrades[fy],MATCH(1,(Table8[[#This Row],[Grade]]=tbllkpSteelGrades[Grade])*(Table8[[#This Row],[tw]]&lt;=tbllkpSteelGrades[Thickness]),0))</f>
         <v>300000000</v>
       </c>
-      <c r="AC7" s="18">
+      <c r="AC7" s="17">
+        <f t="array" ref="AC7">INDEX(tbllkpSteelGrades[fu],MATCH(1,(Table8[[#This Row],[Grade]]=tbllkpSteelGrades[Grade])*(Table8[[#This Row],[tw]]&lt;=tbllkpSteelGrades[Thickness]),0))</f>
+        <v>430000000</v>
+      </c>
+      <c r="AD7" s="18">
         <f>IF(Table8[[#This Row],[Fabrication Type]]="Welded",Table8[[#This Row],[d1]],Table8[[#This Row],[d]])*Table8[[#This Row],[tw]]</f>
         <v>1.7919999999999998E-2</v>
       </c>
-      <c r="AD7" s="11">
+      <c r="AE7" s="11">
         <f>Table8[[#This Row],[Aw]]*Table8[[#This Row],[fy]]*0.6</f>
         <v>3225599.9999999995</v>
       </c>
-      <c r="AE7" s="35">
+      <c r="AF7" s="35">
         <f>82/SQRT(Table8[[#This Row],[fy]]/250000000)</f>
         <v>74.855416192372701</v>
       </c>
-      <c r="AF7" s="36">
+      <c r="AG7" s="36">
         <f>IF((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])&gt;Table8[[#This Row],[limiting web slenderness]],(82/((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])*SQRT(Table8[[#This Row],[fy]]/250000000)))^2,1)</f>
         <v>1</v>
       </c>
+      <c r="AH7" s="38">
+        <f>IF(Table8[[#This Row],[Fabrication Type]]="Welded",IF(Table8[[#This Row],[tw]]&gt;0.016,0.016*Table8[[#This Row],[fu]],Table8[[#This Row],[tw]]*Table8[[#This Row],[fu]]),"")</f>
+        <v>6880000</v>
+      </c>
+      <c r="AI7" s="13">
+        <f>Table8[[#This Row],[d]]-Table8[[#This Row],[tf]]</f>
+        <v>1.1479999999999999</v>
+      </c>
+      <c r="AJ7" s="39">
+        <f>Table8[[#This Row],[bf]]*Table8[[#This Row],[tf]]*(Table8[[#This Row],[df]]/2)</f>
+        <v>6.4288000000000001E-3</v>
+      </c>
+      <c r="AK7" s="11">
+        <f>IF(Table8[[#This Row],[Fabrication Type]]="Welded",Table8[[#This Row],[vw]]*Table8[[#This Row],[Ix]]/Table8[[#This Row],[Qflange]],"")</f>
+        <v>9899203.5838725735</v>
+      </c>
+      <c r="AL7" s="11">
+        <f>Table8[[#This Row],[tw]]*Table8[[#This Row],[fy]]*0.6*Table8[[#This Row],[Ix]]/Table8[[#This Row],[Qflange]]</f>
+        <v>4143852.6630164259</v>
+      </c>
     </row>
-    <row r="8" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="str">
         <f>Table8[[#This Row],[Section]]&amp;"-"&amp;TEXT(Table8[[#This Row],[Grade]],"0")</f>
         <v>1200WB278-300</v>
@@ -3914,24 +4199,48 @@
         <f t="array" ref="AB8">INDEX(tbllkpSteelGrades[fy],MATCH(1,(Table8[[#This Row],[Grade]]=tbllkpSteelGrades[Grade])*(Table8[[#This Row],[tw]]&lt;=tbllkpSteelGrades[Thickness]),0))</f>
         <v>300000000</v>
       </c>
-      <c r="AC8" s="18">
+      <c r="AC8" s="17">
+        <f t="array" ref="AC8">INDEX(tbllkpSteelGrades[fu],MATCH(1,(Table8[[#This Row],[Grade]]=tbllkpSteelGrades[Grade])*(Table8[[#This Row],[tw]]&lt;=tbllkpSteelGrades[Thickness]),0))</f>
+        <v>430000000</v>
+      </c>
+      <c r="AD8" s="18">
         <f>IF(Table8[[#This Row],[Fabrication Type]]="Welded",Table8[[#This Row],[d1]],Table8[[#This Row],[d]])*Table8[[#This Row],[tw]]</f>
         <v>1.7919999999999998E-2</v>
       </c>
-      <c r="AD8" s="11">
+      <c r="AE8" s="11">
         <f>Table8[[#This Row],[Aw]]*Table8[[#This Row],[fy]]*0.6</f>
         <v>3225599.9999999995</v>
       </c>
-      <c r="AE8" s="35">
+      <c r="AF8" s="35">
         <f>82/SQRT(Table8[[#This Row],[fy]]/250000000)</f>
         <v>74.855416192372701</v>
       </c>
-      <c r="AF8" s="36">
+      <c r="AG8" s="36">
         <f>IF((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])&gt;Table8[[#This Row],[limiting web slenderness]],(82/((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])*SQRT(Table8[[#This Row],[fy]]/250000000)))^2,1)</f>
         <v>1</v>
       </c>
+      <c r="AH8" s="38">
+        <f>IF(Table8[[#This Row],[Fabrication Type]]="Welded",IF(Table8[[#This Row],[tw]]&gt;0.016,0.016*Table8[[#This Row],[fu]],Table8[[#This Row],[tw]]*Table8[[#This Row],[fu]]),"")</f>
+        <v>6880000</v>
+      </c>
+      <c r="AI8" s="13">
+        <f>Table8[[#This Row],[d]]-Table8[[#This Row],[tf]]</f>
+        <v>1.145</v>
+      </c>
+      <c r="AJ8" s="39">
+        <f>Table8[[#This Row],[bf]]*Table8[[#This Row],[tf]]*(Table8[[#This Row],[df]]/2)</f>
+        <v>5.0093749999999999E-3</v>
+      </c>
+      <c r="AK8" s="11">
+        <f>IF(Table8[[#This Row],[Fabrication Type]]="Welded",Table8[[#This Row],[vw]]*Table8[[#This Row],[Ix]]/Table8[[#This Row],[Qflange]],"")</f>
+        <v>10451762.9444791</v>
+      </c>
+      <c r="AL8" s="11">
+        <f>Table8[[#This Row],[tw]]*Table8[[#This Row],[fy]]*0.6*Table8[[#This Row],[Ix]]/Table8[[#This Row],[Qflange]]</f>
+        <v>4375156.5814098567</v>
+      </c>
     </row>
-    <row r="9" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B9" s="14" t="str">
         <f>Table8[[#This Row],[Section]]&amp;"-"&amp;TEXT(Table8[[#This Row],[Grade]],"0")</f>
         <v>1200WB249-300</v>
@@ -4015,24 +4324,48 @@
         <f t="array" ref="AB9">INDEX(tbllkpSteelGrades[fy],MATCH(1,(Table8[[#This Row],[Grade]]=tbllkpSteelGrades[Grade])*(Table8[[#This Row],[tw]]&lt;=tbllkpSteelGrades[Thickness]),0))</f>
         <v>300000000</v>
       </c>
-      <c r="AC9" s="18">
+      <c r="AC9" s="17">
+        <f t="array" ref="AC9">INDEX(tbllkpSteelGrades[fu],MATCH(1,(Table8[[#This Row],[Grade]]=tbllkpSteelGrades[Grade])*(Table8[[#This Row],[tw]]&lt;=tbllkpSteelGrades[Thickness]),0))</f>
+        <v>430000000</v>
+      </c>
+      <c r="AD9" s="18">
         <f>IF(Table8[[#This Row],[Fabrication Type]]="Welded",Table8[[#This Row],[d1]],Table8[[#This Row],[d]])*Table8[[#This Row],[tw]]</f>
         <v>1.7919999999999998E-2</v>
       </c>
-      <c r="AD9" s="11">
+      <c r="AE9" s="11">
         <f>Table8[[#This Row],[Aw]]*Table8[[#This Row],[fy]]*0.6</f>
         <v>3225599.9999999995</v>
       </c>
-      <c r="AE9" s="35">
+      <c r="AF9" s="35">
         <f>82/SQRT(Table8[[#This Row],[fy]]/250000000)</f>
         <v>74.855416192372701</v>
       </c>
-      <c r="AF9" s="36">
+      <c r="AG9" s="36">
         <f>IF((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])&gt;Table8[[#This Row],[limiting web slenderness]],(82/((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])*SQRT(Table8[[#This Row],[fy]]/250000000)))^2,1)</f>
         <v>1</v>
       </c>
+      <c r="AH9" s="38">
+        <f>IF(Table8[[#This Row],[Fabrication Type]]="Welded",IF(Table8[[#This Row],[tw]]&gt;0.016,0.016*Table8[[#This Row],[fu]],Table8[[#This Row],[tw]]*Table8[[#This Row],[fu]]),"")</f>
+        <v>6880000</v>
+      </c>
+      <c r="AI9" s="13">
+        <f>Table8[[#This Row],[d]]-Table8[[#This Row],[tf]]</f>
+        <v>1.145</v>
+      </c>
+      <c r="AJ9" s="39">
+        <f>Table8[[#This Row],[bf]]*Table8[[#This Row],[tf]]*(Table8[[#This Row],[df]]/2)</f>
+        <v>3.9359375000000002E-3</v>
+      </c>
+      <c r="AK9" s="11">
+        <f>IF(Table8[[#This Row],[Fabrication Type]]="Welded",Table8[[#This Row],[vw]]*Table8[[#This Row],[Ix]]/Table8[[#This Row],[Qflange]],"")</f>
+        <v>11152209.606986899</v>
+      </c>
+      <c r="AL9" s="11">
+        <f>Table8[[#This Row],[tw]]*Table8[[#This Row],[fy]]*0.6*Table8[[#This Row],[Ix]]/Table8[[#This Row],[Qflange]]</f>
+        <v>4668366.8122270741</v>
+      </c>
     </row>
-    <row r="10" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B10" s="14" t="str">
         <f>Table8[[#This Row],[Section]]&amp;"-"&amp;TEXT(Table8[[#This Row],[Grade]],"0")</f>
         <v>1000WB322-300</v>
@@ -4116,24 +4449,48 @@
         <f t="array" ref="AB10">INDEX(tbllkpSteelGrades[fy],MATCH(1,(Table8[[#This Row],[Grade]]=tbllkpSteelGrades[Grade])*(Table8[[#This Row],[tw]]&lt;=tbllkpSteelGrades[Thickness]),0))</f>
         <v>300000000</v>
       </c>
-      <c r="AC10" s="18">
+      <c r="AC10" s="17">
+        <f t="array" ref="AC10">INDEX(tbllkpSteelGrades[fu],MATCH(1,(Table8[[#This Row],[Grade]]=tbllkpSteelGrades[Grade])*(Table8[[#This Row],[tw]]&lt;=tbllkpSteelGrades[Thickness]),0))</f>
+        <v>430000000</v>
+      </c>
+      <c r="AD10" s="18">
         <f>IF(Table8[[#This Row],[Fabrication Type]]="Welded",Table8[[#This Row],[d1]],Table8[[#This Row],[d]])*Table8[[#This Row],[tw]]</f>
         <v>1.536E-2</v>
       </c>
-      <c r="AD10" s="11">
+      <c r="AE10" s="11">
         <f>Table8[[#This Row],[Aw]]*Table8[[#This Row],[fy]]*0.6</f>
         <v>2764800</v>
       </c>
-      <c r="AE10" s="35">
+      <c r="AF10" s="35">
         <f>82/SQRT(Table8[[#This Row],[fy]]/250000000)</f>
         <v>74.855416192372701</v>
       </c>
-      <c r="AF10" s="36">
+      <c r="AG10" s="36">
         <f>IF((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])&gt;Table8[[#This Row],[limiting web slenderness]],(82/((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])*SQRT(Table8[[#This Row],[fy]]/250000000)))^2,1)</f>
         <v>1</v>
       </c>
+      <c r="AH10" s="38">
+        <f>IF(Table8[[#This Row],[Fabrication Type]]="Welded",IF(Table8[[#This Row],[tw]]&gt;0.016,0.016*Table8[[#This Row],[fu]],Table8[[#This Row],[tw]]*Table8[[#This Row],[fu]]),"")</f>
+        <v>6880000</v>
+      </c>
+      <c r="AI10" s="13">
+        <f>Table8[[#This Row],[d]]-Table8[[#This Row],[tf]]</f>
+        <v>0.99199999999999999</v>
+      </c>
+      <c r="AJ10" s="39">
+        <f>Table8[[#This Row],[bf]]*Table8[[#This Row],[tf]]*(Table8[[#This Row],[df]]/2)</f>
+        <v>6.3487999999999999E-3</v>
+      </c>
+      <c r="AK10" s="11">
+        <f>IF(Table8[[#This Row],[Fabrication Type]]="Welded",Table8[[#This Row],[vw]]*Table8[[#This Row],[Ix]]/Table8[[#This Row],[Qflange]],"")</f>
+        <v>8105846.7741935477</v>
+      </c>
+      <c r="AL10" s="11">
+        <f>Table8[[#This Row],[tw]]*Table8[[#This Row],[fy]]*0.6*Table8[[#This Row],[Ix]]/Table8[[#This Row],[Qflange]]</f>
+        <v>3393145.1612903224</v>
+      </c>
     </row>
-    <row r="11" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B11" s="14" t="str">
         <f>Table8[[#This Row],[Section]]&amp;"-"&amp;TEXT(Table8[[#This Row],[Grade]],"0")</f>
         <v>1000WB296-300</v>
@@ -4217,24 +4574,48 @@
         <f t="array" ref="AB11">INDEX(tbllkpSteelGrades[fy],MATCH(1,(Table8[[#This Row],[Grade]]=tbllkpSteelGrades[Grade])*(Table8[[#This Row],[tw]]&lt;=tbllkpSteelGrades[Thickness]),0))</f>
         <v>300000000</v>
       </c>
-      <c r="AC11" s="18">
+      <c r="AC11" s="17">
+        <f t="array" ref="AC11">INDEX(tbllkpSteelGrades[fu],MATCH(1,(Table8[[#This Row],[Grade]]=tbllkpSteelGrades[Grade])*(Table8[[#This Row],[tw]]&lt;=tbllkpSteelGrades[Thickness]),0))</f>
+        <v>430000000</v>
+      </c>
+      <c r="AD11" s="18">
         <f>IF(Table8[[#This Row],[Fabrication Type]]="Welded",Table8[[#This Row],[d1]],Table8[[#This Row],[d]])*Table8[[#This Row],[tw]]</f>
         <v>1.536E-2</v>
       </c>
-      <c r="AD11" s="11">
+      <c r="AE11" s="11">
         <f>Table8[[#This Row],[Aw]]*Table8[[#This Row],[fy]]*0.6</f>
         <v>2764800</v>
       </c>
-      <c r="AE11" s="35">
+      <c r="AF11" s="35">
         <f>82/SQRT(Table8[[#This Row],[fy]]/250000000)</f>
         <v>74.855416192372701</v>
       </c>
-      <c r="AF11" s="36">
+      <c r="AG11" s="36">
         <f>IF((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])&gt;Table8[[#This Row],[limiting web slenderness]],(82/((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])*SQRT(Table8[[#This Row],[fy]]/250000000)))^2,1)</f>
         <v>1</v>
       </c>
+      <c r="AH11" s="38">
+        <f>IF(Table8[[#This Row],[Fabrication Type]]="Welded",IF(Table8[[#This Row],[tw]]&gt;0.016,0.016*Table8[[#This Row],[fu]],Table8[[#This Row],[tw]]*Table8[[#This Row],[fu]]),"")</f>
+        <v>6880000</v>
+      </c>
+      <c r="AI11" s="13">
+        <f>Table8[[#This Row],[d]]-Table8[[#This Row],[tf]]</f>
+        <v>0.98799999999999999</v>
+      </c>
+      <c r="AJ11" s="39">
+        <f>Table8[[#This Row],[bf]]*Table8[[#This Row],[tf]]*(Table8[[#This Row],[df]]/2)</f>
+        <v>5.5328000000000009E-3</v>
+      </c>
+      <c r="AK11" s="11">
+        <f>IF(Table8[[#This Row],[Fabrication Type]]="Welded",Table8[[#This Row],[vw]]*Table8[[#This Row],[Ix]]/Table8[[#This Row],[Qflange]],"")</f>
+        <v>8269230.7692307681</v>
+      </c>
+      <c r="AL11" s="11">
+        <f>Table8[[#This Row],[tw]]*Table8[[#This Row],[fy]]*0.6*Table8[[#This Row],[Ix]]/Table8[[#This Row],[Qflange]]</f>
+        <v>3461538.461538461</v>
+      </c>
     </row>
-    <row r="12" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B12" s="14" t="str">
         <f>Table8[[#This Row],[Section]]&amp;"-"&amp;TEXT(Table8[[#This Row],[Grade]],"0")</f>
         <v>1000WB258-300</v>
@@ -4318,24 +4699,48 @@
         <f t="array" ref="AB12">INDEX(tbllkpSteelGrades[fy],MATCH(1,(Table8[[#This Row],[Grade]]=tbllkpSteelGrades[Grade])*(Table8[[#This Row],[tw]]&lt;=tbllkpSteelGrades[Thickness]),0))</f>
         <v>300000000</v>
       </c>
-      <c r="AC12" s="18">
+      <c r="AC12" s="17">
+        <f t="array" ref="AC12">INDEX(tbllkpSteelGrades[fu],MATCH(1,(Table8[[#This Row],[Grade]]=tbllkpSteelGrades[Grade])*(Table8[[#This Row],[tw]]&lt;=tbllkpSteelGrades[Thickness]),0))</f>
+        <v>430000000</v>
+      </c>
+      <c r="AD12" s="18">
         <f>IF(Table8[[#This Row],[Fabrication Type]]="Welded",Table8[[#This Row],[d1]],Table8[[#This Row],[d]])*Table8[[#This Row],[tw]]</f>
         <v>1.536E-2</v>
       </c>
-      <c r="AD12" s="11">
+      <c r="AE12" s="11">
         <f>Table8[[#This Row],[Aw]]*Table8[[#This Row],[fy]]*0.6</f>
         <v>2764800</v>
       </c>
-      <c r="AE12" s="35">
+      <c r="AF12" s="35">
         <f>82/SQRT(Table8[[#This Row],[fy]]/250000000)</f>
         <v>74.855416192372701</v>
       </c>
-      <c r="AF12" s="36">
+      <c r="AG12" s="36">
         <f>IF((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])&gt;Table8[[#This Row],[limiting web slenderness]],(82/((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])*SQRT(Table8[[#This Row],[fy]]/250000000)))^2,1)</f>
         <v>1</v>
       </c>
+      <c r="AH12" s="38">
+        <f>IF(Table8[[#This Row],[Fabrication Type]]="Welded",IF(Table8[[#This Row],[tw]]&gt;0.016,0.016*Table8[[#This Row],[fu]],Table8[[#This Row],[tw]]*Table8[[#This Row],[fu]]),"")</f>
+        <v>6880000</v>
+      </c>
+      <c r="AI12" s="13">
+        <f>Table8[[#This Row],[d]]-Table8[[#This Row],[tf]]</f>
+        <v>0.98499999999999999</v>
+      </c>
+      <c r="AJ12" s="39">
+        <f>Table8[[#This Row],[bf]]*Table8[[#This Row],[tf]]*(Table8[[#This Row],[df]]/2)</f>
+        <v>4.3093749999999998E-3</v>
+      </c>
+      <c r="AK12" s="11">
+        <f>IF(Table8[[#This Row],[Fabrication Type]]="Welded",Table8[[#This Row],[vw]]*Table8[[#This Row],[Ix]]/Table8[[#This Row],[Qflange]],"")</f>
+        <v>8669099.3473531548</v>
+      </c>
+      <c r="AL12" s="11">
+        <f>Table8[[#This Row],[tw]]*Table8[[#This Row],[fy]]*0.6*Table8[[#This Row],[Ix]]/Table8[[#This Row],[Qflange]]</f>
+        <v>3628925.3081943439</v>
+      </c>
     </row>
-    <row r="13" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B13" s="14" t="str">
         <f>Table8[[#This Row],[Section]]&amp;"-"&amp;TEXT(Table8[[#This Row],[Grade]],"0")</f>
         <v>1000WB215-300</v>
@@ -4419,24 +4824,48 @@
         <f t="array" ref="AB13">INDEX(tbllkpSteelGrades[fy],MATCH(1,(Table8[[#This Row],[Grade]]=tbllkpSteelGrades[Grade])*(Table8[[#This Row],[tw]]&lt;=tbllkpSteelGrades[Thickness]),0))</f>
         <v>300000000</v>
       </c>
-      <c r="AC13" s="18">
+      <c r="AC13" s="17">
+        <f t="array" ref="AC13">INDEX(tbllkpSteelGrades[fu],MATCH(1,(Table8[[#This Row],[Grade]]=tbllkpSteelGrades[Grade])*(Table8[[#This Row],[tw]]&lt;=tbllkpSteelGrades[Thickness]),0))</f>
+        <v>430000000</v>
+      </c>
+      <c r="AD13" s="18">
         <f>IF(Table8[[#This Row],[Fabrication Type]]="Welded",Table8[[#This Row],[d1]],Table8[[#This Row],[d]])*Table8[[#This Row],[tw]]</f>
         <v>1.536E-2</v>
       </c>
-      <c r="AD13" s="11">
+      <c r="AE13" s="11">
         <f>Table8[[#This Row],[Aw]]*Table8[[#This Row],[fy]]*0.6</f>
         <v>2764800</v>
       </c>
-      <c r="AE13" s="35">
+      <c r="AF13" s="35">
         <f>82/SQRT(Table8[[#This Row],[fy]]/250000000)</f>
         <v>74.855416192372701</v>
       </c>
-      <c r="AF13" s="36">
+      <c r="AG13" s="36">
         <f>IF((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])&gt;Table8[[#This Row],[limiting web slenderness]],(82/((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])*SQRT(Table8[[#This Row],[fy]]/250000000)))^2,1)</f>
         <v>1</v>
       </c>
+      <c r="AH13" s="38">
+        <f>IF(Table8[[#This Row],[Fabrication Type]]="Welded",IF(Table8[[#This Row],[tw]]&gt;0.016,0.016*Table8[[#This Row],[fu]],Table8[[#This Row],[tw]]*Table8[[#This Row],[fu]]),"")</f>
+        <v>6880000</v>
+      </c>
+      <c r="AI13" s="13">
+        <f>Table8[[#This Row],[d]]-Table8[[#This Row],[tf]]</f>
+        <v>0.98</v>
+      </c>
+      <c r="AJ13" s="39">
+        <f>Table8[[#This Row],[bf]]*Table8[[#This Row],[tf]]*(Table8[[#This Row],[df]]/2)</f>
+        <v>2.9399999999999999E-3</v>
+      </c>
+      <c r="AK13" s="11">
+        <f>IF(Table8[[#This Row],[Fabrication Type]]="Welded",Table8[[#This Row],[vw]]*Table8[[#This Row],[Ix]]/Table8[[#This Row],[Qflange]],"")</f>
+        <v>9500952.3809523825</v>
+      </c>
+      <c r="AL13" s="11">
+        <f>Table8[[#This Row],[tw]]*Table8[[#This Row],[fy]]*0.6*Table8[[#This Row],[Ix]]/Table8[[#This Row],[Qflange]]</f>
+        <v>3977142.8571428577</v>
+      </c>
     </row>
-    <row r="14" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B14" s="14" t="str">
         <f>Table8[[#This Row],[Section]]&amp;"-"&amp;TEXT(Table8[[#This Row],[Grade]],"0")</f>
         <v>900WB282-300</v>
@@ -4520,24 +4949,48 @@
         <f t="array" ref="AB14">INDEX(tbllkpSteelGrades[fy],MATCH(1,(Table8[[#This Row],[Grade]]=tbllkpSteelGrades[Grade])*(Table8[[#This Row],[tw]]&lt;=tbllkpSteelGrades[Thickness]),0))</f>
         <v>310000000</v>
       </c>
-      <c r="AC14" s="18">
+      <c r="AC14" s="17">
+        <f t="array" ref="AC14">INDEX(tbllkpSteelGrades[fu],MATCH(1,(Table8[[#This Row],[Grade]]=tbllkpSteelGrades[Grade])*(Table8[[#This Row],[tw]]&lt;=tbllkpSteelGrades[Thickness]),0))</f>
+        <v>430000000</v>
+      </c>
+      <c r="AD14" s="18">
         <f>IF(Table8[[#This Row],[Fabrication Type]]="Welded",Table8[[#This Row],[d1]],Table8[[#This Row],[d]])*Table8[[#This Row],[tw]]</f>
         <v>1.0320000000000001E-2</v>
       </c>
-      <c r="AD14" s="11">
+      <c r="AE14" s="11">
         <f>Table8[[#This Row],[Aw]]*Table8[[#This Row],[fy]]*0.6</f>
         <v>1919520.0000000002</v>
       </c>
-      <c r="AE14" s="35">
+      <c r="AF14" s="35">
         <f>82/SQRT(Table8[[#This Row],[fy]]/250000000)</f>
         <v>73.638173830977706</v>
       </c>
-      <c r="AF14" s="36">
+      <c r="AG14" s="36">
         <f>IF((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])&gt;Table8[[#This Row],[limiting web slenderness]],(82/((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])*SQRT(Table8[[#This Row],[fy]]/250000000)))^2,1)</f>
         <v>1</v>
       </c>
+      <c r="AH14" s="38">
+        <f>IF(Table8[[#This Row],[Fabrication Type]]="Welded",IF(Table8[[#This Row],[tw]]&gt;0.016,0.016*Table8[[#This Row],[fu]],Table8[[#This Row],[tw]]*Table8[[#This Row],[fu]]),"")</f>
+        <v>5160000</v>
+      </c>
+      <c r="AI14" s="13">
+        <f>Table8[[#This Row],[d]]-Table8[[#This Row],[tf]]</f>
+        <v>0.89200000000000002</v>
+      </c>
+      <c r="AJ14" s="39">
+        <f>Table8[[#This Row],[bf]]*Table8[[#This Row],[tf]]*(Table8[[#This Row],[df]]/2)</f>
+        <v>5.7088E-3</v>
+      </c>
+      <c r="AK14" s="11">
+        <f>IF(Table8[[#This Row],[Fabrication Type]]="Welded",Table8[[#This Row],[vw]]*Table8[[#This Row],[Ix]]/Table8[[#This Row],[Qflange]],"")</f>
+        <v>5179161.9955156948</v>
+      </c>
+      <c r="AL14" s="11">
+        <f>Table8[[#This Row],[tw]]*Table8[[#This Row],[fy]]*0.6*Table8[[#This Row],[Ix]]/Table8[[#This Row],[Qflange]]</f>
+        <v>2240288.6771300444</v>
+      </c>
     </row>
-    <row r="15" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B15" s="14" t="str">
         <f>Table8[[#This Row],[Section]]&amp;"-"&amp;TEXT(Table8[[#This Row],[Grade]],"0")</f>
         <v>900WB257-300</v>
@@ -4621,24 +5074,48 @@
         <f t="array" ref="AB15">INDEX(tbllkpSteelGrades[fy],MATCH(1,(Table8[[#This Row],[Grade]]=tbllkpSteelGrades[Grade])*(Table8[[#This Row],[tw]]&lt;=tbllkpSteelGrades[Thickness]),0))</f>
         <v>310000000</v>
       </c>
-      <c r="AC15" s="18">
+      <c r="AC15" s="17">
+        <f t="array" ref="AC15">INDEX(tbllkpSteelGrades[fu],MATCH(1,(Table8[[#This Row],[Grade]]=tbllkpSteelGrades[Grade])*(Table8[[#This Row],[tw]]&lt;=tbllkpSteelGrades[Thickness]),0))</f>
+        <v>430000000</v>
+      </c>
+      <c r="AD15" s="18">
         <f>IF(Table8[[#This Row],[Fabrication Type]]="Welded",Table8[[#This Row],[d1]],Table8[[#This Row],[d]])*Table8[[#This Row],[tw]]</f>
         <v>1.0319999999999999E-2</v>
       </c>
-      <c r="AD15" s="11">
+      <c r="AE15" s="11">
         <f>Table8[[#This Row],[Aw]]*Table8[[#This Row],[fy]]*0.6</f>
         <v>1919520</v>
       </c>
-      <c r="AE15" s="35">
+      <c r="AF15" s="35">
         <f>82/SQRT(Table8[[#This Row],[fy]]/250000000)</f>
         <v>73.638173830977706</v>
       </c>
-      <c r="AF15" s="36">
+      <c r="AG15" s="36">
         <f>IF((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])&gt;Table8[[#This Row],[limiting web slenderness]],(82/((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])*SQRT(Table8[[#This Row],[fy]]/250000000)))^2,1)</f>
         <v>1</v>
       </c>
+      <c r="AH15" s="38">
+        <f>IF(Table8[[#This Row],[Fabrication Type]]="Welded",IF(Table8[[#This Row],[tw]]&gt;0.016,0.016*Table8[[#This Row],[fu]],Table8[[#This Row],[tw]]*Table8[[#This Row],[fu]]),"")</f>
+        <v>5160000</v>
+      </c>
+      <c r="AI15" s="13">
+        <f>Table8[[#This Row],[d]]-Table8[[#This Row],[tf]]</f>
+        <v>0.88800000000000001</v>
+      </c>
+      <c r="AJ15" s="39">
+        <f>Table8[[#This Row],[bf]]*Table8[[#This Row],[tf]]*(Table8[[#This Row],[df]]/2)</f>
+        <v>4.9728000000000012E-3</v>
+      </c>
+      <c r="AK15" s="11">
+        <f>IF(Table8[[#This Row],[Fabrication Type]]="Welded",Table8[[#This Row],[vw]]*Table8[[#This Row],[Ix]]/Table8[[#This Row],[Qflange]],"")</f>
+        <v>5240106.1776061766</v>
+      </c>
+      <c r="AL15" s="11">
+        <f>Table8[[#This Row],[tw]]*Table8[[#This Row],[fy]]*0.6*Table8[[#This Row],[Ix]]/Table8[[#This Row],[Qflange]]</f>
+        <v>2266650.5791505785</v>
+      </c>
     </row>
-    <row r="16" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B16" s="14" t="str">
         <f>Table8[[#This Row],[Section]]&amp;"-"&amp;TEXT(Table8[[#This Row],[Grade]],"0")</f>
         <v>900WB218-300</v>
@@ -4722,24 +5199,48 @@
         <f t="array" ref="AB16">INDEX(tbllkpSteelGrades[fy],MATCH(1,(Table8[[#This Row],[Grade]]=tbllkpSteelGrades[Grade])*(Table8[[#This Row],[tw]]&lt;=tbllkpSteelGrades[Thickness]),0))</f>
         <v>310000000</v>
       </c>
-      <c r="AC16" s="18">
+      <c r="AC16" s="17">
+        <f t="array" ref="AC16">INDEX(tbllkpSteelGrades[fu],MATCH(1,(Table8[[#This Row],[Grade]]=tbllkpSteelGrades[Grade])*(Table8[[#This Row],[tw]]&lt;=tbllkpSteelGrades[Thickness]),0))</f>
+        <v>430000000</v>
+      </c>
+      <c r="AD16" s="18">
         <f>IF(Table8[[#This Row],[Fabrication Type]]="Welded",Table8[[#This Row],[d1]],Table8[[#This Row],[d]])*Table8[[#This Row],[tw]]</f>
         <v>1.0319999999999999E-2</v>
       </c>
-      <c r="AD16" s="11">
+      <c r="AE16" s="11">
         <f>Table8[[#This Row],[Aw]]*Table8[[#This Row],[fy]]*0.6</f>
         <v>1919520</v>
       </c>
-      <c r="AE16" s="35">
+      <c r="AF16" s="35">
         <f>82/SQRT(Table8[[#This Row],[fy]]/250000000)</f>
         <v>73.638173830977706</v>
       </c>
-      <c r="AF16" s="36">
+      <c r="AG16" s="36">
         <f>IF((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])&gt;Table8[[#This Row],[limiting web slenderness]],(82/((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])*SQRT(Table8[[#This Row],[fy]]/250000000)))^2,1)</f>
         <v>1</v>
       </c>
+      <c r="AH16" s="38">
+        <f>IF(Table8[[#This Row],[Fabrication Type]]="Welded",IF(Table8[[#This Row],[tw]]&gt;0.016,0.016*Table8[[#This Row],[fu]],Table8[[#This Row],[tw]]*Table8[[#This Row],[fu]]),"")</f>
+        <v>5160000</v>
+      </c>
+      <c r="AI16" s="13">
+        <f>Table8[[#This Row],[d]]-Table8[[#This Row],[tf]]</f>
+        <v>0.88500000000000001</v>
+      </c>
+      <c r="AJ16" s="39">
+        <f>Table8[[#This Row],[bf]]*Table8[[#This Row],[tf]]*(Table8[[#This Row],[df]]/2)</f>
+        <v>3.8718749999999994E-3</v>
+      </c>
+      <c r="AK16" s="11">
+        <f>IF(Table8[[#This Row],[Fabrication Type]]="Welded",Table8[[#This Row],[vw]]*Table8[[#This Row],[Ix]]/Table8[[#This Row],[Qflange]],"")</f>
+        <v>5410711.8644067813</v>
+      </c>
+      <c r="AL16" s="11">
+        <f>Table8[[#This Row],[tw]]*Table8[[#This Row],[fy]]*0.6*Table8[[#This Row],[Ix]]/Table8[[#This Row],[Qflange]]</f>
+        <v>2340447.457627119</v>
+      </c>
     </row>
-    <row r="17" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B17" s="14" t="str">
         <f>Table8[[#This Row],[Section]]&amp;"-"&amp;TEXT(Table8[[#This Row],[Grade]],"0")</f>
         <v>900WB175-300</v>
@@ -4823,24 +5324,48 @@
         <f t="array" ref="AB17">INDEX(tbllkpSteelGrades[fy],MATCH(1,(Table8[[#This Row],[Grade]]=tbllkpSteelGrades[Grade])*(Table8[[#This Row],[tw]]&lt;=tbllkpSteelGrades[Thickness]),0))</f>
         <v>310000000</v>
       </c>
-      <c r="AC17" s="18">
+      <c r="AC17" s="17">
+        <f t="array" ref="AC17">INDEX(tbllkpSteelGrades[fu],MATCH(1,(Table8[[#This Row],[Grade]]=tbllkpSteelGrades[Grade])*(Table8[[#This Row],[tw]]&lt;=tbllkpSteelGrades[Thickness]),0))</f>
+        <v>430000000</v>
+      </c>
+      <c r="AD17" s="18">
         <f>IF(Table8[[#This Row],[Fabrication Type]]="Welded",Table8[[#This Row],[d1]],Table8[[#This Row],[d]])*Table8[[#This Row],[tw]]</f>
         <v>1.0319999999999999E-2</v>
       </c>
-      <c r="AD17" s="11">
+      <c r="AE17" s="11">
         <f>Table8[[#This Row],[Aw]]*Table8[[#This Row],[fy]]*0.6</f>
         <v>1919520</v>
       </c>
-      <c r="AE17" s="35">
+      <c r="AF17" s="35">
         <f>82/SQRT(Table8[[#This Row],[fy]]/250000000)</f>
         <v>73.638173830977706</v>
       </c>
-      <c r="AF17" s="36">
+      <c r="AG17" s="36">
         <f>IF((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])&gt;Table8[[#This Row],[limiting web slenderness]],(82/((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])*SQRT(Table8[[#This Row],[fy]]/250000000)))^2,1)</f>
         <v>1</v>
       </c>
+      <c r="AH17" s="38">
+        <f>IF(Table8[[#This Row],[Fabrication Type]]="Welded",IF(Table8[[#This Row],[tw]]&gt;0.016,0.016*Table8[[#This Row],[fu]],Table8[[#This Row],[tw]]*Table8[[#This Row],[fu]]),"")</f>
+        <v>5160000</v>
+      </c>
+      <c r="AI17" s="13">
+        <f>Table8[[#This Row],[d]]-Table8[[#This Row],[tf]]</f>
+        <v>0.88</v>
+      </c>
+      <c r="AJ17" s="39">
+        <f>Table8[[#This Row],[bf]]*Table8[[#This Row],[tf]]*(Table8[[#This Row],[df]]/2)</f>
+        <v>2.64E-3</v>
+      </c>
+      <c r="AK17" s="11">
+        <f>IF(Table8[[#This Row],[Fabrication Type]]="Welded",Table8[[#This Row],[vw]]*Table8[[#This Row],[Ix]]/Table8[[#This Row],[Qflange]],"")</f>
+        <v>5785454.5454545459</v>
+      </c>
+      <c r="AL17" s="11">
+        <f>Table8[[#This Row],[tw]]*Table8[[#This Row],[fy]]*0.6*Table8[[#This Row],[Ix]]/Table8[[#This Row],[Qflange]]</f>
+        <v>2502545.4545454546</v>
+      </c>
     </row>
-    <row r="18" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B18" s="14" t="str">
         <f>Table8[[#This Row],[Section]]&amp;"-"&amp;TEXT(Table8[[#This Row],[Grade]],"0")</f>
         <v>800WB192-300</v>
@@ -4924,24 +5449,48 @@
         <f t="array" ref="AB18">INDEX(tbllkpSteelGrades[fy],MATCH(1,(Table8[[#This Row],[Grade]]=tbllkpSteelGrades[Grade])*(Table8[[#This Row],[tw]]&lt;=tbllkpSteelGrades[Thickness]),0))</f>
         <v>310000000</v>
       </c>
-      <c r="AC18" s="18">
+      <c r="AC18" s="17">
+        <f t="array" ref="AC18">INDEX(tbllkpSteelGrades[fu],MATCH(1,(Table8[[#This Row],[Grade]]=tbllkpSteelGrades[Grade])*(Table8[[#This Row],[tw]]&lt;=tbllkpSteelGrades[Thickness]),0))</f>
+        <v>430000000</v>
+      </c>
+      <c r="AD18" s="18">
         <f>IF(Table8[[#This Row],[Fabrication Type]]="Welded",Table8[[#This Row],[d1]],Table8[[#This Row],[d]])*Table8[[#This Row],[tw]]</f>
         <v>7.5999999999999991E-3</v>
       </c>
-      <c r="AD18" s="11">
+      <c r="AE18" s="11">
         <f>Table8[[#This Row],[Aw]]*Table8[[#This Row],[fy]]*0.6</f>
         <v>1413599.9999999998</v>
       </c>
-      <c r="AE18" s="35">
+      <c r="AF18" s="35">
         <f>82/SQRT(Table8[[#This Row],[fy]]/250000000)</f>
         <v>73.638173830977706</v>
       </c>
-      <c r="AF18" s="36">
+      <c r="AG18" s="36">
         <f>IF((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])&gt;Table8[[#This Row],[limiting web slenderness]],(82/((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])*SQRT(Table8[[#This Row],[fy]]/250000000)))^2,1)</f>
         <v>0.93881243856670582</v>
       </c>
+      <c r="AH18" s="38">
+        <f>IF(Table8[[#This Row],[Fabrication Type]]="Welded",IF(Table8[[#This Row],[tw]]&gt;0.016,0.016*Table8[[#This Row],[fu]],Table8[[#This Row],[tw]]*Table8[[#This Row],[fu]]),"")</f>
+        <v>4300000</v>
+      </c>
+      <c r="AI18" s="13">
+        <f>Table8[[#This Row],[d]]-Table8[[#This Row],[tf]]</f>
+        <v>0.78799999999999992</v>
+      </c>
+      <c r="AJ18" s="39">
+        <f>Table8[[#This Row],[bf]]*Table8[[#This Row],[tf]]*(Table8[[#This Row],[df]]/2)</f>
+        <v>3.3095999999999993E-3</v>
+      </c>
+      <c r="AK18" s="11">
+        <f>IF(Table8[[#This Row],[Fabrication Type]]="Welded",Table8[[#This Row],[vw]]*Table8[[#This Row],[Ix]]/Table8[[#This Row],[Qflange]],"")</f>
+        <v>3858774.4742567083</v>
+      </c>
+      <c r="AL18" s="11">
+        <f>Table8[[#This Row],[tw]]*Table8[[#This Row],[fy]]*0.6*Table8[[#This Row],[Ix]]/Table8[[#This Row],[Qflange]]</f>
+        <v>1669144.3074691808</v>
+      </c>
     </row>
-    <row r="19" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B19" s="14" t="str">
         <f>Table8[[#This Row],[Section]]&amp;"-"&amp;TEXT(Table8[[#This Row],[Grade]],"0")</f>
         <v>800WB168-300</v>
@@ -5025,24 +5574,48 @@
         <f t="array" ref="AB19">INDEX(tbllkpSteelGrades[fy],MATCH(1,(Table8[[#This Row],[Grade]]=tbllkpSteelGrades[Grade])*(Table8[[#This Row],[tw]]&lt;=tbllkpSteelGrades[Thickness]),0))</f>
         <v>310000000</v>
       </c>
-      <c r="AC19" s="18">
+      <c r="AC19" s="17">
+        <f t="array" ref="AC19">INDEX(tbllkpSteelGrades[fu],MATCH(1,(Table8[[#This Row],[Grade]]=tbllkpSteelGrades[Grade])*(Table8[[#This Row],[tw]]&lt;=tbllkpSteelGrades[Thickness]),0))</f>
+        <v>430000000</v>
+      </c>
+      <c r="AD19" s="18">
         <f>IF(Table8[[#This Row],[Fabrication Type]]="Welded",Table8[[#This Row],[d1]],Table8[[#This Row],[d]])*Table8[[#This Row],[tw]]</f>
         <v>7.6E-3</v>
       </c>
-      <c r="AD19" s="11">
+      <c r="AE19" s="11">
         <f>Table8[[#This Row],[Aw]]*Table8[[#This Row],[fy]]*0.6</f>
         <v>1413600</v>
       </c>
-      <c r="AE19" s="35">
+      <c r="AF19" s="35">
         <f>82/SQRT(Table8[[#This Row],[fy]]/250000000)</f>
         <v>73.638173830977706</v>
       </c>
-      <c r="AF19" s="36">
+      <c r="AG19" s="36">
         <f>IF((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])&gt;Table8[[#This Row],[limiting web slenderness]],(82/((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])*SQRT(Table8[[#This Row],[fy]]/250000000)))^2,1)</f>
         <v>0.93881243856670515</v>
       </c>
+      <c r="AH19" s="38">
+        <f>IF(Table8[[#This Row],[Fabrication Type]]="Welded",IF(Table8[[#This Row],[tw]]&gt;0.016,0.016*Table8[[#This Row],[fu]],Table8[[#This Row],[tw]]*Table8[[#This Row],[fu]]),"")</f>
+        <v>4300000</v>
+      </c>
+      <c r="AI19" s="13">
+        <f>Table8[[#This Row],[d]]-Table8[[#This Row],[tf]]</f>
+        <v>0.78500000000000003</v>
+      </c>
+      <c r="AJ19" s="39">
+        <f>Table8[[#This Row],[bf]]*Table8[[#This Row],[tf]]*(Table8[[#This Row],[df]]/2)</f>
+        <v>2.6984375000000003E-3</v>
+      </c>
+      <c r="AK19" s="11">
+        <f>IF(Table8[[#This Row],[Fabrication Type]]="Welded",Table8[[#This Row],[vw]]*Table8[[#This Row],[Ix]]/Table8[[#This Row],[Qflange]],"")</f>
+        <v>3951916.6184134334</v>
+      </c>
+      <c r="AL19" s="11">
+        <f>Table8[[#This Row],[tw]]*Table8[[#This Row],[fy]]*0.6*Table8[[#This Row],[Ix]]/Table8[[#This Row],[Qflange]]</f>
+        <v>1709433.7000579038</v>
+      </c>
     </row>
-    <row r="20" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B20" s="14" t="str">
         <f>Table8[[#This Row],[Section]]&amp;"-"&amp;TEXT(Table8[[#This Row],[Grade]],"0")</f>
         <v>800WB146-300</v>
@@ -5126,24 +5699,48 @@
         <f t="array" ref="AB20">INDEX(tbllkpSteelGrades[fy],MATCH(1,(Table8[[#This Row],[Grade]]=tbllkpSteelGrades[Grade])*(Table8[[#This Row],[tw]]&lt;=tbllkpSteelGrades[Thickness]),0))</f>
         <v>310000000</v>
       </c>
-      <c r="AC20" s="18">
+      <c r="AC20" s="17">
+        <f t="array" ref="AC20">INDEX(tbllkpSteelGrades[fu],MATCH(1,(Table8[[#This Row],[Grade]]=tbllkpSteelGrades[Grade])*(Table8[[#This Row],[tw]]&lt;=tbllkpSteelGrades[Thickness]),0))</f>
+        <v>430000000</v>
+      </c>
+      <c r="AD20" s="18">
         <f>IF(Table8[[#This Row],[Fabrication Type]]="Welded",Table8[[#This Row],[d1]],Table8[[#This Row],[d]])*Table8[[#This Row],[tw]]</f>
         <v>7.6E-3</v>
       </c>
-      <c r="AD20" s="11">
+      <c r="AE20" s="11">
         <f>Table8[[#This Row],[Aw]]*Table8[[#This Row],[fy]]*0.6</f>
         <v>1413600</v>
       </c>
-      <c r="AE20" s="35">
+      <c r="AF20" s="35">
         <f>82/SQRT(Table8[[#This Row],[fy]]/250000000)</f>
         <v>73.638173830977706</v>
       </c>
-      <c r="AF20" s="36">
+      <c r="AG20" s="36">
         <f>IF((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])&gt;Table8[[#This Row],[limiting web slenderness]],(82/((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])*SQRT(Table8[[#This Row],[fy]]/250000000)))^2,1)</f>
         <v>0.93881243856670515</v>
       </c>
+      <c r="AH20" s="38">
+        <f>IF(Table8[[#This Row],[Fabrication Type]]="Welded",IF(Table8[[#This Row],[tw]]&gt;0.016,0.016*Table8[[#This Row],[fu]],Table8[[#This Row],[tw]]*Table8[[#This Row],[fu]]),"")</f>
+        <v>4300000</v>
+      </c>
+      <c r="AI20" s="13">
+        <f>Table8[[#This Row],[d]]-Table8[[#This Row],[tf]]</f>
+        <v>0.78</v>
+      </c>
+      <c r="AJ20" s="39">
+        <f>Table8[[#This Row],[bf]]*Table8[[#This Row],[tf]]*(Table8[[#This Row],[df]]/2)</f>
+        <v>2.1450000000000002E-3</v>
+      </c>
+      <c r="AK20" s="11">
+        <f>IF(Table8[[#This Row],[Fabrication Type]]="Welded",Table8[[#This Row],[vw]]*Table8[[#This Row],[Ix]]/Table8[[#This Row],[Qflange]],"")</f>
+        <v>4089510.4895104892</v>
+      </c>
+      <c r="AL20" s="11">
+        <f>Table8[[#This Row],[tw]]*Table8[[#This Row],[fy]]*0.6*Table8[[#This Row],[Ix]]/Table8[[#This Row],[Qflange]]</f>
+        <v>1768951.0489510489</v>
+      </c>
     </row>
-    <row r="21" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B21" s="14" t="str">
         <f>Table8[[#This Row],[Section]]&amp;"-"&amp;TEXT(Table8[[#This Row],[Grade]],"0")</f>
         <v>800WB122-300</v>
@@ -5227,24 +5824,48 @@
         <f t="array" ref="AB21">INDEX(tbllkpSteelGrades[fy],MATCH(1,(Table8[[#This Row],[Grade]]=tbllkpSteelGrades[Grade])*(Table8[[#This Row],[tw]]&lt;=tbllkpSteelGrades[Thickness]),0))</f>
         <v>310000000</v>
       </c>
-      <c r="AC21" s="18">
+      <c r="AC21" s="17">
+        <f t="array" ref="AC21">INDEX(tbllkpSteelGrades[fu],MATCH(1,(Table8[[#This Row],[Grade]]=tbllkpSteelGrades[Grade])*(Table8[[#This Row],[tw]]&lt;=tbllkpSteelGrades[Thickness]),0))</f>
+        <v>430000000</v>
+      </c>
+      <c r="AD21" s="18">
         <f>IF(Table8[[#This Row],[Fabrication Type]]="Welded",Table8[[#This Row],[d1]],Table8[[#This Row],[d]])*Table8[[#This Row],[tw]]</f>
         <v>7.6E-3</v>
       </c>
-      <c r="AD21" s="11">
+      <c r="AE21" s="11">
         <f>Table8[[#This Row],[Aw]]*Table8[[#This Row],[fy]]*0.6</f>
         <v>1413600</v>
       </c>
-      <c r="AE21" s="35">
+      <c r="AF21" s="35">
         <f>82/SQRT(Table8[[#This Row],[fy]]/250000000)</f>
         <v>73.638173830977706</v>
       </c>
-      <c r="AF21" s="36">
+      <c r="AG21" s="36">
         <f>IF((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])&gt;Table8[[#This Row],[limiting web slenderness]],(82/((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])*SQRT(Table8[[#This Row],[fy]]/250000000)))^2,1)</f>
         <v>0.93881243856670515</v>
       </c>
+      <c r="AH21" s="38">
+        <f>IF(Table8[[#This Row],[Fabrication Type]]="Welded",IF(Table8[[#This Row],[tw]]&gt;0.016,0.016*Table8[[#This Row],[fu]],Table8[[#This Row],[tw]]*Table8[[#This Row],[fu]]),"")</f>
+        <v>4300000</v>
+      </c>
+      <c r="AI21" s="13">
+        <f>Table8[[#This Row],[d]]-Table8[[#This Row],[tf]]</f>
+        <v>0.77600000000000002</v>
+      </c>
+      <c r="AJ21" s="39">
+        <f>Table8[[#This Row],[bf]]*Table8[[#This Row],[tf]]*(Table8[[#This Row],[df]]/2)</f>
+        <v>1.552E-3</v>
+      </c>
+      <c r="AK21" s="11">
+        <f>IF(Table8[[#This Row],[Fabrication Type]]="Welded",Table8[[#This Row],[vw]]*Table8[[#This Row],[Ix]]/Table8[[#This Row],[Qflange]],"")</f>
+        <v>4349871.1340206182</v>
+      </c>
+      <c r="AL21" s="11">
+        <f>Table8[[#This Row],[tw]]*Table8[[#This Row],[fy]]*0.6*Table8[[#This Row],[Ix]]/Table8[[#This Row],[Qflange]]</f>
+        <v>1881572.1649484534</v>
+      </c>
     </row>
-    <row r="22" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B22" s="14" t="str">
         <f>Table8[[#This Row],[Section]]&amp;"-"&amp;TEXT(Table8[[#This Row],[Grade]],"0")</f>
         <v>700WB173-300</v>
@@ -5328,24 +5949,48 @@
         <f t="array" ref="AB22">INDEX(tbllkpSteelGrades[fy],MATCH(1,(Table8[[#This Row],[Grade]]=tbllkpSteelGrades[Grade])*(Table8[[#This Row],[tw]]&lt;=tbllkpSteelGrades[Thickness]),0))</f>
         <v>310000000</v>
       </c>
-      <c r="AC22" s="18">
+      <c r="AC22" s="17">
+        <f t="array" ref="AC22">INDEX(tbllkpSteelGrades[fu],MATCH(1,(Table8[[#This Row],[Grade]]=tbllkpSteelGrades[Grade])*(Table8[[#This Row],[tw]]&lt;=tbllkpSteelGrades[Thickness]),0))</f>
+        <v>430000000</v>
+      </c>
+      <c r="AD22" s="18">
         <f>IF(Table8[[#This Row],[Fabrication Type]]="Welded",Table8[[#This Row],[d1]],Table8[[#This Row],[d]])*Table8[[#This Row],[tw]]</f>
         <v>6.5999999999999991E-3</v>
       </c>
-      <c r="AD22" s="11">
+      <c r="AE22" s="11">
         <f>Table8[[#This Row],[Aw]]*Table8[[#This Row],[fy]]*0.6</f>
         <v>1227599.9999999998</v>
       </c>
-      <c r="AE22" s="35">
+      <c r="AF22" s="35">
         <f>82/SQRT(Table8[[#This Row],[fy]]/250000000)</f>
         <v>73.638173830977706</v>
       </c>
-      <c r="AF22" s="36">
+      <c r="AG22" s="36">
         <f>IF((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])&gt;Table8[[#This Row],[limiting web slenderness]],(82/((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])*SQRT(Table8[[#This Row],[fy]]/250000000)))^2,1)</f>
         <v>1</v>
       </c>
+      <c r="AH22" s="38">
+        <f>IF(Table8[[#This Row],[Fabrication Type]]="Welded",IF(Table8[[#This Row],[tw]]&gt;0.016,0.016*Table8[[#This Row],[fu]],Table8[[#This Row],[tw]]*Table8[[#This Row],[fu]]),"")</f>
+        <v>4300000</v>
+      </c>
+      <c r="AI22" s="13">
+        <f>Table8[[#This Row],[d]]-Table8[[#This Row],[tf]]</f>
+        <v>0.68799999999999994</v>
+      </c>
+      <c r="AJ22" s="39">
+        <f>Table8[[#This Row],[bf]]*Table8[[#This Row],[tf]]*(Table8[[#This Row],[df]]/2)</f>
+        <v>2.6488000000000002E-3</v>
+      </c>
+      <c r="AK22" s="11">
+        <f>IF(Table8[[#This Row],[Fabrication Type]]="Welded",Table8[[#This Row],[vw]]*Table8[[#This Row],[Ix]]/Table8[[#This Row],[Qflange]],"")</f>
+        <v>3344155.8441558438</v>
+      </c>
+      <c r="AL22" s="11">
+        <f>Table8[[#This Row],[tw]]*Table8[[#This Row],[fy]]*0.6*Table8[[#This Row],[Ix]]/Table8[[#This Row],[Qflange]]</f>
+        <v>1446541.8302627606</v>
+      </c>
     </row>
-    <row r="23" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B23" s="14" t="str">
         <f>Table8[[#This Row],[Section]]&amp;"-"&amp;TEXT(Table8[[#This Row],[Grade]],"0")</f>
         <v>700WB150-300</v>
@@ -5429,24 +6074,48 @@
         <f t="array" ref="AB23">INDEX(tbllkpSteelGrades[fy],MATCH(1,(Table8[[#This Row],[Grade]]=tbllkpSteelGrades[Grade])*(Table8[[#This Row],[tw]]&lt;=tbllkpSteelGrades[Thickness]),0))</f>
         <v>310000000</v>
       </c>
-      <c r="AC23" s="18">
+      <c r="AC23" s="17">
+        <f t="array" ref="AC23">INDEX(tbllkpSteelGrades[fu],MATCH(1,(Table8[[#This Row],[Grade]]=tbllkpSteelGrades[Grade])*(Table8[[#This Row],[tw]]&lt;=tbllkpSteelGrades[Thickness]),0))</f>
+        <v>430000000</v>
+      </c>
+      <c r="AD23" s="18">
         <f>IF(Table8[[#This Row],[Fabrication Type]]="Welded",Table8[[#This Row],[d1]],Table8[[#This Row],[d]])*Table8[[#This Row],[tw]]</f>
         <v>6.5999999999999991E-3</v>
       </c>
-      <c r="AD23" s="11">
+      <c r="AE23" s="11">
         <f>Table8[[#This Row],[Aw]]*Table8[[#This Row],[fy]]*0.6</f>
         <v>1227599.9999999998</v>
       </c>
-      <c r="AE23" s="35">
+      <c r="AF23" s="35">
         <f>82/SQRT(Table8[[#This Row],[fy]]/250000000)</f>
         <v>73.638173830977706</v>
       </c>
-      <c r="AF23" s="36">
+      <c r="AG23" s="36">
         <f>IF((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])&gt;Table8[[#This Row],[limiting web slenderness]],(82/((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])*SQRT(Table8[[#This Row],[fy]]/250000000)))^2,1)</f>
         <v>1</v>
       </c>
+      <c r="AH23" s="38">
+        <f>IF(Table8[[#This Row],[Fabrication Type]]="Welded",IF(Table8[[#This Row],[tw]]&gt;0.016,0.016*Table8[[#This Row],[fu]],Table8[[#This Row],[tw]]*Table8[[#This Row],[fu]]),"")</f>
+        <v>4300000</v>
+      </c>
+      <c r="AI23" s="13">
+        <f>Table8[[#This Row],[d]]-Table8[[#This Row],[tf]]</f>
+        <v>0.68499999999999994</v>
+      </c>
+      <c r="AJ23" s="39">
+        <f>Table8[[#This Row],[bf]]*Table8[[#This Row],[tf]]*(Table8[[#This Row],[df]]/2)</f>
+        <v>2.1406249999999997E-3</v>
+      </c>
+      <c r="AK23" s="11">
+        <f>IF(Table8[[#This Row],[Fabrication Type]]="Welded",Table8[[#This Row],[vw]]*Table8[[#This Row],[Ix]]/Table8[[#This Row],[Qflange]],"")</f>
+        <v>3434978.1021897816</v>
+      </c>
+      <c r="AL23" s="11">
+        <f>Table8[[#This Row],[tw]]*Table8[[#This Row],[fy]]*0.6*Table8[[#This Row],[Ix]]/Table8[[#This Row],[Qflange]]</f>
+        <v>1485827.7372262776</v>
+      </c>
     </row>
-    <row r="24" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B24" s="14" t="str">
         <f>Table8[[#This Row],[Section]]&amp;"-"&amp;TEXT(Table8[[#This Row],[Grade]],"0")</f>
         <v>700WB130-300</v>
@@ -5530,24 +6199,48 @@
         <f t="array" ref="AB24">INDEX(tbllkpSteelGrades[fy],MATCH(1,(Table8[[#This Row],[Grade]]=tbllkpSteelGrades[Grade])*(Table8[[#This Row],[tw]]&lt;=tbllkpSteelGrades[Thickness]),0))</f>
         <v>310000000</v>
       </c>
-      <c r="AC24" s="18">
+      <c r="AC24" s="17">
+        <f t="array" ref="AC24">INDEX(tbllkpSteelGrades[fu],MATCH(1,(Table8[[#This Row],[Grade]]=tbllkpSteelGrades[Grade])*(Table8[[#This Row],[tw]]&lt;=tbllkpSteelGrades[Thickness]),0))</f>
+        <v>430000000</v>
+      </c>
+      <c r="AD24" s="18">
         <f>IF(Table8[[#This Row],[Fabrication Type]]="Welded",Table8[[#This Row],[d1]],Table8[[#This Row],[d]])*Table8[[#This Row],[tw]]</f>
         <v>6.5999999999999991E-3</v>
       </c>
-      <c r="AD24" s="11">
+      <c r="AE24" s="11">
         <f>Table8[[#This Row],[Aw]]*Table8[[#This Row],[fy]]*0.6</f>
         <v>1227599.9999999998</v>
       </c>
-      <c r="AE24" s="35">
+      <c r="AF24" s="35">
         <f>82/SQRT(Table8[[#This Row],[fy]]/250000000)</f>
         <v>73.638173830977706</v>
       </c>
-      <c r="AF24" s="36">
+      <c r="AG24" s="36">
         <f>IF((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])&gt;Table8[[#This Row],[limiting web slenderness]],(82/((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])*SQRT(Table8[[#This Row],[fy]]/250000000)))^2,1)</f>
         <v>1</v>
       </c>
+      <c r="AH24" s="38">
+        <f>IF(Table8[[#This Row],[Fabrication Type]]="Welded",IF(Table8[[#This Row],[tw]]&gt;0.016,0.016*Table8[[#This Row],[fu]],Table8[[#This Row],[tw]]*Table8[[#This Row],[fu]]),"")</f>
+        <v>4300000</v>
+      </c>
+      <c r="AI24" s="13">
+        <f>Table8[[#This Row],[d]]-Table8[[#This Row],[tf]]</f>
+        <v>0.67999999999999994</v>
+      </c>
+      <c r="AJ24" s="39">
+        <f>Table8[[#This Row],[bf]]*Table8[[#This Row],[tf]]*(Table8[[#This Row],[df]]/2)</f>
+        <v>1.6999999999999999E-3</v>
+      </c>
+      <c r="AK24" s="11">
+        <f>IF(Table8[[#This Row],[Fabrication Type]]="Welded",Table8[[#This Row],[vw]]*Table8[[#This Row],[Ix]]/Table8[[#This Row],[Qflange]],"")</f>
+        <v>3541176.4705882357</v>
+      </c>
+      <c r="AL24" s="11">
+        <f>Table8[[#This Row],[tw]]*Table8[[#This Row],[fy]]*0.6*Table8[[#This Row],[Ix]]/Table8[[#This Row],[Qflange]]</f>
+        <v>1531764.705882353</v>
+      </c>
     </row>
-    <row r="25" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B25" s="14" t="str">
         <f>Table8[[#This Row],[Section]]&amp;"-"&amp;TEXT(Table8[[#This Row],[Grade]],"0")</f>
         <v>700WB115-300</v>
@@ -5631,24 +6324,48 @@
         <f t="array" ref="AB25">INDEX(tbllkpSteelGrades[fy],MATCH(1,(Table8[[#This Row],[Grade]]=tbllkpSteelGrades[Grade])*(Table8[[#This Row],[tw]]&lt;=tbllkpSteelGrades[Thickness]),0))</f>
         <v>310000000</v>
       </c>
-      <c r="AC25" s="18">
+      <c r="AC25" s="17">
+        <f t="array" ref="AC25">INDEX(tbllkpSteelGrades[fu],MATCH(1,(Table8[[#This Row],[Grade]]=tbllkpSteelGrades[Grade])*(Table8[[#This Row],[tw]]&lt;=tbllkpSteelGrades[Thickness]),0))</f>
+        <v>430000000</v>
+      </c>
+      <c r="AD25" s="18">
         <f>IF(Table8[[#This Row],[Fabrication Type]]="Welded",Table8[[#This Row],[d1]],Table8[[#This Row],[d]])*Table8[[#This Row],[tw]]</f>
         <v>6.5999999999999991E-3</v>
       </c>
-      <c r="AD25" s="11">
+      <c r="AE25" s="11">
         <f>Table8[[#This Row],[Aw]]*Table8[[#This Row],[fy]]*0.6</f>
         <v>1227599.9999999998</v>
       </c>
-      <c r="AE25" s="35">
+      <c r="AF25" s="35">
         <f>82/SQRT(Table8[[#This Row],[fy]]/250000000)</f>
         <v>73.638173830977706</v>
       </c>
-      <c r="AF25" s="36">
+      <c r="AG25" s="36">
         <f>IF((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])&gt;Table8[[#This Row],[limiting web slenderness]],(82/((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])*SQRT(Table8[[#This Row],[fy]]/250000000)))^2,1)</f>
         <v>1</v>
       </c>
+      <c r="AH25" s="38">
+        <f>IF(Table8[[#This Row],[Fabrication Type]]="Welded",IF(Table8[[#This Row],[tw]]&gt;0.016,0.016*Table8[[#This Row],[fu]],Table8[[#This Row],[tw]]*Table8[[#This Row],[fu]]),"")</f>
+        <v>4300000</v>
+      </c>
+      <c r="AI25" s="13">
+        <f>Table8[[#This Row],[d]]-Table8[[#This Row],[tf]]</f>
+        <v>0.67599999999999993</v>
+      </c>
+      <c r="AJ25" s="39">
+        <f>Table8[[#This Row],[bf]]*Table8[[#This Row],[tf]]*(Table8[[#This Row],[df]]/2)</f>
+        <v>1.3519999999999999E-3</v>
+      </c>
+      <c r="AK25" s="11">
+        <f>IF(Table8[[#This Row],[Fabrication Type]]="Welded",Table8[[#This Row],[vw]]*Table8[[#This Row],[Ix]]/Table8[[#This Row],[Qflange]],"")</f>
+        <v>3657544.3786982251</v>
+      </c>
+      <c r="AL25" s="11">
+        <f>Table8[[#This Row],[tw]]*Table8[[#This Row],[fy]]*0.6*Table8[[#This Row],[Ix]]/Table8[[#This Row],[Qflange]]</f>
+        <v>1582100.5917159764</v>
+      </c>
     </row>
-    <row r="26" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B26" s="15" t="str">
         <f>Table8[[#This Row],[Section]]&amp;"-"&amp;TEXT(Table8[[#This Row],[Grade]],"0")</f>
         <v>1200WB455-400</v>
@@ -5732,24 +6449,48 @@
         <f t="array" ref="AB26">INDEX(tbllkpSteelGrades[fy],MATCH(1,(Table8[[#This Row],[Grade]]=tbllkpSteelGrades[Grade])*(Table8[[#This Row],[tw]]&lt;=tbllkpSteelGrades[Thickness]),0))</f>
         <v>380000000</v>
       </c>
-      <c r="AC26" s="18">
+      <c r="AC26" s="17">
+        <f t="array" ref="AC26">INDEX(tbllkpSteelGrades[fu],MATCH(1,(Table8[[#This Row],[Grade]]=tbllkpSteelGrades[Grade])*(Table8[[#This Row],[tw]]&lt;=tbllkpSteelGrades[Thickness]),0))</f>
+        <v>480000000</v>
+      </c>
+      <c r="AD26" s="18">
         <f>IF(Table8[[#This Row],[Fabrication Type]]="Welded",Table8[[#This Row],[d1]],Table8[[#This Row],[d]])*Table8[[#This Row],[tw]]</f>
         <v>1.7919999999999998E-2</v>
       </c>
-      <c r="AD26" s="11">
+      <c r="AE26" s="11">
         <f>Table8[[#This Row],[Aw]]*Table8[[#This Row],[fy]]*0.6</f>
         <v>4085759.9999999991</v>
       </c>
-      <c r="AE26" s="35">
+      <c r="AF26" s="35">
         <f>82/SQRT(Table8[[#This Row],[fy]]/250000000)</f>
         <v>66.510782663612645</v>
       </c>
-      <c r="AF26" s="36">
+      <c r="AG26" s="36">
         <f>IF((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])&gt;Table8[[#This Row],[limiting web slenderness]],(82/((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])*SQRT(Table8[[#This Row],[fy]]/250000000)))^2,1)</f>
         <v>0.90279269602577916</v>
       </c>
+      <c r="AH26" s="38">
+        <f>IF(Table8[[#This Row],[Fabrication Type]]="Welded",IF(Table8[[#This Row],[tw]]&gt;0.016,0.016*Table8[[#This Row],[fu]],Table8[[#This Row],[tw]]*Table8[[#This Row],[fu]]),"")</f>
+        <v>7680000</v>
+      </c>
+      <c r="AI26" s="13">
+        <f>Table8[[#This Row],[d]]-Table8[[#This Row],[tf]]</f>
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="AJ26" s="39">
+        <f>Table8[[#This Row],[bf]]*Table8[[#This Row],[tf]]*(Table8[[#This Row],[df]]/2)</f>
+        <v>1.1599999999999999E-2</v>
+      </c>
+      <c r="AK26" s="11">
+        <f>IF(Table8[[#This Row],[Fabrication Type]]="Welded",Table8[[#This Row],[vw]]*Table8[[#This Row],[Ix]]/Table8[[#This Row],[Qflange]],"")</f>
+        <v>10129655.172413794</v>
+      </c>
+      <c r="AL26" s="11">
+        <f>Table8[[#This Row],[tw]]*Table8[[#This Row],[fy]]*0.6*Table8[[#This Row],[Ix]]/Table8[[#This Row],[Qflange]]</f>
+        <v>4811586.2068965519</v>
+      </c>
     </row>
-    <row r="27" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B27" s="15" t="str">
         <f>Table8[[#This Row],[Section]]&amp;"-"&amp;TEXT(Table8[[#This Row],[Grade]],"0")</f>
         <v>1200WB423-400</v>
@@ -5833,24 +6574,48 @@
         <f t="array" ref="AB27">INDEX(tbllkpSteelGrades[fy],MATCH(1,(Table8[[#This Row],[Grade]]=tbllkpSteelGrades[Grade])*(Table8[[#This Row],[tw]]&lt;=tbllkpSteelGrades[Thickness]),0))</f>
         <v>380000000</v>
       </c>
-      <c r="AC27" s="18">
+      <c r="AC27" s="17">
+        <f t="array" ref="AC27">INDEX(tbllkpSteelGrades[fu],MATCH(1,(Table8[[#This Row],[Grade]]=tbllkpSteelGrades[Grade])*(Table8[[#This Row],[tw]]&lt;=tbllkpSteelGrades[Thickness]),0))</f>
+        <v>480000000</v>
+      </c>
+      <c r="AD27" s="18">
         <f>IF(Table8[[#This Row],[Fabrication Type]]="Welded",Table8[[#This Row],[d1]],Table8[[#This Row],[d]])*Table8[[#This Row],[tw]]</f>
         <v>1.7919999999999998E-2</v>
       </c>
-      <c r="AD27" s="11">
+      <c r="AE27" s="11">
         <f>Table8[[#This Row],[Aw]]*Table8[[#This Row],[fy]]*0.6</f>
         <v>4085759.9999999991</v>
       </c>
-      <c r="AE27" s="35">
+      <c r="AF27" s="35">
         <f>82/SQRT(Table8[[#This Row],[fy]]/250000000)</f>
         <v>66.510782663612645</v>
       </c>
-      <c r="AF27" s="36">
+      <c r="AG27" s="36">
         <f>IF((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])&gt;Table8[[#This Row],[limiting web slenderness]],(82/((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])*SQRT(Table8[[#This Row],[fy]]/250000000)))^2,1)</f>
         <v>0.90279269602577916</v>
       </c>
+      <c r="AH27" s="38">
+        <f>IF(Table8[[#This Row],[Fabrication Type]]="Welded",IF(Table8[[#This Row],[tw]]&gt;0.016,0.016*Table8[[#This Row],[fu]],Table8[[#This Row],[tw]]*Table8[[#This Row],[fu]]),"")</f>
+        <v>7680000</v>
+      </c>
+      <c r="AI27" s="13">
+        <f>Table8[[#This Row],[d]]-Table8[[#This Row],[tf]]</f>
+        <v>1.1559999999999999</v>
+      </c>
+      <c r="AJ27" s="39">
+        <f>Table8[[#This Row],[bf]]*Table8[[#This Row],[tf]]*(Table8[[#This Row],[df]]/2)</f>
+        <v>1.0403999999999998E-2</v>
+      </c>
+      <c r="AK27" s="11">
+        <f>IF(Table8[[#This Row],[Fabrication Type]]="Welded",Table8[[#This Row],[vw]]*Table8[[#This Row],[Ix]]/Table8[[#This Row],[Qflange]],"")</f>
+        <v>10260668.973471744</v>
+      </c>
+      <c r="AL27" s="11">
+        <f>Table8[[#This Row],[tw]]*Table8[[#This Row],[fy]]*0.6*Table8[[#This Row],[Ix]]/Table8[[#This Row],[Qflange]]</f>
+        <v>4873817.7623990774</v>
+      </c>
     </row>
-    <row r="28" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B28" s="15" t="str">
         <f>Table8[[#This Row],[Section]]&amp;"-"&amp;TEXT(Table8[[#This Row],[Grade]],"0")</f>
         <v>1200WB392-400</v>
@@ -5934,24 +6699,48 @@
         <f t="array" ref="AB28">INDEX(tbllkpSteelGrades[fy],MATCH(1,(Table8[[#This Row],[Grade]]=tbllkpSteelGrades[Grade])*(Table8[[#This Row],[tw]]&lt;=tbllkpSteelGrades[Thickness]),0))</f>
         <v>380000000</v>
       </c>
-      <c r="AC28" s="18">
+      <c r="AC28" s="17">
+        <f t="array" ref="AC28">INDEX(tbllkpSteelGrades[fu],MATCH(1,(Table8[[#This Row],[Grade]]=tbllkpSteelGrades[Grade])*(Table8[[#This Row],[tw]]&lt;=tbllkpSteelGrades[Thickness]),0))</f>
+        <v>480000000</v>
+      </c>
+      <c r="AD28" s="18">
         <f>IF(Table8[[#This Row],[Fabrication Type]]="Welded",Table8[[#This Row],[d1]],Table8[[#This Row],[d]])*Table8[[#This Row],[tw]]</f>
         <v>1.7919999999999998E-2</v>
       </c>
-      <c r="AD28" s="11">
+      <c r="AE28" s="11">
         <f>Table8[[#This Row],[Aw]]*Table8[[#This Row],[fy]]*0.6</f>
         <v>4085759.9999999991</v>
       </c>
-      <c r="AE28" s="35">
+      <c r="AF28" s="35">
         <f>82/SQRT(Table8[[#This Row],[fy]]/250000000)</f>
         <v>66.510782663612645</v>
       </c>
-      <c r="AF28" s="36">
+      <c r="AG28" s="36">
         <f>IF((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])&gt;Table8[[#This Row],[limiting web slenderness]],(82/((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])*SQRT(Table8[[#This Row],[fy]]/250000000)))^2,1)</f>
         <v>0.90279269602577916</v>
       </c>
+      <c r="AH28" s="38">
+        <f>IF(Table8[[#This Row],[Fabrication Type]]="Welded",IF(Table8[[#This Row],[tw]]&gt;0.016,0.016*Table8[[#This Row],[fu]],Table8[[#This Row],[tw]]*Table8[[#This Row],[fu]]),"")</f>
+        <v>7680000</v>
+      </c>
+      <c r="AI28" s="13">
+        <f>Table8[[#This Row],[d]]-Table8[[#This Row],[tf]]</f>
+        <v>1.1519999999999999</v>
+      </c>
+      <c r="AJ28" s="39">
+        <f>Table8[[#This Row],[bf]]*Table8[[#This Row],[tf]]*(Table8[[#This Row],[df]]/2)</f>
+        <v>9.2160000000000002E-3</v>
+      </c>
+      <c r="AK28" s="11">
+        <f>IF(Table8[[#This Row],[Fabrication Type]]="Welded",Table8[[#This Row],[vw]]*Table8[[#This Row],[Ix]]/Table8[[#This Row],[Qflange]],"")</f>
+        <v>10416666.666666666</v>
+      </c>
+      <c r="AL28" s="11">
+        <f>Table8[[#This Row],[tw]]*Table8[[#This Row],[fy]]*0.6*Table8[[#This Row],[Ix]]/Table8[[#This Row],[Qflange]]</f>
+        <v>4947916.666666667</v>
+      </c>
     </row>
-    <row r="29" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B29" s="15" t="str">
         <f>Table8[[#This Row],[Section]]&amp;"-"&amp;TEXT(Table8[[#This Row],[Grade]],"0")</f>
         <v>1200WB342-400</v>
@@ -6035,24 +6824,48 @@
         <f t="array" ref="AB29">INDEX(tbllkpSteelGrades[fy],MATCH(1,(Table8[[#This Row],[Grade]]=tbllkpSteelGrades[Grade])*(Table8[[#This Row],[tw]]&lt;=tbllkpSteelGrades[Thickness]),0))</f>
         <v>380000000</v>
       </c>
-      <c r="AC29" s="18">
+      <c r="AC29" s="17">
+        <f t="array" ref="AC29">INDEX(tbllkpSteelGrades[fu],MATCH(1,(Table8[[#This Row],[Grade]]=tbllkpSteelGrades[Grade])*(Table8[[#This Row],[tw]]&lt;=tbllkpSteelGrades[Thickness]),0))</f>
+        <v>480000000</v>
+      </c>
+      <c r="AD29" s="18">
         <f>IF(Table8[[#This Row],[Fabrication Type]]="Welded",Table8[[#This Row],[d1]],Table8[[#This Row],[d]])*Table8[[#This Row],[tw]]</f>
         <v>1.7919999999999998E-2</v>
       </c>
-      <c r="AD29" s="11">
+      <c r="AE29" s="11">
         <f>Table8[[#This Row],[Aw]]*Table8[[#This Row],[fy]]*0.6</f>
         <v>4085759.9999999991</v>
       </c>
-      <c r="AE29" s="35">
+      <c r="AF29" s="35">
         <f>82/SQRT(Table8[[#This Row],[fy]]/250000000)</f>
         <v>66.510782663612645</v>
       </c>
-      <c r="AF29" s="36">
+      <c r="AG29" s="36">
         <f>IF((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])&gt;Table8[[#This Row],[limiting web slenderness]],(82/((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])*SQRT(Table8[[#This Row],[fy]]/250000000)))^2,1)</f>
         <v>0.90279269602577916</v>
       </c>
+      <c r="AH29" s="38">
+        <f>IF(Table8[[#This Row],[Fabrication Type]]="Welded",IF(Table8[[#This Row],[tw]]&gt;0.016,0.016*Table8[[#This Row],[fu]],Table8[[#This Row],[tw]]*Table8[[#This Row],[fu]]),"")</f>
+        <v>7680000</v>
+      </c>
+      <c r="AI29" s="13">
+        <f>Table8[[#This Row],[d]]-Table8[[#This Row],[tf]]</f>
+        <v>1.1519999999999999</v>
+      </c>
+      <c r="AJ29" s="39">
+        <f>Table8[[#This Row],[bf]]*Table8[[#This Row],[tf]]*(Table8[[#This Row],[df]]/2)</f>
+        <v>7.3727999999999997E-3</v>
+      </c>
+      <c r="AK29" s="11">
+        <f>IF(Table8[[#This Row],[Fabrication Type]]="Welded",Table8[[#This Row],[vw]]*Table8[[#This Row],[Ix]]/Table8[[#This Row],[Qflange]],"")</f>
+        <v>10833333.333333334</v>
+      </c>
+      <c r="AL29" s="11">
+        <f>Table8[[#This Row],[tw]]*Table8[[#This Row],[fy]]*0.6*Table8[[#This Row],[Ix]]/Table8[[#This Row],[Qflange]]</f>
+        <v>5145833.333333333</v>
+      </c>
     </row>
-    <row r="30" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B30" s="15" t="str">
         <f>Table8[[#This Row],[Section]]&amp;"-"&amp;TEXT(Table8[[#This Row],[Grade]],"0")</f>
         <v>1200WB317-400</v>
@@ -6136,24 +6949,48 @@
         <f t="array" ref="AB30">INDEX(tbllkpSteelGrades[fy],MATCH(1,(Table8[[#This Row],[Grade]]=tbllkpSteelGrades[Grade])*(Table8[[#This Row],[tw]]&lt;=tbllkpSteelGrades[Thickness]),0))</f>
         <v>380000000</v>
       </c>
-      <c r="AC30" s="18">
+      <c r="AC30" s="17">
+        <f t="array" ref="AC30">INDEX(tbllkpSteelGrades[fu],MATCH(1,(Table8[[#This Row],[Grade]]=tbllkpSteelGrades[Grade])*(Table8[[#This Row],[tw]]&lt;=tbllkpSteelGrades[Thickness]),0))</f>
+        <v>480000000</v>
+      </c>
+      <c r="AD30" s="18">
         <f>IF(Table8[[#This Row],[Fabrication Type]]="Welded",Table8[[#This Row],[d1]],Table8[[#This Row],[d]])*Table8[[#This Row],[tw]]</f>
         <v>1.7919999999999998E-2</v>
       </c>
-      <c r="AD30" s="11">
+      <c r="AE30" s="11">
         <f>Table8[[#This Row],[Aw]]*Table8[[#This Row],[fy]]*0.6</f>
         <v>4085759.9999999991</v>
       </c>
-      <c r="AE30" s="35">
+      <c r="AF30" s="35">
         <f>82/SQRT(Table8[[#This Row],[fy]]/250000000)</f>
         <v>66.510782663612645</v>
       </c>
-      <c r="AF30" s="36">
+      <c r="AG30" s="36">
         <f>IF((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])&gt;Table8[[#This Row],[limiting web slenderness]],(82/((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])*SQRT(Table8[[#This Row],[fy]]/250000000)))^2,1)</f>
         <v>0.90279269602577916</v>
       </c>
+      <c r="AH30" s="38">
+        <f>IF(Table8[[#This Row],[Fabrication Type]]="Welded",IF(Table8[[#This Row],[tw]]&gt;0.016,0.016*Table8[[#This Row],[fu]],Table8[[#This Row],[tw]]*Table8[[#This Row],[fu]]),"")</f>
+        <v>7680000</v>
+      </c>
+      <c r="AI30" s="13">
+        <f>Table8[[#This Row],[d]]-Table8[[#This Row],[tf]]</f>
+        <v>1.1479999999999999</v>
+      </c>
+      <c r="AJ30" s="39">
+        <f>Table8[[#This Row],[bf]]*Table8[[#This Row],[tf]]*(Table8[[#This Row],[df]]/2)</f>
+        <v>6.4288000000000001E-3</v>
+      </c>
+      <c r="AK30" s="11">
+        <f>IF(Table8[[#This Row],[Fabrication Type]]="Welded",Table8[[#This Row],[vw]]*Table8[[#This Row],[Ix]]/Table8[[#This Row],[Qflange]],"")</f>
+        <v>11050273.768043803</v>
+      </c>
+      <c r="AL30" s="11">
+        <f>Table8[[#This Row],[tw]]*Table8[[#This Row],[fy]]*0.6*Table8[[#This Row],[Ix]]/Table8[[#This Row],[Qflange]]</f>
+        <v>5248880.0398208061</v>
+      </c>
     </row>
-    <row r="31" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B31" s="15" t="str">
         <f>Table8[[#This Row],[Section]]&amp;"-"&amp;TEXT(Table8[[#This Row],[Grade]],"0")</f>
         <v>1200WB278-400</v>
@@ -6237,24 +7074,48 @@
         <f t="array" ref="AB31">INDEX(tbllkpSteelGrades[fy],MATCH(1,(Table8[[#This Row],[Grade]]=tbllkpSteelGrades[Grade])*(Table8[[#This Row],[tw]]&lt;=tbllkpSteelGrades[Thickness]),0))</f>
         <v>380000000</v>
       </c>
-      <c r="AC31" s="18">
+      <c r="AC31" s="17">
+        <f t="array" ref="AC31">INDEX(tbllkpSteelGrades[fu],MATCH(1,(Table8[[#This Row],[Grade]]=tbllkpSteelGrades[Grade])*(Table8[[#This Row],[tw]]&lt;=tbllkpSteelGrades[Thickness]),0))</f>
+        <v>480000000</v>
+      </c>
+      <c r="AD31" s="18">
         <f>IF(Table8[[#This Row],[Fabrication Type]]="Welded",Table8[[#This Row],[d1]],Table8[[#This Row],[d]])*Table8[[#This Row],[tw]]</f>
         <v>1.7919999999999998E-2</v>
       </c>
-      <c r="AD31" s="11">
+      <c r="AE31" s="11">
         <f>Table8[[#This Row],[Aw]]*Table8[[#This Row],[fy]]*0.6</f>
         <v>4085759.9999999991</v>
       </c>
-      <c r="AE31" s="35">
+      <c r="AF31" s="35">
         <f>82/SQRT(Table8[[#This Row],[fy]]/250000000)</f>
         <v>66.510782663612645</v>
       </c>
-      <c r="AF31" s="36">
+      <c r="AG31" s="36">
         <f>IF((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])&gt;Table8[[#This Row],[limiting web slenderness]],(82/((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])*SQRT(Table8[[#This Row],[fy]]/250000000)))^2,1)</f>
         <v>0.90279269602577916</v>
       </c>
+      <c r="AH31" s="38">
+        <f>IF(Table8[[#This Row],[Fabrication Type]]="Welded",IF(Table8[[#This Row],[tw]]&gt;0.016,0.016*Table8[[#This Row],[fu]],Table8[[#This Row],[tw]]*Table8[[#This Row],[fu]]),"")</f>
+        <v>7680000</v>
+      </c>
+      <c r="AI31" s="13">
+        <f>Table8[[#This Row],[d]]-Table8[[#This Row],[tf]]</f>
+        <v>1.145</v>
+      </c>
+      <c r="AJ31" s="39">
+        <f>Table8[[#This Row],[bf]]*Table8[[#This Row],[tf]]*(Table8[[#This Row],[df]]/2)</f>
+        <v>5.0093749999999999E-3</v>
+      </c>
+      <c r="AK31" s="11">
+        <f>IF(Table8[[#This Row],[Fabrication Type]]="Welded",Table8[[#This Row],[vw]]*Table8[[#This Row],[Ix]]/Table8[[#This Row],[Qflange]],"")</f>
+        <v>11667084.21709295</v>
+      </c>
+      <c r="AL31" s="11">
+        <f>Table8[[#This Row],[tw]]*Table8[[#This Row],[fy]]*0.6*Table8[[#This Row],[Ix]]/Table8[[#This Row],[Qflange]]</f>
+        <v>5541865.0031191511</v>
+      </c>
     </row>
-    <row r="32" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B32" s="15" t="str">
         <f>Table8[[#This Row],[Section]]&amp;"-"&amp;TEXT(Table8[[#This Row],[Grade]],"0")</f>
         <v>1200WB249-400</v>
@@ -6338,24 +7199,48 @@
         <f t="array" ref="AB32">INDEX(tbllkpSteelGrades[fy],MATCH(1,(Table8[[#This Row],[Grade]]=tbllkpSteelGrades[Grade])*(Table8[[#This Row],[tw]]&lt;=tbllkpSteelGrades[Thickness]),0))</f>
         <v>380000000</v>
       </c>
-      <c r="AC32" s="18">
+      <c r="AC32" s="17">
+        <f t="array" ref="AC32">INDEX(tbllkpSteelGrades[fu],MATCH(1,(Table8[[#This Row],[Grade]]=tbllkpSteelGrades[Grade])*(Table8[[#This Row],[tw]]&lt;=tbllkpSteelGrades[Thickness]),0))</f>
+        <v>480000000</v>
+      </c>
+      <c r="AD32" s="18">
         <f>IF(Table8[[#This Row],[Fabrication Type]]="Welded",Table8[[#This Row],[d1]],Table8[[#This Row],[d]])*Table8[[#This Row],[tw]]</f>
         <v>1.7919999999999998E-2</v>
       </c>
-      <c r="AD32" s="11">
+      <c r="AE32" s="11">
         <f>Table8[[#This Row],[Aw]]*Table8[[#This Row],[fy]]*0.6</f>
         <v>4085759.9999999991</v>
       </c>
-      <c r="AE32" s="35">
+      <c r="AF32" s="35">
         <f>82/SQRT(Table8[[#This Row],[fy]]/250000000)</f>
         <v>66.510782663612645</v>
       </c>
-      <c r="AF32" s="36">
+      <c r="AG32" s="36">
         <f>IF((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])&gt;Table8[[#This Row],[limiting web slenderness]],(82/((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])*SQRT(Table8[[#This Row],[fy]]/250000000)))^2,1)</f>
         <v>0.90279269602577916</v>
       </c>
+      <c r="AH32" s="38">
+        <f>IF(Table8[[#This Row],[Fabrication Type]]="Welded",IF(Table8[[#This Row],[tw]]&gt;0.016,0.016*Table8[[#This Row],[fu]],Table8[[#This Row],[tw]]*Table8[[#This Row],[fu]]),"")</f>
+        <v>7680000</v>
+      </c>
+      <c r="AI32" s="13">
+        <f>Table8[[#This Row],[d]]-Table8[[#This Row],[tf]]</f>
+        <v>1.145</v>
+      </c>
+      <c r="AJ32" s="39">
+        <f>Table8[[#This Row],[bf]]*Table8[[#This Row],[tf]]*(Table8[[#This Row],[df]]/2)</f>
+        <v>3.9359375000000002E-3</v>
+      </c>
+      <c r="AK32" s="11">
+        <f>IF(Table8[[#This Row],[Fabrication Type]]="Welded",Table8[[#This Row],[vw]]*Table8[[#This Row],[Ix]]/Table8[[#This Row],[Qflange]],"")</f>
+        <v>12448978.165938864</v>
+      </c>
+      <c r="AL32" s="11">
+        <f>Table8[[#This Row],[tw]]*Table8[[#This Row],[fy]]*0.6*Table8[[#This Row],[Ix]]/Table8[[#This Row],[Qflange]]</f>
+        <v>5913264.6288209604</v>
+      </c>
     </row>
-    <row r="33" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B33" s="15" t="str">
         <f>Table8[[#This Row],[Section]]&amp;"-"&amp;TEXT(Table8[[#This Row],[Grade]],"0")</f>
         <v>1000WB322-400</v>
@@ -6439,24 +7324,48 @@
         <f t="array" ref="AB33">INDEX(tbllkpSteelGrades[fy],MATCH(1,(Table8[[#This Row],[Grade]]=tbllkpSteelGrades[Grade])*(Table8[[#This Row],[tw]]&lt;=tbllkpSteelGrades[Thickness]),0))</f>
         <v>380000000</v>
       </c>
-      <c r="AC33" s="18">
+      <c r="AC33" s="17">
+        <f t="array" ref="AC33">INDEX(tbllkpSteelGrades[fu],MATCH(1,(Table8[[#This Row],[Grade]]=tbllkpSteelGrades[Grade])*(Table8[[#This Row],[tw]]&lt;=tbllkpSteelGrades[Thickness]),0))</f>
+        <v>480000000</v>
+      </c>
+      <c r="AD33" s="18">
         <f>IF(Table8[[#This Row],[Fabrication Type]]="Welded",Table8[[#This Row],[d1]],Table8[[#This Row],[d]])*Table8[[#This Row],[tw]]</f>
         <v>1.536E-2</v>
       </c>
-      <c r="AD33" s="11">
+      <c r="AE33" s="11">
         <f>Table8[[#This Row],[Aw]]*Table8[[#This Row],[fy]]*0.6</f>
         <v>3502080</v>
       </c>
-      <c r="AE33" s="35">
+      <c r="AF33" s="35">
         <f>82/SQRT(Table8[[#This Row],[fy]]/250000000)</f>
         <v>66.510782663612645</v>
       </c>
-      <c r="AF33" s="36">
+      <c r="AG33" s="36">
         <f>IF((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])&gt;Table8[[#This Row],[limiting web slenderness]],(82/((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])*SQRT(Table8[[#This Row],[fy]]/250000000)))^2,1)</f>
         <v>1</v>
       </c>
+      <c r="AH33" s="38">
+        <f>IF(Table8[[#This Row],[Fabrication Type]]="Welded",IF(Table8[[#This Row],[tw]]&gt;0.016,0.016*Table8[[#This Row],[fu]],Table8[[#This Row],[tw]]*Table8[[#This Row],[fu]]),"")</f>
+        <v>7680000</v>
+      </c>
+      <c r="AI33" s="13">
+        <f>Table8[[#This Row],[d]]-Table8[[#This Row],[tf]]</f>
+        <v>0.99199999999999999</v>
+      </c>
+      <c r="AJ33" s="39">
+        <f>Table8[[#This Row],[bf]]*Table8[[#This Row],[tf]]*(Table8[[#This Row],[df]]/2)</f>
+        <v>6.3487999999999999E-3</v>
+      </c>
+      <c r="AK33" s="11">
+        <f>IF(Table8[[#This Row],[Fabrication Type]]="Welded",Table8[[#This Row],[vw]]*Table8[[#This Row],[Ix]]/Table8[[#This Row],[Qflange]],"")</f>
+        <v>9048387.0967741925</v>
+      </c>
+      <c r="AL33" s="11">
+        <f>Table8[[#This Row],[tw]]*Table8[[#This Row],[fy]]*0.6*Table8[[#This Row],[Ix]]/Table8[[#This Row],[Qflange]]</f>
+        <v>4297983.8709677411</v>
+      </c>
     </row>
-    <row r="34" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B34" s="15" t="str">
         <f>Table8[[#This Row],[Section]]&amp;"-"&amp;TEXT(Table8[[#This Row],[Grade]],"0")</f>
         <v>1000WB296-400</v>
@@ -6540,24 +7449,48 @@
         <f t="array" ref="AB34">INDEX(tbllkpSteelGrades[fy],MATCH(1,(Table8[[#This Row],[Grade]]=tbllkpSteelGrades[Grade])*(Table8[[#This Row],[tw]]&lt;=tbllkpSteelGrades[Thickness]),0))</f>
         <v>380000000</v>
       </c>
-      <c r="AC34" s="18">
+      <c r="AC34" s="17">
+        <f t="array" ref="AC34">INDEX(tbllkpSteelGrades[fu],MATCH(1,(Table8[[#This Row],[Grade]]=tbllkpSteelGrades[Grade])*(Table8[[#This Row],[tw]]&lt;=tbllkpSteelGrades[Thickness]),0))</f>
+        <v>480000000</v>
+      </c>
+      <c r="AD34" s="18">
         <f>IF(Table8[[#This Row],[Fabrication Type]]="Welded",Table8[[#This Row],[d1]],Table8[[#This Row],[d]])*Table8[[#This Row],[tw]]</f>
         <v>1.536E-2</v>
       </c>
-      <c r="AD34" s="11">
+      <c r="AE34" s="11">
         <f>Table8[[#This Row],[Aw]]*Table8[[#This Row],[fy]]*0.6</f>
         <v>3502080</v>
       </c>
-      <c r="AE34" s="35">
+      <c r="AF34" s="35">
         <f>82/SQRT(Table8[[#This Row],[fy]]/250000000)</f>
         <v>66.510782663612645</v>
       </c>
-      <c r="AF34" s="36">
+      <c r="AG34" s="36">
         <f>IF((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])&gt;Table8[[#This Row],[limiting web slenderness]],(82/((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])*SQRT(Table8[[#This Row],[fy]]/250000000)))^2,1)</f>
         <v>1</v>
       </c>
+      <c r="AH34" s="38">
+        <f>IF(Table8[[#This Row],[Fabrication Type]]="Welded",IF(Table8[[#This Row],[tw]]&gt;0.016,0.016*Table8[[#This Row],[fu]],Table8[[#This Row],[tw]]*Table8[[#This Row],[fu]]),"")</f>
+        <v>7680000</v>
+      </c>
+      <c r="AI34" s="13">
+        <f>Table8[[#This Row],[d]]-Table8[[#This Row],[tf]]</f>
+        <v>0.98799999999999999</v>
+      </c>
+      <c r="AJ34" s="39">
+        <f>Table8[[#This Row],[bf]]*Table8[[#This Row],[tf]]*(Table8[[#This Row],[df]]/2)</f>
+        <v>5.5328000000000009E-3</v>
+      </c>
+      <c r="AK34" s="11">
+        <f>IF(Table8[[#This Row],[Fabrication Type]]="Welded",Table8[[#This Row],[vw]]*Table8[[#This Row],[Ix]]/Table8[[#This Row],[Qflange]],"")</f>
+        <v>9230769.2307692301</v>
+      </c>
+      <c r="AL34" s="11">
+        <f>Table8[[#This Row],[tw]]*Table8[[#This Row],[fy]]*0.6*Table8[[#This Row],[Ix]]/Table8[[#This Row],[Qflange]]</f>
+        <v>4384615.3846153831</v>
+      </c>
     </row>
-    <row r="35" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B35" s="15" t="str">
         <f>Table8[[#This Row],[Section]]&amp;"-"&amp;TEXT(Table8[[#This Row],[Grade]],"0")</f>
         <v>1000WB258-400</v>
@@ -6641,24 +7574,48 @@
         <f t="array" ref="AB35">INDEX(tbllkpSteelGrades[fy],MATCH(1,(Table8[[#This Row],[Grade]]=tbllkpSteelGrades[Grade])*(Table8[[#This Row],[tw]]&lt;=tbllkpSteelGrades[Thickness]),0))</f>
         <v>380000000</v>
       </c>
-      <c r="AC35" s="18">
+      <c r="AC35" s="17">
+        <f t="array" ref="AC35">INDEX(tbllkpSteelGrades[fu],MATCH(1,(Table8[[#This Row],[Grade]]=tbllkpSteelGrades[Grade])*(Table8[[#This Row],[tw]]&lt;=tbllkpSteelGrades[Thickness]),0))</f>
+        <v>480000000</v>
+      </c>
+      <c r="AD35" s="18">
         <f>IF(Table8[[#This Row],[Fabrication Type]]="Welded",Table8[[#This Row],[d1]],Table8[[#This Row],[d]])*Table8[[#This Row],[tw]]</f>
         <v>1.536E-2</v>
       </c>
-      <c r="AD35" s="11">
+      <c r="AE35" s="11">
         <f>Table8[[#This Row],[Aw]]*Table8[[#This Row],[fy]]*0.6</f>
         <v>3502080</v>
       </c>
-      <c r="AE35" s="35">
+      <c r="AF35" s="35">
         <f>82/SQRT(Table8[[#This Row],[fy]]/250000000)</f>
         <v>66.510782663612645</v>
       </c>
-      <c r="AF35" s="36">
+      <c r="AG35" s="36">
         <f>IF((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])&gt;Table8[[#This Row],[limiting web slenderness]],(82/((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])*SQRT(Table8[[#This Row],[fy]]/250000000)))^2,1)</f>
         <v>1</v>
       </c>
+      <c r="AH35" s="38">
+        <f>IF(Table8[[#This Row],[Fabrication Type]]="Welded",IF(Table8[[#This Row],[tw]]&gt;0.016,0.016*Table8[[#This Row],[fu]],Table8[[#This Row],[tw]]*Table8[[#This Row],[fu]]),"")</f>
+        <v>7680000</v>
+      </c>
+      <c r="AI35" s="13">
+        <f>Table8[[#This Row],[d]]-Table8[[#This Row],[tf]]</f>
+        <v>0.98499999999999999</v>
+      </c>
+      <c r="AJ35" s="39">
+        <f>Table8[[#This Row],[bf]]*Table8[[#This Row],[tf]]*(Table8[[#This Row],[df]]/2)</f>
+        <v>4.3093749999999998E-3</v>
+      </c>
+      <c r="AK35" s="11">
+        <f>IF(Table8[[#This Row],[Fabrication Type]]="Welded",Table8[[#This Row],[vw]]*Table8[[#This Row],[Ix]]/Table8[[#This Row],[Qflange]],"")</f>
+        <v>9677134.1551849172</v>
+      </c>
+      <c r="AL35" s="11">
+        <f>Table8[[#This Row],[tw]]*Table8[[#This Row],[fy]]*0.6*Table8[[#This Row],[Ix]]/Table8[[#This Row],[Qflange]]</f>
+        <v>4596638.7237128355</v>
+      </c>
     </row>
-    <row r="36" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B36" s="15" t="str">
         <f>Table8[[#This Row],[Section]]&amp;"-"&amp;TEXT(Table8[[#This Row],[Grade]],"0")</f>
         <v>1000WB215-400</v>
@@ -6742,24 +7699,48 @@
         <f t="array" ref="AB36">INDEX(tbllkpSteelGrades[fy],MATCH(1,(Table8[[#This Row],[Grade]]=tbllkpSteelGrades[Grade])*(Table8[[#This Row],[tw]]&lt;=tbllkpSteelGrades[Thickness]),0))</f>
         <v>380000000</v>
       </c>
-      <c r="AC36" s="18">
+      <c r="AC36" s="17">
+        <f t="array" ref="AC36">INDEX(tbllkpSteelGrades[fu],MATCH(1,(Table8[[#This Row],[Grade]]=tbllkpSteelGrades[Grade])*(Table8[[#This Row],[tw]]&lt;=tbllkpSteelGrades[Thickness]),0))</f>
+        <v>480000000</v>
+      </c>
+      <c r="AD36" s="18">
         <f>IF(Table8[[#This Row],[Fabrication Type]]="Welded",Table8[[#This Row],[d1]],Table8[[#This Row],[d]])*Table8[[#This Row],[tw]]</f>
         <v>1.536E-2</v>
       </c>
-      <c r="AD36" s="11">
+      <c r="AE36" s="11">
         <f>Table8[[#This Row],[Aw]]*Table8[[#This Row],[fy]]*0.6</f>
         <v>3502080</v>
       </c>
-      <c r="AE36" s="35">
+      <c r="AF36" s="35">
         <f>82/SQRT(Table8[[#This Row],[fy]]/250000000)</f>
         <v>66.510782663612645</v>
       </c>
-      <c r="AF36" s="36">
+      <c r="AG36" s="36">
         <f>IF((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])&gt;Table8[[#This Row],[limiting web slenderness]],(82/((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])*SQRT(Table8[[#This Row],[fy]]/250000000)))^2,1)</f>
         <v>1</v>
       </c>
+      <c r="AH36" s="38">
+        <f>IF(Table8[[#This Row],[Fabrication Type]]="Welded",IF(Table8[[#This Row],[tw]]&gt;0.016,0.016*Table8[[#This Row],[fu]],Table8[[#This Row],[tw]]*Table8[[#This Row],[fu]]),"")</f>
+        <v>7680000</v>
+      </c>
+      <c r="AI36" s="13">
+        <f>Table8[[#This Row],[d]]-Table8[[#This Row],[tf]]</f>
+        <v>0.98</v>
+      </c>
+      <c r="AJ36" s="39">
+        <f>Table8[[#This Row],[bf]]*Table8[[#This Row],[tf]]*(Table8[[#This Row],[df]]/2)</f>
+        <v>2.9399999999999999E-3</v>
+      </c>
+      <c r="AK36" s="11">
+        <f>IF(Table8[[#This Row],[Fabrication Type]]="Welded",Table8[[#This Row],[vw]]*Table8[[#This Row],[Ix]]/Table8[[#This Row],[Qflange]],"")</f>
+        <v>10605714.285714287</v>
+      </c>
+      <c r="AL36" s="11">
+        <f>Table8[[#This Row],[tw]]*Table8[[#This Row],[fy]]*0.6*Table8[[#This Row],[Ix]]/Table8[[#This Row],[Qflange]]</f>
+        <v>5037714.2857142864</v>
+      </c>
     </row>
-    <row r="37" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B37" s="15" t="str">
         <f>Table8[[#This Row],[Section]]&amp;"-"&amp;TEXT(Table8[[#This Row],[Grade]],"0")</f>
         <v>900WB282-400</v>
@@ -6843,24 +7824,48 @@
         <f t="array" ref="AB37">INDEX(tbllkpSteelGrades[fy],MATCH(1,(Table8[[#This Row],[Grade]]=tbllkpSteelGrades[Grade])*(Table8[[#This Row],[tw]]&lt;=tbllkpSteelGrades[Thickness]),0))</f>
         <v>400000000</v>
       </c>
-      <c r="AC37" s="18">
+      <c r="AC37" s="17">
+        <f t="array" ref="AC37">INDEX(tbllkpSteelGrades[fu],MATCH(1,(Table8[[#This Row],[Grade]]=tbllkpSteelGrades[Grade])*(Table8[[#This Row],[tw]]&lt;=tbllkpSteelGrades[Thickness]),0))</f>
+        <v>480000000</v>
+      </c>
+      <c r="AD37" s="18">
         <f>IF(Table8[[#This Row],[Fabrication Type]]="Welded",Table8[[#This Row],[d1]],Table8[[#This Row],[d]])*Table8[[#This Row],[tw]]</f>
         <v>1.0320000000000001E-2</v>
       </c>
-      <c r="AD37" s="11">
+      <c r="AE37" s="11">
         <f>Table8[[#This Row],[Aw]]*Table8[[#This Row],[fy]]*0.6</f>
         <v>2476800</v>
       </c>
-      <c r="AE37" s="35">
+      <c r="AF37" s="35">
         <f>82/SQRT(Table8[[#This Row],[fy]]/250000000)</f>
         <v>64.826692033451778</v>
       </c>
-      <c r="AF37" s="36">
+      <c r="AG37" s="36">
         <f>IF((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])&gt;Table8[[#This Row],[limiting web slenderness]],(82/((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])*SQRT(Table8[[#This Row],[fy]]/250000000)))^2,1)</f>
         <v>0.81822606814494303</v>
       </c>
+      <c r="AH37" s="38">
+        <f>IF(Table8[[#This Row],[Fabrication Type]]="Welded",IF(Table8[[#This Row],[tw]]&gt;0.016,0.016*Table8[[#This Row],[fu]],Table8[[#This Row],[tw]]*Table8[[#This Row],[fu]]),"")</f>
+        <v>5760000</v>
+      </c>
+      <c r="AI37" s="13">
+        <f>Table8[[#This Row],[d]]-Table8[[#This Row],[tf]]</f>
+        <v>0.89200000000000002</v>
+      </c>
+      <c r="AJ37" s="39">
+        <f>Table8[[#This Row],[bf]]*Table8[[#This Row],[tf]]*(Table8[[#This Row],[df]]/2)</f>
+        <v>5.7088E-3</v>
+      </c>
+      <c r="AK37" s="11">
+        <f>IF(Table8[[#This Row],[Fabrication Type]]="Welded",Table8[[#This Row],[vw]]*Table8[[#This Row],[Ix]]/Table8[[#This Row],[Qflange]],"")</f>
+        <v>5781390.1345291473</v>
+      </c>
+      <c r="AL37" s="11">
+        <f>Table8[[#This Row],[tw]]*Table8[[#This Row],[fy]]*0.6*Table8[[#This Row],[Ix]]/Table8[[#This Row],[Qflange]]</f>
+        <v>2890695.0672645736</v>
+      </c>
     </row>
-    <row r="38" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B38" s="15" t="str">
         <f>Table8[[#This Row],[Section]]&amp;"-"&amp;TEXT(Table8[[#This Row],[Grade]],"0")</f>
         <v>900WB257-400</v>
@@ -6944,24 +7949,48 @@
         <f t="array" ref="AB38">INDEX(tbllkpSteelGrades[fy],MATCH(1,(Table8[[#This Row],[Grade]]=tbllkpSteelGrades[Grade])*(Table8[[#This Row],[tw]]&lt;=tbllkpSteelGrades[Thickness]),0))</f>
         <v>400000000</v>
       </c>
-      <c r="AC38" s="18">
+      <c r="AC38" s="17">
+        <f t="array" ref="AC38">INDEX(tbllkpSteelGrades[fu],MATCH(1,(Table8[[#This Row],[Grade]]=tbllkpSteelGrades[Grade])*(Table8[[#This Row],[tw]]&lt;=tbllkpSteelGrades[Thickness]),0))</f>
+        <v>480000000</v>
+      </c>
+      <c r="AD38" s="18">
         <f>IF(Table8[[#This Row],[Fabrication Type]]="Welded",Table8[[#This Row],[d1]],Table8[[#This Row],[d]])*Table8[[#This Row],[tw]]</f>
         <v>1.0319999999999999E-2</v>
       </c>
-      <c r="AD38" s="11">
+      <c r="AE38" s="11">
         <f>Table8[[#This Row],[Aw]]*Table8[[#This Row],[fy]]*0.6</f>
         <v>2476799.9999999995</v>
       </c>
-      <c r="AE38" s="35">
+      <c r="AF38" s="35">
         <f>82/SQRT(Table8[[#This Row],[fy]]/250000000)</f>
         <v>64.826692033451778</v>
       </c>
-      <c r="AF38" s="36">
+      <c r="AG38" s="36">
         <f>IF((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])&gt;Table8[[#This Row],[limiting web slenderness]],(82/((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])*SQRT(Table8[[#This Row],[fy]]/250000000)))^2,1)</f>
         <v>0.81822606814494325</v>
       </c>
+      <c r="AH38" s="38">
+        <f>IF(Table8[[#This Row],[Fabrication Type]]="Welded",IF(Table8[[#This Row],[tw]]&gt;0.016,0.016*Table8[[#This Row],[fu]],Table8[[#This Row],[tw]]*Table8[[#This Row],[fu]]),"")</f>
+        <v>5760000</v>
+      </c>
+      <c r="AI38" s="13">
+        <f>Table8[[#This Row],[d]]-Table8[[#This Row],[tf]]</f>
+        <v>0.88800000000000001</v>
+      </c>
+      <c r="AJ38" s="39">
+        <f>Table8[[#This Row],[bf]]*Table8[[#This Row],[tf]]*(Table8[[#This Row],[df]]/2)</f>
+        <v>4.9728000000000012E-3</v>
+      </c>
+      <c r="AK38" s="11">
+        <f>IF(Table8[[#This Row],[Fabrication Type]]="Welded",Table8[[#This Row],[vw]]*Table8[[#This Row],[Ix]]/Table8[[#This Row],[Qflange]],"")</f>
+        <v>5849420.8494208483</v>
+      </c>
+      <c r="AL38" s="11">
+        <f>Table8[[#This Row],[tw]]*Table8[[#This Row],[fy]]*0.6*Table8[[#This Row],[Ix]]/Table8[[#This Row],[Qflange]]</f>
+        <v>2924710.4247104242</v>
+      </c>
     </row>
-    <row r="39" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B39" s="15" t="str">
         <f>Table8[[#This Row],[Section]]&amp;"-"&amp;TEXT(Table8[[#This Row],[Grade]],"0")</f>
         <v>900WB218-400</v>
@@ -7045,24 +8074,48 @@
         <f t="array" ref="AB39">INDEX(tbllkpSteelGrades[fy],MATCH(1,(Table8[[#This Row],[Grade]]=tbllkpSteelGrades[Grade])*(Table8[[#This Row],[tw]]&lt;=tbllkpSteelGrades[Thickness]),0))</f>
         <v>400000000</v>
       </c>
-      <c r="AC39" s="18">
+      <c r="AC39" s="17">
+        <f t="array" ref="AC39">INDEX(tbllkpSteelGrades[fu],MATCH(1,(Table8[[#This Row],[Grade]]=tbllkpSteelGrades[Grade])*(Table8[[#This Row],[tw]]&lt;=tbllkpSteelGrades[Thickness]),0))</f>
+        <v>480000000</v>
+      </c>
+      <c r="AD39" s="18">
         <f>IF(Table8[[#This Row],[Fabrication Type]]="Welded",Table8[[#This Row],[d1]],Table8[[#This Row],[d]])*Table8[[#This Row],[tw]]</f>
         <v>1.0319999999999999E-2</v>
       </c>
-      <c r="AD39" s="11">
+      <c r="AE39" s="11">
         <f>Table8[[#This Row],[Aw]]*Table8[[#This Row],[fy]]*0.6</f>
         <v>2476799.9999999995</v>
       </c>
-      <c r="AE39" s="35">
+      <c r="AF39" s="35">
         <f>82/SQRT(Table8[[#This Row],[fy]]/250000000)</f>
         <v>64.826692033451778</v>
       </c>
-      <c r="AF39" s="36">
+      <c r="AG39" s="36">
         <f>IF((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])&gt;Table8[[#This Row],[limiting web slenderness]],(82/((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])*SQRT(Table8[[#This Row],[fy]]/250000000)))^2,1)</f>
         <v>0.81822606814494325</v>
       </c>
+      <c r="AH39" s="38">
+        <f>IF(Table8[[#This Row],[Fabrication Type]]="Welded",IF(Table8[[#This Row],[tw]]&gt;0.016,0.016*Table8[[#This Row],[fu]],Table8[[#This Row],[tw]]*Table8[[#This Row],[fu]]),"")</f>
+        <v>5760000</v>
+      </c>
+      <c r="AI39" s="13">
+        <f>Table8[[#This Row],[d]]-Table8[[#This Row],[tf]]</f>
+        <v>0.88500000000000001</v>
+      </c>
+      <c r="AJ39" s="39">
+        <f>Table8[[#This Row],[bf]]*Table8[[#This Row],[tf]]*(Table8[[#This Row],[df]]/2)</f>
+        <v>3.8718749999999994E-3</v>
+      </c>
+      <c r="AK39" s="11">
+        <f>IF(Table8[[#This Row],[Fabrication Type]]="Welded",Table8[[#This Row],[vw]]*Table8[[#This Row],[Ix]]/Table8[[#This Row],[Qflange]],"")</f>
+        <v>6039864.4067796627</v>
+      </c>
+      <c r="AL39" s="11">
+        <f>Table8[[#This Row],[tw]]*Table8[[#This Row],[fy]]*0.6*Table8[[#This Row],[Ix]]/Table8[[#This Row],[Qflange]]</f>
+        <v>3019932.2033898314</v>
+      </c>
     </row>
-    <row r="40" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B40" s="15" t="str">
         <f>Table8[[#This Row],[Section]]&amp;"-"&amp;TEXT(Table8[[#This Row],[Grade]],"0")</f>
         <v>900WB175-400</v>
@@ -7146,24 +8199,48 @@
         <f t="array" ref="AB40">INDEX(tbllkpSteelGrades[fy],MATCH(1,(Table8[[#This Row],[Grade]]=tbllkpSteelGrades[Grade])*(Table8[[#This Row],[tw]]&lt;=tbllkpSteelGrades[Thickness]),0))</f>
         <v>400000000</v>
       </c>
-      <c r="AC40" s="18">
+      <c r="AC40" s="17">
+        <f t="array" ref="AC40">INDEX(tbllkpSteelGrades[fu],MATCH(1,(Table8[[#This Row],[Grade]]=tbllkpSteelGrades[Grade])*(Table8[[#This Row],[tw]]&lt;=tbllkpSteelGrades[Thickness]),0))</f>
+        <v>480000000</v>
+      </c>
+      <c r="AD40" s="18">
         <f>IF(Table8[[#This Row],[Fabrication Type]]="Welded",Table8[[#This Row],[d1]],Table8[[#This Row],[d]])*Table8[[#This Row],[tw]]</f>
         <v>1.0319999999999999E-2</v>
       </c>
-      <c r="AD40" s="11">
+      <c r="AE40" s="11">
         <f>Table8[[#This Row],[Aw]]*Table8[[#This Row],[fy]]*0.6</f>
         <v>2476799.9999999995</v>
       </c>
-      <c r="AE40" s="35">
+      <c r="AF40" s="35">
         <f>82/SQRT(Table8[[#This Row],[fy]]/250000000)</f>
         <v>64.826692033451778</v>
       </c>
-      <c r="AF40" s="36">
+      <c r="AG40" s="36">
         <f>IF((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])&gt;Table8[[#This Row],[limiting web slenderness]],(82/((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])*SQRT(Table8[[#This Row],[fy]]/250000000)))^2,1)</f>
         <v>0.81822606814494325</v>
       </c>
+      <c r="AH40" s="38">
+        <f>IF(Table8[[#This Row],[Fabrication Type]]="Welded",IF(Table8[[#This Row],[tw]]&gt;0.016,0.016*Table8[[#This Row],[fu]],Table8[[#This Row],[tw]]*Table8[[#This Row],[fu]]),"")</f>
+        <v>5760000</v>
+      </c>
+      <c r="AI40" s="13">
+        <f>Table8[[#This Row],[d]]-Table8[[#This Row],[tf]]</f>
+        <v>0.88</v>
+      </c>
+      <c r="AJ40" s="39">
+        <f>Table8[[#This Row],[bf]]*Table8[[#This Row],[tf]]*(Table8[[#This Row],[df]]/2)</f>
+        <v>2.64E-3</v>
+      </c>
+      <c r="AK40" s="11">
+        <f>IF(Table8[[#This Row],[Fabrication Type]]="Welded",Table8[[#This Row],[vw]]*Table8[[#This Row],[Ix]]/Table8[[#This Row],[Qflange]],"")</f>
+        <v>6458181.8181818174</v>
+      </c>
+      <c r="AL40" s="11">
+        <f>Table8[[#This Row],[tw]]*Table8[[#This Row],[fy]]*0.6*Table8[[#This Row],[Ix]]/Table8[[#This Row],[Qflange]]</f>
+        <v>3229090.9090909087</v>
+      </c>
     </row>
-    <row r="41" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B41" s="15" t="str">
         <f>Table8[[#This Row],[Section]]&amp;"-"&amp;TEXT(Table8[[#This Row],[Grade]],"0")</f>
         <v>800WB192-400</v>
@@ -7247,24 +8324,48 @@
         <f t="array" ref="AB41">INDEX(tbllkpSteelGrades[fy],MATCH(1,(Table8[[#This Row],[Grade]]=tbllkpSteelGrades[Grade])*(Table8[[#This Row],[tw]]&lt;=tbllkpSteelGrades[Thickness]),0))</f>
         <v>400000000</v>
       </c>
-      <c r="AC41" s="18">
+      <c r="AC41" s="17">
+        <f t="array" ref="AC41">INDEX(tbllkpSteelGrades[fu],MATCH(1,(Table8[[#This Row],[Grade]]=tbllkpSteelGrades[Grade])*(Table8[[#This Row],[tw]]&lt;=tbllkpSteelGrades[Thickness]),0))</f>
+        <v>480000000</v>
+      </c>
+      <c r="AD41" s="18">
         <f>IF(Table8[[#This Row],[Fabrication Type]]="Welded",Table8[[#This Row],[d1]],Table8[[#This Row],[d]])*Table8[[#This Row],[tw]]</f>
         <v>7.5999999999999991E-3</v>
       </c>
-      <c r="AD41" s="11">
+      <c r="AE41" s="11">
         <f>Table8[[#This Row],[Aw]]*Table8[[#This Row],[fy]]*0.6</f>
         <v>1823999.9999999998</v>
       </c>
-      <c r="AE41" s="35">
+      <c r="AF41" s="35">
         <f>82/SQRT(Table8[[#This Row],[fy]]/250000000)</f>
         <v>64.826692033451778</v>
       </c>
-      <c r="AF41" s="36">
+      <c r="AG41" s="36">
         <f>IF((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])&gt;Table8[[#This Row],[limiting web slenderness]],(82/((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])*SQRT(Table8[[#This Row],[fy]]/250000000)))^2,1)</f>
         <v>0.72757963988919683</v>
       </c>
+      <c r="AH41" s="38">
+        <f>IF(Table8[[#This Row],[Fabrication Type]]="Welded",IF(Table8[[#This Row],[tw]]&gt;0.016,0.016*Table8[[#This Row],[fu]],Table8[[#This Row],[tw]]*Table8[[#This Row],[fu]]),"")</f>
+        <v>4800000</v>
+      </c>
+      <c r="AI41" s="13">
+        <f>Table8[[#This Row],[d]]-Table8[[#This Row],[tf]]</f>
+        <v>0.78799999999999992</v>
+      </c>
+      <c r="AJ41" s="39">
+        <f>Table8[[#This Row],[bf]]*Table8[[#This Row],[tf]]*(Table8[[#This Row],[df]]/2)</f>
+        <v>3.3095999999999993E-3</v>
+      </c>
+      <c r="AK41" s="11">
+        <f>IF(Table8[[#This Row],[Fabrication Type]]="Welded",Table8[[#This Row],[vw]]*Table8[[#This Row],[Ix]]/Table8[[#This Row],[Qflange]],"")</f>
+        <v>4307469.1805656282</v>
+      </c>
+      <c r="AL41" s="11">
+        <f>Table8[[#This Row],[tw]]*Table8[[#This Row],[fy]]*0.6*Table8[[#This Row],[Ix]]/Table8[[#This Row],[Qflange]]</f>
+        <v>2153734.5902828141</v>
+      </c>
     </row>
-    <row r="42" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B42" s="15" t="str">
         <f>Table8[[#This Row],[Section]]&amp;"-"&amp;TEXT(Table8[[#This Row],[Grade]],"0")</f>
         <v>800WB168-400</v>
@@ -7348,24 +8449,48 @@
         <f t="array" ref="AB42">INDEX(tbllkpSteelGrades[fy],MATCH(1,(Table8[[#This Row],[Grade]]=tbllkpSteelGrades[Grade])*(Table8[[#This Row],[tw]]&lt;=tbllkpSteelGrades[Thickness]),0))</f>
         <v>400000000</v>
       </c>
-      <c r="AC42" s="18">
+      <c r="AC42" s="17">
+        <f t="array" ref="AC42">INDEX(tbllkpSteelGrades[fu],MATCH(1,(Table8[[#This Row],[Grade]]=tbllkpSteelGrades[Grade])*(Table8[[#This Row],[tw]]&lt;=tbllkpSteelGrades[Thickness]),0))</f>
+        <v>480000000</v>
+      </c>
+      <c r="AD42" s="18">
         <f>IF(Table8[[#This Row],[Fabrication Type]]="Welded",Table8[[#This Row],[d1]],Table8[[#This Row],[d]])*Table8[[#This Row],[tw]]</f>
         <v>7.6E-3</v>
       </c>
-      <c r="AD42" s="11">
+      <c r="AE42" s="11">
         <f>Table8[[#This Row],[Aw]]*Table8[[#This Row],[fy]]*0.6</f>
         <v>1824000</v>
       </c>
-      <c r="AE42" s="35">
+      <c r="AF42" s="35">
         <f>82/SQRT(Table8[[#This Row],[fy]]/250000000)</f>
         <v>64.826692033451778</v>
       </c>
-      <c r="AF42" s="36">
+      <c r="AG42" s="36">
         <f>IF((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])&gt;Table8[[#This Row],[limiting web slenderness]],(82/((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])*SQRT(Table8[[#This Row],[fy]]/250000000)))^2,1)</f>
         <v>0.72757963988919661</v>
       </c>
+      <c r="AH42" s="38">
+        <f>IF(Table8[[#This Row],[Fabrication Type]]="Welded",IF(Table8[[#This Row],[tw]]&gt;0.016,0.016*Table8[[#This Row],[fu]],Table8[[#This Row],[tw]]*Table8[[#This Row],[fu]]),"")</f>
+        <v>4800000</v>
+      </c>
+      <c r="AI42" s="13">
+        <f>Table8[[#This Row],[d]]-Table8[[#This Row],[tf]]</f>
+        <v>0.78500000000000003</v>
+      </c>
+      <c r="AJ42" s="39">
+        <f>Table8[[#This Row],[bf]]*Table8[[#This Row],[tf]]*(Table8[[#This Row],[df]]/2)</f>
+        <v>2.6984375000000003E-3</v>
+      </c>
+      <c r="AK42" s="11">
+        <f>IF(Table8[[#This Row],[Fabrication Type]]="Welded",Table8[[#This Row],[vw]]*Table8[[#This Row],[Ix]]/Table8[[#This Row],[Qflange]],"")</f>
+        <v>4411441.8066010419</v>
+      </c>
+      <c r="AL42" s="11">
+        <f>Table8[[#This Row],[tw]]*Table8[[#This Row],[fy]]*0.6*Table8[[#This Row],[Ix]]/Table8[[#This Row],[Qflange]]</f>
+        <v>2205720.903300521</v>
+      </c>
     </row>
-    <row r="43" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B43" s="15" t="str">
         <f>Table8[[#This Row],[Section]]&amp;"-"&amp;TEXT(Table8[[#This Row],[Grade]],"0")</f>
         <v>800WB146-400</v>
@@ -7449,24 +8574,48 @@
         <f t="array" ref="AB43">INDEX(tbllkpSteelGrades[fy],MATCH(1,(Table8[[#This Row],[Grade]]=tbllkpSteelGrades[Grade])*(Table8[[#This Row],[tw]]&lt;=tbllkpSteelGrades[Thickness]),0))</f>
         <v>400000000</v>
       </c>
-      <c r="AC43" s="18">
+      <c r="AC43" s="17">
+        <f t="array" ref="AC43">INDEX(tbllkpSteelGrades[fu],MATCH(1,(Table8[[#This Row],[Grade]]=tbllkpSteelGrades[Grade])*(Table8[[#This Row],[tw]]&lt;=tbllkpSteelGrades[Thickness]),0))</f>
+        <v>480000000</v>
+      </c>
+      <c r="AD43" s="18">
         <f>IF(Table8[[#This Row],[Fabrication Type]]="Welded",Table8[[#This Row],[d1]],Table8[[#This Row],[d]])*Table8[[#This Row],[tw]]</f>
         <v>7.6E-3</v>
       </c>
-      <c r="AD43" s="11">
+      <c r="AE43" s="11">
         <f>Table8[[#This Row],[Aw]]*Table8[[#This Row],[fy]]*0.6</f>
         <v>1824000</v>
       </c>
-      <c r="AE43" s="35">
+      <c r="AF43" s="35">
         <f>82/SQRT(Table8[[#This Row],[fy]]/250000000)</f>
         <v>64.826692033451778</v>
       </c>
-      <c r="AF43" s="36">
+      <c r="AG43" s="36">
         <f>IF((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])&gt;Table8[[#This Row],[limiting web slenderness]],(82/((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])*SQRT(Table8[[#This Row],[fy]]/250000000)))^2,1)</f>
         <v>0.72757963988919661</v>
       </c>
+      <c r="AH43" s="38">
+        <f>IF(Table8[[#This Row],[Fabrication Type]]="Welded",IF(Table8[[#This Row],[tw]]&gt;0.016,0.016*Table8[[#This Row],[fu]],Table8[[#This Row],[tw]]*Table8[[#This Row],[fu]]),"")</f>
+        <v>4800000</v>
+      </c>
+      <c r="AI43" s="13">
+        <f>Table8[[#This Row],[d]]-Table8[[#This Row],[tf]]</f>
+        <v>0.78</v>
+      </c>
+      <c r="AJ43" s="39">
+        <f>Table8[[#This Row],[bf]]*Table8[[#This Row],[tf]]*(Table8[[#This Row],[df]]/2)</f>
+        <v>2.1450000000000002E-3</v>
+      </c>
+      <c r="AK43" s="11">
+        <f>IF(Table8[[#This Row],[Fabrication Type]]="Welded",Table8[[#This Row],[vw]]*Table8[[#This Row],[Ix]]/Table8[[#This Row],[Qflange]],"")</f>
+        <v>4565034.9650349645</v>
+      </c>
+      <c r="AL43" s="11">
+        <f>Table8[[#This Row],[tw]]*Table8[[#This Row],[fy]]*0.6*Table8[[#This Row],[Ix]]/Table8[[#This Row],[Qflange]]</f>
+        <v>2282517.4825174822</v>
+      </c>
     </row>
-    <row r="44" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B44" s="15" t="str">
         <f>Table8[[#This Row],[Section]]&amp;"-"&amp;TEXT(Table8[[#This Row],[Grade]],"0")</f>
         <v>800WB122-400</v>
@@ -7550,24 +8699,48 @@
         <f t="array" ref="AB44">INDEX(tbllkpSteelGrades[fy],MATCH(1,(Table8[[#This Row],[Grade]]=tbllkpSteelGrades[Grade])*(Table8[[#This Row],[tw]]&lt;=tbllkpSteelGrades[Thickness]),0))</f>
         <v>400000000</v>
       </c>
-      <c r="AC44" s="18">
+      <c r="AC44" s="17">
+        <f t="array" ref="AC44">INDEX(tbllkpSteelGrades[fu],MATCH(1,(Table8[[#This Row],[Grade]]=tbllkpSteelGrades[Grade])*(Table8[[#This Row],[tw]]&lt;=tbllkpSteelGrades[Thickness]),0))</f>
+        <v>480000000</v>
+      </c>
+      <c r="AD44" s="18">
         <f>IF(Table8[[#This Row],[Fabrication Type]]="Welded",Table8[[#This Row],[d1]],Table8[[#This Row],[d]])*Table8[[#This Row],[tw]]</f>
         <v>7.6E-3</v>
       </c>
-      <c r="AD44" s="11">
+      <c r="AE44" s="11">
         <f>Table8[[#This Row],[Aw]]*Table8[[#This Row],[fy]]*0.6</f>
         <v>1824000</v>
       </c>
-      <c r="AE44" s="35">
+      <c r="AF44" s="35">
         <f>82/SQRT(Table8[[#This Row],[fy]]/250000000)</f>
         <v>64.826692033451778</v>
       </c>
-      <c r="AF44" s="36">
+      <c r="AG44" s="36">
         <f>IF((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])&gt;Table8[[#This Row],[limiting web slenderness]],(82/((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])*SQRT(Table8[[#This Row],[fy]]/250000000)))^2,1)</f>
         <v>0.72757963988919661</v>
       </c>
+      <c r="AH44" s="38">
+        <f>IF(Table8[[#This Row],[Fabrication Type]]="Welded",IF(Table8[[#This Row],[tw]]&gt;0.016,0.016*Table8[[#This Row],[fu]],Table8[[#This Row],[tw]]*Table8[[#This Row],[fu]]),"")</f>
+        <v>4800000</v>
+      </c>
+      <c r="AI44" s="13">
+        <f>Table8[[#This Row],[d]]-Table8[[#This Row],[tf]]</f>
+        <v>0.77600000000000002</v>
+      </c>
+      <c r="AJ44" s="39">
+        <f>Table8[[#This Row],[bf]]*Table8[[#This Row],[tf]]*(Table8[[#This Row],[df]]/2)</f>
+        <v>1.552E-3</v>
+      </c>
+      <c r="AK44" s="11">
+        <f>IF(Table8[[#This Row],[Fabrication Type]]="Welded",Table8[[#This Row],[vw]]*Table8[[#This Row],[Ix]]/Table8[[#This Row],[Qflange]],"")</f>
+        <v>4855670.1030927831</v>
+      </c>
+      <c r="AL44" s="11">
+        <f>Table8[[#This Row],[tw]]*Table8[[#This Row],[fy]]*0.6*Table8[[#This Row],[Ix]]/Table8[[#This Row],[Qflange]]</f>
+        <v>2427835.0515463916</v>
+      </c>
     </row>
-    <row r="45" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B45" s="15" t="str">
         <f>Table8[[#This Row],[Section]]&amp;"-"&amp;TEXT(Table8[[#This Row],[Grade]],"0")</f>
         <v>700WB173-400</v>
@@ -7651,24 +8824,48 @@
         <f t="array" ref="AB45">INDEX(tbllkpSteelGrades[fy],MATCH(1,(Table8[[#This Row],[Grade]]=tbllkpSteelGrades[Grade])*(Table8[[#This Row],[tw]]&lt;=tbllkpSteelGrades[Thickness]),0))</f>
         <v>400000000</v>
       </c>
-      <c r="AC45" s="18">
+      <c r="AC45" s="17">
+        <f t="array" ref="AC45">INDEX(tbllkpSteelGrades[fu],MATCH(1,(Table8[[#This Row],[Grade]]=tbllkpSteelGrades[Grade])*(Table8[[#This Row],[tw]]&lt;=tbllkpSteelGrades[Thickness]),0))</f>
+        <v>480000000</v>
+      </c>
+      <c r="AD45" s="18">
         <f>IF(Table8[[#This Row],[Fabrication Type]]="Welded",Table8[[#This Row],[d1]],Table8[[#This Row],[d]])*Table8[[#This Row],[tw]]</f>
         <v>6.5999999999999991E-3</v>
       </c>
-      <c r="AD45" s="11">
+      <c r="AE45" s="11">
         <f>Table8[[#This Row],[Aw]]*Table8[[#This Row],[fy]]*0.6</f>
         <v>1583999.9999999998</v>
       </c>
-      <c r="AE45" s="35">
+      <c r="AF45" s="35">
         <f>82/SQRT(Table8[[#This Row],[fy]]/250000000)</f>
         <v>64.826692033451778</v>
       </c>
-      <c r="AF45" s="36">
+      <c r="AG45" s="36">
         <f>IF((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])&gt;Table8[[#This Row],[limiting web slenderness]],(82/((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])*SQRT(Table8[[#This Row],[fy]]/250000000)))^2,1)</f>
         <v>0.96476124885215842</v>
       </c>
+      <c r="AH45" s="38">
+        <f>IF(Table8[[#This Row],[Fabrication Type]]="Welded",IF(Table8[[#This Row],[tw]]&gt;0.016,0.016*Table8[[#This Row],[fu]],Table8[[#This Row],[tw]]*Table8[[#This Row],[fu]]),"")</f>
+        <v>4800000</v>
+      </c>
+      <c r="AI45" s="13">
+        <f>Table8[[#This Row],[d]]-Table8[[#This Row],[tf]]</f>
+        <v>0.68799999999999994</v>
+      </c>
+      <c r="AJ45" s="39">
+        <f>Table8[[#This Row],[bf]]*Table8[[#This Row],[tf]]*(Table8[[#This Row],[df]]/2)</f>
+        <v>2.6488000000000002E-3</v>
+      </c>
+      <c r="AK45" s="11">
+        <f>IF(Table8[[#This Row],[Fabrication Type]]="Welded",Table8[[#This Row],[vw]]*Table8[[#This Row],[Ix]]/Table8[[#This Row],[Qflange]],"")</f>
+        <v>3733011.1748716403</v>
+      </c>
+      <c r="AL45" s="11">
+        <f>Table8[[#This Row],[tw]]*Table8[[#This Row],[fy]]*0.6*Table8[[#This Row],[Ix]]/Table8[[#This Row],[Qflange]]</f>
+        <v>1866505.5874358201</v>
+      </c>
     </row>
-    <row r="46" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B46" s="15" t="str">
         <f>Table8[[#This Row],[Section]]&amp;"-"&amp;TEXT(Table8[[#This Row],[Grade]],"0")</f>
         <v>700WB150-400</v>
@@ -7752,24 +8949,48 @@
         <f t="array" ref="AB46">INDEX(tbllkpSteelGrades[fy],MATCH(1,(Table8[[#This Row],[Grade]]=tbllkpSteelGrades[Grade])*(Table8[[#This Row],[tw]]&lt;=tbllkpSteelGrades[Thickness]),0))</f>
         <v>400000000</v>
       </c>
-      <c r="AC46" s="18">
+      <c r="AC46" s="17">
+        <f t="array" ref="AC46">INDEX(tbllkpSteelGrades[fu],MATCH(1,(Table8[[#This Row],[Grade]]=tbllkpSteelGrades[Grade])*(Table8[[#This Row],[tw]]&lt;=tbllkpSteelGrades[Thickness]),0))</f>
+        <v>480000000</v>
+      </c>
+      <c r="AD46" s="18">
         <f>IF(Table8[[#This Row],[Fabrication Type]]="Welded",Table8[[#This Row],[d1]],Table8[[#This Row],[d]])*Table8[[#This Row],[tw]]</f>
         <v>6.5999999999999991E-3</v>
       </c>
-      <c r="AD46" s="11">
+      <c r="AE46" s="11">
         <f>Table8[[#This Row],[Aw]]*Table8[[#This Row],[fy]]*0.6</f>
         <v>1583999.9999999998</v>
       </c>
-      <c r="AE46" s="35">
+      <c r="AF46" s="35">
         <f>82/SQRT(Table8[[#This Row],[fy]]/250000000)</f>
         <v>64.826692033451778</v>
       </c>
-      <c r="AF46" s="36">
+      <c r="AG46" s="36">
         <f>IF((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])&gt;Table8[[#This Row],[limiting web slenderness]],(82/((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])*SQRT(Table8[[#This Row],[fy]]/250000000)))^2,1)</f>
         <v>0.96476124885215842</v>
       </c>
+      <c r="AH46" s="38">
+        <f>IF(Table8[[#This Row],[Fabrication Type]]="Welded",IF(Table8[[#This Row],[tw]]&gt;0.016,0.016*Table8[[#This Row],[fu]],Table8[[#This Row],[tw]]*Table8[[#This Row],[fu]]),"")</f>
+        <v>4800000</v>
+      </c>
+      <c r="AI46" s="13">
+        <f>Table8[[#This Row],[d]]-Table8[[#This Row],[tf]]</f>
+        <v>0.68499999999999994</v>
+      </c>
+      <c r="AJ46" s="39">
+        <f>Table8[[#This Row],[bf]]*Table8[[#This Row],[tf]]*(Table8[[#This Row],[df]]/2)</f>
+        <v>2.1406249999999997E-3</v>
+      </c>
+      <c r="AK46" s="11">
+        <f>IF(Table8[[#This Row],[Fabrication Type]]="Welded",Table8[[#This Row],[vw]]*Table8[[#This Row],[Ix]]/Table8[[#This Row],[Qflange]],"")</f>
+        <v>3834394.1605839422</v>
+      </c>
+      <c r="AL46" s="11">
+        <f>Table8[[#This Row],[tw]]*Table8[[#This Row],[fy]]*0.6*Table8[[#This Row],[Ix]]/Table8[[#This Row],[Qflange]]</f>
+        <v>1917197.0802919711</v>
+      </c>
     </row>
-    <row r="47" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B47" s="15" t="str">
         <f>Table8[[#This Row],[Section]]&amp;"-"&amp;TEXT(Table8[[#This Row],[Grade]],"0")</f>
         <v>700WB130-400</v>
@@ -7853,24 +9074,48 @@
         <f t="array" ref="AB47">INDEX(tbllkpSteelGrades[fy],MATCH(1,(Table8[[#This Row],[Grade]]=tbllkpSteelGrades[Grade])*(Table8[[#This Row],[tw]]&lt;=tbllkpSteelGrades[Thickness]),0))</f>
         <v>400000000</v>
       </c>
-      <c r="AC47" s="18">
+      <c r="AC47" s="17">
+        <f t="array" ref="AC47">INDEX(tbllkpSteelGrades[fu],MATCH(1,(Table8[[#This Row],[Grade]]=tbllkpSteelGrades[Grade])*(Table8[[#This Row],[tw]]&lt;=tbllkpSteelGrades[Thickness]),0))</f>
+        <v>480000000</v>
+      </c>
+      <c r="AD47" s="18">
         <f>IF(Table8[[#This Row],[Fabrication Type]]="Welded",Table8[[#This Row],[d1]],Table8[[#This Row],[d]])*Table8[[#This Row],[tw]]</f>
         <v>6.5999999999999991E-3</v>
       </c>
-      <c r="AD47" s="11">
+      <c r="AE47" s="11">
         <f>Table8[[#This Row],[Aw]]*Table8[[#This Row],[fy]]*0.6</f>
         <v>1583999.9999999998</v>
       </c>
-      <c r="AE47" s="35">
+      <c r="AF47" s="35">
         <f>82/SQRT(Table8[[#This Row],[fy]]/250000000)</f>
         <v>64.826692033451778</v>
       </c>
-      <c r="AF47" s="36">
+      <c r="AG47" s="36">
         <f>IF((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])&gt;Table8[[#This Row],[limiting web slenderness]],(82/((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])*SQRT(Table8[[#This Row],[fy]]/250000000)))^2,1)</f>
         <v>0.96476124885215842</v>
       </c>
+      <c r="AH47" s="38">
+        <f>IF(Table8[[#This Row],[Fabrication Type]]="Welded",IF(Table8[[#This Row],[tw]]&gt;0.016,0.016*Table8[[#This Row],[fu]],Table8[[#This Row],[tw]]*Table8[[#This Row],[fu]]),"")</f>
+        <v>4800000</v>
+      </c>
+      <c r="AI47" s="13">
+        <f>Table8[[#This Row],[d]]-Table8[[#This Row],[tf]]</f>
+        <v>0.67999999999999994</v>
+      </c>
+      <c r="AJ47" s="39">
+        <f>Table8[[#This Row],[bf]]*Table8[[#This Row],[tf]]*(Table8[[#This Row],[df]]/2)</f>
+        <v>1.6999999999999999E-3</v>
+      </c>
+      <c r="AK47" s="11">
+        <f>IF(Table8[[#This Row],[Fabrication Type]]="Welded",Table8[[#This Row],[vw]]*Table8[[#This Row],[Ix]]/Table8[[#This Row],[Qflange]],"")</f>
+        <v>3952941.1764705884</v>
+      </c>
+      <c r="AL47" s="11">
+        <f>Table8[[#This Row],[tw]]*Table8[[#This Row],[fy]]*0.6*Table8[[#This Row],[Ix]]/Table8[[#This Row],[Qflange]]</f>
+        <v>1976470.5882352942</v>
+      </c>
     </row>
-    <row r="48" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B48" s="15" t="str">
         <f>Table8[[#This Row],[Section]]&amp;"-"&amp;TEXT(Table8[[#This Row],[Grade]],"0")</f>
         <v>700WB115-400</v>
@@ -7954,24 +9199,48 @@
         <f t="array" ref="AB48">INDEX(tbllkpSteelGrades[fy],MATCH(1,(Table8[[#This Row],[Grade]]=tbllkpSteelGrades[Grade])*(Table8[[#This Row],[tw]]&lt;=tbllkpSteelGrades[Thickness]),0))</f>
         <v>400000000</v>
       </c>
-      <c r="AC48" s="18">
+      <c r="AC48" s="17">
+        <f t="array" ref="AC48">INDEX(tbllkpSteelGrades[fu],MATCH(1,(Table8[[#This Row],[Grade]]=tbllkpSteelGrades[Grade])*(Table8[[#This Row],[tw]]&lt;=tbllkpSteelGrades[Thickness]),0))</f>
+        <v>480000000</v>
+      </c>
+      <c r="AD48" s="18">
         <f>IF(Table8[[#This Row],[Fabrication Type]]="Welded",Table8[[#This Row],[d1]],Table8[[#This Row],[d]])*Table8[[#This Row],[tw]]</f>
         <v>6.5999999999999991E-3</v>
       </c>
-      <c r="AD48" s="11">
+      <c r="AE48" s="11">
         <f>Table8[[#This Row],[Aw]]*Table8[[#This Row],[fy]]*0.6</f>
         <v>1583999.9999999998</v>
       </c>
-      <c r="AE48" s="35">
+      <c r="AF48" s="35">
         <f>82/SQRT(Table8[[#This Row],[fy]]/250000000)</f>
         <v>64.826692033451778</v>
       </c>
-      <c r="AF48" s="36">
+      <c r="AG48" s="36">
         <f>IF((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])&gt;Table8[[#This Row],[limiting web slenderness]],(82/((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])*SQRT(Table8[[#This Row],[fy]]/250000000)))^2,1)</f>
         <v>0.96476124885215842</v>
       </c>
+      <c r="AH48" s="38">
+        <f>IF(Table8[[#This Row],[Fabrication Type]]="Welded",IF(Table8[[#This Row],[tw]]&gt;0.016,0.016*Table8[[#This Row],[fu]],Table8[[#This Row],[tw]]*Table8[[#This Row],[fu]]),"")</f>
+        <v>4800000</v>
+      </c>
+      <c r="AI48" s="13">
+        <f>Table8[[#This Row],[d]]-Table8[[#This Row],[tf]]</f>
+        <v>0.67599999999999993</v>
+      </c>
+      <c r="AJ48" s="39">
+        <f>Table8[[#This Row],[bf]]*Table8[[#This Row],[tf]]*(Table8[[#This Row],[df]]/2)</f>
+        <v>1.3519999999999999E-3</v>
+      </c>
+      <c r="AK48" s="11">
+        <f>IF(Table8[[#This Row],[Fabrication Type]]="Welded",Table8[[#This Row],[vw]]*Table8[[#This Row],[Ix]]/Table8[[#This Row],[Qflange]],"")</f>
+        <v>4082840.2366863908</v>
+      </c>
+      <c r="AL48" s="11">
+        <f>Table8[[#This Row],[tw]]*Table8[[#This Row],[fy]]*0.6*Table8[[#This Row],[Ix]]/Table8[[#This Row],[Qflange]]</f>
+        <v>2041420.1183431954</v>
+      </c>
     </row>
-    <row r="49" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B49" s="15" t="str">
         <f>Table8[[#This Row],[Section]]&amp;"-"&amp;TEXT(Table8[[#This Row],[Grade]],"0")</f>
         <v>500WC440-300</v>
@@ -8055,24 +9324,48 @@
         <f t="array" ref="AB49">INDEX(tbllkpSteelGrades[fy],MATCH(1,(Table8[[#This Row],[Grade]]=tbllkpSteelGrades[Grade])*(Table8[[#This Row],[tw]]&lt;=tbllkpSteelGrades[Thickness]),0))</f>
         <v>280000000</v>
       </c>
-      <c r="AC49" s="18">
+      <c r="AC49" s="17">
+        <f t="array" ref="AC49">INDEX(tbllkpSteelGrades[fu],MATCH(1,(Table8[[#This Row],[Grade]]=tbllkpSteelGrades[Grade])*(Table8[[#This Row],[tw]]&lt;=tbllkpSteelGrades[Thickness]),0))</f>
+        <v>430000000</v>
+      </c>
+      <c r="AD49" s="18">
         <f>IF(Table8[[#This Row],[Fabrication Type]]="Welded",Table8[[#This Row],[d1]],Table8[[#This Row],[d]])*Table8[[#This Row],[tw]]</f>
         <v>1.6E-2</v>
       </c>
-      <c r="AD49" s="11">
+      <c r="AE49" s="11">
         <f>Table8[[#This Row],[Aw]]*Table8[[#This Row],[fy]]*0.6</f>
         <v>2688000</v>
       </c>
-      <c r="AE49" s="35">
+      <c r="AF49" s="35">
         <f>82/SQRT(Table8[[#This Row],[fy]]/250000000)</f>
         <v>77.482716966891573</v>
       </c>
-      <c r="AF49" s="36">
+      <c r="AG49" s="36">
         <f>IF((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])&gt;Table8[[#This Row],[limiting web slenderness]],(82/((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])*SQRT(Table8[[#This Row],[fy]]/250000000)))^2,1)</f>
         <v>1</v>
       </c>
+      <c r="AH49" s="38">
+        <f>IF(Table8[[#This Row],[Fabrication Type]]="Welded",IF(Table8[[#This Row],[tw]]&gt;0.016,0.016*Table8[[#This Row],[fu]],Table8[[#This Row],[tw]]*Table8[[#This Row],[fu]]),"")</f>
+        <v>6880000</v>
+      </c>
+      <c r="AI49" s="13">
+        <f>Table8[[#This Row],[d]]-Table8[[#This Row],[tf]]</f>
+        <v>0.44</v>
+      </c>
+      <c r="AJ49" s="39">
+        <f>Table8[[#This Row],[bf]]*Table8[[#This Row],[tf]]*(Table8[[#This Row],[df]]/2)</f>
+        <v>4.4000000000000003E-3</v>
+      </c>
+      <c r="AK49" s="11">
+        <f>IF(Table8[[#This Row],[Fabrication Type]]="Welded",Table8[[#This Row],[vw]]*Table8[[#This Row],[Ix]]/Table8[[#This Row],[Qflange]],"")</f>
+        <v>3361818.1818181816</v>
+      </c>
+      <c r="AL49" s="11">
+        <f>Table8[[#This Row],[tw]]*Table8[[#This Row],[fy]]*0.6*Table8[[#This Row],[Ix]]/Table8[[#This Row],[Qflange]]</f>
+        <v>3283636.3636363633</v>
+      </c>
     </row>
-    <row r="50" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B50" s="15" t="str">
         <f>Table8[[#This Row],[Section]]&amp;"-"&amp;TEXT(Table8[[#This Row],[Grade]],"0")</f>
         <v>500WC414-300</v>
@@ -8156,24 +9449,48 @@
         <f t="array" ref="AB50">INDEX(tbllkpSteelGrades[fy],MATCH(1,(Table8[[#This Row],[Grade]]=tbllkpSteelGrades[Grade])*(Table8[[#This Row],[tw]]&lt;=tbllkpSteelGrades[Thickness]),0))</f>
         <v>280000000</v>
       </c>
-      <c r="AC50" s="18">
+      <c r="AC50" s="17">
+        <f t="array" ref="AC50">INDEX(tbllkpSteelGrades[fu],MATCH(1,(Table8[[#This Row],[Grade]]=tbllkpSteelGrades[Grade])*(Table8[[#This Row],[tw]]&lt;=tbllkpSteelGrades[Thickness]),0))</f>
+        <v>430000000</v>
+      </c>
+      <c r="AD50" s="18">
         <f>IF(Table8[[#This Row],[Fabrication Type]]="Welded",Table8[[#This Row],[d1]],Table8[[#This Row],[d]])*Table8[[#This Row],[tw]]</f>
         <v>1.2799999999999999E-2</v>
       </c>
-      <c r="AD50" s="11">
+      <c r="AE50" s="11">
         <f>Table8[[#This Row],[Aw]]*Table8[[#This Row],[fy]]*0.6</f>
         <v>2150399.9999999995</v>
       </c>
-      <c r="AE50" s="35">
+      <c r="AF50" s="35">
         <f>82/SQRT(Table8[[#This Row],[fy]]/250000000)</f>
         <v>77.482716966891573</v>
       </c>
-      <c r="AF50" s="36">
+      <c r="AG50" s="36">
         <f>IF((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])&gt;Table8[[#This Row],[limiting web slenderness]],(82/((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])*SQRT(Table8[[#This Row],[fy]]/250000000)))^2,1)</f>
         <v>1</v>
       </c>
+      <c r="AH50" s="38">
+        <f>IF(Table8[[#This Row],[Fabrication Type]]="Welded",IF(Table8[[#This Row],[tw]]&gt;0.016,0.016*Table8[[#This Row],[fu]],Table8[[#This Row],[tw]]*Table8[[#This Row],[fu]]),"")</f>
+        <v>6880000</v>
+      </c>
+      <c r="AI50" s="13">
+        <f>Table8[[#This Row],[d]]-Table8[[#This Row],[tf]]</f>
+        <v>0.44</v>
+      </c>
+      <c r="AJ50" s="39">
+        <f>Table8[[#This Row],[bf]]*Table8[[#This Row],[tf]]*(Table8[[#This Row],[df]]/2)</f>
+        <v>4.4000000000000003E-3</v>
+      </c>
+      <c r="AK50" s="11">
+        <f>IF(Table8[[#This Row],[Fabrication Type]]="Welded",Table8[[#This Row],[vw]]*Table8[[#This Row],[Ix]]/Table8[[#This Row],[Qflange]],"")</f>
+        <v>3299272.7272727271</v>
+      </c>
+      <c r="AL50" s="11">
+        <f>Table8[[#This Row],[tw]]*Table8[[#This Row],[fy]]*0.6*Table8[[#This Row],[Ix]]/Table8[[#This Row],[Qflange]]</f>
+        <v>2578036.3636363633</v>
+      </c>
     </row>
-    <row r="51" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B51" s="15" t="str">
         <f>Table8[[#This Row],[Section]]&amp;"-"&amp;TEXT(Table8[[#This Row],[Grade]],"0")</f>
         <v>500WC383-300</v>
@@ -8257,24 +9574,48 @@
         <f t="array" ref="AB51">INDEX(tbllkpSteelGrades[fy],MATCH(1,(Table8[[#This Row],[Grade]]=tbllkpSteelGrades[Grade])*(Table8[[#This Row],[tw]]&lt;=tbllkpSteelGrades[Thickness]),0))</f>
         <v>280000000</v>
       </c>
-      <c r="AC51" s="18">
+      <c r="AC51" s="17">
+        <f t="array" ref="AC51">INDEX(tbllkpSteelGrades[fu],MATCH(1,(Table8[[#This Row],[Grade]]=tbllkpSteelGrades[Grade])*(Table8[[#This Row],[tw]]&lt;=tbllkpSteelGrades[Thickness]),0))</f>
+        <v>430000000</v>
+      </c>
+      <c r="AD51" s="18">
         <f>IF(Table8[[#This Row],[Fabrication Type]]="Welded",Table8[[#This Row],[d1]],Table8[[#This Row],[d]])*Table8[[#This Row],[tw]]</f>
         <v>1.2799999999999999E-2</v>
       </c>
-      <c r="AD51" s="11">
+      <c r="AE51" s="11">
         <f>Table8[[#This Row],[Aw]]*Table8[[#This Row],[fy]]*0.6</f>
         <v>2150399.9999999995</v>
       </c>
-      <c r="AE51" s="35">
+      <c r="AF51" s="35">
         <f>82/SQRT(Table8[[#This Row],[fy]]/250000000)</f>
         <v>77.482716966891573</v>
       </c>
-      <c r="AF51" s="36">
+      <c r="AG51" s="36">
         <f>IF((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])&gt;Table8[[#This Row],[limiting web slenderness]],(82/((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])*SQRT(Table8[[#This Row],[fy]]/250000000)))^2,1)</f>
         <v>1</v>
       </c>
+      <c r="AH51" s="38">
+        <f>IF(Table8[[#This Row],[Fabrication Type]]="Welded",IF(Table8[[#This Row],[tw]]&gt;0.016,0.016*Table8[[#This Row],[fu]],Table8[[#This Row],[tw]]*Table8[[#This Row],[fu]]),"")</f>
+        <v>6880000</v>
+      </c>
+      <c r="AI51" s="13">
+        <f>Table8[[#This Row],[d]]-Table8[[#This Row],[tf]]</f>
+        <v>0.436</v>
+      </c>
+      <c r="AJ51" s="39">
+        <f>Table8[[#This Row],[bf]]*Table8[[#This Row],[tf]]*(Table8[[#This Row],[df]]/2)</f>
+        <v>3.9239999999999995E-3</v>
+      </c>
+      <c r="AK51" s="11">
+        <f>IF(Table8[[#This Row],[Fabrication Type]]="Welded",Table8[[#This Row],[vw]]*Table8[[#This Row],[Ix]]/Table8[[#This Row],[Qflange]],"")</f>
+        <v>3313761.4678899082</v>
+      </c>
+      <c r="AL51" s="11">
+        <f>Table8[[#This Row],[tw]]*Table8[[#This Row],[fy]]*0.6*Table8[[#This Row],[Ix]]/Table8[[#This Row],[Qflange]]</f>
+        <v>2589357.7981651379</v>
+      </c>
     </row>
-    <row r="52" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B52" s="15" t="str">
         <f>Table8[[#This Row],[Section]]&amp;"-"&amp;TEXT(Table8[[#This Row],[Grade]],"0")</f>
         <v>500WC340-300</v>
@@ -8358,24 +9699,48 @@
         <f t="array" ref="AB52">INDEX(tbllkpSteelGrades[fy],MATCH(1,(Table8[[#This Row],[Grade]]=tbllkpSteelGrades[Grade])*(Table8[[#This Row],[tw]]&lt;=tbllkpSteelGrades[Thickness]),0))</f>
         <v>280000000</v>
       </c>
-      <c r="AC52" s="18">
+      <c r="AC52" s="17">
+        <f t="array" ref="AC52">INDEX(tbllkpSteelGrades[fu],MATCH(1,(Table8[[#This Row],[Grade]]=tbllkpSteelGrades[Grade])*(Table8[[#This Row],[tw]]&lt;=tbllkpSteelGrades[Thickness]),0))</f>
+        <v>430000000</v>
+      </c>
+      <c r="AD52" s="18">
         <f>IF(Table8[[#This Row],[Fabrication Type]]="Welded",Table8[[#This Row],[d1]],Table8[[#This Row],[d]])*Table8[[#This Row],[tw]]</f>
         <v>1.1250000000000001E-2</v>
       </c>
-      <c r="AD52" s="11">
+      <c r="AE52" s="11">
         <f>Table8[[#This Row],[Aw]]*Table8[[#This Row],[fy]]*0.6</f>
         <v>1890000.0000000002</v>
       </c>
-      <c r="AE52" s="35">
+      <c r="AF52" s="35">
         <f>82/SQRT(Table8[[#This Row],[fy]]/250000000)</f>
         <v>77.482716966891573</v>
       </c>
-      <c r="AF52" s="36">
+      <c r="AG52" s="36">
         <f>IF((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])&gt;Table8[[#This Row],[limiting web slenderness]],(82/((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])*SQRT(Table8[[#This Row],[fy]]/250000000)))^2,1)</f>
         <v>1</v>
       </c>
+      <c r="AH52" s="38">
+        <f>IF(Table8[[#This Row],[Fabrication Type]]="Welded",IF(Table8[[#This Row],[tw]]&gt;0.016,0.016*Table8[[#This Row],[fu]],Table8[[#This Row],[tw]]*Table8[[#This Row],[fu]]),"")</f>
+        <v>6880000</v>
+      </c>
+      <c r="AI52" s="13">
+        <f>Table8[[#This Row],[d]]-Table8[[#This Row],[tf]]</f>
+        <v>0.48199999999999998</v>
+      </c>
+      <c r="AJ52" s="39">
+        <f>Table8[[#This Row],[bf]]*Table8[[#This Row],[tf]]*(Table8[[#This Row],[df]]/2)</f>
+        <v>3.8560000000000001E-3</v>
+      </c>
+      <c r="AK52" s="11">
+        <f>IF(Table8[[#This Row],[Fabrication Type]]="Welded",Table8[[#This Row],[vw]]*Table8[[#This Row],[Ix]]/Table8[[#This Row],[Qflange]],"")</f>
+        <v>3657676.3485477185</v>
+      </c>
+      <c r="AL52" s="11">
+        <f>Table8[[#This Row],[tw]]*Table8[[#This Row],[fy]]*0.6*Table8[[#This Row],[Ix]]/Table8[[#This Row],[Qflange]]</f>
+        <v>2232883.8174273861</v>
+      </c>
     </row>
-    <row r="53" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B53" s="15" t="str">
         <f>Table8[[#This Row],[Section]]&amp;"-"&amp;TEXT(Table8[[#This Row],[Grade]],"0")</f>
         <v>500WC290-300</v>
@@ -8459,24 +9824,48 @@
         <f t="array" ref="AB53">INDEX(tbllkpSteelGrades[fy],MATCH(1,(Table8[[#This Row],[Grade]]=tbllkpSteelGrades[Grade])*(Table8[[#This Row],[tw]]&lt;=tbllkpSteelGrades[Thickness]),0))</f>
         <v>300000000</v>
       </c>
-      <c r="AC53" s="18">
+      <c r="AC53" s="17">
+        <f t="array" ref="AC53">INDEX(tbllkpSteelGrades[fu],MATCH(1,(Table8[[#This Row],[Grade]]=tbllkpSteelGrades[Grade])*(Table8[[#This Row],[tw]]&lt;=tbllkpSteelGrades[Thickness]),0))</f>
+        <v>430000000</v>
+      </c>
+      <c r="AD53" s="18">
         <f>IF(Table8[[#This Row],[Fabrication Type]]="Welded",Table8[[#This Row],[d1]],Table8[[#This Row],[d]])*Table8[[#This Row],[tw]]</f>
         <v>9.0000000000000011E-3</v>
       </c>
-      <c r="AD53" s="11">
+      <c r="AE53" s="11">
         <f>Table8[[#This Row],[Aw]]*Table8[[#This Row],[fy]]*0.6</f>
         <v>1620000.0000000002</v>
       </c>
-      <c r="AE53" s="35">
+      <c r="AF53" s="35">
         <f>82/SQRT(Table8[[#This Row],[fy]]/250000000)</f>
         <v>74.855416192372701</v>
       </c>
-      <c r="AF53" s="36">
+      <c r="AG53" s="36">
         <f>IF((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])&gt;Table8[[#This Row],[limiting web slenderness]],(82/((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])*SQRT(Table8[[#This Row],[fy]]/250000000)))^2,1)</f>
         <v>1</v>
       </c>
+      <c r="AH53" s="38">
+        <f>IF(Table8[[#This Row],[Fabrication Type]]="Welded",IF(Table8[[#This Row],[tw]]&gt;0.016,0.016*Table8[[#This Row],[fu]],Table8[[#This Row],[tw]]*Table8[[#This Row],[fu]]),"")</f>
+        <v>6880000</v>
+      </c>
+      <c r="AI53" s="13">
+        <f>Table8[[#This Row],[d]]-Table8[[#This Row],[tf]]</f>
+        <v>0.47799999999999998</v>
+      </c>
+      <c r="AJ53" s="39">
+        <f>Table8[[#This Row],[bf]]*Table8[[#This Row],[tf]]*(Table8[[#This Row],[df]]/2)</f>
+        <v>3.346E-3</v>
+      </c>
+      <c r="AK53" s="11">
+        <f>IF(Table8[[#This Row],[Fabrication Type]]="Welded",Table8[[#This Row],[vw]]*Table8[[#This Row],[Ix]]/Table8[[#This Row],[Qflange]],"")</f>
+        <v>3598326.3598326361</v>
+      </c>
+      <c r="AL53" s="11">
+        <f>Table8[[#This Row],[tw]]*Table8[[#This Row],[fy]]*0.6*Table8[[#This Row],[Ix]]/Table8[[#This Row],[Qflange]]</f>
+        <v>1882845.1882845189</v>
+      </c>
     </row>
-    <row r="54" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B54" s="15" t="str">
         <f>Table8[[#This Row],[Section]]&amp;"-"&amp;TEXT(Table8[[#This Row],[Grade]],"0")</f>
         <v>500WC267-300</v>
@@ -8560,24 +9949,48 @@
         <f t="array" ref="AB54">INDEX(tbllkpSteelGrades[fy],MATCH(1,(Table8[[#This Row],[Grade]]=tbllkpSteelGrades[Grade])*(Table8[[#This Row],[tw]]&lt;=tbllkpSteelGrades[Thickness]),0))</f>
         <v>300000000</v>
       </c>
-      <c r="AC54" s="18">
+      <c r="AC54" s="17">
+        <f t="array" ref="AC54">INDEX(tbllkpSteelGrades[fu],MATCH(1,(Table8[[#This Row],[Grade]]=tbllkpSteelGrades[Grade])*(Table8[[#This Row],[tw]]&lt;=tbllkpSteelGrades[Thickness]),0))</f>
+        <v>430000000</v>
+      </c>
+      <c r="AD54" s="18">
         <f>IF(Table8[[#This Row],[Fabrication Type]]="Welded",Table8[[#This Row],[d1]],Table8[[#This Row],[d]])*Table8[[#This Row],[tw]]</f>
         <v>9.0000000000000011E-3</v>
       </c>
-      <c r="AD54" s="11">
+      <c r="AE54" s="11">
         <f>Table8[[#This Row],[Aw]]*Table8[[#This Row],[fy]]*0.6</f>
         <v>1620000.0000000002</v>
       </c>
-      <c r="AE54" s="35">
+      <c r="AF54" s="35">
         <f>82/SQRT(Table8[[#This Row],[fy]]/250000000)</f>
         <v>74.855416192372701</v>
       </c>
-      <c r="AF54" s="36">
+      <c r="AG54" s="36">
         <f>IF((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])&gt;Table8[[#This Row],[limiting web slenderness]],(82/((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])*SQRT(Table8[[#This Row],[fy]]/250000000)))^2,1)</f>
         <v>1</v>
       </c>
+      <c r="AH54" s="38">
+        <f>IF(Table8[[#This Row],[Fabrication Type]]="Welded",IF(Table8[[#This Row],[tw]]&gt;0.016,0.016*Table8[[#This Row],[fu]],Table8[[#This Row],[tw]]*Table8[[#This Row],[fu]]),"")</f>
+        <v>6880000</v>
+      </c>
+      <c r="AI54" s="13">
+        <f>Table8[[#This Row],[d]]-Table8[[#This Row],[tf]]</f>
+        <v>0.47499999999999998</v>
+      </c>
+      <c r="AJ54" s="39">
+        <f>Table8[[#This Row],[bf]]*Table8[[#This Row],[tf]]*(Table8[[#This Row],[df]]/2)</f>
+        <v>2.96875E-3</v>
+      </c>
+      <c r="AK54" s="11">
+        <f>IF(Table8[[#This Row],[Fabrication Type]]="Welded",Table8[[#This Row],[vw]]*Table8[[#This Row],[Ix]]/Table8[[#This Row],[Qflange]],"")</f>
+        <v>3615258.9473684207</v>
+      </c>
+      <c r="AL54" s="11">
+        <f>Table8[[#This Row],[tw]]*Table8[[#This Row],[fy]]*0.6*Table8[[#This Row],[Ix]]/Table8[[#This Row],[Qflange]]</f>
+        <v>1891705.2631578946</v>
+      </c>
     </row>
-    <row r="55" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B55" s="15" t="str">
         <f>Table8[[#This Row],[Section]]&amp;"-"&amp;TEXT(Table8[[#This Row],[Grade]],"0")</f>
         <v>500WC228-300</v>
@@ -8661,24 +10074,48 @@
         <f t="array" ref="AB55">INDEX(tbllkpSteelGrades[fy],MATCH(1,(Table8[[#This Row],[Grade]]=tbllkpSteelGrades[Grade])*(Table8[[#This Row],[tw]]&lt;=tbllkpSteelGrades[Thickness]),0))</f>
         <v>300000000</v>
       </c>
-      <c r="AC55" s="18">
+      <c r="AC55" s="17">
+        <f t="array" ref="AC55">INDEX(tbllkpSteelGrades[fu],MATCH(1,(Table8[[#This Row],[Grade]]=tbllkpSteelGrades[Grade])*(Table8[[#This Row],[tw]]&lt;=tbllkpSteelGrades[Thickness]),0))</f>
+        <v>430000000</v>
+      </c>
+      <c r="AD55" s="18">
         <f>IF(Table8[[#This Row],[Fabrication Type]]="Welded",Table8[[#This Row],[d1]],Table8[[#This Row],[d]])*Table8[[#This Row],[tw]]</f>
         <v>9.0000000000000011E-3</v>
       </c>
-      <c r="AD55" s="11">
+      <c r="AE55" s="11">
         <f>Table8[[#This Row],[Aw]]*Table8[[#This Row],[fy]]*0.6</f>
         <v>1620000.0000000002</v>
       </c>
-      <c r="AE55" s="35">
+      <c r="AF55" s="35">
         <f>82/SQRT(Table8[[#This Row],[fy]]/250000000)</f>
         <v>74.855416192372701</v>
       </c>
-      <c r="AF55" s="36">
+      <c r="AG55" s="36">
         <f>IF((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])&gt;Table8[[#This Row],[limiting web slenderness]],(82/((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])*SQRT(Table8[[#This Row],[fy]]/250000000)))^2,1)</f>
         <v>1</v>
       </c>
+      <c r="AH55" s="38">
+        <f>IF(Table8[[#This Row],[Fabrication Type]]="Welded",IF(Table8[[#This Row],[tw]]&gt;0.016,0.016*Table8[[#This Row],[fu]],Table8[[#This Row],[tw]]*Table8[[#This Row],[fu]]),"")</f>
+        <v>6880000</v>
+      </c>
+      <c r="AI55" s="13">
+        <f>Table8[[#This Row],[d]]-Table8[[#This Row],[tf]]</f>
+        <v>0.47</v>
+      </c>
+      <c r="AJ55" s="39">
+        <f>Table8[[#This Row],[bf]]*Table8[[#This Row],[tf]]*(Table8[[#This Row],[df]]/2)</f>
+        <v>2.3500000000000001E-3</v>
+      </c>
+      <c r="AK55" s="11">
+        <f>IF(Table8[[#This Row],[Fabrication Type]]="Welded",Table8[[#This Row],[vw]]*Table8[[#This Row],[Ix]]/Table8[[#This Row],[Qflange]],"")</f>
+        <v>3688851.0638297875</v>
+      </c>
+      <c r="AL55" s="11">
+        <f>Table8[[#This Row],[tw]]*Table8[[#This Row],[fy]]*0.6*Table8[[#This Row],[Ix]]/Table8[[#This Row],[Qflange]]</f>
+        <v>1930212.7659574468</v>
+      </c>
     </row>
-    <row r="56" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B56" s="15" t="str">
         <f>Table8[[#This Row],[Section]]&amp;"-"&amp;TEXT(Table8[[#This Row],[Grade]],"0")</f>
         <v>400WC361-300</v>
@@ -8762,24 +10199,48 @@
         <f t="array" ref="AB56">INDEX(tbllkpSteelGrades[fy],MATCH(1,(Table8[[#This Row],[Grade]]=tbllkpSteelGrades[Grade])*(Table8[[#This Row],[tw]]&lt;=tbllkpSteelGrades[Thickness]),0))</f>
         <v>280000000</v>
       </c>
-      <c r="AC56" s="18">
+      <c r="AC56" s="17">
+        <f t="array" ref="AC56">INDEX(tbllkpSteelGrades[fu],MATCH(1,(Table8[[#This Row],[Grade]]=tbllkpSteelGrades[Grade])*(Table8[[#This Row],[tw]]&lt;=tbllkpSteelGrades[Thickness]),0))</f>
+        <v>430000000</v>
+      </c>
+      <c r="AD56" s="18">
         <f>IF(Table8[[#This Row],[Fabrication Type]]="Welded",Table8[[#This Row],[d1]],Table8[[#This Row],[d]])*Table8[[#This Row],[tw]]</f>
         <v>1.3999999999999999E-2</v>
       </c>
-      <c r="AD56" s="11">
+      <c r="AE56" s="11">
         <f>Table8[[#This Row],[Aw]]*Table8[[#This Row],[fy]]*0.6</f>
         <v>2351999.9999999995</v>
       </c>
-      <c r="AE56" s="35">
+      <c r="AF56" s="35">
         <f>82/SQRT(Table8[[#This Row],[fy]]/250000000)</f>
         <v>77.482716966891573</v>
       </c>
-      <c r="AF56" s="36">
+      <c r="AG56" s="36">
         <f>IF((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])&gt;Table8[[#This Row],[limiting web slenderness]],(82/((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])*SQRT(Table8[[#This Row],[fy]]/250000000)))^2,1)</f>
         <v>1</v>
       </c>
+      <c r="AH56" s="38">
+        <f>IF(Table8[[#This Row],[Fabrication Type]]="Welded",IF(Table8[[#This Row],[tw]]&gt;0.016,0.016*Table8[[#This Row],[fu]],Table8[[#This Row],[tw]]*Table8[[#This Row],[fu]]),"")</f>
+        <v>6880000</v>
+      </c>
+      <c r="AI56" s="13">
+        <f>Table8[[#This Row],[d]]-Table8[[#This Row],[tf]]</f>
+        <v>0.39</v>
+      </c>
+      <c r="AJ56" s="39">
+        <f>Table8[[#This Row],[bf]]*Table8[[#This Row],[tf]]*(Table8[[#This Row],[df]]/2)</f>
+        <v>3.1200000000000004E-3</v>
+      </c>
+      <c r="AK56" s="11">
+        <f>IF(Table8[[#This Row],[Fabrication Type]]="Welded",Table8[[#This Row],[vw]]*Table8[[#This Row],[Ix]]/Table8[[#This Row],[Qflange]],"")</f>
+        <v>2998974.358974359</v>
+      </c>
+      <c r="AL56" s="11">
+        <f>Table8[[#This Row],[tw]]*Table8[[#This Row],[fy]]*0.6*Table8[[#This Row],[Ix]]/Table8[[#This Row],[Qflange]]</f>
+        <v>2929230.769230769</v>
+      </c>
     </row>
-    <row r="57" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B57" s="15" t="str">
         <f>Table8[[#This Row],[Section]]&amp;"-"&amp;TEXT(Table8[[#This Row],[Grade]],"0")</f>
         <v>400WC328-300</v>
@@ -8863,24 +10324,48 @@
         <f t="array" ref="AB57">INDEX(tbllkpSteelGrades[fy],MATCH(1,(Table8[[#This Row],[Grade]]=tbllkpSteelGrades[Grade])*(Table8[[#This Row],[tw]]&lt;=tbllkpSteelGrades[Thickness]),0))</f>
         <v>280000000</v>
       </c>
-      <c r="AC57" s="18">
+      <c r="AC57" s="17">
+        <f t="array" ref="AC57">INDEX(tbllkpSteelGrades[fu],MATCH(1,(Table8[[#This Row],[Grade]]=tbllkpSteelGrades[Grade])*(Table8[[#This Row],[tw]]&lt;=tbllkpSteelGrades[Thickness]),0))</f>
+        <v>430000000</v>
+      </c>
+      <c r="AD57" s="18">
         <f>IF(Table8[[#This Row],[Fabrication Type]]="Welded",Table8[[#This Row],[d1]],Table8[[#This Row],[d]])*Table8[[#This Row],[tw]]</f>
         <v>9.7999999999999997E-3</v>
       </c>
-      <c r="AD57" s="11">
+      <c r="AE57" s="11">
         <f>Table8[[#This Row],[Aw]]*Table8[[#This Row],[fy]]*0.6</f>
         <v>1646400</v>
       </c>
-      <c r="AE57" s="35">
+      <c r="AF57" s="35">
         <f>82/SQRT(Table8[[#This Row],[fy]]/250000000)</f>
         <v>77.482716966891573</v>
       </c>
-      <c r="AF57" s="36">
+      <c r="AG57" s="36">
         <f>IF((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])&gt;Table8[[#This Row],[limiting web slenderness]],(82/((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])*SQRT(Table8[[#This Row],[fy]]/250000000)))^2,1)</f>
         <v>1</v>
       </c>
+      <c r="AH57" s="38">
+        <f>IF(Table8[[#This Row],[Fabrication Type]]="Welded",IF(Table8[[#This Row],[tw]]&gt;0.016,0.016*Table8[[#This Row],[fu]],Table8[[#This Row],[tw]]*Table8[[#This Row],[fu]]),"")</f>
+        <v>6880000</v>
+      </c>
+      <c r="AI57" s="13">
+        <f>Table8[[#This Row],[d]]-Table8[[#This Row],[tf]]</f>
+        <v>0.39</v>
+      </c>
+      <c r="AJ57" s="39">
+        <f>Table8[[#This Row],[bf]]*Table8[[#This Row],[tf]]*(Table8[[#This Row],[df]]/2)</f>
+        <v>3.1200000000000004E-3</v>
+      </c>
+      <c r="AK57" s="11">
+        <f>IF(Table8[[#This Row],[Fabrication Type]]="Welded",Table8[[#This Row],[vw]]*Table8[[#This Row],[Ix]]/Table8[[#This Row],[Qflange]],"")</f>
+        <v>2910769.2307692305</v>
+      </c>
+      <c r="AL57" s="11">
+        <f>Table8[[#This Row],[tw]]*Table8[[#This Row],[fy]]*0.6*Table8[[#This Row],[Ix]]/Table8[[#This Row],[Qflange]]</f>
+        <v>1990153.8461538458</v>
+      </c>
     </row>
-    <row r="58" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B58" s="15" t="str">
         <f>Table8[[#This Row],[Section]]&amp;"-"&amp;TEXT(Table8[[#This Row],[Grade]],"0")</f>
         <v>400WC303-300</v>
@@ -8964,24 +10449,48 @@
         <f t="array" ref="AB58">INDEX(tbllkpSteelGrades[fy],MATCH(1,(Table8[[#This Row],[Grade]]=tbllkpSteelGrades[Grade])*(Table8[[#This Row],[tw]]&lt;=tbllkpSteelGrades[Thickness]),0))</f>
         <v>280000000</v>
       </c>
-      <c r="AC58" s="18">
+      <c r="AC58" s="17">
+        <f t="array" ref="AC58">INDEX(tbllkpSteelGrades[fu],MATCH(1,(Table8[[#This Row],[Grade]]=tbllkpSteelGrades[Grade])*(Table8[[#This Row],[tw]]&lt;=tbllkpSteelGrades[Thickness]),0))</f>
+        <v>430000000</v>
+      </c>
+      <c r="AD58" s="18">
         <f>IF(Table8[[#This Row],[Fabrication Type]]="Welded",Table8[[#This Row],[d1]],Table8[[#This Row],[d]])*Table8[[#This Row],[tw]]</f>
         <v>9.7999999999999997E-3</v>
       </c>
-      <c r="AD58" s="11">
+      <c r="AE58" s="11">
         <f>Table8[[#This Row],[Aw]]*Table8[[#This Row],[fy]]*0.6</f>
         <v>1646400</v>
       </c>
-      <c r="AE58" s="35">
+      <c r="AF58" s="35">
         <f>82/SQRT(Table8[[#This Row],[fy]]/250000000)</f>
         <v>77.482716966891573</v>
       </c>
-      <c r="AF58" s="36">
+      <c r="AG58" s="36">
         <f>IF((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])&gt;Table8[[#This Row],[limiting web slenderness]],(82/((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])*SQRT(Table8[[#This Row],[fy]]/250000000)))^2,1)</f>
         <v>1</v>
       </c>
+      <c r="AH58" s="38">
+        <f>IF(Table8[[#This Row],[Fabrication Type]]="Welded",IF(Table8[[#This Row],[tw]]&gt;0.016,0.016*Table8[[#This Row],[fu]],Table8[[#This Row],[tw]]*Table8[[#This Row],[fu]]),"")</f>
+        <v>6880000</v>
+      </c>
+      <c r="AI58" s="13">
+        <f>Table8[[#This Row],[d]]-Table8[[#This Row],[tf]]</f>
+        <v>0.38600000000000001</v>
+      </c>
+      <c r="AJ58" s="39">
+        <f>Table8[[#This Row],[bf]]*Table8[[#This Row],[tf]]*(Table8[[#This Row],[df]]/2)</f>
+        <v>2.7791999999999999E-3</v>
+      </c>
+      <c r="AK58" s="11">
+        <f>IF(Table8[[#This Row],[Fabrication Type]]="Welded",Table8[[#This Row],[vw]]*Table8[[#This Row],[Ix]]/Table8[[#This Row],[Qflange]],"")</f>
+        <v>2921128.3822682789</v>
+      </c>
+      <c r="AL58" s="11">
+        <f>Table8[[#This Row],[tw]]*Table8[[#This Row],[fy]]*0.6*Table8[[#This Row],[Ix]]/Table8[[#This Row],[Qflange]]</f>
+        <v>1997236.6148531954</v>
+      </c>
     </row>
-    <row r="59" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B59" s="15" t="str">
         <f>Table8[[#This Row],[Section]]&amp;"-"&amp;TEXT(Table8[[#This Row],[Grade]],"0")</f>
         <v>400WC270-300</v>
@@ -9065,24 +10574,48 @@
         <f t="array" ref="AB59">INDEX(tbllkpSteelGrades[fy],MATCH(1,(Table8[[#This Row],[Grade]]=tbllkpSteelGrades[Grade])*(Table8[[#This Row],[tw]]&lt;=tbllkpSteelGrades[Thickness]),0))</f>
         <v>280000000</v>
       </c>
-      <c r="AC59" s="18">
+      <c r="AC59" s="17">
+        <f t="array" ref="AC59">INDEX(tbllkpSteelGrades[fu],MATCH(1,(Table8[[#This Row],[Grade]]=tbllkpSteelGrades[Grade])*(Table8[[#This Row],[tw]]&lt;=tbllkpSteelGrades[Thickness]),0))</f>
+        <v>430000000</v>
+      </c>
+      <c r="AD59" s="18">
         <f>IF(Table8[[#This Row],[Fabrication Type]]="Welded",Table8[[#This Row],[d1]],Table8[[#This Row],[d]])*Table8[[#This Row],[tw]]</f>
         <v>8.7499999999999991E-3</v>
       </c>
-      <c r="AD59" s="11">
+      <c r="AE59" s="11">
         <f>Table8[[#This Row],[Aw]]*Table8[[#This Row],[fy]]*0.6</f>
         <v>1469999.9999999998</v>
       </c>
-      <c r="AE59" s="35">
+      <c r="AF59" s="35">
         <f>82/SQRT(Table8[[#This Row],[fy]]/250000000)</f>
         <v>77.482716966891573</v>
       </c>
-      <c r="AF59" s="36">
+      <c r="AG59" s="36">
         <f>IF((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])&gt;Table8[[#This Row],[limiting web slenderness]],(82/((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])*SQRT(Table8[[#This Row],[fy]]/250000000)))^2,1)</f>
         <v>1</v>
       </c>
+      <c r="AH59" s="38">
+        <f>IF(Table8[[#This Row],[Fabrication Type]]="Welded",IF(Table8[[#This Row],[tw]]&gt;0.016,0.016*Table8[[#This Row],[fu]],Table8[[#This Row],[tw]]*Table8[[#This Row],[fu]]),"")</f>
+        <v>6880000</v>
+      </c>
+      <c r="AI59" s="13">
+        <f>Table8[[#This Row],[d]]-Table8[[#This Row],[tf]]</f>
+        <v>0.38200000000000001</v>
+      </c>
+      <c r="AJ59" s="39">
+        <f>Table8[[#This Row],[bf]]*Table8[[#This Row],[tf]]*(Table8[[#This Row],[df]]/2)</f>
+        <v>2.4448E-3</v>
+      </c>
+      <c r="AK59" s="11">
+        <f>IF(Table8[[#This Row],[Fabrication Type]]="Welded",Table8[[#This Row],[vw]]*Table8[[#This Row],[Ix]]/Table8[[#This Row],[Qflange]],"")</f>
+        <v>2898560.2094240841</v>
+      </c>
+      <c r="AL59" s="11">
+        <f>Table8[[#This Row],[tw]]*Table8[[#This Row],[fy]]*0.6*Table8[[#This Row],[Ix]]/Table8[[#This Row],[Qflange]]</f>
+        <v>1769469.8952879582</v>
+      </c>
     </row>
-    <row r="60" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B60" s="15" t="str">
         <f>Table8[[#This Row],[Section]]&amp;"-"&amp;TEXT(Table8[[#This Row],[Grade]],"0")</f>
         <v>400WC212-300</v>
@@ -9166,24 +10699,48 @@
         <f t="array" ref="AB60">INDEX(tbllkpSteelGrades[fy],MATCH(1,(Table8[[#This Row],[Grade]]=tbllkpSteelGrades[Grade])*(Table8[[#This Row],[tw]]&lt;=tbllkpSteelGrades[Thickness]),0))</f>
         <v>300000000</v>
       </c>
-      <c r="AC60" s="18">
+      <c r="AC60" s="17">
+        <f t="array" ref="AC60">INDEX(tbllkpSteelGrades[fu],MATCH(1,(Table8[[#This Row],[Grade]]=tbllkpSteelGrades[Grade])*(Table8[[#This Row],[tw]]&lt;=tbllkpSteelGrades[Thickness]),0))</f>
+        <v>430000000</v>
+      </c>
+      <c r="AD60" s="18">
         <f>IF(Table8[[#This Row],[Fabrication Type]]="Welded",Table8[[#This Row],[d1]],Table8[[#This Row],[d]])*Table8[[#This Row],[tw]]</f>
         <v>7.000000000000001E-3</v>
       </c>
-      <c r="AD60" s="11">
+      <c r="AE60" s="11">
         <f>Table8[[#This Row],[Aw]]*Table8[[#This Row],[fy]]*0.6</f>
         <v>1260000.0000000002</v>
       </c>
-      <c r="AE60" s="35">
+      <c r="AF60" s="35">
         <f>82/SQRT(Table8[[#This Row],[fy]]/250000000)</f>
         <v>74.855416192372701</v>
       </c>
-      <c r="AF60" s="36">
+      <c r="AG60" s="36">
         <f>IF((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])&gt;Table8[[#This Row],[limiting web slenderness]],(82/((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])*SQRT(Table8[[#This Row],[fy]]/250000000)))^2,1)</f>
         <v>1</v>
       </c>
+      <c r="AH60" s="38">
+        <f>IF(Table8[[#This Row],[Fabrication Type]]="Welded",IF(Table8[[#This Row],[tw]]&gt;0.016,0.016*Table8[[#This Row],[fu]],Table8[[#This Row],[tw]]*Table8[[#This Row],[fu]]),"")</f>
+        <v>6880000</v>
+      </c>
+      <c r="AI60" s="13">
+        <f>Table8[[#This Row],[d]]-Table8[[#This Row],[tf]]</f>
+        <v>0.375</v>
+      </c>
+      <c r="AJ60" s="39">
+        <f>Table8[[#This Row],[bf]]*Table8[[#This Row],[tf]]*(Table8[[#This Row],[df]]/2)</f>
+        <v>1.8750000000000004E-3</v>
+      </c>
+      <c r="AK60" s="11">
+        <f>IF(Table8[[#This Row],[Fabrication Type]]="Welded",Table8[[#This Row],[vw]]*Table8[[#This Row],[Ix]]/Table8[[#This Row],[Qflange]],"")</f>
+        <v>2847402.666666666</v>
+      </c>
+      <c r="AL60" s="11">
+        <f>Table8[[#This Row],[tw]]*Table8[[#This Row],[fy]]*0.6*Table8[[#This Row],[Ix]]/Table8[[#This Row],[Qflange]]</f>
+        <v>1489919.9999999998</v>
+      </c>
     </row>
-    <row r="61" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B61" s="15" t="str">
         <f>Table8[[#This Row],[Section]]&amp;"-"&amp;TEXT(Table8[[#This Row],[Grade]],"0")</f>
         <v>400WC181-300</v>
@@ -9267,24 +10824,48 @@
         <f t="array" ref="AB61">INDEX(tbllkpSteelGrades[fy],MATCH(1,(Table8[[#This Row],[Grade]]=tbllkpSteelGrades[Grade])*(Table8[[#This Row],[tw]]&lt;=tbllkpSteelGrades[Thickness]),0))</f>
         <v>300000000</v>
       </c>
-      <c r="AC61" s="18">
+      <c r="AC61" s="17">
+        <f t="array" ref="AC61">INDEX(tbllkpSteelGrades[fu],MATCH(1,(Table8[[#This Row],[Grade]]=tbllkpSteelGrades[Grade])*(Table8[[#This Row],[tw]]&lt;=tbllkpSteelGrades[Thickness]),0))</f>
+        <v>430000000</v>
+      </c>
+      <c r="AD61" s="18">
         <f>IF(Table8[[#This Row],[Fabrication Type]]="Welded",Table8[[#This Row],[d1]],Table8[[#This Row],[d]])*Table8[[#This Row],[tw]]</f>
         <v>7.000000000000001E-3</v>
       </c>
-      <c r="AD61" s="11">
+      <c r="AE61" s="11">
         <f>Table8[[#This Row],[Aw]]*Table8[[#This Row],[fy]]*0.6</f>
         <v>1260000.0000000002</v>
       </c>
-      <c r="AE61" s="35">
+      <c r="AF61" s="35">
         <f>82/SQRT(Table8[[#This Row],[fy]]/250000000)</f>
         <v>74.855416192372701</v>
       </c>
-      <c r="AF61" s="36">
+      <c r="AG61" s="36">
         <f>IF((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])&gt;Table8[[#This Row],[limiting web slenderness]],(82/((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])*SQRT(Table8[[#This Row],[fy]]/250000000)))^2,1)</f>
         <v>1</v>
       </c>
+      <c r="AH61" s="38">
+        <f>IF(Table8[[#This Row],[Fabrication Type]]="Welded",IF(Table8[[#This Row],[tw]]&gt;0.016,0.016*Table8[[#This Row],[fu]],Table8[[#This Row],[tw]]*Table8[[#This Row],[fu]]),"")</f>
+        <v>6880000</v>
+      </c>
+      <c r="AI61" s="13">
+        <f>Table8[[#This Row],[d]]-Table8[[#This Row],[tf]]</f>
+        <v>0.37</v>
+      </c>
+      <c r="AJ61" s="39">
+        <f>Table8[[#This Row],[bf]]*Table8[[#This Row],[tf]]*(Table8[[#This Row],[df]]/2)</f>
+        <v>1.48E-3</v>
+      </c>
+      <c r="AK61" s="11">
+        <f>IF(Table8[[#This Row],[Fabrication Type]]="Welded",Table8[[#This Row],[vw]]*Table8[[#This Row],[Ix]]/Table8[[#This Row],[Qflange]],"")</f>
+        <v>2882162.1621621624</v>
+      </c>
+      <c r="AL61" s="11">
+        <f>Table8[[#This Row],[tw]]*Table8[[#This Row],[fy]]*0.6*Table8[[#This Row],[Ix]]/Table8[[#This Row],[Qflange]]</f>
+        <v>1508108.1081081082</v>
+      </c>
     </row>
-    <row r="62" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B62" s="15" t="str">
         <f>Table8[[#This Row],[Section]]&amp;"-"&amp;TEXT(Table8[[#This Row],[Grade]],"0")</f>
         <v>400WC144-300</v>
@@ -9368,24 +10949,48 @@
         <f t="array" ref="AB62">INDEX(tbllkpSteelGrades[fy],MATCH(1,(Table8[[#This Row],[Grade]]=tbllkpSteelGrades[Grade])*(Table8[[#This Row],[tw]]&lt;=tbllkpSteelGrades[Thickness]),0))</f>
         <v>300000000</v>
       </c>
-      <c r="AC62" s="18">
+      <c r="AC62" s="17">
+        <f t="array" ref="AC62">INDEX(tbllkpSteelGrades[fu],MATCH(1,(Table8[[#This Row],[Grade]]=tbllkpSteelGrades[Grade])*(Table8[[#This Row],[tw]]&lt;=tbllkpSteelGrades[Thickness]),0))</f>
+        <v>430000000</v>
+      </c>
+      <c r="AD62" s="18">
         <f>IF(Table8[[#This Row],[Fabrication Type]]="Welded",Table8[[#This Row],[d1]],Table8[[#This Row],[d]])*Table8[[#This Row],[tw]]</f>
         <v>5.5999999999999999E-3</v>
       </c>
-      <c r="AD62" s="11">
+      <c r="AE62" s="11">
         <f>Table8[[#This Row],[Aw]]*Table8[[#This Row],[fy]]*0.6</f>
         <v>1008000</v>
       </c>
-      <c r="AE62" s="35">
+      <c r="AF62" s="35">
         <f>82/SQRT(Table8[[#This Row],[fy]]/250000000)</f>
         <v>74.855416192372701</v>
       </c>
-      <c r="AF62" s="36">
+      <c r="AG62" s="36">
         <f>IF((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])&gt;Table8[[#This Row],[limiting web slenderness]],(82/((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])*SQRT(Table8[[#This Row],[fy]]/250000000)))^2,1)</f>
         <v>1</v>
       </c>
+      <c r="AH62" s="38">
+        <f>IF(Table8[[#This Row],[Fabrication Type]]="Welded",IF(Table8[[#This Row],[tw]]&gt;0.016,0.016*Table8[[#This Row],[fu]],Table8[[#This Row],[tw]]*Table8[[#This Row],[fu]]),"")</f>
+        <v>6880000</v>
+      </c>
+      <c r="AI62" s="13">
+        <f>Table8[[#This Row],[d]]-Table8[[#This Row],[tf]]</f>
+        <v>0.36599999999999999</v>
+      </c>
+      <c r="AJ62" s="39">
+        <f>Table8[[#This Row],[bf]]*Table8[[#This Row],[tf]]*(Table8[[#This Row],[df]]/2)</f>
+        <v>1.1712000000000001E-3</v>
+      </c>
+      <c r="AK62" s="11">
+        <f>IF(Table8[[#This Row],[Fabrication Type]]="Welded",Table8[[#This Row],[vw]]*Table8[[#This Row],[Ix]]/Table8[[#This Row],[Qflange]],"")</f>
+        <v>2854918.0327868848</v>
+      </c>
+      <c r="AL62" s="11">
+        <f>Table8[[#This Row],[tw]]*Table8[[#This Row],[fy]]*0.6*Table8[[#This Row],[Ix]]/Table8[[#This Row],[Qflange]]</f>
+        <v>1195081.9672131147</v>
+      </c>
     </row>
-    <row r="63" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B63" s="15" t="str">
         <f>Table8[[#This Row],[Section]]&amp;"-"&amp;TEXT(Table8[[#This Row],[Grade]],"0")</f>
         <v>350WC280-300</v>
@@ -9469,24 +11074,48 @@
         <f t="array" ref="AB63">INDEX(tbllkpSteelGrades[fy],MATCH(1,(Table8[[#This Row],[Grade]]=tbllkpSteelGrades[Grade])*(Table8[[#This Row],[tw]]&lt;=tbllkpSteelGrades[Thickness]),0))</f>
         <v>280000000</v>
       </c>
-      <c r="AC63" s="18">
+      <c r="AC63" s="17">
+        <f t="array" ref="AC63">INDEX(tbllkpSteelGrades[fu],MATCH(1,(Table8[[#This Row],[Grade]]=tbllkpSteelGrades[Grade])*(Table8[[#This Row],[tw]]&lt;=tbllkpSteelGrades[Thickness]),0))</f>
+        <v>430000000</v>
+      </c>
+      <c r="AD63" s="18">
         <f>IF(Table8[[#This Row],[Fabrication Type]]="Welded",Table8[[#This Row],[d1]],Table8[[#This Row],[d]])*Table8[[#This Row],[tw]]</f>
         <v>7.6999999999999994E-3</v>
       </c>
-      <c r="AD63" s="11">
+      <c r="AE63" s="11">
         <f>Table8[[#This Row],[Aw]]*Table8[[#This Row],[fy]]*0.6</f>
         <v>1293600</v>
       </c>
-      <c r="AE63" s="35">
+      <c r="AF63" s="35">
         <f>82/SQRT(Table8[[#This Row],[fy]]/250000000)</f>
         <v>77.482716966891573</v>
       </c>
-      <c r="AF63" s="36">
+      <c r="AG63" s="36">
         <f>IF((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])&gt;Table8[[#This Row],[limiting web slenderness]],(82/((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])*SQRT(Table8[[#This Row],[fy]]/250000000)))^2,1)</f>
         <v>1</v>
       </c>
+      <c r="AH63" s="38">
+        <f>IF(Table8[[#This Row],[Fabrication Type]]="Welded",IF(Table8[[#This Row],[tw]]&gt;0.016,0.016*Table8[[#This Row],[fu]],Table8[[#This Row],[tw]]*Table8[[#This Row],[fu]]),"")</f>
+        <v>6880000</v>
+      </c>
+      <c r="AI63" s="13">
+        <f>Table8[[#This Row],[d]]-Table8[[#This Row],[tf]]</f>
+        <v>0.315</v>
+      </c>
+      <c r="AJ63" s="39">
+        <f>Table8[[#This Row],[bf]]*Table8[[#This Row],[tf]]*(Table8[[#This Row],[df]]/2)</f>
+        <v>2.2049999999999999E-3</v>
+      </c>
+      <c r="AK63" s="11">
+        <f>IF(Table8[[#This Row],[Fabrication Type]]="Welded",Table8[[#This Row],[vw]]*Table8[[#This Row],[Ix]]/Table8[[#This Row],[Qflange]],"")</f>
+        <v>2330775.5102040819</v>
+      </c>
+      <c r="AL63" s="11">
+        <f>Table8[[#This Row],[tw]]*Table8[[#This Row],[fy]]*0.6*Table8[[#This Row],[Ix]]/Table8[[#This Row],[Qflange]]</f>
+        <v>1593600.0000000002</v>
+      </c>
     </row>
-    <row r="64" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B64" s="15" t="str">
         <f>Table8[[#This Row],[Section]]&amp;"-"&amp;TEXT(Table8[[#This Row],[Grade]],"0")</f>
         <v>350WC258-300</v>
@@ -9570,24 +11199,48 @@
         <f t="array" ref="AB64">INDEX(tbllkpSteelGrades[fy],MATCH(1,(Table8[[#This Row],[Grade]]=tbllkpSteelGrades[Grade])*(Table8[[#This Row],[tw]]&lt;=tbllkpSteelGrades[Thickness]),0))</f>
         <v>280000000</v>
       </c>
-      <c r="AC64" s="18">
+      <c r="AC64" s="17">
+        <f t="array" ref="AC64">INDEX(tbllkpSteelGrades[fu],MATCH(1,(Table8[[#This Row],[Grade]]=tbllkpSteelGrades[Grade])*(Table8[[#This Row],[tw]]&lt;=tbllkpSteelGrades[Thickness]),0))</f>
+        <v>430000000</v>
+      </c>
+      <c r="AD64" s="18">
         <f>IF(Table8[[#This Row],[Fabrication Type]]="Welded",Table8[[#This Row],[d1]],Table8[[#This Row],[d]])*Table8[[#This Row],[tw]]</f>
         <v>7.6999999999999994E-3</v>
       </c>
-      <c r="AD64" s="11">
+      <c r="AE64" s="11">
         <f>Table8[[#This Row],[Aw]]*Table8[[#This Row],[fy]]*0.6</f>
         <v>1293600</v>
       </c>
-      <c r="AE64" s="35">
+      <c r="AF64" s="35">
         <f>82/SQRT(Table8[[#This Row],[fy]]/250000000)</f>
         <v>77.482716966891573</v>
       </c>
-      <c r="AF64" s="36">
+      <c r="AG64" s="36">
         <f>IF((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])&gt;Table8[[#This Row],[limiting web slenderness]],(82/((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])*SQRT(Table8[[#This Row],[fy]]/250000000)))^2,1)</f>
         <v>1</v>
       </c>
+      <c r="AH64" s="38">
+        <f>IF(Table8[[#This Row],[Fabrication Type]]="Welded",IF(Table8[[#This Row],[tw]]&gt;0.016,0.016*Table8[[#This Row],[fu]],Table8[[#This Row],[tw]]*Table8[[#This Row],[fu]]),"")</f>
+        <v>6880000</v>
+      </c>
+      <c r="AI64" s="13">
+        <f>Table8[[#This Row],[d]]-Table8[[#This Row],[tf]]</f>
+        <v>0.311</v>
+      </c>
+      <c r="AJ64" s="39">
+        <f>Table8[[#This Row],[bf]]*Table8[[#This Row],[tf]]*(Table8[[#This Row],[df]]/2)</f>
+        <v>1.9592999999999998E-3</v>
+      </c>
+      <c r="AK64" s="11">
+        <f>IF(Table8[[#This Row],[Fabrication Type]]="Welded",Table8[[#This Row],[vw]]*Table8[[#This Row],[Ix]]/Table8[[#This Row],[Qflange]],"")</f>
+        <v>2321073.8529066509</v>
+      </c>
+      <c r="AL64" s="11">
+        <f>Table8[[#This Row],[tw]]*Table8[[#This Row],[fy]]*0.6*Table8[[#This Row],[Ix]]/Table8[[#This Row],[Qflange]]</f>
+        <v>1586966.773847803</v>
+      </c>
     </row>
-    <row r="65" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B65" s="15" t="str">
         <f>Table8[[#This Row],[Section]]&amp;"-"&amp;TEXT(Table8[[#This Row],[Grade]],"0")</f>
         <v>350WC230-300</v>
@@ -9671,24 +11324,48 @@
         <f t="array" ref="AB65">INDEX(tbllkpSteelGrades[fy],MATCH(1,(Table8[[#This Row],[Grade]]=tbllkpSteelGrades[Grade])*(Table8[[#This Row],[tw]]&lt;=tbllkpSteelGrades[Thickness]),0))</f>
         <v>280000000</v>
       </c>
-      <c r="AC65" s="18">
+      <c r="AC65" s="17">
+        <f t="array" ref="AC65">INDEX(tbllkpSteelGrades[fu],MATCH(1,(Table8[[#This Row],[Grade]]=tbllkpSteelGrades[Grade])*(Table8[[#This Row],[tw]]&lt;=tbllkpSteelGrades[Thickness]),0))</f>
+        <v>430000000</v>
+      </c>
+      <c r="AD65" s="18">
         <f>IF(Table8[[#This Row],[Fabrication Type]]="Welded",Table8[[#This Row],[d1]],Table8[[#This Row],[d]])*Table8[[#This Row],[tw]]</f>
         <v>6.8750000000000009E-3</v>
       </c>
-      <c r="AD65" s="11">
+      <c r="AE65" s="11">
         <f>Table8[[#This Row],[Aw]]*Table8[[#This Row],[fy]]*0.6</f>
         <v>1155000</v>
       </c>
-      <c r="AE65" s="35">
+      <c r="AF65" s="35">
         <f>82/SQRT(Table8[[#This Row],[fy]]/250000000)</f>
         <v>77.482716966891573</v>
       </c>
-      <c r="AF65" s="36">
+      <c r="AG65" s="36">
         <f>IF((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])&gt;Table8[[#This Row],[limiting web slenderness]],(82/((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])*SQRT(Table8[[#This Row],[fy]]/250000000)))^2,1)</f>
         <v>1</v>
       </c>
+      <c r="AH65" s="38">
+        <f>IF(Table8[[#This Row],[Fabrication Type]]="Welded",IF(Table8[[#This Row],[tw]]&gt;0.016,0.016*Table8[[#This Row],[fu]],Table8[[#This Row],[tw]]*Table8[[#This Row],[fu]]),"")</f>
+        <v>6880000</v>
+      </c>
+      <c r="AI65" s="13">
+        <f>Table8[[#This Row],[d]]-Table8[[#This Row],[tf]]</f>
+        <v>0.30700000000000005</v>
+      </c>
+      <c r="AJ65" s="39">
+        <f>Table8[[#This Row],[bf]]*Table8[[#This Row],[tf]]*(Table8[[#This Row],[df]]/2)</f>
+        <v>1.7192000000000004E-3</v>
+      </c>
+      <c r="AK65" s="11">
+        <f>IF(Table8[[#This Row],[Fabrication Type]]="Welded",Table8[[#This Row],[vw]]*Table8[[#This Row],[Ix]]/Table8[[#This Row],[Qflange]],"")</f>
+        <v>2293066.5425779428</v>
+      </c>
+      <c r="AL65" s="11">
+        <f>Table8[[#This Row],[tw]]*Table8[[#This Row],[fy]]*0.6*Table8[[#This Row],[Ix]]/Table8[[#This Row],[Qflange]]</f>
+        <v>1399837.1335504886</v>
+      </c>
     </row>
-    <row r="66" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B66" s="15" t="str">
         <f>Table8[[#This Row],[Section]]&amp;"-"&amp;TEXT(Table8[[#This Row],[Grade]],"0")</f>
         <v>350WC197-300</v>
@@ -9772,24 +11449,48 @@
         <f t="array" ref="AB66">INDEX(tbllkpSteelGrades[fy],MATCH(1,(Table8[[#This Row],[Grade]]=tbllkpSteelGrades[Grade])*(Table8[[#This Row],[tw]]&lt;=tbllkpSteelGrades[Thickness]),0))</f>
         <v>300000000</v>
       </c>
-      <c r="AC66" s="18">
+      <c r="AC66" s="17">
+        <f t="array" ref="AC66">INDEX(tbllkpSteelGrades[fu],MATCH(1,(Table8[[#This Row],[Grade]]=tbllkpSteelGrades[Grade])*(Table8[[#This Row],[tw]]&lt;=tbllkpSteelGrades[Thickness]),0))</f>
+        <v>430000000</v>
+      </c>
+      <c r="AD66" s="18">
         <f>IF(Table8[[#This Row],[Fabrication Type]]="Welded",Table8[[#This Row],[d1]],Table8[[#This Row],[d]])*Table8[[#This Row],[tw]]</f>
         <v>5.5000000000000005E-3</v>
       </c>
-      <c r="AD66" s="11">
+      <c r="AE66" s="11">
         <f>Table8[[#This Row],[Aw]]*Table8[[#This Row],[fy]]*0.6</f>
         <v>990000.00000000012</v>
       </c>
-      <c r="AE66" s="35">
+      <c r="AF66" s="35">
         <f>82/SQRT(Table8[[#This Row],[fy]]/250000000)</f>
         <v>74.855416192372701</v>
       </c>
-      <c r="AF66" s="36">
+      <c r="AG66" s="36">
         <f>IF((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])&gt;Table8[[#This Row],[limiting web slenderness]],(82/((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])*SQRT(Table8[[#This Row],[fy]]/250000000)))^2,1)</f>
         <v>1</v>
       </c>
+      <c r="AH66" s="38">
+        <f>IF(Table8[[#This Row],[Fabrication Type]]="Welded",IF(Table8[[#This Row],[tw]]&gt;0.016,0.016*Table8[[#This Row],[fu]],Table8[[#This Row],[tw]]*Table8[[#This Row],[fu]]),"")</f>
+        <v>6880000</v>
+      </c>
+      <c r="AI66" s="13">
+        <f>Table8[[#This Row],[d]]-Table8[[#This Row],[tf]]</f>
+        <v>0.30299999999999999</v>
+      </c>
+      <c r="AJ66" s="39">
+        <f>Table8[[#This Row],[bf]]*Table8[[#This Row],[tf]]*(Table8[[#This Row],[df]]/2)</f>
+        <v>1.4846999999999998E-3</v>
+      </c>
+      <c r="AK66" s="11">
+        <f>IF(Table8[[#This Row],[Fabrication Type]]="Welded",Table8[[#This Row],[vw]]*Table8[[#This Row],[Ix]]/Table8[[#This Row],[Qflange]],"")</f>
+        <v>2252091.3315821378</v>
+      </c>
+      <c r="AL66" s="11">
+        <f>Table8[[#This Row],[tw]]*Table8[[#This Row],[fy]]*0.6*Table8[[#This Row],[Ix]]/Table8[[#This Row],[Qflange]]</f>
+        <v>1178419.882804607</v>
+      </c>
     </row>
-    <row r="67" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B67" s="15" t="str">
         <f>Table8[[#This Row],[Section]]&amp;"-"&amp;TEXT(Table8[[#This Row],[Grade]],"0")</f>
         <v>500WC440-400</v>
@@ -9873,24 +11574,48 @@
         <f t="array" ref="AB67">INDEX(tbllkpSteelGrades[fy],MATCH(1,(Table8[[#This Row],[Grade]]=tbllkpSteelGrades[Grade])*(Table8[[#This Row],[tw]]&lt;=tbllkpSteelGrades[Thickness]),0))</f>
         <v>360000000</v>
       </c>
-      <c r="AC67" s="18">
+      <c r="AC67" s="17">
+        <f t="array" ref="AC67">INDEX(tbllkpSteelGrades[fu],MATCH(1,(Table8[[#This Row],[Grade]]=tbllkpSteelGrades[Grade])*(Table8[[#This Row],[tw]]&lt;=tbllkpSteelGrades[Thickness]),0))</f>
+        <v>480000000</v>
+      </c>
+      <c r="AD67" s="18">
         <f>IF(Table8[[#This Row],[Fabrication Type]]="Welded",Table8[[#This Row],[d1]],Table8[[#This Row],[d]])*Table8[[#This Row],[tw]]</f>
         <v>1.6E-2</v>
       </c>
-      <c r="AD67" s="11">
+      <c r="AE67" s="11">
         <f>Table8[[#This Row],[Aw]]*Table8[[#This Row],[fy]]*0.6</f>
         <v>3456000</v>
       </c>
-      <c r="AE67" s="35">
+      <c r="AF67" s="35">
         <f>82/SQRT(Table8[[#This Row],[fy]]/250000000)</f>
         <v>68.333333333333343</v>
       </c>
-      <c r="AF67" s="36">
+      <c r="AG67" s="36">
         <f>IF((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])&gt;Table8[[#This Row],[limiting web slenderness]],(82/((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])*SQRT(Table8[[#This Row],[fy]]/250000000)))^2,1)</f>
         <v>1</v>
       </c>
+      <c r="AH67" s="38">
+        <f>IF(Table8[[#This Row],[Fabrication Type]]="Welded",IF(Table8[[#This Row],[tw]]&gt;0.016,0.016*Table8[[#This Row],[fu]],Table8[[#This Row],[tw]]*Table8[[#This Row],[fu]]),"")</f>
+        <v>7680000</v>
+      </c>
+      <c r="AI67" s="13">
+        <f>Table8[[#This Row],[d]]-Table8[[#This Row],[tf]]</f>
+        <v>0.44</v>
+      </c>
+      <c r="AJ67" s="39">
+        <f>Table8[[#This Row],[bf]]*Table8[[#This Row],[tf]]*(Table8[[#This Row],[df]]/2)</f>
+        <v>4.4000000000000003E-3</v>
+      </c>
+      <c r="AK67" s="11">
+        <f>IF(Table8[[#This Row],[Fabrication Type]]="Welded",Table8[[#This Row],[vw]]*Table8[[#This Row],[Ix]]/Table8[[#This Row],[Qflange]],"")</f>
+        <v>3752727.2727272725</v>
+      </c>
+      <c r="AL67" s="11">
+        <f>Table8[[#This Row],[tw]]*Table8[[#This Row],[fy]]*0.6*Table8[[#This Row],[Ix]]/Table8[[#This Row],[Qflange]]</f>
+        <v>4221818.1818181816</v>
+      </c>
     </row>
-    <row r="68" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B68" s="15" t="str">
         <f>Table8[[#This Row],[Section]]&amp;"-"&amp;TEXT(Table8[[#This Row],[Grade]],"0")</f>
         <v>500WC414-400</v>
@@ -9974,24 +11699,48 @@
         <f t="array" ref="AB68">INDEX(tbllkpSteelGrades[fy],MATCH(1,(Table8[[#This Row],[Grade]]=tbllkpSteelGrades[Grade])*(Table8[[#This Row],[tw]]&lt;=tbllkpSteelGrades[Thickness]),0))</f>
         <v>360000000</v>
       </c>
-      <c r="AC68" s="18">
+      <c r="AC68" s="17">
+        <f t="array" ref="AC68">INDEX(tbllkpSteelGrades[fu],MATCH(1,(Table8[[#This Row],[Grade]]=tbllkpSteelGrades[Grade])*(Table8[[#This Row],[tw]]&lt;=tbllkpSteelGrades[Thickness]),0))</f>
+        <v>480000000</v>
+      </c>
+      <c r="AD68" s="18">
         <f>IF(Table8[[#This Row],[Fabrication Type]]="Welded",Table8[[#This Row],[d1]],Table8[[#This Row],[d]])*Table8[[#This Row],[tw]]</f>
         <v>1.2799999999999999E-2</v>
       </c>
-      <c r="AD68" s="11">
+      <c r="AE68" s="11">
         <f>Table8[[#This Row],[Aw]]*Table8[[#This Row],[fy]]*0.6</f>
         <v>2764800</v>
       </c>
-      <c r="AE68" s="35">
+      <c r="AF68" s="35">
         <f>82/SQRT(Table8[[#This Row],[fy]]/250000000)</f>
         <v>68.333333333333343</v>
       </c>
-      <c r="AF68" s="36">
+      <c r="AG68" s="36">
         <f>IF((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])&gt;Table8[[#This Row],[limiting web slenderness]],(82/((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])*SQRT(Table8[[#This Row],[fy]]/250000000)))^2,1)</f>
         <v>1</v>
       </c>
+      <c r="AH68" s="38">
+        <f>IF(Table8[[#This Row],[Fabrication Type]]="Welded",IF(Table8[[#This Row],[tw]]&gt;0.016,0.016*Table8[[#This Row],[fu]],Table8[[#This Row],[tw]]*Table8[[#This Row],[fu]]),"")</f>
+        <v>7680000</v>
+      </c>
+      <c r="AI68" s="13">
+        <f>Table8[[#This Row],[d]]-Table8[[#This Row],[tf]]</f>
+        <v>0.44</v>
+      </c>
+      <c r="AJ68" s="39">
+        <f>Table8[[#This Row],[bf]]*Table8[[#This Row],[tf]]*(Table8[[#This Row],[df]]/2)</f>
+        <v>4.4000000000000003E-3</v>
+      </c>
+      <c r="AK68" s="11">
+        <f>IF(Table8[[#This Row],[Fabrication Type]]="Welded",Table8[[#This Row],[vw]]*Table8[[#This Row],[Ix]]/Table8[[#This Row],[Qflange]],"")</f>
+        <v>3682909.0909090904</v>
+      </c>
+      <c r="AL68" s="11">
+        <f>Table8[[#This Row],[tw]]*Table8[[#This Row],[fy]]*0.6*Table8[[#This Row],[Ix]]/Table8[[#This Row],[Qflange]]</f>
+        <v>3314618.1818181816</v>
+      </c>
     </row>
-    <row r="69" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B69" s="15" t="str">
         <f>Table8[[#This Row],[Section]]&amp;"-"&amp;TEXT(Table8[[#This Row],[Grade]],"0")</f>
         <v>500WC383-400</v>
@@ -10075,24 +11824,48 @@
         <f t="array" ref="AB69">INDEX(tbllkpSteelGrades[fy],MATCH(1,(Table8[[#This Row],[Grade]]=tbllkpSteelGrades[Grade])*(Table8[[#This Row],[tw]]&lt;=tbllkpSteelGrades[Thickness]),0))</f>
         <v>360000000</v>
       </c>
-      <c r="AC69" s="18">
+      <c r="AC69" s="17">
+        <f t="array" ref="AC69">INDEX(tbllkpSteelGrades[fu],MATCH(1,(Table8[[#This Row],[Grade]]=tbllkpSteelGrades[Grade])*(Table8[[#This Row],[tw]]&lt;=tbllkpSteelGrades[Thickness]),0))</f>
+        <v>480000000</v>
+      </c>
+      <c r="AD69" s="18">
         <f>IF(Table8[[#This Row],[Fabrication Type]]="Welded",Table8[[#This Row],[d1]],Table8[[#This Row],[d]])*Table8[[#This Row],[tw]]</f>
         <v>1.2799999999999999E-2</v>
       </c>
-      <c r="AD69" s="11">
+      <c r="AE69" s="11">
         <f>Table8[[#This Row],[Aw]]*Table8[[#This Row],[fy]]*0.6</f>
         <v>2764800</v>
       </c>
-      <c r="AE69" s="35">
+      <c r="AF69" s="35">
         <f>82/SQRT(Table8[[#This Row],[fy]]/250000000)</f>
         <v>68.333333333333343</v>
       </c>
-      <c r="AF69" s="36">
+      <c r="AG69" s="36">
         <f>IF((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])&gt;Table8[[#This Row],[limiting web slenderness]],(82/((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])*SQRT(Table8[[#This Row],[fy]]/250000000)))^2,1)</f>
         <v>1</v>
       </c>
+      <c r="AH69" s="38">
+        <f>IF(Table8[[#This Row],[Fabrication Type]]="Welded",IF(Table8[[#This Row],[tw]]&gt;0.016,0.016*Table8[[#This Row],[fu]],Table8[[#This Row],[tw]]*Table8[[#This Row],[fu]]),"")</f>
+        <v>7680000</v>
+      </c>
+      <c r="AI69" s="13">
+        <f>Table8[[#This Row],[d]]-Table8[[#This Row],[tf]]</f>
+        <v>0.436</v>
+      </c>
+      <c r="AJ69" s="39">
+        <f>Table8[[#This Row],[bf]]*Table8[[#This Row],[tf]]*(Table8[[#This Row],[df]]/2)</f>
+        <v>3.9239999999999995E-3</v>
+      </c>
+      <c r="AK69" s="11">
+        <f>IF(Table8[[#This Row],[Fabrication Type]]="Welded",Table8[[#This Row],[vw]]*Table8[[#This Row],[Ix]]/Table8[[#This Row],[Qflange]],"")</f>
+        <v>3699082.5688073398</v>
+      </c>
+      <c r="AL69" s="11">
+        <f>Table8[[#This Row],[tw]]*Table8[[#This Row],[fy]]*0.6*Table8[[#This Row],[Ix]]/Table8[[#This Row],[Qflange]]</f>
+        <v>3329174.3119266061</v>
+      </c>
     </row>
-    <row r="70" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B70" s="15" t="str">
         <f>Table8[[#This Row],[Section]]&amp;"-"&amp;TEXT(Table8[[#This Row],[Grade]],"0")</f>
         <v>500WC340-400</v>
@@ -10176,24 +11949,48 @@
         <f t="array" ref="AB70">INDEX(tbllkpSteelGrades[fy],MATCH(1,(Table8[[#This Row],[Grade]]=tbllkpSteelGrades[Grade])*(Table8[[#This Row],[tw]]&lt;=tbllkpSteelGrades[Thickness]),0))</f>
         <v>360000000</v>
       </c>
-      <c r="AC70" s="18">
+      <c r="AC70" s="17">
+        <f t="array" ref="AC70">INDEX(tbllkpSteelGrades[fu],MATCH(1,(Table8[[#This Row],[Grade]]=tbllkpSteelGrades[Grade])*(Table8[[#This Row],[tw]]&lt;=tbllkpSteelGrades[Thickness]),0))</f>
+        <v>480000000</v>
+      </c>
+      <c r="AD70" s="18">
         <f>IF(Table8[[#This Row],[Fabrication Type]]="Welded",Table8[[#This Row],[d1]],Table8[[#This Row],[d]])*Table8[[#This Row],[tw]]</f>
         <v>1.1250000000000001E-2</v>
       </c>
-      <c r="AD70" s="11">
+      <c r="AE70" s="11">
         <f>Table8[[#This Row],[Aw]]*Table8[[#This Row],[fy]]*0.6</f>
         <v>2430000</v>
       </c>
-      <c r="AE70" s="35">
+      <c r="AF70" s="35">
         <f>82/SQRT(Table8[[#This Row],[fy]]/250000000)</f>
         <v>68.333333333333343</v>
       </c>
-      <c r="AF70" s="36">
+      <c r="AG70" s="36">
         <f>IF((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])&gt;Table8[[#This Row],[limiting web slenderness]],(82/((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])*SQRT(Table8[[#This Row],[fy]]/250000000)))^2,1)</f>
         <v>1</v>
       </c>
+      <c r="AH70" s="38">
+        <f>IF(Table8[[#This Row],[Fabrication Type]]="Welded",IF(Table8[[#This Row],[tw]]&gt;0.016,0.016*Table8[[#This Row],[fu]],Table8[[#This Row],[tw]]*Table8[[#This Row],[fu]]),"")</f>
+        <v>7680000</v>
+      </c>
+      <c r="AI70" s="13">
+        <f>Table8[[#This Row],[d]]-Table8[[#This Row],[tf]]</f>
+        <v>0.48199999999999998</v>
+      </c>
+      <c r="AJ70" s="39">
+        <f>Table8[[#This Row],[bf]]*Table8[[#This Row],[tf]]*(Table8[[#This Row],[df]]/2)</f>
+        <v>3.8560000000000001E-3</v>
+      </c>
+      <c r="AK70" s="11">
+        <f>IF(Table8[[#This Row],[Fabrication Type]]="Welded",Table8[[#This Row],[vw]]*Table8[[#This Row],[Ix]]/Table8[[#This Row],[Qflange]],"")</f>
+        <v>4082987.5518672206</v>
+      </c>
+      <c r="AL70" s="11">
+        <f>Table8[[#This Row],[tw]]*Table8[[#This Row],[fy]]*0.6*Table8[[#This Row],[Ix]]/Table8[[#This Row],[Qflange]]</f>
+        <v>2870850.6224066396</v>
+      </c>
     </row>
-    <row r="71" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B71" s="15" t="str">
         <f>Table8[[#This Row],[Section]]&amp;"-"&amp;TEXT(Table8[[#This Row],[Grade]],"0")</f>
         <v>500WC290-400</v>
@@ -10277,24 +12074,48 @@
         <f t="array" ref="AB71">INDEX(tbllkpSteelGrades[fy],MATCH(1,(Table8[[#This Row],[Grade]]=tbllkpSteelGrades[Grade])*(Table8[[#This Row],[tw]]&lt;=tbllkpSteelGrades[Thickness]),0))</f>
         <v>380000000</v>
       </c>
-      <c r="AC71" s="18">
+      <c r="AC71" s="17">
+        <f t="array" ref="AC71">INDEX(tbllkpSteelGrades[fu],MATCH(1,(Table8[[#This Row],[Grade]]=tbllkpSteelGrades[Grade])*(Table8[[#This Row],[tw]]&lt;=tbllkpSteelGrades[Thickness]),0))</f>
+        <v>480000000</v>
+      </c>
+      <c r="AD71" s="18">
         <f>IF(Table8[[#This Row],[Fabrication Type]]="Welded",Table8[[#This Row],[d1]],Table8[[#This Row],[d]])*Table8[[#This Row],[tw]]</f>
         <v>9.0000000000000011E-3</v>
       </c>
-      <c r="AD71" s="11">
+      <c r="AE71" s="11">
         <f>Table8[[#This Row],[Aw]]*Table8[[#This Row],[fy]]*0.6</f>
         <v>2052000.0000000002</v>
       </c>
-      <c r="AE71" s="35">
+      <c r="AF71" s="35">
         <f>82/SQRT(Table8[[#This Row],[fy]]/250000000)</f>
         <v>66.510782663612645</v>
       </c>
-      <c r="AF71" s="36">
+      <c r="AG71" s="36">
         <f>IF((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])&gt;Table8[[#This Row],[limiting web slenderness]],(82/((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])*SQRT(Table8[[#This Row],[fy]]/250000000)))^2,1)</f>
         <v>1</v>
       </c>
+      <c r="AH71" s="38">
+        <f>IF(Table8[[#This Row],[Fabrication Type]]="Welded",IF(Table8[[#This Row],[tw]]&gt;0.016,0.016*Table8[[#This Row],[fu]],Table8[[#This Row],[tw]]*Table8[[#This Row],[fu]]),"")</f>
+        <v>7680000</v>
+      </c>
+      <c r="AI71" s="13">
+        <f>Table8[[#This Row],[d]]-Table8[[#This Row],[tf]]</f>
+        <v>0.47799999999999998</v>
+      </c>
+      <c r="AJ71" s="39">
+        <f>Table8[[#This Row],[bf]]*Table8[[#This Row],[tf]]*(Table8[[#This Row],[df]]/2)</f>
+        <v>3.346E-3</v>
+      </c>
+      <c r="AK71" s="11">
+        <f>IF(Table8[[#This Row],[Fabrication Type]]="Welded",Table8[[#This Row],[vw]]*Table8[[#This Row],[Ix]]/Table8[[#This Row],[Qflange]],"")</f>
+        <v>4016736.4016736401</v>
+      </c>
+      <c r="AL71" s="11">
+        <f>Table8[[#This Row],[tw]]*Table8[[#This Row],[fy]]*0.6*Table8[[#This Row],[Ix]]/Table8[[#This Row],[Qflange]]</f>
+        <v>2384937.2384937238</v>
+      </c>
     </row>
-    <row r="72" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B72" s="15" t="str">
         <f>Table8[[#This Row],[Section]]&amp;"-"&amp;TEXT(Table8[[#This Row],[Grade]],"0")</f>
         <v>500WC267-400</v>
@@ -10378,24 +12199,48 @@
         <f t="array" ref="AB72">INDEX(tbllkpSteelGrades[fy],MATCH(1,(Table8[[#This Row],[Grade]]=tbllkpSteelGrades[Grade])*(Table8[[#This Row],[tw]]&lt;=tbllkpSteelGrades[Thickness]),0))</f>
         <v>380000000</v>
       </c>
-      <c r="AC72" s="18">
+      <c r="AC72" s="17">
+        <f t="array" ref="AC72">INDEX(tbllkpSteelGrades[fu],MATCH(1,(Table8[[#This Row],[Grade]]=tbllkpSteelGrades[Grade])*(Table8[[#This Row],[tw]]&lt;=tbllkpSteelGrades[Thickness]),0))</f>
+        <v>480000000</v>
+      </c>
+      <c r="AD72" s="18">
         <f>IF(Table8[[#This Row],[Fabrication Type]]="Welded",Table8[[#This Row],[d1]],Table8[[#This Row],[d]])*Table8[[#This Row],[tw]]</f>
         <v>9.0000000000000011E-3</v>
       </c>
-      <c r="AD72" s="11">
+      <c r="AE72" s="11">
         <f>Table8[[#This Row],[Aw]]*Table8[[#This Row],[fy]]*0.6</f>
         <v>2052000.0000000002</v>
       </c>
-      <c r="AE72" s="35">
+      <c r="AF72" s="35">
         <f>82/SQRT(Table8[[#This Row],[fy]]/250000000)</f>
         <v>66.510782663612645</v>
       </c>
-      <c r="AF72" s="36">
+      <c r="AG72" s="36">
         <f>IF((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])&gt;Table8[[#This Row],[limiting web slenderness]],(82/((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])*SQRT(Table8[[#This Row],[fy]]/250000000)))^2,1)</f>
         <v>1</v>
       </c>
+      <c r="AH72" s="38">
+        <f>IF(Table8[[#This Row],[Fabrication Type]]="Welded",IF(Table8[[#This Row],[tw]]&gt;0.016,0.016*Table8[[#This Row],[fu]],Table8[[#This Row],[tw]]*Table8[[#This Row],[fu]]),"")</f>
+        <v>7680000</v>
+      </c>
+      <c r="AI72" s="13">
+        <f>Table8[[#This Row],[d]]-Table8[[#This Row],[tf]]</f>
+        <v>0.47499999999999998</v>
+      </c>
+      <c r="AJ72" s="39">
+        <f>Table8[[#This Row],[bf]]*Table8[[#This Row],[tf]]*(Table8[[#This Row],[df]]/2)</f>
+        <v>2.96875E-3</v>
+      </c>
+      <c r="AK72" s="11">
+        <f>IF(Table8[[#This Row],[Fabrication Type]]="Welded",Table8[[#This Row],[vw]]*Table8[[#This Row],[Ix]]/Table8[[#This Row],[Qflange]],"")</f>
+        <v>4035637.8947368418</v>
+      </c>
+      <c r="AL72" s="11">
+        <f>Table8[[#This Row],[tw]]*Table8[[#This Row],[fy]]*0.6*Table8[[#This Row],[Ix]]/Table8[[#This Row],[Qflange]]</f>
+        <v>2396160</v>
+      </c>
     </row>
-    <row r="73" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B73" s="15" t="str">
         <f>Table8[[#This Row],[Section]]&amp;"-"&amp;TEXT(Table8[[#This Row],[Grade]],"0")</f>
         <v>500WC228-400</v>
@@ -10479,24 +12324,48 @@
         <f t="array" ref="AB73">INDEX(tbllkpSteelGrades[fy],MATCH(1,(Table8[[#This Row],[Grade]]=tbllkpSteelGrades[Grade])*(Table8[[#This Row],[tw]]&lt;=tbllkpSteelGrades[Thickness]),0))</f>
         <v>380000000</v>
       </c>
-      <c r="AC73" s="18">
+      <c r="AC73" s="17">
+        <f t="array" ref="AC73">INDEX(tbllkpSteelGrades[fu],MATCH(1,(Table8[[#This Row],[Grade]]=tbllkpSteelGrades[Grade])*(Table8[[#This Row],[tw]]&lt;=tbllkpSteelGrades[Thickness]),0))</f>
+        <v>480000000</v>
+      </c>
+      <c r="AD73" s="18">
         <f>IF(Table8[[#This Row],[Fabrication Type]]="Welded",Table8[[#This Row],[d1]],Table8[[#This Row],[d]])*Table8[[#This Row],[tw]]</f>
         <v>9.0000000000000011E-3</v>
       </c>
-      <c r="AD73" s="11">
+      <c r="AE73" s="11">
         <f>Table8[[#This Row],[Aw]]*Table8[[#This Row],[fy]]*0.6</f>
         <v>2052000.0000000002</v>
       </c>
-      <c r="AE73" s="35">
+      <c r="AF73" s="35">
         <f>82/SQRT(Table8[[#This Row],[fy]]/250000000)</f>
         <v>66.510782663612645</v>
       </c>
-      <c r="AF73" s="36">
+      <c r="AG73" s="36">
         <f>IF((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])&gt;Table8[[#This Row],[limiting web slenderness]],(82/((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])*SQRT(Table8[[#This Row],[fy]]/250000000)))^2,1)</f>
         <v>1</v>
       </c>
+      <c r="AH73" s="38">
+        <f>IF(Table8[[#This Row],[Fabrication Type]]="Welded",IF(Table8[[#This Row],[tw]]&gt;0.016,0.016*Table8[[#This Row],[fu]],Table8[[#This Row],[tw]]*Table8[[#This Row],[fu]]),"")</f>
+        <v>7680000</v>
+      </c>
+      <c r="AI73" s="13">
+        <f>Table8[[#This Row],[d]]-Table8[[#This Row],[tf]]</f>
+        <v>0.47</v>
+      </c>
+      <c r="AJ73" s="39">
+        <f>Table8[[#This Row],[bf]]*Table8[[#This Row],[tf]]*(Table8[[#This Row],[df]]/2)</f>
+        <v>2.3500000000000001E-3</v>
+      </c>
+      <c r="AK73" s="11">
+        <f>IF(Table8[[#This Row],[Fabrication Type]]="Welded",Table8[[#This Row],[vw]]*Table8[[#This Row],[Ix]]/Table8[[#This Row],[Qflange]],"")</f>
+        <v>4117787.2340425537</v>
+      </c>
+      <c r="AL73" s="11">
+        <f>Table8[[#This Row],[tw]]*Table8[[#This Row],[fy]]*0.6*Table8[[#This Row],[Ix]]/Table8[[#This Row],[Qflange]]</f>
+        <v>2444936.1702127662</v>
+      </c>
     </row>
-    <row r="74" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B74" s="15" t="str">
         <f>Table8[[#This Row],[Section]]&amp;"-"&amp;TEXT(Table8[[#This Row],[Grade]],"0")</f>
         <v>400WC361-400</v>
@@ -10580,24 +12449,48 @@
         <f t="array" ref="AB74">INDEX(tbllkpSteelGrades[fy],MATCH(1,(Table8[[#This Row],[Grade]]=tbllkpSteelGrades[Grade])*(Table8[[#This Row],[tw]]&lt;=tbllkpSteelGrades[Thickness]),0))</f>
         <v>360000000</v>
       </c>
-      <c r="AC74" s="18">
+      <c r="AC74" s="17">
+        <f t="array" ref="AC74">INDEX(tbllkpSteelGrades[fu],MATCH(1,(Table8[[#This Row],[Grade]]=tbllkpSteelGrades[Grade])*(Table8[[#This Row],[tw]]&lt;=tbllkpSteelGrades[Thickness]),0))</f>
+        <v>480000000</v>
+      </c>
+      <c r="AD74" s="18">
         <f>IF(Table8[[#This Row],[Fabrication Type]]="Welded",Table8[[#This Row],[d1]],Table8[[#This Row],[d]])*Table8[[#This Row],[tw]]</f>
         <v>1.3999999999999999E-2</v>
       </c>
-      <c r="AD74" s="11">
+      <c r="AE74" s="11">
         <f>Table8[[#This Row],[Aw]]*Table8[[#This Row],[fy]]*0.6</f>
         <v>3023999.9999999995</v>
       </c>
-      <c r="AE74" s="35">
+      <c r="AF74" s="35">
         <f>82/SQRT(Table8[[#This Row],[fy]]/250000000)</f>
         <v>68.333333333333343</v>
       </c>
-      <c r="AF74" s="36">
+      <c r="AG74" s="36">
         <f>IF((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])&gt;Table8[[#This Row],[limiting web slenderness]],(82/((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])*SQRT(Table8[[#This Row],[fy]]/250000000)))^2,1)</f>
         <v>1</v>
       </c>
+      <c r="AH74" s="38">
+        <f>IF(Table8[[#This Row],[Fabrication Type]]="Welded",IF(Table8[[#This Row],[tw]]&gt;0.016,0.016*Table8[[#This Row],[fu]],Table8[[#This Row],[tw]]*Table8[[#This Row],[fu]]),"")</f>
+        <v>7680000</v>
+      </c>
+      <c r="AI74" s="13">
+        <f>Table8[[#This Row],[d]]-Table8[[#This Row],[tf]]</f>
+        <v>0.39</v>
+      </c>
+      <c r="AJ74" s="39">
+        <f>Table8[[#This Row],[bf]]*Table8[[#This Row],[tf]]*(Table8[[#This Row],[df]]/2)</f>
+        <v>3.1200000000000004E-3</v>
+      </c>
+      <c r="AK74" s="11">
+        <f>IF(Table8[[#This Row],[Fabrication Type]]="Welded",Table8[[#This Row],[vw]]*Table8[[#This Row],[Ix]]/Table8[[#This Row],[Qflange]],"")</f>
+        <v>3347692.3076923075</v>
+      </c>
+      <c r="AL74" s="11">
+        <f>Table8[[#This Row],[tw]]*Table8[[#This Row],[fy]]*0.6*Table8[[#This Row],[Ix]]/Table8[[#This Row],[Qflange]]</f>
+        <v>3766153.846153846</v>
+      </c>
     </row>
-    <row r="75" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B75" s="15" t="str">
         <f>Table8[[#This Row],[Section]]&amp;"-"&amp;TEXT(Table8[[#This Row],[Grade]],"0")</f>
         <v>400WC328-400</v>
@@ -10681,24 +12574,48 @@
         <f t="array" ref="AB75">INDEX(tbllkpSteelGrades[fy],MATCH(1,(Table8[[#This Row],[Grade]]=tbllkpSteelGrades[Grade])*(Table8[[#This Row],[tw]]&lt;=tbllkpSteelGrades[Thickness]),0))</f>
         <v>360000000</v>
       </c>
-      <c r="AC75" s="18">
+      <c r="AC75" s="17">
+        <f t="array" ref="AC75">INDEX(tbllkpSteelGrades[fu],MATCH(1,(Table8[[#This Row],[Grade]]=tbllkpSteelGrades[Grade])*(Table8[[#This Row],[tw]]&lt;=tbllkpSteelGrades[Thickness]),0))</f>
+        <v>480000000</v>
+      </c>
+      <c r="AD75" s="18">
         <f>IF(Table8[[#This Row],[Fabrication Type]]="Welded",Table8[[#This Row],[d1]],Table8[[#This Row],[d]])*Table8[[#This Row],[tw]]</f>
         <v>9.7999999999999997E-3</v>
       </c>
-      <c r="AD75" s="11">
+      <c r="AE75" s="11">
         <f>Table8[[#This Row],[Aw]]*Table8[[#This Row],[fy]]*0.6</f>
         <v>2116800</v>
       </c>
-      <c r="AE75" s="35">
+      <c r="AF75" s="35">
         <f>82/SQRT(Table8[[#This Row],[fy]]/250000000)</f>
         <v>68.333333333333343</v>
       </c>
-      <c r="AF75" s="36">
+      <c r="AG75" s="36">
         <f>IF((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])&gt;Table8[[#This Row],[limiting web slenderness]],(82/((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])*SQRT(Table8[[#This Row],[fy]]/250000000)))^2,1)</f>
         <v>1</v>
       </c>
+      <c r="AH75" s="38">
+        <f>IF(Table8[[#This Row],[Fabrication Type]]="Welded",IF(Table8[[#This Row],[tw]]&gt;0.016,0.016*Table8[[#This Row],[fu]],Table8[[#This Row],[tw]]*Table8[[#This Row],[fu]]),"")</f>
+        <v>7680000</v>
+      </c>
+      <c r="AI75" s="13">
+        <f>Table8[[#This Row],[d]]-Table8[[#This Row],[tf]]</f>
+        <v>0.39</v>
+      </c>
+      <c r="AJ75" s="39">
+        <f>Table8[[#This Row],[bf]]*Table8[[#This Row],[tf]]*(Table8[[#This Row],[df]]/2)</f>
+        <v>3.1200000000000004E-3</v>
+      </c>
+      <c r="AK75" s="11">
+        <f>IF(Table8[[#This Row],[Fabrication Type]]="Welded",Table8[[#This Row],[vw]]*Table8[[#This Row],[Ix]]/Table8[[#This Row],[Qflange]],"")</f>
+        <v>3249230.769230769</v>
+      </c>
+      <c r="AL75" s="11">
+        <f>Table8[[#This Row],[tw]]*Table8[[#This Row],[fy]]*0.6*Table8[[#This Row],[Ix]]/Table8[[#This Row],[Qflange]]</f>
+        <v>2558769.2307692305</v>
+      </c>
     </row>
-    <row r="76" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B76" s="15" t="str">
         <f>Table8[[#This Row],[Section]]&amp;"-"&amp;TEXT(Table8[[#This Row],[Grade]],"0")</f>
         <v>400WC303-400</v>
@@ -10782,24 +12699,48 @@
         <f t="array" ref="AB76">INDEX(tbllkpSteelGrades[fy],MATCH(1,(Table8[[#This Row],[Grade]]=tbllkpSteelGrades[Grade])*(Table8[[#This Row],[tw]]&lt;=tbllkpSteelGrades[Thickness]),0))</f>
         <v>360000000</v>
       </c>
-      <c r="AC76" s="18">
+      <c r="AC76" s="17">
+        <f t="array" ref="AC76">INDEX(tbllkpSteelGrades[fu],MATCH(1,(Table8[[#This Row],[Grade]]=tbllkpSteelGrades[Grade])*(Table8[[#This Row],[tw]]&lt;=tbllkpSteelGrades[Thickness]),0))</f>
+        <v>480000000</v>
+      </c>
+      <c r="AD76" s="18">
         <f>IF(Table8[[#This Row],[Fabrication Type]]="Welded",Table8[[#This Row],[d1]],Table8[[#This Row],[d]])*Table8[[#This Row],[tw]]</f>
         <v>9.7999999999999997E-3</v>
       </c>
-      <c r="AD76" s="11">
+      <c r="AE76" s="11">
         <f>Table8[[#This Row],[Aw]]*Table8[[#This Row],[fy]]*0.6</f>
         <v>2116800</v>
       </c>
-      <c r="AE76" s="35">
+      <c r="AF76" s="35">
         <f>82/SQRT(Table8[[#This Row],[fy]]/250000000)</f>
         <v>68.333333333333343</v>
       </c>
-      <c r="AF76" s="36">
+      <c r="AG76" s="36">
         <f>IF((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])&gt;Table8[[#This Row],[limiting web slenderness]],(82/((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])*SQRT(Table8[[#This Row],[fy]]/250000000)))^2,1)</f>
         <v>1</v>
       </c>
+      <c r="AH76" s="38">
+        <f>IF(Table8[[#This Row],[Fabrication Type]]="Welded",IF(Table8[[#This Row],[tw]]&gt;0.016,0.016*Table8[[#This Row],[fu]],Table8[[#This Row],[tw]]*Table8[[#This Row],[fu]]),"")</f>
+        <v>7680000</v>
+      </c>
+      <c r="AI76" s="13">
+        <f>Table8[[#This Row],[d]]-Table8[[#This Row],[tf]]</f>
+        <v>0.38600000000000001</v>
+      </c>
+      <c r="AJ76" s="39">
+        <f>Table8[[#This Row],[bf]]*Table8[[#This Row],[tf]]*(Table8[[#This Row],[df]]/2)</f>
+        <v>2.7791999999999999E-3</v>
+      </c>
+      <c r="AK76" s="11">
+        <f>IF(Table8[[#This Row],[Fabrication Type]]="Welded",Table8[[#This Row],[vw]]*Table8[[#This Row],[Ix]]/Table8[[#This Row],[Qflange]],"")</f>
+        <v>3260794.4732297063</v>
+      </c>
+      <c r="AL76" s="11">
+        <f>Table8[[#This Row],[tw]]*Table8[[#This Row],[fy]]*0.6*Table8[[#This Row],[Ix]]/Table8[[#This Row],[Qflange]]</f>
+        <v>2567875.6476683938</v>
+      </c>
     </row>
-    <row r="77" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B77" s="15" t="str">
         <f>Table8[[#This Row],[Section]]&amp;"-"&amp;TEXT(Table8[[#This Row],[Grade]],"0")</f>
         <v>400WC270-400</v>
@@ -10883,24 +12824,48 @@
         <f t="array" ref="AB77">INDEX(tbllkpSteelGrades[fy],MATCH(1,(Table8[[#This Row],[Grade]]=tbllkpSteelGrades[Grade])*(Table8[[#This Row],[tw]]&lt;=tbllkpSteelGrades[Thickness]),0))</f>
         <v>360000000</v>
       </c>
-      <c r="AC77" s="18">
+      <c r="AC77" s="17">
+        <f t="array" ref="AC77">INDEX(tbllkpSteelGrades[fu],MATCH(1,(Table8[[#This Row],[Grade]]=tbllkpSteelGrades[Grade])*(Table8[[#This Row],[tw]]&lt;=tbllkpSteelGrades[Thickness]),0))</f>
+        <v>480000000</v>
+      </c>
+      <c r="AD77" s="18">
         <f>IF(Table8[[#This Row],[Fabrication Type]]="Welded",Table8[[#This Row],[d1]],Table8[[#This Row],[d]])*Table8[[#This Row],[tw]]</f>
         <v>8.7499999999999991E-3</v>
       </c>
-      <c r="AD77" s="11">
+      <c r="AE77" s="11">
         <f>Table8[[#This Row],[Aw]]*Table8[[#This Row],[fy]]*0.6</f>
         <v>1889999.9999999995</v>
       </c>
-      <c r="AE77" s="35">
+      <c r="AF77" s="35">
         <f>82/SQRT(Table8[[#This Row],[fy]]/250000000)</f>
         <v>68.333333333333343</v>
       </c>
-      <c r="AF77" s="36">
+      <c r="AG77" s="36">
         <f>IF((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])&gt;Table8[[#This Row],[limiting web slenderness]],(82/((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])*SQRT(Table8[[#This Row],[fy]]/250000000)))^2,1)</f>
         <v>1</v>
       </c>
+      <c r="AH77" s="38">
+        <f>IF(Table8[[#This Row],[Fabrication Type]]="Welded",IF(Table8[[#This Row],[tw]]&gt;0.016,0.016*Table8[[#This Row],[fu]],Table8[[#This Row],[tw]]*Table8[[#This Row],[fu]]),"")</f>
+        <v>7680000</v>
+      </c>
+      <c r="AI77" s="13">
+        <f>Table8[[#This Row],[d]]-Table8[[#This Row],[tf]]</f>
+        <v>0.38200000000000001</v>
+      </c>
+      <c r="AJ77" s="39">
+        <f>Table8[[#This Row],[bf]]*Table8[[#This Row],[tf]]*(Table8[[#This Row],[df]]/2)</f>
+        <v>2.4448E-3</v>
+      </c>
+      <c r="AK77" s="11">
+        <f>IF(Table8[[#This Row],[Fabrication Type]]="Welded",Table8[[#This Row],[vw]]*Table8[[#This Row],[Ix]]/Table8[[#This Row],[Qflange]],"")</f>
+        <v>3235602.0942408377</v>
+      </c>
+      <c r="AL77" s="11">
+        <f>Table8[[#This Row],[tw]]*Table8[[#This Row],[fy]]*0.6*Table8[[#This Row],[Ix]]/Table8[[#This Row],[Qflange]]</f>
+        <v>2275032.7225130894</v>
+      </c>
     </row>
-    <row r="78" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B78" s="15" t="str">
         <f>Table8[[#This Row],[Section]]&amp;"-"&amp;TEXT(Table8[[#This Row],[Grade]],"0")</f>
         <v>400WC212-400</v>
@@ -10984,24 +12949,48 @@
         <f t="array" ref="AB78">INDEX(tbllkpSteelGrades[fy],MATCH(1,(Table8[[#This Row],[Grade]]=tbllkpSteelGrades[Grade])*(Table8[[#This Row],[tw]]&lt;=tbllkpSteelGrades[Thickness]),0))</f>
         <v>380000000</v>
       </c>
-      <c r="AC78" s="18">
+      <c r="AC78" s="17">
+        <f t="array" ref="AC78">INDEX(tbllkpSteelGrades[fu],MATCH(1,(Table8[[#This Row],[Grade]]=tbllkpSteelGrades[Grade])*(Table8[[#This Row],[tw]]&lt;=tbllkpSteelGrades[Thickness]),0))</f>
+        <v>480000000</v>
+      </c>
+      <c r="AD78" s="18">
         <f>IF(Table8[[#This Row],[Fabrication Type]]="Welded",Table8[[#This Row],[d1]],Table8[[#This Row],[d]])*Table8[[#This Row],[tw]]</f>
         <v>7.000000000000001E-3</v>
       </c>
-      <c r="AD78" s="11">
+      <c r="AE78" s="11">
         <f>Table8[[#This Row],[Aw]]*Table8[[#This Row],[fy]]*0.6</f>
         <v>1596000.0000000002</v>
       </c>
-      <c r="AE78" s="35">
+      <c r="AF78" s="35">
         <f>82/SQRT(Table8[[#This Row],[fy]]/250000000)</f>
         <v>66.510782663612645</v>
       </c>
-      <c r="AF78" s="36">
+      <c r="AG78" s="36">
         <f>IF((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])&gt;Table8[[#This Row],[limiting web slenderness]],(82/((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])*SQRT(Table8[[#This Row],[fy]]/250000000)))^2,1)</f>
         <v>1</v>
       </c>
+      <c r="AH78" s="38">
+        <f>IF(Table8[[#This Row],[Fabrication Type]]="Welded",IF(Table8[[#This Row],[tw]]&gt;0.016,0.016*Table8[[#This Row],[fu]],Table8[[#This Row],[tw]]*Table8[[#This Row],[fu]]),"")</f>
+        <v>7680000</v>
+      </c>
+      <c r="AI78" s="13">
+        <f>Table8[[#This Row],[d]]-Table8[[#This Row],[tf]]</f>
+        <v>0.375</v>
+      </c>
+      <c r="AJ78" s="39">
+        <f>Table8[[#This Row],[bf]]*Table8[[#This Row],[tf]]*(Table8[[#This Row],[df]]/2)</f>
+        <v>1.8750000000000004E-3</v>
+      </c>
+      <c r="AK78" s="11">
+        <f>IF(Table8[[#This Row],[Fabrication Type]]="Welded",Table8[[#This Row],[vw]]*Table8[[#This Row],[Ix]]/Table8[[#This Row],[Qflange]],"")</f>
+        <v>3178495.9999999995</v>
+      </c>
+      <c r="AL78" s="11">
+        <f>Table8[[#This Row],[tw]]*Table8[[#This Row],[fy]]*0.6*Table8[[#This Row],[Ix]]/Table8[[#This Row],[Qflange]]</f>
+        <v>1887231.9999999995</v>
+      </c>
     </row>
-    <row r="79" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B79" s="15" t="str">
         <f>Table8[[#This Row],[Section]]&amp;"-"&amp;TEXT(Table8[[#This Row],[Grade]],"0")</f>
         <v>400WC181-400</v>
@@ -11085,24 +13074,48 @@
         <f t="array" ref="AB79">INDEX(tbllkpSteelGrades[fy],MATCH(1,(Table8[[#This Row],[Grade]]=tbllkpSteelGrades[Grade])*(Table8[[#This Row],[tw]]&lt;=tbllkpSteelGrades[Thickness]),0))</f>
         <v>380000000</v>
       </c>
-      <c r="AC79" s="18">
+      <c r="AC79" s="17">
+        <f t="array" ref="AC79">INDEX(tbllkpSteelGrades[fu],MATCH(1,(Table8[[#This Row],[Grade]]=tbllkpSteelGrades[Grade])*(Table8[[#This Row],[tw]]&lt;=tbllkpSteelGrades[Thickness]),0))</f>
+        <v>480000000</v>
+      </c>
+      <c r="AD79" s="18">
         <f>IF(Table8[[#This Row],[Fabrication Type]]="Welded",Table8[[#This Row],[d1]],Table8[[#This Row],[d]])*Table8[[#This Row],[tw]]</f>
         <v>7.000000000000001E-3</v>
       </c>
-      <c r="AD79" s="11">
+      <c r="AE79" s="11">
         <f>Table8[[#This Row],[Aw]]*Table8[[#This Row],[fy]]*0.6</f>
         <v>1596000.0000000002</v>
       </c>
-      <c r="AE79" s="35">
+      <c r="AF79" s="35">
         <f>82/SQRT(Table8[[#This Row],[fy]]/250000000)</f>
         <v>66.510782663612645</v>
       </c>
-      <c r="AF79" s="36">
+      <c r="AG79" s="36">
         <f>IF((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])&gt;Table8[[#This Row],[limiting web slenderness]],(82/((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])*SQRT(Table8[[#This Row],[fy]]/250000000)))^2,1)</f>
         <v>1</v>
       </c>
+      <c r="AH79" s="38">
+        <f>IF(Table8[[#This Row],[Fabrication Type]]="Welded",IF(Table8[[#This Row],[tw]]&gt;0.016,0.016*Table8[[#This Row],[fu]],Table8[[#This Row],[tw]]*Table8[[#This Row],[fu]]),"")</f>
+        <v>7680000</v>
+      </c>
+      <c r="AI79" s="13">
+        <f>Table8[[#This Row],[d]]-Table8[[#This Row],[tf]]</f>
+        <v>0.37</v>
+      </c>
+      <c r="AJ79" s="39">
+        <f>Table8[[#This Row],[bf]]*Table8[[#This Row],[tf]]*(Table8[[#This Row],[df]]/2)</f>
+        <v>1.48E-3</v>
+      </c>
+      <c r="AK79" s="11">
+        <f>IF(Table8[[#This Row],[Fabrication Type]]="Welded",Table8[[#This Row],[vw]]*Table8[[#This Row],[Ix]]/Table8[[#This Row],[Qflange]],"")</f>
+        <v>3217297.2972972975</v>
+      </c>
+      <c r="AL79" s="11">
+        <f>Table8[[#This Row],[tw]]*Table8[[#This Row],[fy]]*0.6*Table8[[#This Row],[Ix]]/Table8[[#This Row],[Qflange]]</f>
+        <v>1910270.2702702701</v>
+      </c>
     </row>
-    <row r="80" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B80" s="15" t="str">
         <f>Table8[[#This Row],[Section]]&amp;"-"&amp;TEXT(Table8[[#This Row],[Grade]],"0")</f>
         <v>400WC144-400</v>
@@ -11186,24 +13199,48 @@
         <f t="array" ref="AB80">INDEX(tbllkpSteelGrades[fy],MATCH(1,(Table8[[#This Row],[Grade]]=tbllkpSteelGrades[Grade])*(Table8[[#This Row],[tw]]&lt;=tbllkpSteelGrades[Thickness]),0))</f>
         <v>380000000</v>
       </c>
-      <c r="AC80" s="18">
+      <c r="AC80" s="17">
+        <f t="array" ref="AC80">INDEX(tbllkpSteelGrades[fu],MATCH(1,(Table8[[#This Row],[Grade]]=tbllkpSteelGrades[Grade])*(Table8[[#This Row],[tw]]&lt;=tbllkpSteelGrades[Thickness]),0))</f>
+        <v>480000000</v>
+      </c>
+      <c r="AD80" s="18">
         <f>IF(Table8[[#This Row],[Fabrication Type]]="Welded",Table8[[#This Row],[d1]],Table8[[#This Row],[d]])*Table8[[#This Row],[tw]]</f>
         <v>5.5999999999999999E-3</v>
       </c>
-      <c r="AD80" s="11">
+      <c r="AE80" s="11">
         <f>Table8[[#This Row],[Aw]]*Table8[[#This Row],[fy]]*0.6</f>
         <v>1276800</v>
       </c>
-      <c r="AE80" s="35">
+      <c r="AF80" s="35">
         <f>82/SQRT(Table8[[#This Row],[fy]]/250000000)</f>
         <v>66.510782663612645</v>
       </c>
-      <c r="AF80" s="36">
+      <c r="AG80" s="36">
         <f>IF((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])&gt;Table8[[#This Row],[limiting web slenderness]],(82/((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])*SQRT(Table8[[#This Row],[fy]]/250000000)))^2,1)</f>
         <v>1</v>
       </c>
+      <c r="AH80" s="38">
+        <f>IF(Table8[[#This Row],[Fabrication Type]]="Welded",IF(Table8[[#This Row],[tw]]&gt;0.016,0.016*Table8[[#This Row],[fu]],Table8[[#This Row],[tw]]*Table8[[#This Row],[fu]]),"")</f>
+        <v>7680000</v>
+      </c>
+      <c r="AI80" s="13">
+        <f>Table8[[#This Row],[d]]-Table8[[#This Row],[tf]]</f>
+        <v>0.36599999999999999</v>
+      </c>
+      <c r="AJ80" s="39">
+        <f>Table8[[#This Row],[bf]]*Table8[[#This Row],[tf]]*(Table8[[#This Row],[df]]/2)</f>
+        <v>1.1712000000000001E-3</v>
+      </c>
+      <c r="AK80" s="11">
+        <f>IF(Table8[[#This Row],[Fabrication Type]]="Welded",Table8[[#This Row],[vw]]*Table8[[#This Row],[Ix]]/Table8[[#This Row],[Qflange]],"")</f>
+        <v>3186885.2459016391</v>
+      </c>
+      <c r="AL80" s="11">
+        <f>Table8[[#This Row],[tw]]*Table8[[#This Row],[fy]]*0.6*Table8[[#This Row],[Ix]]/Table8[[#This Row],[Qflange]]</f>
+        <v>1513770.4918032784</v>
+      </c>
     </row>
-    <row r="81" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B81" s="15" t="str">
         <f>Table8[[#This Row],[Section]]&amp;"-"&amp;TEXT(Table8[[#This Row],[Grade]],"0")</f>
         <v>350WC280-400</v>
@@ -11287,24 +13324,48 @@
         <f t="array" ref="AB81">INDEX(tbllkpSteelGrades[fy],MATCH(1,(Table8[[#This Row],[Grade]]=tbllkpSteelGrades[Grade])*(Table8[[#This Row],[tw]]&lt;=tbllkpSteelGrades[Thickness]),0))</f>
         <v>360000000</v>
       </c>
-      <c r="AC81" s="18">
+      <c r="AC81" s="17">
+        <f t="array" ref="AC81">INDEX(tbllkpSteelGrades[fu],MATCH(1,(Table8[[#This Row],[Grade]]=tbllkpSteelGrades[Grade])*(Table8[[#This Row],[tw]]&lt;=tbllkpSteelGrades[Thickness]),0))</f>
+        <v>480000000</v>
+      </c>
+      <c r="AD81" s="18">
         <f>IF(Table8[[#This Row],[Fabrication Type]]="Welded",Table8[[#This Row],[d1]],Table8[[#This Row],[d]])*Table8[[#This Row],[tw]]</f>
         <v>7.6999999999999994E-3</v>
       </c>
-      <c r="AD81" s="11">
+      <c r="AE81" s="11">
         <f>Table8[[#This Row],[Aw]]*Table8[[#This Row],[fy]]*0.6</f>
         <v>1663200</v>
       </c>
-      <c r="AE81" s="35">
+      <c r="AF81" s="35">
         <f>82/SQRT(Table8[[#This Row],[fy]]/250000000)</f>
         <v>68.333333333333343</v>
       </c>
-      <c r="AF81" s="36">
+      <c r="AG81" s="36">
         <f>IF((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])&gt;Table8[[#This Row],[limiting web slenderness]],(82/((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])*SQRT(Table8[[#This Row],[fy]]/250000000)))^2,1)</f>
         <v>1</v>
       </c>
+      <c r="AH81" s="38">
+        <f>IF(Table8[[#This Row],[Fabrication Type]]="Welded",IF(Table8[[#This Row],[tw]]&gt;0.016,0.016*Table8[[#This Row],[fu]],Table8[[#This Row],[tw]]*Table8[[#This Row],[fu]]),"")</f>
+        <v>7680000</v>
+      </c>
+      <c r="AI81" s="13">
+        <f>Table8[[#This Row],[d]]-Table8[[#This Row],[tf]]</f>
+        <v>0.315</v>
+      </c>
+      <c r="AJ81" s="39">
+        <f>Table8[[#This Row],[bf]]*Table8[[#This Row],[tf]]*(Table8[[#This Row],[df]]/2)</f>
+        <v>2.2049999999999999E-3</v>
+      </c>
+      <c r="AK81" s="11">
+        <f>IF(Table8[[#This Row],[Fabrication Type]]="Welded",Table8[[#This Row],[vw]]*Table8[[#This Row],[Ix]]/Table8[[#This Row],[Qflange]],"")</f>
+        <v>2601795.9183673472</v>
+      </c>
+      <c r="AL81" s="11">
+        <f>Table8[[#This Row],[tw]]*Table8[[#This Row],[fy]]*0.6*Table8[[#This Row],[Ix]]/Table8[[#This Row],[Qflange]]</f>
+        <v>2048914.2857142861</v>
+      </c>
     </row>
-    <row r="82" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B82" s="15" t="str">
         <f>Table8[[#This Row],[Section]]&amp;"-"&amp;TEXT(Table8[[#This Row],[Grade]],"0")</f>
         <v>350WC258-400</v>
@@ -11388,24 +13449,48 @@
         <f t="array" ref="AB82">INDEX(tbllkpSteelGrades[fy],MATCH(1,(Table8[[#This Row],[Grade]]=tbllkpSteelGrades[Grade])*(Table8[[#This Row],[tw]]&lt;=tbllkpSteelGrades[Thickness]),0))</f>
         <v>360000000</v>
       </c>
-      <c r="AC82" s="18">
+      <c r="AC82" s="17">
+        <f t="array" ref="AC82">INDEX(tbllkpSteelGrades[fu],MATCH(1,(Table8[[#This Row],[Grade]]=tbllkpSteelGrades[Grade])*(Table8[[#This Row],[tw]]&lt;=tbllkpSteelGrades[Thickness]),0))</f>
+        <v>480000000</v>
+      </c>
+      <c r="AD82" s="18">
         <f>IF(Table8[[#This Row],[Fabrication Type]]="Welded",Table8[[#This Row],[d1]],Table8[[#This Row],[d]])*Table8[[#This Row],[tw]]</f>
         <v>7.6999999999999994E-3</v>
       </c>
-      <c r="AD82" s="11">
+      <c r="AE82" s="11">
         <f>Table8[[#This Row],[Aw]]*Table8[[#This Row],[fy]]*0.6</f>
         <v>1663200</v>
       </c>
-      <c r="AE82" s="35">
+      <c r="AF82" s="35">
         <f>82/SQRT(Table8[[#This Row],[fy]]/250000000)</f>
         <v>68.333333333333343</v>
       </c>
-      <c r="AF82" s="36">
+      <c r="AG82" s="36">
         <f>IF((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])&gt;Table8[[#This Row],[limiting web slenderness]],(82/((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])*SQRT(Table8[[#This Row],[fy]]/250000000)))^2,1)</f>
         <v>1</v>
       </c>
+      <c r="AH82" s="38">
+        <f>IF(Table8[[#This Row],[Fabrication Type]]="Welded",IF(Table8[[#This Row],[tw]]&gt;0.016,0.016*Table8[[#This Row],[fu]],Table8[[#This Row],[tw]]*Table8[[#This Row],[fu]]),"")</f>
+        <v>7680000</v>
+      </c>
+      <c r="AI82" s="13">
+        <f>Table8[[#This Row],[d]]-Table8[[#This Row],[tf]]</f>
+        <v>0.311</v>
+      </c>
+      <c r="AJ82" s="39">
+        <f>Table8[[#This Row],[bf]]*Table8[[#This Row],[tf]]*(Table8[[#This Row],[df]]/2)</f>
+        <v>1.9592999999999998E-3</v>
+      </c>
+      <c r="AK82" s="11">
+        <f>IF(Table8[[#This Row],[Fabrication Type]]="Welded",Table8[[#This Row],[vw]]*Table8[[#This Row],[Ix]]/Table8[[#This Row],[Qflange]],"")</f>
+        <v>2590966.1613841685</v>
+      </c>
+      <c r="AL82" s="11">
+        <f>Table8[[#This Row],[tw]]*Table8[[#This Row],[fy]]*0.6*Table8[[#This Row],[Ix]]/Table8[[#This Row],[Qflange]]</f>
+        <v>2040385.8520900325</v>
+      </c>
     </row>
-    <row r="83" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B83" s="15" t="str">
         <f>Table8[[#This Row],[Section]]&amp;"-"&amp;TEXT(Table8[[#This Row],[Grade]],"0")</f>
         <v>350WC230-400</v>
@@ -11489,24 +13574,48 @@
         <f t="array" ref="AB83">INDEX(tbllkpSteelGrades[fy],MATCH(1,(Table8[[#This Row],[Grade]]=tbllkpSteelGrades[Grade])*(Table8[[#This Row],[tw]]&lt;=tbllkpSteelGrades[Thickness]),0))</f>
         <v>360000000</v>
       </c>
-      <c r="AC83" s="18">
+      <c r="AC83" s="17">
+        <f t="array" ref="AC83">INDEX(tbllkpSteelGrades[fu],MATCH(1,(Table8[[#This Row],[Grade]]=tbllkpSteelGrades[Grade])*(Table8[[#This Row],[tw]]&lt;=tbllkpSteelGrades[Thickness]),0))</f>
+        <v>480000000</v>
+      </c>
+      <c r="AD83" s="18">
         <f>IF(Table8[[#This Row],[Fabrication Type]]="Welded",Table8[[#This Row],[d1]],Table8[[#This Row],[d]])*Table8[[#This Row],[tw]]</f>
         <v>6.8750000000000009E-3</v>
       </c>
-      <c r="AD83" s="11">
+      <c r="AE83" s="11">
         <f>Table8[[#This Row],[Aw]]*Table8[[#This Row],[fy]]*0.6</f>
         <v>1485000.0000000002</v>
       </c>
-      <c r="AE83" s="35">
+      <c r="AF83" s="35">
         <f>82/SQRT(Table8[[#This Row],[fy]]/250000000)</f>
         <v>68.333333333333343</v>
       </c>
-      <c r="AF83" s="36">
+      <c r="AG83" s="36">
         <f>IF((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])&gt;Table8[[#This Row],[limiting web slenderness]],(82/((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])*SQRT(Table8[[#This Row],[fy]]/250000000)))^2,1)</f>
         <v>1</v>
       </c>
+      <c r="AH83" s="38">
+        <f>IF(Table8[[#This Row],[Fabrication Type]]="Welded",IF(Table8[[#This Row],[tw]]&gt;0.016,0.016*Table8[[#This Row],[fu]],Table8[[#This Row],[tw]]*Table8[[#This Row],[fu]]),"")</f>
+        <v>7680000</v>
+      </c>
+      <c r="AI83" s="13">
+        <f>Table8[[#This Row],[d]]-Table8[[#This Row],[tf]]</f>
+        <v>0.30700000000000005</v>
+      </c>
+      <c r="AJ83" s="39">
+        <f>Table8[[#This Row],[bf]]*Table8[[#This Row],[tf]]*(Table8[[#This Row],[df]]/2)</f>
+        <v>1.7192000000000004E-3</v>
+      </c>
+      <c r="AK83" s="11">
+        <f>IF(Table8[[#This Row],[Fabrication Type]]="Welded",Table8[[#This Row],[vw]]*Table8[[#This Row],[Ix]]/Table8[[#This Row],[Qflange]],"")</f>
+        <v>2559702.1870637503</v>
+      </c>
+      <c r="AL83" s="11">
+        <f>Table8[[#This Row],[tw]]*Table8[[#This Row],[fy]]*0.6*Table8[[#This Row],[Ix]]/Table8[[#This Row],[Qflange]]</f>
+        <v>1799790.6002791994</v>
+      </c>
     </row>
-    <row r="84" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B84" s="15" t="str">
         <f>Table8[[#This Row],[Section]]&amp;"-"&amp;TEXT(Table8[[#This Row],[Grade]],"0")</f>
         <v>350WC197-400</v>
@@ -11590,24 +13699,48 @@
         <f t="array" ref="AB84">INDEX(tbllkpSteelGrades[fy],MATCH(1,(Table8[[#This Row],[Grade]]=tbllkpSteelGrades[Grade])*(Table8[[#This Row],[tw]]&lt;=tbllkpSteelGrades[Thickness]),0))</f>
         <v>380000000</v>
       </c>
-      <c r="AC84" s="18">
+      <c r="AC84" s="17">
+        <f t="array" ref="AC84">INDEX(tbllkpSteelGrades[fu],MATCH(1,(Table8[[#This Row],[Grade]]=tbllkpSteelGrades[Grade])*(Table8[[#This Row],[tw]]&lt;=tbllkpSteelGrades[Thickness]),0))</f>
+        <v>480000000</v>
+      </c>
+      <c r="AD84" s="18">
         <f>IF(Table8[[#This Row],[Fabrication Type]]="Welded",Table8[[#This Row],[d1]],Table8[[#This Row],[d]])*Table8[[#This Row],[tw]]</f>
         <v>5.5000000000000005E-3</v>
       </c>
-      <c r="AD84" s="11">
+      <c r="AE84" s="11">
         <f>Table8[[#This Row],[Aw]]*Table8[[#This Row],[fy]]*0.6</f>
         <v>1254000</v>
       </c>
-      <c r="AE84" s="35">
+      <c r="AF84" s="35">
         <f>82/SQRT(Table8[[#This Row],[fy]]/250000000)</f>
         <v>66.510782663612645</v>
       </c>
-      <c r="AF84" s="36">
+      <c r="AG84" s="36">
         <f>IF((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])&gt;Table8[[#This Row],[limiting web slenderness]],(82/((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])*SQRT(Table8[[#This Row],[fy]]/250000000)))^2,1)</f>
         <v>1</v>
       </c>
+      <c r="AH84" s="38">
+        <f>IF(Table8[[#This Row],[Fabrication Type]]="Welded",IF(Table8[[#This Row],[tw]]&gt;0.016,0.016*Table8[[#This Row],[fu]],Table8[[#This Row],[tw]]*Table8[[#This Row],[fu]]),"")</f>
+        <v>7680000</v>
+      </c>
+      <c r="AI84" s="13">
+        <f>Table8[[#This Row],[d]]-Table8[[#This Row],[tf]]</f>
+        <v>0.30299999999999999</v>
+      </c>
+      <c r="AJ84" s="39">
+        <f>Table8[[#This Row],[bf]]*Table8[[#This Row],[tf]]*(Table8[[#This Row],[df]]/2)</f>
+        <v>1.4846999999999998E-3</v>
+      </c>
+      <c r="AK84" s="11">
+        <f>IF(Table8[[#This Row],[Fabrication Type]]="Welded",Table8[[#This Row],[vw]]*Table8[[#This Row],[Ix]]/Table8[[#This Row],[Qflange]],"")</f>
+        <v>2513962.4166498287</v>
+      </c>
+      <c r="AL84" s="11">
+        <f>Table8[[#This Row],[tw]]*Table8[[#This Row],[fy]]*0.6*Table8[[#This Row],[Ix]]/Table8[[#This Row],[Qflange]]</f>
+        <v>1492665.1848858355</v>
+      </c>
     </row>
-    <row r="85" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B85" s="15" t="str">
         <f>Table8[[#This Row],[Section]]&amp;"-"&amp;TEXT(Table8[[#This Row],[Grade]],"0")</f>
         <v>610UB125-300HR</v>
@@ -11691,24 +13824,48 @@
         <f t="array" ref="AB85">INDEX(tbllkpSteelGrades[fy],MATCH(1,(Table8[[#This Row],[Grade]]=tbllkpSteelGrades[Grade])*(Table8[[#This Row],[tw]]&lt;=tbllkpSteelGrades[Thickness]),0))</f>
         <v>300000000</v>
       </c>
-      <c r="AC85" s="18">
+      <c r="AC85" s="17">
+        <f t="array" ref="AC85">INDEX(tbllkpSteelGrades[fu],MATCH(1,(Table8[[#This Row],[Grade]]=tbllkpSteelGrades[Grade])*(Table8[[#This Row],[tw]]&lt;=tbllkpSteelGrades[Thickness]),0))</f>
+        <v>440000000</v>
+      </c>
+      <c r="AD85" s="18">
         <f>IF(Table8[[#This Row],[Fabrication Type]]="Welded",Table8[[#This Row],[d1]],Table8[[#This Row],[d]])*Table8[[#This Row],[tw]]</f>
         <v>7.2828000000000007E-3</v>
       </c>
-      <c r="AD85" s="11">
+      <c r="AE85" s="11">
         <f>Table8[[#This Row],[Aw]]*Table8[[#This Row],[fy]]*0.6</f>
         <v>1310904</v>
       </c>
-      <c r="AE85" s="35">
+      <c r="AF85" s="35">
         <f>82/SQRT(Table8[[#This Row],[fy]]/250000000)</f>
         <v>74.855416192372701</v>
       </c>
-      <c r="AF85" s="36">
+      <c r="AG85" s="36">
         <f>IF((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])&gt;Table8[[#This Row],[limiting web slenderness]],(82/((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])*SQRT(Table8[[#This Row],[fy]]/250000000)))^2,1)</f>
         <v>1</v>
       </c>
+      <c r="AH85" s="38" t="str">
+        <f>IF(Table8[[#This Row],[Fabrication Type]]="Welded",IF(Table8[[#This Row],[tw]]&gt;0.016,0.016*Table8[[#This Row],[fu]],Table8[[#This Row],[tw]]*Table8[[#This Row],[fu]]),"")</f>
+        <v/>
+      </c>
+      <c r="AI85" s="13">
+        <f>Table8[[#This Row],[d]]-Table8[[#This Row],[tf]]</f>
+        <v>0.59240000000000004</v>
+      </c>
+      <c r="AJ85" s="39">
+        <f>Table8[[#This Row],[bf]]*Table8[[#This Row],[tf]]*(Table8[[#This Row],[df]]/2)</f>
+        <v>1.3294640800000004E-3</v>
+      </c>
+      <c r="AK85" s="11" t="str">
+        <f>IF(Table8[[#This Row],[Fabrication Type]]="Welded",Table8[[#This Row],[vw]]*Table8[[#This Row],[Ix]]/Table8[[#This Row],[Qflange]],"")</f>
+        <v/>
+      </c>
+      <c r="AL85" s="11">
+        <f>Table8[[#This Row],[tw]]*Table8[[#This Row],[fy]]*0.6*Table8[[#This Row],[Ix]]/Table8[[#This Row],[Qflange]]</f>
+        <v>1588619.0772450198</v>
+      </c>
     </row>
-    <row r="86" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B86" s="15" t="str">
         <f>Table8[[#This Row],[Section]]&amp;"-"&amp;TEXT(Table8[[#This Row],[Grade]],"0")</f>
         <v>610UB113-300HR</v>
@@ -11792,24 +13949,48 @@
         <f t="array" ref="AB86">INDEX(tbllkpSteelGrades[fy],MATCH(1,(Table8[[#This Row],[Grade]]=tbllkpSteelGrades[Grade])*(Table8[[#This Row],[tw]]&lt;=tbllkpSteelGrades[Thickness]),0))</f>
         <v>300000000</v>
       </c>
-      <c r="AC86" s="18">
+      <c r="AC86" s="17">
+        <f t="array" ref="AC86">INDEX(tbllkpSteelGrades[fu],MATCH(1,(Table8[[#This Row],[Grade]]=tbllkpSteelGrades[Grade])*(Table8[[#This Row],[tw]]&lt;=tbllkpSteelGrades[Thickness]),0))</f>
+        <v>440000000</v>
+      </c>
+      <c r="AD86" s="18">
         <f>IF(Table8[[#This Row],[Fabrication Type]]="Welded",Table8[[#This Row],[d1]],Table8[[#This Row],[d]])*Table8[[#This Row],[tw]]</f>
         <v>6.7983999999999996E-3</v>
       </c>
-      <c r="AD86" s="11">
+      <c r="AE86" s="11">
         <f>Table8[[#This Row],[Aw]]*Table8[[#This Row],[fy]]*0.6</f>
         <v>1223711.9999999998</v>
       </c>
-      <c r="AE86" s="35">
+      <c r="AF86" s="35">
         <f>82/SQRT(Table8[[#This Row],[fy]]/250000000)</f>
         <v>74.855416192372701</v>
       </c>
-      <c r="AF86" s="36">
+      <c r="AG86" s="36">
         <f>IF((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])&gt;Table8[[#This Row],[limiting web slenderness]],(82/((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])*SQRT(Table8[[#This Row],[fy]]/250000000)))^2,1)</f>
         <v>1</v>
       </c>
+      <c r="AH86" s="38" t="str">
+        <f>IF(Table8[[#This Row],[Fabrication Type]]="Welded",IF(Table8[[#This Row],[tw]]&gt;0.016,0.016*Table8[[#This Row],[fu]],Table8[[#This Row],[tw]]*Table8[[#This Row],[fu]]),"")</f>
+        <v/>
+      </c>
+      <c r="AI86" s="13">
+        <f>Table8[[#This Row],[d]]-Table8[[#This Row],[tf]]</f>
+        <v>0.5897</v>
+      </c>
+      <c r="AJ86" s="39">
+        <f>Table8[[#This Row],[bf]]*Table8[[#This Row],[tf]]*(Table8[[#This Row],[df]]/2)</f>
+        <v>1.16300634E-3</v>
+      </c>
+      <c r="AK86" s="11" t="str">
+        <f>IF(Table8[[#This Row],[Fabrication Type]]="Welded",Table8[[#This Row],[vw]]*Table8[[#This Row],[Ix]]/Table8[[#This Row],[Qflange]],"")</f>
+        <v/>
+      </c>
+      <c r="AL86" s="11">
+        <f>Table8[[#This Row],[tw]]*Table8[[#This Row],[fy]]*0.6*Table8[[#This Row],[Ix]]/Table8[[#This Row],[Qflange]]</f>
+        <v>1516758.7134563685</v>
+      </c>
     </row>
-    <row r="87" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B87" s="15" t="str">
         <f>Table8[[#This Row],[Section]]&amp;"-"&amp;TEXT(Table8[[#This Row],[Grade]],"0")</f>
         <v>610UB101-300HR</v>
@@ -11893,24 +14074,48 @@
         <f t="array" ref="AB87">INDEX(tbllkpSteelGrades[fy],MATCH(1,(Table8[[#This Row],[Grade]]=tbllkpSteelGrades[Grade])*(Table8[[#This Row],[tw]]&lt;=tbllkpSteelGrades[Thickness]),0))</f>
         <v>320000000</v>
       </c>
-      <c r="AC87" s="18">
+      <c r="AC87" s="17">
+        <f t="array" ref="AC87">INDEX(tbllkpSteelGrades[fu],MATCH(1,(Table8[[#This Row],[Grade]]=tbllkpSteelGrades[Grade])*(Table8[[#This Row],[tw]]&lt;=tbllkpSteelGrades[Thickness]),0))</f>
+        <v>440000000</v>
+      </c>
+      <c r="AD87" s="18">
         <f>IF(Table8[[#This Row],[Fabrication Type]]="Welded",Table8[[#This Row],[d1]],Table8[[#This Row],[d]])*Table8[[#This Row],[tw]]</f>
         <v>6.3812000000000001E-3</v>
       </c>
-      <c r="AD87" s="11">
+      <c r="AE87" s="11">
         <f>Table8[[#This Row],[Aw]]*Table8[[#This Row],[fy]]*0.6</f>
         <v>1225190.3999999999</v>
       </c>
-      <c r="AE87" s="35">
+      <c r="AF87" s="35">
         <f>82/SQRT(Table8[[#This Row],[fy]]/250000000)</f>
         <v>72.478445071621124</v>
       </c>
-      <c r="AF87" s="36">
+      <c r="AG87" s="36">
         <f>IF((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])&gt;Table8[[#This Row],[limiting web slenderness]],(82/((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])*SQRT(Table8[[#This Row],[fy]]/250000000)))^2,1)</f>
         <v>1</v>
       </c>
+      <c r="AH87" s="38" t="str">
+        <f>IF(Table8[[#This Row],[Fabrication Type]]="Welded",IF(Table8[[#This Row],[tw]]&gt;0.016,0.016*Table8[[#This Row],[fu]],Table8[[#This Row],[tw]]*Table8[[#This Row],[fu]]),"")</f>
+        <v/>
+      </c>
+      <c r="AI87" s="13">
+        <f>Table8[[#This Row],[d]]-Table8[[#This Row],[tf]]</f>
+        <v>0.58719999999999994</v>
+      </c>
+      <c r="AJ87" s="39">
+        <f>Table8[[#This Row],[bf]]*Table8[[#This Row],[tf]]*(Table8[[#This Row],[df]]/2)</f>
+        <v>9.9072383999999989E-4</v>
+      </c>
+      <c r="AK87" s="11" t="str">
+        <f>IF(Table8[[#This Row],[Fabrication Type]]="Welded",Table8[[#This Row],[vw]]*Table8[[#This Row],[Ix]]/Table8[[#This Row],[Qflange]],"")</f>
+        <v/>
+      </c>
+      <c r="AL87" s="11">
+        <f>Table8[[#This Row],[tw]]*Table8[[#This Row],[fy]]*0.6*Table8[[#This Row],[Ix]]/Table8[[#This Row],[Qflange]]</f>
+        <v>1563288.5143856034</v>
+      </c>
     </row>
-    <row r="88" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B88" s="15" t="str">
         <f>Table8[[#This Row],[Section]]&amp;"-"&amp;TEXT(Table8[[#This Row],[Grade]],"0")</f>
         <v>530UB92.4-300HR</v>
@@ -11994,24 +14199,48 @@
         <f t="array" ref="AB88">INDEX(tbllkpSteelGrades[fy],MATCH(1,(Table8[[#This Row],[Grade]]=tbllkpSteelGrades[Grade])*(Table8[[#This Row],[tw]]&lt;=tbllkpSteelGrades[Thickness]),0))</f>
         <v>320000000</v>
       </c>
-      <c r="AC88" s="18">
+      <c r="AC88" s="17">
+        <f t="array" ref="AC88">INDEX(tbllkpSteelGrades[fu],MATCH(1,(Table8[[#This Row],[Grade]]=tbllkpSteelGrades[Grade])*(Table8[[#This Row],[tw]]&lt;=tbllkpSteelGrades[Thickness]),0))</f>
+        <v>440000000</v>
+      </c>
+      <c r="AD88" s="18">
         <f>IF(Table8[[#This Row],[Fabrication Type]]="Welded",Table8[[#This Row],[d1]],Table8[[#This Row],[d]])*Table8[[#This Row],[tw]]</f>
         <v>5.4365999999999998E-3</v>
       </c>
-      <c r="AD88" s="11">
+      <c r="AE88" s="11">
         <f>Table8[[#This Row],[Aw]]*Table8[[#This Row],[fy]]*0.6</f>
         <v>1043827.2</v>
       </c>
-      <c r="AE88" s="35">
+      <c r="AF88" s="35">
         <f>82/SQRT(Table8[[#This Row],[fy]]/250000000)</f>
         <v>72.478445071621124</v>
       </c>
-      <c r="AF88" s="36">
+      <c r="AG88" s="36">
         <f>IF((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])&gt;Table8[[#This Row],[limiting web slenderness]],(82/((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])*SQRT(Table8[[#This Row],[fy]]/250000000)))^2,1)</f>
         <v>1</v>
       </c>
+      <c r="AH88" s="38" t="str">
+        <f>IF(Table8[[#This Row],[Fabrication Type]]="Welded",IF(Table8[[#This Row],[tw]]&gt;0.016,0.016*Table8[[#This Row],[fu]],Table8[[#This Row],[tw]]*Table8[[#This Row],[fu]]),"")</f>
+        <v/>
+      </c>
+      <c r="AI88" s="13">
+        <f>Table8[[#This Row],[d]]-Table8[[#This Row],[tf]]</f>
+        <v>0.51740000000000008</v>
+      </c>
+      <c r="AJ88" s="39">
+        <f>Table8[[#This Row],[bf]]*Table8[[#This Row],[tf]]*(Table8[[#This Row],[df]]/2)</f>
+        <v>8.4346548000000009E-4</v>
+      </c>
+      <c r="AK88" s="11" t="str">
+        <f>IF(Table8[[#This Row],[Fabrication Type]]="Welded",Table8[[#This Row],[vw]]*Table8[[#This Row],[Ix]]/Table8[[#This Row],[Qflange]],"")</f>
+        <v/>
+      </c>
+      <c r="AL88" s="11">
+        <f>Table8[[#This Row],[tw]]*Table8[[#This Row],[fy]]*0.6*Table8[[#This Row],[Ix]]/Table8[[#This Row],[Qflange]]</f>
+        <v>1286304.6867075101</v>
+      </c>
     </row>
-    <row r="89" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B89" s="15" t="str">
         <f>Table8[[#This Row],[Section]]&amp;"-"&amp;TEXT(Table8[[#This Row],[Grade]],"0")</f>
         <v>530UB82.0-300HR</v>
@@ -12095,24 +14324,48 @@
         <f t="array" ref="AB89">INDEX(tbllkpSteelGrades[fy],MATCH(1,(Table8[[#This Row],[Grade]]=tbllkpSteelGrades[Grade])*(Table8[[#This Row],[tw]]&lt;=tbllkpSteelGrades[Thickness]),0))</f>
         <v>320000000</v>
       </c>
-      <c r="AC89" s="18">
+      <c r="AC89" s="17">
+        <f t="array" ref="AC89">INDEX(tbllkpSteelGrades[fu],MATCH(1,(Table8[[#This Row],[Grade]]=tbllkpSteelGrades[Grade])*(Table8[[#This Row],[tw]]&lt;=tbllkpSteelGrades[Thickness]),0))</f>
+        <v>440000000</v>
+      </c>
+      <c r="AD89" s="18">
         <f>IF(Table8[[#This Row],[Fabrication Type]]="Welded",Table8[[#This Row],[d1]],Table8[[#This Row],[d]])*Table8[[#This Row],[tw]]</f>
         <v>5.0688E-3</v>
       </c>
-      <c r="AD89" s="11">
+      <c r="AE89" s="11">
         <f>Table8[[#This Row],[Aw]]*Table8[[#This Row],[fy]]*0.6</f>
         <v>973209.59999999998</v>
       </c>
-      <c r="AE89" s="35">
+      <c r="AF89" s="35">
         <f>82/SQRT(Table8[[#This Row],[fy]]/250000000)</f>
         <v>72.478445071621124</v>
       </c>
-      <c r="AF89" s="36">
+      <c r="AG89" s="36">
         <f>IF((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])&gt;Table8[[#This Row],[limiting web slenderness]],(82/((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])*SQRT(Table8[[#This Row],[fy]]/250000000)))^2,1)</f>
         <v>1</v>
       </c>
+      <c r="AH89" s="38" t="str">
+        <f>IF(Table8[[#This Row],[Fabrication Type]]="Welded",IF(Table8[[#This Row],[tw]]&gt;0.016,0.016*Table8[[#This Row],[fu]],Table8[[#This Row],[tw]]*Table8[[#This Row],[fu]]),"")</f>
+        <v/>
+      </c>
+      <c r="AI89" s="13">
+        <f>Table8[[#This Row],[d]]-Table8[[#This Row],[tf]]</f>
+        <v>0.51480000000000004</v>
+      </c>
+      <c r="AJ89" s="39">
+        <f>Table8[[#This Row],[bf]]*Table8[[#This Row],[tf]]*(Table8[[#This Row],[df]]/2)</f>
+        <v>7.1011512000000005E-4</v>
+      </c>
+      <c r="AK89" s="11" t="str">
+        <f>IF(Table8[[#This Row],[Fabrication Type]]="Welded",Table8[[#This Row],[vw]]*Table8[[#This Row],[Ix]]/Table8[[#This Row],[Qflange]],"")</f>
+        <v/>
+      </c>
+      <c r="AL89" s="11">
+        <f>Table8[[#This Row],[tw]]*Table8[[#This Row],[fy]]*0.6*Table8[[#This Row],[Ix]]/Table8[[#This Row],[Qflange]]</f>
+        <v>1238118.1237205593</v>
+      </c>
     </row>
-    <row r="90" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B90" s="15" t="str">
         <f>Table8[[#This Row],[Section]]&amp;"-"&amp;TEXT(Table8[[#This Row],[Grade]],"0")</f>
         <v>460UB82.1-300HR</v>
@@ -12196,24 +14449,48 @@
         <f t="array" ref="AB90">INDEX(tbllkpSteelGrades[fy],MATCH(1,(Table8[[#This Row],[Grade]]=tbllkpSteelGrades[Grade])*(Table8[[#This Row],[tw]]&lt;=tbllkpSteelGrades[Thickness]),0))</f>
         <v>320000000</v>
       </c>
-      <c r="AC90" s="18">
+      <c r="AC90" s="17">
+        <f t="array" ref="AC90">INDEX(tbllkpSteelGrades[fu],MATCH(1,(Table8[[#This Row],[Grade]]=tbllkpSteelGrades[Grade])*(Table8[[#This Row],[tw]]&lt;=tbllkpSteelGrades[Thickness]),0))</f>
+        <v>440000000</v>
+      </c>
+      <c r="AD90" s="18">
         <f>IF(Table8[[#This Row],[Fabrication Type]]="Welded",Table8[[#This Row],[d1]],Table8[[#This Row],[d]])*Table8[[#This Row],[tw]]</f>
         <v>4.5540000000000008E-3</v>
       </c>
-      <c r="AD90" s="11">
+      <c r="AE90" s="11">
         <f>Table8[[#This Row],[Aw]]*Table8[[#This Row],[fy]]*0.6</f>
         <v>874368.00000000012</v>
       </c>
-      <c r="AE90" s="35">
+      <c r="AF90" s="35">
         <f>82/SQRT(Table8[[#This Row],[fy]]/250000000)</f>
         <v>72.478445071621124</v>
       </c>
-      <c r="AF90" s="36">
+      <c r="AG90" s="36">
         <f>IF((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])&gt;Table8[[#This Row],[limiting web slenderness]],(82/((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])*SQRT(Table8[[#This Row],[fy]]/250000000)))^2,1)</f>
         <v>1</v>
       </c>
+      <c r="AH90" s="38" t="str">
+        <f>IF(Table8[[#This Row],[Fabrication Type]]="Welded",IF(Table8[[#This Row],[tw]]&gt;0.016,0.016*Table8[[#This Row],[fu]],Table8[[#This Row],[tw]]*Table8[[#This Row],[fu]]),"")</f>
+        <v/>
+      </c>
+      <c r="AI90" s="13">
+        <f>Table8[[#This Row],[d]]-Table8[[#This Row],[tf]]</f>
+        <v>0.44400000000000001</v>
+      </c>
+      <c r="AJ90" s="39">
+        <f>Table8[[#This Row],[bf]]*Table8[[#This Row],[tf]]*(Table8[[#This Row],[df]]/2)</f>
+        <v>6.7843200000000008E-4</v>
+      </c>
+      <c r="AK90" s="11" t="str">
+        <f>IF(Table8[[#This Row],[Fabrication Type]]="Welded",Table8[[#This Row],[vw]]*Table8[[#This Row],[Ix]]/Table8[[#This Row],[Qflange]],"")</f>
+        <v/>
+      </c>
+      <c r="AL90" s="11">
+        <f>Table8[[#This Row],[tw]]*Table8[[#This Row],[fy]]*0.6*Table8[[#This Row],[Ix]]/Table8[[#This Row],[Qflange]]</f>
+        <v>1042252.7239281166</v>
+      </c>
     </row>
-    <row r="91" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B91" s="15" t="str">
         <f>Table8[[#This Row],[Section]]&amp;"-"&amp;TEXT(Table8[[#This Row],[Grade]],"0")</f>
         <v>460UB74.6-300HR</v>
@@ -12297,24 +14574,48 @@
         <f t="array" ref="AB91">INDEX(tbllkpSteelGrades[fy],MATCH(1,(Table8[[#This Row],[Grade]]=tbllkpSteelGrades[Grade])*(Table8[[#This Row],[tw]]&lt;=tbllkpSteelGrades[Thickness]),0))</f>
         <v>320000000</v>
       </c>
-      <c r="AC91" s="18">
+      <c r="AC91" s="17">
+        <f t="array" ref="AC91">INDEX(tbllkpSteelGrades[fu],MATCH(1,(Table8[[#This Row],[Grade]]=tbllkpSteelGrades[Grade])*(Table8[[#This Row],[tw]]&lt;=tbllkpSteelGrades[Thickness]),0))</f>
+        <v>440000000</v>
+      </c>
+      <c r="AD91" s="18">
         <f>IF(Table8[[#This Row],[Fabrication Type]]="Welded",Table8[[#This Row],[d1]],Table8[[#This Row],[d]])*Table8[[#This Row],[tw]]</f>
         <v>4.1587000000000004E-3</v>
       </c>
-      <c r="AD91" s="11">
+      <c r="AE91" s="11">
         <f>Table8[[#This Row],[Aw]]*Table8[[#This Row],[fy]]*0.6</f>
         <v>798470.40000000014</v>
       </c>
-      <c r="AE91" s="35">
+      <c r="AF91" s="35">
         <f>82/SQRT(Table8[[#This Row],[fy]]/250000000)</f>
         <v>72.478445071621124</v>
       </c>
-      <c r="AF91" s="36">
+      <c r="AG91" s="36">
         <f>IF((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])&gt;Table8[[#This Row],[limiting web slenderness]],(82/((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])*SQRT(Table8[[#This Row],[fy]]/250000000)))^2,1)</f>
         <v>1</v>
       </c>
+      <c r="AH91" s="38" t="str">
+        <f>IF(Table8[[#This Row],[Fabrication Type]]="Welded",IF(Table8[[#This Row],[tw]]&gt;0.016,0.016*Table8[[#This Row],[fu]],Table8[[#This Row],[tw]]*Table8[[#This Row],[fu]]),"")</f>
+        <v/>
+      </c>
+      <c r="AI91" s="13">
+        <f>Table8[[#This Row],[d]]-Table8[[#This Row],[tf]]</f>
+        <v>0.4425</v>
+      </c>
+      <c r="AJ91" s="39">
+        <f>Table8[[#This Row],[bf]]*Table8[[#This Row],[tf]]*(Table8[[#This Row],[df]]/2)</f>
+        <v>6.0954374999999997E-4</v>
+      </c>
+      <c r="AK91" s="11" t="str">
+        <f>IF(Table8[[#This Row],[Fabrication Type]]="Welded",Table8[[#This Row],[vw]]*Table8[[#This Row],[Ix]]/Table8[[#This Row],[Qflange]],"")</f>
+        <v/>
+      </c>
+      <c r="AL91" s="11">
+        <f>Table8[[#This Row],[tw]]*Table8[[#This Row],[fy]]*0.6*Table8[[#This Row],[Ix]]/Table8[[#This Row],[Qflange]]</f>
+        <v>960246.08569934487</v>
+      </c>
     </row>
-    <row r="92" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B92" s="15" t="str">
         <f>Table8[[#This Row],[Section]]&amp;"-"&amp;TEXT(Table8[[#This Row],[Grade]],"0")</f>
         <v>460UB67.1-300HR</v>
@@ -12398,24 +14699,48 @@
         <f t="array" ref="AB92">INDEX(tbllkpSteelGrades[fy],MATCH(1,(Table8[[#This Row],[Grade]]=tbllkpSteelGrades[Grade])*(Table8[[#This Row],[tw]]&lt;=tbllkpSteelGrades[Thickness]),0))</f>
         <v>320000000</v>
       </c>
-      <c r="AC92" s="18">
+      <c r="AC92" s="17">
+        <f t="array" ref="AC92">INDEX(tbllkpSteelGrades[fu],MATCH(1,(Table8[[#This Row],[Grade]]=tbllkpSteelGrades[Grade])*(Table8[[#This Row],[tw]]&lt;=tbllkpSteelGrades[Thickness]),0))</f>
+        <v>440000000</v>
+      </c>
+      <c r="AD92" s="18">
         <f>IF(Table8[[#This Row],[Fabrication Type]]="Welded",Table8[[#This Row],[d1]],Table8[[#This Row],[d]])*Table8[[#This Row],[tw]]</f>
         <v>3.8590000000000005E-3</v>
       </c>
-      <c r="AD92" s="11">
+      <c r="AE92" s="11">
         <f>Table8[[#This Row],[Aw]]*Table8[[#This Row],[fy]]*0.6</f>
         <v>740928.00000000012</v>
       </c>
-      <c r="AE92" s="35">
+      <c r="AF92" s="35">
         <f>82/SQRT(Table8[[#This Row],[fy]]/250000000)</f>
         <v>72.478445071621124</v>
       </c>
-      <c r="AF92" s="36">
+      <c r="AG92" s="36">
         <f>IF((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])&gt;Table8[[#This Row],[limiting web slenderness]],(82/((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])*SQRT(Table8[[#This Row],[fy]]/250000000)))^2,1)</f>
         <v>1</v>
       </c>
+      <c r="AH92" s="38" t="str">
+        <f>IF(Table8[[#This Row],[Fabrication Type]]="Welded",IF(Table8[[#This Row],[tw]]&gt;0.016,0.016*Table8[[#This Row],[fu]],Table8[[#This Row],[tw]]*Table8[[#This Row],[fu]]),"")</f>
+        <v/>
+      </c>
+      <c r="AI92" s="13">
+        <f>Table8[[#This Row],[d]]-Table8[[#This Row],[tf]]</f>
+        <v>0.44130000000000003</v>
+      </c>
+      <c r="AJ92" s="39">
+        <f>Table8[[#This Row],[bf]]*Table8[[#This Row],[tf]]*(Table8[[#This Row],[df]]/2)</f>
+        <v>5.3242844999999998E-4</v>
+      </c>
+      <c r="AK92" s="11" t="str">
+        <f>IF(Table8[[#This Row],[Fabrication Type]]="Welded",Table8[[#This Row],[vw]]*Table8[[#This Row],[Ix]]/Table8[[#This Row],[Qflange]],"")</f>
+        <v/>
+      </c>
+      <c r="AL92" s="11">
+        <f>Table8[[#This Row],[tw]]*Table8[[#This Row],[fy]]*0.6*Table8[[#This Row],[Ix]]/Table8[[#This Row],[Qflange]]</f>
+        <v>907299.37515547872</v>
+      </c>
     </row>
-    <row r="93" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B93" s="15" t="str">
         <f>Table8[[#This Row],[Section]]&amp;"-"&amp;TEXT(Table8[[#This Row],[Grade]],"0")</f>
         <v>410UB59.7-300HR</v>
@@ -12499,24 +14824,48 @@
         <f t="array" ref="AB93">INDEX(tbllkpSteelGrades[fy],MATCH(1,(Table8[[#This Row],[Grade]]=tbllkpSteelGrades[Grade])*(Table8[[#This Row],[tw]]&lt;=tbllkpSteelGrades[Thickness]),0))</f>
         <v>320000000</v>
       </c>
-      <c r="AC93" s="18">
+      <c r="AC93" s="17">
+        <f t="array" ref="AC93">INDEX(tbllkpSteelGrades[fu],MATCH(1,(Table8[[#This Row],[Grade]]=tbllkpSteelGrades[Grade])*(Table8[[#This Row],[tw]]&lt;=tbllkpSteelGrades[Thickness]),0))</f>
+        <v>440000000</v>
+      </c>
+      <c r="AD93" s="18">
         <f>IF(Table8[[#This Row],[Fabrication Type]]="Welded",Table8[[#This Row],[d1]],Table8[[#This Row],[d]])*Table8[[#This Row],[tw]]</f>
         <v>3.1668E-3</v>
       </c>
-      <c r="AD93" s="11">
+      <c r="AE93" s="11">
         <f>Table8[[#This Row],[Aw]]*Table8[[#This Row],[fy]]*0.6</f>
         <v>608025.59999999998</v>
       </c>
-      <c r="AE93" s="35">
+      <c r="AF93" s="35">
         <f>82/SQRT(Table8[[#This Row],[fy]]/250000000)</f>
         <v>72.478445071621124</v>
       </c>
-      <c r="AF93" s="36">
+      <c r="AG93" s="36">
         <f>IF((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])&gt;Table8[[#This Row],[limiting web slenderness]],(82/((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])*SQRT(Table8[[#This Row],[fy]]/250000000)))^2,1)</f>
         <v>1</v>
       </c>
+      <c r="AH93" s="38" t="str">
+        <f>IF(Table8[[#This Row],[Fabrication Type]]="Welded",IF(Table8[[#This Row],[tw]]&gt;0.016,0.016*Table8[[#This Row],[fu]],Table8[[#This Row],[tw]]*Table8[[#This Row],[fu]]),"")</f>
+        <v/>
+      </c>
+      <c r="AI93" s="13">
+        <f>Table8[[#This Row],[d]]-Table8[[#This Row],[tf]]</f>
+        <v>0.39320000000000005</v>
+      </c>
+      <c r="AJ93" s="39">
+        <f>Table8[[#This Row],[bf]]*Table8[[#This Row],[tf]]*(Table8[[#This Row],[df]]/2)</f>
+        <v>4.4793344000000005E-4</v>
+      </c>
+      <c r="AK93" s="11" t="str">
+        <f>IF(Table8[[#This Row],[Fabrication Type]]="Welded",Table8[[#This Row],[vw]]*Table8[[#This Row],[Ix]]/Table8[[#This Row],[Qflange]],"")</f>
+        <v/>
+      </c>
+      <c r="AL93" s="11">
+        <f>Table8[[#This Row],[tw]]*Table8[[#This Row],[fy]]*0.6*Table8[[#This Row],[Ix]]/Table8[[#This Row],[Qflange]]</f>
+        <v>722164.43585904187</v>
+      </c>
     </row>
-    <row r="94" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B94" s="15" t="str">
         <f>Table8[[#This Row],[Section]]&amp;"-"&amp;TEXT(Table8[[#This Row],[Grade]],"0")</f>
         <v>410UB53.7-300HR</v>
@@ -12600,24 +14949,48 @@
         <f t="array" ref="AB94">INDEX(tbllkpSteelGrades[fy],MATCH(1,(Table8[[#This Row],[Grade]]=tbllkpSteelGrades[Grade])*(Table8[[#This Row],[tw]]&lt;=tbllkpSteelGrades[Thickness]),0))</f>
         <v>320000000</v>
       </c>
-      <c r="AC94" s="18">
+      <c r="AC94" s="17">
+        <f t="array" ref="AC94">INDEX(tbllkpSteelGrades[fu],MATCH(1,(Table8[[#This Row],[Grade]]=tbllkpSteelGrades[Grade])*(Table8[[#This Row],[tw]]&lt;=tbllkpSteelGrades[Thickness]),0))</f>
+        <v>440000000</v>
+      </c>
+      <c r="AD94" s="18">
         <f>IF(Table8[[#This Row],[Fabrication Type]]="Welded",Table8[[#This Row],[d1]],Table8[[#This Row],[d]])*Table8[[#This Row],[tw]]</f>
         <v>3.0628000000000001E-3</v>
       </c>
-      <c r="AD94" s="11">
+      <c r="AE94" s="11">
         <f>Table8[[#This Row],[Aw]]*Table8[[#This Row],[fy]]*0.6</f>
         <v>588057.59999999998</v>
       </c>
-      <c r="AE94" s="35">
+      <c r="AF94" s="35">
         <f>82/SQRT(Table8[[#This Row],[fy]]/250000000)</f>
         <v>72.478445071621124</v>
       </c>
-      <c r="AF94" s="36">
+      <c r="AG94" s="36">
         <f>IF((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])&gt;Table8[[#This Row],[limiting web slenderness]],(82/((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])*SQRT(Table8[[#This Row],[fy]]/250000000)))^2,1)</f>
         <v>1</v>
       </c>
+      <c r="AH94" s="38" t="str">
+        <f>IF(Table8[[#This Row],[Fabrication Type]]="Welded",IF(Table8[[#This Row],[tw]]&gt;0.016,0.016*Table8[[#This Row],[fu]],Table8[[#This Row],[tw]]*Table8[[#This Row],[fu]]),"")</f>
+        <v/>
+      </c>
+      <c r="AI94" s="13">
+        <f>Table8[[#This Row],[d]]-Table8[[#This Row],[tf]]</f>
+        <v>0.3921</v>
+      </c>
+      <c r="AJ94" s="39">
+        <f>Table8[[#This Row],[bf]]*Table8[[#This Row],[tf]]*(Table8[[#This Row],[df]]/2)</f>
+        <v>3.8037621000000001E-4</v>
+      </c>
+      <c r="AK94" s="11" t="str">
+        <f>IF(Table8[[#This Row],[Fabrication Type]]="Welded",Table8[[#This Row],[vw]]*Table8[[#This Row],[Ix]]/Table8[[#This Row],[Qflange]],"")</f>
+        <v/>
+      </c>
+      <c r="AL94" s="11">
+        <f>Table8[[#This Row],[tw]]*Table8[[#This Row],[fy]]*0.6*Table8[[#This Row],[Ix]]/Table8[[#This Row],[Qflange]]</f>
+        <v>721205.98709367227</v>
+      </c>
     </row>
-    <row r="95" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B95" s="15" t="str">
         <f>Table8[[#This Row],[Section]]&amp;"-"&amp;TEXT(Table8[[#This Row],[Grade]],"0")</f>
         <v>360UB56.7-300HR</v>
@@ -12701,24 +15074,48 @@
         <f t="array" ref="AB95">INDEX(tbllkpSteelGrades[fy],MATCH(1,(Table8[[#This Row],[Grade]]=tbllkpSteelGrades[Grade])*(Table8[[#This Row],[tw]]&lt;=tbllkpSteelGrades[Thickness]),0))</f>
         <v>320000000</v>
       </c>
-      <c r="AC95" s="18">
+      <c r="AC95" s="17">
+        <f t="array" ref="AC95">INDEX(tbllkpSteelGrades[fu],MATCH(1,(Table8[[#This Row],[Grade]]=tbllkpSteelGrades[Grade])*(Table8[[#This Row],[tw]]&lt;=tbllkpSteelGrades[Thickness]),0))</f>
+        <v>440000000</v>
+      </c>
+      <c r="AD95" s="18">
         <f>IF(Table8[[#This Row],[Fabrication Type]]="Welded",Table8[[#This Row],[d1]],Table8[[#This Row],[d]])*Table8[[#This Row],[tw]]</f>
         <v>2.872E-3</v>
       </c>
-      <c r="AD95" s="11">
+      <c r="AE95" s="11">
         <f>Table8[[#This Row],[Aw]]*Table8[[#This Row],[fy]]*0.6</f>
         <v>551424</v>
       </c>
-      <c r="AE95" s="35">
+      <c r="AF95" s="35">
         <f>82/SQRT(Table8[[#This Row],[fy]]/250000000)</f>
         <v>72.478445071621124</v>
       </c>
-      <c r="AF95" s="36">
+      <c r="AG95" s="36">
         <f>IF((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])&gt;Table8[[#This Row],[limiting web slenderness]],(82/((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])*SQRT(Table8[[#This Row],[fy]]/250000000)))^2,1)</f>
         <v>1</v>
       </c>
+      <c r="AH95" s="38" t="str">
+        <f>IF(Table8[[#This Row],[Fabrication Type]]="Welded",IF(Table8[[#This Row],[tw]]&gt;0.016,0.016*Table8[[#This Row],[fu]],Table8[[#This Row],[tw]]*Table8[[#This Row],[fu]]),"")</f>
+        <v/>
+      </c>
+      <c r="AI95" s="13">
+        <f>Table8[[#This Row],[d]]-Table8[[#This Row],[tf]]</f>
+        <v>0.34599999999999997</v>
+      </c>
+      <c r="AJ95" s="39">
+        <f>Table8[[#This Row],[bf]]*Table8[[#This Row],[tf]]*(Table8[[#This Row],[df]]/2)</f>
+        <v>3.8682799999999992E-4</v>
+      </c>
+      <c r="AK95" s="11" t="str">
+        <f>IF(Table8[[#This Row],[Fabrication Type]]="Welded",Table8[[#This Row],[vw]]*Table8[[#This Row],[Ix]]/Table8[[#This Row],[Qflange]],"")</f>
+        <v/>
+      </c>
+      <c r="AL95" s="11">
+        <f>Table8[[#This Row],[tw]]*Table8[[#This Row],[fy]]*0.6*Table8[[#This Row],[Ix]]/Table8[[#This Row],[Qflange]]</f>
+        <v>639291.88166316831</v>
+      </c>
     </row>
-    <row r="96" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B96" s="15" t="str">
         <f>Table8[[#This Row],[Section]]&amp;"-"&amp;TEXT(Table8[[#This Row],[Grade]],"0")</f>
         <v>360UB50.7-300HR</v>
@@ -12802,24 +15199,48 @@
         <f t="array" ref="AB96">INDEX(tbllkpSteelGrades[fy],MATCH(1,(Table8[[#This Row],[Grade]]=tbllkpSteelGrades[Grade])*(Table8[[#This Row],[tw]]&lt;=tbllkpSteelGrades[Thickness]),0))</f>
         <v>320000000</v>
       </c>
-      <c r="AC96" s="18">
+      <c r="AC96" s="17">
+        <f t="array" ref="AC96">INDEX(tbllkpSteelGrades[fu],MATCH(1,(Table8[[#This Row],[Grade]]=tbllkpSteelGrades[Grade])*(Table8[[#This Row],[tw]]&lt;=tbllkpSteelGrades[Thickness]),0))</f>
+        <v>440000000</v>
+      </c>
+      <c r="AD96" s="18">
         <f>IF(Table8[[#This Row],[Fabrication Type]]="Welded",Table8[[#This Row],[d1]],Table8[[#This Row],[d]])*Table8[[#This Row],[tw]]</f>
         <v>2.5988000000000001E-3</v>
       </c>
-      <c r="AD96" s="11">
+      <c r="AE96" s="11">
         <f>Table8[[#This Row],[Aw]]*Table8[[#This Row],[fy]]*0.6</f>
         <v>498969.59999999998</v>
       </c>
-      <c r="AE96" s="35">
+      <c r="AF96" s="35">
         <f>82/SQRT(Table8[[#This Row],[fy]]/250000000)</f>
         <v>72.478445071621124</v>
       </c>
-      <c r="AF96" s="36">
+      <c r="AG96" s="36">
         <f>IF((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])&gt;Table8[[#This Row],[limiting web slenderness]],(82/((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])*SQRT(Table8[[#This Row],[fy]]/250000000)))^2,1)</f>
         <v>1</v>
       </c>
+      <c r="AH96" s="38" t="str">
+        <f>IF(Table8[[#This Row],[Fabrication Type]]="Welded",IF(Table8[[#This Row],[tw]]&gt;0.016,0.016*Table8[[#This Row],[fu]],Table8[[#This Row],[tw]]*Table8[[#This Row],[fu]]),"")</f>
+        <v/>
+      </c>
+      <c r="AI96" s="13">
+        <f>Table8[[#This Row],[d]]-Table8[[#This Row],[tf]]</f>
+        <v>0.34449999999999997</v>
+      </c>
+      <c r="AJ96" s="39">
+        <f>Table8[[#This Row],[bf]]*Table8[[#This Row],[tf]]*(Table8[[#This Row],[df]]/2)</f>
+        <v>3.3872962499999996E-4</v>
+      </c>
+      <c r="AK96" s="11" t="str">
+        <f>IF(Table8[[#This Row],[Fabrication Type]]="Welded",Table8[[#This Row],[vw]]*Table8[[#This Row],[Ix]]/Table8[[#This Row],[Qflange]],"")</f>
+        <v/>
+      </c>
+      <c r="AL96" s="11">
+        <f>Table8[[#This Row],[tw]]*Table8[[#This Row],[fy]]*0.6*Table8[[#This Row],[Ix]]/Table8[[#This Row],[Qflange]]</f>
+        <v>587569.51063846285</v>
+      </c>
     </row>
-    <row r="97" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B97" s="15" t="str">
         <f>Table8[[#This Row],[Section]]&amp;"-"&amp;TEXT(Table8[[#This Row],[Grade]],"0")</f>
         <v>360UB44.7-300HR</v>
@@ -12903,24 +15324,48 @@
         <f t="array" ref="AB97">INDEX(tbllkpSteelGrades[fy],MATCH(1,(Table8[[#This Row],[Grade]]=tbllkpSteelGrades[Grade])*(Table8[[#This Row],[tw]]&lt;=tbllkpSteelGrades[Thickness]),0))</f>
         <v>320000000</v>
       </c>
-      <c r="AC97" s="18">
+      <c r="AC97" s="17">
+        <f t="array" ref="AC97">INDEX(tbllkpSteelGrades[fu],MATCH(1,(Table8[[#This Row],[Grade]]=tbllkpSteelGrades[Grade])*(Table8[[#This Row],[tw]]&lt;=tbllkpSteelGrades[Thickness]),0))</f>
+        <v>440000000</v>
+      </c>
+      <c r="AD97" s="18">
         <f>IF(Table8[[#This Row],[Fabrication Type]]="Welded",Table8[[#This Row],[d1]],Table8[[#This Row],[d]])*Table8[[#This Row],[tw]]</f>
         <v>2.4288000000000001E-3</v>
       </c>
-      <c r="AD97" s="11">
+      <c r="AE97" s="11">
         <f>Table8[[#This Row],[Aw]]*Table8[[#This Row],[fy]]*0.6</f>
         <v>466329.59999999998</v>
       </c>
-      <c r="AE97" s="35">
+      <c r="AF97" s="35">
         <f>82/SQRT(Table8[[#This Row],[fy]]/250000000)</f>
         <v>72.478445071621124</v>
       </c>
-      <c r="AF97" s="36">
+      <c r="AG97" s="36">
         <f>IF((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])&gt;Table8[[#This Row],[limiting web slenderness]],(82/((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])*SQRT(Table8[[#This Row],[fy]]/250000000)))^2,1)</f>
         <v>1</v>
       </c>
+      <c r="AH97" s="38" t="str">
+        <f>IF(Table8[[#This Row],[Fabrication Type]]="Welded",IF(Table8[[#This Row],[tw]]&gt;0.016,0.016*Table8[[#This Row],[fu]],Table8[[#This Row],[tw]]*Table8[[#This Row],[fu]]),"")</f>
+        <v/>
+      </c>
+      <c r="AI97" s="13">
+        <f>Table8[[#This Row],[d]]-Table8[[#This Row],[tf]]</f>
+        <v>0.34229999999999999</v>
+      </c>
+      <c r="AJ97" s="39">
+        <f>Table8[[#This Row],[bf]]*Table8[[#This Row],[tf]]*(Table8[[#This Row],[df]]/2)</f>
+        <v>2.83886505E-4</v>
+      </c>
+      <c r="AK97" s="11" t="str">
+        <f>IF(Table8[[#This Row],[Fabrication Type]]="Welded",Table8[[#This Row],[vw]]*Table8[[#This Row],[Ix]]/Table8[[#This Row],[Qflange]],"")</f>
+        <v/>
+      </c>
+      <c r="AL97" s="11">
+        <f>Table8[[#This Row],[tw]]*Table8[[#This Row],[fy]]*0.6*Table8[[#This Row],[Ix]]/Table8[[#This Row],[Qflange]]</f>
+        <v>564665.09389025043</v>
+      </c>
     </row>
-    <row r="98" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B98" s="15" t="str">
         <f>Table8[[#This Row],[Section]]&amp;"-"&amp;TEXT(Table8[[#This Row],[Grade]],"0")</f>
         <v>310UB46.2-300HR</v>
@@ -13004,24 +15449,48 @@
         <f t="array" ref="AB98">INDEX(tbllkpSteelGrades[fy],MATCH(1,(Table8[[#This Row],[Grade]]=tbllkpSteelGrades[Grade])*(Table8[[#This Row],[tw]]&lt;=tbllkpSteelGrades[Thickness]),0))</f>
         <v>320000000</v>
       </c>
-      <c r="AC98" s="18">
+      <c r="AC98" s="17">
+        <f t="array" ref="AC98">INDEX(tbllkpSteelGrades[fu],MATCH(1,(Table8[[#This Row],[Grade]]=tbllkpSteelGrades[Grade])*(Table8[[#This Row],[tw]]&lt;=tbllkpSteelGrades[Thickness]),0))</f>
+        <v>440000000</v>
+      </c>
+      <c r="AD98" s="18">
         <f>IF(Table8[[#This Row],[Fabrication Type]]="Welded",Table8[[#This Row],[d1]],Table8[[#This Row],[d]])*Table8[[#This Row],[tw]]</f>
         <v>2.0569E-3</v>
       </c>
-      <c r="AD98" s="11">
+      <c r="AE98" s="11">
         <f>Table8[[#This Row],[Aw]]*Table8[[#This Row],[fy]]*0.6</f>
         <v>394924.79999999999</v>
       </c>
-      <c r="AE98" s="35">
+      <c r="AF98" s="35">
         <f>82/SQRT(Table8[[#This Row],[fy]]/250000000)</f>
         <v>72.478445071621124</v>
       </c>
-      <c r="AF98" s="36">
+      <c r="AG98" s="36">
         <f>IF((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])&gt;Table8[[#This Row],[limiting web slenderness]],(82/((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])*SQRT(Table8[[#This Row],[fy]]/250000000)))^2,1)</f>
         <v>1</v>
       </c>
+      <c r="AH98" s="38" t="str">
+        <f>IF(Table8[[#This Row],[Fabrication Type]]="Welded",IF(Table8[[#This Row],[tw]]&gt;0.016,0.016*Table8[[#This Row],[fu]],Table8[[#This Row],[tw]]*Table8[[#This Row],[fu]]),"")</f>
+        <v/>
+      </c>
+      <c r="AI98" s="13">
+        <f>Table8[[#This Row],[d]]-Table8[[#This Row],[tf]]</f>
+        <v>0.29520000000000002</v>
+      </c>
+      <c r="AJ98" s="39">
+        <f>Table8[[#This Row],[bf]]*Table8[[#This Row],[tf]]*(Table8[[#This Row],[df]]/2)</f>
+        <v>2.8911888000000011E-4</v>
+      </c>
+      <c r="AK98" s="11" t="str">
+        <f>IF(Table8[[#This Row],[Fabrication Type]]="Welded",Table8[[#This Row],[vw]]*Table8[[#This Row],[Ix]]/Table8[[#This Row],[Qflange]],"")</f>
+        <v/>
+      </c>
+      <c r="AL98" s="11">
+        <f>Table8[[#This Row],[tw]]*Table8[[#This Row],[fy]]*0.6*Table8[[#This Row],[Ix]]/Table8[[#This Row],[Qflange]]</f>
+        <v>444938.08221725252</v>
+      </c>
     </row>
-    <row r="99" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B99" s="15" t="str">
         <f>Table8[[#This Row],[Section]]&amp;"-"&amp;TEXT(Table8[[#This Row],[Grade]],"0")</f>
         <v>310UB40.4-300HR</v>
@@ -13105,24 +15574,48 @@
         <f t="array" ref="AB99">INDEX(tbllkpSteelGrades[fy],MATCH(1,(Table8[[#This Row],[Grade]]=tbllkpSteelGrades[Grade])*(Table8[[#This Row],[tw]]&lt;=tbllkpSteelGrades[Thickness]),0))</f>
         <v>320000000</v>
       </c>
-      <c r="AC99" s="18">
+      <c r="AC99" s="17">
+        <f t="array" ref="AC99">INDEX(tbllkpSteelGrades[fu],MATCH(1,(Table8[[#This Row],[Grade]]=tbllkpSteelGrades[Grade])*(Table8[[#This Row],[tw]]&lt;=tbllkpSteelGrades[Thickness]),0))</f>
+        <v>440000000</v>
+      </c>
+      <c r="AD99" s="18">
         <f>IF(Table8[[#This Row],[Fabrication Type]]="Welded",Table8[[#This Row],[d1]],Table8[[#This Row],[d]])*Table8[[#This Row],[tw]]</f>
         <v>1.8543999999999998E-3</v>
       </c>
-      <c r="AD99" s="11">
+      <c r="AE99" s="11">
         <f>Table8[[#This Row],[Aw]]*Table8[[#This Row],[fy]]*0.6</f>
         <v>356044.79999999993</v>
       </c>
-      <c r="AE99" s="35">
+      <c r="AF99" s="35">
         <f>82/SQRT(Table8[[#This Row],[fy]]/250000000)</f>
         <v>72.478445071621124</v>
       </c>
-      <c r="AF99" s="36">
+      <c r="AG99" s="36">
         <f>IF((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])&gt;Table8[[#This Row],[limiting web slenderness]],(82/((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])*SQRT(Table8[[#This Row],[fy]]/250000000)))^2,1)</f>
         <v>1</v>
       </c>
+      <c r="AH99" s="38" t="str">
+        <f>IF(Table8[[#This Row],[Fabrication Type]]="Welded",IF(Table8[[#This Row],[tw]]&gt;0.016,0.016*Table8[[#This Row],[fu]],Table8[[#This Row],[tw]]*Table8[[#This Row],[fu]]),"")</f>
+        <v/>
+      </c>
+      <c r="AI99" s="13">
+        <f>Table8[[#This Row],[d]]-Table8[[#This Row],[tf]]</f>
+        <v>0.29380000000000001</v>
+      </c>
+      <c r="AJ99" s="39">
+        <f>Table8[[#This Row],[bf]]*Table8[[#This Row],[tf]]*(Table8[[#This Row],[df]]/2)</f>
+        <v>2.4723269999999997E-4</v>
+      </c>
+      <c r="AK99" s="11" t="str">
+        <f>IF(Table8[[#This Row],[Fabrication Type]]="Welded",Table8[[#This Row],[vw]]*Table8[[#This Row],[Ix]]/Table8[[#This Row],[Qflange]],"")</f>
+        <v/>
+      </c>
+      <c r="AL99" s="11">
+        <f>Table8[[#This Row],[tw]]*Table8[[#This Row],[fy]]*0.6*Table8[[#This Row],[Ix]]/Table8[[#This Row],[Qflange]]</f>
+        <v>409297.31382620498</v>
+      </c>
     </row>
-    <row r="100" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B100" s="15" t="str">
         <f>Table8[[#This Row],[Section]]&amp;"-"&amp;TEXT(Table8[[#This Row],[Grade]],"0")</f>
         <v>310UB32.0-300HR</v>
@@ -13206,24 +15699,48 @@
         <f t="array" ref="AB100">INDEX(tbllkpSteelGrades[fy],MATCH(1,(Table8[[#This Row],[Grade]]=tbllkpSteelGrades[Grade])*(Table8[[#This Row],[tw]]&lt;=tbllkpSteelGrades[Thickness]),0))</f>
         <v>320000000</v>
       </c>
-      <c r="AC100" s="18">
+      <c r="AC100" s="17">
+        <f t="array" ref="AC100">INDEX(tbllkpSteelGrades[fu],MATCH(1,(Table8[[#This Row],[Grade]]=tbllkpSteelGrades[Grade])*(Table8[[#This Row],[tw]]&lt;=tbllkpSteelGrades[Thickness]),0))</f>
+        <v>440000000</v>
+      </c>
+      <c r="AD100" s="18">
         <f>IF(Table8[[#This Row],[Fabrication Type]]="Welded",Table8[[#This Row],[d1]],Table8[[#This Row],[d]])*Table8[[#This Row],[tw]]</f>
         <v>1.6389999999999998E-3</v>
       </c>
-      <c r="AD100" s="11">
+      <c r="AE100" s="11">
         <f>Table8[[#This Row],[Aw]]*Table8[[#This Row],[fy]]*0.6</f>
         <v>314688</v>
       </c>
-      <c r="AE100" s="35">
+      <c r="AF100" s="35">
         <f>82/SQRT(Table8[[#This Row],[fy]]/250000000)</f>
         <v>72.478445071621124</v>
       </c>
-      <c r="AF100" s="36">
+      <c r="AG100" s="36">
         <f>IF((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])&gt;Table8[[#This Row],[limiting web slenderness]],(82/((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])*SQRT(Table8[[#This Row],[fy]]/250000000)))^2,1)</f>
         <v>1</v>
       </c>
+      <c r="AH100" s="38" t="str">
+        <f>IF(Table8[[#This Row],[Fabrication Type]]="Welded",IF(Table8[[#This Row],[tw]]&gt;0.016,0.016*Table8[[#This Row],[fu]],Table8[[#This Row],[tw]]*Table8[[#This Row],[fu]]),"")</f>
+        <v/>
+      </c>
+      <c r="AI100" s="13">
+        <f>Table8[[#This Row],[d]]-Table8[[#This Row],[tf]]</f>
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="AJ100" s="39">
+        <f>Table8[[#This Row],[bf]]*Table8[[#This Row],[tf]]*(Table8[[#This Row],[df]]/2)</f>
+        <v>1.7283999999999998E-4</v>
+      </c>
+      <c r="AK100" s="11" t="str">
+        <f>IF(Table8[[#This Row],[Fabrication Type]]="Welded",Table8[[#This Row],[vw]]*Table8[[#This Row],[Ix]]/Table8[[#This Row],[Qflange]],"")</f>
+        <v/>
+      </c>
+      <c r="AL100" s="11">
+        <f>Table8[[#This Row],[tw]]*Table8[[#This Row],[fy]]*0.6*Table8[[#This Row],[Ix]]/Table8[[#This Row],[Qflange]]</f>
+        <v>386132.83962045831</v>
+      </c>
     </row>
-    <row r="101" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B101" s="15" t="str">
         <f>Table8[[#This Row],[Section]]&amp;"-"&amp;TEXT(Table8[[#This Row],[Grade]],"0")</f>
         <v>250UB37.3-300HR</v>
@@ -13307,24 +15824,48 @@
         <f t="array" ref="AB101">INDEX(tbllkpSteelGrades[fy],MATCH(1,(Table8[[#This Row],[Grade]]=tbllkpSteelGrades[Grade])*(Table8[[#This Row],[tw]]&lt;=tbllkpSteelGrades[Thickness]),0))</f>
         <v>320000000</v>
       </c>
-      <c r="AC101" s="18">
+      <c r="AC101" s="17">
+        <f t="array" ref="AC101">INDEX(tbllkpSteelGrades[fu],MATCH(1,(Table8[[#This Row],[Grade]]=tbllkpSteelGrades[Grade])*(Table8[[#This Row],[tw]]&lt;=tbllkpSteelGrades[Thickness]),0))</f>
+        <v>440000000</v>
+      </c>
+      <c r="AD101" s="18">
         <f>IF(Table8[[#This Row],[Fabrication Type]]="Welded",Table8[[#This Row],[d1]],Table8[[#This Row],[d]])*Table8[[#This Row],[tw]]</f>
         <v>1.6384000000000001E-3</v>
       </c>
-      <c r="AD101" s="11">
+      <c r="AE101" s="11">
         <f>Table8[[#This Row],[Aw]]*Table8[[#This Row],[fy]]*0.6</f>
         <v>314572.79999999999</v>
       </c>
-      <c r="AE101" s="35">
+      <c r="AF101" s="35">
         <f>82/SQRT(Table8[[#This Row],[fy]]/250000000)</f>
         <v>72.478445071621124</v>
       </c>
-      <c r="AF101" s="36">
+      <c r="AG101" s="36">
         <f>IF((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])&gt;Table8[[#This Row],[limiting web slenderness]],(82/((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])*SQRT(Table8[[#This Row],[fy]]/250000000)))^2,1)</f>
         <v>1</v>
       </c>
+      <c r="AH101" s="38" t="str">
+        <f>IF(Table8[[#This Row],[Fabrication Type]]="Welded",IF(Table8[[#This Row],[tw]]&gt;0.016,0.016*Table8[[#This Row],[fu]],Table8[[#This Row],[tw]]*Table8[[#This Row],[fu]]),"")</f>
+        <v/>
+      </c>
+      <c r="AI101" s="13">
+        <f>Table8[[#This Row],[d]]-Table8[[#This Row],[tf]]</f>
+        <v>0.24510000000000001</v>
+      </c>
+      <c r="AJ101" s="39">
+        <f>Table8[[#This Row],[bf]]*Table8[[#This Row],[tf]]*(Table8[[#This Row],[df]]/2)</f>
+        <v>1.9502607000000002E-4</v>
+      </c>
+      <c r="AK101" s="11" t="str">
+        <f>IF(Table8[[#This Row],[Fabrication Type]]="Welded",Table8[[#This Row],[vw]]*Table8[[#This Row],[Ix]]/Table8[[#This Row],[Qflange]],"")</f>
+        <v/>
+      </c>
+      <c r="AL101" s="11">
+        <f>Table8[[#This Row],[tw]]*Table8[[#This Row],[fy]]*0.6*Table8[[#This Row],[Ix]]/Table8[[#This Row],[Qflange]]</f>
+        <v>350948.7731563272</v>
+      </c>
     </row>
-    <row r="102" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B102" s="15" t="str">
         <f>Table8[[#This Row],[Section]]&amp;"-"&amp;TEXT(Table8[[#This Row],[Grade]],"0")</f>
         <v>250UB31.4-300HR</v>
@@ -13408,24 +15949,48 @@
         <f t="array" ref="AB102">INDEX(tbllkpSteelGrades[fy],MATCH(1,(Table8[[#This Row],[Grade]]=tbllkpSteelGrades[Grade])*(Table8[[#This Row],[tw]]&lt;=tbllkpSteelGrades[Thickness]),0))</f>
         <v>320000000</v>
       </c>
-      <c r="AC102" s="18">
+      <c r="AC102" s="17">
+        <f t="array" ref="AC102">INDEX(tbllkpSteelGrades[fu],MATCH(1,(Table8[[#This Row],[Grade]]=tbllkpSteelGrades[Grade])*(Table8[[#This Row],[tw]]&lt;=tbllkpSteelGrades[Thickness]),0))</f>
+        <v>440000000</v>
+      </c>
+      <c r="AD102" s="18">
         <f>IF(Table8[[#This Row],[Fabrication Type]]="Welded",Table8[[#This Row],[d1]],Table8[[#This Row],[d]])*Table8[[#This Row],[tw]]</f>
         <v>1.5371999999999999E-3</v>
       </c>
-      <c r="AD102" s="11">
+      <c r="AE102" s="11">
         <f>Table8[[#This Row],[Aw]]*Table8[[#This Row],[fy]]*0.6</f>
         <v>295142.39999999997</v>
       </c>
-      <c r="AE102" s="35">
+      <c r="AF102" s="35">
         <f>82/SQRT(Table8[[#This Row],[fy]]/250000000)</f>
         <v>72.478445071621124</v>
       </c>
-      <c r="AF102" s="36">
+      <c r="AG102" s="36">
         <f>IF((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])&gt;Table8[[#This Row],[limiting web slenderness]],(82/((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])*SQRT(Table8[[#This Row],[fy]]/250000000)))^2,1)</f>
         <v>1</v>
       </c>
+      <c r="AH102" s="38" t="str">
+        <f>IF(Table8[[#This Row],[Fabrication Type]]="Welded",IF(Table8[[#This Row],[tw]]&gt;0.016,0.016*Table8[[#This Row],[fu]],Table8[[#This Row],[tw]]*Table8[[#This Row],[fu]]),"")</f>
+        <v/>
+      </c>
+      <c r="AI102" s="13">
+        <f>Table8[[#This Row],[d]]-Table8[[#This Row],[tf]]</f>
+        <v>0.24340000000000001</v>
+      </c>
+      <c r="AJ102" s="39">
+        <f>Table8[[#This Row],[bf]]*Table8[[#This Row],[tf]]*(Table8[[#This Row],[df]]/2)</f>
+        <v>1.5280652E-4</v>
+      </c>
+      <c r="AK102" s="11" t="str">
+        <f>IF(Table8[[#This Row],[Fabrication Type]]="Welded",Table8[[#This Row],[vw]]*Table8[[#This Row],[Ix]]/Table8[[#This Row],[Qflange]],"")</f>
+        <v/>
+      </c>
+      <c r="AL102" s="11">
+        <f>Table8[[#This Row],[tw]]*Table8[[#This Row],[fy]]*0.6*Table8[[#This Row],[Ix]]/Table8[[#This Row],[Qflange]]</f>
+        <v>341074.45153518312</v>
+      </c>
     </row>
-    <row r="103" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B103" s="15" t="str">
         <f>Table8[[#This Row],[Section]]&amp;"-"&amp;TEXT(Table8[[#This Row],[Grade]],"0")</f>
         <v>250UB25.7-300HR</v>
@@ -13509,24 +16074,48 @@
         <f t="array" ref="AB103">INDEX(tbllkpSteelGrades[fy],MATCH(1,(Table8[[#This Row],[Grade]]=tbllkpSteelGrades[Grade])*(Table8[[#This Row],[tw]]&lt;=tbllkpSteelGrades[Thickness]),0))</f>
         <v>320000000</v>
       </c>
-      <c r="AC103" s="18">
+      <c r="AC103" s="17">
+        <f t="array" ref="AC103">INDEX(tbllkpSteelGrades[fu],MATCH(1,(Table8[[#This Row],[Grade]]=tbllkpSteelGrades[Grade])*(Table8[[#This Row],[tw]]&lt;=tbllkpSteelGrades[Thickness]),0))</f>
+        <v>440000000</v>
+      </c>
+      <c r="AD103" s="18">
         <f>IF(Table8[[#This Row],[Fabrication Type]]="Welded",Table8[[#This Row],[d1]],Table8[[#This Row],[d]])*Table8[[#This Row],[tw]]</f>
         <v>1.24E-3</v>
       </c>
-      <c r="AD103" s="11">
+      <c r="AE103" s="11">
         <f>Table8[[#This Row],[Aw]]*Table8[[#This Row],[fy]]*0.6</f>
         <v>238080</v>
       </c>
-      <c r="AE103" s="35">
+      <c r="AF103" s="35">
         <f>82/SQRT(Table8[[#This Row],[fy]]/250000000)</f>
         <v>72.478445071621124</v>
       </c>
-      <c r="AF103" s="36">
+      <c r="AG103" s="36">
         <f>IF((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])&gt;Table8[[#This Row],[limiting web slenderness]],(82/((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])*SQRT(Table8[[#This Row],[fy]]/250000000)))^2,1)</f>
         <v>1</v>
       </c>
+      <c r="AH103" s="38" t="str">
+        <f>IF(Table8[[#This Row],[Fabrication Type]]="Welded",IF(Table8[[#This Row],[tw]]&gt;0.016,0.016*Table8[[#This Row],[fu]],Table8[[#This Row],[tw]]*Table8[[#This Row],[fu]]),"")</f>
+        <v/>
+      </c>
+      <c r="AI103" s="13">
+        <f>Table8[[#This Row],[d]]-Table8[[#This Row],[tf]]</f>
+        <v>0.24</v>
+      </c>
+      <c r="AJ103" s="39">
+        <f>Table8[[#This Row],[bf]]*Table8[[#This Row],[tf]]*(Table8[[#This Row],[df]]/2)</f>
+        <v>1.1904E-4</v>
+      </c>
+      <c r="AK103" s="11" t="str">
+        <f>IF(Table8[[#This Row],[Fabrication Type]]="Welded",Table8[[#This Row],[vw]]*Table8[[#This Row],[Ix]]/Table8[[#This Row],[Qflange]],"")</f>
+        <v/>
+      </c>
+      <c r="AL103" s="11">
+        <f>Table8[[#This Row],[tw]]*Table8[[#This Row],[fy]]*0.6*Table8[[#This Row],[Ix]]/Table8[[#This Row],[Qflange]]</f>
+        <v>285483.87096774194</v>
+      </c>
     </row>
-    <row r="104" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B104" s="15" t="str">
         <f>Table8[[#This Row],[Section]]&amp;"-"&amp;TEXT(Table8[[#This Row],[Grade]],"0")</f>
         <v>200UB29.8-300HR</v>
@@ -13610,24 +16199,48 @@
         <f t="array" ref="AB104">INDEX(tbllkpSteelGrades[fy],MATCH(1,(Table8[[#This Row],[Grade]]=tbllkpSteelGrades[Grade])*(Table8[[#This Row],[tw]]&lt;=tbllkpSteelGrades[Thickness]),0))</f>
         <v>320000000</v>
       </c>
-      <c r="AC104" s="18">
+      <c r="AC104" s="17">
+        <f t="array" ref="AC104">INDEX(tbllkpSteelGrades[fu],MATCH(1,(Table8[[#This Row],[Grade]]=tbllkpSteelGrades[Grade])*(Table8[[#This Row],[tw]]&lt;=tbllkpSteelGrades[Thickness]),0))</f>
+        <v>440000000</v>
+      </c>
+      <c r="AD104" s="18">
         <f>IF(Table8[[#This Row],[Fabrication Type]]="Welded",Table8[[#This Row],[d1]],Table8[[#This Row],[d]])*Table8[[#This Row],[tw]]</f>
         <v>1.3040999999999999E-3</v>
       </c>
-      <c r="AD104" s="11">
+      <c r="AE104" s="11">
         <f>Table8[[#This Row],[Aw]]*Table8[[#This Row],[fy]]*0.6</f>
         <v>250387.19999999995</v>
       </c>
-      <c r="AE104" s="35">
+      <c r="AF104" s="35">
         <f>82/SQRT(Table8[[#This Row],[fy]]/250000000)</f>
         <v>72.478445071621124</v>
       </c>
-      <c r="AF104" s="36">
+      <c r="AG104" s="36">
         <f>IF((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])&gt;Table8[[#This Row],[limiting web slenderness]],(82/((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])*SQRT(Table8[[#This Row],[fy]]/250000000)))^2,1)</f>
         <v>1</v>
       </c>
+      <c r="AH104" s="38" t="str">
+        <f>IF(Table8[[#This Row],[Fabrication Type]]="Welded",IF(Table8[[#This Row],[tw]]&gt;0.016,0.016*Table8[[#This Row],[fu]],Table8[[#This Row],[tw]]*Table8[[#This Row],[fu]]),"")</f>
+        <v/>
+      </c>
+      <c r="AI104" s="13">
+        <f>Table8[[#This Row],[d]]-Table8[[#This Row],[tf]]</f>
+        <v>0.19739999999999999</v>
+      </c>
+      <c r="AJ104" s="39">
+        <f>Table8[[#This Row],[bf]]*Table8[[#This Row],[tf]]*(Table8[[#This Row],[df]]/2)</f>
+        <v>1.2696767999999999E-4</v>
+      </c>
+      <c r="AK104" s="11" t="str">
+        <f>IF(Table8[[#This Row],[Fabrication Type]]="Welded",Table8[[#This Row],[vw]]*Table8[[#This Row],[Ix]]/Table8[[#This Row],[Qflange]],"")</f>
+        <v/>
+      </c>
+      <c r="AL104" s="11">
+        <f>Table8[[#This Row],[tw]]*Table8[[#This Row],[fy]]*0.6*Table8[[#This Row],[Ix]]/Table8[[#This Row],[Qflange]]</f>
+        <v>277230.86694188631</v>
+      </c>
     </row>
-    <row r="105" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B105" s="15" t="str">
         <f>Table8[[#This Row],[Section]]&amp;"-"&amp;TEXT(Table8[[#This Row],[Grade]],"0")</f>
         <v>200UB25.4-300HR</v>
@@ -13711,24 +16324,48 @@
         <f t="array" ref="AB105">INDEX(tbllkpSteelGrades[fy],MATCH(1,(Table8[[#This Row],[Grade]]=tbllkpSteelGrades[Grade])*(Table8[[#This Row],[tw]]&lt;=tbllkpSteelGrades[Thickness]),0))</f>
         <v>320000000</v>
       </c>
-      <c r="AC105" s="18">
+      <c r="AC105" s="17">
+        <f t="array" ref="AC105">INDEX(tbllkpSteelGrades[fu],MATCH(1,(Table8[[#This Row],[Grade]]=tbllkpSteelGrades[Grade])*(Table8[[#This Row],[tw]]&lt;=tbllkpSteelGrades[Thickness]),0))</f>
+        <v>440000000</v>
+      </c>
+      <c r="AD105" s="18">
         <f>IF(Table8[[#This Row],[Fabrication Type]]="Welded",Table8[[#This Row],[d1]],Table8[[#This Row],[d]])*Table8[[#This Row],[tw]]</f>
         <v>1.1774000000000001E-3</v>
       </c>
-      <c r="AD105" s="11">
+      <c r="AE105" s="11">
         <f>Table8[[#This Row],[Aw]]*Table8[[#This Row],[fy]]*0.6</f>
         <v>226060.80000000002</v>
       </c>
-      <c r="AE105" s="35">
+      <c r="AF105" s="35">
         <f>82/SQRT(Table8[[#This Row],[fy]]/250000000)</f>
         <v>72.478445071621124</v>
       </c>
-      <c r="AF105" s="36">
+      <c r="AG105" s="36">
         <f>IF((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])&gt;Table8[[#This Row],[limiting web slenderness]],(82/((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])*SQRT(Table8[[#This Row],[fy]]/250000000)))^2,1)</f>
         <v>1</v>
       </c>
+      <c r="AH105" s="38" t="str">
+        <f>IF(Table8[[#This Row],[Fabrication Type]]="Welded",IF(Table8[[#This Row],[tw]]&gt;0.016,0.016*Table8[[#This Row],[fu]],Table8[[#This Row],[tw]]*Table8[[#This Row],[fu]]),"")</f>
+        <v/>
+      </c>
+      <c r="AI105" s="13">
+        <f>Table8[[#This Row],[d]]-Table8[[#This Row],[tf]]</f>
+        <v>0.19520000000000001</v>
+      </c>
+      <c r="AJ105" s="39">
+        <f>Table8[[#This Row],[bf]]*Table8[[#This Row],[tf]]*(Table8[[#This Row],[df]]/2)</f>
+        <v>1.0125024E-4</v>
+      </c>
+      <c r="AK105" s="11" t="str">
+        <f>IF(Table8[[#This Row],[Fabrication Type]]="Welded",Table8[[#This Row],[vw]]*Table8[[#This Row],[Ix]]/Table8[[#This Row],[Qflange]],"")</f>
+        <v/>
+      </c>
+      <c r="AL105" s="11">
+        <f>Table8[[#This Row],[tw]]*Table8[[#This Row],[fy]]*0.6*Table8[[#This Row],[Ix]]/Table8[[#This Row],[Qflange]]</f>
+        <v>259564.42177322245</v>
+      </c>
     </row>
-    <row r="106" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B106" s="15" t="str">
         <f>Table8[[#This Row],[Section]]&amp;"-"&amp;TEXT(Table8[[#This Row],[Grade]],"0")</f>
         <v>200UB22.3-300HR</v>
@@ -13812,24 +16449,48 @@
         <f t="array" ref="AB106">INDEX(tbllkpSteelGrades[fy],MATCH(1,(Table8[[#This Row],[Grade]]=tbllkpSteelGrades[Grade])*(Table8[[#This Row],[tw]]&lt;=tbllkpSteelGrades[Thickness]),0))</f>
         <v>320000000</v>
       </c>
-      <c r="AC106" s="18">
+      <c r="AC106" s="17">
+        <f t="array" ref="AC106">INDEX(tbllkpSteelGrades[fu],MATCH(1,(Table8[[#This Row],[Grade]]=tbllkpSteelGrades[Grade])*(Table8[[#This Row],[tw]]&lt;=tbllkpSteelGrades[Thickness]),0))</f>
+        <v>440000000</v>
+      </c>
+      <c r="AD106" s="18">
         <f>IF(Table8[[#This Row],[Fabrication Type]]="Welded",Table8[[#This Row],[d1]],Table8[[#This Row],[d]])*Table8[[#This Row],[tw]]</f>
         <v>1.01E-3</v>
       </c>
-      <c r="AD106" s="11">
+      <c r="AE106" s="11">
         <f>Table8[[#This Row],[Aw]]*Table8[[#This Row],[fy]]*0.6</f>
         <v>193920</v>
       </c>
-      <c r="AE106" s="35">
+      <c r="AF106" s="35">
         <f>82/SQRT(Table8[[#This Row],[fy]]/250000000)</f>
         <v>72.478445071621124</v>
       </c>
-      <c r="AF106" s="36">
+      <c r="AG106" s="36">
         <f>IF((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])&gt;Table8[[#This Row],[limiting web slenderness]],(82/((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])*SQRT(Table8[[#This Row],[fy]]/250000000)))^2,1)</f>
         <v>1</v>
       </c>
+      <c r="AH106" s="38" t="str">
+        <f>IF(Table8[[#This Row],[Fabrication Type]]="Welded",IF(Table8[[#This Row],[tw]]&gt;0.016,0.016*Table8[[#This Row],[fu]],Table8[[#This Row],[tw]]*Table8[[#This Row],[fu]]),"")</f>
+        <v/>
+      </c>
+      <c r="AI106" s="13">
+        <f>Table8[[#This Row],[d]]-Table8[[#This Row],[tf]]</f>
+        <v>0.19500000000000001</v>
+      </c>
+      <c r="AJ106" s="39">
+        <f>Table8[[#This Row],[bf]]*Table8[[#This Row],[tf]]*(Table8[[#This Row],[df]]/2)</f>
+        <v>9.0772500000000012E-5</v>
+      </c>
+      <c r="AK106" s="11" t="str">
+        <f>IF(Table8[[#This Row],[Fabrication Type]]="Welded",Table8[[#This Row],[vw]]*Table8[[#This Row],[Ix]]/Table8[[#This Row],[Qflange]],"")</f>
+        <v/>
+      </c>
+      <c r="AL106" s="11">
+        <f>Table8[[#This Row],[tw]]*Table8[[#This Row],[fy]]*0.6*Table8[[#This Row],[Ix]]/Table8[[#This Row],[Qflange]]</f>
+        <v>222093.69577790628</v>
+      </c>
     </row>
-    <row r="107" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B107" s="15" t="str">
         <f>Table8[[#This Row],[Section]]&amp;"-"&amp;TEXT(Table8[[#This Row],[Grade]],"0")</f>
         <v>200UB18.2-300HR</v>
@@ -13913,24 +16574,48 @@
         <f t="array" ref="AB107">INDEX(tbllkpSteelGrades[fy],MATCH(1,(Table8[[#This Row],[Grade]]=tbllkpSteelGrades[Grade])*(Table8[[#This Row],[tw]]&lt;=tbllkpSteelGrades[Thickness]),0))</f>
         <v>320000000</v>
       </c>
-      <c r="AC107" s="18">
+      <c r="AC107" s="17">
+        <f t="array" ref="AC107">INDEX(tbllkpSteelGrades[fu],MATCH(1,(Table8[[#This Row],[Grade]]=tbllkpSteelGrades[Grade])*(Table8[[#This Row],[tw]]&lt;=tbllkpSteelGrades[Thickness]),0))</f>
+        <v>440000000</v>
+      </c>
+      <c r="AD107" s="18">
         <f>IF(Table8[[#This Row],[Fabrication Type]]="Welded",Table8[[#This Row],[d1]],Table8[[#This Row],[d]])*Table8[[#This Row],[tw]]</f>
         <v>8.9099999999999997E-4</v>
       </c>
-      <c r="AD107" s="11">
+      <c r="AE107" s="11">
         <f>Table8[[#This Row],[Aw]]*Table8[[#This Row],[fy]]*0.6</f>
         <v>171072</v>
       </c>
-      <c r="AE107" s="35">
+      <c r="AF107" s="35">
         <f>82/SQRT(Table8[[#This Row],[fy]]/250000000)</f>
         <v>72.478445071621124</v>
       </c>
-      <c r="AF107" s="36">
+      <c r="AG107" s="36">
         <f>IF((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])&gt;Table8[[#This Row],[limiting web slenderness]],(82/((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])*SQRT(Table8[[#This Row],[fy]]/250000000)))^2,1)</f>
         <v>1</v>
       </c>
+      <c r="AH107" s="38" t="str">
+        <f>IF(Table8[[#This Row],[Fabrication Type]]="Welded",IF(Table8[[#This Row],[tw]]&gt;0.016,0.016*Table8[[#This Row],[fu]],Table8[[#This Row],[tw]]*Table8[[#This Row],[fu]]),"")</f>
+        <v/>
+      </c>
+      <c r="AI107" s="13">
+        <f>Table8[[#This Row],[d]]-Table8[[#This Row],[tf]]</f>
+        <v>0.191</v>
+      </c>
+      <c r="AJ107" s="39">
+        <f>Table8[[#This Row],[bf]]*Table8[[#This Row],[tf]]*(Table8[[#This Row],[df]]/2)</f>
+        <v>6.6181500000000003E-5</v>
+      </c>
+      <c r="AK107" s="11" t="str">
+        <f>IF(Table8[[#This Row],[Fabrication Type]]="Welded",Table8[[#This Row],[vw]]*Table8[[#This Row],[Ix]]/Table8[[#This Row],[Qflange]],"")</f>
+        <v/>
+      </c>
+      <c r="AL107" s="11">
+        <f>Table8[[#This Row],[tw]]*Table8[[#This Row],[fy]]*0.6*Table8[[#This Row],[Ix]]/Table8[[#This Row],[Qflange]]</f>
+        <v>206269.12354661047</v>
+      </c>
     </row>
-    <row r="108" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B108" s="15" t="str">
         <f>Table8[[#This Row],[Section]]&amp;"-"&amp;TEXT(Table8[[#This Row],[Grade]],"0")</f>
         <v>180UB22.2-300HR</v>
@@ -14014,24 +16699,48 @@
         <f t="array" ref="AB108">INDEX(tbllkpSteelGrades[fy],MATCH(1,(Table8[[#This Row],[Grade]]=tbllkpSteelGrades[Grade])*(Table8[[#This Row],[tw]]&lt;=tbllkpSteelGrades[Thickness]),0))</f>
         <v>320000000</v>
       </c>
-      <c r="AC108" s="18">
+      <c r="AC108" s="17">
+        <f t="array" ref="AC108">INDEX(tbllkpSteelGrades[fu],MATCH(1,(Table8[[#This Row],[Grade]]=tbllkpSteelGrades[Grade])*(Table8[[#This Row],[tw]]&lt;=tbllkpSteelGrades[Thickness]),0))</f>
+        <v>440000000</v>
+      </c>
+      <c r="AD108" s="18">
         <f>IF(Table8[[#This Row],[Fabrication Type]]="Welded",Table8[[#This Row],[d1]],Table8[[#This Row],[d]])*Table8[[#This Row],[tw]]</f>
         <v>1.0740000000000001E-3</v>
       </c>
-      <c r="AD108" s="11">
+      <c r="AE108" s="11">
         <f>Table8[[#This Row],[Aw]]*Table8[[#This Row],[fy]]*0.6</f>
         <v>206208</v>
       </c>
-      <c r="AE108" s="35">
+      <c r="AF108" s="35">
         <f>82/SQRT(Table8[[#This Row],[fy]]/250000000)</f>
         <v>72.478445071621124</v>
       </c>
-      <c r="AF108" s="36">
+      <c r="AG108" s="36">
         <f>IF((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])&gt;Table8[[#This Row],[limiting web slenderness]],(82/((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])*SQRT(Table8[[#This Row],[fy]]/250000000)))^2,1)</f>
         <v>1</v>
       </c>
+      <c r="AH108" s="38" t="str">
+        <f>IF(Table8[[#This Row],[Fabrication Type]]="Welded",IF(Table8[[#This Row],[tw]]&gt;0.016,0.016*Table8[[#This Row],[fu]],Table8[[#This Row],[tw]]*Table8[[#This Row],[fu]]),"")</f>
+        <v/>
+      </c>
+      <c r="AI108" s="13">
+        <f>Table8[[#This Row],[d]]-Table8[[#This Row],[tf]]</f>
+        <v>0.16899999999999998</v>
+      </c>
+      <c r="AJ108" s="39">
+        <f>Table8[[#This Row],[bf]]*Table8[[#This Row],[tf]]*(Table8[[#This Row],[df]]/2)</f>
+        <v>7.6049999999999992E-5</v>
+      </c>
+      <c r="AK108" s="11" t="str">
+        <f>IF(Table8[[#This Row],[Fabrication Type]]="Welded",Table8[[#This Row],[vw]]*Table8[[#This Row],[Ix]]/Table8[[#This Row],[Qflange]],"")</f>
+        <v/>
+      </c>
+      <c r="AL108" s="11">
+        <f>Table8[[#This Row],[tw]]*Table8[[#This Row],[fy]]*0.6*Table8[[#This Row],[Ix]]/Table8[[#This Row],[Qflange]]</f>
+        <v>231763.31360946747</v>
+      </c>
     </row>
-    <row r="109" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B109" s="15" t="str">
         <f>Table8[[#This Row],[Section]]&amp;"-"&amp;TEXT(Table8[[#This Row],[Grade]],"0")</f>
         <v>180UB18.1-300HR</v>
@@ -14115,24 +16824,48 @@
         <f t="array" ref="AB109">INDEX(tbllkpSteelGrades[fy],MATCH(1,(Table8[[#This Row],[Grade]]=tbllkpSteelGrades[Grade])*(Table8[[#This Row],[tw]]&lt;=tbllkpSteelGrades[Thickness]),0))</f>
         <v>320000000</v>
       </c>
-      <c r="AC109" s="18">
+      <c r="AC109" s="17">
+        <f t="array" ref="AC109">INDEX(tbllkpSteelGrades[fu],MATCH(1,(Table8[[#This Row],[Grade]]=tbllkpSteelGrades[Grade])*(Table8[[#This Row],[tw]]&lt;=tbllkpSteelGrades[Thickness]),0))</f>
+        <v>440000000</v>
+      </c>
+      <c r="AD109" s="18">
         <f>IF(Table8[[#This Row],[Fabrication Type]]="Welded",Table8[[#This Row],[d1]],Table8[[#This Row],[d]])*Table8[[#This Row],[tw]]</f>
         <v>8.7499999999999991E-4</v>
       </c>
-      <c r="AD109" s="11">
+      <c r="AE109" s="11">
         <f>Table8[[#This Row],[Aw]]*Table8[[#This Row],[fy]]*0.6</f>
         <v>168000</v>
       </c>
-      <c r="AE109" s="35">
+      <c r="AF109" s="35">
         <f>82/SQRT(Table8[[#This Row],[fy]]/250000000)</f>
         <v>72.478445071621124</v>
       </c>
-      <c r="AF109" s="36">
+      <c r="AG109" s="36">
         <f>IF((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])&gt;Table8[[#This Row],[limiting web slenderness]],(82/((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])*SQRT(Table8[[#This Row],[fy]]/250000000)))^2,1)</f>
         <v>1</v>
       </c>
+      <c r="AH109" s="38" t="str">
+        <f>IF(Table8[[#This Row],[Fabrication Type]]="Welded",IF(Table8[[#This Row],[tw]]&gt;0.016,0.016*Table8[[#This Row],[fu]],Table8[[#This Row],[tw]]*Table8[[#This Row],[fu]]),"")</f>
+        <v/>
+      </c>
+      <c r="AI109" s="13">
+        <f>Table8[[#This Row],[d]]-Table8[[#This Row],[tf]]</f>
+        <v>0.16699999999999998</v>
+      </c>
+      <c r="AJ109" s="39">
+        <f>Table8[[#This Row],[bf]]*Table8[[#This Row],[tf]]*(Table8[[#This Row],[df]]/2)</f>
+        <v>6.0119999999999987E-5</v>
+      </c>
+      <c r="AK109" s="11" t="str">
+        <f>IF(Table8[[#This Row],[Fabrication Type]]="Welded",Table8[[#This Row],[vw]]*Table8[[#This Row],[Ix]]/Table8[[#This Row],[Qflange]],"")</f>
+        <v/>
+      </c>
+      <c r="AL109" s="11">
+        <f>Table8[[#This Row],[tw]]*Table8[[#This Row],[fy]]*0.6*Table8[[#This Row],[Ix]]/Table8[[#This Row],[Qflange]]</f>
+        <v>193213.57285429144</v>
+      </c>
     </row>
-    <row r="110" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B110" s="15" t="str">
         <f>Table8[[#This Row],[Section]]&amp;"-"&amp;TEXT(Table8[[#This Row],[Grade]],"0")</f>
         <v>180UB16.1-300HR</v>
@@ -14216,24 +16949,48 @@
         <f t="array" ref="AB110">INDEX(tbllkpSteelGrades[fy],MATCH(1,(Table8[[#This Row],[Grade]]=tbllkpSteelGrades[Grade])*(Table8[[#This Row],[tw]]&lt;=tbllkpSteelGrades[Thickness]),0))</f>
         <v>320000000</v>
       </c>
-      <c r="AC110" s="18">
+      <c r="AC110" s="17">
+        <f t="array" ref="AC110">INDEX(tbllkpSteelGrades[fu],MATCH(1,(Table8[[#This Row],[Grade]]=tbllkpSteelGrades[Grade])*(Table8[[#This Row],[tw]]&lt;=tbllkpSteelGrades[Thickness]),0))</f>
+        <v>440000000</v>
+      </c>
+      <c r="AD110" s="18">
         <f>IF(Table8[[#This Row],[Fabrication Type]]="Welded",Table8[[#This Row],[d1]],Table8[[#This Row],[d]])*Table8[[#This Row],[tw]]</f>
         <v>7.784999999999999E-4</v>
       </c>
-      <c r="AD110" s="11">
+      <c r="AE110" s="11">
         <f>Table8[[#This Row],[Aw]]*Table8[[#This Row],[fy]]*0.6</f>
         <v>149471.99999999997</v>
       </c>
-      <c r="AE110" s="35">
+      <c r="AF110" s="35">
         <f>82/SQRT(Table8[[#This Row],[fy]]/250000000)</f>
         <v>72.478445071621124</v>
       </c>
-      <c r="AF110" s="36">
+      <c r="AG110" s="36">
         <f>IF((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])&gt;Table8[[#This Row],[limiting web slenderness]],(82/((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])*SQRT(Table8[[#This Row],[fy]]/250000000)))^2,1)</f>
         <v>1</v>
       </c>
+      <c r="AH110" s="38" t="str">
+        <f>IF(Table8[[#This Row],[Fabrication Type]]="Welded",IF(Table8[[#This Row],[tw]]&gt;0.016,0.016*Table8[[#This Row],[fu]],Table8[[#This Row],[tw]]*Table8[[#This Row],[fu]]),"")</f>
+        <v/>
+      </c>
+      <c r="AI110" s="13">
+        <f>Table8[[#This Row],[d]]-Table8[[#This Row],[tf]]</f>
+        <v>0.16599999999999998</v>
+      </c>
+      <c r="AJ110" s="39">
+        <f>Table8[[#This Row],[bf]]*Table8[[#This Row],[tf]]*(Table8[[#This Row],[df]]/2)</f>
+        <v>5.2289999999999996E-5</v>
+      </c>
+      <c r="AK110" s="11" t="str">
+        <f>IF(Table8[[#This Row],[Fabrication Type]]="Welded",Table8[[#This Row],[vw]]*Table8[[#This Row],[Ix]]/Table8[[#This Row],[Qflange]],"")</f>
+        <v/>
+      </c>
+      <c r="AL110" s="11">
+        <f>Table8[[#This Row],[tw]]*Table8[[#This Row],[fy]]*0.6*Table8[[#This Row],[Ix]]/Table8[[#This Row],[Qflange]]</f>
+        <v>175146.29948364891</v>
+      </c>
     </row>
-    <row r="111" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B111" s="15" t="str">
         <f>Table8[[#This Row],[Section]]&amp;"-"&amp;TEXT(Table8[[#This Row],[Grade]],"0")</f>
         <v>150UB18.0-300HR</v>
@@ -14317,24 +17074,48 @@
         <f t="array" ref="AB111">INDEX(tbllkpSteelGrades[fy],MATCH(1,(Table8[[#This Row],[Grade]]=tbllkpSteelGrades[Grade])*(Table8[[#This Row],[tw]]&lt;=tbllkpSteelGrades[Thickness]),0))</f>
         <v>320000000</v>
       </c>
-      <c r="AC111" s="18">
+      <c r="AC111" s="17">
+        <f t="array" ref="AC111">INDEX(tbllkpSteelGrades[fu],MATCH(1,(Table8[[#This Row],[Grade]]=tbllkpSteelGrades[Grade])*(Table8[[#This Row],[tw]]&lt;=tbllkpSteelGrades[Thickness]),0))</f>
+        <v>440000000</v>
+      </c>
+      <c r="AD111" s="18">
         <f>IF(Table8[[#This Row],[Fabrication Type]]="Welded",Table8[[#This Row],[d1]],Table8[[#This Row],[d]])*Table8[[#This Row],[tw]]</f>
         <v>9.3000000000000005E-4</v>
       </c>
-      <c r="AD111" s="11">
+      <c r="AE111" s="11">
         <f>Table8[[#This Row],[Aw]]*Table8[[#This Row],[fy]]*0.6</f>
         <v>178560</v>
       </c>
-      <c r="AE111" s="35">
+      <c r="AF111" s="35">
         <f>82/SQRT(Table8[[#This Row],[fy]]/250000000)</f>
         <v>72.478445071621124</v>
       </c>
-      <c r="AF111" s="36">
+      <c r="AG111" s="36">
         <f>IF((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])&gt;Table8[[#This Row],[limiting web slenderness]],(82/((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])*SQRT(Table8[[#This Row],[fy]]/250000000)))^2,1)</f>
         <v>1</v>
       </c>
+      <c r="AH111" s="38" t="str">
+        <f>IF(Table8[[#This Row],[Fabrication Type]]="Welded",IF(Table8[[#This Row],[tw]]&gt;0.016,0.016*Table8[[#This Row],[fu]],Table8[[#This Row],[tw]]*Table8[[#This Row],[fu]]),"")</f>
+        <v/>
+      </c>
+      <c r="AI111" s="13">
+        <f>Table8[[#This Row],[d]]-Table8[[#This Row],[tf]]</f>
+        <v>0.14549999999999999</v>
+      </c>
+      <c r="AJ111" s="39">
+        <f>Table8[[#This Row],[bf]]*Table8[[#This Row],[tf]]*(Table8[[#This Row],[df]]/2)</f>
+        <v>5.1834374999999991E-5</v>
+      </c>
+      <c r="AK111" s="11" t="str">
+        <f>IF(Table8[[#This Row],[Fabrication Type]]="Welded",Table8[[#This Row],[vw]]*Table8[[#This Row],[Ix]]/Table8[[#This Row],[Qflange]],"")</f>
+        <v/>
+      </c>
+      <c r="AL111" s="11">
+        <f>Table8[[#This Row],[tw]]*Table8[[#This Row],[fy]]*0.6*Table8[[#This Row],[Ix]]/Table8[[#This Row],[Qflange]]</f>
+        <v>201132.93543136193</v>
+      </c>
     </row>
-    <row r="112" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B112" s="15" t="str">
         <f>Table8[[#This Row],[Section]]&amp;"-"&amp;TEXT(Table8[[#This Row],[Grade]],"0")</f>
         <v>150UB14.0-300HR</v>
@@ -14418,24 +17199,48 @@
         <f t="array" ref="AB112">INDEX(tbllkpSteelGrades[fy],MATCH(1,(Table8[[#This Row],[Grade]]=tbllkpSteelGrades[Grade])*(Table8[[#This Row],[tw]]&lt;=tbllkpSteelGrades[Thickness]),0))</f>
         <v>320000000</v>
       </c>
-      <c r="AC112" s="18">
+      <c r="AC112" s="17">
+        <f t="array" ref="AC112">INDEX(tbllkpSteelGrades[fu],MATCH(1,(Table8[[#This Row],[Grade]]=tbllkpSteelGrades[Grade])*(Table8[[#This Row],[tw]]&lt;=tbllkpSteelGrades[Thickness]),0))</f>
+        <v>440000000</v>
+      </c>
+      <c r="AD112" s="18">
         <f>IF(Table8[[#This Row],[Fabrication Type]]="Welded",Table8[[#This Row],[d1]],Table8[[#This Row],[d]])*Table8[[#This Row],[tw]]</f>
         <v>7.5000000000000002E-4</v>
       </c>
-      <c r="AD112" s="11">
+      <c r="AE112" s="11">
         <f>Table8[[#This Row],[Aw]]*Table8[[#This Row],[fy]]*0.6</f>
         <v>144000</v>
       </c>
-      <c r="AE112" s="35">
+      <c r="AF112" s="35">
         <f>82/SQRT(Table8[[#This Row],[fy]]/250000000)</f>
         <v>72.478445071621124</v>
       </c>
-      <c r="AF112" s="36">
+      <c r="AG112" s="36">
         <f>IF((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])&gt;Table8[[#This Row],[limiting web slenderness]],(82/((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])*SQRT(Table8[[#This Row],[fy]]/250000000)))^2,1)</f>
         <v>1</v>
       </c>
+      <c r="AH112" s="38" t="str">
+        <f>IF(Table8[[#This Row],[Fabrication Type]]="Welded",IF(Table8[[#This Row],[tw]]&gt;0.016,0.016*Table8[[#This Row],[fu]],Table8[[#This Row],[tw]]*Table8[[#This Row],[fu]]),"")</f>
+        <v/>
+      </c>
+      <c r="AI112" s="13">
+        <f>Table8[[#This Row],[d]]-Table8[[#This Row],[tf]]</f>
+        <v>0.14299999999999999</v>
+      </c>
+      <c r="AJ112" s="39">
+        <f>Table8[[#This Row],[bf]]*Table8[[#This Row],[tf]]*(Table8[[#This Row],[df]]/2)</f>
+        <v>3.7537499999999998E-5</v>
+      </c>
+      <c r="AK112" s="11" t="str">
+        <f>IF(Table8[[#This Row],[Fabrication Type]]="Welded",Table8[[#This Row],[vw]]*Table8[[#This Row],[Ix]]/Table8[[#This Row],[Qflange]],"")</f>
+        <v/>
+      </c>
+      <c r="AL112" s="11">
+        <f>Table8[[#This Row],[tw]]*Table8[[#This Row],[fy]]*0.6*Table8[[#This Row],[Ix]]/Table8[[#This Row],[Qflange]]</f>
+        <v>170325.67432567434</v>
+      </c>
     </row>
-    <row r="113" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B113" s="15" t="str">
         <f>Table8[[#This Row],[Section]]&amp;"-"&amp;TEXT(Table8[[#This Row],[Grade]],"0")</f>
         <v>310UC96.8-300HR</v>
@@ -14519,24 +17324,48 @@
         <f t="array" ref="AB113">INDEX(tbllkpSteelGrades[fy],MATCH(1,(Table8[[#This Row],[Grade]]=tbllkpSteelGrades[Grade])*(Table8[[#This Row],[tw]]&lt;=tbllkpSteelGrades[Thickness]),0))</f>
         <v>320000000</v>
       </c>
-      <c r="AC113" s="18">
+      <c r="AC113" s="17">
+        <f t="array" ref="AC113">INDEX(tbllkpSteelGrades[fu],MATCH(1,(Table8[[#This Row],[Grade]]=tbllkpSteelGrades[Grade])*(Table8[[#This Row],[tw]]&lt;=tbllkpSteelGrades[Thickness]),0))</f>
+        <v>440000000</v>
+      </c>
+      <c r="AD113" s="18">
         <f>IF(Table8[[#This Row],[Fabrication Type]]="Welded",Table8[[#This Row],[d1]],Table8[[#This Row],[d]])*Table8[[#This Row],[tw]]</f>
         <v>3.0492000000000002E-3</v>
       </c>
-      <c r="AD113" s="11">
+      <c r="AE113" s="11">
         <f>Table8[[#This Row],[Aw]]*Table8[[#This Row],[fy]]*0.6</f>
         <v>585446.40000000002</v>
       </c>
-      <c r="AE113" s="35">
+      <c r="AF113" s="35">
         <f>82/SQRT(Table8[[#This Row],[fy]]/250000000)</f>
         <v>72.478445071621124</v>
       </c>
-      <c r="AF113" s="36">
+      <c r="AG113" s="36">
         <f>IF((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])&gt;Table8[[#This Row],[limiting web slenderness]],(82/((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])*SQRT(Table8[[#This Row],[fy]]/250000000)))^2,1)</f>
         <v>1</v>
       </c>
+      <c r="AH113" s="38" t="str">
+        <f>IF(Table8[[#This Row],[Fabrication Type]]="Welded",IF(Table8[[#This Row],[tw]]&gt;0.016,0.016*Table8[[#This Row],[fu]],Table8[[#This Row],[tw]]*Table8[[#This Row],[fu]]),"")</f>
+        <v/>
+      </c>
+      <c r="AI113" s="13">
+        <f>Table8[[#This Row],[d]]-Table8[[#This Row],[tf]]</f>
+        <v>0.29259999999999997</v>
+      </c>
+      <c r="AJ113" s="39">
+        <f>Table8[[#This Row],[bf]]*Table8[[#This Row],[tf]]*(Table8[[#This Row],[df]]/2)</f>
+        <v>6.8717109999999991E-4</v>
+      </c>
+      <c r="AK113" s="11" t="str">
+        <f>IF(Table8[[#This Row],[Fabrication Type]]="Welded",Table8[[#This Row],[vw]]*Table8[[#This Row],[Ix]]/Table8[[#This Row],[Qflange]],"")</f>
+        <v/>
+      </c>
+      <c r="AL113" s="11">
+        <f>Table8[[#This Row],[tw]]*Table8[[#This Row],[fy]]*0.6*Table8[[#This Row],[Ix]]/Table8[[#This Row],[Qflange]]</f>
+        <v>616845.49888666754</v>
+      </c>
     </row>
-    <row r="114" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B114" s="15" t="str">
         <f>Table8[[#This Row],[Section]]&amp;"-"&amp;TEXT(Table8[[#This Row],[Grade]],"0")</f>
         <v>310UC158-300HR</v>
@@ -14620,24 +17449,48 @@
         <f t="array" ref="AB114">INDEX(tbllkpSteelGrades[fy],MATCH(1,(Table8[[#This Row],[Grade]]=tbllkpSteelGrades[Grade])*(Table8[[#This Row],[tw]]&lt;=tbllkpSteelGrades[Thickness]),0))</f>
         <v>300000000</v>
       </c>
-      <c r="AC114" s="18">
+      <c r="AC114" s="17">
+        <f t="array" ref="AC114">INDEX(tbllkpSteelGrades[fu],MATCH(1,(Table8[[#This Row],[Grade]]=tbllkpSteelGrades[Grade])*(Table8[[#This Row],[tw]]&lt;=tbllkpSteelGrades[Thickness]),0))</f>
+        <v>440000000</v>
+      </c>
+      <c r="AD114" s="18">
         <f>IF(Table8[[#This Row],[Fabrication Type]]="Welded",Table8[[#This Row],[d1]],Table8[[#This Row],[d]])*Table8[[#This Row],[tw]]</f>
         <v>5.1338999999999994E-3</v>
       </c>
-      <c r="AD114" s="11">
+      <c r="AE114" s="11">
         <f>Table8[[#This Row],[Aw]]*Table8[[#This Row],[fy]]*0.6</f>
         <v>924101.99999999988</v>
       </c>
-      <c r="AE114" s="35">
+      <c r="AF114" s="35">
         <f>82/SQRT(Table8[[#This Row],[fy]]/250000000)</f>
         <v>74.855416192372701</v>
       </c>
-      <c r="AF114" s="36">
+      <c r="AG114" s="36">
         <f>IF((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])&gt;Table8[[#This Row],[limiting web slenderness]],(82/((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])*SQRT(Table8[[#This Row],[fy]]/250000000)))^2,1)</f>
         <v>1</v>
       </c>
+      <c r="AH114" s="38" t="str">
+        <f>IF(Table8[[#This Row],[Fabrication Type]]="Welded",IF(Table8[[#This Row],[tw]]&gt;0.016,0.016*Table8[[#This Row],[fu]],Table8[[#This Row],[tw]]*Table8[[#This Row],[fu]]),"")</f>
+        <v/>
+      </c>
+      <c r="AI114" s="13">
+        <f>Table8[[#This Row],[d]]-Table8[[#This Row],[tf]]</f>
+        <v>0.30199999999999999</v>
+      </c>
+      <c r="AJ114" s="39">
+        <f>Table8[[#This Row],[bf]]*Table8[[#This Row],[tf]]*(Table8[[#This Row],[df]]/2)</f>
+        <v>1.174025E-3</v>
+      </c>
+      <c r="AK114" s="11" t="str">
+        <f>IF(Table8[[#This Row],[Fabrication Type]]="Welded",Table8[[#This Row],[vw]]*Table8[[#This Row],[Ix]]/Table8[[#This Row],[Qflange]],"")</f>
+        <v/>
+      </c>
+      <c r="AL114" s="11">
+        <f>Table8[[#This Row],[tw]]*Table8[[#This Row],[fy]]*0.6*Table8[[#This Row],[Ix]]/Table8[[#This Row],[Qflange]]</f>
+        <v>933956.26157875685</v>
+      </c>
     </row>
-    <row r="115" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B115" s="15" t="str">
         <f>Table8[[#This Row],[Section]]&amp;"-"&amp;TEXT(Table8[[#This Row],[Grade]],"0")</f>
         <v>310UC137-300HR</v>
@@ -14721,24 +17574,48 @@
         <f t="array" ref="AB115">INDEX(tbllkpSteelGrades[fy],MATCH(1,(Table8[[#This Row],[Grade]]=tbllkpSteelGrades[Grade])*(Table8[[#This Row],[tw]]&lt;=tbllkpSteelGrades[Thickness]),0))</f>
         <v>300000000</v>
       </c>
-      <c r="AC115" s="18">
+      <c r="AC115" s="17">
+        <f t="array" ref="AC115">INDEX(tbllkpSteelGrades[fu],MATCH(1,(Table8[[#This Row],[Grade]]=tbllkpSteelGrades[Grade])*(Table8[[#This Row],[tw]]&lt;=tbllkpSteelGrades[Thickness]),0))</f>
+        <v>440000000</v>
+      </c>
+      <c r="AD115" s="18">
         <f>IF(Table8[[#This Row],[Fabrication Type]]="Welded",Table8[[#This Row],[d1]],Table8[[#This Row],[d]])*Table8[[#This Row],[tw]]</f>
         <v>4.4298000000000002E-3</v>
       </c>
-      <c r="AD115" s="11">
+      <c r="AE115" s="11">
         <f>Table8[[#This Row],[Aw]]*Table8[[#This Row],[fy]]*0.6</f>
         <v>797364</v>
       </c>
-      <c r="AE115" s="35">
+      <c r="AF115" s="35">
         <f>82/SQRT(Table8[[#This Row],[fy]]/250000000)</f>
         <v>74.855416192372701</v>
       </c>
-      <c r="AF115" s="36">
+      <c r="AG115" s="36">
         <f>IF((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])&gt;Table8[[#This Row],[limiting web slenderness]],(82/((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])*SQRT(Table8[[#This Row],[fy]]/250000000)))^2,1)</f>
         <v>1</v>
       </c>
+      <c r="AH115" s="38" t="str">
+        <f>IF(Table8[[#This Row],[Fabrication Type]]="Welded",IF(Table8[[#This Row],[tw]]&gt;0.016,0.016*Table8[[#This Row],[fu]],Table8[[#This Row],[tw]]*Table8[[#This Row],[fu]]),"")</f>
+        <v/>
+      </c>
+      <c r="AI115" s="13">
+        <f>Table8[[#This Row],[d]]-Table8[[#This Row],[tf]]</f>
+        <v>0.29930000000000001</v>
+      </c>
+      <c r="AJ115" s="39">
+        <f>Table8[[#This Row],[bf]]*Table8[[#This Row],[tf]]*(Table8[[#This Row],[df]]/2)</f>
+        <v>1.003448145E-3</v>
+      </c>
+      <c r="AK115" s="11" t="str">
+        <f>IF(Table8[[#This Row],[Fabrication Type]]="Welded",Table8[[#This Row],[vw]]*Table8[[#This Row],[Ix]]/Table8[[#This Row],[Qflange]],"")</f>
+        <v/>
+      </c>
+      <c r="AL115" s="11">
+        <f>Table8[[#This Row],[tw]]*Table8[[#This Row],[fy]]*0.6*Table8[[#This Row],[Ix]]/Table8[[#This Row],[Qflange]]</f>
+        <v>814427.73507743143</v>
+      </c>
     </row>
-    <row r="116" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B116" s="15" t="str">
         <f>Table8[[#This Row],[Section]]&amp;"-"&amp;TEXT(Table8[[#This Row],[Grade]],"0")</f>
         <v>310UC118-300HR</v>
@@ -14822,24 +17699,48 @@
         <f t="array" ref="AB116">INDEX(tbllkpSteelGrades[fy],MATCH(1,(Table8[[#This Row],[Grade]]=tbllkpSteelGrades[Grade])*(Table8[[#This Row],[tw]]&lt;=tbllkpSteelGrades[Thickness]),0))</f>
         <v>300000000</v>
       </c>
-      <c r="AC116" s="18">
+      <c r="AC116" s="17">
+        <f t="array" ref="AC116">INDEX(tbllkpSteelGrades[fu],MATCH(1,(Table8[[#This Row],[Grade]]=tbllkpSteelGrades[Grade])*(Table8[[#This Row],[tw]]&lt;=tbllkpSteelGrades[Thickness]),0))</f>
+        <v>440000000</v>
+      </c>
+      <c r="AD116" s="18">
         <f>IF(Table8[[#This Row],[Fabrication Type]]="Welded",Table8[[#This Row],[d1]],Table8[[#This Row],[d]])*Table8[[#This Row],[tw]]</f>
         <v>3.7485000000000001E-3</v>
       </c>
-      <c r="AD116" s="11">
+      <c r="AE116" s="11">
         <f>Table8[[#This Row],[Aw]]*Table8[[#This Row],[fy]]*0.6</f>
         <v>674730</v>
       </c>
-      <c r="AE116" s="35">
+      <c r="AF116" s="35">
         <f>82/SQRT(Table8[[#This Row],[fy]]/250000000)</f>
         <v>74.855416192372701</v>
       </c>
-      <c r="AF116" s="36">
+      <c r="AG116" s="36">
         <f>IF((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])&gt;Table8[[#This Row],[limiting web slenderness]],(82/((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])*SQRT(Table8[[#This Row],[fy]]/250000000)))^2,1)</f>
         <v>1</v>
       </c>
+      <c r="AH116" s="38" t="str">
+        <f>IF(Table8[[#This Row],[Fabrication Type]]="Welded",IF(Table8[[#This Row],[tw]]&gt;0.016,0.016*Table8[[#This Row],[fu]],Table8[[#This Row],[tw]]*Table8[[#This Row],[fu]]),"")</f>
+        <v/>
+      </c>
+      <c r="AI116" s="13">
+        <f>Table8[[#This Row],[d]]-Table8[[#This Row],[tf]]</f>
+        <v>0.29630000000000001</v>
+      </c>
+      <c r="AJ116" s="39">
+        <f>Table8[[#This Row],[bf]]*Table8[[#This Row],[tf]]*(Table8[[#This Row],[df]]/2)</f>
+        <v>8.5051433499999988E-4</v>
+      </c>
+      <c r="AK116" s="11" t="str">
+        <f>IF(Table8[[#This Row],[Fabrication Type]]="Welded",Table8[[#This Row],[vw]]*Table8[[#This Row],[Ix]]/Table8[[#This Row],[Qflange]],"")</f>
+        <v/>
+      </c>
+      <c r="AL116" s="11">
+        <f>Table8[[#This Row],[tw]]*Table8[[#This Row],[fy]]*0.6*Table8[[#This Row],[Ix]]/Table8[[#This Row],[Qflange]]</f>
+        <v>697617.87142600026</v>
+      </c>
     </row>
-    <row r="117" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B117" s="15" t="str">
         <f>Table8[[#This Row],[Section]]&amp;"-"&amp;TEXT(Table8[[#This Row],[Grade]],"0")</f>
         <v>250UC89.5-300HR</v>
@@ -14923,24 +17824,48 @@
         <f t="array" ref="AB117">INDEX(tbllkpSteelGrades[fy],MATCH(1,(Table8[[#This Row],[Grade]]=tbllkpSteelGrades[Grade])*(Table8[[#This Row],[tw]]&lt;=tbllkpSteelGrades[Thickness]),0))</f>
         <v>320000000</v>
       </c>
-      <c r="AC117" s="18">
+      <c r="AC117" s="17">
+        <f t="array" ref="AC117">INDEX(tbllkpSteelGrades[fu],MATCH(1,(Table8[[#This Row],[Grade]]=tbllkpSteelGrades[Grade])*(Table8[[#This Row],[tw]]&lt;=tbllkpSteelGrades[Thickness]),0))</f>
+        <v>440000000</v>
+      </c>
+      <c r="AD117" s="18">
         <f>IF(Table8[[#This Row],[Fabrication Type]]="Welded",Table8[[#This Row],[d1]],Table8[[#This Row],[d]])*Table8[[#This Row],[tw]]</f>
         <v>2.7300000000000002E-3</v>
       </c>
-      <c r="AD117" s="11">
+      <c r="AE117" s="11">
         <f>Table8[[#This Row],[Aw]]*Table8[[#This Row],[fy]]*0.6</f>
         <v>524160.00000000006</v>
       </c>
-      <c r="AE117" s="35">
+      <c r="AF117" s="35">
         <f>82/SQRT(Table8[[#This Row],[fy]]/250000000)</f>
         <v>72.478445071621124</v>
       </c>
-      <c r="AF117" s="36">
+      <c r="AG117" s="36">
         <f>IF((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])&gt;Table8[[#This Row],[limiting web slenderness]],(82/((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])*SQRT(Table8[[#This Row],[fy]]/250000000)))^2,1)</f>
         <v>1</v>
       </c>
+      <c r="AH117" s="38" t="str">
+        <f>IF(Table8[[#This Row],[Fabrication Type]]="Welded",IF(Table8[[#This Row],[tw]]&gt;0.016,0.016*Table8[[#This Row],[fu]],Table8[[#This Row],[tw]]*Table8[[#This Row],[fu]]),"")</f>
+        <v/>
+      </c>
+      <c r="AI117" s="13">
+        <f>Table8[[#This Row],[d]]-Table8[[#This Row],[tf]]</f>
+        <v>0.2427</v>
+      </c>
+      <c r="AJ117" s="39">
+        <f>Table8[[#This Row],[bf]]*Table8[[#This Row],[tf]]*(Table8[[#This Row],[df]]/2)</f>
+        <v>5.3743488E-4</v>
+      </c>
+      <c r="AK117" s="11" t="str">
+        <f>IF(Table8[[#This Row],[Fabrication Type]]="Welded",Table8[[#This Row],[vw]]*Table8[[#This Row],[Ix]]/Table8[[#This Row],[Qflange]],"")</f>
+        <v/>
+      </c>
+      <c r="AL117" s="11">
+        <f>Table8[[#This Row],[tw]]*Table8[[#This Row],[fy]]*0.6*Table8[[#This Row],[Ix]]/Table8[[#This Row],[Qflange]]</f>
+        <v>536414.75596075936</v>
+      </c>
     </row>
-    <row r="118" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B118" s="15" t="str">
         <f>Table8[[#This Row],[Section]]&amp;"-"&amp;TEXT(Table8[[#This Row],[Grade]],"0")</f>
         <v>250UC72.9-300HR</v>
@@ -15024,24 +17949,48 @@
         <f t="array" ref="AB118">INDEX(tbllkpSteelGrades[fy],MATCH(1,(Table8[[#This Row],[Grade]]=tbllkpSteelGrades[Grade])*(Table8[[#This Row],[tw]]&lt;=tbllkpSteelGrades[Thickness]),0))</f>
         <v>320000000</v>
       </c>
-      <c r="AC118" s="18">
+      <c r="AC118" s="17">
+        <f t="array" ref="AC118">INDEX(tbllkpSteelGrades[fu],MATCH(1,(Table8[[#This Row],[Grade]]=tbllkpSteelGrades[Grade])*(Table8[[#This Row],[tw]]&lt;=tbllkpSteelGrades[Thickness]),0))</f>
+        <v>440000000</v>
+      </c>
+      <c r="AD118" s="18">
         <f>IF(Table8[[#This Row],[Fabrication Type]]="Welded",Table8[[#This Row],[d1]],Table8[[#This Row],[d]])*Table8[[#This Row],[tw]]</f>
         <v>2.1844E-3</v>
       </c>
-      <c r="AD118" s="11">
+      <c r="AE118" s="11">
         <f>Table8[[#This Row],[Aw]]*Table8[[#This Row],[fy]]*0.6</f>
         <v>419404.79999999999</v>
       </c>
-      <c r="AE118" s="35">
+      <c r="AF118" s="35">
         <f>82/SQRT(Table8[[#This Row],[fy]]/250000000)</f>
         <v>72.478445071621124</v>
       </c>
-      <c r="AF118" s="36">
+      <c r="AG118" s="36">
         <f>IF((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])&gt;Table8[[#This Row],[limiting web slenderness]],(82/((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])*SQRT(Table8[[#This Row],[fy]]/250000000)))^2,1)</f>
         <v>1</v>
       </c>
+      <c r="AH118" s="38" t="str">
+        <f>IF(Table8[[#This Row],[Fabrication Type]]="Welded",IF(Table8[[#This Row],[tw]]&gt;0.016,0.016*Table8[[#This Row],[fu]],Table8[[#This Row],[tw]]*Table8[[#This Row],[fu]]),"")</f>
+        <v/>
+      </c>
+      <c r="AI118" s="13">
+        <f>Table8[[#This Row],[d]]-Table8[[#This Row],[tf]]</f>
+        <v>0.23980000000000001</v>
+      </c>
+      <c r="AJ118" s="39">
+        <f>Table8[[#This Row],[bf]]*Table8[[#This Row],[tf]]*(Table8[[#This Row],[df]]/2)</f>
+        <v>4.3245532000000001E-4</v>
+      </c>
+      <c r="AK118" s="11" t="str">
+        <f>IF(Table8[[#This Row],[Fabrication Type]]="Welded",Table8[[#This Row],[vw]]*Table8[[#This Row],[Ix]]/Table8[[#This Row],[Qflange]],"")</f>
+        <v/>
+      </c>
+      <c r="AL118" s="11">
+        <f>Table8[[#This Row],[tw]]*Table8[[#This Row],[fy]]*0.6*Table8[[#This Row],[Ix]]/Table8[[#This Row],[Qflange]]</f>
+        <v>435274.56200561946</v>
+      </c>
     </row>
-    <row r="119" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B119" s="15" t="str">
         <f>Table8[[#This Row],[Section]]&amp;"-"&amp;TEXT(Table8[[#This Row],[Grade]],"0")</f>
         <v>200UC59.5-300HR</v>
@@ -15125,24 +18074,48 @@
         <f t="array" ref="AB119">INDEX(tbllkpSteelGrades[fy],MATCH(1,(Table8[[#This Row],[Grade]]=tbllkpSteelGrades[Grade])*(Table8[[#This Row],[tw]]&lt;=tbllkpSteelGrades[Thickness]),0))</f>
         <v>320000000</v>
       </c>
-      <c r="AC119" s="18">
+      <c r="AC119" s="17">
+        <f t="array" ref="AC119">INDEX(tbllkpSteelGrades[fu],MATCH(1,(Table8[[#This Row],[Grade]]=tbllkpSteelGrades[Grade])*(Table8[[#This Row],[tw]]&lt;=tbllkpSteelGrades[Thickness]),0))</f>
+        <v>440000000</v>
+      </c>
+      <c r="AD119" s="18">
         <f>IF(Table8[[#This Row],[Fabrication Type]]="Welded",Table8[[#This Row],[d1]],Table8[[#This Row],[d]])*Table8[[#This Row],[tw]]</f>
         <v>1.9530000000000001E-3</v>
       </c>
-      <c r="AD119" s="11">
+      <c r="AE119" s="11">
         <f>Table8[[#This Row],[Aw]]*Table8[[#This Row],[fy]]*0.6</f>
         <v>374976</v>
       </c>
-      <c r="AE119" s="35">
+      <c r="AF119" s="35">
         <f>82/SQRT(Table8[[#This Row],[fy]]/250000000)</f>
         <v>72.478445071621124</v>
       </c>
-      <c r="AF119" s="36">
+      <c r="AG119" s="36">
         <f>IF((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])&gt;Table8[[#This Row],[limiting web slenderness]],(82/((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])*SQRT(Table8[[#This Row],[fy]]/250000000)))^2,1)</f>
         <v>1</v>
       </c>
+      <c r="AH119" s="38" t="str">
+        <f>IF(Table8[[#This Row],[Fabrication Type]]="Welded",IF(Table8[[#This Row],[tw]]&gt;0.016,0.016*Table8[[#This Row],[fu]],Table8[[#This Row],[tw]]*Table8[[#This Row],[fu]]),"")</f>
+        <v/>
+      </c>
+      <c r="AI119" s="13">
+        <f>Table8[[#This Row],[d]]-Table8[[#This Row],[tf]]</f>
+        <v>0.1958</v>
+      </c>
+      <c r="AJ119" s="39">
+        <f>Table8[[#This Row],[bf]]*Table8[[#This Row],[tf]]*(Table8[[#This Row],[df]]/2)</f>
+        <v>2.8498689999999997E-4</v>
+      </c>
+      <c r="AK119" s="11" t="str">
+        <f>IF(Table8[[#This Row],[Fabrication Type]]="Welded",Table8[[#This Row],[vw]]*Table8[[#This Row],[Ix]]/Table8[[#This Row],[Qflange]],"")</f>
+        <v/>
+      </c>
+      <c r="AL119" s="11">
+        <f>Table8[[#This Row],[tw]]*Table8[[#This Row],[fy]]*0.6*Table8[[#This Row],[Ix]]/Table8[[#This Row],[Qflange]]</f>
+        <v>384078.28570365877</v>
+      </c>
     </row>
-    <row r="120" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B120" s="15" t="str">
         <f>Table8[[#This Row],[Section]]&amp;"-"&amp;TEXT(Table8[[#This Row],[Grade]],"0")</f>
         <v>200UC52.2-300HR</v>
@@ -15226,24 +18199,48 @@
         <f t="array" ref="AB120">INDEX(tbllkpSteelGrades[fy],MATCH(1,(Table8[[#This Row],[Grade]]=tbllkpSteelGrades[Grade])*(Table8[[#This Row],[tw]]&lt;=tbllkpSteelGrades[Thickness]),0))</f>
         <v>320000000</v>
       </c>
-      <c r="AC120" s="18">
+      <c r="AC120" s="17">
+        <f t="array" ref="AC120">INDEX(tbllkpSteelGrades[fu],MATCH(1,(Table8[[#This Row],[Grade]]=tbllkpSteelGrades[Grade])*(Table8[[#This Row],[tw]]&lt;=tbllkpSteelGrades[Thickness]),0))</f>
+        <v>440000000</v>
+      </c>
+      <c r="AD120" s="18">
         <f>IF(Table8[[#This Row],[Fabrication Type]]="Welded",Table8[[#This Row],[d1]],Table8[[#This Row],[d]])*Table8[[#This Row],[tw]]</f>
         <v>1.6479999999999999E-3</v>
       </c>
-      <c r="AD120" s="11">
+      <c r="AE120" s="11">
         <f>Table8[[#This Row],[Aw]]*Table8[[#This Row],[fy]]*0.6</f>
         <v>316416</v>
       </c>
-      <c r="AE120" s="35">
+      <c r="AF120" s="35">
         <f>82/SQRT(Table8[[#This Row],[fy]]/250000000)</f>
         <v>72.478445071621124</v>
       </c>
-      <c r="AF120" s="36">
+      <c r="AG120" s="36">
         <f>IF((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])&gt;Table8[[#This Row],[limiting web slenderness]],(82/((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])*SQRT(Table8[[#This Row],[fy]]/250000000)))^2,1)</f>
         <v>1</v>
       </c>
+      <c r="AH120" s="38" t="str">
+        <f>IF(Table8[[#This Row],[Fabrication Type]]="Welded",IF(Table8[[#This Row],[tw]]&gt;0.016,0.016*Table8[[#This Row],[fu]],Table8[[#This Row],[tw]]*Table8[[#This Row],[fu]]),"")</f>
+        <v/>
+      </c>
+      <c r="AI120" s="13">
+        <f>Table8[[#This Row],[d]]-Table8[[#This Row],[tf]]</f>
+        <v>0.19349999999999998</v>
+      </c>
+      <c r="AJ120" s="39">
+        <f>Table8[[#This Row],[bf]]*Table8[[#This Row],[tf]]*(Table8[[#This Row],[df]]/2)</f>
+        <v>2.4671250000000001E-4</v>
+      </c>
+      <c r="AK120" s="11" t="str">
+        <f>IF(Table8[[#This Row],[Fabrication Type]]="Welded",Table8[[#This Row],[vw]]*Table8[[#This Row],[Ix]]/Table8[[#This Row],[Qflange]],"")</f>
+        <v/>
+      </c>
+      <c r="AL120" s="11">
+        <f>Table8[[#This Row],[tw]]*Table8[[#This Row],[fy]]*0.6*Table8[[#This Row],[Ix]]/Table8[[#This Row],[Qflange]]</f>
+        <v>328725.94619243045</v>
+      </c>
     </row>
-    <row r="121" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B121" s="15" t="str">
         <f>Table8[[#This Row],[Section]]&amp;"-"&amp;TEXT(Table8[[#This Row],[Grade]],"0")</f>
         <v>200UC46.2-300HR</v>
@@ -15327,24 +18324,48 @@
         <f t="array" ref="AB121">INDEX(tbllkpSteelGrades[fy],MATCH(1,(Table8[[#This Row],[Grade]]=tbllkpSteelGrades[Grade])*(Table8[[#This Row],[tw]]&lt;=tbllkpSteelGrades[Thickness]),0))</f>
         <v>320000000</v>
       </c>
-      <c r="AC121" s="18">
+      <c r="AC121" s="17">
+        <f t="array" ref="AC121">INDEX(tbllkpSteelGrades[fu],MATCH(1,(Table8[[#This Row],[Grade]]=tbllkpSteelGrades[Grade])*(Table8[[#This Row],[tw]]&lt;=tbllkpSteelGrades[Thickness]),0))</f>
+        <v>440000000</v>
+      </c>
+      <c r="AD121" s="18">
         <f>IF(Table8[[#This Row],[Fabrication Type]]="Welded",Table8[[#This Row],[d1]],Table8[[#This Row],[d]])*Table8[[#This Row],[tw]]</f>
         <v>1.4819000000000002E-3</v>
       </c>
-      <c r="AD121" s="11">
+      <c r="AE121" s="11">
         <f>Table8[[#This Row],[Aw]]*Table8[[#This Row],[fy]]*0.6</f>
         <v>284524.80000000005</v>
       </c>
-      <c r="AE121" s="35">
+      <c r="AF121" s="35">
         <f>82/SQRT(Table8[[#This Row],[fy]]/250000000)</f>
         <v>72.478445071621124</v>
       </c>
-      <c r="AF121" s="36">
+      <c r="AG121" s="36">
         <f>IF((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])&gt;Table8[[#This Row],[limiting web slenderness]],(82/((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])*SQRT(Table8[[#This Row],[fy]]/250000000)))^2,1)</f>
         <v>1</v>
       </c>
+      <c r="AH121" s="38" t="str">
+        <f>IF(Table8[[#This Row],[Fabrication Type]]="Welded",IF(Table8[[#This Row],[tw]]&gt;0.016,0.016*Table8[[#This Row],[fu]],Table8[[#This Row],[tw]]*Table8[[#This Row],[fu]]),"")</f>
+        <v/>
+      </c>
+      <c r="AI121" s="13">
+        <f>Table8[[#This Row],[d]]-Table8[[#This Row],[tf]]</f>
+        <v>0.192</v>
+      </c>
+      <c r="AJ121" s="39">
+        <f>Table8[[#This Row],[bf]]*Table8[[#This Row],[tf]]*(Table8[[#This Row],[df]]/2)</f>
+        <v>2.1436800000000002E-4</v>
+      </c>
+      <c r="AK121" s="11" t="str">
+        <f>IF(Table8[[#This Row],[Fabrication Type]]="Welded",Table8[[#This Row],[vw]]*Table8[[#This Row],[Ix]]/Table8[[#This Row],[Qflange]],"")</f>
+        <v/>
+      </c>
+      <c r="AL121" s="11">
+        <f>Table8[[#This Row],[tw]]*Table8[[#This Row],[fy]]*0.6*Table8[[#This Row],[Ix]]/Table8[[#This Row],[Qflange]]</f>
+        <v>300107.47872816835</v>
+      </c>
     </row>
-    <row r="122" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B122" s="15" t="str">
         <f>Table8[[#This Row],[Section]]&amp;"-"&amp;TEXT(Table8[[#This Row],[Grade]],"0")</f>
         <v>150UC37.2-300HR</v>
@@ -15428,24 +18449,48 @@
         <f t="array" ref="AB122">INDEX(tbllkpSteelGrades[fy],MATCH(1,(Table8[[#This Row],[Grade]]=tbllkpSteelGrades[Grade])*(Table8[[#This Row],[tw]]&lt;=tbllkpSteelGrades[Thickness]),0))</f>
         <v>320000000</v>
       </c>
-      <c r="AC122" s="18">
+      <c r="AC122" s="17">
+        <f t="array" ref="AC122">INDEX(tbllkpSteelGrades[fu],MATCH(1,(Table8[[#This Row],[Grade]]=tbllkpSteelGrades[Grade])*(Table8[[#This Row],[tw]]&lt;=tbllkpSteelGrades[Thickness]),0))</f>
+        <v>440000000</v>
+      </c>
+      <c r="AD122" s="18">
         <f>IF(Table8[[#This Row],[Fabrication Type]]="Welded",Table8[[#This Row],[d1]],Table8[[#This Row],[d]])*Table8[[#This Row],[tw]]</f>
         <v>1.3121999999999999E-3</v>
       </c>
-      <c r="AD122" s="11">
+      <c r="AE122" s="11">
         <f>Table8[[#This Row],[Aw]]*Table8[[#This Row],[fy]]*0.6</f>
         <v>251942.39999999999</v>
       </c>
-      <c r="AE122" s="35">
+      <c r="AF122" s="35">
         <f>82/SQRT(Table8[[#This Row],[fy]]/250000000)</f>
         <v>72.478445071621124</v>
       </c>
-      <c r="AF122" s="36">
+      <c r="AG122" s="36">
         <f>IF((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])&gt;Table8[[#This Row],[limiting web slenderness]],(82/((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])*SQRT(Table8[[#This Row],[fy]]/250000000)))^2,1)</f>
         <v>1</v>
       </c>
+      <c r="AH122" s="38" t="str">
+        <f>IF(Table8[[#This Row],[Fabrication Type]]="Welded",IF(Table8[[#This Row],[tw]]&gt;0.016,0.016*Table8[[#This Row],[fu]],Table8[[#This Row],[tw]]*Table8[[#This Row],[fu]]),"")</f>
+        <v/>
+      </c>
+      <c r="AI122" s="13">
+        <f>Table8[[#This Row],[d]]-Table8[[#This Row],[tf]]</f>
+        <v>0.15049999999999999</v>
+      </c>
+      <c r="AJ122" s="39">
+        <f>Table8[[#This Row],[bf]]*Table8[[#This Row],[tf]]*(Table8[[#This Row],[df]]/2)</f>
+        <v>1.3326774999999999E-4</v>
+      </c>
+      <c r="AK122" s="11" t="str">
+        <f>IF(Table8[[#This Row],[Fabrication Type]]="Welded",Table8[[#This Row],[vw]]*Table8[[#This Row],[Ix]]/Table8[[#This Row],[Qflange]],"")</f>
+        <v/>
+      </c>
+      <c r="AL122" s="11">
+        <f>Table8[[#This Row],[tw]]*Table8[[#This Row],[fy]]*0.6*Table8[[#This Row],[Ix]]/Table8[[#This Row],[Qflange]]</f>
+        <v>259068.22918523051</v>
+      </c>
     </row>
-    <row r="123" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B123" s="15" t="str">
         <f>Table8[[#This Row],[Section]]&amp;"-"&amp;TEXT(Table8[[#This Row],[Grade]],"0")</f>
         <v>150UC30.0-300HR</v>
@@ -15529,24 +18574,48 @@
         <f t="array" ref="AB123">INDEX(tbllkpSteelGrades[fy],MATCH(1,(Table8[[#This Row],[Grade]]=tbllkpSteelGrades[Grade])*(Table8[[#This Row],[tw]]&lt;=tbllkpSteelGrades[Thickness]),0))</f>
         <v>320000000</v>
       </c>
-      <c r="AC123" s="18">
+      <c r="AC123" s="17">
+        <f t="array" ref="AC123">INDEX(tbllkpSteelGrades[fu],MATCH(1,(Table8[[#This Row],[Grade]]=tbllkpSteelGrades[Grade])*(Table8[[#This Row],[tw]]&lt;=tbllkpSteelGrades[Thickness]),0))</f>
+        <v>440000000</v>
+      </c>
+      <c r="AD123" s="18">
         <f>IF(Table8[[#This Row],[Fabrication Type]]="Welded",Table8[[#This Row],[d1]],Table8[[#This Row],[d]])*Table8[[#This Row],[tw]]</f>
         <v>1.0428E-3</v>
       </c>
-      <c r="AD123" s="11">
+      <c r="AE123" s="11">
         <f>Table8[[#This Row],[Aw]]*Table8[[#This Row],[fy]]*0.6</f>
         <v>200217.60000000001</v>
       </c>
-      <c r="AE123" s="35">
+      <c r="AF123" s="35">
         <f>82/SQRT(Table8[[#This Row],[fy]]/250000000)</f>
         <v>72.478445071621124</v>
       </c>
-      <c r="AF123" s="36">
+      <c r="AG123" s="36">
         <f>IF((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])&gt;Table8[[#This Row],[limiting web slenderness]],(82/((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])*SQRT(Table8[[#This Row],[fy]]/250000000)))^2,1)</f>
         <v>1</v>
       </c>
+      <c r="AH123" s="38" t="str">
+        <f>IF(Table8[[#This Row],[Fabrication Type]]="Welded",IF(Table8[[#This Row],[tw]]&gt;0.016,0.016*Table8[[#This Row],[fu]],Table8[[#This Row],[tw]]*Table8[[#This Row],[fu]]),"")</f>
+        <v/>
+      </c>
+      <c r="AI123" s="13">
+        <f>Table8[[#This Row],[d]]-Table8[[#This Row],[tf]]</f>
+        <v>0.14860000000000001</v>
+      </c>
+      <c r="AJ123" s="39">
+        <f>Table8[[#This Row],[bf]]*Table8[[#This Row],[tf]]*(Table8[[#This Row],[df]]/2)</f>
+        <v>1.0685826E-4</v>
+      </c>
+      <c r="AK123" s="11" t="str">
+        <f>IF(Table8[[#This Row],[Fabrication Type]]="Welded",Table8[[#This Row],[vw]]*Table8[[#This Row],[Ix]]/Table8[[#This Row],[Qflange]],"")</f>
+        <v/>
+      </c>
+      <c r="AL123" s="11">
+        <f>Table8[[#This Row],[tw]]*Table8[[#This Row],[fy]]*0.6*Table8[[#This Row],[Ix]]/Table8[[#This Row],[Qflange]]</f>
+        <v>208713.11211692946</v>
+      </c>
     </row>
-    <row r="124" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B124" s="15" t="str">
         <f>Table8[[#This Row],[Section]]&amp;"-"&amp;TEXT(Table8[[#This Row],[Grade]],"0")</f>
         <v>150UC23.4-300HR</v>
@@ -15630,24 +18699,48 @@
         <f t="array" ref="AB124">INDEX(tbllkpSteelGrades[fy],MATCH(1,(Table8[[#This Row],[Grade]]=tbllkpSteelGrades[Grade])*(Table8[[#This Row],[tw]]&lt;=tbllkpSteelGrades[Thickness]),0))</f>
         <v>320000000</v>
       </c>
-      <c r="AC124" s="18">
+      <c r="AC124" s="17">
+        <f t="array" ref="AC124">INDEX(tbllkpSteelGrades[fu],MATCH(1,(Table8[[#This Row],[Grade]]=tbllkpSteelGrades[Grade])*(Table8[[#This Row],[tw]]&lt;=tbllkpSteelGrades[Thickness]),0))</f>
+        <v>440000000</v>
+      </c>
+      <c r="AD124" s="18">
         <f>IF(Table8[[#This Row],[Fabrication Type]]="Welded",Table8[[#This Row],[d1]],Table8[[#This Row],[d]])*Table8[[#This Row],[tw]]</f>
         <v>9.2719999999999988E-4</v>
       </c>
-      <c r="AD124" s="11">
+      <c r="AE124" s="11">
         <f>Table8[[#This Row],[Aw]]*Table8[[#This Row],[fy]]*0.6</f>
         <v>178022.39999999997</v>
       </c>
-      <c r="AE124" s="35">
+      <c r="AF124" s="35">
         <f>82/SQRT(Table8[[#This Row],[fy]]/250000000)</f>
         <v>72.478445071621124</v>
       </c>
-      <c r="AF124" s="36">
+      <c r="AG124" s="36">
         <f>IF((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])&gt;Table8[[#This Row],[limiting web slenderness]],(82/((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])*SQRT(Table8[[#This Row],[fy]]/250000000)))^2,1)</f>
         <v>1</v>
       </c>
+      <c r="AH124" s="38" t="str">
+        <f>IF(Table8[[#This Row],[Fabrication Type]]="Welded",IF(Table8[[#This Row],[tw]]&gt;0.016,0.016*Table8[[#This Row],[fu]],Table8[[#This Row],[tw]]*Table8[[#This Row],[fu]]),"")</f>
+        <v/>
+      </c>
+      <c r="AI124" s="13">
+        <f>Table8[[#This Row],[d]]-Table8[[#This Row],[tf]]</f>
+        <v>0.1452</v>
+      </c>
+      <c r="AJ124" s="39">
+        <f>Table8[[#This Row],[bf]]*Table8[[#This Row],[tf]]*(Table8[[#This Row],[df]]/2)</f>
+        <v>7.5039359999999996E-5</v>
+      </c>
+      <c r="AK124" s="11" t="str">
+        <f>IF(Table8[[#This Row],[Fabrication Type]]="Welded",Table8[[#This Row],[vw]]*Table8[[#This Row],[Ix]]/Table8[[#This Row],[Qflange]],"")</f>
+        <v/>
+      </c>
+      <c r="AL124" s="11">
+        <f>Table8[[#This Row],[tw]]*Table8[[#This Row],[fy]]*0.6*Table8[[#This Row],[Ix]]/Table8[[#This Row],[Qflange]]</f>
+        <v>196658.39367499933</v>
+      </c>
     </row>
-    <row r="125" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B125" s="15" t="str">
         <f>Table8[[#This Row],[Section]]&amp;"-"&amp;TEXT(Table8[[#This Row],[Grade]],"0")</f>
         <v>100UC14.8-300HR</v>
@@ -15731,24 +18824,48 @@
         <f t="array" ref="AB125">INDEX(tbllkpSteelGrades[fy],MATCH(1,(Table8[[#This Row],[Grade]]=tbllkpSteelGrades[Grade])*(Table8[[#This Row],[tw]]&lt;=tbllkpSteelGrades[Thickness]),0))</f>
         <v>320000000</v>
       </c>
-      <c r="AC125" s="18">
+      <c r="AC125" s="17">
+        <f t="array" ref="AC125">INDEX(tbllkpSteelGrades[fu],MATCH(1,(Table8[[#This Row],[Grade]]=tbllkpSteelGrades[Grade])*(Table8[[#This Row],[tw]]&lt;=tbllkpSteelGrades[Thickness]),0))</f>
+        <v>440000000</v>
+      </c>
+      <c r="AD125" s="18">
         <f>IF(Table8[[#This Row],[Fabrication Type]]="Welded",Table8[[#This Row],[d1]],Table8[[#This Row],[d]])*Table8[[#This Row],[tw]]</f>
         <v>4.8500000000000003E-4</v>
       </c>
-      <c r="AD125" s="11">
+      <c r="AE125" s="11">
         <f>Table8[[#This Row],[Aw]]*Table8[[#This Row],[fy]]*0.6</f>
         <v>93120</v>
       </c>
-      <c r="AE125" s="35">
+      <c r="AF125" s="35">
         <f>82/SQRT(Table8[[#This Row],[fy]]/250000000)</f>
         <v>72.478445071621124</v>
       </c>
-      <c r="AF125" s="36">
+      <c r="AG125" s="36">
         <f>IF((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])&gt;Table8[[#This Row],[limiting web slenderness]],(82/((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])*SQRT(Table8[[#This Row],[fy]]/250000000)))^2,1)</f>
         <v>1</v>
       </c>
+      <c r="AH125" s="38" t="str">
+        <f>IF(Table8[[#This Row],[Fabrication Type]]="Welded",IF(Table8[[#This Row],[tw]]&gt;0.016,0.016*Table8[[#This Row],[fu]],Table8[[#This Row],[tw]]*Table8[[#This Row],[fu]]),"")</f>
+        <v/>
+      </c>
+      <c r="AI125" s="13">
+        <f>Table8[[#This Row],[d]]-Table8[[#This Row],[tf]]</f>
+        <v>0.09</v>
+      </c>
+      <c r="AJ125" s="39">
+        <f>Table8[[#This Row],[bf]]*Table8[[#This Row],[tf]]*(Table8[[#This Row],[df]]/2)</f>
+        <v>3.1185E-5</v>
+      </c>
+      <c r="AK125" s="11" t="str">
+        <f>IF(Table8[[#This Row],[Fabrication Type]]="Welded",Table8[[#This Row],[vw]]*Table8[[#This Row],[Ix]]/Table8[[#This Row],[Qflange]],"")</f>
+        <v/>
+      </c>
+      <c r="AL125" s="11">
+        <f>Table8[[#This Row],[tw]]*Table8[[#This Row],[fy]]*0.6*Table8[[#This Row],[Ix]]/Table8[[#This Row],[Qflange]]</f>
+        <v>97893.217893217894</v>
+      </c>
     </row>
-    <row r="126" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B126" s="15" t="str">
         <f>Table8[[#This Row],[Section]]&amp;"-"&amp;TEXT(Table8[[#This Row],[Grade]],"0")</f>
         <v>310UBP149-300HR</v>
@@ -15832,24 +18949,48 @@
         <f t="array" ref="AB126">INDEX(tbllkpSteelGrades[fy],MATCH(1,(Table8[[#This Row],[Grade]]=tbllkpSteelGrades[Grade])*(Table8[[#This Row],[tw]]&lt;=tbllkpSteelGrades[Thickness]),0))</f>
         <v>280000000</v>
       </c>
-      <c r="AC126" s="18">
+      <c r="AC126" s="17">
+        <f t="array" ref="AC126">INDEX(tbllkpSteelGrades[fu],MATCH(1,(Table8[[#This Row],[Grade]]=tbllkpSteelGrades[Grade])*(Table8[[#This Row],[tw]]&lt;=tbllkpSteelGrades[Thickness]),0))</f>
+        <v>440000000</v>
+      </c>
+      <c r="AD126" s="18">
         <f>IF(Table8[[#This Row],[Fabrication Type]]="Welded",Table8[[#This Row],[d1]],Table8[[#This Row],[d]])*Table8[[#This Row],[tw]]</f>
         <v>6.5190000000000005E-3</v>
       </c>
-      <c r="AD126" s="11">
+      <c r="AE126" s="11">
         <f>Table8[[#This Row],[Aw]]*Table8[[#This Row],[fy]]*0.6</f>
         <v>1095192</v>
       </c>
-      <c r="AE126" s="35">
+      <c r="AF126" s="35">
         <f>82/SQRT(Table8[[#This Row],[fy]]/250000000)</f>
         <v>77.482716966891573</v>
       </c>
-      <c r="AF126" s="36">
+      <c r="AG126" s="36">
         <f>IF((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])&gt;Table8[[#This Row],[limiting web slenderness]],(82/((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])*SQRT(Table8[[#This Row],[fy]]/250000000)))^2,1)</f>
         <v>1</v>
       </c>
+      <c r="AH126" s="38" t="str">
+        <f>IF(Table8[[#This Row],[Fabrication Type]]="Welded",IF(Table8[[#This Row],[tw]]&gt;0.016,0.016*Table8[[#This Row],[fu]],Table8[[#This Row],[tw]]*Table8[[#This Row],[fu]]),"")</f>
+        <v/>
+      </c>
+      <c r="AI126" s="13">
+        <f>Table8[[#This Row],[d]]-Table8[[#This Row],[tf]]</f>
+        <v>0.29730000000000001</v>
+      </c>
+      <c r="AJ126" s="39">
+        <f>Table8[[#This Row],[bf]]*Table8[[#This Row],[tf]]*(Table8[[#This Row],[df]]/2)</f>
+        <v>9.7234937999999996E-4</v>
+      </c>
+      <c r="AK126" s="11" t="str">
+        <f>IF(Table8[[#This Row],[Fabrication Type]]="Welded",Table8[[#This Row],[vw]]*Table8[[#This Row],[Ix]]/Table8[[#This Row],[Qflange]],"")</f>
+        <v/>
+      </c>
+      <c r="AL126" s="11">
+        <f>Table8[[#This Row],[tw]]*Table8[[#This Row],[fy]]*0.6*Table8[[#This Row],[Ix]]/Table8[[#This Row],[Qflange]]</f>
+        <v>1168839.1265287793</v>
+      </c>
     </row>
-    <row r="127" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B127" s="15" t="str">
         <f>Table8[[#This Row],[Section]]&amp;"-"&amp;TEXT(Table8[[#This Row],[Grade]],"0")</f>
         <v>200UBP146-300HR</v>
@@ -15933,24 +19074,48 @@
         <f t="array" ref="AB127">INDEX(tbllkpSteelGrades[fy],MATCH(1,(Table8[[#This Row],[Grade]]=tbllkpSteelGrades[Grade])*(Table8[[#This Row],[tw]]&lt;=tbllkpSteelGrades[Thickness]),0))</f>
         <v>280000000</v>
       </c>
-      <c r="AC127" s="18">
+      <c r="AC127" s="17">
+        <f t="array" ref="AC127">INDEX(tbllkpSteelGrades[fu],MATCH(1,(Table8[[#This Row],[Grade]]=tbllkpSteelGrades[Grade])*(Table8[[#This Row],[tw]]&lt;=tbllkpSteelGrades[Thickness]),0))</f>
+        <v>440000000</v>
+      </c>
+      <c r="AD127" s="18">
         <f>IF(Table8[[#This Row],[Fabrication Type]]="Welded",Table8[[#This Row],[d1]],Table8[[#This Row],[d]])*Table8[[#This Row],[tw]]</f>
         <v>6.1250000000000002E-3</v>
       </c>
-      <c r="AD127" s="11">
+      <c r="AE127" s="11">
         <f>Table8[[#This Row],[Aw]]*Table8[[#This Row],[fy]]*0.6</f>
         <v>1029000</v>
       </c>
-      <c r="AE127" s="35">
+      <c r="AF127" s="35">
         <f>82/SQRT(Table8[[#This Row],[fy]]/250000000)</f>
         <v>77.482716966891573</v>
       </c>
-      <c r="AF127" s="36">
+      <c r="AG127" s="36">
         <f>IF((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])&gt;Table8[[#This Row],[limiting web slenderness]],(82/((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])*SQRT(Table8[[#This Row],[fy]]/250000000)))^2,1)</f>
         <v>1</v>
       </c>
+      <c r="AH127" s="38" t="str">
+        <f>IF(Table8[[#This Row],[Fabrication Type]]="Welded",IF(Table8[[#This Row],[tw]]&gt;0.016,0.016*Table8[[#This Row],[fu]],Table8[[#This Row],[tw]]*Table8[[#This Row],[fu]]),"")</f>
+        <v/>
+      </c>
+      <c r="AI127" s="13">
+        <f>Table8[[#This Row],[d]]-Table8[[#This Row],[tf]]</f>
+        <v>0.21299999999999999</v>
+      </c>
+      <c r="AJ127" s="39">
+        <f>Table8[[#This Row],[bf]]*Table8[[#This Row],[tf]]*(Table8[[#This Row],[df]]/2)</f>
+        <v>7.4294400000000005E-4</v>
+      </c>
+      <c r="AK127" s="11" t="str">
+        <f>IF(Table8[[#This Row],[Fabrication Type]]="Welded",Table8[[#This Row],[vw]]*Table8[[#This Row],[Ix]]/Table8[[#This Row],[Qflange]],"")</f>
+        <v/>
+      </c>
+      <c r="AL127" s="11">
+        <f>Table8[[#This Row],[tw]]*Table8[[#This Row],[fy]]*0.6*Table8[[#This Row],[Ix]]/Table8[[#This Row],[Qflange]]</f>
+        <v>978001.03372528742</v>
+      </c>
     </row>
-    <row r="128" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B128" s="15" t="str">
         <f>Table8[[#This Row],[Section]]&amp;"-"&amp;TEXT(Table8[[#This Row],[Grade]],"0")</f>
         <v>200UBP122-300HR</v>
@@ -16034,24 +19199,48 @@
         <f t="array" ref="AB128">INDEX(tbllkpSteelGrades[fy],MATCH(1,(Table8[[#This Row],[Grade]]=tbllkpSteelGrades[Grade])*(Table8[[#This Row],[tw]]&lt;=tbllkpSteelGrades[Thickness]),0))</f>
         <v>280000000</v>
       </c>
-      <c r="AC128" s="18">
+      <c r="AC128" s="17">
+        <f t="array" ref="AC128">INDEX(tbllkpSteelGrades[fu],MATCH(1,(Table8[[#This Row],[Grade]]=tbllkpSteelGrades[Grade])*(Table8[[#This Row],[tw]]&lt;=tbllkpSteelGrades[Thickness]),0))</f>
+        <v>440000000</v>
+      </c>
+      <c r="AD128" s="18">
         <f>IF(Table8[[#This Row],[Fabrication Type]]="Welded",Table8[[#This Row],[d1]],Table8[[#This Row],[d]])*Table8[[#This Row],[tw]]</f>
         <v>5.7500000000000008E-3</v>
       </c>
-      <c r="AD128" s="11">
+      <c r="AE128" s="11">
         <f>Table8[[#This Row],[Aw]]*Table8[[#This Row],[fy]]*0.6</f>
         <v>966000.00000000012</v>
       </c>
-      <c r="AE128" s="35">
+      <c r="AF128" s="35">
         <f>82/SQRT(Table8[[#This Row],[fy]]/250000000)</f>
         <v>77.482716966891573</v>
       </c>
-      <c r="AF128" s="36">
+      <c r="AG128" s="36">
         <f>IF((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])&gt;Table8[[#This Row],[limiting web slenderness]],(82/((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])*SQRT(Table8[[#This Row],[fy]]/250000000)))^2,1)</f>
         <v>1</v>
       </c>
+      <c r="AH128" s="38" t="str">
+        <f>IF(Table8[[#This Row],[Fabrication Type]]="Welded",IF(Table8[[#This Row],[tw]]&gt;0.016,0.016*Table8[[#This Row],[fu]],Table8[[#This Row],[tw]]*Table8[[#This Row],[fu]]),"")</f>
+        <v/>
+      </c>
+      <c r="AI128" s="13">
+        <f>Table8[[#This Row],[d]]-Table8[[#This Row],[tf]]</f>
+        <v>0.20500000000000002</v>
+      </c>
+      <c r="AJ128" s="39">
+        <f>Table8[[#This Row],[bf]]*Table8[[#This Row],[tf]]*(Table8[[#This Row],[df]]/2)</f>
+        <v>5.6375000000000012E-4</v>
+      </c>
+      <c r="AK128" s="11" t="str">
+        <f>IF(Table8[[#This Row],[Fabrication Type]]="Welded",Table8[[#This Row],[vw]]*Table8[[#This Row],[Ix]]/Table8[[#This Row],[Qflange]],"")</f>
+        <v/>
+      </c>
+      <c r="AL128" s="11">
+        <f>Table8[[#This Row],[tw]]*Table8[[#This Row],[fy]]*0.6*Table8[[#This Row],[Ix]]/Table8[[#This Row],[Qflange]]</f>
+        <v>961064.30155210616</v>
+      </c>
     </row>
-    <row r="129" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B129" s="15" t="str">
         <f>Table8[[#This Row],[Section]]&amp;"-"&amp;TEXT(Table8[[#This Row],[Grade]],"0")</f>
         <v>310UBP110-300HR</v>
@@ -16135,24 +19324,48 @@
         <f t="array" ref="AB129">INDEX(tbllkpSteelGrades[fy],MATCH(1,(Table8[[#This Row],[Grade]]=tbllkpSteelGrades[Grade])*(Table8[[#This Row],[tw]]&lt;=tbllkpSteelGrades[Thickness]),0))</f>
         <v>300000000</v>
       </c>
-      <c r="AC129" s="18">
+      <c r="AC129" s="17">
+        <f t="array" ref="AC129">INDEX(tbllkpSteelGrades[fu],MATCH(1,(Table8[[#This Row],[Grade]]=tbllkpSteelGrades[Grade])*(Table8[[#This Row],[tw]]&lt;=tbllkpSteelGrades[Thickness]),0))</f>
+        <v>440000000</v>
+      </c>
+      <c r="AD129" s="18">
         <f>IF(Table8[[#This Row],[Fabrication Type]]="Welded",Table8[[#This Row],[d1]],Table8[[#This Row],[d]])*Table8[[#This Row],[tw]]</f>
         <v>4.7124000000000003E-3</v>
       </c>
-      <c r="AD129" s="11">
+      <c r="AE129" s="11">
         <f>Table8[[#This Row],[Aw]]*Table8[[#This Row],[fy]]*0.6</f>
         <v>848232</v>
       </c>
-      <c r="AE129" s="35">
+      <c r="AF129" s="35">
         <f>82/SQRT(Table8[[#This Row],[fy]]/250000000)</f>
         <v>74.855416192372701</v>
       </c>
-      <c r="AF129" s="36">
+      <c r="AG129" s="36">
         <f>IF((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])&gt;Table8[[#This Row],[limiting web slenderness]],(82/((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])*SQRT(Table8[[#This Row],[fy]]/250000000)))^2,1)</f>
         <v>1</v>
       </c>
+      <c r="AH129" s="38" t="str">
+        <f>IF(Table8[[#This Row],[Fabrication Type]]="Welded",IF(Table8[[#This Row],[tw]]&gt;0.016,0.016*Table8[[#This Row],[fu]],Table8[[#This Row],[tw]]*Table8[[#This Row],[fu]]),"")</f>
+        <v/>
+      </c>
+      <c r="AI129" s="13">
+        <f>Table8[[#This Row],[d]]-Table8[[#This Row],[tf]]</f>
+        <v>0.29259999999999997</v>
+      </c>
+      <c r="AJ129" s="39">
+        <f>Table8[[#This Row],[bf]]*Table8[[#This Row],[tf]]*(Table8[[#This Row],[df]]/2)</f>
+        <v>6.9843620000000005E-4</v>
+      </c>
+      <c r="AK129" s="11" t="str">
+        <f>IF(Table8[[#This Row],[Fabrication Type]]="Welded",Table8[[#This Row],[vw]]*Table8[[#This Row],[Ix]]/Table8[[#This Row],[Qflange]],"")</f>
+        <v/>
+      </c>
+      <c r="AL129" s="11">
+        <f>Table8[[#This Row],[tw]]*Table8[[#This Row],[fy]]*0.6*Table8[[#This Row],[Ix]]/Table8[[#This Row],[Qflange]]</f>
+        <v>930570.32267227827</v>
+      </c>
     </row>
-    <row r="130" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B130" s="15" t="str">
         <f>Table8[[#This Row],[Section]]&amp;"-"&amp;TEXT(Table8[[#This Row],[Grade]],"0")</f>
         <v>250UBP84.9-300HR</v>
@@ -16236,24 +19449,48 @@
         <f t="array" ref="AB130">INDEX(tbllkpSteelGrades[fy],MATCH(1,(Table8[[#This Row],[Grade]]=tbllkpSteelGrades[Grade])*(Table8[[#This Row],[tw]]&lt;=tbllkpSteelGrades[Thickness]),0))</f>
         <v>300000000</v>
       </c>
-      <c r="AC130" s="18">
+      <c r="AC130" s="17">
+        <f t="array" ref="AC130">INDEX(tbllkpSteelGrades[fu],MATCH(1,(Table8[[#This Row],[Grade]]=tbllkpSteelGrades[Grade])*(Table8[[#This Row],[tw]]&lt;=tbllkpSteelGrades[Thickness]),0))</f>
+        <v>440000000</v>
+      </c>
+      <c r="AD130" s="18">
         <f>IF(Table8[[#This Row],[Fabrication Type]]="Welded",Table8[[#This Row],[d1]],Table8[[#This Row],[d]])*Table8[[#This Row],[tw]]</f>
         <v>3.6321999999999999E-3</v>
       </c>
-      <c r="AD130" s="11">
+      <c r="AE130" s="11">
         <f>Table8[[#This Row],[Aw]]*Table8[[#This Row],[fy]]*0.6</f>
         <v>653796</v>
       </c>
-      <c r="AE130" s="35">
+      <c r="AF130" s="35">
         <f>82/SQRT(Table8[[#This Row],[fy]]/250000000)</f>
         <v>74.855416192372701</v>
       </c>
-      <c r="AF130" s="36">
+      <c r="AG130" s="36">
         <f>IF((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])&gt;Table8[[#This Row],[limiting web slenderness]],(82/((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])*SQRT(Table8[[#This Row],[fy]]/250000000)))^2,1)</f>
         <v>1</v>
       </c>
+      <c r="AH130" s="38" t="str">
+        <f>IF(Table8[[#This Row],[Fabrication Type]]="Welded",IF(Table8[[#This Row],[tw]]&gt;0.016,0.016*Table8[[#This Row],[fu]],Table8[[#This Row],[tw]]*Table8[[#This Row],[fu]]),"")</f>
+        <v/>
+      </c>
+      <c r="AI130" s="13">
+        <f>Table8[[#This Row],[d]]-Table8[[#This Row],[tf]]</f>
+        <v>0.2397</v>
+      </c>
+      <c r="AJ130" s="39">
+        <f>Table8[[#This Row],[bf]]*Table8[[#This Row],[tf]]*(Table8[[#This Row],[df]]/2)</f>
+        <v>4.4560230000000001E-4</v>
+      </c>
+      <c r="AK130" s="11" t="str">
+        <f>IF(Table8[[#This Row],[Fabrication Type]]="Welded",Table8[[#This Row],[vw]]*Table8[[#This Row],[Ix]]/Table8[[#This Row],[Qflange]],"")</f>
+        <v/>
+      </c>
+      <c r="AL130" s="11">
+        <f>Table8[[#This Row],[tw]]*Table8[[#This Row],[fy]]*0.6*Table8[[#This Row],[Ix]]/Table8[[#This Row],[Qflange]]</f>
+        <v>710503.51400789456</v>
+      </c>
     </row>
-    <row r="131" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B131" s="15" t="str">
         <f>Table8[[#This Row],[Section]]&amp;"-"&amp;TEXT(Table8[[#This Row],[Grade]],"0")</f>
         <v>310UBP78.8-300HR</v>
@@ -16337,24 +19574,48 @@
         <f t="array" ref="AB131">INDEX(tbllkpSteelGrades[fy],MATCH(1,(Table8[[#This Row],[Grade]]=tbllkpSteelGrades[Grade])*(Table8[[#This Row],[tw]]&lt;=tbllkpSteelGrades[Thickness]),0))</f>
         <v>300000000</v>
       </c>
-      <c r="AC131" s="18">
+      <c r="AC131" s="17">
+        <f t="array" ref="AC131">INDEX(tbllkpSteelGrades[fu],MATCH(1,(Table8[[#This Row],[Grade]]=tbllkpSteelGrades[Grade])*(Table8[[#This Row],[tw]]&lt;=tbllkpSteelGrades[Thickness]),0))</f>
+        <v>440000000</v>
+      </c>
+      <c r="AD131" s="18">
         <f>IF(Table8[[#This Row],[Fabrication Type]]="Welded",Table8[[#This Row],[d1]],Table8[[#This Row],[d]])*Table8[[#This Row],[tw]]</f>
         <v>3.3189000000000001E-3</v>
       </c>
-      <c r="AD131" s="11">
+      <c r="AE131" s="11">
         <f>Table8[[#This Row],[Aw]]*Table8[[#This Row],[fy]]*0.6</f>
         <v>597402</v>
       </c>
-      <c r="AE131" s="35">
+      <c r="AF131" s="35">
         <f>82/SQRT(Table8[[#This Row],[fy]]/250000000)</f>
         <v>74.855416192372701</v>
       </c>
-      <c r="AF131" s="36">
+      <c r="AG131" s="36">
         <f>IF((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])&gt;Table8[[#This Row],[limiting web slenderness]],(82/((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])*SQRT(Table8[[#This Row],[fy]]/250000000)))^2,1)</f>
         <v>1</v>
       </c>
+      <c r="AH131" s="38" t="str">
+        <f>IF(Table8[[#This Row],[Fabrication Type]]="Welded",IF(Table8[[#This Row],[tw]]&gt;0.016,0.016*Table8[[#This Row],[fu]],Table8[[#This Row],[tw]]*Table8[[#This Row],[fu]]),"")</f>
+        <v/>
+      </c>
+      <c r="AI131" s="13">
+        <f>Table8[[#This Row],[d]]-Table8[[#This Row],[tf]]</f>
+        <v>0.28789999999999999</v>
+      </c>
+      <c r="AJ131" s="39">
+        <f>Table8[[#This Row],[bf]]*Table8[[#This Row],[tf]]*(Table8[[#This Row],[df]]/2)</f>
+        <v>4.8894056999999999E-4</v>
+      </c>
+      <c r="AK131" s="11" t="str">
+        <f>IF(Table8[[#This Row],[Fabrication Type]]="Welded",Table8[[#This Row],[vw]]*Table8[[#This Row],[Ix]]/Table8[[#This Row],[Qflange]],"")</f>
+        <v/>
+      </c>
+      <c r="AL131" s="11">
+        <f>Table8[[#This Row],[tw]]*Table8[[#This Row],[fy]]*0.6*Table8[[#This Row],[Ix]]/Table8[[#This Row],[Qflange]]</f>
+        <v>674253.72371942876</v>
+      </c>
     </row>
-    <row r="132" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B132" s="15" t="str">
         <f>Table8[[#This Row],[Section]]&amp;"-"&amp;TEXT(Table8[[#This Row],[Grade]],"0")</f>
         <v>250UBP62.6-300HR</v>
@@ -16438,21 +19699,45 @@
         <f t="array" ref="AB132">INDEX(tbllkpSteelGrades[fy],MATCH(1,(Table8[[#This Row],[Grade]]=tbllkpSteelGrades[Grade])*(Table8[[#This Row],[tw]]&lt;=tbllkpSteelGrades[Thickness]),0))</f>
         <v>320000000</v>
       </c>
-      <c r="AC132" s="18">
+      <c r="AC132" s="17">
+        <f t="array" ref="AC132">INDEX(tbllkpSteelGrades[fu],MATCH(1,(Table8[[#This Row],[Grade]]=tbllkpSteelGrades[Grade])*(Table8[[#This Row],[tw]]&lt;=tbllkpSteelGrades[Thickness]),0))</f>
+        <v>440000000</v>
+      </c>
+      <c r="AD132" s="18">
         <f>IF(Table8[[#This Row],[Fabrication Type]]="Welded",Table8[[#This Row],[d1]],Table8[[#This Row],[d]])*Table8[[#This Row],[tw]]</f>
         <v>2.6181999999999998E-3</v>
       </c>
-      <c r="AD132" s="11">
+      <c r="AE132" s="11">
         <f>Table8[[#This Row],[Aw]]*Table8[[#This Row],[fy]]*0.6</f>
         <v>502694.39999999991</v>
       </c>
-      <c r="AE132" s="35">
+      <c r="AF132" s="35">
         <f>82/SQRT(Table8[[#This Row],[fy]]/250000000)</f>
         <v>72.478445071621124</v>
       </c>
-      <c r="AF132" s="36">
+      <c r="AG132" s="36">
         <f>IF((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])&gt;Table8[[#This Row],[limiting web slenderness]],(82/((Table8[[#This Row],[d1]]/Table8[[#This Row],[tw]])*SQRT(Table8[[#This Row],[fy]]/250000000)))^2,1)</f>
         <v>1</v>
+      </c>
+      <c r="AH132" s="38" t="str">
+        <f>IF(Table8[[#This Row],[Fabrication Type]]="Welded",IF(Table8[[#This Row],[tw]]&gt;0.016,0.016*Table8[[#This Row],[fu]],Table8[[#This Row],[tw]]*Table8[[#This Row],[fu]]),"")</f>
+        <v/>
+      </c>
+      <c r="AI132" s="13">
+        <f>Table8[[#This Row],[d]]-Table8[[#This Row],[tf]]</f>
+        <v>0.2364</v>
+      </c>
+      <c r="AJ132" s="39">
+        <f>Table8[[#This Row],[bf]]*Table8[[#This Row],[tf]]*(Table8[[#This Row],[df]]/2)</f>
+        <v>3.2074752000000001E-4</v>
+      </c>
+      <c r="AK132" s="11" t="str">
+        <f>IF(Table8[[#This Row],[Fabrication Type]]="Welded",Table8[[#This Row],[vw]]*Table8[[#This Row],[Ix]]/Table8[[#This Row],[Qflange]],"")</f>
+        <v/>
+      </c>
+      <c r="AL132" s="11">
+        <f>Table8[[#This Row],[tw]]*Table8[[#This Row],[fy]]*0.6*Table8[[#This Row],[Ix]]/Table8[[#This Row],[Qflange]]</f>
+        <v>559010.15228426398</v>
       </c>
     </row>
   </sheetData>
@@ -23733,7 +27018,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CFA7FE4-DD08-402E-BB8A-91E537E2BA7F}">
   <dimension ref="B2:E23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
